--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F36CCBA-7C2A-4463-83E0-53187D27702A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1102D068-C6D0-4BAC-B8EC-9C7D1EC1CB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="決済" sheetId="1" r:id="rId1"/>
@@ -1221,65 +1221,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1292,58 +1315,35 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3928,13 +3928,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3964,7 +3964,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="9029701"/>
+          <a:off x="0" y="9182101"/>
           <a:ext cx="6810376" cy="2838450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4010,7 +4010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5915025" y="13144500"/>
+          <a:off x="5915025" y="13325475"/>
           <a:ext cx="473127" cy="360065"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4053,7 +4053,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>18</a:t>
+            <a:t>15</a:t>
           </a:r>
           <a:endParaRPr sz="1000">
             <a:solidFill>
@@ -4562,8 +4562,8 @@
   </sheetPr>
   <dimension ref="A1:CR351"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="BA38" sqref="BA38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AJ75" sqref="AJ75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4573,94 +4573,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="134" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="133" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="131"/>
+      <c r="AU1" s="131"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="108"/>
-      <c r="BA1" s="109"/>
-      <c r="BB1" s="96" t="s">
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="131"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="97"/>
-      <c r="BD1" s="97"/>
-      <c r="BE1" s="97"/>
-      <c r="BF1" s="97"/>
-      <c r="BG1" s="97"/>
-      <c r="BH1" s="97"/>
-      <c r="BI1" s="97"/>
-      <c r="BJ1" s="98"/>
-      <c r="BK1" s="133" t="s">
+      <c r="BC1" s="107"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="107"/>
+      <c r="BF1" s="107"/>
+      <c r="BG1" s="107"/>
+      <c r="BH1" s="107"/>
+      <c r="BI1" s="107"/>
+      <c r="BJ1" s="108"/>
+      <c r="BK1" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="108"/>
-      <c r="BM1" s="108"/>
-      <c r="BN1" s="108"/>
-      <c r="BO1" s="109"/>
-      <c r="BP1" s="125" t="s">
+      <c r="BL1" s="131"/>
+      <c r="BM1" s="131"/>
+      <c r="BN1" s="131"/>
+      <c r="BO1" s="132"/>
+      <c r="BP1" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="108"/>
-      <c r="BR1" s="108"/>
-      <c r="BS1" s="108"/>
-      <c r="BT1" s="108"/>
-      <c r="BU1" s="108"/>
-      <c r="BV1" s="108"/>
-      <c r="BW1" s="108"/>
-      <c r="BX1" s="121"/>
+      <c r="BQ1" s="131"/>
+      <c r="BR1" s="131"/>
+      <c r="BS1" s="131"/>
+      <c r="BT1" s="131"/>
+      <c r="BU1" s="131"/>
+      <c r="BV1" s="131"/>
+      <c r="BW1" s="131"/>
+      <c r="BX1" s="141"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -4683,96 +4683,96 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="135" t="s">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="137" t="s">
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="98"/>
-      <c r="AW2" s="137" t="s">
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="97"/>
-      <c r="AZ2" s="97"/>
-      <c r="BA2" s="98"/>
-      <c r="BB2" s="96" t="s">
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="108"/>
+      <c r="BB2" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="BC2" s="97"/>
-      <c r="BD2" s="97"/>
-      <c r="BE2" s="97"/>
-      <c r="BF2" s="97"/>
-      <c r="BG2" s="97"/>
-      <c r="BH2" s="97"/>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="98"/>
-      <c r="BK2" s="137" t="s">
+      <c r="BC2" s="107"/>
+      <c r="BD2" s="107"/>
+      <c r="BE2" s="107"/>
+      <c r="BF2" s="107"/>
+      <c r="BG2" s="107"/>
+      <c r="BH2" s="107"/>
+      <c r="BI2" s="107"/>
+      <c r="BJ2" s="108"/>
+      <c r="BK2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="97"/>
-      <c r="BM2" s="97"/>
-      <c r="BN2" s="97"/>
-      <c r="BO2" s="98"/>
-      <c r="BP2" s="125" t="s">
+      <c r="BL2" s="107"/>
+      <c r="BM2" s="107"/>
+      <c r="BN2" s="107"/>
+      <c r="BO2" s="108"/>
+      <c r="BP2" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="BQ2" s="108"/>
-      <c r="BR2" s="108"/>
-      <c r="BS2" s="108"/>
-      <c r="BT2" s="108"/>
-      <c r="BU2" s="108"/>
-      <c r="BV2" s="108"/>
-      <c r="BW2" s="108"/>
-      <c r="BX2" s="121"/>
+      <c r="BQ2" s="131"/>
+      <c r="BR2" s="131"/>
+      <c r="BS2" s="131"/>
+      <c r="BT2" s="131"/>
+      <c r="BU2" s="131"/>
+      <c r="BV2" s="131"/>
+      <c r="BW2" s="131"/>
+      <c r="BX2" s="141"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -5031,51 +5031,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="138" t="s">
+      <c r="AM5" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="139"/>
-      <c r="AO5" s="145" t="s">
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="139"/>
-      <c r="AV5" s="145" t="s">
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="139"/>
-      <c r="BA5" s="145" t="s">
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="146"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="146"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="146"/>
-      <c r="BK5" s="146"/>
-      <c r="BL5" s="146"/>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="146"/>
-      <c r="BO5" s="146"/>
-      <c r="BP5" s="146"/>
-      <c r="BQ5" s="146"/>
-      <c r="BR5" s="146"/>
-      <c r="BS5" s="146"/>
-      <c r="BT5" s="146"/>
-      <c r="BU5" s="146"/>
-      <c r="BV5" s="146"/>
-      <c r="BW5" s="147"/>
+      <c r="BB5" s="111"/>
+      <c r="BC5" s="111"/>
+      <c r="BD5" s="111"/>
+      <c r="BE5" s="111"/>
+      <c r="BF5" s="111"/>
+      <c r="BG5" s="111"/>
+      <c r="BH5" s="111"/>
+      <c r="BI5" s="111"/>
+      <c r="BJ5" s="111"/>
+      <c r="BK5" s="111"/>
+      <c r="BL5" s="111"/>
+      <c r="BM5" s="111"/>
+      <c r="BN5" s="111"/>
+      <c r="BO5" s="111"/>
+      <c r="BP5" s="111"/>
+      <c r="BQ5" s="111"/>
+      <c r="BR5" s="111"/>
+      <c r="BS5" s="111"/>
+      <c r="BT5" s="111"/>
+      <c r="BU5" s="111"/>
+      <c r="BV5" s="111"/>
+      <c r="BW5" s="112"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -5137,43 +5137,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="140"/>
-      <c r="AN6" s="112"/>
-      <c r="AO6" s="148"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="112"/>
-      <c r="AV6" s="148"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111"/>
-      <c r="AZ6" s="112"/>
-      <c r="BA6" s="148"/>
-      <c r="BB6" s="111"/>
-      <c r="BC6" s="111"/>
-      <c r="BD6" s="111"/>
-      <c r="BE6" s="111"/>
-      <c r="BF6" s="111"/>
-      <c r="BG6" s="111"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="111"/>
-      <c r="BJ6" s="111"/>
-      <c r="BK6" s="111"/>
-      <c r="BL6" s="111"/>
-      <c r="BM6" s="111"/>
-      <c r="BN6" s="111"/>
-      <c r="BO6" s="111"/>
-      <c r="BP6" s="111"/>
-      <c r="BQ6" s="111"/>
-      <c r="BR6" s="111"/>
-      <c r="BS6" s="111"/>
-      <c r="BT6" s="111"/>
-      <c r="BU6" s="111"/>
-      <c r="BV6" s="111"/>
-      <c r="BW6" s="117"/>
+      <c r="AM6" s="149"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114"/>
+      <c r="AU6" s="133"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="114"/>
+      <c r="AX6" s="114"/>
+      <c r="AY6" s="114"/>
+      <c r="AZ6" s="133"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="114"/>
+      <c r="BF6" s="114"/>
+      <c r="BG6" s="114"/>
+      <c r="BH6" s="114"/>
+      <c r="BI6" s="114"/>
+      <c r="BJ6" s="114"/>
+      <c r="BK6" s="114"/>
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="114"/>
+      <c r="BN6" s="114"/>
+      <c r="BO6" s="114"/>
+      <c r="BP6" s="114"/>
+      <c r="BQ6" s="114"/>
+      <c r="BR6" s="114"/>
+      <c r="BS6" s="114"/>
+      <c r="BT6" s="114"/>
+      <c r="BU6" s="114"/>
+      <c r="BV6" s="114"/>
+      <c r="BW6" s="115"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -5235,10 +5235,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="99" t="s">
+      <c r="AM7" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="100"/>
+      <c r="AN7" s="129"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -5439,10 +5439,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="99" t="s">
+      <c r="AM9" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="100"/>
+      <c r="AN9" s="129"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -5643,10 +5643,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="99" t="s">
+      <c r="AM11" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="100"/>
+      <c r="AN11" s="129"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -5739,9 +5739,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -5846,10 +5846,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="99" t="s">
+      <c r="AM13" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="100"/>
+      <c r="AN13" s="129"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -6033,9 +6033,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="122"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -6142,10 +6142,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="99" t="s">
+      <c r="AM16" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="100"/>
+      <c r="AN16" s="129"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -6346,10 +6346,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="99" t="s">
+      <c r="AM18" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="100"/>
+      <c r="AN18" s="129"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -6540,19 +6540,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="102"/>
-      <c r="AF20" s="102"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="99" t="s">
+      <c r="AM20" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="100"/>
+      <c r="AN20" s="129"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -6738,9 +6738,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="142"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
+      <c r="Z22" s="136"/>
+      <c r="AA22" s="122"/>
+      <c r="AB22" s="122"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -6749,10 +6749,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="99" t="s">
+      <c r="AM22" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="100"/>
+      <c r="AN22" s="129"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -6953,10 +6953,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="99" t="s">
+      <c r="AM24" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="100"/>
+      <c r="AN24" s="129"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -7157,10 +7157,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="99" t="s">
+      <c r="AM26" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="100"/>
+      <c r="AN26" s="129"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -7253,9 +7253,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="102"/>
-      <c r="AF27" s="102"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="122"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -7360,10 +7360,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="99" t="s">
+      <c r="AM28" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="100"/>
+      <c r="AN28" s="129"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -7451,9 +7451,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="142"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="122"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -7560,10 +7560,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="99" t="s">
+      <c r="AM30" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="100"/>
+      <c r="AN30" s="129"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -7764,10 +7764,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="99" t="s">
+      <c r="AM32" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="100"/>
+      <c r="AN32" s="129"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -7968,10 +7968,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="99" t="s">
+      <c r="AM34" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="163"/>
+      <c r="AN34" s="139"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -8170,10 +8170,10 @@
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="99" t="s">
+      <c r="AM36" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="100"/>
+      <c r="AN36" s="129"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="AW36" s="4"/>
       <c r="AX36" s="4"/>
       <c r="AY36" s="4"/>
-      <c r="AZ36" s="162"/>
+      <c r="AZ36" s="104"/>
       <c r="BA36" s="21" t="s">
         <v>110</v>
       </c>
@@ -8249,39 +8249,39 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="124"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="102"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="122"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="143"/>
-      <c r="X37" s="102"/>
-      <c r="Y37" s="102"/>
-      <c r="Z37" s="102"/>
-      <c r="AA37" s="102"/>
-      <c r="AB37" s="144"/>
-      <c r="AC37" s="102"/>
-      <c r="AD37" s="102"/>
-      <c r="AE37" s="102"/>
-      <c r="AF37" s="102"/>
-      <c r="AG37" s="102"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="122"/>
+      <c r="Y37" s="122"/>
+      <c r="Z37" s="122"/>
+      <c r="AA37" s="122"/>
+      <c r="AB37" s="138"/>
+      <c r="AC37" s="122"/>
+      <c r="AD37" s="122"/>
+      <c r="AE37" s="122"/>
+      <c r="AF37" s="122"/>
+      <c r="AG37" s="122"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
-      <c r="AK37" s="159"/>
-      <c r="AL37" s="158"/>
-      <c r="AM37" s="157"/>
-      <c r="AO37" s="156"/>
-      <c r="AU37" s="161"/>
-      <c r="AV37" s="160"/>
-      <c r="AZ37" s="161"/>
-      <c r="BA37" s="164" t="s">
+      <c r="AK37" s="101"/>
+      <c r="AL37" s="100"/>
+      <c r="AM37" s="99"/>
+      <c r="AO37" s="98"/>
+      <c r="AU37" s="103"/>
+      <c r="AV37" s="102"/>
+      <c r="AZ37" s="103"/>
+      <c r="BA37" s="105" t="s">
         <v>109</v>
       </c>
       <c r="BM37" s="4"/>
@@ -8328,40 +8328,40 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="102"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="122"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="102"/>
-      <c r="X38" s="102"/>
-      <c r="Y38" s="102"/>
-      <c r="Z38" s="102"/>
-      <c r="AA38" s="102"/>
-      <c r="AB38" s="102"/>
-      <c r="AC38" s="102"/>
-      <c r="AD38" s="102"/>
-      <c r="AE38" s="102"/>
-      <c r="AF38" s="102"/>
-      <c r="AG38" s="102"/>
+      <c r="W38" s="122"/>
+      <c r="X38" s="122"/>
+      <c r="Y38" s="122"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="122"/>
+      <c r="AB38" s="122"/>
+      <c r="AC38" s="122"/>
+      <c r="AD38" s="122"/>
+      <c r="AE38" s="122"/>
+      <c r="AF38" s="122"/>
+      <c r="AG38" s="122"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
-      <c r="AK38" s="159"/>
-      <c r="AL38" s="158"/>
-      <c r="AM38" s="157"/>
-      <c r="AO38" s="156"/>
-      <c r="AU38" s="161"/>
-      <c r="AV38" s="160"/>
-      <c r="AZ38" s="161"/>
-      <c r="BA38" s="164" t="s">
+      <c r="AK38" s="101"/>
+      <c r="AL38" s="100"/>
+      <c r="AM38" s="99"/>
+      <c r="AO38" s="98"/>
+      <c r="AU38" s="103"/>
+      <c r="AV38" s="102"/>
+      <c r="AZ38" s="103"/>
+      <c r="BA38" s="105" t="s">
         <v>111</v>
       </c>
       <c r="BM38" s="4"/>
@@ -8409,31 +8409,31 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="124"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="102"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="149"/>
-      <c r="X39" s="102"/>
-      <c r="Y39" s="102"/>
-      <c r="Z39" s="102"/>
-      <c r="AA39" s="102"/>
-      <c r="AB39" s="144"/>
-      <c r="AC39" s="102"/>
-      <c r="AD39" s="102"/>
-      <c r="AE39" s="102"/>
-      <c r="AF39" s="102"/>
-      <c r="AG39" s="102"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="122"/>
+      <c r="Y39" s="122"/>
+      <c r="Z39" s="122"/>
+      <c r="AA39" s="122"/>
+      <c r="AB39" s="138"/>
+      <c r="AC39" s="122"/>
+      <c r="AD39" s="122"/>
+      <c r="AE39" s="122"/>
+      <c r="AF39" s="122"/>
+      <c r="AG39" s="122"/>
       <c r="AH39" s="4"/>
-      <c r="AI39" s="159"/>
-      <c r="AJ39" s="159"/>
+      <c r="AI39" s="101"/>
+      <c r="AJ39" s="101"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="16"/>
@@ -8444,7 +8444,7 @@
       <c r="AR39" s="4"/>
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
-      <c r="AU39" s="162"/>
+      <c r="AU39" s="104"/>
       <c r="AV39" s="4"/>
       <c r="AW39" s="4"/>
       <c r="AX39" s="4"/>
@@ -8506,38 +8506,38 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="102"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="122"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="122"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="102"/>
-      <c r="X40" s="102"/>
-      <c r="Y40" s="102"/>
-      <c r="Z40" s="102"/>
-      <c r="AA40" s="102"/>
-      <c r="AB40" s="102"/>
-      <c r="AC40" s="102"/>
-      <c r="AD40" s="102"/>
-      <c r="AE40" s="102"/>
-      <c r="AF40" s="102"/>
-      <c r="AG40" s="102"/>
+      <c r="W40" s="122"/>
+      <c r="X40" s="122"/>
+      <c r="Y40" s="122"/>
+      <c r="Z40" s="122"/>
+      <c r="AA40" s="122"/>
+      <c r="AB40" s="122"/>
+      <c r="AC40" s="122"/>
+      <c r="AD40" s="122"/>
+      <c r="AE40" s="122"/>
+      <c r="AF40" s="122"/>
+      <c r="AG40" s="122"/>
       <c r="AH40" s="4"/>
-      <c r="AI40" s="159"/>
-      <c r="AJ40" s="159"/>
+      <c r="AI40" s="101"/>
+      <c r="AJ40" s="101"/>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="99" t="s">
+      <c r="AM40" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="AN40" s="100"/>
+      <c r="AN40" s="129"/>
       <c r="AO40" s="21" t="s">
         <v>66</v>
       </c>
@@ -8613,28 +8613,28 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="124"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="102"/>
-      <c r="O41" s="102"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="102"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="122"/>
+      <c r="N41" s="122"/>
+      <c r="O41" s="122"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="122"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="122"/>
+      <c r="T41" s="122"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="150"/>
-      <c r="X41" s="102"/>
-      <c r="Y41" s="102"/>
-      <c r="Z41" s="102"/>
-      <c r="AA41" s="102"/>
-      <c r="AB41" s="144"/>
-      <c r="AC41" s="102"/>
-      <c r="AD41" s="102"/>
-      <c r="AE41" s="102"/>
-      <c r="AF41" s="102"/>
-      <c r="AG41" s="102"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="122"/>
+      <c r="Y41" s="122"/>
+      <c r="Z41" s="122"/>
+      <c r="AA41" s="122"/>
+      <c r="AB41" s="138"/>
+      <c r="AC41" s="122"/>
+      <c r="AD41" s="122"/>
+      <c r="AE41" s="122"/>
+      <c r="AF41" s="122"/>
+      <c r="AG41" s="122"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
@@ -8710,38 +8710,38 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="102"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="102"/>
-      <c r="O42" s="102"/>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="102"/>
-      <c r="T42" s="102"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
+      <c r="O42" s="122"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="122"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="102"/>
-      <c r="X42" s="102"/>
-      <c r="Y42" s="102"/>
-      <c r="Z42" s="102"/>
-      <c r="AA42" s="102"/>
-      <c r="AB42" s="102"/>
-      <c r="AC42" s="102"/>
-      <c r="AD42" s="102"/>
-      <c r="AE42" s="102"/>
-      <c r="AF42" s="102"/>
-      <c r="AG42" s="102"/>
+      <c r="W42" s="122"/>
+      <c r="X42" s="122"/>
+      <c r="Y42" s="122"/>
+      <c r="Z42" s="122"/>
+      <c r="AA42" s="122"/>
+      <c r="AB42" s="122"/>
+      <c r="AC42" s="122"/>
+      <c r="AD42" s="122"/>
+      <c r="AE42" s="122"/>
+      <c r="AF42" s="122"/>
+      <c r="AG42" s="122"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="99" t="s">
+      <c r="AM42" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="AN42" s="100"/>
+      <c r="AN42" s="129"/>
       <c r="AO42" s="21" t="s">
         <v>69</v>
       </c>
@@ -8817,28 +8817,28 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="124"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="102"/>
-      <c r="O43" s="102"/>
-      <c r="P43" s="102"/>
-      <c r="Q43" s="102"/>
-      <c r="R43" s="102"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="102"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="151"/>
-      <c r="X43" s="102"/>
-      <c r="Y43" s="102"/>
-      <c r="Z43" s="102"/>
-      <c r="AA43" s="102"/>
-      <c r="AB43" s="102"/>
-      <c r="AC43" s="102"/>
-      <c r="AD43" s="102"/>
-      <c r="AE43" s="102"/>
-      <c r="AF43" s="102"/>
-      <c r="AG43" s="102"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="122"/>
+      <c r="Y43" s="122"/>
+      <c r="Z43" s="122"/>
+      <c r="AA43" s="122"/>
+      <c r="AB43" s="122"/>
+      <c r="AC43" s="122"/>
+      <c r="AD43" s="122"/>
+      <c r="AE43" s="122"/>
+      <c r="AF43" s="122"/>
+      <c r="AG43" s="122"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -8914,39 +8914,39 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="102"/>
-      <c r="T44" s="102"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
+      <c r="O44" s="122"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="122"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="102"/>
-      <c r="X44" s="102"/>
-      <c r="Y44" s="102"/>
-      <c r="Z44" s="102"/>
-      <c r="AA44" s="102"/>
-      <c r="AB44" s="102"/>
-      <c r="AC44" s="102"/>
-      <c r="AD44" s="102"/>
-      <c r="AE44" s="102"/>
-      <c r="AF44" s="102"/>
-      <c r="AG44" s="102"/>
+      <c r="W44" s="122"/>
+      <c r="X44" s="122"/>
+      <c r="Y44" s="122"/>
+      <c r="Z44" s="122"/>
+      <c r="AA44" s="122"/>
+      <c r="AB44" s="122"/>
+      <c r="AC44" s="122"/>
+      <c r="AD44" s="122"/>
+      <c r="AE44" s="122"/>
+      <c r="AF44" s="122"/>
+      <c r="AG44" s="122"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="152" t="s">
+      <c r="AM44" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="AN44" s="153"/>
-      <c r="AO44" s="154" t="s">
+      <c r="AN44" s="164"/>
+      <c r="AO44" s="96" t="s">
         <v>102</v>
       </c>
       <c r="AP44" s="4"/>
@@ -8960,7 +8960,7 @@
       <c r="AX44" s="4"/>
       <c r="AY44" s="4"/>
       <c r="AZ44" s="37"/>
-      <c r="BA44" s="154" t="s">
+      <c r="BA44" s="96" t="s">
         <v>103</v>
       </c>
       <c r="BB44" s="4"/>
@@ -9060,7 +9060,7 @@
       <c r="AX45" s="4"/>
       <c r="AY45" s="4"/>
       <c r="AZ45" s="37"/>
-      <c r="BA45" s="154" t="s">
+      <c r="BA45" s="96" t="s">
         <v>104</v>
       </c>
       <c r="BB45" s="4"/>
@@ -9072,7 +9072,7 @@
       <c r="BH45" s="4"/>
       <c r="BI45" s="4"/>
       <c r="BJ45" s="4"/>
-      <c r="BK45" s="155" t="s">
+      <c r="BK45" s="97" t="s">
         <v>106</v>
       </c>
       <c r="BL45" s="4"/>
@@ -9148,8 +9148,8 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="99"/>
-      <c r="AN46" s="100"/>
+      <c r="AM46" s="128"/>
+      <c r="AN46" s="129"/>
       <c r="AO46" s="47"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -9344,8 +9344,8 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="99"/>
-      <c r="AN48" s="100"/>
+      <c r="AM48" s="128"/>
+      <c r="AN48" s="129"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
@@ -13075,8 +13075,8 @@
       <c r="AJ86" s="50"/>
       <c r="AK86" s="50"/>
       <c r="AL86" s="50"/>
-      <c r="AM86" s="126"/>
-      <c r="AN86" s="111"/>
+      <c r="AM86" s="154"/>
+      <c r="AN86" s="114"/>
       <c r="AO86" s="50"/>
       <c r="AP86" s="50"/>
       <c r="AQ86" s="50"/>
@@ -13135,190 +13135,190 @@
       <c r="CR86" s="4"/>
     </row>
     <row r="87" spans="1:96" ht="17.25">
-      <c r="A87" s="120" t="s">
+      <c r="A87" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="108"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="121"/>
-      <c r="F87" s="118" t="s">
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="141"/>
+      <c r="F87" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="108"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="108"/>
-      <c r="J87" s="108"/>
-      <c r="K87" s="108"/>
-      <c r="L87" s="108"/>
-      <c r="M87" s="108"/>
-      <c r="N87" s="108"/>
-      <c r="O87" s="108"/>
-      <c r="P87" s="108"/>
-      <c r="Q87" s="108"/>
-      <c r="R87" s="108"/>
-      <c r="S87" s="108"/>
-      <c r="T87" s="108"/>
-      <c r="U87" s="108"/>
-      <c r="V87" s="108"/>
-      <c r="W87" s="108"/>
-      <c r="X87" s="108"/>
-      <c r="Y87" s="108"/>
-      <c r="Z87" s="108"/>
-      <c r="AA87" s="108"/>
-      <c r="AB87" s="108"/>
-      <c r="AC87" s="108"/>
-      <c r="AD87" s="108"/>
-      <c r="AE87" s="108"/>
-      <c r="AF87" s="108"/>
-      <c r="AG87" s="108"/>
-      <c r="AH87" s="108"/>
-      <c r="AI87" s="108"/>
-      <c r="AJ87" s="108"/>
-      <c r="AK87" s="108"/>
-      <c r="AL87" s="108"/>
-      <c r="AM87" s="108"/>
-      <c r="AN87" s="108"/>
-      <c r="AO87" s="108"/>
-      <c r="AP87" s="108"/>
-      <c r="AQ87" s="108"/>
-      <c r="AR87" s="108"/>
-      <c r="AS87" s="108"/>
-      <c r="AT87" s="108"/>
-      <c r="AU87" s="108"/>
-      <c r="AV87" s="109"/>
-      <c r="AW87" s="107" t="s">
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="131"/>
+      <c r="J87" s="131"/>
+      <c r="K87" s="131"/>
+      <c r="L87" s="131"/>
+      <c r="M87" s="131"/>
+      <c r="N87" s="131"/>
+      <c r="O87" s="131"/>
+      <c r="P87" s="131"/>
+      <c r="Q87" s="131"/>
+      <c r="R87" s="131"/>
+      <c r="S87" s="131"/>
+      <c r="T87" s="131"/>
+      <c r="U87" s="131"/>
+      <c r="V87" s="131"/>
+      <c r="W87" s="131"/>
+      <c r="X87" s="131"/>
+      <c r="Y87" s="131"/>
+      <c r="Z87" s="131"/>
+      <c r="AA87" s="131"/>
+      <c r="AB87" s="131"/>
+      <c r="AC87" s="131"/>
+      <c r="AD87" s="131"/>
+      <c r="AE87" s="131"/>
+      <c r="AF87" s="131"/>
+      <c r="AG87" s="131"/>
+      <c r="AH87" s="131"/>
+      <c r="AI87" s="131"/>
+      <c r="AJ87" s="131"/>
+      <c r="AK87" s="131"/>
+      <c r="AL87" s="131"/>
+      <c r="AM87" s="131"/>
+      <c r="AN87" s="131"/>
+      <c r="AO87" s="131"/>
+      <c r="AP87" s="131"/>
+      <c r="AQ87" s="131"/>
+      <c r="AR87" s="131"/>
+      <c r="AS87" s="131"/>
+      <c r="AT87" s="131"/>
+      <c r="AU87" s="131"/>
+      <c r="AV87" s="132"/>
+      <c r="AW87" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AX87" s="108"/>
-      <c r="AY87" s="108"/>
-      <c r="AZ87" s="108"/>
-      <c r="BA87" s="109"/>
-      <c r="BB87" s="96" t="s">
+      <c r="AX87" s="131"/>
+      <c r="AY87" s="131"/>
+      <c r="AZ87" s="131"/>
+      <c r="BA87" s="132"/>
+      <c r="BB87" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="BC87" s="97"/>
-      <c r="BD87" s="97"/>
-      <c r="BE87" s="97"/>
-      <c r="BF87" s="97"/>
-      <c r="BG87" s="97"/>
-      <c r="BH87" s="97"/>
-      <c r="BI87" s="97"/>
-      <c r="BJ87" s="98"/>
-      <c r="BK87" s="107" t="s">
+      <c r="BC87" s="107"/>
+      <c r="BD87" s="107"/>
+      <c r="BE87" s="107"/>
+      <c r="BF87" s="107"/>
+      <c r="BG87" s="107"/>
+      <c r="BH87" s="107"/>
+      <c r="BI87" s="107"/>
+      <c r="BJ87" s="108"/>
+      <c r="BK87" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="BL87" s="108"/>
-      <c r="BM87" s="108"/>
-      <c r="BN87" s="108"/>
-      <c r="BO87" s="109"/>
-      <c r="BP87" s="125" t="s">
+      <c r="BL87" s="131"/>
+      <c r="BM87" s="131"/>
+      <c r="BN87" s="131"/>
+      <c r="BO87" s="132"/>
+      <c r="BP87" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ87" s="108"/>
-      <c r="BR87" s="108"/>
-      <c r="BS87" s="108"/>
-      <c r="BT87" s="108"/>
-      <c r="BU87" s="108"/>
-      <c r="BV87" s="108"/>
-      <c r="BW87" s="108"/>
-      <c r="BX87" s="121"/>
+      <c r="BQ87" s="131"/>
+      <c r="BR87" s="131"/>
+      <c r="BS87" s="131"/>
+      <c r="BT87" s="131"/>
+      <c r="BU87" s="131"/>
+      <c r="BV87" s="131"/>
+      <c r="BW87" s="131"/>
+      <c r="BX87" s="141"/>
       <c r="BY87" s="54"/>
       <c r="BZ87" s="54"/>
     </row>
     <row r="88" spans="1:96" ht="18">
-      <c r="A88" s="122" t="s">
+      <c r="A88" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="105"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="105"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="119" t="s">
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="152"/>
+      <c r="F88" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="105"/>
-      <c r="H88" s="105"/>
-      <c r="I88" s="105"/>
-      <c r="J88" s="105"/>
-      <c r="K88" s="105"/>
-      <c r="L88" s="105"/>
-      <c r="M88" s="105"/>
-      <c r="N88" s="105"/>
-      <c r="O88" s="105"/>
-      <c r="P88" s="105"/>
-      <c r="Q88" s="105"/>
-      <c r="R88" s="105"/>
-      <c r="S88" s="105"/>
-      <c r="T88" s="105"/>
-      <c r="U88" s="105"/>
-      <c r="V88" s="105"/>
-      <c r="W88" s="105"/>
-      <c r="X88" s="105"/>
-      <c r="Y88" s="106"/>
-      <c r="Z88" s="104" t="s">
+      <c r="G88" s="117"/>
+      <c r="H88" s="117"/>
+      <c r="I88" s="117"/>
+      <c r="J88" s="117"/>
+      <c r="K88" s="117"/>
+      <c r="L88" s="117"/>
+      <c r="M88" s="117"/>
+      <c r="N88" s="117"/>
+      <c r="O88" s="117"/>
+      <c r="P88" s="117"/>
+      <c r="Q88" s="117"/>
+      <c r="R88" s="117"/>
+      <c r="S88" s="117"/>
+      <c r="T88" s="117"/>
+      <c r="U88" s="117"/>
+      <c r="V88" s="117"/>
+      <c r="W88" s="117"/>
+      <c r="X88" s="117"/>
+      <c r="Y88" s="119"/>
+      <c r="Z88" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="AA88" s="105"/>
-      <c r="AB88" s="105"/>
-      <c r="AC88" s="105"/>
-      <c r="AD88" s="106"/>
-      <c r="AE88" s="119" t="s">
+      <c r="AA88" s="117"/>
+      <c r="AB88" s="117"/>
+      <c r="AC88" s="117"/>
+      <c r="AD88" s="119"/>
+      <c r="AE88" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="AF88" s="105"/>
-      <c r="AG88" s="105"/>
-      <c r="AH88" s="105"/>
-      <c r="AI88" s="105"/>
-      <c r="AJ88" s="105"/>
-      <c r="AK88" s="105"/>
-      <c r="AL88" s="105"/>
-      <c r="AM88" s="105"/>
-      <c r="AN88" s="105"/>
-      <c r="AO88" s="105"/>
-      <c r="AP88" s="105"/>
-      <c r="AQ88" s="105"/>
-      <c r="AR88" s="105"/>
-      <c r="AS88" s="105"/>
-      <c r="AT88" s="105"/>
-      <c r="AU88" s="105"/>
-      <c r="AV88" s="106"/>
-      <c r="AW88" s="104" t="s">
+      <c r="AF88" s="117"/>
+      <c r="AG88" s="117"/>
+      <c r="AH88" s="117"/>
+      <c r="AI88" s="117"/>
+      <c r="AJ88" s="117"/>
+      <c r="AK88" s="117"/>
+      <c r="AL88" s="117"/>
+      <c r="AM88" s="117"/>
+      <c r="AN88" s="117"/>
+      <c r="AO88" s="117"/>
+      <c r="AP88" s="117"/>
+      <c r="AQ88" s="117"/>
+      <c r="AR88" s="117"/>
+      <c r="AS88" s="117"/>
+      <c r="AT88" s="117"/>
+      <c r="AU88" s="117"/>
+      <c r="AV88" s="119"/>
+      <c r="AW88" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AX88" s="105"/>
-      <c r="AY88" s="105"/>
-      <c r="AZ88" s="105"/>
-      <c r="BA88" s="106"/>
-      <c r="BB88" s="113" t="s">
+      <c r="AX88" s="117"/>
+      <c r="AY88" s="117"/>
+      <c r="AZ88" s="117"/>
+      <c r="BA88" s="119"/>
+      <c r="BB88" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="BC88" s="105"/>
-      <c r="BD88" s="105"/>
-      <c r="BE88" s="105"/>
-      <c r="BF88" s="105"/>
-      <c r="BG88" s="105"/>
-      <c r="BH88" s="105"/>
-      <c r="BI88" s="105"/>
-      <c r="BJ88" s="105"/>
-      <c r="BK88" s="104" t="s">
+      <c r="BC88" s="117"/>
+      <c r="BD88" s="117"/>
+      <c r="BE88" s="117"/>
+      <c r="BF88" s="117"/>
+      <c r="BG88" s="117"/>
+      <c r="BH88" s="117"/>
+      <c r="BI88" s="117"/>
+      <c r="BJ88" s="117"/>
+      <c r="BK88" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="BL88" s="105"/>
-      <c r="BM88" s="105"/>
-      <c r="BN88" s="105"/>
-      <c r="BO88" s="106"/>
-      <c r="BP88" s="125" t="s">
+      <c r="BL88" s="117"/>
+      <c r="BM88" s="117"/>
+      <c r="BN88" s="117"/>
+      <c r="BO88" s="119"/>
+      <c r="BP88" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ88" s="108"/>
-      <c r="BR88" s="108"/>
-      <c r="BS88" s="108"/>
-      <c r="BT88" s="108"/>
-      <c r="BU88" s="108"/>
-      <c r="BV88" s="108"/>
-      <c r="BW88" s="108"/>
-      <c r="BX88" s="121"/>
+      <c r="BQ88" s="131"/>
+      <c r="BR88" s="131"/>
+      <c r="BS88" s="131"/>
+      <c r="BT88" s="131"/>
+      <c r="BU88" s="131"/>
+      <c r="BV88" s="131"/>
+      <c r="BW88" s="131"/>
+      <c r="BX88" s="141"/>
       <c r="BY88" s="54"/>
       <c r="BZ88" s="54"/>
     </row>
@@ -13523,51 +13523,51 @@
       <c r="AJ91" s="33"/>
       <c r="AK91" s="33"/>
       <c r="AL91" s="55"/>
-      <c r="AM91" s="110" t="s">
+      <c r="AM91" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AN91" s="116"/>
-      <c r="AO91" s="110" t="s">
+      <c r="AN91" s="127"/>
+      <c r="AO91" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AP91" s="102"/>
-      <c r="AQ91" s="102"/>
-      <c r="AR91" s="102"/>
-      <c r="AS91" s="102"/>
-      <c r="AT91" s="102"/>
-      <c r="AU91" s="100"/>
-      <c r="AV91" s="110" t="s">
+      <c r="AP91" s="122"/>
+      <c r="AQ91" s="122"/>
+      <c r="AR91" s="122"/>
+      <c r="AS91" s="122"/>
+      <c r="AT91" s="122"/>
+      <c r="AU91" s="129"/>
+      <c r="AV91" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AW91" s="102"/>
-      <c r="AX91" s="102"/>
-      <c r="AY91" s="102"/>
-      <c r="AZ91" s="100"/>
-      <c r="BA91" s="110" t="s">
+      <c r="AW91" s="122"/>
+      <c r="AX91" s="122"/>
+      <c r="AY91" s="122"/>
+      <c r="AZ91" s="129"/>
+      <c r="BA91" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="BB91" s="102"/>
-      <c r="BC91" s="102"/>
-      <c r="BD91" s="102"/>
-      <c r="BE91" s="102"/>
-      <c r="BF91" s="102"/>
-      <c r="BG91" s="102"/>
-      <c r="BH91" s="102"/>
-      <c r="BI91" s="102"/>
-      <c r="BJ91" s="102"/>
-      <c r="BK91" s="102"/>
-      <c r="BL91" s="102"/>
-      <c r="BM91" s="102"/>
-      <c r="BN91" s="102"/>
-      <c r="BO91" s="102"/>
-      <c r="BP91" s="102"/>
-      <c r="BQ91" s="102"/>
-      <c r="BR91" s="102"/>
-      <c r="BS91" s="102"/>
-      <c r="BT91" s="102"/>
-      <c r="BU91" s="102"/>
-      <c r="BV91" s="102"/>
-      <c r="BW91" s="116"/>
+      <c r="BB91" s="122"/>
+      <c r="BC91" s="122"/>
+      <c r="BD91" s="122"/>
+      <c r="BE91" s="122"/>
+      <c r="BF91" s="122"/>
+      <c r="BG91" s="122"/>
+      <c r="BH91" s="122"/>
+      <c r="BI91" s="122"/>
+      <c r="BJ91" s="122"/>
+      <c r="BK91" s="122"/>
+      <c r="BL91" s="122"/>
+      <c r="BM91" s="122"/>
+      <c r="BN91" s="122"/>
+      <c r="BO91" s="122"/>
+      <c r="BP91" s="122"/>
+      <c r="BQ91" s="122"/>
+      <c r="BR91" s="122"/>
+      <c r="BS91" s="122"/>
+      <c r="BT91" s="122"/>
+      <c r="BU91" s="122"/>
+      <c r="BV91" s="122"/>
+      <c r="BW91" s="127"/>
       <c r="BX91" s="55"/>
       <c r="BY91" s="33"/>
       <c r="BZ91" s="33"/>
@@ -13575,14 +13575,14 @@
     <row r="92" spans="1:96" ht="13.5">
       <c r="A92" s="45"/>
       <c r="B92" s="57"/>
-      <c r="C92" s="127" t="s">
+      <c r="C92" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="128"/>
-      <c r="E92" s="128"/>
-      <c r="F92" s="128"/>
-      <c r="G92" s="128"/>
-      <c r="H92" s="128"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="156"/>
+      <c r="F92" s="156"/>
+      <c r="G92" s="156"/>
+      <c r="H92" s="156"/>
       <c r="I92" s="58"/>
       <c r="J92" s="58"/>
       <c r="K92" s="58"/>
@@ -13613,43 +13613,43 @@
       <c r="AJ92" s="33"/>
       <c r="AK92" s="33"/>
       <c r="AL92" s="55"/>
-      <c r="AM92" s="111"/>
-      <c r="AN92" s="117"/>
-      <c r="AO92" s="111"/>
-      <c r="AP92" s="111"/>
-      <c r="AQ92" s="111"/>
-      <c r="AR92" s="111"/>
-      <c r="AS92" s="111"/>
-      <c r="AT92" s="111"/>
-      <c r="AU92" s="112"/>
-      <c r="AV92" s="111"/>
-      <c r="AW92" s="111"/>
-      <c r="AX92" s="111"/>
-      <c r="AY92" s="111"/>
-      <c r="AZ92" s="112"/>
-      <c r="BA92" s="111"/>
-      <c r="BB92" s="111"/>
-      <c r="BC92" s="111"/>
-      <c r="BD92" s="111"/>
-      <c r="BE92" s="111"/>
-      <c r="BF92" s="111"/>
-      <c r="BG92" s="111"/>
-      <c r="BH92" s="111"/>
-      <c r="BI92" s="111"/>
-      <c r="BJ92" s="111"/>
-      <c r="BK92" s="111"/>
-      <c r="BL92" s="111"/>
-      <c r="BM92" s="111"/>
-      <c r="BN92" s="111"/>
-      <c r="BO92" s="111"/>
-      <c r="BP92" s="111"/>
-      <c r="BQ92" s="111"/>
-      <c r="BR92" s="111"/>
-      <c r="BS92" s="111"/>
-      <c r="BT92" s="111"/>
-      <c r="BU92" s="111"/>
-      <c r="BV92" s="111"/>
-      <c r="BW92" s="117"/>
+      <c r="AM92" s="114"/>
+      <c r="AN92" s="115"/>
+      <c r="AO92" s="114"/>
+      <c r="AP92" s="114"/>
+      <c r="AQ92" s="114"/>
+      <c r="AR92" s="114"/>
+      <c r="AS92" s="114"/>
+      <c r="AT92" s="114"/>
+      <c r="AU92" s="133"/>
+      <c r="AV92" s="114"/>
+      <c r="AW92" s="114"/>
+      <c r="AX92" s="114"/>
+      <c r="AY92" s="114"/>
+      <c r="AZ92" s="133"/>
+      <c r="BA92" s="114"/>
+      <c r="BB92" s="114"/>
+      <c r="BC92" s="114"/>
+      <c r="BD92" s="114"/>
+      <c r="BE92" s="114"/>
+      <c r="BF92" s="114"/>
+      <c r="BG92" s="114"/>
+      <c r="BH92" s="114"/>
+      <c r="BI92" s="114"/>
+      <c r="BJ92" s="114"/>
+      <c r="BK92" s="114"/>
+      <c r="BL92" s="114"/>
+      <c r="BM92" s="114"/>
+      <c r="BN92" s="114"/>
+      <c r="BO92" s="114"/>
+      <c r="BP92" s="114"/>
+      <c r="BQ92" s="114"/>
+      <c r="BR92" s="114"/>
+      <c r="BS92" s="114"/>
+      <c r="BT92" s="114"/>
+      <c r="BU92" s="114"/>
+      <c r="BV92" s="114"/>
+      <c r="BW92" s="115"/>
       <c r="BX92" s="55"/>
       <c r="BY92" s="33"/>
       <c r="BZ92" s="33"/>
@@ -13657,12 +13657,12 @@
     <row r="93" spans="1:96">
       <c r="A93" s="45"/>
       <c r="B93" s="60"/>
-      <c r="C93" s="102"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="102"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="122"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="122"/>
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
       <c r="K93" s="33"/>
@@ -13693,10 +13693,10 @@
       <c r="AJ93" s="33"/>
       <c r="AK93" s="33"/>
       <c r="AL93" s="55"/>
-      <c r="AM93" s="99" t="s">
+      <c r="AM93" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="AN93" s="100"/>
+      <c r="AN93" s="129"/>
       <c r="AO93" s="61" t="s">
         <v>76</v>
       </c>
@@ -13863,10 +13863,10 @@
       <c r="AJ95" s="33"/>
       <c r="AK95" s="33"/>
       <c r="AL95" s="55"/>
-      <c r="AM95" s="103">
+      <c r="AM95" s="142">
         <v>2</v>
       </c>
-      <c r="AN95" s="102"/>
+      <c r="AN95" s="122"/>
       <c r="AO95" s="66" t="s">
         <v>79</v>
       </c>
@@ -14097,10 +14097,10 @@
       <c r="AJ98" s="33"/>
       <c r="AK98" s="33"/>
       <c r="AL98" s="55"/>
-      <c r="AM98" s="101" t="s">
+      <c r="AM98" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="AN98" s="102"/>
+      <c r="AN98" s="122"/>
       <c r="AO98" s="68" t="s">
         <v>83</v>
       </c>
@@ -14153,16 +14153,16 @@
       <c r="D99" s="33"/>
       <c r="E99" s="33"/>
       <c r="F99" s="33"/>
-      <c r="G99" s="129" t="s">
+      <c r="G99" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="H99" s="128"/>
-      <c r="I99" s="128"/>
-      <c r="J99" s="128"/>
-      <c r="K99" s="128"/>
-      <c r="L99" s="128"/>
-      <c r="M99" s="128"/>
-      <c r="N99" s="130"/>
+      <c r="H99" s="156"/>
+      <c r="I99" s="156"/>
+      <c r="J99" s="156"/>
+      <c r="K99" s="156"/>
+      <c r="L99" s="156"/>
+      <c r="M99" s="156"/>
+      <c r="N99" s="158"/>
       <c r="O99" s="33"/>
       <c r="P99" s="33"/>
       <c r="Q99" s="33"/>
@@ -14235,14 +14235,14 @@
       <c r="D100" s="33"/>
       <c r="E100" s="33"/>
       <c r="F100" s="33"/>
-      <c r="G100" s="131"/>
-      <c r="H100" s="105"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="105"/>
-      <c r="K100" s="105"/>
-      <c r="L100" s="105"/>
-      <c r="M100" s="105"/>
-      <c r="N100" s="106"/>
+      <c r="G100" s="159"/>
+      <c r="H100" s="117"/>
+      <c r="I100" s="117"/>
+      <c r="J100" s="117"/>
+      <c r="K100" s="117"/>
+      <c r="L100" s="117"/>
+      <c r="M100" s="117"/>
+      <c r="N100" s="119"/>
       <c r="O100" s="33"/>
       <c r="P100" s="33"/>
       <c r="Q100" s="33"/>
@@ -17429,190 +17429,190 @@
       <c r="BZ139" s="33"/>
     </row>
     <row r="140" spans="1:78" ht="17.25">
-      <c r="A140" s="120" t="s">
+      <c r="A140" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="108"/>
-      <c r="C140" s="108"/>
-      <c r="D140" s="108"/>
-      <c r="E140" s="121"/>
-      <c r="F140" s="118" t="s">
+      <c r="B140" s="131"/>
+      <c r="C140" s="131"/>
+      <c r="D140" s="131"/>
+      <c r="E140" s="141"/>
+      <c r="F140" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="108"/>
-      <c r="H140" s="108"/>
-      <c r="I140" s="108"/>
-      <c r="J140" s="108"/>
-      <c r="K140" s="108"/>
-      <c r="L140" s="108"/>
-      <c r="M140" s="108"/>
-      <c r="N140" s="108"/>
-      <c r="O140" s="108"/>
-      <c r="P140" s="108"/>
-      <c r="Q140" s="108"/>
-      <c r="R140" s="108"/>
-      <c r="S140" s="108"/>
-      <c r="T140" s="108"/>
-      <c r="U140" s="108"/>
-      <c r="V140" s="108"/>
-      <c r="W140" s="108"/>
-      <c r="X140" s="108"/>
-      <c r="Y140" s="108"/>
-      <c r="Z140" s="108"/>
-      <c r="AA140" s="108"/>
-      <c r="AB140" s="108"/>
-      <c r="AC140" s="108"/>
-      <c r="AD140" s="108"/>
-      <c r="AE140" s="108"/>
-      <c r="AF140" s="108"/>
-      <c r="AG140" s="108"/>
-      <c r="AH140" s="108"/>
-      <c r="AI140" s="108"/>
-      <c r="AJ140" s="108"/>
-      <c r="AK140" s="108"/>
-      <c r="AL140" s="108"/>
-      <c r="AM140" s="108"/>
-      <c r="AN140" s="108"/>
-      <c r="AO140" s="108"/>
-      <c r="AP140" s="108"/>
-      <c r="AQ140" s="108"/>
-      <c r="AR140" s="108"/>
-      <c r="AS140" s="108"/>
-      <c r="AT140" s="108"/>
-      <c r="AU140" s="108"/>
-      <c r="AV140" s="109"/>
-      <c r="AW140" s="107" t="s">
+      <c r="G140" s="131"/>
+      <c r="H140" s="131"/>
+      <c r="I140" s="131"/>
+      <c r="J140" s="131"/>
+      <c r="K140" s="131"/>
+      <c r="L140" s="131"/>
+      <c r="M140" s="131"/>
+      <c r="N140" s="131"/>
+      <c r="O140" s="131"/>
+      <c r="P140" s="131"/>
+      <c r="Q140" s="131"/>
+      <c r="R140" s="131"/>
+      <c r="S140" s="131"/>
+      <c r="T140" s="131"/>
+      <c r="U140" s="131"/>
+      <c r="V140" s="131"/>
+      <c r="W140" s="131"/>
+      <c r="X140" s="131"/>
+      <c r="Y140" s="131"/>
+      <c r="Z140" s="131"/>
+      <c r="AA140" s="131"/>
+      <c r="AB140" s="131"/>
+      <c r="AC140" s="131"/>
+      <c r="AD140" s="131"/>
+      <c r="AE140" s="131"/>
+      <c r="AF140" s="131"/>
+      <c r="AG140" s="131"/>
+      <c r="AH140" s="131"/>
+      <c r="AI140" s="131"/>
+      <c r="AJ140" s="131"/>
+      <c r="AK140" s="131"/>
+      <c r="AL140" s="131"/>
+      <c r="AM140" s="131"/>
+      <c r="AN140" s="131"/>
+      <c r="AO140" s="131"/>
+      <c r="AP140" s="131"/>
+      <c r="AQ140" s="131"/>
+      <c r="AR140" s="131"/>
+      <c r="AS140" s="131"/>
+      <c r="AT140" s="131"/>
+      <c r="AU140" s="131"/>
+      <c r="AV140" s="132"/>
+      <c r="AW140" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AX140" s="108"/>
-      <c r="AY140" s="108"/>
-      <c r="AZ140" s="108"/>
-      <c r="BA140" s="109"/>
-      <c r="BB140" s="96" t="s">
+      <c r="AX140" s="131"/>
+      <c r="AY140" s="131"/>
+      <c r="AZ140" s="131"/>
+      <c r="BA140" s="132"/>
+      <c r="BB140" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="BC140" s="97"/>
-      <c r="BD140" s="97"/>
-      <c r="BE140" s="97"/>
-      <c r="BF140" s="97"/>
-      <c r="BG140" s="97"/>
-      <c r="BH140" s="97"/>
-      <c r="BI140" s="97"/>
-      <c r="BJ140" s="98"/>
-      <c r="BK140" s="107" t="s">
+      <c r="BC140" s="107"/>
+      <c r="BD140" s="107"/>
+      <c r="BE140" s="107"/>
+      <c r="BF140" s="107"/>
+      <c r="BG140" s="107"/>
+      <c r="BH140" s="107"/>
+      <c r="BI140" s="107"/>
+      <c r="BJ140" s="108"/>
+      <c r="BK140" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="BL140" s="108"/>
-      <c r="BM140" s="108"/>
-      <c r="BN140" s="108"/>
-      <c r="BO140" s="109"/>
-      <c r="BP140" s="125" t="s">
+      <c r="BL140" s="131"/>
+      <c r="BM140" s="131"/>
+      <c r="BN140" s="131"/>
+      <c r="BO140" s="132"/>
+      <c r="BP140" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ140" s="108"/>
-      <c r="BR140" s="108"/>
-      <c r="BS140" s="108"/>
-      <c r="BT140" s="108"/>
-      <c r="BU140" s="108"/>
-      <c r="BV140" s="108"/>
-      <c r="BW140" s="108"/>
-      <c r="BX140" s="121"/>
+      <c r="BQ140" s="131"/>
+      <c r="BR140" s="131"/>
+      <c r="BS140" s="131"/>
+      <c r="BT140" s="131"/>
+      <c r="BU140" s="131"/>
+      <c r="BV140" s="131"/>
+      <c r="BW140" s="131"/>
+      <c r="BX140" s="141"/>
       <c r="BY140" s="54"/>
       <c r="BZ140" s="54"/>
     </row>
     <row r="141" spans="1:78" ht="18">
-      <c r="A141" s="122" t="s">
+      <c r="A141" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="105"/>
-      <c r="C141" s="105"/>
-      <c r="D141" s="105"/>
-      <c r="E141" s="123"/>
-      <c r="F141" s="119" t="s">
+      <c r="B141" s="117"/>
+      <c r="C141" s="117"/>
+      <c r="D141" s="117"/>
+      <c r="E141" s="152"/>
+      <c r="F141" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="G141" s="105"/>
-      <c r="H141" s="105"/>
-      <c r="I141" s="105"/>
-      <c r="J141" s="105"/>
-      <c r="K141" s="105"/>
-      <c r="L141" s="105"/>
-      <c r="M141" s="105"/>
-      <c r="N141" s="105"/>
-      <c r="O141" s="105"/>
-      <c r="P141" s="105"/>
-      <c r="Q141" s="105"/>
-      <c r="R141" s="105"/>
-      <c r="S141" s="105"/>
-      <c r="T141" s="105"/>
-      <c r="U141" s="105"/>
-      <c r="V141" s="105"/>
-      <c r="W141" s="105"/>
-      <c r="X141" s="105"/>
-      <c r="Y141" s="106"/>
-      <c r="Z141" s="104" t="s">
+      <c r="G141" s="117"/>
+      <c r="H141" s="117"/>
+      <c r="I141" s="117"/>
+      <c r="J141" s="117"/>
+      <c r="K141" s="117"/>
+      <c r="L141" s="117"/>
+      <c r="M141" s="117"/>
+      <c r="N141" s="117"/>
+      <c r="O141" s="117"/>
+      <c r="P141" s="117"/>
+      <c r="Q141" s="117"/>
+      <c r="R141" s="117"/>
+      <c r="S141" s="117"/>
+      <c r="T141" s="117"/>
+      <c r="U141" s="117"/>
+      <c r="V141" s="117"/>
+      <c r="W141" s="117"/>
+      <c r="X141" s="117"/>
+      <c r="Y141" s="119"/>
+      <c r="Z141" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="AA141" s="105"/>
-      <c r="AB141" s="105"/>
-      <c r="AC141" s="105"/>
-      <c r="AD141" s="106"/>
-      <c r="AE141" s="119" t="s">
+      <c r="AA141" s="117"/>
+      <c r="AB141" s="117"/>
+      <c r="AC141" s="117"/>
+      <c r="AD141" s="119"/>
+      <c r="AE141" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="AF141" s="105"/>
-      <c r="AG141" s="105"/>
-      <c r="AH141" s="105"/>
-      <c r="AI141" s="105"/>
-      <c r="AJ141" s="105"/>
-      <c r="AK141" s="105"/>
-      <c r="AL141" s="105"/>
-      <c r="AM141" s="105"/>
-      <c r="AN141" s="105"/>
-      <c r="AO141" s="105"/>
-      <c r="AP141" s="105"/>
-      <c r="AQ141" s="105"/>
-      <c r="AR141" s="105"/>
-      <c r="AS141" s="105"/>
-      <c r="AT141" s="105"/>
-      <c r="AU141" s="105"/>
-      <c r="AV141" s="106"/>
-      <c r="AW141" s="104" t="s">
+      <c r="AF141" s="117"/>
+      <c r="AG141" s="117"/>
+      <c r="AH141" s="117"/>
+      <c r="AI141" s="117"/>
+      <c r="AJ141" s="117"/>
+      <c r="AK141" s="117"/>
+      <c r="AL141" s="117"/>
+      <c r="AM141" s="117"/>
+      <c r="AN141" s="117"/>
+      <c r="AO141" s="117"/>
+      <c r="AP141" s="117"/>
+      <c r="AQ141" s="117"/>
+      <c r="AR141" s="117"/>
+      <c r="AS141" s="117"/>
+      <c r="AT141" s="117"/>
+      <c r="AU141" s="117"/>
+      <c r="AV141" s="119"/>
+      <c r="AW141" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AX141" s="105"/>
-      <c r="AY141" s="105"/>
-      <c r="AZ141" s="105"/>
-      <c r="BA141" s="106"/>
-      <c r="BB141" s="113" t="s">
+      <c r="AX141" s="117"/>
+      <c r="AY141" s="117"/>
+      <c r="AZ141" s="117"/>
+      <c r="BA141" s="119"/>
+      <c r="BB141" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="BC141" s="105"/>
-      <c r="BD141" s="105"/>
-      <c r="BE141" s="105"/>
-      <c r="BF141" s="105"/>
-      <c r="BG141" s="105"/>
-      <c r="BH141" s="105"/>
-      <c r="BI141" s="105"/>
-      <c r="BJ141" s="105"/>
-      <c r="BK141" s="104" t="s">
+      <c r="BC141" s="117"/>
+      <c r="BD141" s="117"/>
+      <c r="BE141" s="117"/>
+      <c r="BF141" s="117"/>
+      <c r="BG141" s="117"/>
+      <c r="BH141" s="117"/>
+      <c r="BI141" s="117"/>
+      <c r="BJ141" s="117"/>
+      <c r="BK141" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="BL141" s="105"/>
-      <c r="BM141" s="105"/>
-      <c r="BN141" s="105"/>
-      <c r="BO141" s="106"/>
-      <c r="BP141" s="125" t="s">
+      <c r="BL141" s="117"/>
+      <c r="BM141" s="117"/>
+      <c r="BN141" s="117"/>
+      <c r="BO141" s="119"/>
+      <c r="BP141" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ141" s="108"/>
-      <c r="BR141" s="108"/>
-      <c r="BS141" s="108"/>
-      <c r="BT141" s="108"/>
-      <c r="BU141" s="108"/>
-      <c r="BV141" s="108"/>
-      <c r="BW141" s="108"/>
-      <c r="BX141" s="121"/>
+      <c r="BQ141" s="131"/>
+      <c r="BR141" s="131"/>
+      <c r="BS141" s="131"/>
+      <c r="BT141" s="131"/>
+      <c r="BU141" s="131"/>
+      <c r="BV141" s="131"/>
+      <c r="BW141" s="131"/>
+      <c r="BX141" s="141"/>
       <c r="BY141" s="54"/>
       <c r="BZ141" s="54"/>
     </row>
@@ -17817,51 +17817,51 @@
       <c r="AJ144" s="4"/>
       <c r="AK144" s="4"/>
       <c r="AL144" s="55"/>
-      <c r="AM144" s="110" t="s">
+      <c r="AM144" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AN144" s="116"/>
-      <c r="AO144" s="110" t="s">
+      <c r="AN144" s="127"/>
+      <c r="AO144" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AP144" s="102"/>
-      <c r="AQ144" s="102"/>
-      <c r="AR144" s="102"/>
-      <c r="AS144" s="102"/>
-      <c r="AT144" s="102"/>
-      <c r="AU144" s="100"/>
-      <c r="AV144" s="110" t="s">
+      <c r="AP144" s="122"/>
+      <c r="AQ144" s="122"/>
+      <c r="AR144" s="122"/>
+      <c r="AS144" s="122"/>
+      <c r="AT144" s="122"/>
+      <c r="AU144" s="129"/>
+      <c r="AV144" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AW144" s="102"/>
-      <c r="AX144" s="102"/>
-      <c r="AY144" s="102"/>
-      <c r="AZ144" s="100"/>
-      <c r="BA144" s="110" t="s">
+      <c r="AW144" s="122"/>
+      <c r="AX144" s="122"/>
+      <c r="AY144" s="122"/>
+      <c r="AZ144" s="129"/>
+      <c r="BA144" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="BB144" s="102"/>
-      <c r="BC144" s="102"/>
-      <c r="BD144" s="102"/>
-      <c r="BE144" s="102"/>
-      <c r="BF144" s="102"/>
-      <c r="BG144" s="102"/>
-      <c r="BH144" s="102"/>
-      <c r="BI144" s="102"/>
-      <c r="BJ144" s="102"/>
-      <c r="BK144" s="102"/>
-      <c r="BL144" s="102"/>
-      <c r="BM144" s="102"/>
-      <c r="BN144" s="102"/>
-      <c r="BO144" s="102"/>
-      <c r="BP144" s="102"/>
-      <c r="BQ144" s="102"/>
-      <c r="BR144" s="102"/>
-      <c r="BS144" s="102"/>
-      <c r="BT144" s="102"/>
-      <c r="BU144" s="102"/>
-      <c r="BV144" s="102"/>
-      <c r="BW144" s="116"/>
+      <c r="BB144" s="122"/>
+      <c r="BC144" s="122"/>
+      <c r="BD144" s="122"/>
+      <c r="BE144" s="122"/>
+      <c r="BF144" s="122"/>
+      <c r="BG144" s="122"/>
+      <c r="BH144" s="122"/>
+      <c r="BI144" s="122"/>
+      <c r="BJ144" s="122"/>
+      <c r="BK144" s="122"/>
+      <c r="BL144" s="122"/>
+      <c r="BM144" s="122"/>
+      <c r="BN144" s="122"/>
+      <c r="BO144" s="122"/>
+      <c r="BP144" s="122"/>
+      <c r="BQ144" s="122"/>
+      <c r="BR144" s="122"/>
+      <c r="BS144" s="122"/>
+      <c r="BT144" s="122"/>
+      <c r="BU144" s="122"/>
+      <c r="BV144" s="122"/>
+      <c r="BW144" s="127"/>
       <c r="BX144" s="55"/>
       <c r="BY144" s="4"/>
       <c r="BZ144" s="4"/>
@@ -17905,43 +17905,43 @@
       <c r="AJ145" s="4"/>
       <c r="AK145" s="4"/>
       <c r="AL145" s="55"/>
-      <c r="AM145" s="111"/>
-      <c r="AN145" s="117"/>
-      <c r="AO145" s="111"/>
-      <c r="AP145" s="111"/>
-      <c r="AQ145" s="111"/>
-      <c r="AR145" s="111"/>
-      <c r="AS145" s="111"/>
-      <c r="AT145" s="111"/>
-      <c r="AU145" s="112"/>
-      <c r="AV145" s="111"/>
-      <c r="AW145" s="111"/>
-      <c r="AX145" s="111"/>
-      <c r="AY145" s="111"/>
-      <c r="AZ145" s="112"/>
-      <c r="BA145" s="111"/>
-      <c r="BB145" s="111"/>
-      <c r="BC145" s="111"/>
-      <c r="BD145" s="111"/>
-      <c r="BE145" s="111"/>
-      <c r="BF145" s="111"/>
-      <c r="BG145" s="111"/>
-      <c r="BH145" s="111"/>
-      <c r="BI145" s="111"/>
-      <c r="BJ145" s="111"/>
-      <c r="BK145" s="111"/>
-      <c r="BL145" s="111"/>
-      <c r="BM145" s="111"/>
-      <c r="BN145" s="111"/>
-      <c r="BO145" s="111"/>
-      <c r="BP145" s="111"/>
-      <c r="BQ145" s="111"/>
-      <c r="BR145" s="111"/>
-      <c r="BS145" s="111"/>
-      <c r="BT145" s="111"/>
-      <c r="BU145" s="111"/>
-      <c r="BV145" s="111"/>
-      <c r="BW145" s="117"/>
+      <c r="AM145" s="114"/>
+      <c r="AN145" s="115"/>
+      <c r="AO145" s="114"/>
+      <c r="AP145" s="114"/>
+      <c r="AQ145" s="114"/>
+      <c r="AR145" s="114"/>
+      <c r="AS145" s="114"/>
+      <c r="AT145" s="114"/>
+      <c r="AU145" s="133"/>
+      <c r="AV145" s="114"/>
+      <c r="AW145" s="114"/>
+      <c r="AX145" s="114"/>
+      <c r="AY145" s="114"/>
+      <c r="AZ145" s="133"/>
+      <c r="BA145" s="114"/>
+      <c r="BB145" s="114"/>
+      <c r="BC145" s="114"/>
+      <c r="BD145" s="114"/>
+      <c r="BE145" s="114"/>
+      <c r="BF145" s="114"/>
+      <c r="BG145" s="114"/>
+      <c r="BH145" s="114"/>
+      <c r="BI145" s="114"/>
+      <c r="BJ145" s="114"/>
+      <c r="BK145" s="114"/>
+      <c r="BL145" s="114"/>
+      <c r="BM145" s="114"/>
+      <c r="BN145" s="114"/>
+      <c r="BO145" s="114"/>
+      <c r="BP145" s="114"/>
+      <c r="BQ145" s="114"/>
+      <c r="BR145" s="114"/>
+      <c r="BS145" s="114"/>
+      <c r="BT145" s="114"/>
+      <c r="BU145" s="114"/>
+      <c r="BV145" s="114"/>
+      <c r="BW145" s="115"/>
       <c r="BX145" s="55"/>
       <c r="BY145" s="4"/>
       <c r="BZ145" s="4"/>
@@ -17985,10 +17985,10 @@
       <c r="AJ146" s="4"/>
       <c r="AK146" s="4"/>
       <c r="AL146" s="55"/>
-      <c r="AM146" s="99" t="s">
+      <c r="AM146" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="AN146" s="100"/>
+      <c r="AN146" s="129"/>
       <c r="AO146" s="61" t="s">
         <v>88</v>
       </c>
@@ -18153,8 +18153,8 @@
       <c r="AJ148" s="4"/>
       <c r="AK148" s="4"/>
       <c r="AL148" s="55"/>
-      <c r="AM148" s="103"/>
-      <c r="AN148" s="102"/>
+      <c r="AM148" s="142"/>
+      <c r="AN148" s="122"/>
       <c r="AO148" s="66"/>
       <c r="AP148" s="33"/>
       <c r="AQ148" s="33"/>
@@ -18393,8 +18393,8 @@
       <c r="AJ151" s="4"/>
       <c r="AK151" s="4"/>
       <c r="AL151" s="55"/>
-      <c r="AM151" s="101"/>
-      <c r="AN151" s="102"/>
+      <c r="AM151" s="162"/>
+      <c r="AN151" s="122"/>
       <c r="AO151" s="68"/>
       <c r="AP151" s="33"/>
       <c r="AQ151" s="33"/>
@@ -21715,190 +21715,190 @@
       <c r="BZ192" s="4"/>
     </row>
     <row r="193" spans="1:78" ht="17.25">
-      <c r="A193" s="120" t="s">
+      <c r="A193" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="108"/>
-      <c r="C193" s="108"/>
-      <c r="D193" s="108"/>
-      <c r="E193" s="121"/>
-      <c r="F193" s="118" t="s">
+      <c r="B193" s="131"/>
+      <c r="C193" s="131"/>
+      <c r="D193" s="131"/>
+      <c r="E193" s="141"/>
+      <c r="F193" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="G193" s="108"/>
-      <c r="H193" s="108"/>
-      <c r="I193" s="108"/>
-      <c r="J193" s="108"/>
-      <c r="K193" s="108"/>
-      <c r="L193" s="108"/>
-      <c r="M193" s="108"/>
-      <c r="N193" s="108"/>
-      <c r="O193" s="108"/>
-      <c r="P193" s="108"/>
-      <c r="Q193" s="108"/>
-      <c r="R193" s="108"/>
-      <c r="S193" s="108"/>
-      <c r="T193" s="108"/>
-      <c r="U193" s="108"/>
-      <c r="V193" s="108"/>
-      <c r="W193" s="108"/>
-      <c r="X193" s="108"/>
-      <c r="Y193" s="108"/>
-      <c r="Z193" s="108"/>
-      <c r="AA193" s="108"/>
-      <c r="AB193" s="108"/>
-      <c r="AC193" s="108"/>
-      <c r="AD193" s="108"/>
-      <c r="AE193" s="108"/>
-      <c r="AF193" s="108"/>
-      <c r="AG193" s="108"/>
-      <c r="AH193" s="108"/>
-      <c r="AI193" s="108"/>
-      <c r="AJ193" s="108"/>
-      <c r="AK193" s="108"/>
-      <c r="AL193" s="108"/>
-      <c r="AM193" s="108"/>
-      <c r="AN193" s="108"/>
-      <c r="AO193" s="108"/>
-      <c r="AP193" s="108"/>
-      <c r="AQ193" s="108"/>
-      <c r="AR193" s="108"/>
-      <c r="AS193" s="108"/>
-      <c r="AT193" s="108"/>
-      <c r="AU193" s="108"/>
-      <c r="AV193" s="109"/>
-      <c r="AW193" s="107" t="s">
+      <c r="G193" s="131"/>
+      <c r="H193" s="131"/>
+      <c r="I193" s="131"/>
+      <c r="J193" s="131"/>
+      <c r="K193" s="131"/>
+      <c r="L193" s="131"/>
+      <c r="M193" s="131"/>
+      <c r="N193" s="131"/>
+      <c r="O193" s="131"/>
+      <c r="P193" s="131"/>
+      <c r="Q193" s="131"/>
+      <c r="R193" s="131"/>
+      <c r="S193" s="131"/>
+      <c r="T193" s="131"/>
+      <c r="U193" s="131"/>
+      <c r="V193" s="131"/>
+      <c r="W193" s="131"/>
+      <c r="X193" s="131"/>
+      <c r="Y193" s="131"/>
+      <c r="Z193" s="131"/>
+      <c r="AA193" s="131"/>
+      <c r="AB193" s="131"/>
+      <c r="AC193" s="131"/>
+      <c r="AD193" s="131"/>
+      <c r="AE193" s="131"/>
+      <c r="AF193" s="131"/>
+      <c r="AG193" s="131"/>
+      <c r="AH193" s="131"/>
+      <c r="AI193" s="131"/>
+      <c r="AJ193" s="131"/>
+      <c r="AK193" s="131"/>
+      <c r="AL193" s="131"/>
+      <c r="AM193" s="131"/>
+      <c r="AN193" s="131"/>
+      <c r="AO193" s="131"/>
+      <c r="AP193" s="131"/>
+      <c r="AQ193" s="131"/>
+      <c r="AR193" s="131"/>
+      <c r="AS193" s="131"/>
+      <c r="AT193" s="131"/>
+      <c r="AU193" s="131"/>
+      <c r="AV193" s="132"/>
+      <c r="AW193" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AX193" s="108"/>
-      <c r="AY193" s="108"/>
-      <c r="AZ193" s="108"/>
-      <c r="BA193" s="109"/>
-      <c r="BB193" s="96" t="s">
+      <c r="AX193" s="131"/>
+      <c r="AY193" s="131"/>
+      <c r="AZ193" s="131"/>
+      <c r="BA193" s="132"/>
+      <c r="BB193" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="BC193" s="97"/>
-      <c r="BD193" s="97"/>
-      <c r="BE193" s="97"/>
-      <c r="BF193" s="97"/>
-      <c r="BG193" s="97"/>
-      <c r="BH193" s="97"/>
-      <c r="BI193" s="97"/>
-      <c r="BJ193" s="98"/>
-      <c r="BK193" s="107" t="s">
+      <c r="BC193" s="107"/>
+      <c r="BD193" s="107"/>
+      <c r="BE193" s="107"/>
+      <c r="BF193" s="107"/>
+      <c r="BG193" s="107"/>
+      <c r="BH193" s="107"/>
+      <c r="BI193" s="107"/>
+      <c r="BJ193" s="108"/>
+      <c r="BK193" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="BL193" s="108"/>
-      <c r="BM193" s="108"/>
-      <c r="BN193" s="108"/>
-      <c r="BO193" s="109"/>
-      <c r="BP193" s="125" t="s">
+      <c r="BL193" s="131"/>
+      <c r="BM193" s="131"/>
+      <c r="BN193" s="131"/>
+      <c r="BO193" s="132"/>
+      <c r="BP193" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ193" s="108"/>
-      <c r="BR193" s="108"/>
-      <c r="BS193" s="108"/>
-      <c r="BT193" s="108"/>
-      <c r="BU193" s="108"/>
-      <c r="BV193" s="108"/>
-      <c r="BW193" s="108"/>
-      <c r="BX193" s="121"/>
+      <c r="BQ193" s="131"/>
+      <c r="BR193" s="131"/>
+      <c r="BS193" s="131"/>
+      <c r="BT193" s="131"/>
+      <c r="BU193" s="131"/>
+      <c r="BV193" s="131"/>
+      <c r="BW193" s="131"/>
+      <c r="BX193" s="141"/>
       <c r="BY193" s="54"/>
       <c r="BZ193" s="54"/>
     </row>
     <row r="194" spans="1:78" ht="18">
-      <c r="A194" s="122" t="s">
+      <c r="A194" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B194" s="105"/>
-      <c r="C194" s="105"/>
-      <c r="D194" s="105"/>
-      <c r="E194" s="123"/>
-      <c r="F194" s="119" t="s">
+      <c r="B194" s="117"/>
+      <c r="C194" s="117"/>
+      <c r="D194" s="117"/>
+      <c r="E194" s="152"/>
+      <c r="F194" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="G194" s="105"/>
-      <c r="H194" s="105"/>
-      <c r="I194" s="105"/>
-      <c r="J194" s="105"/>
-      <c r="K194" s="105"/>
-      <c r="L194" s="105"/>
-      <c r="M194" s="105"/>
-      <c r="N194" s="105"/>
-      <c r="O194" s="105"/>
-      <c r="P194" s="105"/>
-      <c r="Q194" s="105"/>
-      <c r="R194" s="105"/>
-      <c r="S194" s="105"/>
-      <c r="T194" s="105"/>
-      <c r="U194" s="105"/>
-      <c r="V194" s="105"/>
-      <c r="W194" s="105"/>
-      <c r="X194" s="105"/>
-      <c r="Y194" s="106"/>
-      <c r="Z194" s="104" t="s">
+      <c r="G194" s="117"/>
+      <c r="H194" s="117"/>
+      <c r="I194" s="117"/>
+      <c r="J194" s="117"/>
+      <c r="K194" s="117"/>
+      <c r="L194" s="117"/>
+      <c r="M194" s="117"/>
+      <c r="N194" s="117"/>
+      <c r="O194" s="117"/>
+      <c r="P194" s="117"/>
+      <c r="Q194" s="117"/>
+      <c r="R194" s="117"/>
+      <c r="S194" s="117"/>
+      <c r="T194" s="117"/>
+      <c r="U194" s="117"/>
+      <c r="V194" s="117"/>
+      <c r="W194" s="117"/>
+      <c r="X194" s="117"/>
+      <c r="Y194" s="119"/>
+      <c r="Z194" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="AA194" s="105"/>
-      <c r="AB194" s="105"/>
-      <c r="AC194" s="105"/>
-      <c r="AD194" s="106"/>
-      <c r="AE194" s="119" t="s">
+      <c r="AA194" s="117"/>
+      <c r="AB194" s="117"/>
+      <c r="AC194" s="117"/>
+      <c r="AD194" s="119"/>
+      <c r="AE194" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="AF194" s="105"/>
-      <c r="AG194" s="105"/>
-      <c r="AH194" s="105"/>
-      <c r="AI194" s="105"/>
-      <c r="AJ194" s="105"/>
-      <c r="AK194" s="105"/>
-      <c r="AL194" s="105"/>
-      <c r="AM194" s="105"/>
-      <c r="AN194" s="105"/>
-      <c r="AO194" s="105"/>
-      <c r="AP194" s="105"/>
-      <c r="AQ194" s="105"/>
-      <c r="AR194" s="105"/>
-      <c r="AS194" s="105"/>
-      <c r="AT194" s="105"/>
-      <c r="AU194" s="105"/>
-      <c r="AV194" s="106"/>
-      <c r="AW194" s="104" t="s">
+      <c r="AF194" s="117"/>
+      <c r="AG194" s="117"/>
+      <c r="AH194" s="117"/>
+      <c r="AI194" s="117"/>
+      <c r="AJ194" s="117"/>
+      <c r="AK194" s="117"/>
+      <c r="AL194" s="117"/>
+      <c r="AM194" s="117"/>
+      <c r="AN194" s="117"/>
+      <c r="AO194" s="117"/>
+      <c r="AP194" s="117"/>
+      <c r="AQ194" s="117"/>
+      <c r="AR194" s="117"/>
+      <c r="AS194" s="117"/>
+      <c r="AT194" s="117"/>
+      <c r="AU194" s="117"/>
+      <c r="AV194" s="119"/>
+      <c r="AW194" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AX194" s="105"/>
-      <c r="AY194" s="105"/>
-      <c r="AZ194" s="105"/>
-      <c r="BA194" s="106"/>
-      <c r="BB194" s="113" t="s">
+      <c r="AX194" s="117"/>
+      <c r="AY194" s="117"/>
+      <c r="AZ194" s="117"/>
+      <c r="BA194" s="119"/>
+      <c r="BB194" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="BC194" s="105"/>
-      <c r="BD194" s="105"/>
-      <c r="BE194" s="105"/>
-      <c r="BF194" s="105"/>
-      <c r="BG194" s="105"/>
-      <c r="BH194" s="105"/>
-      <c r="BI194" s="105"/>
-      <c r="BJ194" s="105"/>
-      <c r="BK194" s="104" t="s">
+      <c r="BC194" s="117"/>
+      <c r="BD194" s="117"/>
+      <c r="BE194" s="117"/>
+      <c r="BF194" s="117"/>
+      <c r="BG194" s="117"/>
+      <c r="BH194" s="117"/>
+      <c r="BI194" s="117"/>
+      <c r="BJ194" s="117"/>
+      <c r="BK194" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="BL194" s="105"/>
-      <c r="BM194" s="105"/>
-      <c r="BN194" s="105"/>
-      <c r="BO194" s="106"/>
-      <c r="BP194" s="125" t="s">
+      <c r="BL194" s="117"/>
+      <c r="BM194" s="117"/>
+      <c r="BN194" s="117"/>
+      <c r="BO194" s="119"/>
+      <c r="BP194" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ194" s="108"/>
-      <c r="BR194" s="108"/>
-      <c r="BS194" s="108"/>
-      <c r="BT194" s="108"/>
-      <c r="BU194" s="108"/>
-      <c r="BV194" s="108"/>
-      <c r="BW194" s="108"/>
-      <c r="BX194" s="121"/>
+      <c r="BQ194" s="131"/>
+      <c r="BR194" s="131"/>
+      <c r="BS194" s="131"/>
+      <c r="BT194" s="131"/>
+      <c r="BU194" s="131"/>
+      <c r="BV194" s="131"/>
+      <c r="BW194" s="131"/>
+      <c r="BX194" s="141"/>
       <c r="BY194" s="54"/>
       <c r="BZ194" s="54"/>
     </row>
@@ -22102,51 +22102,51 @@
       <c r="AJ197" s="4"/>
       <c r="AK197" s="4"/>
       <c r="AL197" s="55"/>
-      <c r="AM197" s="110" t="s">
+      <c r="AM197" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AN197" s="116"/>
-      <c r="AO197" s="110" t="s">
+      <c r="AN197" s="127"/>
+      <c r="AO197" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AP197" s="102"/>
-      <c r="AQ197" s="102"/>
-      <c r="AR197" s="102"/>
-      <c r="AS197" s="102"/>
-      <c r="AT197" s="102"/>
-      <c r="AU197" s="100"/>
-      <c r="AV197" s="110" t="s">
+      <c r="AP197" s="122"/>
+      <c r="AQ197" s="122"/>
+      <c r="AR197" s="122"/>
+      <c r="AS197" s="122"/>
+      <c r="AT197" s="122"/>
+      <c r="AU197" s="129"/>
+      <c r="AV197" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AW197" s="102"/>
-      <c r="AX197" s="102"/>
-      <c r="AY197" s="102"/>
-      <c r="AZ197" s="100"/>
-      <c r="BA197" s="110" t="s">
+      <c r="AW197" s="122"/>
+      <c r="AX197" s="122"/>
+      <c r="AY197" s="122"/>
+      <c r="AZ197" s="129"/>
+      <c r="BA197" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="BB197" s="102"/>
-      <c r="BC197" s="102"/>
-      <c r="BD197" s="102"/>
-      <c r="BE197" s="102"/>
-      <c r="BF197" s="102"/>
-      <c r="BG197" s="102"/>
-      <c r="BH197" s="102"/>
-      <c r="BI197" s="102"/>
-      <c r="BJ197" s="102"/>
-      <c r="BK197" s="102"/>
-      <c r="BL197" s="102"/>
-      <c r="BM197" s="102"/>
-      <c r="BN197" s="102"/>
-      <c r="BO197" s="102"/>
-      <c r="BP197" s="102"/>
-      <c r="BQ197" s="102"/>
-      <c r="BR197" s="102"/>
-      <c r="BS197" s="102"/>
-      <c r="BT197" s="102"/>
-      <c r="BU197" s="102"/>
-      <c r="BV197" s="102"/>
-      <c r="BW197" s="116"/>
+      <c r="BB197" s="122"/>
+      <c r="BC197" s="122"/>
+      <c r="BD197" s="122"/>
+      <c r="BE197" s="122"/>
+      <c r="BF197" s="122"/>
+      <c r="BG197" s="122"/>
+      <c r="BH197" s="122"/>
+      <c r="BI197" s="122"/>
+      <c r="BJ197" s="122"/>
+      <c r="BK197" s="122"/>
+      <c r="BL197" s="122"/>
+      <c r="BM197" s="122"/>
+      <c r="BN197" s="122"/>
+      <c r="BO197" s="122"/>
+      <c r="BP197" s="122"/>
+      <c r="BQ197" s="122"/>
+      <c r="BR197" s="122"/>
+      <c r="BS197" s="122"/>
+      <c r="BT197" s="122"/>
+      <c r="BU197" s="122"/>
+      <c r="BV197" s="122"/>
+      <c r="BW197" s="127"/>
       <c r="BX197" s="4"/>
       <c r="BY197" s="4"/>
       <c r="BZ197" s="4"/>
@@ -22190,43 +22190,43 @@
       <c r="AJ198" s="4"/>
       <c r="AK198" s="4"/>
       <c r="AL198" s="55"/>
-      <c r="AM198" s="111"/>
-      <c r="AN198" s="117"/>
-      <c r="AO198" s="111"/>
-      <c r="AP198" s="111"/>
-      <c r="AQ198" s="111"/>
-      <c r="AR198" s="111"/>
-      <c r="AS198" s="111"/>
-      <c r="AT198" s="111"/>
-      <c r="AU198" s="112"/>
-      <c r="AV198" s="111"/>
-      <c r="AW198" s="111"/>
-      <c r="AX198" s="111"/>
-      <c r="AY198" s="111"/>
-      <c r="AZ198" s="112"/>
-      <c r="BA198" s="111"/>
-      <c r="BB198" s="111"/>
-      <c r="BC198" s="111"/>
-      <c r="BD198" s="111"/>
-      <c r="BE198" s="111"/>
-      <c r="BF198" s="111"/>
-      <c r="BG198" s="111"/>
-      <c r="BH198" s="111"/>
-      <c r="BI198" s="111"/>
-      <c r="BJ198" s="111"/>
-      <c r="BK198" s="111"/>
-      <c r="BL198" s="111"/>
-      <c r="BM198" s="111"/>
-      <c r="BN198" s="111"/>
-      <c r="BO198" s="111"/>
-      <c r="BP198" s="111"/>
-      <c r="BQ198" s="111"/>
-      <c r="BR198" s="111"/>
-      <c r="BS198" s="111"/>
-      <c r="BT198" s="111"/>
-      <c r="BU198" s="111"/>
-      <c r="BV198" s="111"/>
-      <c r="BW198" s="117"/>
+      <c r="AM198" s="114"/>
+      <c r="AN198" s="115"/>
+      <c r="AO198" s="114"/>
+      <c r="AP198" s="114"/>
+      <c r="AQ198" s="114"/>
+      <c r="AR198" s="114"/>
+      <c r="AS198" s="114"/>
+      <c r="AT198" s="114"/>
+      <c r="AU198" s="133"/>
+      <c r="AV198" s="114"/>
+      <c r="AW198" s="114"/>
+      <c r="AX198" s="114"/>
+      <c r="AY198" s="114"/>
+      <c r="AZ198" s="133"/>
+      <c r="BA198" s="114"/>
+      <c r="BB198" s="114"/>
+      <c r="BC198" s="114"/>
+      <c r="BD198" s="114"/>
+      <c r="BE198" s="114"/>
+      <c r="BF198" s="114"/>
+      <c r="BG198" s="114"/>
+      <c r="BH198" s="114"/>
+      <c r="BI198" s="114"/>
+      <c r="BJ198" s="114"/>
+      <c r="BK198" s="114"/>
+      <c r="BL198" s="114"/>
+      <c r="BM198" s="114"/>
+      <c r="BN198" s="114"/>
+      <c r="BO198" s="114"/>
+      <c r="BP198" s="114"/>
+      <c r="BQ198" s="114"/>
+      <c r="BR198" s="114"/>
+      <c r="BS198" s="114"/>
+      <c r="BT198" s="114"/>
+      <c r="BU198" s="114"/>
+      <c r="BV198" s="114"/>
+      <c r="BW198" s="115"/>
       <c r="BX198" s="4"/>
       <c r="BY198" s="4"/>
       <c r="BZ198" s="4"/>
@@ -22270,10 +22270,10 @@
       <c r="AJ199" s="4"/>
       <c r="AK199" s="4"/>
       <c r="AL199" s="55"/>
-      <c r="AM199" s="99" t="s">
+      <c r="AM199" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="AN199" s="100"/>
+      <c r="AN199" s="129"/>
       <c r="AO199" s="61" t="s">
         <v>88</v>
       </c>
@@ -22440,8 +22440,8 @@
       <c r="AJ201" s="4"/>
       <c r="AK201" s="4"/>
       <c r="AL201" s="55"/>
-      <c r="AM201" s="103"/>
-      <c r="AN201" s="102"/>
+      <c r="AM201" s="142"/>
+      <c r="AN201" s="122"/>
       <c r="AO201" s="66"/>
       <c r="AP201" s="33"/>
       <c r="AQ201" s="33"/>
@@ -22680,8 +22680,8 @@
       <c r="AJ204" s="4"/>
       <c r="AK204" s="4"/>
       <c r="AL204" s="55"/>
-      <c r="AM204" s="101"/>
-      <c r="AN204" s="102"/>
+      <c r="AM204" s="162"/>
+      <c r="AN204" s="122"/>
       <c r="AO204" s="68"/>
       <c r="AP204" s="33"/>
       <c r="AQ204" s="33"/>
@@ -26002,190 +26002,190 @@
       <c r="BZ245" s="4"/>
     </row>
     <row r="246" spans="1:78" ht="17.25">
-      <c r="A246" s="120" t="s">
+      <c r="A246" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B246" s="108"/>
-      <c r="C246" s="108"/>
-      <c r="D246" s="108"/>
-      <c r="E246" s="121"/>
-      <c r="F246" s="118" t="s">
+      <c r="B246" s="131"/>
+      <c r="C246" s="131"/>
+      <c r="D246" s="131"/>
+      <c r="E246" s="141"/>
+      <c r="F246" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="G246" s="108"/>
-      <c r="H246" s="108"/>
-      <c r="I246" s="108"/>
-      <c r="J246" s="108"/>
-      <c r="K246" s="108"/>
-      <c r="L246" s="108"/>
-      <c r="M246" s="108"/>
-      <c r="N246" s="108"/>
-      <c r="O246" s="108"/>
-      <c r="P246" s="108"/>
-      <c r="Q246" s="108"/>
-      <c r="R246" s="108"/>
-      <c r="S246" s="108"/>
-      <c r="T246" s="108"/>
-      <c r="U246" s="108"/>
-      <c r="V246" s="108"/>
-      <c r="W246" s="108"/>
-      <c r="X246" s="108"/>
-      <c r="Y246" s="108"/>
-      <c r="Z246" s="108"/>
-      <c r="AA246" s="108"/>
-      <c r="AB246" s="108"/>
-      <c r="AC246" s="108"/>
-      <c r="AD246" s="108"/>
-      <c r="AE246" s="108"/>
-      <c r="AF246" s="108"/>
-      <c r="AG246" s="108"/>
-      <c r="AH246" s="108"/>
-      <c r="AI246" s="108"/>
-      <c r="AJ246" s="108"/>
-      <c r="AK246" s="108"/>
-      <c r="AL246" s="108"/>
-      <c r="AM246" s="108"/>
-      <c r="AN246" s="108"/>
-      <c r="AO246" s="108"/>
-      <c r="AP246" s="108"/>
-      <c r="AQ246" s="108"/>
-      <c r="AR246" s="108"/>
-      <c r="AS246" s="108"/>
-      <c r="AT246" s="108"/>
-      <c r="AU246" s="108"/>
-      <c r="AV246" s="109"/>
-      <c r="AW246" s="107" t="s">
+      <c r="G246" s="131"/>
+      <c r="H246" s="131"/>
+      <c r="I246" s="131"/>
+      <c r="J246" s="131"/>
+      <c r="K246" s="131"/>
+      <c r="L246" s="131"/>
+      <c r="M246" s="131"/>
+      <c r="N246" s="131"/>
+      <c r="O246" s="131"/>
+      <c r="P246" s="131"/>
+      <c r="Q246" s="131"/>
+      <c r="R246" s="131"/>
+      <c r="S246" s="131"/>
+      <c r="T246" s="131"/>
+      <c r="U246" s="131"/>
+      <c r="V246" s="131"/>
+      <c r="W246" s="131"/>
+      <c r="X246" s="131"/>
+      <c r="Y246" s="131"/>
+      <c r="Z246" s="131"/>
+      <c r="AA246" s="131"/>
+      <c r="AB246" s="131"/>
+      <c r="AC246" s="131"/>
+      <c r="AD246" s="131"/>
+      <c r="AE246" s="131"/>
+      <c r="AF246" s="131"/>
+      <c r="AG246" s="131"/>
+      <c r="AH246" s="131"/>
+      <c r="AI246" s="131"/>
+      <c r="AJ246" s="131"/>
+      <c r="AK246" s="131"/>
+      <c r="AL246" s="131"/>
+      <c r="AM246" s="131"/>
+      <c r="AN246" s="131"/>
+      <c r="AO246" s="131"/>
+      <c r="AP246" s="131"/>
+      <c r="AQ246" s="131"/>
+      <c r="AR246" s="131"/>
+      <c r="AS246" s="131"/>
+      <c r="AT246" s="131"/>
+      <c r="AU246" s="131"/>
+      <c r="AV246" s="132"/>
+      <c r="AW246" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AX246" s="108"/>
-      <c r="AY246" s="108"/>
-      <c r="AZ246" s="108"/>
-      <c r="BA246" s="109"/>
-      <c r="BB246" s="96" t="s">
+      <c r="AX246" s="131"/>
+      <c r="AY246" s="131"/>
+      <c r="AZ246" s="131"/>
+      <c r="BA246" s="132"/>
+      <c r="BB246" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="BC246" s="97"/>
-      <c r="BD246" s="97"/>
-      <c r="BE246" s="97"/>
-      <c r="BF246" s="97"/>
-      <c r="BG246" s="97"/>
-      <c r="BH246" s="97"/>
-      <c r="BI246" s="97"/>
-      <c r="BJ246" s="98"/>
-      <c r="BK246" s="107" t="s">
+      <c r="BC246" s="107"/>
+      <c r="BD246" s="107"/>
+      <c r="BE246" s="107"/>
+      <c r="BF246" s="107"/>
+      <c r="BG246" s="107"/>
+      <c r="BH246" s="107"/>
+      <c r="BI246" s="107"/>
+      <c r="BJ246" s="108"/>
+      <c r="BK246" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="BL246" s="108"/>
-      <c r="BM246" s="108"/>
-      <c r="BN246" s="108"/>
-      <c r="BO246" s="109"/>
-      <c r="BP246" s="125" t="s">
+      <c r="BL246" s="131"/>
+      <c r="BM246" s="131"/>
+      <c r="BN246" s="131"/>
+      <c r="BO246" s="132"/>
+      <c r="BP246" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ246" s="108"/>
-      <c r="BR246" s="108"/>
-      <c r="BS246" s="108"/>
-      <c r="BT246" s="108"/>
-      <c r="BU246" s="108"/>
-      <c r="BV246" s="108"/>
-      <c r="BW246" s="108"/>
-      <c r="BX246" s="121"/>
+      <c r="BQ246" s="131"/>
+      <c r="BR246" s="131"/>
+      <c r="BS246" s="131"/>
+      <c r="BT246" s="131"/>
+      <c r="BU246" s="131"/>
+      <c r="BV246" s="131"/>
+      <c r="BW246" s="131"/>
+      <c r="BX246" s="141"/>
       <c r="BY246" s="54"/>
       <c r="BZ246" s="54"/>
     </row>
     <row r="247" spans="1:78" ht="18">
-      <c r="A247" s="122" t="s">
+      <c r="A247" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B247" s="105"/>
-      <c r="C247" s="105"/>
-      <c r="D247" s="105"/>
-      <c r="E247" s="123"/>
-      <c r="F247" s="119" t="s">
+      <c r="B247" s="117"/>
+      <c r="C247" s="117"/>
+      <c r="D247" s="117"/>
+      <c r="E247" s="152"/>
+      <c r="F247" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="G247" s="105"/>
-      <c r="H247" s="105"/>
-      <c r="I247" s="105"/>
-      <c r="J247" s="105"/>
-      <c r="K247" s="105"/>
-      <c r="L247" s="105"/>
-      <c r="M247" s="105"/>
-      <c r="N247" s="105"/>
-      <c r="O247" s="105"/>
-      <c r="P247" s="105"/>
-      <c r="Q247" s="105"/>
-      <c r="R247" s="105"/>
-      <c r="S247" s="105"/>
-      <c r="T247" s="105"/>
-      <c r="U247" s="105"/>
-      <c r="V247" s="105"/>
-      <c r="W247" s="105"/>
-      <c r="X247" s="105"/>
-      <c r="Y247" s="106"/>
-      <c r="Z247" s="104" t="s">
+      <c r="G247" s="117"/>
+      <c r="H247" s="117"/>
+      <c r="I247" s="117"/>
+      <c r="J247" s="117"/>
+      <c r="K247" s="117"/>
+      <c r="L247" s="117"/>
+      <c r="M247" s="117"/>
+      <c r="N247" s="117"/>
+      <c r="O247" s="117"/>
+      <c r="P247" s="117"/>
+      <c r="Q247" s="117"/>
+      <c r="R247" s="117"/>
+      <c r="S247" s="117"/>
+      <c r="T247" s="117"/>
+      <c r="U247" s="117"/>
+      <c r="V247" s="117"/>
+      <c r="W247" s="117"/>
+      <c r="X247" s="117"/>
+      <c r="Y247" s="119"/>
+      <c r="Z247" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="AA247" s="105"/>
-      <c r="AB247" s="105"/>
-      <c r="AC247" s="105"/>
-      <c r="AD247" s="106"/>
-      <c r="AE247" s="119" t="s">
+      <c r="AA247" s="117"/>
+      <c r="AB247" s="117"/>
+      <c r="AC247" s="117"/>
+      <c r="AD247" s="119"/>
+      <c r="AE247" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="AF247" s="105"/>
-      <c r="AG247" s="105"/>
-      <c r="AH247" s="105"/>
-      <c r="AI247" s="105"/>
-      <c r="AJ247" s="105"/>
-      <c r="AK247" s="105"/>
-      <c r="AL247" s="105"/>
-      <c r="AM247" s="105"/>
-      <c r="AN247" s="105"/>
-      <c r="AO247" s="105"/>
-      <c r="AP247" s="105"/>
-      <c r="AQ247" s="105"/>
-      <c r="AR247" s="105"/>
-      <c r="AS247" s="105"/>
-      <c r="AT247" s="105"/>
-      <c r="AU247" s="105"/>
-      <c r="AV247" s="106"/>
-      <c r="AW247" s="104" t="s">
+      <c r="AF247" s="117"/>
+      <c r="AG247" s="117"/>
+      <c r="AH247" s="117"/>
+      <c r="AI247" s="117"/>
+      <c r="AJ247" s="117"/>
+      <c r="AK247" s="117"/>
+      <c r="AL247" s="117"/>
+      <c r="AM247" s="117"/>
+      <c r="AN247" s="117"/>
+      <c r="AO247" s="117"/>
+      <c r="AP247" s="117"/>
+      <c r="AQ247" s="117"/>
+      <c r="AR247" s="117"/>
+      <c r="AS247" s="117"/>
+      <c r="AT247" s="117"/>
+      <c r="AU247" s="117"/>
+      <c r="AV247" s="119"/>
+      <c r="AW247" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AX247" s="105"/>
-      <c r="AY247" s="105"/>
-      <c r="AZ247" s="105"/>
-      <c r="BA247" s="106"/>
-      <c r="BB247" s="113" t="s">
+      <c r="AX247" s="117"/>
+      <c r="AY247" s="117"/>
+      <c r="AZ247" s="117"/>
+      <c r="BA247" s="119"/>
+      <c r="BB247" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="BC247" s="105"/>
-      <c r="BD247" s="105"/>
-      <c r="BE247" s="105"/>
-      <c r="BF247" s="105"/>
-      <c r="BG247" s="105"/>
-      <c r="BH247" s="105"/>
-      <c r="BI247" s="105"/>
-      <c r="BJ247" s="105"/>
-      <c r="BK247" s="104" t="s">
+      <c r="BC247" s="117"/>
+      <c r="BD247" s="117"/>
+      <c r="BE247" s="117"/>
+      <c r="BF247" s="117"/>
+      <c r="BG247" s="117"/>
+      <c r="BH247" s="117"/>
+      <c r="BI247" s="117"/>
+      <c r="BJ247" s="117"/>
+      <c r="BK247" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="BL247" s="105"/>
-      <c r="BM247" s="105"/>
-      <c r="BN247" s="105"/>
-      <c r="BO247" s="106"/>
-      <c r="BP247" s="125" t="s">
+      <c r="BL247" s="117"/>
+      <c r="BM247" s="117"/>
+      <c r="BN247" s="117"/>
+      <c r="BO247" s="119"/>
+      <c r="BP247" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ247" s="108"/>
-      <c r="BR247" s="108"/>
-      <c r="BS247" s="108"/>
-      <c r="BT247" s="108"/>
-      <c r="BU247" s="108"/>
-      <c r="BV247" s="108"/>
-      <c r="BW247" s="108"/>
-      <c r="BX247" s="121"/>
+      <c r="BQ247" s="131"/>
+      <c r="BR247" s="131"/>
+      <c r="BS247" s="131"/>
+      <c r="BT247" s="131"/>
+      <c r="BU247" s="131"/>
+      <c r="BV247" s="131"/>
+      <c r="BW247" s="131"/>
+      <c r="BX247" s="141"/>
       <c r="BY247" s="54"/>
       <c r="BZ247" s="54"/>
     </row>
@@ -26388,51 +26388,51 @@
       <c r="AJ250" s="4"/>
       <c r="AK250" s="4"/>
       <c r="AL250" s="55"/>
-      <c r="AM250" s="110" t="s">
+      <c r="AM250" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AN250" s="116"/>
-      <c r="AO250" s="110" t="s">
+      <c r="AN250" s="127"/>
+      <c r="AO250" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AP250" s="102"/>
-      <c r="AQ250" s="102"/>
-      <c r="AR250" s="102"/>
-      <c r="AS250" s="102"/>
-      <c r="AT250" s="102"/>
-      <c r="AU250" s="100"/>
-      <c r="AV250" s="110" t="s">
+      <c r="AP250" s="122"/>
+      <c r="AQ250" s="122"/>
+      <c r="AR250" s="122"/>
+      <c r="AS250" s="122"/>
+      <c r="AT250" s="122"/>
+      <c r="AU250" s="129"/>
+      <c r="AV250" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AW250" s="102"/>
-      <c r="AX250" s="102"/>
-      <c r="AY250" s="102"/>
-      <c r="AZ250" s="100"/>
-      <c r="BA250" s="110" t="s">
+      <c r="AW250" s="122"/>
+      <c r="AX250" s="122"/>
+      <c r="AY250" s="122"/>
+      <c r="AZ250" s="129"/>
+      <c r="BA250" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="BB250" s="102"/>
-      <c r="BC250" s="102"/>
-      <c r="BD250" s="102"/>
-      <c r="BE250" s="102"/>
-      <c r="BF250" s="102"/>
-      <c r="BG250" s="102"/>
-      <c r="BH250" s="102"/>
-      <c r="BI250" s="102"/>
-      <c r="BJ250" s="102"/>
-      <c r="BK250" s="102"/>
-      <c r="BL250" s="102"/>
-      <c r="BM250" s="102"/>
-      <c r="BN250" s="102"/>
-      <c r="BO250" s="102"/>
-      <c r="BP250" s="102"/>
-      <c r="BQ250" s="102"/>
-      <c r="BR250" s="102"/>
-      <c r="BS250" s="102"/>
-      <c r="BT250" s="102"/>
-      <c r="BU250" s="102"/>
-      <c r="BV250" s="102"/>
-      <c r="BW250" s="116"/>
+      <c r="BB250" s="122"/>
+      <c r="BC250" s="122"/>
+      <c r="BD250" s="122"/>
+      <c r="BE250" s="122"/>
+      <c r="BF250" s="122"/>
+      <c r="BG250" s="122"/>
+      <c r="BH250" s="122"/>
+      <c r="BI250" s="122"/>
+      <c r="BJ250" s="122"/>
+      <c r="BK250" s="122"/>
+      <c r="BL250" s="122"/>
+      <c r="BM250" s="122"/>
+      <c r="BN250" s="122"/>
+      <c r="BO250" s="122"/>
+      <c r="BP250" s="122"/>
+      <c r="BQ250" s="122"/>
+      <c r="BR250" s="122"/>
+      <c r="BS250" s="122"/>
+      <c r="BT250" s="122"/>
+      <c r="BU250" s="122"/>
+      <c r="BV250" s="122"/>
+      <c r="BW250" s="127"/>
       <c r="BX250" s="4"/>
       <c r="BY250" s="4"/>
       <c r="BZ250" s="4"/>
@@ -26476,43 +26476,43 @@
       <c r="AJ251" s="4"/>
       <c r="AK251" s="4"/>
       <c r="AL251" s="55"/>
-      <c r="AM251" s="111"/>
-      <c r="AN251" s="117"/>
-      <c r="AO251" s="111"/>
-      <c r="AP251" s="111"/>
-      <c r="AQ251" s="111"/>
-      <c r="AR251" s="111"/>
-      <c r="AS251" s="111"/>
-      <c r="AT251" s="111"/>
-      <c r="AU251" s="112"/>
-      <c r="AV251" s="111"/>
-      <c r="AW251" s="111"/>
-      <c r="AX251" s="111"/>
-      <c r="AY251" s="111"/>
-      <c r="AZ251" s="112"/>
-      <c r="BA251" s="111"/>
-      <c r="BB251" s="111"/>
-      <c r="BC251" s="111"/>
-      <c r="BD251" s="111"/>
-      <c r="BE251" s="111"/>
-      <c r="BF251" s="111"/>
-      <c r="BG251" s="111"/>
-      <c r="BH251" s="111"/>
-      <c r="BI251" s="111"/>
-      <c r="BJ251" s="111"/>
-      <c r="BK251" s="111"/>
-      <c r="BL251" s="111"/>
-      <c r="BM251" s="111"/>
-      <c r="BN251" s="111"/>
-      <c r="BO251" s="111"/>
-      <c r="BP251" s="111"/>
-      <c r="BQ251" s="111"/>
-      <c r="BR251" s="111"/>
-      <c r="BS251" s="111"/>
-      <c r="BT251" s="111"/>
-      <c r="BU251" s="111"/>
-      <c r="BV251" s="111"/>
-      <c r="BW251" s="117"/>
+      <c r="AM251" s="114"/>
+      <c r="AN251" s="115"/>
+      <c r="AO251" s="114"/>
+      <c r="AP251" s="114"/>
+      <c r="AQ251" s="114"/>
+      <c r="AR251" s="114"/>
+      <c r="AS251" s="114"/>
+      <c r="AT251" s="114"/>
+      <c r="AU251" s="133"/>
+      <c r="AV251" s="114"/>
+      <c r="AW251" s="114"/>
+      <c r="AX251" s="114"/>
+      <c r="AY251" s="114"/>
+      <c r="AZ251" s="133"/>
+      <c r="BA251" s="114"/>
+      <c r="BB251" s="114"/>
+      <c r="BC251" s="114"/>
+      <c r="BD251" s="114"/>
+      <c r="BE251" s="114"/>
+      <c r="BF251" s="114"/>
+      <c r="BG251" s="114"/>
+      <c r="BH251" s="114"/>
+      <c r="BI251" s="114"/>
+      <c r="BJ251" s="114"/>
+      <c r="BK251" s="114"/>
+      <c r="BL251" s="114"/>
+      <c r="BM251" s="114"/>
+      <c r="BN251" s="114"/>
+      <c r="BO251" s="114"/>
+      <c r="BP251" s="114"/>
+      <c r="BQ251" s="114"/>
+      <c r="BR251" s="114"/>
+      <c r="BS251" s="114"/>
+      <c r="BT251" s="114"/>
+      <c r="BU251" s="114"/>
+      <c r="BV251" s="114"/>
+      <c r="BW251" s="115"/>
       <c r="BX251" s="4"/>
       <c r="BY251" s="4"/>
       <c r="BZ251" s="4"/>
@@ -26556,10 +26556,10 @@
       <c r="AJ252" s="4"/>
       <c r="AK252" s="4"/>
       <c r="AL252" s="55"/>
-      <c r="AM252" s="99" t="s">
+      <c r="AM252" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="AN252" s="100"/>
+      <c r="AN252" s="129"/>
       <c r="AO252" s="61" t="s">
         <v>88</v>
       </c>
@@ -26966,8 +26966,8 @@
       <c r="AJ257" s="4"/>
       <c r="AK257" s="4"/>
       <c r="AL257" s="55"/>
-      <c r="AM257" s="101"/>
-      <c r="AN257" s="102"/>
+      <c r="AM257" s="162"/>
+      <c r="AN257" s="122"/>
       <c r="AO257" s="68"/>
       <c r="AP257" s="33"/>
       <c r="AQ257" s="33"/>
@@ -30288,190 +30288,190 @@
       <c r="BZ298" s="4"/>
     </row>
     <row r="299" spans="1:78" ht="17.25">
-      <c r="A299" s="120" t="s">
+      <c r="A299" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B299" s="108"/>
-      <c r="C299" s="108"/>
-      <c r="D299" s="108"/>
-      <c r="E299" s="121"/>
-      <c r="F299" s="118" t="s">
+      <c r="B299" s="131"/>
+      <c r="C299" s="131"/>
+      <c r="D299" s="131"/>
+      <c r="E299" s="141"/>
+      <c r="F299" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="G299" s="108"/>
-      <c r="H299" s="108"/>
-      <c r="I299" s="108"/>
-      <c r="J299" s="108"/>
-      <c r="K299" s="108"/>
-      <c r="L299" s="108"/>
-      <c r="M299" s="108"/>
-      <c r="N299" s="108"/>
-      <c r="O299" s="108"/>
-      <c r="P299" s="108"/>
-      <c r="Q299" s="108"/>
-      <c r="R299" s="108"/>
-      <c r="S299" s="108"/>
-      <c r="T299" s="108"/>
-      <c r="U299" s="108"/>
-      <c r="V299" s="108"/>
-      <c r="W299" s="108"/>
-      <c r="X299" s="108"/>
-      <c r="Y299" s="108"/>
-      <c r="Z299" s="108"/>
-      <c r="AA299" s="108"/>
-      <c r="AB299" s="108"/>
-      <c r="AC299" s="108"/>
-      <c r="AD299" s="108"/>
-      <c r="AE299" s="108"/>
-      <c r="AF299" s="108"/>
-      <c r="AG299" s="108"/>
-      <c r="AH299" s="108"/>
-      <c r="AI299" s="108"/>
-      <c r="AJ299" s="108"/>
-      <c r="AK299" s="108"/>
-      <c r="AL299" s="108"/>
-      <c r="AM299" s="108"/>
-      <c r="AN299" s="108"/>
-      <c r="AO299" s="108"/>
-      <c r="AP299" s="108"/>
-      <c r="AQ299" s="108"/>
-      <c r="AR299" s="108"/>
-      <c r="AS299" s="108"/>
-      <c r="AT299" s="108"/>
-      <c r="AU299" s="108"/>
-      <c r="AV299" s="109"/>
-      <c r="AW299" s="107" t="s">
+      <c r="G299" s="131"/>
+      <c r="H299" s="131"/>
+      <c r="I299" s="131"/>
+      <c r="J299" s="131"/>
+      <c r="K299" s="131"/>
+      <c r="L299" s="131"/>
+      <c r="M299" s="131"/>
+      <c r="N299" s="131"/>
+      <c r="O299" s="131"/>
+      <c r="P299" s="131"/>
+      <c r="Q299" s="131"/>
+      <c r="R299" s="131"/>
+      <c r="S299" s="131"/>
+      <c r="T299" s="131"/>
+      <c r="U299" s="131"/>
+      <c r="V299" s="131"/>
+      <c r="W299" s="131"/>
+      <c r="X299" s="131"/>
+      <c r="Y299" s="131"/>
+      <c r="Z299" s="131"/>
+      <c r="AA299" s="131"/>
+      <c r="AB299" s="131"/>
+      <c r="AC299" s="131"/>
+      <c r="AD299" s="131"/>
+      <c r="AE299" s="131"/>
+      <c r="AF299" s="131"/>
+      <c r="AG299" s="131"/>
+      <c r="AH299" s="131"/>
+      <c r="AI299" s="131"/>
+      <c r="AJ299" s="131"/>
+      <c r="AK299" s="131"/>
+      <c r="AL299" s="131"/>
+      <c r="AM299" s="131"/>
+      <c r="AN299" s="131"/>
+      <c r="AO299" s="131"/>
+      <c r="AP299" s="131"/>
+      <c r="AQ299" s="131"/>
+      <c r="AR299" s="131"/>
+      <c r="AS299" s="131"/>
+      <c r="AT299" s="131"/>
+      <c r="AU299" s="131"/>
+      <c r="AV299" s="132"/>
+      <c r="AW299" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AX299" s="108"/>
-      <c r="AY299" s="108"/>
-      <c r="AZ299" s="108"/>
-      <c r="BA299" s="109"/>
-      <c r="BB299" s="96" t="s">
+      <c r="AX299" s="131"/>
+      <c r="AY299" s="131"/>
+      <c r="AZ299" s="131"/>
+      <c r="BA299" s="132"/>
+      <c r="BB299" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="BC299" s="97"/>
-      <c r="BD299" s="97"/>
-      <c r="BE299" s="97"/>
-      <c r="BF299" s="97"/>
-      <c r="BG299" s="97"/>
-      <c r="BH299" s="97"/>
-      <c r="BI299" s="97"/>
-      <c r="BJ299" s="98"/>
-      <c r="BK299" s="107" t="s">
+      <c r="BC299" s="107"/>
+      <c r="BD299" s="107"/>
+      <c r="BE299" s="107"/>
+      <c r="BF299" s="107"/>
+      <c r="BG299" s="107"/>
+      <c r="BH299" s="107"/>
+      <c r="BI299" s="107"/>
+      <c r="BJ299" s="108"/>
+      <c r="BK299" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="BL299" s="108"/>
-      <c r="BM299" s="108"/>
-      <c r="BN299" s="108"/>
-      <c r="BO299" s="109"/>
-      <c r="BP299" s="125" t="s">
+      <c r="BL299" s="131"/>
+      <c r="BM299" s="131"/>
+      <c r="BN299" s="131"/>
+      <c r="BO299" s="132"/>
+      <c r="BP299" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ299" s="108"/>
-      <c r="BR299" s="108"/>
-      <c r="BS299" s="108"/>
-      <c r="BT299" s="108"/>
-      <c r="BU299" s="108"/>
-      <c r="BV299" s="108"/>
-      <c r="BW299" s="108"/>
-      <c r="BX299" s="121"/>
+      <c r="BQ299" s="131"/>
+      <c r="BR299" s="131"/>
+      <c r="BS299" s="131"/>
+      <c r="BT299" s="131"/>
+      <c r="BU299" s="131"/>
+      <c r="BV299" s="131"/>
+      <c r="BW299" s="131"/>
+      <c r="BX299" s="141"/>
       <c r="BY299" s="54"/>
       <c r="BZ299" s="54"/>
     </row>
     <row r="300" spans="1:78" ht="18">
-      <c r="A300" s="122" t="s">
+      <c r="A300" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B300" s="105"/>
-      <c r="C300" s="105"/>
-      <c r="D300" s="105"/>
-      <c r="E300" s="123"/>
-      <c r="F300" s="119" t="s">
+      <c r="B300" s="117"/>
+      <c r="C300" s="117"/>
+      <c r="D300" s="117"/>
+      <c r="E300" s="152"/>
+      <c r="F300" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="G300" s="105"/>
-      <c r="H300" s="105"/>
-      <c r="I300" s="105"/>
-      <c r="J300" s="105"/>
-      <c r="K300" s="105"/>
-      <c r="L300" s="105"/>
-      <c r="M300" s="105"/>
-      <c r="N300" s="105"/>
-      <c r="O300" s="105"/>
-      <c r="P300" s="105"/>
-      <c r="Q300" s="105"/>
-      <c r="R300" s="105"/>
-      <c r="S300" s="105"/>
-      <c r="T300" s="105"/>
-      <c r="U300" s="105"/>
-      <c r="V300" s="105"/>
-      <c r="W300" s="105"/>
-      <c r="X300" s="105"/>
-      <c r="Y300" s="106"/>
-      <c r="Z300" s="104" t="s">
+      <c r="G300" s="117"/>
+      <c r="H300" s="117"/>
+      <c r="I300" s="117"/>
+      <c r="J300" s="117"/>
+      <c r="K300" s="117"/>
+      <c r="L300" s="117"/>
+      <c r="M300" s="117"/>
+      <c r="N300" s="117"/>
+      <c r="O300" s="117"/>
+      <c r="P300" s="117"/>
+      <c r="Q300" s="117"/>
+      <c r="R300" s="117"/>
+      <c r="S300" s="117"/>
+      <c r="T300" s="117"/>
+      <c r="U300" s="117"/>
+      <c r="V300" s="117"/>
+      <c r="W300" s="117"/>
+      <c r="X300" s="117"/>
+      <c r="Y300" s="119"/>
+      <c r="Z300" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="AA300" s="105"/>
-      <c r="AB300" s="105"/>
-      <c r="AC300" s="105"/>
-      <c r="AD300" s="106"/>
-      <c r="AE300" s="119" t="s">
+      <c r="AA300" s="117"/>
+      <c r="AB300" s="117"/>
+      <c r="AC300" s="117"/>
+      <c r="AD300" s="119"/>
+      <c r="AE300" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="AF300" s="105"/>
-      <c r="AG300" s="105"/>
-      <c r="AH300" s="105"/>
-      <c r="AI300" s="105"/>
-      <c r="AJ300" s="105"/>
-      <c r="AK300" s="105"/>
-      <c r="AL300" s="105"/>
-      <c r="AM300" s="105"/>
-      <c r="AN300" s="105"/>
-      <c r="AO300" s="105"/>
-      <c r="AP300" s="105"/>
-      <c r="AQ300" s="105"/>
-      <c r="AR300" s="105"/>
-      <c r="AS300" s="105"/>
-      <c r="AT300" s="105"/>
-      <c r="AU300" s="105"/>
-      <c r="AV300" s="106"/>
-      <c r="AW300" s="104" t="s">
+      <c r="AF300" s="117"/>
+      <c r="AG300" s="117"/>
+      <c r="AH300" s="117"/>
+      <c r="AI300" s="117"/>
+      <c r="AJ300" s="117"/>
+      <c r="AK300" s="117"/>
+      <c r="AL300" s="117"/>
+      <c r="AM300" s="117"/>
+      <c r="AN300" s="117"/>
+      <c r="AO300" s="117"/>
+      <c r="AP300" s="117"/>
+      <c r="AQ300" s="117"/>
+      <c r="AR300" s="117"/>
+      <c r="AS300" s="117"/>
+      <c r="AT300" s="117"/>
+      <c r="AU300" s="117"/>
+      <c r="AV300" s="119"/>
+      <c r="AW300" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AX300" s="105"/>
-      <c r="AY300" s="105"/>
-      <c r="AZ300" s="105"/>
-      <c r="BA300" s="106"/>
-      <c r="BB300" s="113" t="s">
+      <c r="AX300" s="117"/>
+      <c r="AY300" s="117"/>
+      <c r="AZ300" s="117"/>
+      <c r="BA300" s="119"/>
+      <c r="BB300" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="BC300" s="105"/>
-      <c r="BD300" s="105"/>
-      <c r="BE300" s="105"/>
-      <c r="BF300" s="105"/>
-      <c r="BG300" s="105"/>
-      <c r="BH300" s="105"/>
-      <c r="BI300" s="105"/>
-      <c r="BJ300" s="105"/>
-      <c r="BK300" s="132" t="s">
+      <c r="BC300" s="117"/>
+      <c r="BD300" s="117"/>
+      <c r="BE300" s="117"/>
+      <c r="BF300" s="117"/>
+      <c r="BG300" s="117"/>
+      <c r="BH300" s="117"/>
+      <c r="BI300" s="117"/>
+      <c r="BJ300" s="117"/>
+      <c r="BK300" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="BL300" s="97"/>
-      <c r="BM300" s="97"/>
-      <c r="BN300" s="97"/>
-      <c r="BO300" s="98"/>
-      <c r="BP300" s="125" t="s">
+      <c r="BL300" s="107"/>
+      <c r="BM300" s="107"/>
+      <c r="BN300" s="107"/>
+      <c r="BO300" s="108"/>
+      <c r="BP300" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="BQ300" s="108"/>
-      <c r="BR300" s="108"/>
-      <c r="BS300" s="108"/>
-      <c r="BT300" s="108"/>
-      <c r="BU300" s="108"/>
-      <c r="BV300" s="108"/>
-      <c r="BW300" s="108"/>
-      <c r="BX300" s="121"/>
+      <c r="BQ300" s="131"/>
+      <c r="BR300" s="131"/>
+      <c r="BS300" s="131"/>
+      <c r="BT300" s="131"/>
+      <c r="BU300" s="131"/>
+      <c r="BV300" s="131"/>
+      <c r="BW300" s="131"/>
+      <c r="BX300" s="141"/>
       <c r="BY300" s="54"/>
       <c r="BZ300" s="54"/>
     </row>
@@ -30674,51 +30674,51 @@
       <c r="AJ303" s="4"/>
       <c r="AK303" s="4"/>
       <c r="AL303" s="55"/>
-      <c r="AM303" s="110" t="s">
+      <c r="AM303" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AN303" s="116"/>
-      <c r="AO303" s="110" t="s">
+      <c r="AN303" s="127"/>
+      <c r="AO303" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AP303" s="102"/>
-      <c r="AQ303" s="102"/>
-      <c r="AR303" s="102"/>
-      <c r="AS303" s="102"/>
-      <c r="AT303" s="102"/>
-      <c r="AU303" s="100"/>
-      <c r="AV303" s="110" t="s">
+      <c r="AP303" s="122"/>
+      <c r="AQ303" s="122"/>
+      <c r="AR303" s="122"/>
+      <c r="AS303" s="122"/>
+      <c r="AT303" s="122"/>
+      <c r="AU303" s="129"/>
+      <c r="AV303" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AW303" s="102"/>
-      <c r="AX303" s="102"/>
-      <c r="AY303" s="102"/>
-      <c r="AZ303" s="100"/>
-      <c r="BA303" s="110" t="s">
+      <c r="AW303" s="122"/>
+      <c r="AX303" s="122"/>
+      <c r="AY303" s="122"/>
+      <c r="AZ303" s="129"/>
+      <c r="BA303" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="BB303" s="102"/>
-      <c r="BC303" s="102"/>
-      <c r="BD303" s="102"/>
-      <c r="BE303" s="102"/>
-      <c r="BF303" s="102"/>
-      <c r="BG303" s="102"/>
-      <c r="BH303" s="102"/>
-      <c r="BI303" s="102"/>
-      <c r="BJ303" s="102"/>
-      <c r="BK303" s="102"/>
-      <c r="BL303" s="102"/>
-      <c r="BM303" s="102"/>
-      <c r="BN303" s="102"/>
-      <c r="BO303" s="102"/>
-      <c r="BP303" s="102"/>
-      <c r="BQ303" s="102"/>
-      <c r="BR303" s="102"/>
-      <c r="BS303" s="102"/>
-      <c r="BT303" s="102"/>
-      <c r="BU303" s="102"/>
-      <c r="BV303" s="102"/>
-      <c r="BW303" s="116"/>
+      <c r="BB303" s="122"/>
+      <c r="BC303" s="122"/>
+      <c r="BD303" s="122"/>
+      <c r="BE303" s="122"/>
+      <c r="BF303" s="122"/>
+      <c r="BG303" s="122"/>
+      <c r="BH303" s="122"/>
+      <c r="BI303" s="122"/>
+      <c r="BJ303" s="122"/>
+      <c r="BK303" s="122"/>
+      <c r="BL303" s="122"/>
+      <c r="BM303" s="122"/>
+      <c r="BN303" s="122"/>
+      <c r="BO303" s="122"/>
+      <c r="BP303" s="122"/>
+      <c r="BQ303" s="122"/>
+      <c r="BR303" s="122"/>
+      <c r="BS303" s="122"/>
+      <c r="BT303" s="122"/>
+      <c r="BU303" s="122"/>
+      <c r="BV303" s="122"/>
+      <c r="BW303" s="127"/>
       <c r="BX303" s="4"/>
       <c r="BY303" s="4"/>
       <c r="BZ303" s="4"/>
@@ -30762,43 +30762,43 @@
       <c r="AJ304" s="4"/>
       <c r="AK304" s="4"/>
       <c r="AL304" s="55"/>
-      <c r="AM304" s="111"/>
-      <c r="AN304" s="117"/>
-      <c r="AO304" s="111"/>
-      <c r="AP304" s="111"/>
-      <c r="AQ304" s="111"/>
-      <c r="AR304" s="111"/>
-      <c r="AS304" s="111"/>
-      <c r="AT304" s="111"/>
-      <c r="AU304" s="112"/>
-      <c r="AV304" s="111"/>
-      <c r="AW304" s="111"/>
-      <c r="AX304" s="111"/>
-      <c r="AY304" s="111"/>
-      <c r="AZ304" s="112"/>
-      <c r="BA304" s="111"/>
-      <c r="BB304" s="111"/>
-      <c r="BC304" s="111"/>
-      <c r="BD304" s="111"/>
-      <c r="BE304" s="111"/>
-      <c r="BF304" s="111"/>
-      <c r="BG304" s="111"/>
-      <c r="BH304" s="111"/>
-      <c r="BI304" s="111"/>
-      <c r="BJ304" s="111"/>
-      <c r="BK304" s="111"/>
-      <c r="BL304" s="111"/>
-      <c r="BM304" s="111"/>
-      <c r="BN304" s="111"/>
-      <c r="BO304" s="111"/>
-      <c r="BP304" s="111"/>
-      <c r="BQ304" s="111"/>
-      <c r="BR304" s="111"/>
-      <c r="BS304" s="111"/>
-      <c r="BT304" s="111"/>
-      <c r="BU304" s="111"/>
-      <c r="BV304" s="111"/>
-      <c r="BW304" s="117"/>
+      <c r="AM304" s="114"/>
+      <c r="AN304" s="115"/>
+      <c r="AO304" s="114"/>
+      <c r="AP304" s="114"/>
+      <c r="AQ304" s="114"/>
+      <c r="AR304" s="114"/>
+      <c r="AS304" s="114"/>
+      <c r="AT304" s="114"/>
+      <c r="AU304" s="133"/>
+      <c r="AV304" s="114"/>
+      <c r="AW304" s="114"/>
+      <c r="AX304" s="114"/>
+      <c r="AY304" s="114"/>
+      <c r="AZ304" s="133"/>
+      <c r="BA304" s="114"/>
+      <c r="BB304" s="114"/>
+      <c r="BC304" s="114"/>
+      <c r="BD304" s="114"/>
+      <c r="BE304" s="114"/>
+      <c r="BF304" s="114"/>
+      <c r="BG304" s="114"/>
+      <c r="BH304" s="114"/>
+      <c r="BI304" s="114"/>
+      <c r="BJ304" s="114"/>
+      <c r="BK304" s="114"/>
+      <c r="BL304" s="114"/>
+      <c r="BM304" s="114"/>
+      <c r="BN304" s="114"/>
+      <c r="BO304" s="114"/>
+      <c r="BP304" s="114"/>
+      <c r="BQ304" s="114"/>
+      <c r="BR304" s="114"/>
+      <c r="BS304" s="114"/>
+      <c r="BT304" s="114"/>
+      <c r="BU304" s="114"/>
+      <c r="BV304" s="114"/>
+      <c r="BW304" s="115"/>
       <c r="BX304" s="4"/>
       <c r="BY304" s="4"/>
       <c r="BZ304" s="4"/>
@@ -30842,10 +30842,10 @@
       <c r="AJ305" s="4"/>
       <c r="AK305" s="4"/>
       <c r="AL305" s="55"/>
-      <c r="AM305" s="99" t="s">
+      <c r="AM305" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="AN305" s="100"/>
+      <c r="AN305" s="129"/>
       <c r="AO305" s="61" t="s">
         <v>88</v>
       </c>
@@ -31254,8 +31254,8 @@
       <c r="AJ310" s="4"/>
       <c r="AK310" s="4"/>
       <c r="AL310" s="55"/>
-      <c r="AM310" s="101"/>
-      <c r="AN310" s="102"/>
+      <c r="AM310" s="162"/>
+      <c r="AN310" s="122"/>
       <c r="AO310" s="68"/>
       <c r="AP310" s="33"/>
       <c r="AQ310" s="33"/>
@@ -34577,6 +34577,143 @@
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AM98:AN98"/>
+    <mergeCell ref="AM95:AN95"/>
+    <mergeCell ref="AW194:BA194"/>
+    <mergeCell ref="BB193:BJ193"/>
+    <mergeCell ref="AW193:BA193"/>
+    <mergeCell ref="AO91:AU92"/>
+    <mergeCell ref="AM93:AN93"/>
+    <mergeCell ref="AM146:AN146"/>
+    <mergeCell ref="AV144:AZ145"/>
+    <mergeCell ref="AO144:AU145"/>
+    <mergeCell ref="BB141:BJ141"/>
+    <mergeCell ref="AW141:BA141"/>
+    <mergeCell ref="AW140:BA140"/>
+    <mergeCell ref="BB140:BJ140"/>
+    <mergeCell ref="AM148:AN148"/>
+    <mergeCell ref="AM151:AN151"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AM303:AN304"/>
+    <mergeCell ref="AM310:AN310"/>
+    <mergeCell ref="AM305:AN305"/>
+    <mergeCell ref="AV250:AZ251"/>
+    <mergeCell ref="BA250:BW251"/>
+    <mergeCell ref="AM204:AN204"/>
+    <mergeCell ref="AM257:AN257"/>
+    <mergeCell ref="AM252:AN252"/>
+    <mergeCell ref="AM250:AN251"/>
+    <mergeCell ref="AO250:AU251"/>
+    <mergeCell ref="F246:AV246"/>
+    <mergeCell ref="AE247:AV247"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="F140:AV140"/>
+    <mergeCell ref="Z141:AD141"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="AE141:AV141"/>
+    <mergeCell ref="Z247:AD247"/>
+    <mergeCell ref="K39:T40"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="BB87:BJ87"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="BB246:BJ246"/>
+    <mergeCell ref="BK246:BO246"/>
+    <mergeCell ref="BP246:BX246"/>
+    <mergeCell ref="AW246:BA246"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F141:Y141"/>
+    <mergeCell ref="K37:T38"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="AW247:BA247"/>
+    <mergeCell ref="BB247:BJ247"/>
+    <mergeCell ref="AE88:AV88"/>
+    <mergeCell ref="AM86:AN86"/>
+    <mergeCell ref="C92:H93"/>
+    <mergeCell ref="G99:N100"/>
+    <mergeCell ref="AM144:AN145"/>
+    <mergeCell ref="BP141:BX141"/>
+    <mergeCell ref="BP140:BX140"/>
+    <mergeCell ref="AM91:AN92"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AW88:BA88"/>
+    <mergeCell ref="BK87:BO87"/>
+    <mergeCell ref="AW87:BA87"/>
+    <mergeCell ref="A299:E299"/>
+    <mergeCell ref="F300:Y300"/>
+    <mergeCell ref="A300:E300"/>
+    <mergeCell ref="BP299:BX299"/>
+    <mergeCell ref="BP300:BX300"/>
+    <mergeCell ref="AO303:AU304"/>
+    <mergeCell ref="BK299:BO299"/>
+    <mergeCell ref="Z194:AD194"/>
+    <mergeCell ref="BP194:BX194"/>
+    <mergeCell ref="BA197:BW198"/>
+    <mergeCell ref="AV303:AZ304"/>
+    <mergeCell ref="BA303:BW304"/>
+    <mergeCell ref="Z300:AD300"/>
+    <mergeCell ref="AE300:AV300"/>
+    <mergeCell ref="BB300:BJ300"/>
+    <mergeCell ref="BK300:BO300"/>
+    <mergeCell ref="F299:AV299"/>
+    <mergeCell ref="AW299:BA299"/>
+    <mergeCell ref="BB299:BJ299"/>
+    <mergeCell ref="AW300:BA300"/>
+    <mergeCell ref="BP247:BX247"/>
+    <mergeCell ref="BK247:BO247"/>
+    <mergeCell ref="F247:Y247"/>
+    <mergeCell ref="A246:E246"/>
+    <mergeCell ref="BP193:BX193"/>
+    <mergeCell ref="F194:Y194"/>
+    <mergeCell ref="AO197:AU198"/>
+    <mergeCell ref="AM201:AN201"/>
+    <mergeCell ref="AM199:AN199"/>
+    <mergeCell ref="AM197:AN198"/>
+    <mergeCell ref="AV197:AZ198"/>
+    <mergeCell ref="F193:AV193"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="Z88:AD88"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="F88:Y88"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP88:BX88"/>
+    <mergeCell ref="BP87:BX87"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F87:AV87"/>
+    <mergeCell ref="K41:T42"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="W37:AA38"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AB37:AG38"/>
+    <mergeCell ref="AB41:AG42"/>
+    <mergeCell ref="AB39:AG40"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AM40:AN40"/>
     <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="BA5:BW6"/>
@@ -34601,143 +34738,6 @@
     <mergeCell ref="AM13:AN13"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K41:T42"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="W37:AA38"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AB37:AG38"/>
-    <mergeCell ref="AB41:AG42"/>
-    <mergeCell ref="AB39:AG40"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="BP193:BX193"/>
-    <mergeCell ref="F194:Y194"/>
-    <mergeCell ref="AO197:AU198"/>
-    <mergeCell ref="AM201:AN201"/>
-    <mergeCell ref="AM199:AN199"/>
-    <mergeCell ref="AM197:AN198"/>
-    <mergeCell ref="AV197:AZ198"/>
-    <mergeCell ref="F193:AV193"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="Z88:AD88"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="F88:Y88"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP88:BX88"/>
-    <mergeCell ref="BP87:BX87"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F87:AV87"/>
-    <mergeCell ref="A299:E299"/>
-    <mergeCell ref="F300:Y300"/>
-    <mergeCell ref="A300:E300"/>
-    <mergeCell ref="BP299:BX299"/>
-    <mergeCell ref="BP300:BX300"/>
-    <mergeCell ref="AO303:AU304"/>
-    <mergeCell ref="BK299:BO299"/>
-    <mergeCell ref="Z194:AD194"/>
-    <mergeCell ref="BP194:BX194"/>
-    <mergeCell ref="BA197:BW198"/>
-    <mergeCell ref="AV303:AZ304"/>
-    <mergeCell ref="BA303:BW304"/>
-    <mergeCell ref="Z300:AD300"/>
-    <mergeCell ref="AE300:AV300"/>
-    <mergeCell ref="BB300:BJ300"/>
-    <mergeCell ref="BK300:BO300"/>
-    <mergeCell ref="F299:AV299"/>
-    <mergeCell ref="AW299:BA299"/>
-    <mergeCell ref="BB299:BJ299"/>
-    <mergeCell ref="AW300:BA300"/>
-    <mergeCell ref="BP247:BX247"/>
-    <mergeCell ref="BK247:BO247"/>
-    <mergeCell ref="F247:Y247"/>
-    <mergeCell ref="A246:E246"/>
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="BB246:BJ246"/>
-    <mergeCell ref="BK246:BO246"/>
-    <mergeCell ref="BP246:BX246"/>
-    <mergeCell ref="AW246:BA246"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F141:Y141"/>
-    <mergeCell ref="K37:T38"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="AW247:BA247"/>
-    <mergeCell ref="BB247:BJ247"/>
-    <mergeCell ref="AE88:AV88"/>
-    <mergeCell ref="AM86:AN86"/>
-    <mergeCell ref="C92:H93"/>
-    <mergeCell ref="G99:N100"/>
-    <mergeCell ref="AM144:AN145"/>
-    <mergeCell ref="BP141:BX141"/>
-    <mergeCell ref="BP140:BX140"/>
-    <mergeCell ref="AM91:AN92"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AW88:BA88"/>
-    <mergeCell ref="BK87:BO87"/>
-    <mergeCell ref="AW87:BA87"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AM303:AN304"/>
-    <mergeCell ref="AM310:AN310"/>
-    <mergeCell ref="AM305:AN305"/>
-    <mergeCell ref="AV250:AZ251"/>
-    <mergeCell ref="BA250:BW251"/>
-    <mergeCell ref="AM204:AN204"/>
-    <mergeCell ref="AM257:AN257"/>
-    <mergeCell ref="AM252:AN252"/>
-    <mergeCell ref="AM250:AN251"/>
-    <mergeCell ref="AO250:AU251"/>
-    <mergeCell ref="F246:AV246"/>
-    <mergeCell ref="AE247:AV247"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="F140:AV140"/>
-    <mergeCell ref="Z141:AD141"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="AE141:AV141"/>
-    <mergeCell ref="Z247:AD247"/>
-    <mergeCell ref="K39:T40"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="BB87:BJ87"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AM98:AN98"/>
-    <mergeCell ref="AM95:AN95"/>
-    <mergeCell ref="AW194:BA194"/>
-    <mergeCell ref="BB193:BJ193"/>
-    <mergeCell ref="AW193:BA193"/>
-    <mergeCell ref="AO91:AU92"/>
-    <mergeCell ref="AM93:AN93"/>
-    <mergeCell ref="AM146:AN146"/>
-    <mergeCell ref="AV144:AZ145"/>
-    <mergeCell ref="AO144:AU145"/>
-    <mergeCell ref="BB141:BJ141"/>
-    <mergeCell ref="AW141:BA141"/>
-    <mergeCell ref="AW140:BA140"/>
-    <mergeCell ref="BB140:BJ140"/>
-    <mergeCell ref="AM148:AN148"/>
-    <mergeCell ref="AM151:AN151"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1102D068-C6D0-4BAC-B8EC-9C7D1EC1CB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC04B4-98B4-4FFC-B3AC-830D5237D7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>2017/10/08</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>久保田　善之</t>
     <rPh sb="0" eb="3">
       <t>クボタ</t>
@@ -423,6 +419,10 @@
     <rPh sb="18" eb="21">
       <t>クボタ</t>
     </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2017/10/10</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1231,55 +1231,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1295,55 +1329,21 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4562,8 +4562,8 @@
   </sheetPr>
   <dimension ref="A1:CR351"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AJ75" sqref="AJ75"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BT3" sqref="BT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4573,94 +4573,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="145" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="131"/>
-      <c r="AU1" s="131"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="144" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="120"/>
+      <c r="AS1" s="120"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="120"/>
+      <c r="AV1" s="121"/>
+      <c r="AW1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="131"/>
-      <c r="AZ1" s="131"/>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="106" t="s">
+      <c r="AX1" s="120"/>
+      <c r="AY1" s="120"/>
+      <c r="AZ1" s="120"/>
+      <c r="BA1" s="121"/>
+      <c r="BB1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="108"/>
-      <c r="BK1" s="144" t="s">
+      <c r="BC1" s="117"/>
+      <c r="BD1" s="117"/>
+      <c r="BE1" s="117"/>
+      <c r="BF1" s="117"/>
+      <c r="BG1" s="117"/>
+      <c r="BH1" s="117"/>
+      <c r="BI1" s="117"/>
+      <c r="BJ1" s="118"/>
+      <c r="BK1" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="131"/>
-      <c r="BM1" s="131"/>
-      <c r="BN1" s="131"/>
-      <c r="BO1" s="132"/>
-      <c r="BP1" s="140" t="s">
+      <c r="BL1" s="120"/>
+      <c r="BM1" s="120"/>
+      <c r="BN1" s="120"/>
+      <c r="BO1" s="121"/>
+      <c r="BP1" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="131"/>
-      <c r="BR1" s="131"/>
-      <c r="BS1" s="131"/>
-      <c r="BT1" s="131"/>
-      <c r="BU1" s="131"/>
-      <c r="BV1" s="131"/>
-      <c r="BW1" s="131"/>
-      <c r="BX1" s="141"/>
+      <c r="BQ1" s="120"/>
+      <c r="BR1" s="120"/>
+      <c r="BS1" s="120"/>
+      <c r="BT1" s="120"/>
+      <c r="BU1" s="120"/>
+      <c r="BV1" s="120"/>
+      <c r="BW1" s="120"/>
+      <c r="BX1" s="133"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -4683,96 +4683,96 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="146" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="109" t="s">
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="117"/>
+      <c r="AQ2" s="117"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="106" t="s">
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="117"/>
+      <c r="AZ2" s="117"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC2" s="117"/>
+      <c r="BD2" s="117"/>
+      <c r="BE2" s="117"/>
+      <c r="BF2" s="117"/>
+      <c r="BG2" s="117"/>
+      <c r="BH2" s="117"/>
+      <c r="BI2" s="117"/>
+      <c r="BJ2" s="118"/>
+      <c r="BK2" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL2" s="117"/>
+      <c r="BM2" s="117"/>
+      <c r="BN2" s="117"/>
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="107"/>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
-      <c r="BH2" s="107"/>
-      <c r="BI2" s="107"/>
-      <c r="BJ2" s="108"/>
-      <c r="BK2" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL2" s="107"/>
-      <c r="BM2" s="107"/>
-      <c r="BN2" s="107"/>
-      <c r="BO2" s="108"/>
-      <c r="BP2" s="140" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ2" s="131"/>
-      <c r="BR2" s="131"/>
-      <c r="BS2" s="131"/>
-      <c r="BT2" s="131"/>
-      <c r="BU2" s="131"/>
-      <c r="BV2" s="131"/>
-      <c r="BW2" s="131"/>
-      <c r="BX2" s="141"/>
+      <c r="BQ2" s="120"/>
+      <c r="BR2" s="120"/>
+      <c r="BS2" s="120"/>
+      <c r="BT2" s="120"/>
+      <c r="BU2" s="120"/>
+      <c r="BV2" s="120"/>
+      <c r="BW2" s="120"/>
+      <c r="BX2" s="133"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -5031,51 +5031,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="148" t="s">
+      <c r="AM5" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="110" t="s">
+      <c r="AN5" s="151"/>
+      <c r="AO5" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="110" t="s">
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="159"/>
+      <c r="AR5" s="159"/>
+      <c r="AS5" s="159"/>
+      <c r="AT5" s="159"/>
+      <c r="AU5" s="151"/>
+      <c r="AV5" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="111"/>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="110" t="s">
+      <c r="AW5" s="159"/>
+      <c r="AX5" s="159"/>
+      <c r="AY5" s="159"/>
+      <c r="AZ5" s="151"/>
+      <c r="BA5" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="111"/>
-      <c r="BC5" s="111"/>
-      <c r="BD5" s="111"/>
-      <c r="BE5" s="111"/>
-      <c r="BF5" s="111"/>
-      <c r="BG5" s="111"/>
-      <c r="BH5" s="111"/>
-      <c r="BI5" s="111"/>
-      <c r="BJ5" s="111"/>
-      <c r="BK5" s="111"/>
-      <c r="BL5" s="111"/>
-      <c r="BM5" s="111"/>
-      <c r="BN5" s="111"/>
-      <c r="BO5" s="111"/>
-      <c r="BP5" s="111"/>
-      <c r="BQ5" s="111"/>
-      <c r="BR5" s="111"/>
-      <c r="BS5" s="111"/>
-      <c r="BT5" s="111"/>
-      <c r="BU5" s="111"/>
-      <c r="BV5" s="111"/>
-      <c r="BW5" s="112"/>
+      <c r="BB5" s="159"/>
+      <c r="BC5" s="159"/>
+      <c r="BD5" s="159"/>
+      <c r="BE5" s="159"/>
+      <c r="BF5" s="159"/>
+      <c r="BG5" s="159"/>
+      <c r="BH5" s="159"/>
+      <c r="BI5" s="159"/>
+      <c r="BJ5" s="159"/>
+      <c r="BK5" s="159"/>
+      <c r="BL5" s="159"/>
+      <c r="BM5" s="159"/>
+      <c r="BN5" s="159"/>
+      <c r="BO5" s="159"/>
+      <c r="BP5" s="159"/>
+      <c r="BQ5" s="159"/>
+      <c r="BR5" s="159"/>
+      <c r="BS5" s="159"/>
+      <c r="BT5" s="159"/>
+      <c r="BU5" s="159"/>
+      <c r="BV5" s="159"/>
+      <c r="BW5" s="160"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -5137,43 +5137,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="149"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="113"/>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114"/>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="114"/>
-      <c r="AX6" s="114"/>
-      <c r="AY6" s="114"/>
-      <c r="AZ6" s="133"/>
-      <c r="BA6" s="113"/>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="114"/>
-      <c r="BE6" s="114"/>
-      <c r="BF6" s="114"/>
-      <c r="BG6" s="114"/>
-      <c r="BH6" s="114"/>
-      <c r="BI6" s="114"/>
-      <c r="BJ6" s="114"/>
-      <c r="BK6" s="114"/>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="114"/>
-      <c r="BN6" s="114"/>
-      <c r="BO6" s="114"/>
-      <c r="BP6" s="114"/>
-      <c r="BQ6" s="114"/>
-      <c r="BR6" s="114"/>
-      <c r="BS6" s="114"/>
-      <c r="BT6" s="114"/>
-      <c r="BU6" s="114"/>
-      <c r="BV6" s="114"/>
-      <c r="BW6" s="115"/>
+      <c r="AM6" s="152"/>
+      <c r="AN6" s="124"/>
+      <c r="AO6" s="161"/>
+      <c r="AP6" s="123"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="123"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="123"/>
+      <c r="AU6" s="124"/>
+      <c r="AV6" s="161"/>
+      <c r="AW6" s="123"/>
+      <c r="AX6" s="123"/>
+      <c r="AY6" s="123"/>
+      <c r="AZ6" s="124"/>
+      <c r="BA6" s="161"/>
+      <c r="BB6" s="123"/>
+      <c r="BC6" s="123"/>
+      <c r="BD6" s="123"/>
+      <c r="BE6" s="123"/>
+      <c r="BF6" s="123"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="123"/>
+      <c r="BI6" s="123"/>
+      <c r="BJ6" s="123"/>
+      <c r="BK6" s="123"/>
+      <c r="BL6" s="123"/>
+      <c r="BM6" s="123"/>
+      <c r="BN6" s="123"/>
+      <c r="BO6" s="123"/>
+      <c r="BP6" s="123"/>
+      <c r="BQ6" s="123"/>
+      <c r="BR6" s="123"/>
+      <c r="BS6" s="123"/>
+      <c r="BT6" s="123"/>
+      <c r="BU6" s="123"/>
+      <c r="BV6" s="123"/>
+      <c r="BW6" s="129"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -5235,10 +5235,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="128" t="s">
+      <c r="AM7" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="129"/>
+      <c r="AN7" s="107"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -5439,10 +5439,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="128" t="s">
+      <c r="AM9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="129"/>
+      <c r="AN9" s="107"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -5643,10 +5643,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="128" t="s">
+      <c r="AM11" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="129"/>
+      <c r="AN11" s="107"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -5739,9 +5739,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122"/>
+      <c r="AD12" s="153"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -5846,10 +5846,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="128" t="s">
+      <c r="AM13" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="129"/>
+      <c r="AN13" s="107"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -6033,9 +6033,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="122"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -6142,10 +6142,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="128" t="s">
+      <c r="AM16" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="129"/>
+      <c r="AN16" s="107"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -6346,10 +6346,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="128" t="s">
+      <c r="AM18" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="129"/>
+      <c r="AN18" s="107"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -6540,19 +6540,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
+      <c r="AD20" s="153"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="111"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="128" t="s">
+      <c r="AM20" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="129"/>
+      <c r="AN20" s="107"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -6738,9 +6738,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="122"/>
-      <c r="AB22" s="122"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -6749,10 +6749,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="128" t="s">
+      <c r="AM22" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="129"/>
+      <c r="AN22" s="107"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -6953,10 +6953,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="128" t="s">
+      <c r="AM24" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="129"/>
+      <c r="AN24" s="107"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -7157,10 +7157,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="128" t="s">
+      <c r="AM26" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="129"/>
+      <c r="AN26" s="107"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -7253,9 +7253,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
+      <c r="AD27" s="153"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -7360,10 +7360,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="128" t="s">
+      <c r="AM28" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="129"/>
+      <c r="AN28" s="107"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -7451,9 +7451,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="122"/>
+      <c r="Z29" s="154"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="111"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -7560,10 +7560,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="128" t="s">
+      <c r="AM30" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="129"/>
+      <c r="AN30" s="107"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -7764,10 +7764,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="128" t="s">
+      <c r="AM32" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="129"/>
+      <c r="AN32" s="107"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -7968,10 +7968,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="128" t="s">
+      <c r="AM34" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="139"/>
+      <c r="AN34" s="157"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -8170,10 +8170,10 @@
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="128" t="s">
+      <c r="AM36" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="129"/>
+      <c r="AN36" s="107"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="AY36" s="4"/>
       <c r="AZ36" s="104"/>
       <c r="BA36" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BB36" s="4"/>
       <c r="BC36" s="4"/>
@@ -8248,29 +8248,29 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="122"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="137"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="122"/>
-      <c r="AA37" s="122"/>
-      <c r="AB37" s="138"/>
-      <c r="AC37" s="122"/>
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="122"/>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="122"/>
+      <c r="W37" s="155"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="156"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
@@ -8282,7 +8282,7 @@
       <c r="AV37" s="102"/>
       <c r="AZ37" s="103"/>
       <c r="BA37" s="105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BM37" s="4"/>
       <c r="BN37" s="4"/>
@@ -8328,29 +8328,29 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="122"/>
-      <c r="AB38" s="122"/>
-      <c r="AC38" s="122"/>
-      <c r="AD38" s="122"/>
-      <c r="AE38" s="122"/>
-      <c r="AF38" s="122"/>
-      <c r="AG38" s="122"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="111"/>
+      <c r="AC38" s="111"/>
+      <c r="AD38" s="111"/>
+      <c r="AE38" s="111"/>
+      <c r="AF38" s="111"/>
+      <c r="AG38" s="111"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
@@ -8362,7 +8362,7 @@
       <c r="AV38" s="102"/>
       <c r="AZ38" s="103"/>
       <c r="BA38" s="105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BM38" s="4"/>
       <c r="BN38" s="4"/>
@@ -8408,29 +8408,29 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="121"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="122"/>
-      <c r="AA39" s="122"/>
-      <c r="AB39" s="138"/>
-      <c r="AC39" s="122"/>
-      <c r="AD39" s="122"/>
-      <c r="AE39" s="122"/>
-      <c r="AF39" s="122"/>
-      <c r="AG39" s="122"/>
+      <c r="W39" s="162"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="156"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="101"/>
       <c r="AJ39" s="101"/>
@@ -8506,38 +8506,38 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="122"/>
-      <c r="X40" s="122"/>
-      <c r="Y40" s="122"/>
-      <c r="Z40" s="122"/>
-      <c r="AA40" s="122"/>
-      <c r="AB40" s="122"/>
-      <c r="AC40" s="122"/>
-      <c r="AD40" s="122"/>
-      <c r="AE40" s="122"/>
-      <c r="AF40" s="122"/>
-      <c r="AG40" s="122"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+      <c r="AA40" s="111"/>
+      <c r="AB40" s="111"/>
+      <c r="AC40" s="111"/>
+      <c r="AD40" s="111"/>
+      <c r="AE40" s="111"/>
+      <c r="AF40" s="111"/>
+      <c r="AG40" s="111"/>
       <c r="AH40" s="4"/>
       <c r="AI40" s="101"/>
       <c r="AJ40" s="101"/>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="128" t="s">
+      <c r="AM40" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="AN40" s="129"/>
+      <c r="AN40" s="107"/>
       <c r="AO40" s="21" t="s">
         <v>66</v>
       </c>
@@ -8612,29 +8612,29 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="122"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="122"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="123"/>
-      <c r="X41" s="122"/>
-      <c r="Y41" s="122"/>
-      <c r="Z41" s="122"/>
-      <c r="AA41" s="122"/>
-      <c r="AB41" s="138"/>
-      <c r="AC41" s="122"/>
-      <c r="AD41" s="122"/>
-      <c r="AE41" s="122"/>
-      <c r="AF41" s="122"/>
-      <c r="AG41" s="122"/>
+      <c r="W41" s="163"/>
+      <c r="X41" s="111"/>
+      <c r="Y41" s="111"/>
+      <c r="Z41" s="111"/>
+      <c r="AA41" s="111"/>
+      <c r="AB41" s="156"/>
+      <c r="AC41" s="111"/>
+      <c r="AD41" s="111"/>
+      <c r="AE41" s="111"/>
+      <c r="AF41" s="111"/>
+      <c r="AG41" s="111"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
@@ -8710,38 +8710,38 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
-      <c r="Y42" s="122"/>
-      <c r="Z42" s="122"/>
-      <c r="AA42" s="122"/>
-      <c r="AB42" s="122"/>
-      <c r="AC42" s="122"/>
-      <c r="AD42" s="122"/>
-      <c r="AE42" s="122"/>
-      <c r="AF42" s="122"/>
-      <c r="AG42" s="122"/>
+      <c r="W42" s="111"/>
+      <c r="X42" s="111"/>
+      <c r="Y42" s="111"/>
+      <c r="Z42" s="111"/>
+      <c r="AA42" s="111"/>
+      <c r="AB42" s="111"/>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="111"/>
+      <c r="AE42" s="111"/>
+      <c r="AF42" s="111"/>
+      <c r="AG42" s="111"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="128" t="s">
+      <c r="AM42" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="AN42" s="129"/>
+      <c r="AN42" s="107"/>
       <c r="AO42" s="21" t="s">
         <v>69</v>
       </c>
@@ -8816,29 +8816,29 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="111"/>
+      <c r="M43" s="111"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="125"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="122"/>
-      <c r="Z43" s="122"/>
-      <c r="AA43" s="122"/>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="122"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="122"/>
-      <c r="AG43" s="122"/>
+      <c r="W43" s="164"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="111"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="111"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -8914,38 +8914,38 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="122"/>
-      <c r="X44" s="122"/>
-      <c r="Y44" s="122"/>
-      <c r="Z44" s="122"/>
-      <c r="AA44" s="122"/>
-      <c r="AB44" s="122"/>
-      <c r="AC44" s="122"/>
-      <c r="AD44" s="122"/>
-      <c r="AE44" s="122"/>
-      <c r="AF44" s="122"/>
-      <c r="AG44" s="122"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
+      <c r="Z44" s="111"/>
+      <c r="AA44" s="111"/>
+      <c r="AB44" s="111"/>
+      <c r="AC44" s="111"/>
+      <c r="AD44" s="111"/>
+      <c r="AE44" s="111"/>
+      <c r="AF44" s="111"/>
+      <c r="AG44" s="111"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="163" t="s">
+      <c r="AM44" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="AN44" s="164"/>
+      <c r="AN44" s="109"/>
       <c r="AO44" s="96" t="s">
         <v>102</v>
       </c>
@@ -9148,8 +9148,8 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="128"/>
-      <c r="AN46" s="129"/>
+      <c r="AM46" s="106"/>
+      <c r="AN46" s="107"/>
       <c r="AO46" s="47"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -9344,8 +9344,8 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="128"/>
-      <c r="AN48" s="129"/>
+      <c r="AM48" s="106"/>
+      <c r="AN48" s="107"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
@@ -13075,8 +13075,8 @@
       <c r="AJ86" s="50"/>
       <c r="AK86" s="50"/>
       <c r="AL86" s="50"/>
-      <c r="AM86" s="154"/>
-      <c r="AN86" s="114"/>
+      <c r="AM86" s="138"/>
+      <c r="AN86" s="123"/>
       <c r="AO86" s="50"/>
       <c r="AP86" s="50"/>
       <c r="AQ86" s="50"/>
@@ -13135,190 +13135,190 @@
       <c r="CR86" s="4"/>
     </row>
     <row r="87" spans="1:96" ht="17.25">
-      <c r="A87" s="150" t="s">
+      <c r="A87" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="131"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="131"/>
-      <c r="E87" s="141"/>
-      <c r="F87" s="143" t="s">
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="133"/>
+      <c r="F87" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="131"/>
-      <c r="H87" s="131"/>
-      <c r="I87" s="131"/>
-      <c r="J87" s="131"/>
-      <c r="K87" s="131"/>
-      <c r="L87" s="131"/>
-      <c r="M87" s="131"/>
-      <c r="N87" s="131"/>
-      <c r="O87" s="131"/>
-      <c r="P87" s="131"/>
-      <c r="Q87" s="131"/>
-      <c r="R87" s="131"/>
-      <c r="S87" s="131"/>
-      <c r="T87" s="131"/>
-      <c r="U87" s="131"/>
-      <c r="V87" s="131"/>
-      <c r="W87" s="131"/>
-      <c r="X87" s="131"/>
-      <c r="Y87" s="131"/>
-      <c r="Z87" s="131"/>
-      <c r="AA87" s="131"/>
-      <c r="AB87" s="131"/>
-      <c r="AC87" s="131"/>
-      <c r="AD87" s="131"/>
-      <c r="AE87" s="131"/>
-      <c r="AF87" s="131"/>
-      <c r="AG87" s="131"/>
-      <c r="AH87" s="131"/>
-      <c r="AI87" s="131"/>
-      <c r="AJ87" s="131"/>
-      <c r="AK87" s="131"/>
-      <c r="AL87" s="131"/>
-      <c r="AM87" s="131"/>
-      <c r="AN87" s="131"/>
-      <c r="AO87" s="131"/>
-      <c r="AP87" s="131"/>
-      <c r="AQ87" s="131"/>
-      <c r="AR87" s="131"/>
-      <c r="AS87" s="131"/>
-      <c r="AT87" s="131"/>
-      <c r="AU87" s="131"/>
-      <c r="AV87" s="132"/>
-      <c r="AW87" s="130" t="s">
+      <c r="G87" s="120"/>
+      <c r="H87" s="120"/>
+      <c r="I87" s="120"/>
+      <c r="J87" s="120"/>
+      <c r="K87" s="120"/>
+      <c r="L87" s="120"/>
+      <c r="M87" s="120"/>
+      <c r="N87" s="120"/>
+      <c r="O87" s="120"/>
+      <c r="P87" s="120"/>
+      <c r="Q87" s="120"/>
+      <c r="R87" s="120"/>
+      <c r="S87" s="120"/>
+      <c r="T87" s="120"/>
+      <c r="U87" s="120"/>
+      <c r="V87" s="120"/>
+      <c r="W87" s="120"/>
+      <c r="X87" s="120"/>
+      <c r="Y87" s="120"/>
+      <c r="Z87" s="120"/>
+      <c r="AA87" s="120"/>
+      <c r="AB87" s="120"/>
+      <c r="AC87" s="120"/>
+      <c r="AD87" s="120"/>
+      <c r="AE87" s="120"/>
+      <c r="AF87" s="120"/>
+      <c r="AG87" s="120"/>
+      <c r="AH87" s="120"/>
+      <c r="AI87" s="120"/>
+      <c r="AJ87" s="120"/>
+      <c r="AK87" s="120"/>
+      <c r="AL87" s="120"/>
+      <c r="AM87" s="120"/>
+      <c r="AN87" s="120"/>
+      <c r="AO87" s="120"/>
+      <c r="AP87" s="120"/>
+      <c r="AQ87" s="120"/>
+      <c r="AR87" s="120"/>
+      <c r="AS87" s="120"/>
+      <c r="AT87" s="120"/>
+      <c r="AU87" s="120"/>
+      <c r="AV87" s="121"/>
+      <c r="AW87" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="AX87" s="131"/>
-      <c r="AY87" s="131"/>
-      <c r="AZ87" s="131"/>
-      <c r="BA87" s="132"/>
-      <c r="BB87" s="106" t="s">
+      <c r="AX87" s="120"/>
+      <c r="AY87" s="120"/>
+      <c r="AZ87" s="120"/>
+      <c r="BA87" s="121"/>
+      <c r="BB87" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="BC87" s="107"/>
-      <c r="BD87" s="107"/>
-      <c r="BE87" s="107"/>
-      <c r="BF87" s="107"/>
-      <c r="BG87" s="107"/>
-      <c r="BH87" s="107"/>
-      <c r="BI87" s="107"/>
-      <c r="BJ87" s="108"/>
-      <c r="BK87" s="130" t="s">
+      <c r="BC87" s="117"/>
+      <c r="BD87" s="117"/>
+      <c r="BE87" s="117"/>
+      <c r="BF87" s="117"/>
+      <c r="BG87" s="117"/>
+      <c r="BH87" s="117"/>
+      <c r="BI87" s="117"/>
+      <c r="BJ87" s="118"/>
+      <c r="BK87" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="BL87" s="131"/>
-      <c r="BM87" s="131"/>
-      <c r="BN87" s="131"/>
-      <c r="BO87" s="132"/>
-      <c r="BP87" s="140" t="s">
+      <c r="BL87" s="120"/>
+      <c r="BM87" s="120"/>
+      <c r="BN87" s="120"/>
+      <c r="BO87" s="121"/>
+      <c r="BP87" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ87" s="131"/>
-      <c r="BR87" s="131"/>
-      <c r="BS87" s="131"/>
-      <c r="BT87" s="131"/>
-      <c r="BU87" s="131"/>
-      <c r="BV87" s="131"/>
-      <c r="BW87" s="131"/>
-      <c r="BX87" s="141"/>
+      <c r="BQ87" s="120"/>
+      <c r="BR87" s="120"/>
+      <c r="BS87" s="120"/>
+      <c r="BT87" s="120"/>
+      <c r="BU87" s="120"/>
+      <c r="BV87" s="120"/>
+      <c r="BW87" s="120"/>
+      <c r="BX87" s="133"/>
       <c r="BY87" s="54"/>
       <c r="BZ87" s="54"/>
     </row>
     <row r="88" spans="1:96" ht="18">
-      <c r="A88" s="151" t="s">
+      <c r="A88" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="152"/>
-      <c r="F88" s="120" t="s">
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="117"/>
-      <c r="H88" s="117"/>
-      <c r="I88" s="117"/>
-      <c r="J88" s="117"/>
-      <c r="K88" s="117"/>
-      <c r="L88" s="117"/>
-      <c r="M88" s="117"/>
-      <c r="N88" s="117"/>
-      <c r="O88" s="117"/>
-      <c r="P88" s="117"/>
-      <c r="Q88" s="117"/>
-      <c r="R88" s="117"/>
-      <c r="S88" s="117"/>
-      <c r="T88" s="117"/>
-      <c r="U88" s="117"/>
-      <c r="V88" s="117"/>
-      <c r="W88" s="117"/>
-      <c r="X88" s="117"/>
-      <c r="Y88" s="119"/>
-      <c r="Z88" s="118" t="s">
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="114"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="114"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
+      <c r="Q88" s="114"/>
+      <c r="R88" s="114"/>
+      <c r="S88" s="114"/>
+      <c r="T88" s="114"/>
+      <c r="U88" s="114"/>
+      <c r="V88" s="114"/>
+      <c r="W88" s="114"/>
+      <c r="X88" s="114"/>
+      <c r="Y88" s="115"/>
+      <c r="Z88" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AA88" s="117"/>
-      <c r="AB88" s="117"/>
-      <c r="AC88" s="117"/>
-      <c r="AD88" s="119"/>
-      <c r="AE88" s="120" t="s">
+      <c r="AA88" s="114"/>
+      <c r="AB88" s="114"/>
+      <c r="AC88" s="114"/>
+      <c r="AD88" s="115"/>
+      <c r="AE88" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="AF88" s="117"/>
-      <c r="AG88" s="117"/>
-      <c r="AH88" s="117"/>
-      <c r="AI88" s="117"/>
-      <c r="AJ88" s="117"/>
-      <c r="AK88" s="117"/>
-      <c r="AL88" s="117"/>
-      <c r="AM88" s="117"/>
-      <c r="AN88" s="117"/>
-      <c r="AO88" s="117"/>
-      <c r="AP88" s="117"/>
-      <c r="AQ88" s="117"/>
-      <c r="AR88" s="117"/>
-      <c r="AS88" s="117"/>
-      <c r="AT88" s="117"/>
-      <c r="AU88" s="117"/>
-      <c r="AV88" s="119"/>
-      <c r="AW88" s="118" t="s">
+      <c r="AF88" s="114"/>
+      <c r="AG88" s="114"/>
+      <c r="AH88" s="114"/>
+      <c r="AI88" s="114"/>
+      <c r="AJ88" s="114"/>
+      <c r="AK88" s="114"/>
+      <c r="AL88" s="114"/>
+      <c r="AM88" s="114"/>
+      <c r="AN88" s="114"/>
+      <c r="AO88" s="114"/>
+      <c r="AP88" s="114"/>
+      <c r="AQ88" s="114"/>
+      <c r="AR88" s="114"/>
+      <c r="AS88" s="114"/>
+      <c r="AT88" s="114"/>
+      <c r="AU88" s="114"/>
+      <c r="AV88" s="115"/>
+      <c r="AW88" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AX88" s="117"/>
-      <c r="AY88" s="117"/>
-      <c r="AZ88" s="117"/>
-      <c r="BA88" s="119"/>
-      <c r="BB88" s="116" t="s">
+      <c r="AX88" s="114"/>
+      <c r="AY88" s="114"/>
+      <c r="AZ88" s="114"/>
+      <c r="BA88" s="115"/>
+      <c r="BB88" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="BC88" s="117"/>
-      <c r="BD88" s="117"/>
-      <c r="BE88" s="117"/>
-      <c r="BF88" s="117"/>
-      <c r="BG88" s="117"/>
-      <c r="BH88" s="117"/>
-      <c r="BI88" s="117"/>
-      <c r="BJ88" s="117"/>
-      <c r="BK88" s="118" t="s">
+      <c r="BC88" s="114"/>
+      <c r="BD88" s="114"/>
+      <c r="BE88" s="114"/>
+      <c r="BF88" s="114"/>
+      <c r="BG88" s="114"/>
+      <c r="BH88" s="114"/>
+      <c r="BI88" s="114"/>
+      <c r="BJ88" s="114"/>
+      <c r="BK88" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="BL88" s="117"/>
-      <c r="BM88" s="117"/>
-      <c r="BN88" s="117"/>
-      <c r="BO88" s="119"/>
-      <c r="BP88" s="140" t="s">
+      <c r="BL88" s="114"/>
+      <c r="BM88" s="114"/>
+      <c r="BN88" s="114"/>
+      <c r="BO88" s="115"/>
+      <c r="BP88" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ88" s="131"/>
-      <c r="BR88" s="131"/>
-      <c r="BS88" s="131"/>
-      <c r="BT88" s="131"/>
-      <c r="BU88" s="131"/>
-      <c r="BV88" s="131"/>
-      <c r="BW88" s="131"/>
-      <c r="BX88" s="141"/>
+      <c r="BQ88" s="120"/>
+      <c r="BR88" s="120"/>
+      <c r="BS88" s="120"/>
+      <c r="BT88" s="120"/>
+      <c r="BU88" s="120"/>
+      <c r="BV88" s="120"/>
+      <c r="BW88" s="120"/>
+      <c r="BX88" s="133"/>
       <c r="BY88" s="54"/>
       <c r="BZ88" s="54"/>
     </row>
@@ -13523,51 +13523,51 @@
       <c r="AJ91" s="33"/>
       <c r="AK91" s="33"/>
       <c r="AL91" s="55"/>
-      <c r="AM91" s="126" t="s">
+      <c r="AM91" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AN91" s="127"/>
-      <c r="AO91" s="126" t="s">
+      <c r="AN91" s="128"/>
+      <c r="AO91" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="AP91" s="122"/>
-      <c r="AQ91" s="122"/>
-      <c r="AR91" s="122"/>
-      <c r="AS91" s="122"/>
-      <c r="AT91" s="122"/>
-      <c r="AU91" s="129"/>
-      <c r="AV91" s="126" t="s">
+      <c r="AP91" s="111"/>
+      <c r="AQ91" s="111"/>
+      <c r="AR91" s="111"/>
+      <c r="AS91" s="111"/>
+      <c r="AT91" s="111"/>
+      <c r="AU91" s="107"/>
+      <c r="AV91" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="AW91" s="122"/>
-      <c r="AX91" s="122"/>
-      <c r="AY91" s="122"/>
-      <c r="AZ91" s="129"/>
-      <c r="BA91" s="126" t="s">
+      <c r="AW91" s="111"/>
+      <c r="AX91" s="111"/>
+      <c r="AY91" s="111"/>
+      <c r="AZ91" s="107"/>
+      <c r="BA91" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="BB91" s="122"/>
-      <c r="BC91" s="122"/>
-      <c r="BD91" s="122"/>
-      <c r="BE91" s="122"/>
-      <c r="BF91" s="122"/>
-      <c r="BG91" s="122"/>
-      <c r="BH91" s="122"/>
-      <c r="BI91" s="122"/>
-      <c r="BJ91" s="122"/>
-      <c r="BK91" s="122"/>
-      <c r="BL91" s="122"/>
-      <c r="BM91" s="122"/>
-      <c r="BN91" s="122"/>
-      <c r="BO91" s="122"/>
-      <c r="BP91" s="122"/>
-      <c r="BQ91" s="122"/>
-      <c r="BR91" s="122"/>
-      <c r="BS91" s="122"/>
-      <c r="BT91" s="122"/>
-      <c r="BU91" s="122"/>
-      <c r="BV91" s="122"/>
-      <c r="BW91" s="127"/>
+      <c r="BB91" s="111"/>
+      <c r="BC91" s="111"/>
+      <c r="BD91" s="111"/>
+      <c r="BE91" s="111"/>
+      <c r="BF91" s="111"/>
+      <c r="BG91" s="111"/>
+      <c r="BH91" s="111"/>
+      <c r="BI91" s="111"/>
+      <c r="BJ91" s="111"/>
+      <c r="BK91" s="111"/>
+      <c r="BL91" s="111"/>
+      <c r="BM91" s="111"/>
+      <c r="BN91" s="111"/>
+      <c r="BO91" s="111"/>
+      <c r="BP91" s="111"/>
+      <c r="BQ91" s="111"/>
+      <c r="BR91" s="111"/>
+      <c r="BS91" s="111"/>
+      <c r="BT91" s="111"/>
+      <c r="BU91" s="111"/>
+      <c r="BV91" s="111"/>
+      <c r="BW91" s="128"/>
       <c r="BX91" s="55"/>
       <c r="BY91" s="33"/>
       <c r="BZ91" s="33"/>
@@ -13575,14 +13575,14 @@
     <row r="92" spans="1:96" ht="13.5">
       <c r="A92" s="45"/>
       <c r="B92" s="57"/>
-      <c r="C92" s="155" t="s">
+      <c r="C92" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="156"/>
-      <c r="E92" s="156"/>
-      <c r="F92" s="156"/>
-      <c r="G92" s="156"/>
-      <c r="H92" s="156"/>
+      <c r="D92" s="140"/>
+      <c r="E92" s="140"/>
+      <c r="F92" s="140"/>
+      <c r="G92" s="140"/>
+      <c r="H92" s="140"/>
       <c r="I92" s="58"/>
       <c r="J92" s="58"/>
       <c r="K92" s="58"/>
@@ -13613,43 +13613,43 @@
       <c r="AJ92" s="33"/>
       <c r="AK92" s="33"/>
       <c r="AL92" s="55"/>
-      <c r="AM92" s="114"/>
-      <c r="AN92" s="115"/>
-      <c r="AO92" s="114"/>
-      <c r="AP92" s="114"/>
-      <c r="AQ92" s="114"/>
-      <c r="AR92" s="114"/>
-      <c r="AS92" s="114"/>
-      <c r="AT92" s="114"/>
-      <c r="AU92" s="133"/>
-      <c r="AV92" s="114"/>
-      <c r="AW92" s="114"/>
-      <c r="AX92" s="114"/>
-      <c r="AY92" s="114"/>
-      <c r="AZ92" s="133"/>
-      <c r="BA92" s="114"/>
-      <c r="BB92" s="114"/>
-      <c r="BC92" s="114"/>
-      <c r="BD92" s="114"/>
-      <c r="BE92" s="114"/>
-      <c r="BF92" s="114"/>
-      <c r="BG92" s="114"/>
-      <c r="BH92" s="114"/>
-      <c r="BI92" s="114"/>
-      <c r="BJ92" s="114"/>
-      <c r="BK92" s="114"/>
-      <c r="BL92" s="114"/>
-      <c r="BM92" s="114"/>
-      <c r="BN92" s="114"/>
-      <c r="BO92" s="114"/>
-      <c r="BP92" s="114"/>
-      <c r="BQ92" s="114"/>
-      <c r="BR92" s="114"/>
-      <c r="BS92" s="114"/>
-      <c r="BT92" s="114"/>
-      <c r="BU92" s="114"/>
-      <c r="BV92" s="114"/>
-      <c r="BW92" s="115"/>
+      <c r="AM92" s="123"/>
+      <c r="AN92" s="129"/>
+      <c r="AO92" s="123"/>
+      <c r="AP92" s="123"/>
+      <c r="AQ92" s="123"/>
+      <c r="AR92" s="123"/>
+      <c r="AS92" s="123"/>
+      <c r="AT92" s="123"/>
+      <c r="AU92" s="124"/>
+      <c r="AV92" s="123"/>
+      <c r="AW92" s="123"/>
+      <c r="AX92" s="123"/>
+      <c r="AY92" s="123"/>
+      <c r="AZ92" s="124"/>
+      <c r="BA92" s="123"/>
+      <c r="BB92" s="123"/>
+      <c r="BC92" s="123"/>
+      <c r="BD92" s="123"/>
+      <c r="BE92" s="123"/>
+      <c r="BF92" s="123"/>
+      <c r="BG92" s="123"/>
+      <c r="BH92" s="123"/>
+      <c r="BI92" s="123"/>
+      <c r="BJ92" s="123"/>
+      <c r="BK92" s="123"/>
+      <c r="BL92" s="123"/>
+      <c r="BM92" s="123"/>
+      <c r="BN92" s="123"/>
+      <c r="BO92" s="123"/>
+      <c r="BP92" s="123"/>
+      <c r="BQ92" s="123"/>
+      <c r="BR92" s="123"/>
+      <c r="BS92" s="123"/>
+      <c r="BT92" s="123"/>
+      <c r="BU92" s="123"/>
+      <c r="BV92" s="123"/>
+      <c r="BW92" s="129"/>
       <c r="BX92" s="55"/>
       <c r="BY92" s="33"/>
       <c r="BZ92" s="33"/>
@@ -13657,12 +13657,12 @@
     <row r="93" spans="1:96">
       <c r="A93" s="45"/>
       <c r="B93" s="60"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="122"/>
-      <c r="E93" s="122"/>
-      <c r="F93" s="122"/>
-      <c r="G93" s="122"/>
-      <c r="H93" s="122"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="111"/>
+      <c r="E93" s="111"/>
+      <c r="F93" s="111"/>
+      <c r="G93" s="111"/>
+      <c r="H93" s="111"/>
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
       <c r="K93" s="33"/>
@@ -13693,10 +13693,10 @@
       <c r="AJ93" s="33"/>
       <c r="AK93" s="33"/>
       <c r="AL93" s="55"/>
-      <c r="AM93" s="128" t="s">
+      <c r="AM93" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AN93" s="129"/>
+      <c r="AN93" s="107"/>
       <c r="AO93" s="61" t="s">
         <v>76</v>
       </c>
@@ -13863,10 +13863,10 @@
       <c r="AJ95" s="33"/>
       <c r="AK95" s="33"/>
       <c r="AL95" s="55"/>
-      <c r="AM95" s="142">
+      <c r="AM95" s="112">
         <v>2</v>
       </c>
-      <c r="AN95" s="122"/>
+      <c r="AN95" s="111"/>
       <c r="AO95" s="66" t="s">
         <v>79</v>
       </c>
@@ -14097,10 +14097,10 @@
       <c r="AJ98" s="33"/>
       <c r="AK98" s="33"/>
       <c r="AL98" s="55"/>
-      <c r="AM98" s="162" t="s">
+      <c r="AM98" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AN98" s="122"/>
+      <c r="AN98" s="111"/>
       <c r="AO98" s="68" t="s">
         <v>83</v>
       </c>
@@ -14153,16 +14153,16 @@
       <c r="D99" s="33"/>
       <c r="E99" s="33"/>
       <c r="F99" s="33"/>
-      <c r="G99" s="157" t="s">
+      <c r="G99" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="H99" s="156"/>
-      <c r="I99" s="156"/>
-      <c r="J99" s="156"/>
-      <c r="K99" s="156"/>
-      <c r="L99" s="156"/>
-      <c r="M99" s="156"/>
-      <c r="N99" s="158"/>
+      <c r="H99" s="140"/>
+      <c r="I99" s="140"/>
+      <c r="J99" s="140"/>
+      <c r="K99" s="140"/>
+      <c r="L99" s="140"/>
+      <c r="M99" s="140"/>
+      <c r="N99" s="142"/>
       <c r="O99" s="33"/>
       <c r="P99" s="33"/>
       <c r="Q99" s="33"/>
@@ -14235,14 +14235,14 @@
       <c r="D100" s="33"/>
       <c r="E100" s="33"/>
       <c r="F100" s="33"/>
-      <c r="G100" s="159"/>
-      <c r="H100" s="117"/>
-      <c r="I100" s="117"/>
-      <c r="J100" s="117"/>
-      <c r="K100" s="117"/>
-      <c r="L100" s="117"/>
-      <c r="M100" s="117"/>
-      <c r="N100" s="119"/>
+      <c r="G100" s="143"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="114"/>
+      <c r="J100" s="114"/>
+      <c r="K100" s="114"/>
+      <c r="L100" s="114"/>
+      <c r="M100" s="114"/>
+      <c r="N100" s="115"/>
       <c r="O100" s="33"/>
       <c r="P100" s="33"/>
       <c r="Q100" s="33"/>
@@ -17429,190 +17429,190 @@
       <c r="BZ139" s="33"/>
     </row>
     <row r="140" spans="1:78" ht="17.25">
-      <c r="A140" s="150" t="s">
+      <c r="A140" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="131"/>
-      <c r="C140" s="131"/>
-      <c r="D140" s="131"/>
-      <c r="E140" s="141"/>
-      <c r="F140" s="143" t="s">
+      <c r="B140" s="120"/>
+      <c r="C140" s="120"/>
+      <c r="D140" s="120"/>
+      <c r="E140" s="133"/>
+      <c r="F140" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="131"/>
-      <c r="H140" s="131"/>
-      <c r="I140" s="131"/>
-      <c r="J140" s="131"/>
-      <c r="K140" s="131"/>
-      <c r="L140" s="131"/>
-      <c r="M140" s="131"/>
-      <c r="N140" s="131"/>
-      <c r="O140" s="131"/>
-      <c r="P140" s="131"/>
-      <c r="Q140" s="131"/>
-      <c r="R140" s="131"/>
-      <c r="S140" s="131"/>
-      <c r="T140" s="131"/>
-      <c r="U140" s="131"/>
-      <c r="V140" s="131"/>
-      <c r="W140" s="131"/>
-      <c r="X140" s="131"/>
-      <c r="Y140" s="131"/>
-      <c r="Z140" s="131"/>
-      <c r="AA140" s="131"/>
-      <c r="AB140" s="131"/>
-      <c r="AC140" s="131"/>
-      <c r="AD140" s="131"/>
-      <c r="AE140" s="131"/>
-      <c r="AF140" s="131"/>
-      <c r="AG140" s="131"/>
-      <c r="AH140" s="131"/>
-      <c r="AI140" s="131"/>
-      <c r="AJ140" s="131"/>
-      <c r="AK140" s="131"/>
-      <c r="AL140" s="131"/>
-      <c r="AM140" s="131"/>
-      <c r="AN140" s="131"/>
-      <c r="AO140" s="131"/>
-      <c r="AP140" s="131"/>
-      <c r="AQ140" s="131"/>
-      <c r="AR140" s="131"/>
-      <c r="AS140" s="131"/>
-      <c r="AT140" s="131"/>
-      <c r="AU140" s="131"/>
-      <c r="AV140" s="132"/>
-      <c r="AW140" s="130" t="s">
+      <c r="G140" s="120"/>
+      <c r="H140" s="120"/>
+      <c r="I140" s="120"/>
+      <c r="J140" s="120"/>
+      <c r="K140" s="120"/>
+      <c r="L140" s="120"/>
+      <c r="M140" s="120"/>
+      <c r="N140" s="120"/>
+      <c r="O140" s="120"/>
+      <c r="P140" s="120"/>
+      <c r="Q140" s="120"/>
+      <c r="R140" s="120"/>
+      <c r="S140" s="120"/>
+      <c r="T140" s="120"/>
+      <c r="U140" s="120"/>
+      <c r="V140" s="120"/>
+      <c r="W140" s="120"/>
+      <c r="X140" s="120"/>
+      <c r="Y140" s="120"/>
+      <c r="Z140" s="120"/>
+      <c r="AA140" s="120"/>
+      <c r="AB140" s="120"/>
+      <c r="AC140" s="120"/>
+      <c r="AD140" s="120"/>
+      <c r="AE140" s="120"/>
+      <c r="AF140" s="120"/>
+      <c r="AG140" s="120"/>
+      <c r="AH140" s="120"/>
+      <c r="AI140" s="120"/>
+      <c r="AJ140" s="120"/>
+      <c r="AK140" s="120"/>
+      <c r="AL140" s="120"/>
+      <c r="AM140" s="120"/>
+      <c r="AN140" s="120"/>
+      <c r="AO140" s="120"/>
+      <c r="AP140" s="120"/>
+      <c r="AQ140" s="120"/>
+      <c r="AR140" s="120"/>
+      <c r="AS140" s="120"/>
+      <c r="AT140" s="120"/>
+      <c r="AU140" s="120"/>
+      <c r="AV140" s="121"/>
+      <c r="AW140" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="AX140" s="131"/>
-      <c r="AY140" s="131"/>
-      <c r="AZ140" s="131"/>
-      <c r="BA140" s="132"/>
-      <c r="BB140" s="106" t="s">
+      <c r="AX140" s="120"/>
+      <c r="AY140" s="120"/>
+      <c r="AZ140" s="120"/>
+      <c r="BA140" s="121"/>
+      <c r="BB140" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="BC140" s="107"/>
-      <c r="BD140" s="107"/>
-      <c r="BE140" s="107"/>
-      <c r="BF140" s="107"/>
-      <c r="BG140" s="107"/>
-      <c r="BH140" s="107"/>
-      <c r="BI140" s="107"/>
-      <c r="BJ140" s="108"/>
-      <c r="BK140" s="130" t="s">
+      <c r="BC140" s="117"/>
+      <c r="BD140" s="117"/>
+      <c r="BE140" s="117"/>
+      <c r="BF140" s="117"/>
+      <c r="BG140" s="117"/>
+      <c r="BH140" s="117"/>
+      <c r="BI140" s="117"/>
+      <c r="BJ140" s="118"/>
+      <c r="BK140" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="BL140" s="131"/>
-      <c r="BM140" s="131"/>
-      <c r="BN140" s="131"/>
-      <c r="BO140" s="132"/>
-      <c r="BP140" s="140" t="s">
+      <c r="BL140" s="120"/>
+      <c r="BM140" s="120"/>
+      <c r="BN140" s="120"/>
+      <c r="BO140" s="121"/>
+      <c r="BP140" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ140" s="131"/>
-      <c r="BR140" s="131"/>
-      <c r="BS140" s="131"/>
-      <c r="BT140" s="131"/>
-      <c r="BU140" s="131"/>
-      <c r="BV140" s="131"/>
-      <c r="BW140" s="131"/>
-      <c r="BX140" s="141"/>
+      <c r="BQ140" s="120"/>
+      <c r="BR140" s="120"/>
+      <c r="BS140" s="120"/>
+      <c r="BT140" s="120"/>
+      <c r="BU140" s="120"/>
+      <c r="BV140" s="120"/>
+      <c r="BW140" s="120"/>
+      <c r="BX140" s="133"/>
       <c r="BY140" s="54"/>
       <c r="BZ140" s="54"/>
     </row>
     <row r="141" spans="1:78" ht="18">
-      <c r="A141" s="151" t="s">
+      <c r="A141" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="117"/>
-      <c r="C141" s="117"/>
-      <c r="D141" s="117"/>
-      <c r="E141" s="152"/>
-      <c r="F141" s="120" t="s">
+      <c r="B141" s="114"/>
+      <c r="C141" s="114"/>
+      <c r="D141" s="114"/>
+      <c r="E141" s="135"/>
+      <c r="F141" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G141" s="117"/>
-      <c r="H141" s="117"/>
-      <c r="I141" s="117"/>
-      <c r="J141" s="117"/>
-      <c r="K141" s="117"/>
-      <c r="L141" s="117"/>
-      <c r="M141" s="117"/>
-      <c r="N141" s="117"/>
-      <c r="O141" s="117"/>
-      <c r="P141" s="117"/>
-      <c r="Q141" s="117"/>
-      <c r="R141" s="117"/>
-      <c r="S141" s="117"/>
-      <c r="T141" s="117"/>
-      <c r="U141" s="117"/>
-      <c r="V141" s="117"/>
-      <c r="W141" s="117"/>
-      <c r="X141" s="117"/>
-      <c r="Y141" s="119"/>
-      <c r="Z141" s="118" t="s">
+      <c r="G141" s="114"/>
+      <c r="H141" s="114"/>
+      <c r="I141" s="114"/>
+      <c r="J141" s="114"/>
+      <c r="K141" s="114"/>
+      <c r="L141" s="114"/>
+      <c r="M141" s="114"/>
+      <c r="N141" s="114"/>
+      <c r="O141" s="114"/>
+      <c r="P141" s="114"/>
+      <c r="Q141" s="114"/>
+      <c r="R141" s="114"/>
+      <c r="S141" s="114"/>
+      <c r="T141" s="114"/>
+      <c r="U141" s="114"/>
+      <c r="V141" s="114"/>
+      <c r="W141" s="114"/>
+      <c r="X141" s="114"/>
+      <c r="Y141" s="115"/>
+      <c r="Z141" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AA141" s="117"/>
-      <c r="AB141" s="117"/>
-      <c r="AC141" s="117"/>
-      <c r="AD141" s="119"/>
-      <c r="AE141" s="120" t="s">
+      <c r="AA141" s="114"/>
+      <c r="AB141" s="114"/>
+      <c r="AC141" s="114"/>
+      <c r="AD141" s="115"/>
+      <c r="AE141" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="AF141" s="117"/>
-      <c r="AG141" s="117"/>
-      <c r="AH141" s="117"/>
-      <c r="AI141" s="117"/>
-      <c r="AJ141" s="117"/>
-      <c r="AK141" s="117"/>
-      <c r="AL141" s="117"/>
-      <c r="AM141" s="117"/>
-      <c r="AN141" s="117"/>
-      <c r="AO141" s="117"/>
-      <c r="AP141" s="117"/>
-      <c r="AQ141" s="117"/>
-      <c r="AR141" s="117"/>
-      <c r="AS141" s="117"/>
-      <c r="AT141" s="117"/>
-      <c r="AU141" s="117"/>
-      <c r="AV141" s="119"/>
-      <c r="AW141" s="118" t="s">
+      <c r="AF141" s="114"/>
+      <c r="AG141" s="114"/>
+      <c r="AH141" s="114"/>
+      <c r="AI141" s="114"/>
+      <c r="AJ141" s="114"/>
+      <c r="AK141" s="114"/>
+      <c r="AL141" s="114"/>
+      <c r="AM141" s="114"/>
+      <c r="AN141" s="114"/>
+      <c r="AO141" s="114"/>
+      <c r="AP141" s="114"/>
+      <c r="AQ141" s="114"/>
+      <c r="AR141" s="114"/>
+      <c r="AS141" s="114"/>
+      <c r="AT141" s="114"/>
+      <c r="AU141" s="114"/>
+      <c r="AV141" s="115"/>
+      <c r="AW141" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AX141" s="117"/>
-      <c r="AY141" s="117"/>
-      <c r="AZ141" s="117"/>
-      <c r="BA141" s="119"/>
-      <c r="BB141" s="116" t="s">
+      <c r="AX141" s="114"/>
+      <c r="AY141" s="114"/>
+      <c r="AZ141" s="114"/>
+      <c r="BA141" s="115"/>
+      <c r="BB141" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="BC141" s="117"/>
-      <c r="BD141" s="117"/>
-      <c r="BE141" s="117"/>
-      <c r="BF141" s="117"/>
-      <c r="BG141" s="117"/>
-      <c r="BH141" s="117"/>
-      <c r="BI141" s="117"/>
-      <c r="BJ141" s="117"/>
-      <c r="BK141" s="118" t="s">
+      <c r="BC141" s="114"/>
+      <c r="BD141" s="114"/>
+      <c r="BE141" s="114"/>
+      <c r="BF141" s="114"/>
+      <c r="BG141" s="114"/>
+      <c r="BH141" s="114"/>
+      <c r="BI141" s="114"/>
+      <c r="BJ141" s="114"/>
+      <c r="BK141" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="BL141" s="117"/>
-      <c r="BM141" s="117"/>
-      <c r="BN141" s="117"/>
-      <c r="BO141" s="119"/>
-      <c r="BP141" s="140" t="s">
+      <c r="BL141" s="114"/>
+      <c r="BM141" s="114"/>
+      <c r="BN141" s="114"/>
+      <c r="BO141" s="115"/>
+      <c r="BP141" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ141" s="131"/>
-      <c r="BR141" s="131"/>
-      <c r="BS141" s="131"/>
-      <c r="BT141" s="131"/>
-      <c r="BU141" s="131"/>
-      <c r="BV141" s="131"/>
-      <c r="BW141" s="131"/>
-      <c r="BX141" s="141"/>
+      <c r="BQ141" s="120"/>
+      <c r="BR141" s="120"/>
+      <c r="BS141" s="120"/>
+      <c r="BT141" s="120"/>
+      <c r="BU141" s="120"/>
+      <c r="BV141" s="120"/>
+      <c r="BW141" s="120"/>
+      <c r="BX141" s="133"/>
       <c r="BY141" s="54"/>
       <c r="BZ141" s="54"/>
     </row>
@@ -17817,51 +17817,51 @@
       <c r="AJ144" s="4"/>
       <c r="AK144" s="4"/>
       <c r="AL144" s="55"/>
-      <c r="AM144" s="126" t="s">
+      <c r="AM144" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AN144" s="127"/>
-      <c r="AO144" s="126" t="s">
+      <c r="AN144" s="128"/>
+      <c r="AO144" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="AP144" s="122"/>
-      <c r="AQ144" s="122"/>
-      <c r="AR144" s="122"/>
-      <c r="AS144" s="122"/>
-      <c r="AT144" s="122"/>
-      <c r="AU144" s="129"/>
-      <c r="AV144" s="126" t="s">
+      <c r="AP144" s="111"/>
+      <c r="AQ144" s="111"/>
+      <c r="AR144" s="111"/>
+      <c r="AS144" s="111"/>
+      <c r="AT144" s="111"/>
+      <c r="AU144" s="107"/>
+      <c r="AV144" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="AW144" s="122"/>
-      <c r="AX144" s="122"/>
-      <c r="AY144" s="122"/>
-      <c r="AZ144" s="129"/>
-      <c r="BA144" s="126" t="s">
+      <c r="AW144" s="111"/>
+      <c r="AX144" s="111"/>
+      <c r="AY144" s="111"/>
+      <c r="AZ144" s="107"/>
+      <c r="BA144" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="BB144" s="122"/>
-      <c r="BC144" s="122"/>
-      <c r="BD144" s="122"/>
-      <c r="BE144" s="122"/>
-      <c r="BF144" s="122"/>
-      <c r="BG144" s="122"/>
-      <c r="BH144" s="122"/>
-      <c r="BI144" s="122"/>
-      <c r="BJ144" s="122"/>
-      <c r="BK144" s="122"/>
-      <c r="BL144" s="122"/>
-      <c r="BM144" s="122"/>
-      <c r="BN144" s="122"/>
-      <c r="BO144" s="122"/>
-      <c r="BP144" s="122"/>
-      <c r="BQ144" s="122"/>
-      <c r="BR144" s="122"/>
-      <c r="BS144" s="122"/>
-      <c r="BT144" s="122"/>
-      <c r="BU144" s="122"/>
-      <c r="BV144" s="122"/>
-      <c r="BW144" s="127"/>
+      <c r="BB144" s="111"/>
+      <c r="BC144" s="111"/>
+      <c r="BD144" s="111"/>
+      <c r="BE144" s="111"/>
+      <c r="BF144" s="111"/>
+      <c r="BG144" s="111"/>
+      <c r="BH144" s="111"/>
+      <c r="BI144" s="111"/>
+      <c r="BJ144" s="111"/>
+      <c r="BK144" s="111"/>
+      <c r="BL144" s="111"/>
+      <c r="BM144" s="111"/>
+      <c r="BN144" s="111"/>
+      <c r="BO144" s="111"/>
+      <c r="BP144" s="111"/>
+      <c r="BQ144" s="111"/>
+      <c r="BR144" s="111"/>
+      <c r="BS144" s="111"/>
+      <c r="BT144" s="111"/>
+      <c r="BU144" s="111"/>
+      <c r="BV144" s="111"/>
+      <c r="BW144" s="128"/>
       <c r="BX144" s="55"/>
       <c r="BY144" s="4"/>
       <c r="BZ144" s="4"/>
@@ -17905,43 +17905,43 @@
       <c r="AJ145" s="4"/>
       <c r="AK145" s="4"/>
       <c r="AL145" s="55"/>
-      <c r="AM145" s="114"/>
-      <c r="AN145" s="115"/>
-      <c r="AO145" s="114"/>
-      <c r="AP145" s="114"/>
-      <c r="AQ145" s="114"/>
-      <c r="AR145" s="114"/>
-      <c r="AS145" s="114"/>
-      <c r="AT145" s="114"/>
-      <c r="AU145" s="133"/>
-      <c r="AV145" s="114"/>
-      <c r="AW145" s="114"/>
-      <c r="AX145" s="114"/>
-      <c r="AY145" s="114"/>
-      <c r="AZ145" s="133"/>
-      <c r="BA145" s="114"/>
-      <c r="BB145" s="114"/>
-      <c r="BC145" s="114"/>
-      <c r="BD145" s="114"/>
-      <c r="BE145" s="114"/>
-      <c r="BF145" s="114"/>
-      <c r="BG145" s="114"/>
-      <c r="BH145" s="114"/>
-      <c r="BI145" s="114"/>
-      <c r="BJ145" s="114"/>
-      <c r="BK145" s="114"/>
-      <c r="BL145" s="114"/>
-      <c r="BM145" s="114"/>
-      <c r="BN145" s="114"/>
-      <c r="BO145" s="114"/>
-      <c r="BP145" s="114"/>
-      <c r="BQ145" s="114"/>
-      <c r="BR145" s="114"/>
-      <c r="BS145" s="114"/>
-      <c r="BT145" s="114"/>
-      <c r="BU145" s="114"/>
-      <c r="BV145" s="114"/>
-      <c r="BW145" s="115"/>
+      <c r="AM145" s="123"/>
+      <c r="AN145" s="129"/>
+      <c r="AO145" s="123"/>
+      <c r="AP145" s="123"/>
+      <c r="AQ145" s="123"/>
+      <c r="AR145" s="123"/>
+      <c r="AS145" s="123"/>
+      <c r="AT145" s="123"/>
+      <c r="AU145" s="124"/>
+      <c r="AV145" s="123"/>
+      <c r="AW145" s="123"/>
+      <c r="AX145" s="123"/>
+      <c r="AY145" s="123"/>
+      <c r="AZ145" s="124"/>
+      <c r="BA145" s="123"/>
+      <c r="BB145" s="123"/>
+      <c r="BC145" s="123"/>
+      <c r="BD145" s="123"/>
+      <c r="BE145" s="123"/>
+      <c r="BF145" s="123"/>
+      <c r="BG145" s="123"/>
+      <c r="BH145" s="123"/>
+      <c r="BI145" s="123"/>
+      <c r="BJ145" s="123"/>
+      <c r="BK145" s="123"/>
+      <c r="BL145" s="123"/>
+      <c r="BM145" s="123"/>
+      <c r="BN145" s="123"/>
+      <c r="BO145" s="123"/>
+      <c r="BP145" s="123"/>
+      <c r="BQ145" s="123"/>
+      <c r="BR145" s="123"/>
+      <c r="BS145" s="123"/>
+      <c r="BT145" s="123"/>
+      <c r="BU145" s="123"/>
+      <c r="BV145" s="123"/>
+      <c r="BW145" s="129"/>
       <c r="BX145" s="55"/>
       <c r="BY145" s="4"/>
       <c r="BZ145" s="4"/>
@@ -17985,10 +17985,10 @@
       <c r="AJ146" s="4"/>
       <c r="AK146" s="4"/>
       <c r="AL146" s="55"/>
-      <c r="AM146" s="128" t="s">
+      <c r="AM146" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AN146" s="129"/>
+      <c r="AN146" s="107"/>
       <c r="AO146" s="61" t="s">
         <v>88</v>
       </c>
@@ -18153,8 +18153,8 @@
       <c r="AJ148" s="4"/>
       <c r="AK148" s="4"/>
       <c r="AL148" s="55"/>
-      <c r="AM148" s="142"/>
-      <c r="AN148" s="122"/>
+      <c r="AM148" s="112"/>
+      <c r="AN148" s="111"/>
       <c r="AO148" s="66"/>
       <c r="AP148" s="33"/>
       <c r="AQ148" s="33"/>
@@ -18393,8 +18393,8 @@
       <c r="AJ151" s="4"/>
       <c r="AK151" s="4"/>
       <c r="AL151" s="55"/>
-      <c r="AM151" s="162"/>
-      <c r="AN151" s="122"/>
+      <c r="AM151" s="110"/>
+      <c r="AN151" s="111"/>
       <c r="AO151" s="68"/>
       <c r="AP151" s="33"/>
       <c r="AQ151" s="33"/>
@@ -21715,190 +21715,190 @@
       <c r="BZ192" s="4"/>
     </row>
     <row r="193" spans="1:78" ht="17.25">
-      <c r="A193" s="150" t="s">
+      <c r="A193" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="131"/>
-      <c r="C193" s="131"/>
-      <c r="D193" s="131"/>
-      <c r="E193" s="141"/>
-      <c r="F193" s="143" t="s">
+      <c r="B193" s="120"/>
+      <c r="C193" s="120"/>
+      <c r="D193" s="120"/>
+      <c r="E193" s="133"/>
+      <c r="F193" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="G193" s="131"/>
-      <c r="H193" s="131"/>
-      <c r="I193" s="131"/>
-      <c r="J193" s="131"/>
-      <c r="K193" s="131"/>
-      <c r="L193" s="131"/>
-      <c r="M193" s="131"/>
-      <c r="N193" s="131"/>
-      <c r="O193" s="131"/>
-      <c r="P193" s="131"/>
-      <c r="Q193" s="131"/>
-      <c r="R193" s="131"/>
-      <c r="S193" s="131"/>
-      <c r="T193" s="131"/>
-      <c r="U193" s="131"/>
-      <c r="V193" s="131"/>
-      <c r="W193" s="131"/>
-      <c r="X193" s="131"/>
-      <c r="Y193" s="131"/>
-      <c r="Z193" s="131"/>
-      <c r="AA193" s="131"/>
-      <c r="AB193" s="131"/>
-      <c r="AC193" s="131"/>
-      <c r="AD193" s="131"/>
-      <c r="AE193" s="131"/>
-      <c r="AF193" s="131"/>
-      <c r="AG193" s="131"/>
-      <c r="AH193" s="131"/>
-      <c r="AI193" s="131"/>
-      <c r="AJ193" s="131"/>
-      <c r="AK193" s="131"/>
-      <c r="AL193" s="131"/>
-      <c r="AM193" s="131"/>
-      <c r="AN193" s="131"/>
-      <c r="AO193" s="131"/>
-      <c r="AP193" s="131"/>
-      <c r="AQ193" s="131"/>
-      <c r="AR193" s="131"/>
-      <c r="AS193" s="131"/>
-      <c r="AT193" s="131"/>
-      <c r="AU193" s="131"/>
-      <c r="AV193" s="132"/>
-      <c r="AW193" s="130" t="s">
+      <c r="G193" s="120"/>
+      <c r="H193" s="120"/>
+      <c r="I193" s="120"/>
+      <c r="J193" s="120"/>
+      <c r="K193" s="120"/>
+      <c r="L193" s="120"/>
+      <c r="M193" s="120"/>
+      <c r="N193" s="120"/>
+      <c r="O193" s="120"/>
+      <c r="P193" s="120"/>
+      <c r="Q193" s="120"/>
+      <c r="R193" s="120"/>
+      <c r="S193" s="120"/>
+      <c r="T193" s="120"/>
+      <c r="U193" s="120"/>
+      <c r="V193" s="120"/>
+      <c r="W193" s="120"/>
+      <c r="X193" s="120"/>
+      <c r="Y193" s="120"/>
+      <c r="Z193" s="120"/>
+      <c r="AA193" s="120"/>
+      <c r="AB193" s="120"/>
+      <c r="AC193" s="120"/>
+      <c r="AD193" s="120"/>
+      <c r="AE193" s="120"/>
+      <c r="AF193" s="120"/>
+      <c r="AG193" s="120"/>
+      <c r="AH193" s="120"/>
+      <c r="AI193" s="120"/>
+      <c r="AJ193" s="120"/>
+      <c r="AK193" s="120"/>
+      <c r="AL193" s="120"/>
+      <c r="AM193" s="120"/>
+      <c r="AN193" s="120"/>
+      <c r="AO193" s="120"/>
+      <c r="AP193" s="120"/>
+      <c r="AQ193" s="120"/>
+      <c r="AR193" s="120"/>
+      <c r="AS193" s="120"/>
+      <c r="AT193" s="120"/>
+      <c r="AU193" s="120"/>
+      <c r="AV193" s="121"/>
+      <c r="AW193" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="AX193" s="131"/>
-      <c r="AY193" s="131"/>
-      <c r="AZ193" s="131"/>
-      <c r="BA193" s="132"/>
-      <c r="BB193" s="106" t="s">
+      <c r="AX193" s="120"/>
+      <c r="AY193" s="120"/>
+      <c r="AZ193" s="120"/>
+      <c r="BA193" s="121"/>
+      <c r="BB193" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="BC193" s="107"/>
-      <c r="BD193" s="107"/>
-      <c r="BE193" s="107"/>
-      <c r="BF193" s="107"/>
-      <c r="BG193" s="107"/>
-      <c r="BH193" s="107"/>
-      <c r="BI193" s="107"/>
-      <c r="BJ193" s="108"/>
-      <c r="BK193" s="130" t="s">
+      <c r="BC193" s="117"/>
+      <c r="BD193" s="117"/>
+      <c r="BE193" s="117"/>
+      <c r="BF193" s="117"/>
+      <c r="BG193" s="117"/>
+      <c r="BH193" s="117"/>
+      <c r="BI193" s="117"/>
+      <c r="BJ193" s="118"/>
+      <c r="BK193" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="BL193" s="131"/>
-      <c r="BM193" s="131"/>
-      <c r="BN193" s="131"/>
-      <c r="BO193" s="132"/>
-      <c r="BP193" s="140" t="s">
+      <c r="BL193" s="120"/>
+      <c r="BM193" s="120"/>
+      <c r="BN193" s="120"/>
+      <c r="BO193" s="121"/>
+      <c r="BP193" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ193" s="131"/>
-      <c r="BR193" s="131"/>
-      <c r="BS193" s="131"/>
-      <c r="BT193" s="131"/>
-      <c r="BU193" s="131"/>
-      <c r="BV193" s="131"/>
-      <c r="BW193" s="131"/>
-      <c r="BX193" s="141"/>
+      <c r="BQ193" s="120"/>
+      <c r="BR193" s="120"/>
+      <c r="BS193" s="120"/>
+      <c r="BT193" s="120"/>
+      <c r="BU193" s="120"/>
+      <c r="BV193" s="120"/>
+      <c r="BW193" s="120"/>
+      <c r="BX193" s="133"/>
       <c r="BY193" s="54"/>
       <c r="BZ193" s="54"/>
     </row>
     <row r="194" spans="1:78" ht="18">
-      <c r="A194" s="151" t="s">
+      <c r="A194" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B194" s="117"/>
-      <c r="C194" s="117"/>
-      <c r="D194" s="117"/>
-      <c r="E194" s="152"/>
-      <c r="F194" s="120" t="s">
+      <c r="B194" s="114"/>
+      <c r="C194" s="114"/>
+      <c r="D194" s="114"/>
+      <c r="E194" s="135"/>
+      <c r="F194" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G194" s="117"/>
-      <c r="H194" s="117"/>
-      <c r="I194" s="117"/>
-      <c r="J194" s="117"/>
-      <c r="K194" s="117"/>
-      <c r="L194" s="117"/>
-      <c r="M194" s="117"/>
-      <c r="N194" s="117"/>
-      <c r="O194" s="117"/>
-      <c r="P194" s="117"/>
-      <c r="Q194" s="117"/>
-      <c r="R194" s="117"/>
-      <c r="S194" s="117"/>
-      <c r="T194" s="117"/>
-      <c r="U194" s="117"/>
-      <c r="V194" s="117"/>
-      <c r="W194" s="117"/>
-      <c r="X194" s="117"/>
-      <c r="Y194" s="119"/>
-      <c r="Z194" s="118" t="s">
+      <c r="G194" s="114"/>
+      <c r="H194" s="114"/>
+      <c r="I194" s="114"/>
+      <c r="J194" s="114"/>
+      <c r="K194" s="114"/>
+      <c r="L194" s="114"/>
+      <c r="M194" s="114"/>
+      <c r="N194" s="114"/>
+      <c r="O194" s="114"/>
+      <c r="P194" s="114"/>
+      <c r="Q194" s="114"/>
+      <c r="R194" s="114"/>
+      <c r="S194" s="114"/>
+      <c r="T194" s="114"/>
+      <c r="U194" s="114"/>
+      <c r="V194" s="114"/>
+      <c r="W194" s="114"/>
+      <c r="X194" s="114"/>
+      <c r="Y194" s="115"/>
+      <c r="Z194" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AA194" s="117"/>
-      <c r="AB194" s="117"/>
-      <c r="AC194" s="117"/>
-      <c r="AD194" s="119"/>
-      <c r="AE194" s="120" t="s">
+      <c r="AA194" s="114"/>
+      <c r="AB194" s="114"/>
+      <c r="AC194" s="114"/>
+      <c r="AD194" s="115"/>
+      <c r="AE194" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="AF194" s="117"/>
-      <c r="AG194" s="117"/>
-      <c r="AH194" s="117"/>
-      <c r="AI194" s="117"/>
-      <c r="AJ194" s="117"/>
-      <c r="AK194" s="117"/>
-      <c r="AL194" s="117"/>
-      <c r="AM194" s="117"/>
-      <c r="AN194" s="117"/>
-      <c r="AO194" s="117"/>
-      <c r="AP194" s="117"/>
-      <c r="AQ194" s="117"/>
-      <c r="AR194" s="117"/>
-      <c r="AS194" s="117"/>
-      <c r="AT194" s="117"/>
-      <c r="AU194" s="117"/>
-      <c r="AV194" s="119"/>
-      <c r="AW194" s="118" t="s">
+      <c r="AF194" s="114"/>
+      <c r="AG194" s="114"/>
+      <c r="AH194" s="114"/>
+      <c r="AI194" s="114"/>
+      <c r="AJ194" s="114"/>
+      <c r="AK194" s="114"/>
+      <c r="AL194" s="114"/>
+      <c r="AM194" s="114"/>
+      <c r="AN194" s="114"/>
+      <c r="AO194" s="114"/>
+      <c r="AP194" s="114"/>
+      <c r="AQ194" s="114"/>
+      <c r="AR194" s="114"/>
+      <c r="AS194" s="114"/>
+      <c r="AT194" s="114"/>
+      <c r="AU194" s="114"/>
+      <c r="AV194" s="115"/>
+      <c r="AW194" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AX194" s="117"/>
-      <c r="AY194" s="117"/>
-      <c r="AZ194" s="117"/>
-      <c r="BA194" s="119"/>
-      <c r="BB194" s="116" t="s">
+      <c r="AX194" s="114"/>
+      <c r="AY194" s="114"/>
+      <c r="AZ194" s="114"/>
+      <c r="BA194" s="115"/>
+      <c r="BB194" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="BC194" s="117"/>
-      <c r="BD194" s="117"/>
-      <c r="BE194" s="117"/>
-      <c r="BF194" s="117"/>
-      <c r="BG194" s="117"/>
-      <c r="BH194" s="117"/>
-      <c r="BI194" s="117"/>
-      <c r="BJ194" s="117"/>
-      <c r="BK194" s="118" t="s">
+      <c r="BC194" s="114"/>
+      <c r="BD194" s="114"/>
+      <c r="BE194" s="114"/>
+      <c r="BF194" s="114"/>
+      <c r="BG194" s="114"/>
+      <c r="BH194" s="114"/>
+      <c r="BI194" s="114"/>
+      <c r="BJ194" s="114"/>
+      <c r="BK194" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="BL194" s="117"/>
-      <c r="BM194" s="117"/>
-      <c r="BN194" s="117"/>
-      <c r="BO194" s="119"/>
-      <c r="BP194" s="140" t="s">
+      <c r="BL194" s="114"/>
+      <c r="BM194" s="114"/>
+      <c r="BN194" s="114"/>
+      <c r="BO194" s="115"/>
+      <c r="BP194" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ194" s="131"/>
-      <c r="BR194" s="131"/>
-      <c r="BS194" s="131"/>
-      <c r="BT194" s="131"/>
-      <c r="BU194" s="131"/>
-      <c r="BV194" s="131"/>
-      <c r="BW194" s="131"/>
-      <c r="BX194" s="141"/>
+      <c r="BQ194" s="120"/>
+      <c r="BR194" s="120"/>
+      <c r="BS194" s="120"/>
+      <c r="BT194" s="120"/>
+      <c r="BU194" s="120"/>
+      <c r="BV194" s="120"/>
+      <c r="BW194" s="120"/>
+      <c r="BX194" s="133"/>
       <c r="BY194" s="54"/>
       <c r="BZ194" s="54"/>
     </row>
@@ -22102,51 +22102,51 @@
       <c r="AJ197" s="4"/>
       <c r="AK197" s="4"/>
       <c r="AL197" s="55"/>
-      <c r="AM197" s="126" t="s">
+      <c r="AM197" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AN197" s="127"/>
-      <c r="AO197" s="126" t="s">
+      <c r="AN197" s="128"/>
+      <c r="AO197" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="AP197" s="122"/>
-      <c r="AQ197" s="122"/>
-      <c r="AR197" s="122"/>
-      <c r="AS197" s="122"/>
-      <c r="AT197" s="122"/>
-      <c r="AU197" s="129"/>
-      <c r="AV197" s="126" t="s">
+      <c r="AP197" s="111"/>
+      <c r="AQ197" s="111"/>
+      <c r="AR197" s="111"/>
+      <c r="AS197" s="111"/>
+      <c r="AT197" s="111"/>
+      <c r="AU197" s="107"/>
+      <c r="AV197" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="AW197" s="122"/>
-      <c r="AX197" s="122"/>
-      <c r="AY197" s="122"/>
-      <c r="AZ197" s="129"/>
-      <c r="BA197" s="126" t="s">
+      <c r="AW197" s="111"/>
+      <c r="AX197" s="111"/>
+      <c r="AY197" s="111"/>
+      <c r="AZ197" s="107"/>
+      <c r="BA197" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="BB197" s="122"/>
-      <c r="BC197" s="122"/>
-      <c r="BD197" s="122"/>
-      <c r="BE197" s="122"/>
-      <c r="BF197" s="122"/>
-      <c r="BG197" s="122"/>
-      <c r="BH197" s="122"/>
-      <c r="BI197" s="122"/>
-      <c r="BJ197" s="122"/>
-      <c r="BK197" s="122"/>
-      <c r="BL197" s="122"/>
-      <c r="BM197" s="122"/>
-      <c r="BN197" s="122"/>
-      <c r="BO197" s="122"/>
-      <c r="BP197" s="122"/>
-      <c r="BQ197" s="122"/>
-      <c r="BR197" s="122"/>
-      <c r="BS197" s="122"/>
-      <c r="BT197" s="122"/>
-      <c r="BU197" s="122"/>
-      <c r="BV197" s="122"/>
-      <c r="BW197" s="127"/>
+      <c r="BB197" s="111"/>
+      <c r="BC197" s="111"/>
+      <c r="BD197" s="111"/>
+      <c r="BE197" s="111"/>
+      <c r="BF197" s="111"/>
+      <c r="BG197" s="111"/>
+      <c r="BH197" s="111"/>
+      <c r="BI197" s="111"/>
+      <c r="BJ197" s="111"/>
+      <c r="BK197" s="111"/>
+      <c r="BL197" s="111"/>
+      <c r="BM197" s="111"/>
+      <c r="BN197" s="111"/>
+      <c r="BO197" s="111"/>
+      <c r="BP197" s="111"/>
+      <c r="BQ197" s="111"/>
+      <c r="BR197" s="111"/>
+      <c r="BS197" s="111"/>
+      <c r="BT197" s="111"/>
+      <c r="BU197" s="111"/>
+      <c r="BV197" s="111"/>
+      <c r="BW197" s="128"/>
       <c r="BX197" s="4"/>
       <c r="BY197" s="4"/>
       <c r="BZ197" s="4"/>
@@ -22190,43 +22190,43 @@
       <c r="AJ198" s="4"/>
       <c r="AK198" s="4"/>
       <c r="AL198" s="55"/>
-      <c r="AM198" s="114"/>
-      <c r="AN198" s="115"/>
-      <c r="AO198" s="114"/>
-      <c r="AP198" s="114"/>
-      <c r="AQ198" s="114"/>
-      <c r="AR198" s="114"/>
-      <c r="AS198" s="114"/>
-      <c r="AT198" s="114"/>
-      <c r="AU198" s="133"/>
-      <c r="AV198" s="114"/>
-      <c r="AW198" s="114"/>
-      <c r="AX198" s="114"/>
-      <c r="AY198" s="114"/>
-      <c r="AZ198" s="133"/>
-      <c r="BA198" s="114"/>
-      <c r="BB198" s="114"/>
-      <c r="BC198" s="114"/>
-      <c r="BD198" s="114"/>
-      <c r="BE198" s="114"/>
-      <c r="BF198" s="114"/>
-      <c r="BG198" s="114"/>
-      <c r="BH198" s="114"/>
-      <c r="BI198" s="114"/>
-      <c r="BJ198" s="114"/>
-      <c r="BK198" s="114"/>
-      <c r="BL198" s="114"/>
-      <c r="BM198" s="114"/>
-      <c r="BN198" s="114"/>
-      <c r="BO198" s="114"/>
-      <c r="BP198" s="114"/>
-      <c r="BQ198" s="114"/>
-      <c r="BR198" s="114"/>
-      <c r="BS198" s="114"/>
-      <c r="BT198" s="114"/>
-      <c r="BU198" s="114"/>
-      <c r="BV198" s="114"/>
-      <c r="BW198" s="115"/>
+      <c r="AM198" s="123"/>
+      <c r="AN198" s="129"/>
+      <c r="AO198" s="123"/>
+      <c r="AP198" s="123"/>
+      <c r="AQ198" s="123"/>
+      <c r="AR198" s="123"/>
+      <c r="AS198" s="123"/>
+      <c r="AT198" s="123"/>
+      <c r="AU198" s="124"/>
+      <c r="AV198" s="123"/>
+      <c r="AW198" s="123"/>
+      <c r="AX198" s="123"/>
+      <c r="AY198" s="123"/>
+      <c r="AZ198" s="124"/>
+      <c r="BA198" s="123"/>
+      <c r="BB198" s="123"/>
+      <c r="BC198" s="123"/>
+      <c r="BD198" s="123"/>
+      <c r="BE198" s="123"/>
+      <c r="BF198" s="123"/>
+      <c r="BG198" s="123"/>
+      <c r="BH198" s="123"/>
+      <c r="BI198" s="123"/>
+      <c r="BJ198" s="123"/>
+      <c r="BK198" s="123"/>
+      <c r="BL198" s="123"/>
+      <c r="BM198" s="123"/>
+      <c r="BN198" s="123"/>
+      <c r="BO198" s="123"/>
+      <c r="BP198" s="123"/>
+      <c r="BQ198" s="123"/>
+      <c r="BR198" s="123"/>
+      <c r="BS198" s="123"/>
+      <c r="BT198" s="123"/>
+      <c r="BU198" s="123"/>
+      <c r="BV198" s="123"/>
+      <c r="BW198" s="129"/>
       <c r="BX198" s="4"/>
       <c r="BY198" s="4"/>
       <c r="BZ198" s="4"/>
@@ -22270,10 +22270,10 @@
       <c r="AJ199" s="4"/>
       <c r="AK199" s="4"/>
       <c r="AL199" s="55"/>
-      <c r="AM199" s="128" t="s">
+      <c r="AM199" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AN199" s="129"/>
+      <c r="AN199" s="107"/>
       <c r="AO199" s="61" t="s">
         <v>88</v>
       </c>
@@ -22440,8 +22440,8 @@
       <c r="AJ201" s="4"/>
       <c r="AK201" s="4"/>
       <c r="AL201" s="55"/>
-      <c r="AM201" s="142"/>
-      <c r="AN201" s="122"/>
+      <c r="AM201" s="112"/>
+      <c r="AN201" s="111"/>
       <c r="AO201" s="66"/>
       <c r="AP201" s="33"/>
       <c r="AQ201" s="33"/>
@@ -22680,8 +22680,8 @@
       <c r="AJ204" s="4"/>
       <c r="AK204" s="4"/>
       <c r="AL204" s="55"/>
-      <c r="AM204" s="162"/>
-      <c r="AN204" s="122"/>
+      <c r="AM204" s="110"/>
+      <c r="AN204" s="111"/>
       <c r="AO204" s="68"/>
       <c r="AP204" s="33"/>
       <c r="AQ204" s="33"/>
@@ -26002,190 +26002,190 @@
       <c r="BZ245" s="4"/>
     </row>
     <row r="246" spans="1:78" ht="17.25">
-      <c r="A246" s="150" t="s">
+      <c r="A246" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B246" s="131"/>
-      <c r="C246" s="131"/>
-      <c r="D246" s="131"/>
-      <c r="E246" s="141"/>
-      <c r="F246" s="143" t="s">
+      <c r="B246" s="120"/>
+      <c r="C246" s="120"/>
+      <c r="D246" s="120"/>
+      <c r="E246" s="133"/>
+      <c r="F246" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="G246" s="131"/>
-      <c r="H246" s="131"/>
-      <c r="I246" s="131"/>
-      <c r="J246" s="131"/>
-      <c r="K246" s="131"/>
-      <c r="L246" s="131"/>
-      <c r="M246" s="131"/>
-      <c r="N246" s="131"/>
-      <c r="O246" s="131"/>
-      <c r="P246" s="131"/>
-      <c r="Q246" s="131"/>
-      <c r="R246" s="131"/>
-      <c r="S246" s="131"/>
-      <c r="T246" s="131"/>
-      <c r="U246" s="131"/>
-      <c r="V246" s="131"/>
-      <c r="W246" s="131"/>
-      <c r="X246" s="131"/>
-      <c r="Y246" s="131"/>
-      <c r="Z246" s="131"/>
-      <c r="AA246" s="131"/>
-      <c r="AB246" s="131"/>
-      <c r="AC246" s="131"/>
-      <c r="AD246" s="131"/>
-      <c r="AE246" s="131"/>
-      <c r="AF246" s="131"/>
-      <c r="AG246" s="131"/>
-      <c r="AH246" s="131"/>
-      <c r="AI246" s="131"/>
-      <c r="AJ246" s="131"/>
-      <c r="AK246" s="131"/>
-      <c r="AL246" s="131"/>
-      <c r="AM246" s="131"/>
-      <c r="AN246" s="131"/>
-      <c r="AO246" s="131"/>
-      <c r="AP246" s="131"/>
-      <c r="AQ246" s="131"/>
-      <c r="AR246" s="131"/>
-      <c r="AS246" s="131"/>
-      <c r="AT246" s="131"/>
-      <c r="AU246" s="131"/>
-      <c r="AV246" s="132"/>
-      <c r="AW246" s="130" t="s">
+      <c r="G246" s="120"/>
+      <c r="H246" s="120"/>
+      <c r="I246" s="120"/>
+      <c r="J246" s="120"/>
+      <c r="K246" s="120"/>
+      <c r="L246" s="120"/>
+      <c r="M246" s="120"/>
+      <c r="N246" s="120"/>
+      <c r="O246" s="120"/>
+      <c r="P246" s="120"/>
+      <c r="Q246" s="120"/>
+      <c r="R246" s="120"/>
+      <c r="S246" s="120"/>
+      <c r="T246" s="120"/>
+      <c r="U246" s="120"/>
+      <c r="V246" s="120"/>
+      <c r="W246" s="120"/>
+      <c r="X246" s="120"/>
+      <c r="Y246" s="120"/>
+      <c r="Z246" s="120"/>
+      <c r="AA246" s="120"/>
+      <c r="AB246" s="120"/>
+      <c r="AC246" s="120"/>
+      <c r="AD246" s="120"/>
+      <c r="AE246" s="120"/>
+      <c r="AF246" s="120"/>
+      <c r="AG246" s="120"/>
+      <c r="AH246" s="120"/>
+      <c r="AI246" s="120"/>
+      <c r="AJ246" s="120"/>
+      <c r="AK246" s="120"/>
+      <c r="AL246" s="120"/>
+      <c r="AM246" s="120"/>
+      <c r="AN246" s="120"/>
+      <c r="AO246" s="120"/>
+      <c r="AP246" s="120"/>
+      <c r="AQ246" s="120"/>
+      <c r="AR246" s="120"/>
+      <c r="AS246" s="120"/>
+      <c r="AT246" s="120"/>
+      <c r="AU246" s="120"/>
+      <c r="AV246" s="121"/>
+      <c r="AW246" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="AX246" s="131"/>
-      <c r="AY246" s="131"/>
-      <c r="AZ246" s="131"/>
-      <c r="BA246" s="132"/>
-      <c r="BB246" s="106" t="s">
+      <c r="AX246" s="120"/>
+      <c r="AY246" s="120"/>
+      <c r="AZ246" s="120"/>
+      <c r="BA246" s="121"/>
+      <c r="BB246" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="BC246" s="107"/>
-      <c r="BD246" s="107"/>
-      <c r="BE246" s="107"/>
-      <c r="BF246" s="107"/>
-      <c r="BG246" s="107"/>
-      <c r="BH246" s="107"/>
-      <c r="BI246" s="107"/>
-      <c r="BJ246" s="108"/>
-      <c r="BK246" s="130" t="s">
+      <c r="BC246" s="117"/>
+      <c r="BD246" s="117"/>
+      <c r="BE246" s="117"/>
+      <c r="BF246" s="117"/>
+      <c r="BG246" s="117"/>
+      <c r="BH246" s="117"/>
+      <c r="BI246" s="117"/>
+      <c r="BJ246" s="118"/>
+      <c r="BK246" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="BL246" s="131"/>
-      <c r="BM246" s="131"/>
-      <c r="BN246" s="131"/>
-      <c r="BO246" s="132"/>
-      <c r="BP246" s="140" t="s">
+      <c r="BL246" s="120"/>
+      <c r="BM246" s="120"/>
+      <c r="BN246" s="120"/>
+      <c r="BO246" s="121"/>
+      <c r="BP246" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ246" s="131"/>
-      <c r="BR246" s="131"/>
-      <c r="BS246" s="131"/>
-      <c r="BT246" s="131"/>
-      <c r="BU246" s="131"/>
-      <c r="BV246" s="131"/>
-      <c r="BW246" s="131"/>
-      <c r="BX246" s="141"/>
+      <c r="BQ246" s="120"/>
+      <c r="BR246" s="120"/>
+      <c r="BS246" s="120"/>
+      <c r="BT246" s="120"/>
+      <c r="BU246" s="120"/>
+      <c r="BV246" s="120"/>
+      <c r="BW246" s="120"/>
+      <c r="BX246" s="133"/>
       <c r="BY246" s="54"/>
       <c r="BZ246" s="54"/>
     </row>
     <row r="247" spans="1:78" ht="18">
-      <c r="A247" s="151" t="s">
+      <c r="A247" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B247" s="117"/>
-      <c r="C247" s="117"/>
-      <c r="D247" s="117"/>
-      <c r="E247" s="152"/>
-      <c r="F247" s="120" t="s">
+      <c r="B247" s="114"/>
+      <c r="C247" s="114"/>
+      <c r="D247" s="114"/>
+      <c r="E247" s="135"/>
+      <c r="F247" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G247" s="117"/>
-      <c r="H247" s="117"/>
-      <c r="I247" s="117"/>
-      <c r="J247" s="117"/>
-      <c r="K247" s="117"/>
-      <c r="L247" s="117"/>
-      <c r="M247" s="117"/>
-      <c r="N247" s="117"/>
-      <c r="O247" s="117"/>
-      <c r="P247" s="117"/>
-      <c r="Q247" s="117"/>
-      <c r="R247" s="117"/>
-      <c r="S247" s="117"/>
-      <c r="T247" s="117"/>
-      <c r="U247" s="117"/>
-      <c r="V247" s="117"/>
-      <c r="W247" s="117"/>
-      <c r="X247" s="117"/>
-      <c r="Y247" s="119"/>
-      <c r="Z247" s="118" t="s">
+      <c r="G247" s="114"/>
+      <c r="H247" s="114"/>
+      <c r="I247" s="114"/>
+      <c r="J247" s="114"/>
+      <c r="K247" s="114"/>
+      <c r="L247" s="114"/>
+      <c r="M247" s="114"/>
+      <c r="N247" s="114"/>
+      <c r="O247" s="114"/>
+      <c r="P247" s="114"/>
+      <c r="Q247" s="114"/>
+      <c r="R247" s="114"/>
+      <c r="S247" s="114"/>
+      <c r="T247" s="114"/>
+      <c r="U247" s="114"/>
+      <c r="V247" s="114"/>
+      <c r="W247" s="114"/>
+      <c r="X247" s="114"/>
+      <c r="Y247" s="115"/>
+      <c r="Z247" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AA247" s="117"/>
-      <c r="AB247" s="117"/>
-      <c r="AC247" s="117"/>
-      <c r="AD247" s="119"/>
-      <c r="AE247" s="120" t="s">
+      <c r="AA247" s="114"/>
+      <c r="AB247" s="114"/>
+      <c r="AC247" s="114"/>
+      <c r="AD247" s="115"/>
+      <c r="AE247" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="AF247" s="117"/>
-      <c r="AG247" s="117"/>
-      <c r="AH247" s="117"/>
-      <c r="AI247" s="117"/>
-      <c r="AJ247" s="117"/>
-      <c r="AK247" s="117"/>
-      <c r="AL247" s="117"/>
-      <c r="AM247" s="117"/>
-      <c r="AN247" s="117"/>
-      <c r="AO247" s="117"/>
-      <c r="AP247" s="117"/>
-      <c r="AQ247" s="117"/>
-      <c r="AR247" s="117"/>
-      <c r="AS247" s="117"/>
-      <c r="AT247" s="117"/>
-      <c r="AU247" s="117"/>
-      <c r="AV247" s="119"/>
-      <c r="AW247" s="118" t="s">
+      <c r="AF247" s="114"/>
+      <c r="AG247" s="114"/>
+      <c r="AH247" s="114"/>
+      <c r="AI247" s="114"/>
+      <c r="AJ247" s="114"/>
+      <c r="AK247" s="114"/>
+      <c r="AL247" s="114"/>
+      <c r="AM247" s="114"/>
+      <c r="AN247" s="114"/>
+      <c r="AO247" s="114"/>
+      <c r="AP247" s="114"/>
+      <c r="AQ247" s="114"/>
+      <c r="AR247" s="114"/>
+      <c r="AS247" s="114"/>
+      <c r="AT247" s="114"/>
+      <c r="AU247" s="114"/>
+      <c r="AV247" s="115"/>
+      <c r="AW247" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AX247" s="117"/>
-      <c r="AY247" s="117"/>
-      <c r="AZ247" s="117"/>
-      <c r="BA247" s="119"/>
-      <c r="BB247" s="116" t="s">
+      <c r="AX247" s="114"/>
+      <c r="AY247" s="114"/>
+      <c r="AZ247" s="114"/>
+      <c r="BA247" s="115"/>
+      <c r="BB247" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="BC247" s="117"/>
-      <c r="BD247" s="117"/>
-      <c r="BE247" s="117"/>
-      <c r="BF247" s="117"/>
-      <c r="BG247" s="117"/>
-      <c r="BH247" s="117"/>
-      <c r="BI247" s="117"/>
-      <c r="BJ247" s="117"/>
-      <c r="BK247" s="118" t="s">
+      <c r="BC247" s="114"/>
+      <c r="BD247" s="114"/>
+      <c r="BE247" s="114"/>
+      <c r="BF247" s="114"/>
+      <c r="BG247" s="114"/>
+      <c r="BH247" s="114"/>
+      <c r="BI247" s="114"/>
+      <c r="BJ247" s="114"/>
+      <c r="BK247" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="BL247" s="117"/>
-      <c r="BM247" s="117"/>
-      <c r="BN247" s="117"/>
-      <c r="BO247" s="119"/>
-      <c r="BP247" s="140" t="s">
+      <c r="BL247" s="114"/>
+      <c r="BM247" s="114"/>
+      <c r="BN247" s="114"/>
+      <c r="BO247" s="115"/>
+      <c r="BP247" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ247" s="131"/>
-      <c r="BR247" s="131"/>
-      <c r="BS247" s="131"/>
-      <c r="BT247" s="131"/>
-      <c r="BU247" s="131"/>
-      <c r="BV247" s="131"/>
-      <c r="BW247" s="131"/>
-      <c r="BX247" s="141"/>
+      <c r="BQ247" s="120"/>
+      <c r="BR247" s="120"/>
+      <c r="BS247" s="120"/>
+      <c r="BT247" s="120"/>
+      <c r="BU247" s="120"/>
+      <c r="BV247" s="120"/>
+      <c r="BW247" s="120"/>
+      <c r="BX247" s="133"/>
       <c r="BY247" s="54"/>
       <c r="BZ247" s="54"/>
     </row>
@@ -26388,51 +26388,51 @@
       <c r="AJ250" s="4"/>
       <c r="AK250" s="4"/>
       <c r="AL250" s="55"/>
-      <c r="AM250" s="126" t="s">
+      <c r="AM250" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AN250" s="127"/>
-      <c r="AO250" s="126" t="s">
+      <c r="AN250" s="128"/>
+      <c r="AO250" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="AP250" s="122"/>
-      <c r="AQ250" s="122"/>
-      <c r="AR250" s="122"/>
-      <c r="AS250" s="122"/>
-      <c r="AT250" s="122"/>
-      <c r="AU250" s="129"/>
-      <c r="AV250" s="126" t="s">
+      <c r="AP250" s="111"/>
+      <c r="AQ250" s="111"/>
+      <c r="AR250" s="111"/>
+      <c r="AS250" s="111"/>
+      <c r="AT250" s="111"/>
+      <c r="AU250" s="107"/>
+      <c r="AV250" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="AW250" s="122"/>
-      <c r="AX250" s="122"/>
-      <c r="AY250" s="122"/>
-      <c r="AZ250" s="129"/>
-      <c r="BA250" s="126" t="s">
+      <c r="AW250" s="111"/>
+      <c r="AX250" s="111"/>
+      <c r="AY250" s="111"/>
+      <c r="AZ250" s="107"/>
+      <c r="BA250" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="BB250" s="122"/>
-      <c r="BC250" s="122"/>
-      <c r="BD250" s="122"/>
-      <c r="BE250" s="122"/>
-      <c r="BF250" s="122"/>
-      <c r="BG250" s="122"/>
-      <c r="BH250" s="122"/>
-      <c r="BI250" s="122"/>
-      <c r="BJ250" s="122"/>
-      <c r="BK250" s="122"/>
-      <c r="BL250" s="122"/>
-      <c r="BM250" s="122"/>
-      <c r="BN250" s="122"/>
-      <c r="BO250" s="122"/>
-      <c r="BP250" s="122"/>
-      <c r="BQ250" s="122"/>
-      <c r="BR250" s="122"/>
-      <c r="BS250" s="122"/>
-      <c r="BT250" s="122"/>
-      <c r="BU250" s="122"/>
-      <c r="BV250" s="122"/>
-      <c r="BW250" s="127"/>
+      <c r="BB250" s="111"/>
+      <c r="BC250" s="111"/>
+      <c r="BD250" s="111"/>
+      <c r="BE250" s="111"/>
+      <c r="BF250" s="111"/>
+      <c r="BG250" s="111"/>
+      <c r="BH250" s="111"/>
+      <c r="BI250" s="111"/>
+      <c r="BJ250" s="111"/>
+      <c r="BK250" s="111"/>
+      <c r="BL250" s="111"/>
+      <c r="BM250" s="111"/>
+      <c r="BN250" s="111"/>
+      <c r="BO250" s="111"/>
+      <c r="BP250" s="111"/>
+      <c r="BQ250" s="111"/>
+      <c r="BR250" s="111"/>
+      <c r="BS250" s="111"/>
+      <c r="BT250" s="111"/>
+      <c r="BU250" s="111"/>
+      <c r="BV250" s="111"/>
+      <c r="BW250" s="128"/>
       <c r="BX250" s="4"/>
       <c r="BY250" s="4"/>
       <c r="BZ250" s="4"/>
@@ -26476,43 +26476,43 @@
       <c r="AJ251" s="4"/>
       <c r="AK251" s="4"/>
       <c r="AL251" s="55"/>
-      <c r="AM251" s="114"/>
-      <c r="AN251" s="115"/>
-      <c r="AO251" s="114"/>
-      <c r="AP251" s="114"/>
-      <c r="AQ251" s="114"/>
-      <c r="AR251" s="114"/>
-      <c r="AS251" s="114"/>
-      <c r="AT251" s="114"/>
-      <c r="AU251" s="133"/>
-      <c r="AV251" s="114"/>
-      <c r="AW251" s="114"/>
-      <c r="AX251" s="114"/>
-      <c r="AY251" s="114"/>
-      <c r="AZ251" s="133"/>
-      <c r="BA251" s="114"/>
-      <c r="BB251" s="114"/>
-      <c r="BC251" s="114"/>
-      <c r="BD251" s="114"/>
-      <c r="BE251" s="114"/>
-      <c r="BF251" s="114"/>
-      <c r="BG251" s="114"/>
-      <c r="BH251" s="114"/>
-      <c r="BI251" s="114"/>
-      <c r="BJ251" s="114"/>
-      <c r="BK251" s="114"/>
-      <c r="BL251" s="114"/>
-      <c r="BM251" s="114"/>
-      <c r="BN251" s="114"/>
-      <c r="BO251" s="114"/>
-      <c r="BP251" s="114"/>
-      <c r="BQ251" s="114"/>
-      <c r="BR251" s="114"/>
-      <c r="BS251" s="114"/>
-      <c r="BT251" s="114"/>
-      <c r="BU251" s="114"/>
-      <c r="BV251" s="114"/>
-      <c r="BW251" s="115"/>
+      <c r="AM251" s="123"/>
+      <c r="AN251" s="129"/>
+      <c r="AO251" s="123"/>
+      <c r="AP251" s="123"/>
+      <c r="AQ251" s="123"/>
+      <c r="AR251" s="123"/>
+      <c r="AS251" s="123"/>
+      <c r="AT251" s="123"/>
+      <c r="AU251" s="124"/>
+      <c r="AV251" s="123"/>
+      <c r="AW251" s="123"/>
+      <c r="AX251" s="123"/>
+      <c r="AY251" s="123"/>
+      <c r="AZ251" s="124"/>
+      <c r="BA251" s="123"/>
+      <c r="BB251" s="123"/>
+      <c r="BC251" s="123"/>
+      <c r="BD251" s="123"/>
+      <c r="BE251" s="123"/>
+      <c r="BF251" s="123"/>
+      <c r="BG251" s="123"/>
+      <c r="BH251" s="123"/>
+      <c r="BI251" s="123"/>
+      <c r="BJ251" s="123"/>
+      <c r="BK251" s="123"/>
+      <c r="BL251" s="123"/>
+      <c r="BM251" s="123"/>
+      <c r="BN251" s="123"/>
+      <c r="BO251" s="123"/>
+      <c r="BP251" s="123"/>
+      <c r="BQ251" s="123"/>
+      <c r="BR251" s="123"/>
+      <c r="BS251" s="123"/>
+      <c r="BT251" s="123"/>
+      <c r="BU251" s="123"/>
+      <c r="BV251" s="123"/>
+      <c r="BW251" s="129"/>
       <c r="BX251" s="4"/>
       <c r="BY251" s="4"/>
       <c r="BZ251" s="4"/>
@@ -26556,10 +26556,10 @@
       <c r="AJ252" s="4"/>
       <c r="AK252" s="4"/>
       <c r="AL252" s="55"/>
-      <c r="AM252" s="128" t="s">
+      <c r="AM252" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AN252" s="129"/>
+      <c r="AN252" s="107"/>
       <c r="AO252" s="61" t="s">
         <v>88</v>
       </c>
@@ -26966,8 +26966,8 @@
       <c r="AJ257" s="4"/>
       <c r="AK257" s="4"/>
       <c r="AL257" s="55"/>
-      <c r="AM257" s="162"/>
-      <c r="AN257" s="122"/>
+      <c r="AM257" s="110"/>
+      <c r="AN257" s="111"/>
       <c r="AO257" s="68"/>
       <c r="AP257" s="33"/>
       <c r="AQ257" s="33"/>
@@ -30288,190 +30288,190 @@
       <c r="BZ298" s="4"/>
     </row>
     <row r="299" spans="1:78" ht="17.25">
-      <c r="A299" s="150" t="s">
+      <c r="A299" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B299" s="131"/>
-      <c r="C299" s="131"/>
-      <c r="D299" s="131"/>
-      <c r="E299" s="141"/>
-      <c r="F299" s="143" t="s">
+      <c r="B299" s="120"/>
+      <c r="C299" s="120"/>
+      <c r="D299" s="120"/>
+      <c r="E299" s="133"/>
+      <c r="F299" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="G299" s="131"/>
-      <c r="H299" s="131"/>
-      <c r="I299" s="131"/>
-      <c r="J299" s="131"/>
-      <c r="K299" s="131"/>
-      <c r="L299" s="131"/>
-      <c r="M299" s="131"/>
-      <c r="N299" s="131"/>
-      <c r="O299" s="131"/>
-      <c r="P299" s="131"/>
-      <c r="Q299" s="131"/>
-      <c r="R299" s="131"/>
-      <c r="S299" s="131"/>
-      <c r="T299" s="131"/>
-      <c r="U299" s="131"/>
-      <c r="V299" s="131"/>
-      <c r="W299" s="131"/>
-      <c r="X299" s="131"/>
-      <c r="Y299" s="131"/>
-      <c r="Z299" s="131"/>
-      <c r="AA299" s="131"/>
-      <c r="AB299" s="131"/>
-      <c r="AC299" s="131"/>
-      <c r="AD299" s="131"/>
-      <c r="AE299" s="131"/>
-      <c r="AF299" s="131"/>
-      <c r="AG299" s="131"/>
-      <c r="AH299" s="131"/>
-      <c r="AI299" s="131"/>
-      <c r="AJ299" s="131"/>
-      <c r="AK299" s="131"/>
-      <c r="AL299" s="131"/>
-      <c r="AM299" s="131"/>
-      <c r="AN299" s="131"/>
-      <c r="AO299" s="131"/>
-      <c r="AP299" s="131"/>
-      <c r="AQ299" s="131"/>
-      <c r="AR299" s="131"/>
-      <c r="AS299" s="131"/>
-      <c r="AT299" s="131"/>
-      <c r="AU299" s="131"/>
-      <c r="AV299" s="132"/>
-      <c r="AW299" s="130" t="s">
+      <c r="G299" s="120"/>
+      <c r="H299" s="120"/>
+      <c r="I299" s="120"/>
+      <c r="J299" s="120"/>
+      <c r="K299" s="120"/>
+      <c r="L299" s="120"/>
+      <c r="M299" s="120"/>
+      <c r="N299" s="120"/>
+      <c r="O299" s="120"/>
+      <c r="P299" s="120"/>
+      <c r="Q299" s="120"/>
+      <c r="R299" s="120"/>
+      <c r="S299" s="120"/>
+      <c r="T299" s="120"/>
+      <c r="U299" s="120"/>
+      <c r="V299" s="120"/>
+      <c r="W299" s="120"/>
+      <c r="X299" s="120"/>
+      <c r="Y299" s="120"/>
+      <c r="Z299" s="120"/>
+      <c r="AA299" s="120"/>
+      <c r="AB299" s="120"/>
+      <c r="AC299" s="120"/>
+      <c r="AD299" s="120"/>
+      <c r="AE299" s="120"/>
+      <c r="AF299" s="120"/>
+      <c r="AG299" s="120"/>
+      <c r="AH299" s="120"/>
+      <c r="AI299" s="120"/>
+      <c r="AJ299" s="120"/>
+      <c r="AK299" s="120"/>
+      <c r="AL299" s="120"/>
+      <c r="AM299" s="120"/>
+      <c r="AN299" s="120"/>
+      <c r="AO299" s="120"/>
+      <c r="AP299" s="120"/>
+      <c r="AQ299" s="120"/>
+      <c r="AR299" s="120"/>
+      <c r="AS299" s="120"/>
+      <c r="AT299" s="120"/>
+      <c r="AU299" s="120"/>
+      <c r="AV299" s="121"/>
+      <c r="AW299" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="AX299" s="131"/>
-      <c r="AY299" s="131"/>
-      <c r="AZ299" s="131"/>
-      <c r="BA299" s="132"/>
-      <c r="BB299" s="106" t="s">
+      <c r="AX299" s="120"/>
+      <c r="AY299" s="120"/>
+      <c r="AZ299" s="120"/>
+      <c r="BA299" s="121"/>
+      <c r="BB299" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="BC299" s="107"/>
-      <c r="BD299" s="107"/>
-      <c r="BE299" s="107"/>
-      <c r="BF299" s="107"/>
-      <c r="BG299" s="107"/>
-      <c r="BH299" s="107"/>
-      <c r="BI299" s="107"/>
-      <c r="BJ299" s="108"/>
-      <c r="BK299" s="130" t="s">
+      <c r="BC299" s="117"/>
+      <c r="BD299" s="117"/>
+      <c r="BE299" s="117"/>
+      <c r="BF299" s="117"/>
+      <c r="BG299" s="117"/>
+      <c r="BH299" s="117"/>
+      <c r="BI299" s="117"/>
+      <c r="BJ299" s="118"/>
+      <c r="BK299" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="BL299" s="131"/>
-      <c r="BM299" s="131"/>
-      <c r="BN299" s="131"/>
-      <c r="BO299" s="132"/>
-      <c r="BP299" s="140" t="s">
+      <c r="BL299" s="120"/>
+      <c r="BM299" s="120"/>
+      <c r="BN299" s="120"/>
+      <c r="BO299" s="121"/>
+      <c r="BP299" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ299" s="131"/>
-      <c r="BR299" s="131"/>
-      <c r="BS299" s="131"/>
-      <c r="BT299" s="131"/>
-      <c r="BU299" s="131"/>
-      <c r="BV299" s="131"/>
-      <c r="BW299" s="131"/>
-      <c r="BX299" s="141"/>
+      <c r="BQ299" s="120"/>
+      <c r="BR299" s="120"/>
+      <c r="BS299" s="120"/>
+      <c r="BT299" s="120"/>
+      <c r="BU299" s="120"/>
+      <c r="BV299" s="120"/>
+      <c r="BW299" s="120"/>
+      <c r="BX299" s="133"/>
       <c r="BY299" s="54"/>
       <c r="BZ299" s="54"/>
     </row>
     <row r="300" spans="1:78" ht="18">
-      <c r="A300" s="151" t="s">
+      <c r="A300" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B300" s="117"/>
-      <c r="C300" s="117"/>
-      <c r="D300" s="117"/>
-      <c r="E300" s="152"/>
-      <c r="F300" s="120" t="s">
+      <c r="B300" s="114"/>
+      <c r="C300" s="114"/>
+      <c r="D300" s="114"/>
+      <c r="E300" s="135"/>
+      <c r="F300" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G300" s="117"/>
-      <c r="H300" s="117"/>
-      <c r="I300" s="117"/>
-      <c r="J300" s="117"/>
-      <c r="K300" s="117"/>
-      <c r="L300" s="117"/>
-      <c r="M300" s="117"/>
-      <c r="N300" s="117"/>
-      <c r="O300" s="117"/>
-      <c r="P300" s="117"/>
-      <c r="Q300" s="117"/>
-      <c r="R300" s="117"/>
-      <c r="S300" s="117"/>
-      <c r="T300" s="117"/>
-      <c r="U300" s="117"/>
-      <c r="V300" s="117"/>
-      <c r="W300" s="117"/>
-      <c r="X300" s="117"/>
-      <c r="Y300" s="119"/>
-      <c r="Z300" s="118" t="s">
+      <c r="G300" s="114"/>
+      <c r="H300" s="114"/>
+      <c r="I300" s="114"/>
+      <c r="J300" s="114"/>
+      <c r="K300" s="114"/>
+      <c r="L300" s="114"/>
+      <c r="M300" s="114"/>
+      <c r="N300" s="114"/>
+      <c r="O300" s="114"/>
+      <c r="P300" s="114"/>
+      <c r="Q300" s="114"/>
+      <c r="R300" s="114"/>
+      <c r="S300" s="114"/>
+      <c r="T300" s="114"/>
+      <c r="U300" s="114"/>
+      <c r="V300" s="114"/>
+      <c r="W300" s="114"/>
+      <c r="X300" s="114"/>
+      <c r="Y300" s="115"/>
+      <c r="Z300" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AA300" s="117"/>
-      <c r="AB300" s="117"/>
-      <c r="AC300" s="117"/>
-      <c r="AD300" s="119"/>
-      <c r="AE300" s="120" t="s">
+      <c r="AA300" s="114"/>
+      <c r="AB300" s="114"/>
+      <c r="AC300" s="114"/>
+      <c r="AD300" s="115"/>
+      <c r="AE300" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="AF300" s="117"/>
-      <c r="AG300" s="117"/>
-      <c r="AH300" s="117"/>
-      <c r="AI300" s="117"/>
-      <c r="AJ300" s="117"/>
-      <c r="AK300" s="117"/>
-      <c r="AL300" s="117"/>
-      <c r="AM300" s="117"/>
-      <c r="AN300" s="117"/>
-      <c r="AO300" s="117"/>
-      <c r="AP300" s="117"/>
-      <c r="AQ300" s="117"/>
-      <c r="AR300" s="117"/>
-      <c r="AS300" s="117"/>
-      <c r="AT300" s="117"/>
-      <c r="AU300" s="117"/>
-      <c r="AV300" s="119"/>
-      <c r="AW300" s="118" t="s">
+      <c r="AF300" s="114"/>
+      <c r="AG300" s="114"/>
+      <c r="AH300" s="114"/>
+      <c r="AI300" s="114"/>
+      <c r="AJ300" s="114"/>
+      <c r="AK300" s="114"/>
+      <c r="AL300" s="114"/>
+      <c r="AM300" s="114"/>
+      <c r="AN300" s="114"/>
+      <c r="AO300" s="114"/>
+      <c r="AP300" s="114"/>
+      <c r="AQ300" s="114"/>
+      <c r="AR300" s="114"/>
+      <c r="AS300" s="114"/>
+      <c r="AT300" s="114"/>
+      <c r="AU300" s="114"/>
+      <c r="AV300" s="115"/>
+      <c r="AW300" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AX300" s="117"/>
-      <c r="AY300" s="117"/>
-      <c r="AZ300" s="117"/>
-      <c r="BA300" s="119"/>
-      <c r="BB300" s="116" t="s">
+      <c r="AX300" s="114"/>
+      <c r="AY300" s="114"/>
+      <c r="AZ300" s="114"/>
+      <c r="BA300" s="115"/>
+      <c r="BB300" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="BC300" s="117"/>
-      <c r="BD300" s="117"/>
-      <c r="BE300" s="117"/>
-      <c r="BF300" s="117"/>
-      <c r="BG300" s="117"/>
-      <c r="BH300" s="117"/>
-      <c r="BI300" s="117"/>
-      <c r="BJ300" s="117"/>
-      <c r="BK300" s="153" t="s">
+      <c r="BC300" s="114"/>
+      <c r="BD300" s="114"/>
+      <c r="BE300" s="114"/>
+      <c r="BF300" s="114"/>
+      <c r="BG300" s="114"/>
+      <c r="BH300" s="114"/>
+      <c r="BI300" s="114"/>
+      <c r="BJ300" s="114"/>
+      <c r="BK300" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="BL300" s="107"/>
-      <c r="BM300" s="107"/>
-      <c r="BN300" s="107"/>
-      <c r="BO300" s="108"/>
-      <c r="BP300" s="140" t="s">
+      <c r="BL300" s="117"/>
+      <c r="BM300" s="117"/>
+      <c r="BN300" s="117"/>
+      <c r="BO300" s="118"/>
+      <c r="BP300" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="BQ300" s="131"/>
-      <c r="BR300" s="131"/>
-      <c r="BS300" s="131"/>
-      <c r="BT300" s="131"/>
-      <c r="BU300" s="131"/>
-      <c r="BV300" s="131"/>
-      <c r="BW300" s="131"/>
-      <c r="BX300" s="141"/>
+      <c r="BQ300" s="120"/>
+      <c r="BR300" s="120"/>
+      <c r="BS300" s="120"/>
+      <c r="BT300" s="120"/>
+      <c r="BU300" s="120"/>
+      <c r="BV300" s="120"/>
+      <c r="BW300" s="120"/>
+      <c r="BX300" s="133"/>
       <c r="BY300" s="54"/>
       <c r="BZ300" s="54"/>
     </row>
@@ -30674,51 +30674,51 @@
       <c r="AJ303" s="4"/>
       <c r="AK303" s="4"/>
       <c r="AL303" s="55"/>
-      <c r="AM303" s="126" t="s">
+      <c r="AM303" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AN303" s="127"/>
-      <c r="AO303" s="126" t="s">
+      <c r="AN303" s="128"/>
+      <c r="AO303" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="AP303" s="122"/>
-      <c r="AQ303" s="122"/>
-      <c r="AR303" s="122"/>
-      <c r="AS303" s="122"/>
-      <c r="AT303" s="122"/>
-      <c r="AU303" s="129"/>
-      <c r="AV303" s="126" t="s">
+      <c r="AP303" s="111"/>
+      <c r="AQ303" s="111"/>
+      <c r="AR303" s="111"/>
+      <c r="AS303" s="111"/>
+      <c r="AT303" s="111"/>
+      <c r="AU303" s="107"/>
+      <c r="AV303" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="AW303" s="122"/>
-      <c r="AX303" s="122"/>
-      <c r="AY303" s="122"/>
-      <c r="AZ303" s="129"/>
-      <c r="BA303" s="126" t="s">
+      <c r="AW303" s="111"/>
+      <c r="AX303" s="111"/>
+      <c r="AY303" s="111"/>
+      <c r="AZ303" s="107"/>
+      <c r="BA303" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="BB303" s="122"/>
-      <c r="BC303" s="122"/>
-      <c r="BD303" s="122"/>
-      <c r="BE303" s="122"/>
-      <c r="BF303" s="122"/>
-      <c r="BG303" s="122"/>
-      <c r="BH303" s="122"/>
-      <c r="BI303" s="122"/>
-      <c r="BJ303" s="122"/>
-      <c r="BK303" s="122"/>
-      <c r="BL303" s="122"/>
-      <c r="BM303" s="122"/>
-      <c r="BN303" s="122"/>
-      <c r="BO303" s="122"/>
-      <c r="BP303" s="122"/>
-      <c r="BQ303" s="122"/>
-      <c r="BR303" s="122"/>
-      <c r="BS303" s="122"/>
-      <c r="BT303" s="122"/>
-      <c r="BU303" s="122"/>
-      <c r="BV303" s="122"/>
-      <c r="BW303" s="127"/>
+      <c r="BB303" s="111"/>
+      <c r="BC303" s="111"/>
+      <c r="BD303" s="111"/>
+      <c r="BE303" s="111"/>
+      <c r="BF303" s="111"/>
+      <c r="BG303" s="111"/>
+      <c r="BH303" s="111"/>
+      <c r="BI303" s="111"/>
+      <c r="BJ303" s="111"/>
+      <c r="BK303" s="111"/>
+      <c r="BL303" s="111"/>
+      <c r="BM303" s="111"/>
+      <c r="BN303" s="111"/>
+      <c r="BO303" s="111"/>
+      <c r="BP303" s="111"/>
+      <c r="BQ303" s="111"/>
+      <c r="BR303" s="111"/>
+      <c r="BS303" s="111"/>
+      <c r="BT303" s="111"/>
+      <c r="BU303" s="111"/>
+      <c r="BV303" s="111"/>
+      <c r="BW303" s="128"/>
       <c r="BX303" s="4"/>
       <c r="BY303" s="4"/>
       <c r="BZ303" s="4"/>
@@ -30762,43 +30762,43 @@
       <c r="AJ304" s="4"/>
       <c r="AK304" s="4"/>
       <c r="AL304" s="55"/>
-      <c r="AM304" s="114"/>
-      <c r="AN304" s="115"/>
-      <c r="AO304" s="114"/>
-      <c r="AP304" s="114"/>
-      <c r="AQ304" s="114"/>
-      <c r="AR304" s="114"/>
-      <c r="AS304" s="114"/>
-      <c r="AT304" s="114"/>
-      <c r="AU304" s="133"/>
-      <c r="AV304" s="114"/>
-      <c r="AW304" s="114"/>
-      <c r="AX304" s="114"/>
-      <c r="AY304" s="114"/>
-      <c r="AZ304" s="133"/>
-      <c r="BA304" s="114"/>
-      <c r="BB304" s="114"/>
-      <c r="BC304" s="114"/>
-      <c r="BD304" s="114"/>
-      <c r="BE304" s="114"/>
-      <c r="BF304" s="114"/>
-      <c r="BG304" s="114"/>
-      <c r="BH304" s="114"/>
-      <c r="BI304" s="114"/>
-      <c r="BJ304" s="114"/>
-      <c r="BK304" s="114"/>
-      <c r="BL304" s="114"/>
-      <c r="BM304" s="114"/>
-      <c r="BN304" s="114"/>
-      <c r="BO304" s="114"/>
-      <c r="BP304" s="114"/>
-      <c r="BQ304" s="114"/>
-      <c r="BR304" s="114"/>
-      <c r="BS304" s="114"/>
-      <c r="BT304" s="114"/>
-      <c r="BU304" s="114"/>
-      <c r="BV304" s="114"/>
-      <c r="BW304" s="115"/>
+      <c r="AM304" s="123"/>
+      <c r="AN304" s="129"/>
+      <c r="AO304" s="123"/>
+      <c r="AP304" s="123"/>
+      <c r="AQ304" s="123"/>
+      <c r="AR304" s="123"/>
+      <c r="AS304" s="123"/>
+      <c r="AT304" s="123"/>
+      <c r="AU304" s="124"/>
+      <c r="AV304" s="123"/>
+      <c r="AW304" s="123"/>
+      <c r="AX304" s="123"/>
+      <c r="AY304" s="123"/>
+      <c r="AZ304" s="124"/>
+      <c r="BA304" s="123"/>
+      <c r="BB304" s="123"/>
+      <c r="BC304" s="123"/>
+      <c r="BD304" s="123"/>
+      <c r="BE304" s="123"/>
+      <c r="BF304" s="123"/>
+      <c r="BG304" s="123"/>
+      <c r="BH304" s="123"/>
+      <c r="BI304" s="123"/>
+      <c r="BJ304" s="123"/>
+      <c r="BK304" s="123"/>
+      <c r="BL304" s="123"/>
+      <c r="BM304" s="123"/>
+      <c r="BN304" s="123"/>
+      <c r="BO304" s="123"/>
+      <c r="BP304" s="123"/>
+      <c r="BQ304" s="123"/>
+      <c r="BR304" s="123"/>
+      <c r="BS304" s="123"/>
+      <c r="BT304" s="123"/>
+      <c r="BU304" s="123"/>
+      <c r="BV304" s="123"/>
+      <c r="BW304" s="129"/>
       <c r="BX304" s="4"/>
       <c r="BY304" s="4"/>
       <c r="BZ304" s="4"/>
@@ -30842,10 +30842,10 @@
       <c r="AJ305" s="4"/>
       <c r="AK305" s="4"/>
       <c r="AL305" s="55"/>
-      <c r="AM305" s="128" t="s">
+      <c r="AM305" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AN305" s="129"/>
+      <c r="AN305" s="107"/>
       <c r="AO305" s="61" t="s">
         <v>88</v>
       </c>
@@ -31254,8 +31254,8 @@
       <c r="AJ310" s="4"/>
       <c r="AK310" s="4"/>
       <c r="AL310" s="55"/>
-      <c r="AM310" s="162"/>
-      <c r="AN310" s="122"/>
+      <c r="AM310" s="110"/>
+      <c r="AN310" s="111"/>
       <c r="AO310" s="68"/>
       <c r="AP310" s="33"/>
       <c r="AQ310" s="33"/>
@@ -34577,25 +34577,124 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AM98:AN98"/>
-    <mergeCell ref="AM95:AN95"/>
-    <mergeCell ref="AW194:BA194"/>
-    <mergeCell ref="BB193:BJ193"/>
-    <mergeCell ref="AW193:BA193"/>
-    <mergeCell ref="AO91:AU92"/>
-    <mergeCell ref="AM93:AN93"/>
-    <mergeCell ref="AM146:AN146"/>
-    <mergeCell ref="AV144:AZ145"/>
-    <mergeCell ref="AO144:AU145"/>
-    <mergeCell ref="BB141:BJ141"/>
-    <mergeCell ref="AW141:BA141"/>
-    <mergeCell ref="AW140:BA140"/>
-    <mergeCell ref="BB140:BJ140"/>
-    <mergeCell ref="AM148:AN148"/>
-    <mergeCell ref="AM151:AN151"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB194:BJ194"/>
+    <mergeCell ref="BK194:BO194"/>
+    <mergeCell ref="AE194:AV194"/>
+    <mergeCell ref="W39:AA40"/>
+    <mergeCell ref="W41:AA42"/>
+    <mergeCell ref="K43:T44"/>
+    <mergeCell ref="W43:AG44"/>
+    <mergeCell ref="BB88:BJ88"/>
+    <mergeCell ref="BA91:BW92"/>
+    <mergeCell ref="BK88:BO88"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BK140:BO140"/>
+    <mergeCell ref="BK193:BO193"/>
+    <mergeCell ref="BA144:BW145"/>
+    <mergeCell ref="AV91:AZ92"/>
+    <mergeCell ref="BK141:BO141"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="K41:T42"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="W37:AA38"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AB37:AG38"/>
+    <mergeCell ref="AB41:AG42"/>
+    <mergeCell ref="AB39:AG40"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="BP193:BX193"/>
+    <mergeCell ref="F194:Y194"/>
+    <mergeCell ref="AO197:AU198"/>
+    <mergeCell ref="AM201:AN201"/>
+    <mergeCell ref="AM199:AN199"/>
+    <mergeCell ref="AM197:AN198"/>
+    <mergeCell ref="AV197:AZ198"/>
+    <mergeCell ref="F193:AV193"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="Z88:AD88"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="F88:Y88"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP88:BX88"/>
+    <mergeCell ref="BP87:BX87"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F87:AV87"/>
+    <mergeCell ref="A299:E299"/>
+    <mergeCell ref="F300:Y300"/>
+    <mergeCell ref="A300:E300"/>
+    <mergeCell ref="BP299:BX299"/>
+    <mergeCell ref="BP300:BX300"/>
+    <mergeCell ref="AO303:AU304"/>
+    <mergeCell ref="BK299:BO299"/>
+    <mergeCell ref="Z194:AD194"/>
+    <mergeCell ref="BP194:BX194"/>
+    <mergeCell ref="BA197:BW198"/>
+    <mergeCell ref="AV303:AZ304"/>
+    <mergeCell ref="BA303:BW304"/>
+    <mergeCell ref="Z300:AD300"/>
+    <mergeCell ref="AE300:AV300"/>
+    <mergeCell ref="BB300:BJ300"/>
+    <mergeCell ref="BK300:BO300"/>
+    <mergeCell ref="F299:AV299"/>
+    <mergeCell ref="AW299:BA299"/>
+    <mergeCell ref="BB299:BJ299"/>
+    <mergeCell ref="AW300:BA300"/>
+    <mergeCell ref="BP247:BX247"/>
+    <mergeCell ref="BK247:BO247"/>
+    <mergeCell ref="F247:Y247"/>
+    <mergeCell ref="A246:E246"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="BB246:BJ246"/>
+    <mergeCell ref="BK246:BO246"/>
+    <mergeCell ref="BP246:BX246"/>
+    <mergeCell ref="AW246:BA246"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F141:Y141"/>
+    <mergeCell ref="K37:T38"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="AW247:BA247"/>
+    <mergeCell ref="BB247:BJ247"/>
+    <mergeCell ref="AE88:AV88"/>
+    <mergeCell ref="AM86:AN86"/>
+    <mergeCell ref="C92:H93"/>
+    <mergeCell ref="G99:N100"/>
+    <mergeCell ref="AM144:AN145"/>
+    <mergeCell ref="BP141:BX141"/>
+    <mergeCell ref="BP140:BX140"/>
+    <mergeCell ref="AM91:AN92"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AW88:BA88"/>
+    <mergeCell ref="BK87:BO87"/>
+    <mergeCell ref="AW87:BA87"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="AM303:AN304"/>
@@ -34620,124 +34719,25 @@
     <mergeCell ref="K39:T40"/>
     <mergeCell ref="AM30:AN30"/>
     <mergeCell ref="BB87:BJ87"/>
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="BB246:BJ246"/>
-    <mergeCell ref="BK246:BO246"/>
-    <mergeCell ref="BP246:BX246"/>
-    <mergeCell ref="AW246:BA246"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F141:Y141"/>
-    <mergeCell ref="K37:T38"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="AW247:BA247"/>
-    <mergeCell ref="BB247:BJ247"/>
-    <mergeCell ref="AE88:AV88"/>
-    <mergeCell ref="AM86:AN86"/>
-    <mergeCell ref="C92:H93"/>
-    <mergeCell ref="G99:N100"/>
-    <mergeCell ref="AM144:AN145"/>
-    <mergeCell ref="BP141:BX141"/>
-    <mergeCell ref="BP140:BX140"/>
-    <mergeCell ref="AM91:AN92"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AW88:BA88"/>
-    <mergeCell ref="BK87:BO87"/>
-    <mergeCell ref="AW87:BA87"/>
-    <mergeCell ref="A299:E299"/>
-    <mergeCell ref="F300:Y300"/>
-    <mergeCell ref="A300:E300"/>
-    <mergeCell ref="BP299:BX299"/>
-    <mergeCell ref="BP300:BX300"/>
-    <mergeCell ref="AO303:AU304"/>
-    <mergeCell ref="BK299:BO299"/>
-    <mergeCell ref="Z194:AD194"/>
-    <mergeCell ref="BP194:BX194"/>
-    <mergeCell ref="BA197:BW198"/>
-    <mergeCell ref="AV303:AZ304"/>
-    <mergeCell ref="BA303:BW304"/>
-    <mergeCell ref="Z300:AD300"/>
-    <mergeCell ref="AE300:AV300"/>
-    <mergeCell ref="BB300:BJ300"/>
-    <mergeCell ref="BK300:BO300"/>
-    <mergeCell ref="F299:AV299"/>
-    <mergeCell ref="AW299:BA299"/>
-    <mergeCell ref="BB299:BJ299"/>
-    <mergeCell ref="AW300:BA300"/>
-    <mergeCell ref="BP247:BX247"/>
-    <mergeCell ref="BK247:BO247"/>
-    <mergeCell ref="F247:Y247"/>
-    <mergeCell ref="A246:E246"/>
-    <mergeCell ref="BP193:BX193"/>
-    <mergeCell ref="F194:Y194"/>
-    <mergeCell ref="AO197:AU198"/>
-    <mergeCell ref="AM201:AN201"/>
-    <mergeCell ref="AM199:AN199"/>
-    <mergeCell ref="AM197:AN198"/>
-    <mergeCell ref="AV197:AZ198"/>
-    <mergeCell ref="F193:AV193"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="Z88:AD88"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="F88:Y88"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP88:BX88"/>
-    <mergeCell ref="BP87:BX87"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F87:AV87"/>
-    <mergeCell ref="K41:T42"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="W37:AA38"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AB37:AG38"/>
-    <mergeCell ref="AB41:AG42"/>
-    <mergeCell ref="AB39:AG40"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB194:BJ194"/>
-    <mergeCell ref="BK194:BO194"/>
-    <mergeCell ref="AE194:AV194"/>
-    <mergeCell ref="W39:AA40"/>
-    <mergeCell ref="W41:AA42"/>
-    <mergeCell ref="K43:T44"/>
-    <mergeCell ref="W43:AG44"/>
-    <mergeCell ref="BB88:BJ88"/>
-    <mergeCell ref="BA91:BW92"/>
-    <mergeCell ref="BK88:BO88"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BK140:BO140"/>
-    <mergeCell ref="BK193:BO193"/>
-    <mergeCell ref="BA144:BW145"/>
-    <mergeCell ref="AV91:AZ92"/>
-    <mergeCell ref="BK141:BO141"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AM98:AN98"/>
+    <mergeCell ref="AM95:AN95"/>
+    <mergeCell ref="AW194:BA194"/>
+    <mergeCell ref="BB193:BJ193"/>
+    <mergeCell ref="AW193:BA193"/>
+    <mergeCell ref="AO91:AU92"/>
+    <mergeCell ref="AM93:AN93"/>
+    <mergeCell ref="AM146:AN146"/>
+    <mergeCell ref="AV144:AZ145"/>
+    <mergeCell ref="AO144:AU145"/>
+    <mergeCell ref="BB141:BJ141"/>
+    <mergeCell ref="AW141:BA141"/>
+    <mergeCell ref="AW140:BA140"/>
+    <mergeCell ref="BB140:BJ140"/>
+    <mergeCell ref="AM148:AN148"/>
+    <mergeCell ref="AM151:AN151"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -5,18 +5,41 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC664508-EC76-4A92-ACA9-C950F0BB964F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C877C3-734B-48F8-A868-1B9070EAE87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="決済" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1273EC73-AC8A-49F1-9CF5-0FF30456DBBA}</author>
+  </authors>
+  <commentList>
+    <comment ref="BA39" authorId="0" shapeId="0" xr:uid="{1273EC73-AC8A-49F1-9CF5-0FF30456DBBA}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    1万円以上の場合
+⇒送料・手数料：無料
+1万円未満の場合
+⇒送料・手数料：¥540
+と表示するということでしょうか？
+その認識であっているのであれば、OKです。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -276,6 +299,8 @@
         <b/>
         <sz val="11"/>
         <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>NNN-NNNNNNN-NNNNNNN</t>
     </r>
@@ -289,6 +314,8 @@
         <b/>
         <sz val="11"/>
         <rFont val="MS PGothic"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>YYYY-MM-DD</t>
     </r>
@@ -421,27 +448,39 @@
       <b/>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -451,10 +490,14 @@
     <font>
       <sz val="18"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="18"/>
@@ -465,6 +508,8 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -483,10 +528,14 @@
       <b/>
       <sz val="18"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
@@ -496,11 +545,15 @@
     <font>
       <sz val="24"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -512,11 +565,15 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <strike/>
@@ -528,6 +585,8 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <strike/>
@@ -1054,42 +1113,63 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1097,20 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,19 +1204,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,12 +1225,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3704,6 +3763,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="office365 user9" id="{B410949E-852C-475E-8460-213C0BE9E0A5}" userId="office365 user9" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3999,15 +4064,28 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BA39" dT="2019-12-03T05:40:36.32" personId="{B410949E-852C-475E-8460-213C0BE9E0A5}" id="{1273EC73-AC8A-49F1-9CF5-0FF30456DBBA}">
+    <text>1万円以上の場合
+⇒送料・手数料：無料
+1万円未満の場合
+⇒送料・手数料：¥540
+と表示するということでしょうか？
+その認識であっているのであれば、OKです。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:CR315"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK23" workbookViewId="0">
-      <selection activeCell="BR18" sqref="BR18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="BS30" sqref="BS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4017,94 +4095,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="112" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="111" t="s">
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="94"/>
+      <c r="AW1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="78" t="s">
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="94"/>
+      <c r="BB1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="111" t="s">
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="83"/>
+      <c r="BK1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="95" t="s">
+      <c r="BL1" s="93"/>
+      <c r="BM1" s="93"/>
+      <c r="BN1" s="93"/>
+      <c r="BO1" s="94"/>
+      <c r="BP1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="82"/>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="82"/>
-      <c r="BT1" s="82"/>
-      <c r="BU1" s="82"/>
-      <c r="BV1" s="82"/>
-      <c r="BW1" s="82"/>
-      <c r="BX1" s="96"/>
+      <c r="BQ1" s="93"/>
+      <c r="BR1" s="93"/>
+      <c r="BS1" s="93"/>
+      <c r="BT1" s="93"/>
+      <c r="BU1" s="93"/>
+      <c r="BV1" s="93"/>
+      <c r="BW1" s="93"/>
+      <c r="BX1" s="106"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -4127,96 +4205,96 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="113" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="115" t="s">
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="115" t="s">
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="78" t="s">
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="BC2" s="79"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="79"/>
-      <c r="BF2" s="79"/>
-      <c r="BG2" s="79"/>
-      <c r="BH2" s="79"/>
-      <c r="BI2" s="79"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="115" t="s">
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="95" t="s">
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="83"/>
+      <c r="BP2" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="BQ2" s="82"/>
-      <c r="BR2" s="82"/>
-      <c r="BS2" s="82"/>
-      <c r="BT2" s="82"/>
-      <c r="BU2" s="82"/>
-      <c r="BV2" s="82"/>
-      <c r="BW2" s="82"/>
-      <c r="BX2" s="96"/>
+      <c r="BQ2" s="93"/>
+      <c r="BR2" s="93"/>
+      <c r="BS2" s="93"/>
+      <c r="BT2" s="93"/>
+      <c r="BU2" s="93"/>
+      <c r="BV2" s="93"/>
+      <c r="BW2" s="93"/>
+      <c r="BX2" s="106"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -4475,51 +4553,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="116" t="s">
+      <c r="AM5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="121" t="s">
+      <c r="AN5" s="124"/>
+      <c r="AO5" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122"/>
-      <c r="AR5" s="122"/>
-      <c r="AS5" s="122"/>
-      <c r="AT5" s="122"/>
-      <c r="AU5" s="117"/>
-      <c r="AV5" s="121" t="s">
+      <c r="AP5" s="131"/>
+      <c r="AQ5" s="131"/>
+      <c r="AR5" s="131"/>
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="131"/>
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="122"/>
-      <c r="AX5" s="122"/>
-      <c r="AY5" s="122"/>
-      <c r="AZ5" s="117"/>
-      <c r="BA5" s="121" t="s">
+      <c r="AW5" s="131"/>
+      <c r="AX5" s="131"/>
+      <c r="AY5" s="131"/>
+      <c r="AZ5" s="124"/>
+      <c r="BA5" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="122"/>
-      <c r="BC5" s="122"/>
-      <c r="BD5" s="122"/>
-      <c r="BE5" s="122"/>
-      <c r="BF5" s="122"/>
-      <c r="BG5" s="122"/>
-      <c r="BH5" s="122"/>
-      <c r="BI5" s="122"/>
-      <c r="BJ5" s="122"/>
-      <c r="BK5" s="122"/>
-      <c r="BL5" s="122"/>
-      <c r="BM5" s="122"/>
-      <c r="BN5" s="122"/>
-      <c r="BO5" s="122"/>
-      <c r="BP5" s="122"/>
-      <c r="BQ5" s="122"/>
-      <c r="BR5" s="122"/>
-      <c r="BS5" s="122"/>
-      <c r="BT5" s="122"/>
-      <c r="BU5" s="122"/>
-      <c r="BV5" s="122"/>
-      <c r="BW5" s="127"/>
+      <c r="BB5" s="131"/>
+      <c r="BC5" s="131"/>
+      <c r="BD5" s="131"/>
+      <c r="BE5" s="131"/>
+      <c r="BF5" s="131"/>
+      <c r="BG5" s="131"/>
+      <c r="BH5" s="131"/>
+      <c r="BI5" s="131"/>
+      <c r="BJ5" s="131"/>
+      <c r="BK5" s="131"/>
+      <c r="BL5" s="131"/>
+      <c r="BM5" s="131"/>
+      <c r="BN5" s="131"/>
+      <c r="BO5" s="131"/>
+      <c r="BP5" s="131"/>
+      <c r="BQ5" s="131"/>
+      <c r="BR5" s="131"/>
+      <c r="BS5" s="131"/>
+      <c r="BT5" s="131"/>
+      <c r="BU5" s="131"/>
+      <c r="BV5" s="131"/>
+      <c r="BW5" s="132"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -4581,43 +4659,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="123"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="87"/>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="88"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="87"/>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="87"/>
-      <c r="AZ6" s="88"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="87"/>
-      <c r="BC6" s="87"/>
-      <c r="BD6" s="87"/>
-      <c r="BE6" s="87"/>
-      <c r="BF6" s="87"/>
-      <c r="BG6" s="87"/>
-      <c r="BH6" s="87"/>
-      <c r="BI6" s="87"/>
-      <c r="BJ6" s="87"/>
-      <c r="BK6" s="87"/>
-      <c r="BL6" s="87"/>
-      <c r="BM6" s="87"/>
-      <c r="BN6" s="87"/>
-      <c r="BO6" s="87"/>
-      <c r="BP6" s="87"/>
-      <c r="BQ6" s="87"/>
-      <c r="BR6" s="87"/>
-      <c r="BS6" s="87"/>
-      <c r="BT6" s="87"/>
-      <c r="BU6" s="87"/>
-      <c r="BV6" s="87"/>
-      <c r="BW6" s="94"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="133"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="96"/>
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="133"/>
+      <c r="AW6" s="96"/>
+      <c r="AX6" s="96"/>
+      <c r="AY6" s="96"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="133"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="96"/>
+      <c r="BH6" s="96"/>
+      <c r="BI6" s="96"/>
+      <c r="BJ6" s="96"/>
+      <c r="BK6" s="96"/>
+      <c r="BL6" s="96"/>
+      <c r="BM6" s="96"/>
+      <c r="BN6" s="96"/>
+      <c r="BO6" s="96"/>
+      <c r="BP6" s="96"/>
+      <c r="BQ6" s="96"/>
+      <c r="BR6" s="96"/>
+      <c r="BS6" s="96"/>
+      <c r="BT6" s="96"/>
+      <c r="BU6" s="96"/>
+      <c r="BV6" s="96"/>
+      <c r="BW6" s="102"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -4679,10 +4757,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="89" t="s">
+      <c r="AM7" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="86"/>
+      <c r="AN7" s="85"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -4883,10 +4961,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="89" t="s">
+      <c r="AM9" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="86"/>
+      <c r="AN9" s="85"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -5087,10 +5165,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="89" t="s">
+      <c r="AM11" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="86"/>
+      <c r="AN11" s="85"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -5183,9 +5261,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -5290,10 +5368,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="89" t="s">
+      <c r="AM13" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="86"/>
+      <c r="AN13" s="85"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -5477,9 +5555,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -5586,10 +5664,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="89" t="s">
+      <c r="AM16" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="86"/>
+      <c r="AN16" s="85"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -5790,10 +5868,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="89" t="s">
+      <c r="AM18" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="86"/>
+      <c r="AN18" s="85"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -5984,19 +6062,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="85"/>
+      <c r="AD20" s="126"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="87"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="89" t="s">
+      <c r="AM20" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="86"/>
+      <c r="AN20" s="85"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -6182,9 +6260,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -6193,10 +6271,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="89" t="s">
+      <c r="AM22" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="86"/>
+      <c r="AN22" s="85"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -6397,10 +6475,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="89" t="s">
+      <c r="AM24" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="86"/>
+      <c r="AN24" s="85"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -6601,10 +6679,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="89" t="s">
+      <c r="AM26" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="86"/>
+      <c r="AN26" s="85"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -6697,9 +6775,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="87"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -6804,10 +6882,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="89" t="s">
+      <c r="AM28" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="86"/>
+      <c r="AN28" s="85"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -6895,9 +6973,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
+      <c r="Z29" s="127"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -7004,10 +7082,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="89" t="s">
+      <c r="AM30" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="86"/>
+      <c r="AN30" s="85"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -7208,10 +7286,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="89" t="s">
+      <c r="AM32" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="86"/>
+      <c r="AN32" s="85"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -7410,10 +7488,10 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="89" t="s">
+      <c r="AM34" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="86"/>
+      <c r="AN34" s="85"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -7489,28 +7567,28 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="109"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="125"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="126"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="85"/>
-      <c r="AG35" s="85"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="129"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="87"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="87"/>
+      <c r="AG35" s="87"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
@@ -7586,38 +7664,38 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="85"/>
-      <c r="AE36" s="85"/>
-      <c r="AF36" s="85"/>
-      <c r="AG36" s="85"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="87"/>
+      <c r="AC36" s="87"/>
+      <c r="AD36" s="87"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="87"/>
+      <c r="AG36" s="87"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="89" t="s">
+      <c r="AM36" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="86"/>
+      <c r="AN36" s="85"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -7693,28 +7771,28 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="109"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="128"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="85"/>
-      <c r="AB37" s="126"/>
-      <c r="AC37" s="85"/>
-      <c r="AD37" s="85"/>
-      <c r="AE37" s="85"/>
-      <c r="AF37" s="85"/>
-      <c r="AG37" s="85"/>
+      <c r="W37" s="134"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="129"/>
+      <c r="AC37" s="87"/>
+      <c r="AD37" s="87"/>
+      <c r="AE37" s="87"/>
+      <c r="AF37" s="87"/>
+      <c r="AG37" s="87"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
@@ -7790,38 +7868,38 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="85"/>
-      <c r="AB38" s="85"/>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="85"/>
-      <c r="AE38" s="85"/>
-      <c r="AF38" s="85"/>
-      <c r="AG38" s="85"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="87"/>
+      <c r="AB38" s="87"/>
+      <c r="AC38" s="87"/>
+      <c r="AD38" s="87"/>
+      <c r="AE38" s="87"/>
+      <c r="AF38" s="87"/>
+      <c r="AG38" s="87"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="89" t="s">
+      <c r="AM38" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="AN38" s="86"/>
+      <c r="AN38" s="85"/>
       <c r="AO38" s="21" t="s">
         <v>67</v>
       </c>
@@ -7838,24 +7916,24 @@
       <c r="AX38" s="4"/>
       <c r="AY38" s="4"/>
       <c r="AZ38" s="37"/>
-      <c r="BA38" s="132" t="s">
+      <c r="BA38" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="BB38" s="133"/>
-      <c r="BC38" s="133"/>
-      <c r="BD38" s="133"/>
-      <c r="BE38" s="133"/>
-      <c r="BF38" s="133"/>
-      <c r="BG38" s="133"/>
-      <c r="BH38" s="133"/>
-      <c r="BI38" s="133"/>
-      <c r="BJ38" s="133"/>
-      <c r="BK38" s="133"/>
-      <c r="BL38" s="133"/>
-      <c r="BM38" s="133"/>
-      <c r="BN38" s="133"/>
-      <c r="BO38" s="133"/>
-      <c r="BP38" s="133"/>
+      <c r="BB38" s="77"/>
+      <c r="BC38" s="77"/>
+      <c r="BD38" s="77"/>
+      <c r="BE38" s="77"/>
+      <c r="BF38" s="77"/>
+      <c r="BG38" s="77"/>
+      <c r="BH38" s="77"/>
+      <c r="BI38" s="77"/>
+      <c r="BJ38" s="77"/>
+      <c r="BK38" s="77"/>
+      <c r="BL38" s="77"/>
+      <c r="BM38" s="77"/>
+      <c r="BN38" s="77"/>
+      <c r="BO38" s="77"/>
+      <c r="BP38" s="77"/>
       <c r="BQ38" s="4"/>
       <c r="BR38" s="4"/>
       <c r="BS38" s="4"/>
@@ -7917,26 +7995,26 @@
       <c r="AX39" s="21"/>
       <c r="AY39" s="21"/>
       <c r="AZ39" s="37"/>
-      <c r="BA39" s="134" t="s">
+      <c r="BA39" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="BB39" s="135"/>
-      <c r="BC39" s="135"/>
-      <c r="BD39" s="136"/>
-      <c r="BE39" s="136"/>
-      <c r="BF39" s="136"/>
-      <c r="BG39" s="136"/>
-      <c r="BH39" s="136"/>
-      <c r="BI39" s="136"/>
-      <c r="BJ39" s="136"/>
-      <c r="BK39" s="136"/>
-      <c r="BL39" s="136"/>
-      <c r="BM39" s="136"/>
-      <c r="BN39" s="136"/>
-      <c r="BO39" s="136"/>
-      <c r="BP39" s="136"/>
-      <c r="BQ39" s="134"/>
-      <c r="BR39" s="134"/>
+      <c r="BB39" s="79"/>
+      <c r="BC39" s="79"/>
+      <c r="BD39" s="80"/>
+      <c r="BE39" s="80"/>
+      <c r="BF39" s="80"/>
+      <c r="BG39" s="80"/>
+      <c r="BH39" s="80"/>
+      <c r="BI39" s="80"/>
+      <c r="BJ39" s="80"/>
+      <c r="BK39" s="80"/>
+      <c r="BL39" s="80"/>
+      <c r="BM39" s="80"/>
+      <c r="BN39" s="80"/>
+      <c r="BO39" s="80"/>
+      <c r="BP39" s="80"/>
+      <c r="BQ39" s="78"/>
+      <c r="BR39" s="78"/>
       <c r="BS39" s="21"/>
       <c r="BT39" s="21"/>
       <c r="BU39" s="21"/>
@@ -7996,26 +8074,26 @@
       <c r="AX40" s="21"/>
       <c r="AY40" s="21"/>
       <c r="AZ40" s="37"/>
-      <c r="BA40" s="136" t="s">
+      <c r="BA40" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="BB40" s="134"/>
-      <c r="BC40" s="134"/>
-      <c r="BD40" s="134"/>
-      <c r="BE40" s="134"/>
-      <c r="BF40" s="134"/>
-      <c r="BG40" s="134"/>
-      <c r="BH40" s="134"/>
-      <c r="BI40" s="134"/>
-      <c r="BJ40" s="134"/>
-      <c r="BK40" s="134"/>
-      <c r="BL40" s="136"/>
-      <c r="BM40" s="136"/>
-      <c r="BN40" s="136"/>
-      <c r="BO40" s="136"/>
-      <c r="BP40" s="136"/>
-      <c r="BQ40" s="134"/>
-      <c r="BR40" s="134"/>
+      <c r="BB40" s="78"/>
+      <c r="BC40" s="78"/>
+      <c r="BD40" s="78"/>
+      <c r="BE40" s="78"/>
+      <c r="BF40" s="78"/>
+      <c r="BG40" s="78"/>
+      <c r="BH40" s="78"/>
+      <c r="BI40" s="78"/>
+      <c r="BJ40" s="78"/>
+      <c r="BK40" s="78"/>
+      <c r="BL40" s="80"/>
+      <c r="BM40" s="80"/>
+      <c r="BN40" s="80"/>
+      <c r="BO40" s="80"/>
+      <c r="BP40" s="80"/>
+      <c r="BQ40" s="78"/>
+      <c r="BR40" s="78"/>
       <c r="BS40" s="21"/>
       <c r="BT40" s="21"/>
       <c r="BU40" s="21"/>
@@ -8055,28 +8133,28 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="109"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="87"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="87"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="129"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
-      <c r="AA41" s="85"/>
-      <c r="AB41" s="126"/>
-      <c r="AC41" s="85"/>
-      <c r="AD41" s="85"/>
-      <c r="AE41" s="85"/>
-      <c r="AF41" s="85"/>
-      <c r="AG41" s="85"/>
+      <c r="W41" s="135"/>
+      <c r="X41" s="87"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="87"/>
+      <c r="AA41" s="87"/>
+      <c r="AB41" s="129"/>
+      <c r="AC41" s="87"/>
+      <c r="AD41" s="87"/>
+      <c r="AE41" s="87"/>
+      <c r="AF41" s="87"/>
+      <c r="AG41" s="87"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
@@ -8098,7 +8176,7 @@
       <c r="AZ41" s="37"/>
       <c r="BA41" s="21"/>
       <c r="BB41" s="4"/>
-      <c r="BC41" s="136" t="s">
+      <c r="BC41" s="80" t="s">
         <v>100</v>
       </c>
       <c r="BD41" s="4"/>
@@ -8154,38 +8232,38 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="85"/>
-      <c r="X42" s="85"/>
-      <c r="Y42" s="85"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="85"/>
-      <c r="AB42" s="85"/>
-      <c r="AC42" s="85"/>
-      <c r="AD42" s="85"/>
-      <c r="AE42" s="85"/>
-      <c r="AF42" s="85"/>
-      <c r="AG42" s="85"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="87"/>
+      <c r="Y42" s="87"/>
+      <c r="Z42" s="87"/>
+      <c r="AA42" s="87"/>
+      <c r="AB42" s="87"/>
+      <c r="AC42" s="87"/>
+      <c r="AD42" s="87"/>
+      <c r="AE42" s="87"/>
+      <c r="AF42" s="87"/>
+      <c r="AG42" s="87"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="89" t="s">
+      <c r="AM42" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="AN42" s="86"/>
+      <c r="AN42" s="85"/>
       <c r="AO42" s="21" t="s">
         <v>70</v>
       </c>
@@ -8261,28 +8339,28 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="109"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="87"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="130"/>
-      <c r="X43" s="85"/>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="85"/>
-      <c r="AD43" s="85"/>
-      <c r="AE43" s="85"/>
-      <c r="AF43" s="85"/>
-      <c r="AG43" s="85"/>
+      <c r="W43" s="136"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="87"/>
+      <c r="Z43" s="87"/>
+      <c r="AA43" s="87"/>
+      <c r="AB43" s="87"/>
+      <c r="AC43" s="87"/>
+      <c r="AD43" s="87"/>
+      <c r="AE43" s="87"/>
+      <c r="AF43" s="87"/>
+      <c r="AG43" s="87"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -8358,36 +8436,36 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="85"/>
-      <c r="AC44" s="85"/>
-      <c r="AD44" s="85"/>
-      <c r="AE44" s="85"/>
-      <c r="AF44" s="85"/>
-      <c r="AG44" s="85"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="87"/>
+      <c r="AB44" s="87"/>
+      <c r="AC44" s="87"/>
+      <c r="AD44" s="87"/>
+      <c r="AE44" s="87"/>
+      <c r="AF44" s="87"/>
+      <c r="AG44" s="87"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="86"/>
+      <c r="AM44" s="84"/>
+      <c r="AN44" s="85"/>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
@@ -8582,8 +8660,8 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="89"/>
-      <c r="AN46" s="86"/>
+      <c r="AM46" s="84"/>
+      <c r="AN46" s="85"/>
       <c r="AO46" s="47"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -8777,8 +8855,8 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="89"/>
-      <c r="AN48" s="86"/>
+      <c r="AM48" s="84"/>
+      <c r="AN48" s="85"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
@@ -8973,8 +9051,8 @@
       <c r="AJ50" s="50"/>
       <c r="AK50" s="50"/>
       <c r="AL50" s="50"/>
-      <c r="AM50" s="124"/>
-      <c r="AN50" s="87"/>
+      <c r="AM50" s="111"/>
+      <c r="AN50" s="96"/>
       <c r="AO50" s="50"/>
       <c r="AP50" s="50"/>
       <c r="AQ50" s="50"/>
@@ -9033,94 +9111,94 @@
       <c r="CR50" s="4"/>
     </row>
     <row r="51" spans="1:96" ht="17.25">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="104" t="s">
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="82"/>
-      <c r="AB51" s="82"/>
-      <c r="AC51" s="82"/>
-      <c r="AD51" s="82"/>
-      <c r="AE51" s="82"/>
-      <c r="AF51" s="82"/>
-      <c r="AG51" s="82"/>
-      <c r="AH51" s="82"/>
-      <c r="AI51" s="82"/>
-      <c r="AJ51" s="82"/>
-      <c r="AK51" s="82"/>
-      <c r="AL51" s="82"/>
-      <c r="AM51" s="82"/>
-      <c r="AN51" s="82"/>
-      <c r="AO51" s="82"/>
-      <c r="AP51" s="82"/>
-      <c r="AQ51" s="82"/>
-      <c r="AR51" s="82"/>
-      <c r="AS51" s="82"/>
-      <c r="AT51" s="82"/>
-      <c r="AU51" s="82"/>
-      <c r="AV51" s="83"/>
-      <c r="AW51" s="81" t="s">
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="93"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="93"/>
+      <c r="S51" s="93"/>
+      <c r="T51" s="93"/>
+      <c r="U51" s="93"/>
+      <c r="V51" s="93"/>
+      <c r="W51" s="93"/>
+      <c r="X51" s="93"/>
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="93"/>
+      <c r="AA51" s="93"/>
+      <c r="AB51" s="93"/>
+      <c r="AC51" s="93"/>
+      <c r="AD51" s="93"/>
+      <c r="AE51" s="93"/>
+      <c r="AF51" s="93"/>
+      <c r="AG51" s="93"/>
+      <c r="AH51" s="93"/>
+      <c r="AI51" s="93"/>
+      <c r="AJ51" s="93"/>
+      <c r="AK51" s="93"/>
+      <c r="AL51" s="93"/>
+      <c r="AM51" s="93"/>
+      <c r="AN51" s="93"/>
+      <c r="AO51" s="93"/>
+      <c r="AP51" s="93"/>
+      <c r="AQ51" s="93"/>
+      <c r="AR51" s="93"/>
+      <c r="AS51" s="93"/>
+      <c r="AT51" s="93"/>
+      <c r="AU51" s="93"/>
+      <c r="AV51" s="94"/>
+      <c r="AW51" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AX51" s="82"/>
-      <c r="AY51" s="82"/>
-      <c r="AZ51" s="82"/>
-      <c r="BA51" s="83"/>
-      <c r="BB51" s="78" t="s">
+      <c r="AX51" s="93"/>
+      <c r="AY51" s="93"/>
+      <c r="AZ51" s="93"/>
+      <c r="BA51" s="94"/>
+      <c r="BB51" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="BC51" s="79"/>
-      <c r="BD51" s="79"/>
-      <c r="BE51" s="79"/>
-      <c r="BF51" s="79"/>
-      <c r="BG51" s="79"/>
-      <c r="BH51" s="79"/>
-      <c r="BI51" s="79"/>
-      <c r="BJ51" s="80"/>
-      <c r="BK51" s="81" t="s">
+      <c r="BC51" s="82"/>
+      <c r="BD51" s="82"/>
+      <c r="BE51" s="82"/>
+      <c r="BF51" s="82"/>
+      <c r="BG51" s="82"/>
+      <c r="BH51" s="82"/>
+      <c r="BI51" s="82"/>
+      <c r="BJ51" s="83"/>
+      <c r="BK51" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BL51" s="82"/>
-      <c r="BM51" s="82"/>
-      <c r="BN51" s="82"/>
-      <c r="BO51" s="83"/>
-      <c r="BP51" s="95" t="s">
+      <c r="BL51" s="93"/>
+      <c r="BM51" s="93"/>
+      <c r="BN51" s="93"/>
+      <c r="BO51" s="94"/>
+      <c r="BP51" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ51" s="82"/>
-      <c r="BR51" s="82"/>
-      <c r="BS51" s="82"/>
-      <c r="BT51" s="82"/>
-      <c r="BU51" s="82"/>
-      <c r="BV51" s="82"/>
-      <c r="BW51" s="82"/>
-      <c r="BX51" s="96"/>
+      <c r="BQ51" s="93"/>
+      <c r="BR51" s="93"/>
+      <c r="BS51" s="93"/>
+      <c r="BT51" s="93"/>
+      <c r="BU51" s="93"/>
+      <c r="BV51" s="93"/>
+      <c r="BW51" s="93"/>
+      <c r="BX51" s="106"/>
       <c r="BY51" s="54"/>
       <c r="BZ51" s="54"/>
     </row>
@@ -9128,95 +9206,95 @@
       <c r="A52" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="108"/>
-      <c r="F52" s="105" t="s">
+      <c r="F52" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="77"/>
-      <c r="Z52" s="75" t="s">
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="90"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="90"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="90"/>
+      <c r="V52" s="90"/>
+      <c r="W52" s="90"/>
+      <c r="X52" s="90"/>
+      <c r="Y52" s="91"/>
+      <c r="Z52" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="AA52" s="76"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="76"/>
-      <c r="AD52" s="77"/>
-      <c r="AE52" s="105" t="s">
+      <c r="AA52" s="90"/>
+      <c r="AB52" s="90"/>
+      <c r="AC52" s="90"/>
+      <c r="AD52" s="91"/>
+      <c r="AE52" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="AF52" s="76"/>
-      <c r="AG52" s="76"/>
-      <c r="AH52" s="76"/>
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="76"/>
-      <c r="AK52" s="76"/>
-      <c r="AL52" s="76"/>
-      <c r="AM52" s="76"/>
-      <c r="AN52" s="76"/>
-      <c r="AO52" s="76"/>
-      <c r="AP52" s="76"/>
-      <c r="AQ52" s="76"/>
-      <c r="AR52" s="76"/>
-      <c r="AS52" s="76"/>
-      <c r="AT52" s="76"/>
-      <c r="AU52" s="76"/>
-      <c r="AV52" s="77"/>
-      <c r="AW52" s="75" t="s">
+      <c r="AF52" s="90"/>
+      <c r="AG52" s="90"/>
+      <c r="AH52" s="90"/>
+      <c r="AI52" s="90"/>
+      <c r="AJ52" s="90"/>
+      <c r="AK52" s="90"/>
+      <c r="AL52" s="90"/>
+      <c r="AM52" s="90"/>
+      <c r="AN52" s="90"/>
+      <c r="AO52" s="90"/>
+      <c r="AP52" s="90"/>
+      <c r="AQ52" s="90"/>
+      <c r="AR52" s="90"/>
+      <c r="AS52" s="90"/>
+      <c r="AT52" s="90"/>
+      <c r="AU52" s="90"/>
+      <c r="AV52" s="91"/>
+      <c r="AW52" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AX52" s="76"/>
-      <c r="AY52" s="76"/>
-      <c r="AZ52" s="76"/>
-      <c r="BA52" s="77"/>
-      <c r="BB52" s="90" t="s">
+      <c r="AX52" s="90"/>
+      <c r="AY52" s="90"/>
+      <c r="AZ52" s="90"/>
+      <c r="BA52" s="91"/>
+      <c r="BB52" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC52" s="76"/>
-      <c r="BD52" s="76"/>
-      <c r="BE52" s="76"/>
-      <c r="BF52" s="76"/>
-      <c r="BG52" s="76"/>
-      <c r="BH52" s="76"/>
-      <c r="BI52" s="76"/>
-      <c r="BJ52" s="76"/>
-      <c r="BK52" s="75" t="s">
+      <c r="BC52" s="90"/>
+      <c r="BD52" s="90"/>
+      <c r="BE52" s="90"/>
+      <c r="BF52" s="90"/>
+      <c r="BG52" s="90"/>
+      <c r="BH52" s="90"/>
+      <c r="BI52" s="90"/>
+      <c r="BJ52" s="90"/>
+      <c r="BK52" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="BL52" s="76"/>
-      <c r="BM52" s="76"/>
-      <c r="BN52" s="76"/>
-      <c r="BO52" s="77"/>
-      <c r="BP52" s="95" t="s">
+      <c r="BL52" s="90"/>
+      <c r="BM52" s="90"/>
+      <c r="BN52" s="90"/>
+      <c r="BO52" s="91"/>
+      <c r="BP52" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ52" s="82"/>
-      <c r="BR52" s="82"/>
-      <c r="BS52" s="82"/>
-      <c r="BT52" s="82"/>
-      <c r="BU52" s="82"/>
-      <c r="BV52" s="82"/>
-      <c r="BW52" s="82"/>
-      <c r="BX52" s="96"/>
+      <c r="BQ52" s="93"/>
+      <c r="BR52" s="93"/>
+      <c r="BS52" s="93"/>
+      <c r="BT52" s="93"/>
+      <c r="BU52" s="93"/>
+      <c r="BV52" s="93"/>
+      <c r="BW52" s="93"/>
+      <c r="BX52" s="106"/>
       <c r="BY52" s="54"/>
       <c r="BZ52" s="54"/>
     </row>
@@ -9421,51 +9499,51 @@
       <c r="AJ55" s="33"/>
       <c r="AK55" s="33"/>
       <c r="AL55" s="55"/>
-      <c r="AM55" s="84" t="s">
+      <c r="AM55" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AN55" s="93"/>
-      <c r="AO55" s="84" t="s">
+      <c r="AN55" s="101"/>
+      <c r="AO55" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="AP55" s="85"/>
-      <c r="AQ55" s="85"/>
-      <c r="AR55" s="85"/>
-      <c r="AS55" s="85"/>
-      <c r="AT55" s="85"/>
-      <c r="AU55" s="86"/>
-      <c r="AV55" s="84" t="s">
+      <c r="AP55" s="87"/>
+      <c r="AQ55" s="87"/>
+      <c r="AR55" s="87"/>
+      <c r="AS55" s="87"/>
+      <c r="AT55" s="87"/>
+      <c r="AU55" s="85"/>
+      <c r="AV55" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AW55" s="85"/>
-      <c r="AX55" s="85"/>
-      <c r="AY55" s="85"/>
-      <c r="AZ55" s="86"/>
-      <c r="BA55" s="84" t="s">
+      <c r="AW55" s="87"/>
+      <c r="AX55" s="87"/>
+      <c r="AY55" s="87"/>
+      <c r="AZ55" s="85"/>
+      <c r="BA55" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="BB55" s="85"/>
-      <c r="BC55" s="85"/>
-      <c r="BD55" s="85"/>
-      <c r="BE55" s="85"/>
-      <c r="BF55" s="85"/>
-      <c r="BG55" s="85"/>
-      <c r="BH55" s="85"/>
-      <c r="BI55" s="85"/>
-      <c r="BJ55" s="85"/>
-      <c r="BK55" s="85"/>
-      <c r="BL55" s="85"/>
-      <c r="BM55" s="85"/>
-      <c r="BN55" s="85"/>
-      <c r="BO55" s="85"/>
-      <c r="BP55" s="85"/>
-      <c r="BQ55" s="85"/>
-      <c r="BR55" s="85"/>
-      <c r="BS55" s="85"/>
-      <c r="BT55" s="85"/>
-      <c r="BU55" s="85"/>
-      <c r="BV55" s="85"/>
-      <c r="BW55" s="93"/>
+      <c r="BB55" s="87"/>
+      <c r="BC55" s="87"/>
+      <c r="BD55" s="87"/>
+      <c r="BE55" s="87"/>
+      <c r="BF55" s="87"/>
+      <c r="BG55" s="87"/>
+      <c r="BH55" s="87"/>
+      <c r="BI55" s="87"/>
+      <c r="BJ55" s="87"/>
+      <c r="BK55" s="87"/>
+      <c r="BL55" s="87"/>
+      <c r="BM55" s="87"/>
+      <c r="BN55" s="87"/>
+      <c r="BO55" s="87"/>
+      <c r="BP55" s="87"/>
+      <c r="BQ55" s="87"/>
+      <c r="BR55" s="87"/>
+      <c r="BS55" s="87"/>
+      <c r="BT55" s="87"/>
+      <c r="BU55" s="87"/>
+      <c r="BV55" s="87"/>
+      <c r="BW55" s="101"/>
       <c r="BX55" s="55"/>
       <c r="BY55" s="33"/>
       <c r="BZ55" s="33"/>
@@ -9473,14 +9551,14 @@
     <row r="56" spans="1:96" ht="13.5">
       <c r="A56" s="45"/>
       <c r="B56" s="57"/>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
       <c r="I56" s="58"/>
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
@@ -9511,43 +9589,43 @@
       <c r="AJ56" s="33"/>
       <c r="AK56" s="33"/>
       <c r="AL56" s="55"/>
-      <c r="AM56" s="87"/>
-      <c r="AN56" s="94"/>
-      <c r="AO56" s="87"/>
-      <c r="AP56" s="87"/>
-      <c r="AQ56" s="87"/>
-      <c r="AR56" s="87"/>
-      <c r="AS56" s="87"/>
-      <c r="AT56" s="87"/>
-      <c r="AU56" s="88"/>
-      <c r="AV56" s="87"/>
-      <c r="AW56" s="87"/>
-      <c r="AX56" s="87"/>
-      <c r="AY56" s="87"/>
-      <c r="AZ56" s="88"/>
-      <c r="BA56" s="87"/>
-      <c r="BB56" s="87"/>
-      <c r="BC56" s="87"/>
-      <c r="BD56" s="87"/>
-      <c r="BE56" s="87"/>
-      <c r="BF56" s="87"/>
-      <c r="BG56" s="87"/>
-      <c r="BH56" s="87"/>
-      <c r="BI56" s="87"/>
-      <c r="BJ56" s="87"/>
-      <c r="BK56" s="87"/>
-      <c r="BL56" s="87"/>
-      <c r="BM56" s="87"/>
-      <c r="BN56" s="87"/>
-      <c r="BO56" s="87"/>
-      <c r="BP56" s="87"/>
-      <c r="BQ56" s="87"/>
-      <c r="BR56" s="87"/>
-      <c r="BS56" s="87"/>
-      <c r="BT56" s="87"/>
-      <c r="BU56" s="87"/>
-      <c r="BV56" s="87"/>
-      <c r="BW56" s="94"/>
+      <c r="AM56" s="96"/>
+      <c r="AN56" s="102"/>
+      <c r="AO56" s="96"/>
+      <c r="AP56" s="96"/>
+      <c r="AQ56" s="96"/>
+      <c r="AR56" s="96"/>
+      <c r="AS56" s="96"/>
+      <c r="AT56" s="96"/>
+      <c r="AU56" s="97"/>
+      <c r="AV56" s="96"/>
+      <c r="AW56" s="96"/>
+      <c r="AX56" s="96"/>
+      <c r="AY56" s="96"/>
+      <c r="AZ56" s="97"/>
+      <c r="BA56" s="96"/>
+      <c r="BB56" s="96"/>
+      <c r="BC56" s="96"/>
+      <c r="BD56" s="96"/>
+      <c r="BE56" s="96"/>
+      <c r="BF56" s="96"/>
+      <c r="BG56" s="96"/>
+      <c r="BH56" s="96"/>
+      <c r="BI56" s="96"/>
+      <c r="BJ56" s="96"/>
+      <c r="BK56" s="96"/>
+      <c r="BL56" s="96"/>
+      <c r="BM56" s="96"/>
+      <c r="BN56" s="96"/>
+      <c r="BO56" s="96"/>
+      <c r="BP56" s="96"/>
+      <c r="BQ56" s="96"/>
+      <c r="BR56" s="96"/>
+      <c r="BS56" s="96"/>
+      <c r="BT56" s="96"/>
+      <c r="BU56" s="96"/>
+      <c r="BV56" s="96"/>
+      <c r="BW56" s="102"/>
       <c r="BX56" s="55"/>
       <c r="BY56" s="33"/>
       <c r="BZ56" s="33"/>
@@ -9555,12 +9633,12 @@
     <row r="57" spans="1:96">
       <c r="A57" s="45"/>
       <c r="B57" s="60"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
       <c r="K57" s="33"/>
@@ -9591,10 +9669,10 @@
       <c r="AJ57" s="33"/>
       <c r="AK57" s="33"/>
       <c r="AL57" s="55"/>
-      <c r="AM57" s="89" t="s">
+      <c r="AM57" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AN57" s="86"/>
+      <c r="AN57" s="85"/>
       <c r="AO57" s="61" t="s">
         <v>77</v>
       </c>
@@ -9761,10 +9839,10 @@
       <c r="AJ59" s="33"/>
       <c r="AK59" s="33"/>
       <c r="AL59" s="55"/>
-      <c r="AM59" s="91">
+      <c r="AM59" s="88">
         <v>2</v>
       </c>
-      <c r="AN59" s="85"/>
+      <c r="AN59" s="87"/>
       <c r="AO59" s="66" t="s">
         <v>80</v>
       </c>
@@ -9995,10 +10073,10 @@
       <c r="AJ62" s="33"/>
       <c r="AK62" s="33"/>
       <c r="AL62" s="55"/>
-      <c r="AM62" s="92" t="s">
+      <c r="AM62" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AN62" s="85"/>
+      <c r="AN62" s="87"/>
       <c r="AO62" s="68" t="s">
         <v>84</v>
       </c>
@@ -10051,16 +10129,16 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="99" t="s">
+      <c r="G63" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="100"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="113"/>
+      <c r="L63" s="113"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="115"/>
       <c r="O63" s="33"/>
       <c r="P63" s="33"/>
       <c r="Q63" s="33"/>
@@ -10133,14 +10211,14 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="101"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="77"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="91"/>
       <c r="O64" s="33"/>
       <c r="P64" s="33"/>
       <c r="Q64" s="33"/>
@@ -10179,7 +10257,7 @@
       <c r="AX64" s="33"/>
       <c r="AY64" s="33"/>
       <c r="AZ64" s="46"/>
-      <c r="BA64" s="131"/>
+      <c r="BA64" s="75"/>
       <c r="BB64" s="33"/>
       <c r="BC64" s="33"/>
       <c r="BD64" s="33"/>
@@ -10260,7 +10338,7 @@
       <c r="AY65" s="33"/>
       <c r="AZ65" s="46"/>
       <c r="BA65" s="33"/>
-      <c r="BB65" s="131"/>
+      <c r="BB65" s="75"/>
       <c r="BC65" s="33"/>
       <c r="BD65" s="33"/>
       <c r="BE65" s="33"/>
@@ -13327,94 +13405,94 @@
       <c r="BZ103" s="33"/>
     </row>
     <row r="104" spans="1:78" ht="17.25">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="82"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="96"/>
-      <c r="F104" s="104" t="s">
+      <c r="B104" s="93"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="106"/>
+      <c r="F104" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G104" s="82"/>
-      <c r="H104" s="82"/>
-      <c r="I104" s="82"/>
-      <c r="J104" s="82"/>
-      <c r="K104" s="82"/>
-      <c r="L104" s="82"/>
-      <c r="M104" s="82"/>
-      <c r="N104" s="82"/>
-      <c r="O104" s="82"/>
-      <c r="P104" s="82"/>
-      <c r="Q104" s="82"/>
-      <c r="R104" s="82"/>
-      <c r="S104" s="82"/>
-      <c r="T104" s="82"/>
-      <c r="U104" s="82"/>
-      <c r="V104" s="82"/>
-      <c r="W104" s="82"/>
-      <c r="X104" s="82"/>
-      <c r="Y104" s="82"/>
-      <c r="Z104" s="82"/>
-      <c r="AA104" s="82"/>
-      <c r="AB104" s="82"/>
-      <c r="AC104" s="82"/>
-      <c r="AD104" s="82"/>
-      <c r="AE104" s="82"/>
-      <c r="AF104" s="82"/>
-      <c r="AG104" s="82"/>
-      <c r="AH104" s="82"/>
-      <c r="AI104" s="82"/>
-      <c r="AJ104" s="82"/>
-      <c r="AK104" s="82"/>
-      <c r="AL104" s="82"/>
-      <c r="AM104" s="82"/>
-      <c r="AN104" s="82"/>
-      <c r="AO104" s="82"/>
-      <c r="AP104" s="82"/>
-      <c r="AQ104" s="82"/>
-      <c r="AR104" s="82"/>
-      <c r="AS104" s="82"/>
-      <c r="AT104" s="82"/>
-      <c r="AU104" s="82"/>
-      <c r="AV104" s="83"/>
-      <c r="AW104" s="81" t="s">
+      <c r="G104" s="93"/>
+      <c r="H104" s="93"/>
+      <c r="I104" s="93"/>
+      <c r="J104" s="93"/>
+      <c r="K104" s="93"/>
+      <c r="L104" s="93"/>
+      <c r="M104" s="93"/>
+      <c r="N104" s="93"/>
+      <c r="O104" s="93"/>
+      <c r="P104" s="93"/>
+      <c r="Q104" s="93"/>
+      <c r="R104" s="93"/>
+      <c r="S104" s="93"/>
+      <c r="T104" s="93"/>
+      <c r="U104" s="93"/>
+      <c r="V104" s="93"/>
+      <c r="W104" s="93"/>
+      <c r="X104" s="93"/>
+      <c r="Y104" s="93"/>
+      <c r="Z104" s="93"/>
+      <c r="AA104" s="93"/>
+      <c r="AB104" s="93"/>
+      <c r="AC104" s="93"/>
+      <c r="AD104" s="93"/>
+      <c r="AE104" s="93"/>
+      <c r="AF104" s="93"/>
+      <c r="AG104" s="93"/>
+      <c r="AH104" s="93"/>
+      <c r="AI104" s="93"/>
+      <c r="AJ104" s="93"/>
+      <c r="AK104" s="93"/>
+      <c r="AL104" s="93"/>
+      <c r="AM104" s="93"/>
+      <c r="AN104" s="93"/>
+      <c r="AO104" s="93"/>
+      <c r="AP104" s="93"/>
+      <c r="AQ104" s="93"/>
+      <c r="AR104" s="93"/>
+      <c r="AS104" s="93"/>
+      <c r="AT104" s="93"/>
+      <c r="AU104" s="93"/>
+      <c r="AV104" s="94"/>
+      <c r="AW104" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AX104" s="82"/>
-      <c r="AY104" s="82"/>
-      <c r="AZ104" s="82"/>
-      <c r="BA104" s="83"/>
-      <c r="BB104" s="78" t="s">
+      <c r="AX104" s="93"/>
+      <c r="AY104" s="93"/>
+      <c r="AZ104" s="93"/>
+      <c r="BA104" s="94"/>
+      <c r="BB104" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="BC104" s="79"/>
-      <c r="BD104" s="79"/>
-      <c r="BE104" s="79"/>
-      <c r="BF104" s="79"/>
-      <c r="BG104" s="79"/>
-      <c r="BH104" s="79"/>
-      <c r="BI104" s="79"/>
-      <c r="BJ104" s="80"/>
-      <c r="BK104" s="81" t="s">
+      <c r="BC104" s="82"/>
+      <c r="BD104" s="82"/>
+      <c r="BE104" s="82"/>
+      <c r="BF104" s="82"/>
+      <c r="BG104" s="82"/>
+      <c r="BH104" s="82"/>
+      <c r="BI104" s="82"/>
+      <c r="BJ104" s="83"/>
+      <c r="BK104" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BL104" s="82"/>
-      <c r="BM104" s="82"/>
-      <c r="BN104" s="82"/>
-      <c r="BO104" s="83"/>
-      <c r="BP104" s="95" t="s">
+      <c r="BL104" s="93"/>
+      <c r="BM104" s="93"/>
+      <c r="BN104" s="93"/>
+      <c r="BO104" s="94"/>
+      <c r="BP104" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ104" s="82"/>
-      <c r="BR104" s="82"/>
-      <c r="BS104" s="82"/>
-      <c r="BT104" s="82"/>
-      <c r="BU104" s="82"/>
-      <c r="BV104" s="82"/>
-      <c r="BW104" s="82"/>
-      <c r="BX104" s="96"/>
+      <c r="BQ104" s="93"/>
+      <c r="BR104" s="93"/>
+      <c r="BS104" s="93"/>
+      <c r="BT104" s="93"/>
+      <c r="BU104" s="93"/>
+      <c r="BV104" s="93"/>
+      <c r="BW104" s="93"/>
+      <c r="BX104" s="106"/>
       <c r="BY104" s="54"/>
       <c r="BZ104" s="54"/>
     </row>
@@ -13422,95 +13500,95 @@
       <c r="A105" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="90"/>
       <c r="E105" s="108"/>
-      <c r="F105" s="105" t="s">
+      <c r="F105" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="76"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="76"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
-      <c r="Q105" s="76"/>
-      <c r="R105" s="76"/>
-      <c r="S105" s="76"/>
-      <c r="T105" s="76"/>
-      <c r="U105" s="76"/>
-      <c r="V105" s="76"/>
-      <c r="W105" s="76"/>
-      <c r="X105" s="76"/>
-      <c r="Y105" s="77"/>
-      <c r="Z105" s="75" t="s">
+      <c r="G105" s="90"/>
+      <c r="H105" s="90"/>
+      <c r="I105" s="90"/>
+      <c r="J105" s="90"/>
+      <c r="K105" s="90"/>
+      <c r="L105" s="90"/>
+      <c r="M105" s="90"/>
+      <c r="N105" s="90"/>
+      <c r="O105" s="90"/>
+      <c r="P105" s="90"/>
+      <c r="Q105" s="90"/>
+      <c r="R105" s="90"/>
+      <c r="S105" s="90"/>
+      <c r="T105" s="90"/>
+      <c r="U105" s="90"/>
+      <c r="V105" s="90"/>
+      <c r="W105" s="90"/>
+      <c r="X105" s="90"/>
+      <c r="Y105" s="91"/>
+      <c r="Z105" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="AA105" s="76"/>
-      <c r="AB105" s="76"/>
-      <c r="AC105" s="76"/>
-      <c r="AD105" s="77"/>
-      <c r="AE105" s="105" t="s">
+      <c r="AA105" s="90"/>
+      <c r="AB105" s="90"/>
+      <c r="AC105" s="90"/>
+      <c r="AD105" s="91"/>
+      <c r="AE105" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="AF105" s="76"/>
-      <c r="AG105" s="76"/>
-      <c r="AH105" s="76"/>
-      <c r="AI105" s="76"/>
-      <c r="AJ105" s="76"/>
-      <c r="AK105" s="76"/>
-      <c r="AL105" s="76"/>
-      <c r="AM105" s="76"/>
-      <c r="AN105" s="76"/>
-      <c r="AO105" s="76"/>
-      <c r="AP105" s="76"/>
-      <c r="AQ105" s="76"/>
-      <c r="AR105" s="76"/>
-      <c r="AS105" s="76"/>
-      <c r="AT105" s="76"/>
-      <c r="AU105" s="76"/>
-      <c r="AV105" s="77"/>
-      <c r="AW105" s="75" t="s">
+      <c r="AF105" s="90"/>
+      <c r="AG105" s="90"/>
+      <c r="AH105" s="90"/>
+      <c r="AI105" s="90"/>
+      <c r="AJ105" s="90"/>
+      <c r="AK105" s="90"/>
+      <c r="AL105" s="90"/>
+      <c r="AM105" s="90"/>
+      <c r="AN105" s="90"/>
+      <c r="AO105" s="90"/>
+      <c r="AP105" s="90"/>
+      <c r="AQ105" s="90"/>
+      <c r="AR105" s="90"/>
+      <c r="AS105" s="90"/>
+      <c r="AT105" s="90"/>
+      <c r="AU105" s="90"/>
+      <c r="AV105" s="91"/>
+      <c r="AW105" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AX105" s="76"/>
-      <c r="AY105" s="76"/>
-      <c r="AZ105" s="76"/>
-      <c r="BA105" s="77"/>
-      <c r="BB105" s="90" t="s">
+      <c r="AX105" s="90"/>
+      <c r="AY105" s="90"/>
+      <c r="AZ105" s="90"/>
+      <c r="BA105" s="91"/>
+      <c r="BB105" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC105" s="76"/>
-      <c r="BD105" s="76"/>
-      <c r="BE105" s="76"/>
-      <c r="BF105" s="76"/>
-      <c r="BG105" s="76"/>
-      <c r="BH105" s="76"/>
-      <c r="BI105" s="76"/>
-      <c r="BJ105" s="76"/>
-      <c r="BK105" s="75" t="s">
+      <c r="BC105" s="90"/>
+      <c r="BD105" s="90"/>
+      <c r="BE105" s="90"/>
+      <c r="BF105" s="90"/>
+      <c r="BG105" s="90"/>
+      <c r="BH105" s="90"/>
+      <c r="BI105" s="90"/>
+      <c r="BJ105" s="90"/>
+      <c r="BK105" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="BL105" s="76"/>
-      <c r="BM105" s="76"/>
-      <c r="BN105" s="76"/>
-      <c r="BO105" s="77"/>
-      <c r="BP105" s="95" t="s">
+      <c r="BL105" s="90"/>
+      <c r="BM105" s="90"/>
+      <c r="BN105" s="90"/>
+      <c r="BO105" s="91"/>
+      <c r="BP105" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ105" s="82"/>
-      <c r="BR105" s="82"/>
-      <c r="BS105" s="82"/>
-      <c r="BT105" s="82"/>
-      <c r="BU105" s="82"/>
-      <c r="BV105" s="82"/>
-      <c r="BW105" s="82"/>
-      <c r="BX105" s="96"/>
+      <c r="BQ105" s="93"/>
+      <c r="BR105" s="93"/>
+      <c r="BS105" s="93"/>
+      <c r="BT105" s="93"/>
+      <c r="BU105" s="93"/>
+      <c r="BV105" s="93"/>
+      <c r="BW105" s="93"/>
+      <c r="BX105" s="106"/>
       <c r="BY105" s="54"/>
       <c r="BZ105" s="54"/>
     </row>
@@ -13715,51 +13793,51 @@
       <c r="AJ108" s="4"/>
       <c r="AK108" s="4"/>
       <c r="AL108" s="55"/>
-      <c r="AM108" s="84" t="s">
+      <c r="AM108" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AN108" s="93"/>
-      <c r="AO108" s="84" t="s">
+      <c r="AN108" s="101"/>
+      <c r="AO108" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="AP108" s="85"/>
-      <c r="AQ108" s="85"/>
-      <c r="AR108" s="85"/>
-      <c r="AS108" s="85"/>
-      <c r="AT108" s="85"/>
-      <c r="AU108" s="86"/>
-      <c r="AV108" s="84" t="s">
+      <c r="AP108" s="87"/>
+      <c r="AQ108" s="87"/>
+      <c r="AR108" s="87"/>
+      <c r="AS108" s="87"/>
+      <c r="AT108" s="87"/>
+      <c r="AU108" s="85"/>
+      <c r="AV108" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AW108" s="85"/>
-      <c r="AX108" s="85"/>
-      <c r="AY108" s="85"/>
-      <c r="AZ108" s="86"/>
-      <c r="BA108" s="84" t="s">
+      <c r="AW108" s="87"/>
+      <c r="AX108" s="87"/>
+      <c r="AY108" s="87"/>
+      <c r="AZ108" s="85"/>
+      <c r="BA108" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="BB108" s="85"/>
-      <c r="BC108" s="85"/>
-      <c r="BD108" s="85"/>
-      <c r="BE108" s="85"/>
-      <c r="BF108" s="85"/>
-      <c r="BG108" s="85"/>
-      <c r="BH108" s="85"/>
-      <c r="BI108" s="85"/>
-      <c r="BJ108" s="85"/>
-      <c r="BK108" s="85"/>
-      <c r="BL108" s="85"/>
-      <c r="BM108" s="85"/>
-      <c r="BN108" s="85"/>
-      <c r="BO108" s="85"/>
-      <c r="BP108" s="85"/>
-      <c r="BQ108" s="85"/>
-      <c r="BR108" s="85"/>
-      <c r="BS108" s="85"/>
-      <c r="BT108" s="85"/>
-      <c r="BU108" s="85"/>
-      <c r="BV108" s="85"/>
-      <c r="BW108" s="93"/>
+      <c r="BB108" s="87"/>
+      <c r="BC108" s="87"/>
+      <c r="BD108" s="87"/>
+      <c r="BE108" s="87"/>
+      <c r="BF108" s="87"/>
+      <c r="BG108" s="87"/>
+      <c r="BH108" s="87"/>
+      <c r="BI108" s="87"/>
+      <c r="BJ108" s="87"/>
+      <c r="BK108" s="87"/>
+      <c r="BL108" s="87"/>
+      <c r="BM108" s="87"/>
+      <c r="BN108" s="87"/>
+      <c r="BO108" s="87"/>
+      <c r="BP108" s="87"/>
+      <c r="BQ108" s="87"/>
+      <c r="BR108" s="87"/>
+      <c r="BS108" s="87"/>
+      <c r="BT108" s="87"/>
+      <c r="BU108" s="87"/>
+      <c r="BV108" s="87"/>
+      <c r="BW108" s="101"/>
       <c r="BX108" s="55"/>
       <c r="BY108" s="4"/>
       <c r="BZ108" s="4"/>
@@ -13803,43 +13881,43 @@
       <c r="AJ109" s="4"/>
       <c r="AK109" s="4"/>
       <c r="AL109" s="55"/>
-      <c r="AM109" s="87"/>
-      <c r="AN109" s="94"/>
-      <c r="AO109" s="87"/>
-      <c r="AP109" s="87"/>
-      <c r="AQ109" s="87"/>
-      <c r="AR109" s="87"/>
-      <c r="AS109" s="87"/>
-      <c r="AT109" s="87"/>
-      <c r="AU109" s="88"/>
-      <c r="AV109" s="87"/>
-      <c r="AW109" s="87"/>
-      <c r="AX109" s="87"/>
-      <c r="AY109" s="87"/>
-      <c r="AZ109" s="88"/>
-      <c r="BA109" s="87"/>
-      <c r="BB109" s="87"/>
-      <c r="BC109" s="87"/>
-      <c r="BD109" s="87"/>
-      <c r="BE109" s="87"/>
-      <c r="BF109" s="87"/>
-      <c r="BG109" s="87"/>
-      <c r="BH109" s="87"/>
-      <c r="BI109" s="87"/>
-      <c r="BJ109" s="87"/>
-      <c r="BK109" s="87"/>
-      <c r="BL109" s="87"/>
-      <c r="BM109" s="87"/>
-      <c r="BN109" s="87"/>
-      <c r="BO109" s="87"/>
-      <c r="BP109" s="87"/>
-      <c r="BQ109" s="87"/>
-      <c r="BR109" s="87"/>
-      <c r="BS109" s="87"/>
-      <c r="BT109" s="87"/>
-      <c r="BU109" s="87"/>
-      <c r="BV109" s="87"/>
-      <c r="BW109" s="94"/>
+      <c r="AM109" s="96"/>
+      <c r="AN109" s="102"/>
+      <c r="AO109" s="96"/>
+      <c r="AP109" s="96"/>
+      <c r="AQ109" s="96"/>
+      <c r="AR109" s="96"/>
+      <c r="AS109" s="96"/>
+      <c r="AT109" s="96"/>
+      <c r="AU109" s="97"/>
+      <c r="AV109" s="96"/>
+      <c r="AW109" s="96"/>
+      <c r="AX109" s="96"/>
+      <c r="AY109" s="96"/>
+      <c r="AZ109" s="97"/>
+      <c r="BA109" s="96"/>
+      <c r="BB109" s="96"/>
+      <c r="BC109" s="96"/>
+      <c r="BD109" s="96"/>
+      <c r="BE109" s="96"/>
+      <c r="BF109" s="96"/>
+      <c r="BG109" s="96"/>
+      <c r="BH109" s="96"/>
+      <c r="BI109" s="96"/>
+      <c r="BJ109" s="96"/>
+      <c r="BK109" s="96"/>
+      <c r="BL109" s="96"/>
+      <c r="BM109" s="96"/>
+      <c r="BN109" s="96"/>
+      <c r="BO109" s="96"/>
+      <c r="BP109" s="96"/>
+      <c r="BQ109" s="96"/>
+      <c r="BR109" s="96"/>
+      <c r="BS109" s="96"/>
+      <c r="BT109" s="96"/>
+      <c r="BU109" s="96"/>
+      <c r="BV109" s="96"/>
+      <c r="BW109" s="102"/>
       <c r="BX109" s="55"/>
       <c r="BY109" s="4"/>
       <c r="BZ109" s="4"/>
@@ -13883,10 +13961,10 @@
       <c r="AJ110" s="4"/>
       <c r="AK110" s="4"/>
       <c r="AL110" s="55"/>
-      <c r="AM110" s="89" t="s">
+      <c r="AM110" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AN110" s="86"/>
+      <c r="AN110" s="85"/>
       <c r="AO110" s="61" t="s">
         <v>89</v>
       </c>
@@ -14051,8 +14129,8 @@
       <c r="AJ112" s="4"/>
       <c r="AK112" s="4"/>
       <c r="AL112" s="55"/>
-      <c r="AM112" s="91"/>
-      <c r="AN112" s="85"/>
+      <c r="AM112" s="88"/>
+      <c r="AN112" s="87"/>
       <c r="AO112" s="66"/>
       <c r="AP112" s="33"/>
       <c r="AQ112" s="33"/>
@@ -14291,8 +14369,8 @@
       <c r="AJ115" s="4"/>
       <c r="AK115" s="4"/>
       <c r="AL115" s="55"/>
-      <c r="AM115" s="92"/>
-      <c r="AN115" s="85"/>
+      <c r="AM115" s="86"/>
+      <c r="AN115" s="87"/>
       <c r="AO115" s="68"/>
       <c r="AP115" s="33"/>
       <c r="AQ115" s="33"/>
@@ -17613,94 +17691,94 @@
       <c r="BZ156" s="4"/>
     </row>
     <row r="157" spans="1:78" ht="17.25">
-      <c r="A157" s="106" t="s">
+      <c r="A157" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="82"/>
-      <c r="C157" s="82"/>
-      <c r="D157" s="82"/>
-      <c r="E157" s="96"/>
-      <c r="F157" s="104" t="s">
+      <c r="B157" s="93"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="93"/>
+      <c r="E157" s="106"/>
+      <c r="F157" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G157" s="82"/>
-      <c r="H157" s="82"/>
-      <c r="I157" s="82"/>
-      <c r="J157" s="82"/>
-      <c r="K157" s="82"/>
-      <c r="L157" s="82"/>
-      <c r="M157" s="82"/>
-      <c r="N157" s="82"/>
-      <c r="O157" s="82"/>
-      <c r="P157" s="82"/>
-      <c r="Q157" s="82"/>
-      <c r="R157" s="82"/>
-      <c r="S157" s="82"/>
-      <c r="T157" s="82"/>
-      <c r="U157" s="82"/>
-      <c r="V157" s="82"/>
-      <c r="W157" s="82"/>
-      <c r="X157" s="82"/>
-      <c r="Y157" s="82"/>
-      <c r="Z157" s="82"/>
-      <c r="AA157" s="82"/>
-      <c r="AB157" s="82"/>
-      <c r="AC157" s="82"/>
-      <c r="AD157" s="82"/>
-      <c r="AE157" s="82"/>
-      <c r="AF157" s="82"/>
-      <c r="AG157" s="82"/>
-      <c r="AH157" s="82"/>
-      <c r="AI157" s="82"/>
-      <c r="AJ157" s="82"/>
-      <c r="AK157" s="82"/>
-      <c r="AL157" s="82"/>
-      <c r="AM157" s="82"/>
-      <c r="AN157" s="82"/>
-      <c r="AO157" s="82"/>
-      <c r="AP157" s="82"/>
-      <c r="AQ157" s="82"/>
-      <c r="AR157" s="82"/>
-      <c r="AS157" s="82"/>
-      <c r="AT157" s="82"/>
-      <c r="AU157" s="82"/>
-      <c r="AV157" s="83"/>
-      <c r="AW157" s="81" t="s">
+      <c r="G157" s="93"/>
+      <c r="H157" s="93"/>
+      <c r="I157" s="93"/>
+      <c r="J157" s="93"/>
+      <c r="K157" s="93"/>
+      <c r="L157" s="93"/>
+      <c r="M157" s="93"/>
+      <c r="N157" s="93"/>
+      <c r="O157" s="93"/>
+      <c r="P157" s="93"/>
+      <c r="Q157" s="93"/>
+      <c r="R157" s="93"/>
+      <c r="S157" s="93"/>
+      <c r="T157" s="93"/>
+      <c r="U157" s="93"/>
+      <c r="V157" s="93"/>
+      <c r="W157" s="93"/>
+      <c r="X157" s="93"/>
+      <c r="Y157" s="93"/>
+      <c r="Z157" s="93"/>
+      <c r="AA157" s="93"/>
+      <c r="AB157" s="93"/>
+      <c r="AC157" s="93"/>
+      <c r="AD157" s="93"/>
+      <c r="AE157" s="93"/>
+      <c r="AF157" s="93"/>
+      <c r="AG157" s="93"/>
+      <c r="AH157" s="93"/>
+      <c r="AI157" s="93"/>
+      <c r="AJ157" s="93"/>
+      <c r="AK157" s="93"/>
+      <c r="AL157" s="93"/>
+      <c r="AM157" s="93"/>
+      <c r="AN157" s="93"/>
+      <c r="AO157" s="93"/>
+      <c r="AP157" s="93"/>
+      <c r="AQ157" s="93"/>
+      <c r="AR157" s="93"/>
+      <c r="AS157" s="93"/>
+      <c r="AT157" s="93"/>
+      <c r="AU157" s="93"/>
+      <c r="AV157" s="94"/>
+      <c r="AW157" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AX157" s="82"/>
-      <c r="AY157" s="82"/>
-      <c r="AZ157" s="82"/>
-      <c r="BA157" s="83"/>
-      <c r="BB157" s="78" t="s">
+      <c r="AX157" s="93"/>
+      <c r="AY157" s="93"/>
+      <c r="AZ157" s="93"/>
+      <c r="BA157" s="94"/>
+      <c r="BB157" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="BC157" s="79"/>
-      <c r="BD157" s="79"/>
-      <c r="BE157" s="79"/>
-      <c r="BF157" s="79"/>
-      <c r="BG157" s="79"/>
-      <c r="BH157" s="79"/>
-      <c r="BI157" s="79"/>
-      <c r="BJ157" s="80"/>
-      <c r="BK157" s="81" t="s">
+      <c r="BC157" s="82"/>
+      <c r="BD157" s="82"/>
+      <c r="BE157" s="82"/>
+      <c r="BF157" s="82"/>
+      <c r="BG157" s="82"/>
+      <c r="BH157" s="82"/>
+      <c r="BI157" s="82"/>
+      <c r="BJ157" s="83"/>
+      <c r="BK157" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BL157" s="82"/>
-      <c r="BM157" s="82"/>
-      <c r="BN157" s="82"/>
-      <c r="BO157" s="83"/>
-      <c r="BP157" s="95" t="s">
+      <c r="BL157" s="93"/>
+      <c r="BM157" s="93"/>
+      <c r="BN157" s="93"/>
+      <c r="BO157" s="94"/>
+      <c r="BP157" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ157" s="82"/>
-      <c r="BR157" s="82"/>
-      <c r="BS157" s="82"/>
-      <c r="BT157" s="82"/>
-      <c r="BU157" s="82"/>
-      <c r="BV157" s="82"/>
-      <c r="BW157" s="82"/>
-      <c r="BX157" s="96"/>
+      <c r="BQ157" s="93"/>
+      <c r="BR157" s="93"/>
+      <c r="BS157" s="93"/>
+      <c r="BT157" s="93"/>
+      <c r="BU157" s="93"/>
+      <c r="BV157" s="93"/>
+      <c r="BW157" s="93"/>
+      <c r="BX157" s="106"/>
       <c r="BY157" s="54"/>
       <c r="BZ157" s="54"/>
     </row>
@@ -17708,95 +17786,95 @@
       <c r="A158" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B158" s="76"/>
-      <c r="C158" s="76"/>
-      <c r="D158" s="76"/>
+      <c r="B158" s="90"/>
+      <c r="C158" s="90"/>
+      <c r="D158" s="90"/>
       <c r="E158" s="108"/>
-      <c r="F158" s="105" t="s">
+      <c r="F158" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G158" s="76"/>
-      <c r="H158" s="76"/>
-      <c r="I158" s="76"/>
-      <c r="J158" s="76"/>
-      <c r="K158" s="76"/>
-      <c r="L158" s="76"/>
-      <c r="M158" s="76"/>
-      <c r="N158" s="76"/>
-      <c r="O158" s="76"/>
-      <c r="P158" s="76"/>
-      <c r="Q158" s="76"/>
-      <c r="R158" s="76"/>
-      <c r="S158" s="76"/>
-      <c r="T158" s="76"/>
-      <c r="U158" s="76"/>
-      <c r="V158" s="76"/>
-      <c r="W158" s="76"/>
-      <c r="X158" s="76"/>
-      <c r="Y158" s="77"/>
-      <c r="Z158" s="75" t="s">
+      <c r="G158" s="90"/>
+      <c r="H158" s="90"/>
+      <c r="I158" s="90"/>
+      <c r="J158" s="90"/>
+      <c r="K158" s="90"/>
+      <c r="L158" s="90"/>
+      <c r="M158" s="90"/>
+      <c r="N158" s="90"/>
+      <c r="O158" s="90"/>
+      <c r="P158" s="90"/>
+      <c r="Q158" s="90"/>
+      <c r="R158" s="90"/>
+      <c r="S158" s="90"/>
+      <c r="T158" s="90"/>
+      <c r="U158" s="90"/>
+      <c r="V158" s="90"/>
+      <c r="W158" s="90"/>
+      <c r="X158" s="90"/>
+      <c r="Y158" s="91"/>
+      <c r="Z158" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="AA158" s="76"/>
-      <c r="AB158" s="76"/>
-      <c r="AC158" s="76"/>
-      <c r="AD158" s="77"/>
-      <c r="AE158" s="105" t="s">
+      <c r="AA158" s="90"/>
+      <c r="AB158" s="90"/>
+      <c r="AC158" s="90"/>
+      <c r="AD158" s="91"/>
+      <c r="AE158" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="AF158" s="76"/>
-      <c r="AG158" s="76"/>
-      <c r="AH158" s="76"/>
-      <c r="AI158" s="76"/>
-      <c r="AJ158" s="76"/>
-      <c r="AK158" s="76"/>
-      <c r="AL158" s="76"/>
-      <c r="AM158" s="76"/>
-      <c r="AN158" s="76"/>
-      <c r="AO158" s="76"/>
-      <c r="AP158" s="76"/>
-      <c r="AQ158" s="76"/>
-      <c r="AR158" s="76"/>
-      <c r="AS158" s="76"/>
-      <c r="AT158" s="76"/>
-      <c r="AU158" s="76"/>
-      <c r="AV158" s="77"/>
-      <c r="AW158" s="75" t="s">
+      <c r="AF158" s="90"/>
+      <c r="AG158" s="90"/>
+      <c r="AH158" s="90"/>
+      <c r="AI158" s="90"/>
+      <c r="AJ158" s="90"/>
+      <c r="AK158" s="90"/>
+      <c r="AL158" s="90"/>
+      <c r="AM158" s="90"/>
+      <c r="AN158" s="90"/>
+      <c r="AO158" s="90"/>
+      <c r="AP158" s="90"/>
+      <c r="AQ158" s="90"/>
+      <c r="AR158" s="90"/>
+      <c r="AS158" s="90"/>
+      <c r="AT158" s="90"/>
+      <c r="AU158" s="90"/>
+      <c r="AV158" s="91"/>
+      <c r="AW158" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AX158" s="76"/>
-      <c r="AY158" s="76"/>
-      <c r="AZ158" s="76"/>
-      <c r="BA158" s="77"/>
-      <c r="BB158" s="90" t="s">
+      <c r="AX158" s="90"/>
+      <c r="AY158" s="90"/>
+      <c r="AZ158" s="90"/>
+      <c r="BA158" s="91"/>
+      <c r="BB158" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC158" s="76"/>
-      <c r="BD158" s="76"/>
-      <c r="BE158" s="76"/>
-      <c r="BF158" s="76"/>
-      <c r="BG158" s="76"/>
-      <c r="BH158" s="76"/>
-      <c r="BI158" s="76"/>
-      <c r="BJ158" s="76"/>
-      <c r="BK158" s="75" t="s">
+      <c r="BC158" s="90"/>
+      <c r="BD158" s="90"/>
+      <c r="BE158" s="90"/>
+      <c r="BF158" s="90"/>
+      <c r="BG158" s="90"/>
+      <c r="BH158" s="90"/>
+      <c r="BI158" s="90"/>
+      <c r="BJ158" s="90"/>
+      <c r="BK158" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="BL158" s="76"/>
-      <c r="BM158" s="76"/>
-      <c r="BN158" s="76"/>
-      <c r="BO158" s="77"/>
-      <c r="BP158" s="95" t="s">
+      <c r="BL158" s="90"/>
+      <c r="BM158" s="90"/>
+      <c r="BN158" s="90"/>
+      <c r="BO158" s="91"/>
+      <c r="BP158" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ158" s="82"/>
-      <c r="BR158" s="82"/>
-      <c r="BS158" s="82"/>
-      <c r="BT158" s="82"/>
-      <c r="BU158" s="82"/>
-      <c r="BV158" s="82"/>
-      <c r="BW158" s="82"/>
-      <c r="BX158" s="96"/>
+      <c r="BQ158" s="93"/>
+      <c r="BR158" s="93"/>
+      <c r="BS158" s="93"/>
+      <c r="BT158" s="93"/>
+      <c r="BU158" s="93"/>
+      <c r="BV158" s="93"/>
+      <c r="BW158" s="93"/>
+      <c r="BX158" s="106"/>
       <c r="BY158" s="54"/>
       <c r="BZ158" s="54"/>
     </row>
@@ -18000,51 +18078,51 @@
       <c r="AJ161" s="4"/>
       <c r="AK161" s="4"/>
       <c r="AL161" s="55"/>
-      <c r="AM161" s="84" t="s">
+      <c r="AM161" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AN161" s="93"/>
-      <c r="AO161" s="84" t="s">
+      <c r="AN161" s="101"/>
+      <c r="AO161" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="AP161" s="85"/>
-      <c r="AQ161" s="85"/>
-      <c r="AR161" s="85"/>
-      <c r="AS161" s="85"/>
-      <c r="AT161" s="85"/>
-      <c r="AU161" s="86"/>
-      <c r="AV161" s="84" t="s">
+      <c r="AP161" s="87"/>
+      <c r="AQ161" s="87"/>
+      <c r="AR161" s="87"/>
+      <c r="AS161" s="87"/>
+      <c r="AT161" s="87"/>
+      <c r="AU161" s="85"/>
+      <c r="AV161" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AW161" s="85"/>
-      <c r="AX161" s="85"/>
-      <c r="AY161" s="85"/>
-      <c r="AZ161" s="86"/>
-      <c r="BA161" s="84" t="s">
+      <c r="AW161" s="87"/>
+      <c r="AX161" s="87"/>
+      <c r="AY161" s="87"/>
+      <c r="AZ161" s="85"/>
+      <c r="BA161" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="BB161" s="85"/>
-      <c r="BC161" s="85"/>
-      <c r="BD161" s="85"/>
-      <c r="BE161" s="85"/>
-      <c r="BF161" s="85"/>
-      <c r="BG161" s="85"/>
-      <c r="BH161" s="85"/>
-      <c r="BI161" s="85"/>
-      <c r="BJ161" s="85"/>
-      <c r="BK161" s="85"/>
-      <c r="BL161" s="85"/>
-      <c r="BM161" s="85"/>
-      <c r="BN161" s="85"/>
-      <c r="BO161" s="85"/>
-      <c r="BP161" s="85"/>
-      <c r="BQ161" s="85"/>
-      <c r="BR161" s="85"/>
-      <c r="BS161" s="85"/>
-      <c r="BT161" s="85"/>
-      <c r="BU161" s="85"/>
-      <c r="BV161" s="85"/>
-      <c r="BW161" s="93"/>
+      <c r="BB161" s="87"/>
+      <c r="BC161" s="87"/>
+      <c r="BD161" s="87"/>
+      <c r="BE161" s="87"/>
+      <c r="BF161" s="87"/>
+      <c r="BG161" s="87"/>
+      <c r="BH161" s="87"/>
+      <c r="BI161" s="87"/>
+      <c r="BJ161" s="87"/>
+      <c r="BK161" s="87"/>
+      <c r="BL161" s="87"/>
+      <c r="BM161" s="87"/>
+      <c r="BN161" s="87"/>
+      <c r="BO161" s="87"/>
+      <c r="BP161" s="87"/>
+      <c r="BQ161" s="87"/>
+      <c r="BR161" s="87"/>
+      <c r="BS161" s="87"/>
+      <c r="BT161" s="87"/>
+      <c r="BU161" s="87"/>
+      <c r="BV161" s="87"/>
+      <c r="BW161" s="101"/>
       <c r="BX161" s="4"/>
       <c r="BY161" s="4"/>
       <c r="BZ161" s="4"/>
@@ -18088,43 +18166,43 @@
       <c r="AJ162" s="4"/>
       <c r="AK162" s="4"/>
       <c r="AL162" s="55"/>
-      <c r="AM162" s="87"/>
-      <c r="AN162" s="94"/>
-      <c r="AO162" s="87"/>
-      <c r="AP162" s="87"/>
-      <c r="AQ162" s="87"/>
-      <c r="AR162" s="87"/>
-      <c r="AS162" s="87"/>
-      <c r="AT162" s="87"/>
-      <c r="AU162" s="88"/>
-      <c r="AV162" s="87"/>
-      <c r="AW162" s="87"/>
-      <c r="AX162" s="87"/>
-      <c r="AY162" s="87"/>
-      <c r="AZ162" s="88"/>
-      <c r="BA162" s="87"/>
-      <c r="BB162" s="87"/>
-      <c r="BC162" s="87"/>
-      <c r="BD162" s="87"/>
-      <c r="BE162" s="87"/>
-      <c r="BF162" s="87"/>
-      <c r="BG162" s="87"/>
-      <c r="BH162" s="87"/>
-      <c r="BI162" s="87"/>
-      <c r="BJ162" s="87"/>
-      <c r="BK162" s="87"/>
-      <c r="BL162" s="87"/>
-      <c r="BM162" s="87"/>
-      <c r="BN162" s="87"/>
-      <c r="BO162" s="87"/>
-      <c r="BP162" s="87"/>
-      <c r="BQ162" s="87"/>
-      <c r="BR162" s="87"/>
-      <c r="BS162" s="87"/>
-      <c r="BT162" s="87"/>
-      <c r="BU162" s="87"/>
-      <c r="BV162" s="87"/>
-      <c r="BW162" s="94"/>
+      <c r="AM162" s="96"/>
+      <c r="AN162" s="102"/>
+      <c r="AO162" s="96"/>
+      <c r="AP162" s="96"/>
+      <c r="AQ162" s="96"/>
+      <c r="AR162" s="96"/>
+      <c r="AS162" s="96"/>
+      <c r="AT162" s="96"/>
+      <c r="AU162" s="97"/>
+      <c r="AV162" s="96"/>
+      <c r="AW162" s="96"/>
+      <c r="AX162" s="96"/>
+      <c r="AY162" s="96"/>
+      <c r="AZ162" s="97"/>
+      <c r="BA162" s="96"/>
+      <c r="BB162" s="96"/>
+      <c r="BC162" s="96"/>
+      <c r="BD162" s="96"/>
+      <c r="BE162" s="96"/>
+      <c r="BF162" s="96"/>
+      <c r="BG162" s="96"/>
+      <c r="BH162" s="96"/>
+      <c r="BI162" s="96"/>
+      <c r="BJ162" s="96"/>
+      <c r="BK162" s="96"/>
+      <c r="BL162" s="96"/>
+      <c r="BM162" s="96"/>
+      <c r="BN162" s="96"/>
+      <c r="BO162" s="96"/>
+      <c r="BP162" s="96"/>
+      <c r="BQ162" s="96"/>
+      <c r="BR162" s="96"/>
+      <c r="BS162" s="96"/>
+      <c r="BT162" s="96"/>
+      <c r="BU162" s="96"/>
+      <c r="BV162" s="96"/>
+      <c r="BW162" s="102"/>
       <c r="BX162" s="4"/>
       <c r="BY162" s="4"/>
       <c r="BZ162" s="4"/>
@@ -18168,10 +18246,10 @@
       <c r="AJ163" s="4"/>
       <c r="AK163" s="4"/>
       <c r="AL163" s="55"/>
-      <c r="AM163" s="89" t="s">
+      <c r="AM163" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AN163" s="86"/>
+      <c r="AN163" s="85"/>
       <c r="AO163" s="61" t="s">
         <v>89</v>
       </c>
@@ -18338,8 +18416,8 @@
       <c r="AJ165" s="4"/>
       <c r="AK165" s="4"/>
       <c r="AL165" s="55"/>
-      <c r="AM165" s="91"/>
-      <c r="AN165" s="85"/>
+      <c r="AM165" s="88"/>
+      <c r="AN165" s="87"/>
       <c r="AO165" s="66"/>
       <c r="AP165" s="33"/>
       <c r="AQ165" s="33"/>
@@ -18578,8 +18656,8 @@
       <c r="AJ168" s="4"/>
       <c r="AK168" s="4"/>
       <c r="AL168" s="55"/>
-      <c r="AM168" s="92"/>
-      <c r="AN168" s="85"/>
+      <c r="AM168" s="86"/>
+      <c r="AN168" s="87"/>
       <c r="AO168" s="68"/>
       <c r="AP168" s="33"/>
       <c r="AQ168" s="33"/>
@@ -21900,94 +21978,94 @@
       <c r="BZ209" s="4"/>
     </row>
     <row r="210" spans="1:78" ht="17.25">
-      <c r="A210" s="106" t="s">
+      <c r="A210" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B210" s="82"/>
-      <c r="C210" s="82"/>
-      <c r="D210" s="82"/>
-      <c r="E210" s="96"/>
-      <c r="F210" s="104" t="s">
+      <c r="B210" s="93"/>
+      <c r="C210" s="93"/>
+      <c r="D210" s="93"/>
+      <c r="E210" s="106"/>
+      <c r="F210" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G210" s="82"/>
-      <c r="H210" s="82"/>
-      <c r="I210" s="82"/>
-      <c r="J210" s="82"/>
-      <c r="K210" s="82"/>
-      <c r="L210" s="82"/>
-      <c r="M210" s="82"/>
-      <c r="N210" s="82"/>
-      <c r="O210" s="82"/>
-      <c r="P210" s="82"/>
-      <c r="Q210" s="82"/>
-      <c r="R210" s="82"/>
-      <c r="S210" s="82"/>
-      <c r="T210" s="82"/>
-      <c r="U210" s="82"/>
-      <c r="V210" s="82"/>
-      <c r="W210" s="82"/>
-      <c r="X210" s="82"/>
-      <c r="Y210" s="82"/>
-      <c r="Z210" s="82"/>
-      <c r="AA210" s="82"/>
-      <c r="AB210" s="82"/>
-      <c r="AC210" s="82"/>
-      <c r="AD210" s="82"/>
-      <c r="AE210" s="82"/>
-      <c r="AF210" s="82"/>
-      <c r="AG210" s="82"/>
-      <c r="AH210" s="82"/>
-      <c r="AI210" s="82"/>
-      <c r="AJ210" s="82"/>
-      <c r="AK210" s="82"/>
-      <c r="AL210" s="82"/>
-      <c r="AM210" s="82"/>
-      <c r="AN210" s="82"/>
-      <c r="AO210" s="82"/>
-      <c r="AP210" s="82"/>
-      <c r="AQ210" s="82"/>
-      <c r="AR210" s="82"/>
-      <c r="AS210" s="82"/>
-      <c r="AT210" s="82"/>
-      <c r="AU210" s="82"/>
-      <c r="AV210" s="83"/>
-      <c r="AW210" s="81" t="s">
+      <c r="G210" s="93"/>
+      <c r="H210" s="93"/>
+      <c r="I210" s="93"/>
+      <c r="J210" s="93"/>
+      <c r="K210" s="93"/>
+      <c r="L210" s="93"/>
+      <c r="M210" s="93"/>
+      <c r="N210" s="93"/>
+      <c r="O210" s="93"/>
+      <c r="P210" s="93"/>
+      <c r="Q210" s="93"/>
+      <c r="R210" s="93"/>
+      <c r="S210" s="93"/>
+      <c r="T210" s="93"/>
+      <c r="U210" s="93"/>
+      <c r="V210" s="93"/>
+      <c r="W210" s="93"/>
+      <c r="X210" s="93"/>
+      <c r="Y210" s="93"/>
+      <c r="Z210" s="93"/>
+      <c r="AA210" s="93"/>
+      <c r="AB210" s="93"/>
+      <c r="AC210" s="93"/>
+      <c r="AD210" s="93"/>
+      <c r="AE210" s="93"/>
+      <c r="AF210" s="93"/>
+      <c r="AG210" s="93"/>
+      <c r="AH210" s="93"/>
+      <c r="AI210" s="93"/>
+      <c r="AJ210" s="93"/>
+      <c r="AK210" s="93"/>
+      <c r="AL210" s="93"/>
+      <c r="AM210" s="93"/>
+      <c r="AN210" s="93"/>
+      <c r="AO210" s="93"/>
+      <c r="AP210" s="93"/>
+      <c r="AQ210" s="93"/>
+      <c r="AR210" s="93"/>
+      <c r="AS210" s="93"/>
+      <c r="AT210" s="93"/>
+      <c r="AU210" s="93"/>
+      <c r="AV210" s="94"/>
+      <c r="AW210" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AX210" s="82"/>
-      <c r="AY210" s="82"/>
-      <c r="AZ210" s="82"/>
-      <c r="BA210" s="83"/>
-      <c r="BB210" s="78" t="s">
+      <c r="AX210" s="93"/>
+      <c r="AY210" s="93"/>
+      <c r="AZ210" s="93"/>
+      <c r="BA210" s="94"/>
+      <c r="BB210" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="BC210" s="79"/>
-      <c r="BD210" s="79"/>
-      <c r="BE210" s="79"/>
-      <c r="BF210" s="79"/>
-      <c r="BG210" s="79"/>
-      <c r="BH210" s="79"/>
-      <c r="BI210" s="79"/>
-      <c r="BJ210" s="80"/>
-      <c r="BK210" s="81" t="s">
+      <c r="BC210" s="82"/>
+      <c r="BD210" s="82"/>
+      <c r="BE210" s="82"/>
+      <c r="BF210" s="82"/>
+      <c r="BG210" s="82"/>
+      <c r="BH210" s="82"/>
+      <c r="BI210" s="82"/>
+      <c r="BJ210" s="83"/>
+      <c r="BK210" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BL210" s="82"/>
-      <c r="BM210" s="82"/>
-      <c r="BN210" s="82"/>
-      <c r="BO210" s="83"/>
-      <c r="BP210" s="95" t="s">
+      <c r="BL210" s="93"/>
+      <c r="BM210" s="93"/>
+      <c r="BN210" s="93"/>
+      <c r="BO210" s="94"/>
+      <c r="BP210" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ210" s="82"/>
-      <c r="BR210" s="82"/>
-      <c r="BS210" s="82"/>
-      <c r="BT210" s="82"/>
-      <c r="BU210" s="82"/>
-      <c r="BV210" s="82"/>
-      <c r="BW210" s="82"/>
-      <c r="BX210" s="96"/>
+      <c r="BQ210" s="93"/>
+      <c r="BR210" s="93"/>
+      <c r="BS210" s="93"/>
+      <c r="BT210" s="93"/>
+      <c r="BU210" s="93"/>
+      <c r="BV210" s="93"/>
+      <c r="BW210" s="93"/>
+      <c r="BX210" s="106"/>
       <c r="BY210" s="54"/>
       <c r="BZ210" s="54"/>
     </row>
@@ -21995,95 +22073,95 @@
       <c r="A211" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B211" s="76"/>
-      <c r="C211" s="76"/>
-      <c r="D211" s="76"/>
+      <c r="B211" s="90"/>
+      <c r="C211" s="90"/>
+      <c r="D211" s="90"/>
       <c r="E211" s="108"/>
-      <c r="F211" s="105" t="s">
+      <c r="F211" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G211" s="76"/>
-      <c r="H211" s="76"/>
-      <c r="I211" s="76"/>
-      <c r="J211" s="76"/>
-      <c r="K211" s="76"/>
-      <c r="L211" s="76"/>
-      <c r="M211" s="76"/>
-      <c r="N211" s="76"/>
-      <c r="O211" s="76"/>
-      <c r="P211" s="76"/>
-      <c r="Q211" s="76"/>
-      <c r="R211" s="76"/>
-      <c r="S211" s="76"/>
-      <c r="T211" s="76"/>
-      <c r="U211" s="76"/>
-      <c r="V211" s="76"/>
-      <c r="W211" s="76"/>
-      <c r="X211" s="76"/>
-      <c r="Y211" s="77"/>
-      <c r="Z211" s="75" t="s">
+      <c r="G211" s="90"/>
+      <c r="H211" s="90"/>
+      <c r="I211" s="90"/>
+      <c r="J211" s="90"/>
+      <c r="K211" s="90"/>
+      <c r="L211" s="90"/>
+      <c r="M211" s="90"/>
+      <c r="N211" s="90"/>
+      <c r="O211" s="90"/>
+      <c r="P211" s="90"/>
+      <c r="Q211" s="90"/>
+      <c r="R211" s="90"/>
+      <c r="S211" s="90"/>
+      <c r="T211" s="90"/>
+      <c r="U211" s="90"/>
+      <c r="V211" s="90"/>
+      <c r="W211" s="90"/>
+      <c r="X211" s="90"/>
+      <c r="Y211" s="91"/>
+      <c r="Z211" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="AA211" s="76"/>
-      <c r="AB211" s="76"/>
-      <c r="AC211" s="76"/>
-      <c r="AD211" s="77"/>
-      <c r="AE211" s="105" t="s">
+      <c r="AA211" s="90"/>
+      <c r="AB211" s="90"/>
+      <c r="AC211" s="90"/>
+      <c r="AD211" s="91"/>
+      <c r="AE211" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="AF211" s="76"/>
-      <c r="AG211" s="76"/>
-      <c r="AH211" s="76"/>
-      <c r="AI211" s="76"/>
-      <c r="AJ211" s="76"/>
-      <c r="AK211" s="76"/>
-      <c r="AL211" s="76"/>
-      <c r="AM211" s="76"/>
-      <c r="AN211" s="76"/>
-      <c r="AO211" s="76"/>
-      <c r="AP211" s="76"/>
-      <c r="AQ211" s="76"/>
-      <c r="AR211" s="76"/>
-      <c r="AS211" s="76"/>
-      <c r="AT211" s="76"/>
-      <c r="AU211" s="76"/>
-      <c r="AV211" s="77"/>
-      <c r="AW211" s="75" t="s">
+      <c r="AF211" s="90"/>
+      <c r="AG211" s="90"/>
+      <c r="AH211" s="90"/>
+      <c r="AI211" s="90"/>
+      <c r="AJ211" s="90"/>
+      <c r="AK211" s="90"/>
+      <c r="AL211" s="90"/>
+      <c r="AM211" s="90"/>
+      <c r="AN211" s="90"/>
+      <c r="AO211" s="90"/>
+      <c r="AP211" s="90"/>
+      <c r="AQ211" s="90"/>
+      <c r="AR211" s="90"/>
+      <c r="AS211" s="90"/>
+      <c r="AT211" s="90"/>
+      <c r="AU211" s="90"/>
+      <c r="AV211" s="91"/>
+      <c r="AW211" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AX211" s="76"/>
-      <c r="AY211" s="76"/>
-      <c r="AZ211" s="76"/>
-      <c r="BA211" s="77"/>
-      <c r="BB211" s="90" t="s">
+      <c r="AX211" s="90"/>
+      <c r="AY211" s="90"/>
+      <c r="AZ211" s="90"/>
+      <c r="BA211" s="91"/>
+      <c r="BB211" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC211" s="76"/>
-      <c r="BD211" s="76"/>
-      <c r="BE211" s="76"/>
-      <c r="BF211" s="76"/>
-      <c r="BG211" s="76"/>
-      <c r="BH211" s="76"/>
-      <c r="BI211" s="76"/>
-      <c r="BJ211" s="76"/>
-      <c r="BK211" s="75" t="s">
+      <c r="BC211" s="90"/>
+      <c r="BD211" s="90"/>
+      <c r="BE211" s="90"/>
+      <c r="BF211" s="90"/>
+      <c r="BG211" s="90"/>
+      <c r="BH211" s="90"/>
+      <c r="BI211" s="90"/>
+      <c r="BJ211" s="90"/>
+      <c r="BK211" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="BL211" s="76"/>
-      <c r="BM211" s="76"/>
-      <c r="BN211" s="76"/>
-      <c r="BO211" s="77"/>
-      <c r="BP211" s="95" t="s">
+      <c r="BL211" s="90"/>
+      <c r="BM211" s="90"/>
+      <c r="BN211" s="90"/>
+      <c r="BO211" s="91"/>
+      <c r="BP211" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ211" s="82"/>
-      <c r="BR211" s="82"/>
-      <c r="BS211" s="82"/>
-      <c r="BT211" s="82"/>
-      <c r="BU211" s="82"/>
-      <c r="BV211" s="82"/>
-      <c r="BW211" s="82"/>
-      <c r="BX211" s="96"/>
+      <c r="BQ211" s="93"/>
+      <c r="BR211" s="93"/>
+      <c r="BS211" s="93"/>
+      <c r="BT211" s="93"/>
+      <c r="BU211" s="93"/>
+      <c r="BV211" s="93"/>
+      <c r="BW211" s="93"/>
+      <c r="BX211" s="106"/>
       <c r="BY211" s="54"/>
       <c r="BZ211" s="54"/>
     </row>
@@ -22286,51 +22364,51 @@
       <c r="AJ214" s="4"/>
       <c r="AK214" s="4"/>
       <c r="AL214" s="55"/>
-      <c r="AM214" s="84" t="s">
+      <c r="AM214" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AN214" s="93"/>
-      <c r="AO214" s="84" t="s">
+      <c r="AN214" s="101"/>
+      <c r="AO214" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="AP214" s="85"/>
-      <c r="AQ214" s="85"/>
-      <c r="AR214" s="85"/>
-      <c r="AS214" s="85"/>
-      <c r="AT214" s="85"/>
-      <c r="AU214" s="86"/>
-      <c r="AV214" s="84" t="s">
+      <c r="AP214" s="87"/>
+      <c r="AQ214" s="87"/>
+      <c r="AR214" s="87"/>
+      <c r="AS214" s="87"/>
+      <c r="AT214" s="87"/>
+      <c r="AU214" s="85"/>
+      <c r="AV214" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AW214" s="85"/>
-      <c r="AX214" s="85"/>
-      <c r="AY214" s="85"/>
-      <c r="AZ214" s="86"/>
-      <c r="BA214" s="84" t="s">
+      <c r="AW214" s="87"/>
+      <c r="AX214" s="87"/>
+      <c r="AY214" s="87"/>
+      <c r="AZ214" s="85"/>
+      <c r="BA214" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="BB214" s="85"/>
-      <c r="BC214" s="85"/>
-      <c r="BD214" s="85"/>
-      <c r="BE214" s="85"/>
-      <c r="BF214" s="85"/>
-      <c r="BG214" s="85"/>
-      <c r="BH214" s="85"/>
-      <c r="BI214" s="85"/>
-      <c r="BJ214" s="85"/>
-      <c r="BK214" s="85"/>
-      <c r="BL214" s="85"/>
-      <c r="BM214" s="85"/>
-      <c r="BN214" s="85"/>
-      <c r="BO214" s="85"/>
-      <c r="BP214" s="85"/>
-      <c r="BQ214" s="85"/>
-      <c r="BR214" s="85"/>
-      <c r="BS214" s="85"/>
-      <c r="BT214" s="85"/>
-      <c r="BU214" s="85"/>
-      <c r="BV214" s="85"/>
-      <c r="BW214" s="93"/>
+      <c r="BB214" s="87"/>
+      <c r="BC214" s="87"/>
+      <c r="BD214" s="87"/>
+      <c r="BE214" s="87"/>
+      <c r="BF214" s="87"/>
+      <c r="BG214" s="87"/>
+      <c r="BH214" s="87"/>
+      <c r="BI214" s="87"/>
+      <c r="BJ214" s="87"/>
+      <c r="BK214" s="87"/>
+      <c r="BL214" s="87"/>
+      <c r="BM214" s="87"/>
+      <c r="BN214" s="87"/>
+      <c r="BO214" s="87"/>
+      <c r="BP214" s="87"/>
+      <c r="BQ214" s="87"/>
+      <c r="BR214" s="87"/>
+      <c r="BS214" s="87"/>
+      <c r="BT214" s="87"/>
+      <c r="BU214" s="87"/>
+      <c r="BV214" s="87"/>
+      <c r="BW214" s="101"/>
       <c r="BX214" s="4"/>
       <c r="BY214" s="4"/>
       <c r="BZ214" s="4"/>
@@ -22374,43 +22452,43 @@
       <c r="AJ215" s="4"/>
       <c r="AK215" s="4"/>
       <c r="AL215" s="55"/>
-      <c r="AM215" s="87"/>
-      <c r="AN215" s="94"/>
-      <c r="AO215" s="87"/>
-      <c r="AP215" s="87"/>
-      <c r="AQ215" s="87"/>
-      <c r="AR215" s="87"/>
-      <c r="AS215" s="87"/>
-      <c r="AT215" s="87"/>
-      <c r="AU215" s="88"/>
-      <c r="AV215" s="87"/>
-      <c r="AW215" s="87"/>
-      <c r="AX215" s="87"/>
-      <c r="AY215" s="87"/>
-      <c r="AZ215" s="88"/>
-      <c r="BA215" s="87"/>
-      <c r="BB215" s="87"/>
-      <c r="BC215" s="87"/>
-      <c r="BD215" s="87"/>
-      <c r="BE215" s="87"/>
-      <c r="BF215" s="87"/>
-      <c r="BG215" s="87"/>
-      <c r="BH215" s="87"/>
-      <c r="BI215" s="87"/>
-      <c r="BJ215" s="87"/>
-      <c r="BK215" s="87"/>
-      <c r="BL215" s="87"/>
-      <c r="BM215" s="87"/>
-      <c r="BN215" s="87"/>
-      <c r="BO215" s="87"/>
-      <c r="BP215" s="87"/>
-      <c r="BQ215" s="87"/>
-      <c r="BR215" s="87"/>
-      <c r="BS215" s="87"/>
-      <c r="BT215" s="87"/>
-      <c r="BU215" s="87"/>
-      <c r="BV215" s="87"/>
-      <c r="BW215" s="94"/>
+      <c r="AM215" s="96"/>
+      <c r="AN215" s="102"/>
+      <c r="AO215" s="96"/>
+      <c r="AP215" s="96"/>
+      <c r="AQ215" s="96"/>
+      <c r="AR215" s="96"/>
+      <c r="AS215" s="96"/>
+      <c r="AT215" s="96"/>
+      <c r="AU215" s="97"/>
+      <c r="AV215" s="96"/>
+      <c r="AW215" s="96"/>
+      <c r="AX215" s="96"/>
+      <c r="AY215" s="96"/>
+      <c r="AZ215" s="97"/>
+      <c r="BA215" s="96"/>
+      <c r="BB215" s="96"/>
+      <c r="BC215" s="96"/>
+      <c r="BD215" s="96"/>
+      <c r="BE215" s="96"/>
+      <c r="BF215" s="96"/>
+      <c r="BG215" s="96"/>
+      <c r="BH215" s="96"/>
+      <c r="BI215" s="96"/>
+      <c r="BJ215" s="96"/>
+      <c r="BK215" s="96"/>
+      <c r="BL215" s="96"/>
+      <c r="BM215" s="96"/>
+      <c r="BN215" s="96"/>
+      <c r="BO215" s="96"/>
+      <c r="BP215" s="96"/>
+      <c r="BQ215" s="96"/>
+      <c r="BR215" s="96"/>
+      <c r="BS215" s="96"/>
+      <c r="BT215" s="96"/>
+      <c r="BU215" s="96"/>
+      <c r="BV215" s="96"/>
+      <c r="BW215" s="102"/>
       <c r="BX215" s="4"/>
       <c r="BY215" s="4"/>
       <c r="BZ215" s="4"/>
@@ -22454,10 +22532,10 @@
       <c r="AJ216" s="4"/>
       <c r="AK216" s="4"/>
       <c r="AL216" s="55"/>
-      <c r="AM216" s="89" t="s">
+      <c r="AM216" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AN216" s="86"/>
+      <c r="AN216" s="85"/>
       <c r="AO216" s="61" t="s">
         <v>89</v>
       </c>
@@ -22864,8 +22942,8 @@
       <c r="AJ221" s="4"/>
       <c r="AK221" s="4"/>
       <c r="AL221" s="55"/>
-      <c r="AM221" s="92"/>
-      <c r="AN221" s="85"/>
+      <c r="AM221" s="86"/>
+      <c r="AN221" s="87"/>
       <c r="AO221" s="68"/>
       <c r="AP221" s="33"/>
       <c r="AQ221" s="33"/>
@@ -26186,94 +26264,94 @@
       <c r="BZ262" s="4"/>
     </row>
     <row r="263" spans="1:78" ht="17.25">
-      <c r="A263" s="106" t="s">
+      <c r="A263" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B263" s="82"/>
-      <c r="C263" s="82"/>
-      <c r="D263" s="82"/>
-      <c r="E263" s="96"/>
-      <c r="F263" s="104" t="s">
+      <c r="B263" s="93"/>
+      <c r="C263" s="93"/>
+      <c r="D263" s="93"/>
+      <c r="E263" s="106"/>
+      <c r="F263" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G263" s="82"/>
-      <c r="H263" s="82"/>
-      <c r="I263" s="82"/>
-      <c r="J263" s="82"/>
-      <c r="K263" s="82"/>
-      <c r="L263" s="82"/>
-      <c r="M263" s="82"/>
-      <c r="N263" s="82"/>
-      <c r="O263" s="82"/>
-      <c r="P263" s="82"/>
-      <c r="Q263" s="82"/>
-      <c r="R263" s="82"/>
-      <c r="S263" s="82"/>
-      <c r="T263" s="82"/>
-      <c r="U263" s="82"/>
-      <c r="V263" s="82"/>
-      <c r="W263" s="82"/>
-      <c r="X263" s="82"/>
-      <c r="Y263" s="82"/>
-      <c r="Z263" s="82"/>
-      <c r="AA263" s="82"/>
-      <c r="AB263" s="82"/>
-      <c r="AC263" s="82"/>
-      <c r="AD263" s="82"/>
-      <c r="AE263" s="82"/>
-      <c r="AF263" s="82"/>
-      <c r="AG263" s="82"/>
-      <c r="AH263" s="82"/>
-      <c r="AI263" s="82"/>
-      <c r="AJ263" s="82"/>
-      <c r="AK263" s="82"/>
-      <c r="AL263" s="82"/>
-      <c r="AM263" s="82"/>
-      <c r="AN263" s="82"/>
-      <c r="AO263" s="82"/>
-      <c r="AP263" s="82"/>
-      <c r="AQ263" s="82"/>
-      <c r="AR263" s="82"/>
-      <c r="AS263" s="82"/>
-      <c r="AT263" s="82"/>
-      <c r="AU263" s="82"/>
-      <c r="AV263" s="83"/>
-      <c r="AW263" s="81" t="s">
+      <c r="G263" s="93"/>
+      <c r="H263" s="93"/>
+      <c r="I263" s="93"/>
+      <c r="J263" s="93"/>
+      <c r="K263" s="93"/>
+      <c r="L263" s="93"/>
+      <c r="M263" s="93"/>
+      <c r="N263" s="93"/>
+      <c r="O263" s="93"/>
+      <c r="P263" s="93"/>
+      <c r="Q263" s="93"/>
+      <c r="R263" s="93"/>
+      <c r="S263" s="93"/>
+      <c r="T263" s="93"/>
+      <c r="U263" s="93"/>
+      <c r="V263" s="93"/>
+      <c r="W263" s="93"/>
+      <c r="X263" s="93"/>
+      <c r="Y263" s="93"/>
+      <c r="Z263" s="93"/>
+      <c r="AA263" s="93"/>
+      <c r="AB263" s="93"/>
+      <c r="AC263" s="93"/>
+      <c r="AD263" s="93"/>
+      <c r="AE263" s="93"/>
+      <c r="AF263" s="93"/>
+      <c r="AG263" s="93"/>
+      <c r="AH263" s="93"/>
+      <c r="AI263" s="93"/>
+      <c r="AJ263" s="93"/>
+      <c r="AK263" s="93"/>
+      <c r="AL263" s="93"/>
+      <c r="AM263" s="93"/>
+      <c r="AN263" s="93"/>
+      <c r="AO263" s="93"/>
+      <c r="AP263" s="93"/>
+      <c r="AQ263" s="93"/>
+      <c r="AR263" s="93"/>
+      <c r="AS263" s="93"/>
+      <c r="AT263" s="93"/>
+      <c r="AU263" s="93"/>
+      <c r="AV263" s="94"/>
+      <c r="AW263" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AX263" s="82"/>
-      <c r="AY263" s="82"/>
-      <c r="AZ263" s="82"/>
-      <c r="BA263" s="83"/>
-      <c r="BB263" s="78" t="s">
+      <c r="AX263" s="93"/>
+      <c r="AY263" s="93"/>
+      <c r="AZ263" s="93"/>
+      <c r="BA263" s="94"/>
+      <c r="BB263" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="BC263" s="79"/>
-      <c r="BD263" s="79"/>
-      <c r="BE263" s="79"/>
-      <c r="BF263" s="79"/>
-      <c r="BG263" s="79"/>
-      <c r="BH263" s="79"/>
-      <c r="BI263" s="79"/>
-      <c r="BJ263" s="80"/>
-      <c r="BK263" s="81" t="s">
+      <c r="BC263" s="82"/>
+      <c r="BD263" s="82"/>
+      <c r="BE263" s="82"/>
+      <c r="BF263" s="82"/>
+      <c r="BG263" s="82"/>
+      <c r="BH263" s="82"/>
+      <c r="BI263" s="82"/>
+      <c r="BJ263" s="83"/>
+      <c r="BK263" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="BL263" s="82"/>
-      <c r="BM263" s="82"/>
-      <c r="BN263" s="82"/>
-      <c r="BO263" s="83"/>
-      <c r="BP263" s="95" t="s">
+      <c r="BL263" s="93"/>
+      <c r="BM263" s="93"/>
+      <c r="BN263" s="93"/>
+      <c r="BO263" s="94"/>
+      <c r="BP263" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ263" s="82"/>
-      <c r="BR263" s="82"/>
-      <c r="BS263" s="82"/>
-      <c r="BT263" s="82"/>
-      <c r="BU263" s="82"/>
-      <c r="BV263" s="82"/>
-      <c r="BW263" s="82"/>
-      <c r="BX263" s="96"/>
+      <c r="BQ263" s="93"/>
+      <c r="BR263" s="93"/>
+      <c r="BS263" s="93"/>
+      <c r="BT263" s="93"/>
+      <c r="BU263" s="93"/>
+      <c r="BV263" s="93"/>
+      <c r="BW263" s="93"/>
+      <c r="BX263" s="106"/>
       <c r="BY263" s="54"/>
       <c r="BZ263" s="54"/>
     </row>
@@ -26281,95 +26359,95 @@
       <c r="A264" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B264" s="76"/>
-      <c r="C264" s="76"/>
-      <c r="D264" s="76"/>
+      <c r="B264" s="90"/>
+      <c r="C264" s="90"/>
+      <c r="D264" s="90"/>
       <c r="E264" s="108"/>
-      <c r="F264" s="105" t="s">
+      <c r="F264" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G264" s="76"/>
-      <c r="H264" s="76"/>
-      <c r="I264" s="76"/>
-      <c r="J264" s="76"/>
-      <c r="K264" s="76"/>
-      <c r="L264" s="76"/>
-      <c r="M264" s="76"/>
-      <c r="N264" s="76"/>
-      <c r="O264" s="76"/>
-      <c r="P264" s="76"/>
-      <c r="Q264" s="76"/>
-      <c r="R264" s="76"/>
-      <c r="S264" s="76"/>
-      <c r="T264" s="76"/>
-      <c r="U264" s="76"/>
-      <c r="V264" s="76"/>
-      <c r="W264" s="76"/>
-      <c r="X264" s="76"/>
-      <c r="Y264" s="77"/>
-      <c r="Z264" s="75" t="s">
+      <c r="G264" s="90"/>
+      <c r="H264" s="90"/>
+      <c r="I264" s="90"/>
+      <c r="J264" s="90"/>
+      <c r="K264" s="90"/>
+      <c r="L264" s="90"/>
+      <c r="M264" s="90"/>
+      <c r="N264" s="90"/>
+      <c r="O264" s="90"/>
+      <c r="P264" s="90"/>
+      <c r="Q264" s="90"/>
+      <c r="R264" s="90"/>
+      <c r="S264" s="90"/>
+      <c r="T264" s="90"/>
+      <c r="U264" s="90"/>
+      <c r="V264" s="90"/>
+      <c r="W264" s="90"/>
+      <c r="X264" s="90"/>
+      <c r="Y264" s="91"/>
+      <c r="Z264" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="AA264" s="76"/>
-      <c r="AB264" s="76"/>
-      <c r="AC264" s="76"/>
-      <c r="AD264" s="77"/>
-      <c r="AE264" s="105" t="s">
+      <c r="AA264" s="90"/>
+      <c r="AB264" s="90"/>
+      <c r="AC264" s="90"/>
+      <c r="AD264" s="91"/>
+      <c r="AE264" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="AF264" s="76"/>
-      <c r="AG264" s="76"/>
-      <c r="AH264" s="76"/>
-      <c r="AI264" s="76"/>
-      <c r="AJ264" s="76"/>
-      <c r="AK264" s="76"/>
-      <c r="AL264" s="76"/>
-      <c r="AM264" s="76"/>
-      <c r="AN264" s="76"/>
-      <c r="AO264" s="76"/>
-      <c r="AP264" s="76"/>
-      <c r="AQ264" s="76"/>
-      <c r="AR264" s="76"/>
-      <c r="AS264" s="76"/>
-      <c r="AT264" s="76"/>
-      <c r="AU264" s="76"/>
-      <c r="AV264" s="77"/>
-      <c r="AW264" s="75" t="s">
+      <c r="AF264" s="90"/>
+      <c r="AG264" s="90"/>
+      <c r="AH264" s="90"/>
+      <c r="AI264" s="90"/>
+      <c r="AJ264" s="90"/>
+      <c r="AK264" s="90"/>
+      <c r="AL264" s="90"/>
+      <c r="AM264" s="90"/>
+      <c r="AN264" s="90"/>
+      <c r="AO264" s="90"/>
+      <c r="AP264" s="90"/>
+      <c r="AQ264" s="90"/>
+      <c r="AR264" s="90"/>
+      <c r="AS264" s="90"/>
+      <c r="AT264" s="90"/>
+      <c r="AU264" s="90"/>
+      <c r="AV264" s="91"/>
+      <c r="AW264" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AX264" s="76"/>
-      <c r="AY264" s="76"/>
-      <c r="AZ264" s="76"/>
-      <c r="BA264" s="77"/>
-      <c r="BB264" s="90" t="s">
+      <c r="AX264" s="90"/>
+      <c r="AY264" s="90"/>
+      <c r="AZ264" s="90"/>
+      <c r="BA264" s="91"/>
+      <c r="BB264" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC264" s="76"/>
-      <c r="BD264" s="76"/>
-      <c r="BE264" s="76"/>
-      <c r="BF264" s="76"/>
-      <c r="BG264" s="76"/>
-      <c r="BH264" s="76"/>
-      <c r="BI264" s="76"/>
-      <c r="BJ264" s="76"/>
-      <c r="BK264" s="110" t="s">
+      <c r="BC264" s="90"/>
+      <c r="BD264" s="90"/>
+      <c r="BE264" s="90"/>
+      <c r="BF264" s="90"/>
+      <c r="BG264" s="90"/>
+      <c r="BH264" s="90"/>
+      <c r="BI264" s="90"/>
+      <c r="BJ264" s="90"/>
+      <c r="BK264" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="BL264" s="79"/>
-      <c r="BM264" s="79"/>
-      <c r="BN264" s="79"/>
-      <c r="BO264" s="80"/>
-      <c r="BP264" s="95" t="s">
+      <c r="BL264" s="82"/>
+      <c r="BM264" s="82"/>
+      <c r="BN264" s="82"/>
+      <c r="BO264" s="83"/>
+      <c r="BP264" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="BQ264" s="82"/>
-      <c r="BR264" s="82"/>
-      <c r="BS264" s="82"/>
-      <c r="BT264" s="82"/>
-      <c r="BU264" s="82"/>
-      <c r="BV264" s="82"/>
-      <c r="BW264" s="82"/>
-      <c r="BX264" s="96"/>
+      <c r="BQ264" s="93"/>
+      <c r="BR264" s="93"/>
+      <c r="BS264" s="93"/>
+      <c r="BT264" s="93"/>
+      <c r="BU264" s="93"/>
+      <c r="BV264" s="93"/>
+      <c r="BW264" s="93"/>
+      <c r="BX264" s="106"/>
       <c r="BY264" s="54"/>
       <c r="BZ264" s="54"/>
     </row>
@@ -26572,51 +26650,51 @@
       <c r="AJ267" s="4"/>
       <c r="AK267" s="4"/>
       <c r="AL267" s="55"/>
-      <c r="AM267" s="84" t="s">
+      <c r="AM267" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AN267" s="93"/>
-      <c r="AO267" s="84" t="s">
+      <c r="AN267" s="101"/>
+      <c r="AO267" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="AP267" s="85"/>
-      <c r="AQ267" s="85"/>
-      <c r="AR267" s="85"/>
-      <c r="AS267" s="85"/>
-      <c r="AT267" s="85"/>
-      <c r="AU267" s="86"/>
-      <c r="AV267" s="84" t="s">
+      <c r="AP267" s="87"/>
+      <c r="AQ267" s="87"/>
+      <c r="AR267" s="87"/>
+      <c r="AS267" s="87"/>
+      <c r="AT267" s="87"/>
+      <c r="AU267" s="85"/>
+      <c r="AV267" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AW267" s="85"/>
-      <c r="AX267" s="85"/>
-      <c r="AY267" s="85"/>
-      <c r="AZ267" s="86"/>
-      <c r="BA267" s="84" t="s">
+      <c r="AW267" s="87"/>
+      <c r="AX267" s="87"/>
+      <c r="AY267" s="87"/>
+      <c r="AZ267" s="85"/>
+      <c r="BA267" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="BB267" s="85"/>
-      <c r="BC267" s="85"/>
-      <c r="BD267" s="85"/>
-      <c r="BE267" s="85"/>
-      <c r="BF267" s="85"/>
-      <c r="BG267" s="85"/>
-      <c r="BH267" s="85"/>
-      <c r="BI267" s="85"/>
-      <c r="BJ267" s="85"/>
-      <c r="BK267" s="85"/>
-      <c r="BL267" s="85"/>
-      <c r="BM267" s="85"/>
-      <c r="BN267" s="85"/>
-      <c r="BO267" s="85"/>
-      <c r="BP267" s="85"/>
-      <c r="BQ267" s="85"/>
-      <c r="BR267" s="85"/>
-      <c r="BS267" s="85"/>
-      <c r="BT267" s="85"/>
-      <c r="BU267" s="85"/>
-      <c r="BV267" s="85"/>
-      <c r="BW267" s="93"/>
+      <c r="BB267" s="87"/>
+      <c r="BC267" s="87"/>
+      <c r="BD267" s="87"/>
+      <c r="BE267" s="87"/>
+      <c r="BF267" s="87"/>
+      <c r="BG267" s="87"/>
+      <c r="BH267" s="87"/>
+      <c r="BI267" s="87"/>
+      <c r="BJ267" s="87"/>
+      <c r="BK267" s="87"/>
+      <c r="BL267" s="87"/>
+      <c r="BM267" s="87"/>
+      <c r="BN267" s="87"/>
+      <c r="BO267" s="87"/>
+      <c r="BP267" s="87"/>
+      <c r="BQ267" s="87"/>
+      <c r="BR267" s="87"/>
+      <c r="BS267" s="87"/>
+      <c r="BT267" s="87"/>
+      <c r="BU267" s="87"/>
+      <c r="BV267" s="87"/>
+      <c r="BW267" s="101"/>
       <c r="BX267" s="4"/>
       <c r="BY267" s="4"/>
       <c r="BZ267" s="4"/>
@@ -26660,43 +26738,43 @@
       <c r="AJ268" s="4"/>
       <c r="AK268" s="4"/>
       <c r="AL268" s="55"/>
-      <c r="AM268" s="87"/>
-      <c r="AN268" s="94"/>
-      <c r="AO268" s="87"/>
-      <c r="AP268" s="87"/>
-      <c r="AQ268" s="87"/>
-      <c r="AR268" s="87"/>
-      <c r="AS268" s="87"/>
-      <c r="AT268" s="87"/>
-      <c r="AU268" s="88"/>
-      <c r="AV268" s="87"/>
-      <c r="AW268" s="87"/>
-      <c r="AX268" s="87"/>
-      <c r="AY268" s="87"/>
-      <c r="AZ268" s="88"/>
-      <c r="BA268" s="87"/>
-      <c r="BB268" s="87"/>
-      <c r="BC268" s="87"/>
-      <c r="BD268" s="87"/>
-      <c r="BE268" s="87"/>
-      <c r="BF268" s="87"/>
-      <c r="BG268" s="87"/>
-      <c r="BH268" s="87"/>
-      <c r="BI268" s="87"/>
-      <c r="BJ268" s="87"/>
-      <c r="BK268" s="87"/>
-      <c r="BL268" s="87"/>
-      <c r="BM268" s="87"/>
-      <c r="BN268" s="87"/>
-      <c r="BO268" s="87"/>
-      <c r="BP268" s="87"/>
-      <c r="BQ268" s="87"/>
-      <c r="BR268" s="87"/>
-      <c r="BS268" s="87"/>
-      <c r="BT268" s="87"/>
-      <c r="BU268" s="87"/>
-      <c r="BV268" s="87"/>
-      <c r="BW268" s="94"/>
+      <c r="AM268" s="96"/>
+      <c r="AN268" s="102"/>
+      <c r="AO268" s="96"/>
+      <c r="AP268" s="96"/>
+      <c r="AQ268" s="96"/>
+      <c r="AR268" s="96"/>
+      <c r="AS268" s="96"/>
+      <c r="AT268" s="96"/>
+      <c r="AU268" s="97"/>
+      <c r="AV268" s="96"/>
+      <c r="AW268" s="96"/>
+      <c r="AX268" s="96"/>
+      <c r="AY268" s="96"/>
+      <c r="AZ268" s="97"/>
+      <c r="BA268" s="96"/>
+      <c r="BB268" s="96"/>
+      <c r="BC268" s="96"/>
+      <c r="BD268" s="96"/>
+      <c r="BE268" s="96"/>
+      <c r="BF268" s="96"/>
+      <c r="BG268" s="96"/>
+      <c r="BH268" s="96"/>
+      <c r="BI268" s="96"/>
+      <c r="BJ268" s="96"/>
+      <c r="BK268" s="96"/>
+      <c r="BL268" s="96"/>
+      <c r="BM268" s="96"/>
+      <c r="BN268" s="96"/>
+      <c r="BO268" s="96"/>
+      <c r="BP268" s="96"/>
+      <c r="BQ268" s="96"/>
+      <c r="BR268" s="96"/>
+      <c r="BS268" s="96"/>
+      <c r="BT268" s="96"/>
+      <c r="BU268" s="96"/>
+      <c r="BV268" s="96"/>
+      <c r="BW268" s="102"/>
       <c r="BX268" s="4"/>
       <c r="BY268" s="4"/>
       <c r="BZ268" s="4"/>
@@ -26740,10 +26818,10 @@
       <c r="AJ269" s="4"/>
       <c r="AK269" s="4"/>
       <c r="AL269" s="55"/>
-      <c r="AM269" s="89" t="s">
+      <c r="AM269" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="AN269" s="86"/>
+      <c r="AN269" s="85"/>
       <c r="AO269" s="61" t="s">
         <v>89</v>
       </c>
@@ -27152,8 +27230,8 @@
       <c r="AJ274" s="4"/>
       <c r="AK274" s="4"/>
       <c r="AL274" s="55"/>
-      <c r="AM274" s="92"/>
-      <c r="AN274" s="85"/>
+      <c r="AM274" s="86"/>
+      <c r="AN274" s="87"/>
       <c r="AO274" s="68"/>
       <c r="AP274" s="33"/>
       <c r="AQ274" s="33"/>
@@ -30512,6 +30590,13 @@
     <mergeCell ref="AB35:AG36"/>
     <mergeCell ref="AB41:AG42"/>
     <mergeCell ref="AB37:AG38"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM9:AN9"/>
     <mergeCell ref="BP157:BX157"/>
     <mergeCell ref="F158:Y158"/>
     <mergeCell ref="AO161:AU162"/>
@@ -30570,16 +30655,20 @@
     <mergeCell ref="F105:Y105"/>
     <mergeCell ref="K35:T36"/>
     <mergeCell ref="A105:E105"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM24:AN24"/>
     <mergeCell ref="AW211:BA211"/>
     <mergeCell ref="BB211:BJ211"/>
     <mergeCell ref="AE52:AV52"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="Z29:AB29"/>
     <mergeCell ref="AM50:AN50"/>
     <mergeCell ref="C56:H57"/>
     <mergeCell ref="G63:N64"/>
+    <mergeCell ref="AM108:AN109"/>
+    <mergeCell ref="BP105:BX105"/>
+    <mergeCell ref="BP104:BX104"/>
+    <mergeCell ref="AM55:AN56"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="BK51:BO51"/>
+    <mergeCell ref="AW51:BA51"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="AM267:AN268"/>
@@ -30604,17 +30693,6 @@
     <mergeCell ref="K37:T38"/>
     <mergeCell ref="AM34:AN34"/>
     <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM108:AN109"/>
-    <mergeCell ref="BP105:BX105"/>
-    <mergeCell ref="BP104:BX104"/>
-    <mergeCell ref="AM55:AN56"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="BK51:BO51"/>
-    <mergeCell ref="AW51:BA51"/>
     <mergeCell ref="BB51:BJ51"/>
     <mergeCell ref="AM38:AN38"/>
     <mergeCell ref="AM46:AN46"/>
@@ -30639,6 +30717,8 @@
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C877C3-734B-48F8-A868-1B9070EAE87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B890CBB-F6EA-4E52-AE37-0FA395890F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1273EC73-AC8A-49F1-9CF5-0FF30456DBBA}</author>
+    <author>tc={A44B41A3-1273-4E38-8222-0F6B6CBAA88D}</author>
   </authors>
   <commentList>
     <comment ref="BA39" authorId="0" shapeId="0" xr:uid="{1273EC73-AC8A-49F1-9CF5-0FF30456DBBA}">
@@ -36,6 +37,15 @@
 ⇒送料・手数料：¥540
 と表示するということでしょうか？
 その認識であっているのであれば、OKです。</t>
+      </text>
+    </comment>
+    <comment ref="BA40" authorId="1" shapeId="0" xr:uid="{A44B41A3-1273-4E38-8222-0F6B6CBAA88D}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    要件定義書では、無料の場合は緑で表示すると書いてありましたね。そのことも加筆しましょうか。
+また、要件定義書と同様に、緑で表示している画面も作ってみましょう。</t>
       </text>
     </comment>
   </commentList>
@@ -438,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -600,6 +610,13 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1124,60 +1141,70 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1190,39 +1217,29 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4074,6 +4091,10 @@
 と表示するということでしょうか？
 その認識であっているのであれば、OKです。</text>
   </threadedComment>
+  <threadedComment ref="BA40" dT="2019-12-03T05:48:20.31" personId="{B410949E-852C-475E-8460-213C0BE9E0A5}" id="{A44B41A3-1273-4E38-8222-0F6B6CBAA88D}">
+    <text>要件定義書では、無料の場合は緑で表示すると書いてありましたね。そのことも加筆しましょうか。
+また、要件定義書と同様に、緑で表示している画面も作ってみましょう。</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -4085,7 +4106,7 @@
   <dimension ref="A1:CR315"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="BS30" sqref="BS30"/>
+      <selection activeCell="BS43" sqref="BS43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4095,65 +4116,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93"/>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="94"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106"/>
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="107"/>
       <c r="AW1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="93"/>
-      <c r="BA1" s="94"/>
+      <c r="AX1" s="106"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="106"/>
+      <c r="BA1" s="107"/>
       <c r="BB1" s="81" t="s">
         <v>3</v>
       </c>
@@ -4168,21 +4189,21 @@
       <c r="BK1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="93"/>
-      <c r="BM1" s="93"/>
-      <c r="BN1" s="93"/>
-      <c r="BO1" s="94"/>
-      <c r="BP1" s="110" t="s">
+      <c r="BL1" s="106"/>
+      <c r="BM1" s="106"/>
+      <c r="BN1" s="106"/>
+      <c r="BO1" s="107"/>
+      <c r="BP1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="93"/>
-      <c r="BR1" s="93"/>
-      <c r="BS1" s="93"/>
-      <c r="BT1" s="93"/>
-      <c r="BU1" s="93"/>
-      <c r="BV1" s="93"/>
-      <c r="BW1" s="93"/>
-      <c r="BX1" s="106"/>
+      <c r="BQ1" s="106"/>
+      <c r="BR1" s="106"/>
+      <c r="BS1" s="106"/>
+      <c r="BT1" s="106"/>
+      <c r="BU1" s="106"/>
+      <c r="BV1" s="106"/>
+      <c r="BW1" s="106"/>
+      <c r="BX1" s="115"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -4205,7 +4226,7 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="134" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="82"/>
@@ -4234,7 +4255,7 @@
       <c r="W2" s="82"/>
       <c r="X2" s="82"/>
       <c r="Y2" s="83"/>
-      <c r="Z2" s="122" t="s">
+      <c r="Z2" s="84" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="82"/>
@@ -4259,7 +4280,7 @@
       <c r="AT2" s="82"/>
       <c r="AU2" s="82"/>
       <c r="AV2" s="83"/>
-      <c r="AW2" s="122" t="s">
+      <c r="AW2" s="84" t="s">
         <v>9</v>
       </c>
       <c r="AX2" s="82"/>
@@ -4277,24 +4298,24 @@
       <c r="BH2" s="82"/>
       <c r="BI2" s="82"/>
       <c r="BJ2" s="83"/>
-      <c r="BK2" s="122" t="s">
+      <c r="BK2" s="84" t="s">
         <v>11</v>
       </c>
       <c r="BL2" s="82"/>
       <c r="BM2" s="82"/>
       <c r="BN2" s="82"/>
       <c r="BO2" s="83"/>
-      <c r="BP2" s="110" t="s">
+      <c r="BP2" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="BQ2" s="93"/>
-      <c r="BR2" s="93"/>
-      <c r="BS2" s="93"/>
-      <c r="BT2" s="93"/>
-      <c r="BU2" s="93"/>
-      <c r="BV2" s="93"/>
-      <c r="BW2" s="93"/>
-      <c r="BX2" s="106"/>
+      <c r="BQ2" s="106"/>
+      <c r="BR2" s="106"/>
+      <c r="BS2" s="106"/>
+      <c r="BT2" s="106"/>
+      <c r="BU2" s="106"/>
+      <c r="BV2" s="106"/>
+      <c r="BW2" s="106"/>
+      <c r="BX2" s="115"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -4553,51 +4574,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="123" t="s">
+      <c r="AM5" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="124"/>
-      <c r="AO5" s="130" t="s">
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="131"/>
-      <c r="AQ5" s="131"/>
-      <c r="AR5" s="131"/>
-      <c r="AS5" s="131"/>
-      <c r="AT5" s="131"/>
-      <c r="AU5" s="124"/>
-      <c r="AV5" s="130" t="s">
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="131"/>
-      <c r="AX5" s="131"/>
-      <c r="AY5" s="131"/>
-      <c r="AZ5" s="124"/>
-      <c r="BA5" s="130" t="s">
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="131"/>
-      <c r="BC5" s="131"/>
-      <c r="BD5" s="131"/>
-      <c r="BE5" s="131"/>
-      <c r="BF5" s="131"/>
-      <c r="BG5" s="131"/>
-      <c r="BH5" s="131"/>
-      <c r="BI5" s="131"/>
-      <c r="BJ5" s="131"/>
-      <c r="BK5" s="131"/>
-      <c r="BL5" s="131"/>
-      <c r="BM5" s="131"/>
-      <c r="BN5" s="131"/>
-      <c r="BO5" s="131"/>
-      <c r="BP5" s="131"/>
-      <c r="BQ5" s="131"/>
-      <c r="BR5" s="131"/>
-      <c r="BS5" s="131"/>
-      <c r="BT5" s="131"/>
-      <c r="BU5" s="131"/>
-      <c r="BV5" s="131"/>
-      <c r="BW5" s="132"/>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="86"/>
+      <c r="BD5" s="86"/>
+      <c r="BE5" s="86"/>
+      <c r="BF5" s="86"/>
+      <c r="BG5" s="86"/>
+      <c r="BH5" s="86"/>
+      <c r="BI5" s="86"/>
+      <c r="BJ5" s="86"/>
+      <c r="BK5" s="86"/>
+      <c r="BL5" s="86"/>
+      <c r="BM5" s="86"/>
+      <c r="BN5" s="86"/>
+      <c r="BO5" s="86"/>
+      <c r="BP5" s="86"/>
+      <c r="BQ5" s="86"/>
+      <c r="BR5" s="86"/>
+      <c r="BS5" s="86"/>
+      <c r="BT5" s="86"/>
+      <c r="BU5" s="86"/>
+      <c r="BV5" s="86"/>
+      <c r="BW5" s="87"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -4659,43 +4680,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="133"/>
-      <c r="AP6" s="96"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="96"/>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="97"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="96"/>
-      <c r="AX6" s="96"/>
-      <c r="AY6" s="96"/>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="133"/>
-      <c r="BB6" s="96"/>
-      <c r="BC6" s="96"/>
-      <c r="BD6" s="96"/>
-      <c r="BE6" s="96"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="96"/>
-      <c r="BH6" s="96"/>
-      <c r="BI6" s="96"/>
-      <c r="BJ6" s="96"/>
-      <c r="BK6" s="96"/>
-      <c r="BL6" s="96"/>
-      <c r="BM6" s="96"/>
-      <c r="BN6" s="96"/>
-      <c r="BO6" s="96"/>
-      <c r="BP6" s="96"/>
-      <c r="BQ6" s="96"/>
-      <c r="BR6" s="96"/>
-      <c r="BS6" s="96"/>
-      <c r="BT6" s="96"/>
-      <c r="BU6" s="96"/>
-      <c r="BV6" s="96"/>
-      <c r="BW6" s="102"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="89"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="89"/>
+      <c r="BO6" s="89"/>
+      <c r="BP6" s="89"/>
+      <c r="BQ6" s="89"/>
+      <c r="BR6" s="89"/>
+      <c r="BS6" s="89"/>
+      <c r="BT6" s="89"/>
+      <c r="BU6" s="89"/>
+      <c r="BV6" s="89"/>
+      <c r="BW6" s="90"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -4757,10 +4778,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="84" t="s">
+      <c r="AM7" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="85"/>
+      <c r="AN7" s="104"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -4961,10 +4982,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="84" t="s">
+      <c r="AM9" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="85"/>
+      <c r="AN9" s="104"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -5165,10 +5186,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="84" t="s">
+      <c r="AM11" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="85"/>
+      <c r="AN11" s="104"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -5261,9 +5282,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="126"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -5368,10 +5389,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="84" t="s">
+      <c r="AM13" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="85"/>
+      <c r="AN13" s="104"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -5555,9 +5576,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -5664,10 +5685,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="84" t="s">
+      <c r="AM16" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="85"/>
+      <c r="AN16" s="104"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -5868,10 +5889,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="84" t="s">
+      <c r="AM18" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="85"/>
+      <c r="AN18" s="104"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -6062,19 +6083,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="126"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="87"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="84" t="s">
+      <c r="AM20" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="85"/>
+      <c r="AN20" s="104"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -6260,9 +6281,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -6271,10 +6292,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="84" t="s">
+      <c r="AM22" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="85"/>
+      <c r="AN22" s="104"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -6475,10 +6496,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="84" t="s">
+      <c r="AM24" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="85"/>
+      <c r="AN24" s="104"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -6679,10 +6700,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="84" t="s">
+      <c r="AM26" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="85"/>
+      <c r="AN26" s="104"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -6775,9 +6796,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="126"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="97"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -6882,10 +6903,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="84" t="s">
+      <c r="AM28" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="85"/>
+      <c r="AN28" s="104"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -6973,9 +6994,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -7082,10 +7103,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="84" t="s">
+      <c r="AM30" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="85"/>
+      <c r="AN30" s="104"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -7286,10 +7307,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="84" t="s">
+      <c r="AM32" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="85"/>
+      <c r="AN32" s="104"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -7488,10 +7509,10 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="84" t="s">
+      <c r="AM34" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="85"/>
+      <c r="AN34" s="104"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -7566,29 +7587,29 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="97"/>
+      <c r="T35" s="97"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="129"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="87"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="97"/>
+      <c r="Y35" s="97"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="97"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="97"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
@@ -7664,38 +7685,38 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="97"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="87"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="87"/>
-      <c r="AA36" s="87"/>
-      <c r="AB36" s="87"/>
-      <c r="AC36" s="87"/>
-      <c r="AD36" s="87"/>
-      <c r="AE36" s="87"/>
-      <c r="AF36" s="87"/>
-      <c r="AG36" s="87"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="97"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="97"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="84" t="s">
+      <c r="AM36" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="85"/>
+      <c r="AN36" s="104"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -7770,29 +7791,29 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="134"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
-      <c r="Z37" s="87"/>
-      <c r="AA37" s="87"/>
-      <c r="AB37" s="129"/>
-      <c r="AC37" s="87"/>
-      <c r="AD37" s="87"/>
-      <c r="AE37" s="87"/>
-      <c r="AF37" s="87"/>
-      <c r="AG37" s="87"/>
+      <c r="W37" s="96"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="97"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="113"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="97"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
@@ -7868,38 +7889,38 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="87"/>
-      <c r="AA38" s="87"/>
-      <c r="AB38" s="87"/>
-      <c r="AC38" s="87"/>
-      <c r="AD38" s="87"/>
-      <c r="AE38" s="87"/>
-      <c r="AF38" s="87"/>
-      <c r="AG38" s="87"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="97"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="84" t="s">
+      <c r="AM38" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="AN38" s="85"/>
+      <c r="AN38" s="104"/>
       <c r="AO38" s="21" t="s">
         <v>67</v>
       </c>
@@ -8132,29 +8153,29 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
+      <c r="S41" s="97"/>
+      <c r="T41" s="97"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="135"/>
-      <c r="X41" s="87"/>
-      <c r="Y41" s="87"/>
-      <c r="Z41" s="87"/>
-      <c r="AA41" s="87"/>
-      <c r="AB41" s="129"/>
-      <c r="AC41" s="87"/>
-      <c r="AD41" s="87"/>
-      <c r="AE41" s="87"/>
-      <c r="AF41" s="87"/>
-      <c r="AG41" s="87"/>
+      <c r="W41" s="98"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="97"/>
+      <c r="Z41" s="97"/>
+      <c r="AA41" s="97"/>
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="97"/>
+      <c r="AG41" s="97"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
@@ -8232,38 +8253,38 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="97"/>
+      <c r="T42" s="97"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="87"/>
-      <c r="AA42" s="87"/>
-      <c r="AB42" s="87"/>
-      <c r="AC42" s="87"/>
-      <c r="AD42" s="87"/>
-      <c r="AE42" s="87"/>
-      <c r="AF42" s="87"/>
-      <c r="AG42" s="87"/>
+      <c r="W42" s="97"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="97"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="84" t="s">
+      <c r="AM42" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="AN42" s="85"/>
+      <c r="AN42" s="104"/>
       <c r="AO42" s="21" t="s">
         <v>70</v>
       </c>
@@ -8338,29 +8359,29 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="87"/>
-      <c r="AA43" s="87"/>
-      <c r="AB43" s="87"/>
-      <c r="AC43" s="87"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="87"/>
-      <c r="AF43" s="87"/>
-      <c r="AG43" s="87"/>
+      <c r="W43" s="100"/>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="97"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="97"/>
+      <c r="AG43" s="97"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -8436,36 +8457,36 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="87"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="87"/>
-      <c r="Z44" s="87"/>
-      <c r="AA44" s="87"/>
-      <c r="AB44" s="87"/>
-      <c r="AC44" s="87"/>
-      <c r="AD44" s="87"/>
-      <c r="AE44" s="87"/>
-      <c r="AF44" s="87"/>
-      <c r="AG44" s="87"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="84"/>
-      <c r="AN44" s="85"/>
+      <c r="AM44" s="103"/>
+      <c r="AN44" s="104"/>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
@@ -8660,8 +8681,8 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="84"/>
-      <c r="AN46" s="85"/>
+      <c r="AM46" s="103"/>
+      <c r="AN46" s="104"/>
       <c r="AO46" s="47"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -8855,8 +8876,8 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="84"/>
-      <c r="AN48" s="85"/>
+      <c r="AM48" s="103"/>
+      <c r="AN48" s="104"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
@@ -9051,8 +9072,8 @@
       <c r="AJ50" s="50"/>
       <c r="AK50" s="50"/>
       <c r="AL50" s="50"/>
-      <c r="AM50" s="111"/>
-      <c r="AN50" s="96"/>
+      <c r="AM50" s="128"/>
+      <c r="AN50" s="89"/>
       <c r="AO50" s="50"/>
       <c r="AP50" s="50"/>
       <c r="AQ50" s="50"/>
@@ -9111,65 +9132,65 @@
       <c r="CR50" s="4"/>
     </row>
     <row r="51" spans="1:96" ht="17.25">
-      <c r="A51" s="105" t="s">
+      <c r="A51" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="103" t="s">
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="93"/>
-      <c r="S51" s="93"/>
-      <c r="T51" s="93"/>
-      <c r="U51" s="93"/>
-      <c r="V51" s="93"/>
-      <c r="W51" s="93"/>
-      <c r="X51" s="93"/>
-      <c r="Y51" s="93"/>
-      <c r="Z51" s="93"/>
-      <c r="AA51" s="93"/>
-      <c r="AB51" s="93"/>
-      <c r="AC51" s="93"/>
-      <c r="AD51" s="93"/>
-      <c r="AE51" s="93"/>
-      <c r="AF51" s="93"/>
-      <c r="AG51" s="93"/>
-      <c r="AH51" s="93"/>
-      <c r="AI51" s="93"/>
-      <c r="AJ51" s="93"/>
-      <c r="AK51" s="93"/>
-      <c r="AL51" s="93"/>
-      <c r="AM51" s="93"/>
-      <c r="AN51" s="93"/>
-      <c r="AO51" s="93"/>
-      <c r="AP51" s="93"/>
-      <c r="AQ51" s="93"/>
-      <c r="AR51" s="93"/>
-      <c r="AS51" s="93"/>
-      <c r="AT51" s="93"/>
-      <c r="AU51" s="93"/>
-      <c r="AV51" s="94"/>
-      <c r="AW51" s="92" t="s">
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="106"/>
+      <c r="N51" s="106"/>
+      <c r="O51" s="106"/>
+      <c r="P51" s="106"/>
+      <c r="Q51" s="106"/>
+      <c r="R51" s="106"/>
+      <c r="S51" s="106"/>
+      <c r="T51" s="106"/>
+      <c r="U51" s="106"/>
+      <c r="V51" s="106"/>
+      <c r="W51" s="106"/>
+      <c r="X51" s="106"/>
+      <c r="Y51" s="106"/>
+      <c r="Z51" s="106"/>
+      <c r="AA51" s="106"/>
+      <c r="AB51" s="106"/>
+      <c r="AC51" s="106"/>
+      <c r="AD51" s="106"/>
+      <c r="AE51" s="106"/>
+      <c r="AF51" s="106"/>
+      <c r="AG51" s="106"/>
+      <c r="AH51" s="106"/>
+      <c r="AI51" s="106"/>
+      <c r="AJ51" s="106"/>
+      <c r="AK51" s="106"/>
+      <c r="AL51" s="106"/>
+      <c r="AM51" s="106"/>
+      <c r="AN51" s="106"/>
+      <c r="AO51" s="106"/>
+      <c r="AP51" s="106"/>
+      <c r="AQ51" s="106"/>
+      <c r="AR51" s="106"/>
+      <c r="AS51" s="106"/>
+      <c r="AT51" s="106"/>
+      <c r="AU51" s="106"/>
+      <c r="AV51" s="107"/>
+      <c r="AW51" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AX51" s="93"/>
-      <c r="AY51" s="93"/>
-      <c r="AZ51" s="93"/>
-      <c r="BA51" s="94"/>
+      <c r="AX51" s="106"/>
+      <c r="AY51" s="106"/>
+      <c r="AZ51" s="106"/>
+      <c r="BA51" s="107"/>
       <c r="BB51" s="81" t="s">
         <v>72</v>
       </c>
@@ -9181,120 +9202,120 @@
       <c r="BH51" s="82"/>
       <c r="BI51" s="82"/>
       <c r="BJ51" s="83"/>
-      <c r="BK51" s="92" t="s">
+      <c r="BK51" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="BL51" s="93"/>
-      <c r="BM51" s="93"/>
-      <c r="BN51" s="93"/>
-      <c r="BO51" s="94"/>
-      <c r="BP51" s="110" t="s">
+      <c r="BL51" s="106"/>
+      <c r="BM51" s="106"/>
+      <c r="BN51" s="106"/>
+      <c r="BO51" s="107"/>
+      <c r="BP51" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ51" s="93"/>
-      <c r="BR51" s="93"/>
-      <c r="BS51" s="93"/>
-      <c r="BT51" s="93"/>
-      <c r="BU51" s="93"/>
-      <c r="BV51" s="93"/>
-      <c r="BW51" s="93"/>
-      <c r="BX51" s="106"/>
+      <c r="BQ51" s="106"/>
+      <c r="BR51" s="106"/>
+      <c r="BS51" s="106"/>
+      <c r="BT51" s="106"/>
+      <c r="BU51" s="106"/>
+      <c r="BV51" s="106"/>
+      <c r="BW51" s="106"/>
+      <c r="BX51" s="115"/>
       <c r="BY51" s="54"/>
       <c r="BZ51" s="54"/>
     </row>
     <row r="52" spans="1:96" ht="18">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="104" t="s">
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="90"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="90"/>
-      <c r="Q52" s="90"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
-      <c r="V52" s="90"/>
-      <c r="W52" s="90"/>
-      <c r="X52" s="90"/>
-      <c r="Y52" s="91"/>
-      <c r="Z52" s="89" t="s">
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="92"/>
+      <c r="Q52" s="92"/>
+      <c r="R52" s="92"/>
+      <c r="S52" s="92"/>
+      <c r="T52" s="92"/>
+      <c r="U52" s="92"/>
+      <c r="V52" s="92"/>
+      <c r="W52" s="92"/>
+      <c r="X52" s="92"/>
+      <c r="Y52" s="94"/>
+      <c r="Z52" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="AA52" s="90"/>
-      <c r="AB52" s="90"/>
-      <c r="AC52" s="90"/>
-      <c r="AD52" s="91"/>
-      <c r="AE52" s="104" t="s">
+      <c r="AA52" s="92"/>
+      <c r="AB52" s="92"/>
+      <c r="AC52" s="92"/>
+      <c r="AD52" s="94"/>
+      <c r="AE52" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="AF52" s="90"/>
-      <c r="AG52" s="90"/>
-      <c r="AH52" s="90"/>
-      <c r="AI52" s="90"/>
-      <c r="AJ52" s="90"/>
-      <c r="AK52" s="90"/>
-      <c r="AL52" s="90"/>
-      <c r="AM52" s="90"/>
-      <c r="AN52" s="90"/>
-      <c r="AO52" s="90"/>
-      <c r="AP52" s="90"/>
-      <c r="AQ52" s="90"/>
-      <c r="AR52" s="90"/>
-      <c r="AS52" s="90"/>
-      <c r="AT52" s="90"/>
-      <c r="AU52" s="90"/>
-      <c r="AV52" s="91"/>
-      <c r="AW52" s="89" t="s">
+      <c r="AF52" s="92"/>
+      <c r="AG52" s="92"/>
+      <c r="AH52" s="92"/>
+      <c r="AI52" s="92"/>
+      <c r="AJ52" s="92"/>
+      <c r="AK52" s="92"/>
+      <c r="AL52" s="92"/>
+      <c r="AM52" s="92"/>
+      <c r="AN52" s="92"/>
+      <c r="AO52" s="92"/>
+      <c r="AP52" s="92"/>
+      <c r="AQ52" s="92"/>
+      <c r="AR52" s="92"/>
+      <c r="AS52" s="92"/>
+      <c r="AT52" s="92"/>
+      <c r="AU52" s="92"/>
+      <c r="AV52" s="94"/>
+      <c r="AW52" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AX52" s="90"/>
-      <c r="AY52" s="90"/>
-      <c r="AZ52" s="90"/>
-      <c r="BA52" s="91"/>
-      <c r="BB52" s="98" t="s">
+      <c r="AX52" s="92"/>
+      <c r="AY52" s="92"/>
+      <c r="AZ52" s="92"/>
+      <c r="BA52" s="94"/>
+      <c r="BB52" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BC52" s="90"/>
-      <c r="BD52" s="90"/>
-      <c r="BE52" s="90"/>
-      <c r="BF52" s="90"/>
-      <c r="BG52" s="90"/>
-      <c r="BH52" s="90"/>
-      <c r="BI52" s="90"/>
-      <c r="BJ52" s="90"/>
-      <c r="BK52" s="89" t="s">
+      <c r="BC52" s="92"/>
+      <c r="BD52" s="92"/>
+      <c r="BE52" s="92"/>
+      <c r="BF52" s="92"/>
+      <c r="BG52" s="92"/>
+      <c r="BH52" s="92"/>
+      <c r="BI52" s="92"/>
+      <c r="BJ52" s="92"/>
+      <c r="BK52" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="BL52" s="90"/>
-      <c r="BM52" s="90"/>
-      <c r="BN52" s="90"/>
-      <c r="BO52" s="91"/>
-      <c r="BP52" s="110" t="s">
+      <c r="BL52" s="92"/>
+      <c r="BM52" s="92"/>
+      <c r="BN52" s="92"/>
+      <c r="BO52" s="94"/>
+      <c r="BP52" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ52" s="93"/>
-      <c r="BR52" s="93"/>
-      <c r="BS52" s="93"/>
-      <c r="BT52" s="93"/>
-      <c r="BU52" s="93"/>
-      <c r="BV52" s="93"/>
-      <c r="BW52" s="93"/>
-      <c r="BX52" s="106"/>
+      <c r="BQ52" s="106"/>
+      <c r="BR52" s="106"/>
+      <c r="BS52" s="106"/>
+      <c r="BT52" s="106"/>
+      <c r="BU52" s="106"/>
+      <c r="BV52" s="106"/>
+      <c r="BW52" s="106"/>
+      <c r="BX52" s="115"/>
       <c r="BY52" s="54"/>
       <c r="BZ52" s="54"/>
     </row>
@@ -9499,51 +9520,51 @@
       <c r="AJ55" s="33"/>
       <c r="AK55" s="33"/>
       <c r="AL55" s="55"/>
-      <c r="AM55" s="95" t="s">
+      <c r="AM55" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AN55" s="101"/>
-      <c r="AO55" s="95" t="s">
+      <c r="AN55" s="102"/>
+      <c r="AO55" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AP55" s="87"/>
-      <c r="AQ55" s="87"/>
-      <c r="AR55" s="87"/>
-      <c r="AS55" s="87"/>
-      <c r="AT55" s="87"/>
-      <c r="AU55" s="85"/>
-      <c r="AV55" s="95" t="s">
+      <c r="AP55" s="97"/>
+      <c r="AQ55" s="97"/>
+      <c r="AR55" s="97"/>
+      <c r="AS55" s="97"/>
+      <c r="AT55" s="97"/>
+      <c r="AU55" s="104"/>
+      <c r="AV55" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AW55" s="87"/>
-      <c r="AX55" s="87"/>
-      <c r="AY55" s="87"/>
-      <c r="AZ55" s="85"/>
-      <c r="BA55" s="95" t="s">
+      <c r="AW55" s="97"/>
+      <c r="AX55" s="97"/>
+      <c r="AY55" s="97"/>
+      <c r="AZ55" s="104"/>
+      <c r="BA55" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="BB55" s="87"/>
-      <c r="BC55" s="87"/>
-      <c r="BD55" s="87"/>
-      <c r="BE55" s="87"/>
-      <c r="BF55" s="87"/>
-      <c r="BG55" s="87"/>
-      <c r="BH55" s="87"/>
-      <c r="BI55" s="87"/>
-      <c r="BJ55" s="87"/>
-      <c r="BK55" s="87"/>
-      <c r="BL55" s="87"/>
-      <c r="BM55" s="87"/>
-      <c r="BN55" s="87"/>
-      <c r="BO55" s="87"/>
-      <c r="BP55" s="87"/>
-      <c r="BQ55" s="87"/>
-      <c r="BR55" s="87"/>
-      <c r="BS55" s="87"/>
-      <c r="BT55" s="87"/>
-      <c r="BU55" s="87"/>
-      <c r="BV55" s="87"/>
-      <c r="BW55" s="101"/>
+      <c r="BB55" s="97"/>
+      <c r="BC55" s="97"/>
+      <c r="BD55" s="97"/>
+      <c r="BE55" s="97"/>
+      <c r="BF55" s="97"/>
+      <c r="BG55" s="97"/>
+      <c r="BH55" s="97"/>
+      <c r="BI55" s="97"/>
+      <c r="BJ55" s="97"/>
+      <c r="BK55" s="97"/>
+      <c r="BL55" s="97"/>
+      <c r="BM55" s="97"/>
+      <c r="BN55" s="97"/>
+      <c r="BO55" s="97"/>
+      <c r="BP55" s="97"/>
+      <c r="BQ55" s="97"/>
+      <c r="BR55" s="97"/>
+      <c r="BS55" s="97"/>
+      <c r="BT55" s="97"/>
+      <c r="BU55" s="97"/>
+      <c r="BV55" s="97"/>
+      <c r="BW55" s="102"/>
       <c r="BX55" s="55"/>
       <c r="BY55" s="33"/>
       <c r="BZ55" s="33"/>
@@ -9551,14 +9572,14 @@
     <row r="56" spans="1:96" ht="13.5">
       <c r="A56" s="45"/>
       <c r="B56" s="57"/>
-      <c r="C56" s="112" t="s">
+      <c r="C56" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
       <c r="I56" s="58"/>
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
@@ -9589,43 +9610,43 @@
       <c r="AJ56" s="33"/>
       <c r="AK56" s="33"/>
       <c r="AL56" s="55"/>
-      <c r="AM56" s="96"/>
-      <c r="AN56" s="102"/>
-      <c r="AO56" s="96"/>
-      <c r="AP56" s="96"/>
-      <c r="AQ56" s="96"/>
-      <c r="AR56" s="96"/>
-      <c r="AS56" s="96"/>
-      <c r="AT56" s="96"/>
-      <c r="AU56" s="97"/>
-      <c r="AV56" s="96"/>
-      <c r="AW56" s="96"/>
-      <c r="AX56" s="96"/>
-      <c r="AY56" s="96"/>
-      <c r="AZ56" s="97"/>
-      <c r="BA56" s="96"/>
-      <c r="BB56" s="96"/>
-      <c r="BC56" s="96"/>
-      <c r="BD56" s="96"/>
-      <c r="BE56" s="96"/>
-      <c r="BF56" s="96"/>
-      <c r="BG56" s="96"/>
-      <c r="BH56" s="96"/>
-      <c r="BI56" s="96"/>
-      <c r="BJ56" s="96"/>
-      <c r="BK56" s="96"/>
-      <c r="BL56" s="96"/>
-      <c r="BM56" s="96"/>
-      <c r="BN56" s="96"/>
-      <c r="BO56" s="96"/>
-      <c r="BP56" s="96"/>
-      <c r="BQ56" s="96"/>
-      <c r="BR56" s="96"/>
-      <c r="BS56" s="96"/>
-      <c r="BT56" s="96"/>
-      <c r="BU56" s="96"/>
-      <c r="BV56" s="96"/>
-      <c r="BW56" s="102"/>
+      <c r="AM56" s="89"/>
+      <c r="AN56" s="90"/>
+      <c r="AO56" s="89"/>
+      <c r="AP56" s="89"/>
+      <c r="AQ56" s="89"/>
+      <c r="AR56" s="89"/>
+      <c r="AS56" s="89"/>
+      <c r="AT56" s="89"/>
+      <c r="AU56" s="108"/>
+      <c r="AV56" s="89"/>
+      <c r="AW56" s="89"/>
+      <c r="AX56" s="89"/>
+      <c r="AY56" s="89"/>
+      <c r="AZ56" s="108"/>
+      <c r="BA56" s="89"/>
+      <c r="BB56" s="89"/>
+      <c r="BC56" s="89"/>
+      <c r="BD56" s="89"/>
+      <c r="BE56" s="89"/>
+      <c r="BF56" s="89"/>
+      <c r="BG56" s="89"/>
+      <c r="BH56" s="89"/>
+      <c r="BI56" s="89"/>
+      <c r="BJ56" s="89"/>
+      <c r="BK56" s="89"/>
+      <c r="BL56" s="89"/>
+      <c r="BM56" s="89"/>
+      <c r="BN56" s="89"/>
+      <c r="BO56" s="89"/>
+      <c r="BP56" s="89"/>
+      <c r="BQ56" s="89"/>
+      <c r="BR56" s="89"/>
+      <c r="BS56" s="89"/>
+      <c r="BT56" s="89"/>
+      <c r="BU56" s="89"/>
+      <c r="BV56" s="89"/>
+      <c r="BW56" s="90"/>
       <c r="BX56" s="55"/>
       <c r="BY56" s="33"/>
       <c r="BZ56" s="33"/>
@@ -9633,12 +9654,12 @@
     <row r="57" spans="1:96">
       <c r="A57" s="45"/>
       <c r="B57" s="60"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
       <c r="K57" s="33"/>
@@ -9669,10 +9690,10 @@
       <c r="AJ57" s="33"/>
       <c r="AK57" s="33"/>
       <c r="AL57" s="55"/>
-      <c r="AM57" s="84" t="s">
+      <c r="AM57" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="AN57" s="85"/>
+      <c r="AN57" s="104"/>
       <c r="AO57" s="61" t="s">
         <v>77</v>
       </c>
@@ -9839,10 +9860,10 @@
       <c r="AJ59" s="33"/>
       <c r="AK59" s="33"/>
       <c r="AL59" s="55"/>
-      <c r="AM59" s="88">
+      <c r="AM59" s="116">
         <v>2</v>
       </c>
-      <c r="AN59" s="87"/>
+      <c r="AN59" s="97"/>
       <c r="AO59" s="66" t="s">
         <v>80</v>
       </c>
@@ -10073,10 +10094,10 @@
       <c r="AJ62" s="33"/>
       <c r="AK62" s="33"/>
       <c r="AL62" s="55"/>
-      <c r="AM62" s="86" t="s">
+      <c r="AM62" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="AN62" s="87"/>
+      <c r="AN62" s="97"/>
       <c r="AO62" s="68" t="s">
         <v>84</v>
       </c>
@@ -10129,16 +10150,16 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="114" t="s">
+      <c r="G63" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="113"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="115"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="132"/>
       <c r="O63" s="33"/>
       <c r="P63" s="33"/>
       <c r="Q63" s="33"/>
@@ -10211,14 +10232,14 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="91"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="92"/>
+      <c r="L64" s="92"/>
+      <c r="M64" s="92"/>
+      <c r="N64" s="94"/>
       <c r="O64" s="33"/>
       <c r="P64" s="33"/>
       <c r="Q64" s="33"/>
@@ -13405,65 +13426,65 @@
       <c r="BZ103" s="33"/>
     </row>
     <row r="104" spans="1:78" ht="17.25">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="93"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="93"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="103" t="s">
+      <c r="B104" s="106"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="115"/>
+      <c r="F104" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G104" s="93"/>
-      <c r="H104" s="93"/>
-      <c r="I104" s="93"/>
-      <c r="J104" s="93"/>
-      <c r="K104" s="93"/>
-      <c r="L104" s="93"/>
-      <c r="M104" s="93"/>
-      <c r="N104" s="93"/>
-      <c r="O104" s="93"/>
-      <c r="P104" s="93"/>
-      <c r="Q104" s="93"/>
-      <c r="R104" s="93"/>
-      <c r="S104" s="93"/>
-      <c r="T104" s="93"/>
-      <c r="U104" s="93"/>
-      <c r="V104" s="93"/>
-      <c r="W104" s="93"/>
-      <c r="X104" s="93"/>
-      <c r="Y104" s="93"/>
-      <c r="Z104" s="93"/>
-      <c r="AA104" s="93"/>
-      <c r="AB104" s="93"/>
-      <c r="AC104" s="93"/>
-      <c r="AD104" s="93"/>
-      <c r="AE104" s="93"/>
-      <c r="AF104" s="93"/>
-      <c r="AG104" s="93"/>
-      <c r="AH104" s="93"/>
-      <c r="AI104" s="93"/>
-      <c r="AJ104" s="93"/>
-      <c r="AK104" s="93"/>
-      <c r="AL104" s="93"/>
-      <c r="AM104" s="93"/>
-      <c r="AN104" s="93"/>
-      <c r="AO104" s="93"/>
-      <c r="AP104" s="93"/>
-      <c r="AQ104" s="93"/>
-      <c r="AR104" s="93"/>
-      <c r="AS104" s="93"/>
-      <c r="AT104" s="93"/>
-      <c r="AU104" s="93"/>
-      <c r="AV104" s="94"/>
-      <c r="AW104" s="92" t="s">
+      <c r="G104" s="106"/>
+      <c r="H104" s="106"/>
+      <c r="I104" s="106"/>
+      <c r="J104" s="106"/>
+      <c r="K104" s="106"/>
+      <c r="L104" s="106"/>
+      <c r="M104" s="106"/>
+      <c r="N104" s="106"/>
+      <c r="O104" s="106"/>
+      <c r="P104" s="106"/>
+      <c r="Q104" s="106"/>
+      <c r="R104" s="106"/>
+      <c r="S104" s="106"/>
+      <c r="T104" s="106"/>
+      <c r="U104" s="106"/>
+      <c r="V104" s="106"/>
+      <c r="W104" s="106"/>
+      <c r="X104" s="106"/>
+      <c r="Y104" s="106"/>
+      <c r="Z104" s="106"/>
+      <c r="AA104" s="106"/>
+      <c r="AB104" s="106"/>
+      <c r="AC104" s="106"/>
+      <c r="AD104" s="106"/>
+      <c r="AE104" s="106"/>
+      <c r="AF104" s="106"/>
+      <c r="AG104" s="106"/>
+      <c r="AH104" s="106"/>
+      <c r="AI104" s="106"/>
+      <c r="AJ104" s="106"/>
+      <c r="AK104" s="106"/>
+      <c r="AL104" s="106"/>
+      <c r="AM104" s="106"/>
+      <c r="AN104" s="106"/>
+      <c r="AO104" s="106"/>
+      <c r="AP104" s="106"/>
+      <c r="AQ104" s="106"/>
+      <c r="AR104" s="106"/>
+      <c r="AS104" s="106"/>
+      <c r="AT104" s="106"/>
+      <c r="AU104" s="106"/>
+      <c r="AV104" s="107"/>
+      <c r="AW104" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AX104" s="93"/>
-      <c r="AY104" s="93"/>
-      <c r="AZ104" s="93"/>
-      <c r="BA104" s="94"/>
+      <c r="AX104" s="106"/>
+      <c r="AY104" s="106"/>
+      <c r="AZ104" s="106"/>
+      <c r="BA104" s="107"/>
       <c r="BB104" s="81" t="s">
         <v>72</v>
       </c>
@@ -13475,120 +13496,120 @@
       <c r="BH104" s="82"/>
       <c r="BI104" s="82"/>
       <c r="BJ104" s="83"/>
-      <c r="BK104" s="92" t="s">
+      <c r="BK104" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="BL104" s="93"/>
-      <c r="BM104" s="93"/>
-      <c r="BN104" s="93"/>
-      <c r="BO104" s="94"/>
-      <c r="BP104" s="110" t="s">
+      <c r="BL104" s="106"/>
+      <c r="BM104" s="106"/>
+      <c r="BN104" s="106"/>
+      <c r="BO104" s="107"/>
+      <c r="BP104" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ104" s="93"/>
-      <c r="BR104" s="93"/>
-      <c r="BS104" s="93"/>
-      <c r="BT104" s="93"/>
-      <c r="BU104" s="93"/>
-      <c r="BV104" s="93"/>
-      <c r="BW104" s="93"/>
-      <c r="BX104" s="106"/>
+      <c r="BQ104" s="106"/>
+      <c r="BR104" s="106"/>
+      <c r="BS104" s="106"/>
+      <c r="BT104" s="106"/>
+      <c r="BU104" s="106"/>
+      <c r="BV104" s="106"/>
+      <c r="BW104" s="106"/>
+      <c r="BX104" s="115"/>
       <c r="BY104" s="54"/>
       <c r="BZ104" s="54"/>
     </row>
     <row r="105" spans="1:78" ht="18">
-      <c r="A105" s="107" t="s">
+      <c r="A105" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="90"/>
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="104" t="s">
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="126"/>
+      <c r="F105" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="90"/>
-      <c r="H105" s="90"/>
-      <c r="I105" s="90"/>
-      <c r="J105" s="90"/>
-      <c r="K105" s="90"/>
-      <c r="L105" s="90"/>
-      <c r="M105" s="90"/>
-      <c r="N105" s="90"/>
-      <c r="O105" s="90"/>
-      <c r="P105" s="90"/>
-      <c r="Q105" s="90"/>
-      <c r="R105" s="90"/>
-      <c r="S105" s="90"/>
-      <c r="T105" s="90"/>
-      <c r="U105" s="90"/>
-      <c r="V105" s="90"/>
-      <c r="W105" s="90"/>
-      <c r="X105" s="90"/>
-      <c r="Y105" s="91"/>
-      <c r="Z105" s="89" t="s">
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="92"/>
+      <c r="L105" s="92"/>
+      <c r="M105" s="92"/>
+      <c r="N105" s="92"/>
+      <c r="O105" s="92"/>
+      <c r="P105" s="92"/>
+      <c r="Q105" s="92"/>
+      <c r="R105" s="92"/>
+      <c r="S105" s="92"/>
+      <c r="T105" s="92"/>
+      <c r="U105" s="92"/>
+      <c r="V105" s="92"/>
+      <c r="W105" s="92"/>
+      <c r="X105" s="92"/>
+      <c r="Y105" s="94"/>
+      <c r="Z105" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="AA105" s="90"/>
-      <c r="AB105" s="90"/>
-      <c r="AC105" s="90"/>
-      <c r="AD105" s="91"/>
-      <c r="AE105" s="104" t="s">
+      <c r="AA105" s="92"/>
+      <c r="AB105" s="92"/>
+      <c r="AC105" s="92"/>
+      <c r="AD105" s="94"/>
+      <c r="AE105" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="AF105" s="90"/>
-      <c r="AG105" s="90"/>
-      <c r="AH105" s="90"/>
-      <c r="AI105" s="90"/>
-      <c r="AJ105" s="90"/>
-      <c r="AK105" s="90"/>
-      <c r="AL105" s="90"/>
-      <c r="AM105" s="90"/>
-      <c r="AN105" s="90"/>
-      <c r="AO105" s="90"/>
-      <c r="AP105" s="90"/>
-      <c r="AQ105" s="90"/>
-      <c r="AR105" s="90"/>
-      <c r="AS105" s="90"/>
-      <c r="AT105" s="90"/>
-      <c r="AU105" s="90"/>
-      <c r="AV105" s="91"/>
-      <c r="AW105" s="89" t="s">
+      <c r="AF105" s="92"/>
+      <c r="AG105" s="92"/>
+      <c r="AH105" s="92"/>
+      <c r="AI105" s="92"/>
+      <c r="AJ105" s="92"/>
+      <c r="AK105" s="92"/>
+      <c r="AL105" s="92"/>
+      <c r="AM105" s="92"/>
+      <c r="AN105" s="92"/>
+      <c r="AO105" s="92"/>
+      <c r="AP105" s="92"/>
+      <c r="AQ105" s="92"/>
+      <c r="AR105" s="92"/>
+      <c r="AS105" s="92"/>
+      <c r="AT105" s="92"/>
+      <c r="AU105" s="92"/>
+      <c r="AV105" s="94"/>
+      <c r="AW105" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AX105" s="90"/>
-      <c r="AY105" s="90"/>
-      <c r="AZ105" s="90"/>
-      <c r="BA105" s="91"/>
-      <c r="BB105" s="98" t="s">
+      <c r="AX105" s="92"/>
+      <c r="AY105" s="92"/>
+      <c r="AZ105" s="92"/>
+      <c r="BA105" s="94"/>
+      <c r="BB105" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BC105" s="90"/>
-      <c r="BD105" s="90"/>
-      <c r="BE105" s="90"/>
-      <c r="BF105" s="90"/>
-      <c r="BG105" s="90"/>
-      <c r="BH105" s="90"/>
-      <c r="BI105" s="90"/>
-      <c r="BJ105" s="90"/>
-      <c r="BK105" s="89" t="s">
+      <c r="BC105" s="92"/>
+      <c r="BD105" s="92"/>
+      <c r="BE105" s="92"/>
+      <c r="BF105" s="92"/>
+      <c r="BG105" s="92"/>
+      <c r="BH105" s="92"/>
+      <c r="BI105" s="92"/>
+      <c r="BJ105" s="92"/>
+      <c r="BK105" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="BL105" s="90"/>
-      <c r="BM105" s="90"/>
-      <c r="BN105" s="90"/>
-      <c r="BO105" s="91"/>
-      <c r="BP105" s="110" t="s">
+      <c r="BL105" s="92"/>
+      <c r="BM105" s="92"/>
+      <c r="BN105" s="92"/>
+      <c r="BO105" s="94"/>
+      <c r="BP105" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ105" s="93"/>
-      <c r="BR105" s="93"/>
-      <c r="BS105" s="93"/>
-      <c r="BT105" s="93"/>
-      <c r="BU105" s="93"/>
-      <c r="BV105" s="93"/>
-      <c r="BW105" s="93"/>
-      <c r="BX105" s="106"/>
+      <c r="BQ105" s="106"/>
+      <c r="BR105" s="106"/>
+      <c r="BS105" s="106"/>
+      <c r="BT105" s="106"/>
+      <c r="BU105" s="106"/>
+      <c r="BV105" s="106"/>
+      <c r="BW105" s="106"/>
+      <c r="BX105" s="115"/>
       <c r="BY105" s="54"/>
       <c r="BZ105" s="54"/>
     </row>
@@ -13793,51 +13814,51 @@
       <c r="AJ108" s="4"/>
       <c r="AK108" s="4"/>
       <c r="AL108" s="55"/>
-      <c r="AM108" s="95" t="s">
+      <c r="AM108" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AN108" s="101"/>
-      <c r="AO108" s="95" t="s">
+      <c r="AN108" s="102"/>
+      <c r="AO108" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AP108" s="87"/>
-      <c r="AQ108" s="87"/>
-      <c r="AR108" s="87"/>
-      <c r="AS108" s="87"/>
-      <c r="AT108" s="87"/>
-      <c r="AU108" s="85"/>
-      <c r="AV108" s="95" t="s">
+      <c r="AP108" s="97"/>
+      <c r="AQ108" s="97"/>
+      <c r="AR108" s="97"/>
+      <c r="AS108" s="97"/>
+      <c r="AT108" s="97"/>
+      <c r="AU108" s="104"/>
+      <c r="AV108" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AW108" s="87"/>
-      <c r="AX108" s="87"/>
-      <c r="AY108" s="87"/>
-      <c r="AZ108" s="85"/>
-      <c r="BA108" s="95" t="s">
+      <c r="AW108" s="97"/>
+      <c r="AX108" s="97"/>
+      <c r="AY108" s="97"/>
+      <c r="AZ108" s="104"/>
+      <c r="BA108" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="BB108" s="87"/>
-      <c r="BC108" s="87"/>
-      <c r="BD108" s="87"/>
-      <c r="BE108" s="87"/>
-      <c r="BF108" s="87"/>
-      <c r="BG108" s="87"/>
-      <c r="BH108" s="87"/>
-      <c r="BI108" s="87"/>
-      <c r="BJ108" s="87"/>
-      <c r="BK108" s="87"/>
-      <c r="BL108" s="87"/>
-      <c r="BM108" s="87"/>
-      <c r="BN108" s="87"/>
-      <c r="BO108" s="87"/>
-      <c r="BP108" s="87"/>
-      <c r="BQ108" s="87"/>
-      <c r="BR108" s="87"/>
-      <c r="BS108" s="87"/>
-      <c r="BT108" s="87"/>
-      <c r="BU108" s="87"/>
-      <c r="BV108" s="87"/>
-      <c r="BW108" s="101"/>
+      <c r="BB108" s="97"/>
+      <c r="BC108" s="97"/>
+      <c r="BD108" s="97"/>
+      <c r="BE108" s="97"/>
+      <c r="BF108" s="97"/>
+      <c r="BG108" s="97"/>
+      <c r="BH108" s="97"/>
+      <c r="BI108" s="97"/>
+      <c r="BJ108" s="97"/>
+      <c r="BK108" s="97"/>
+      <c r="BL108" s="97"/>
+      <c r="BM108" s="97"/>
+      <c r="BN108" s="97"/>
+      <c r="BO108" s="97"/>
+      <c r="BP108" s="97"/>
+      <c r="BQ108" s="97"/>
+      <c r="BR108" s="97"/>
+      <c r="BS108" s="97"/>
+      <c r="BT108" s="97"/>
+      <c r="BU108" s="97"/>
+      <c r="BV108" s="97"/>
+      <c r="BW108" s="102"/>
       <c r="BX108" s="55"/>
       <c r="BY108" s="4"/>
       <c r="BZ108" s="4"/>
@@ -13881,43 +13902,43 @@
       <c r="AJ109" s="4"/>
       <c r="AK109" s="4"/>
       <c r="AL109" s="55"/>
-      <c r="AM109" s="96"/>
-      <c r="AN109" s="102"/>
-      <c r="AO109" s="96"/>
-      <c r="AP109" s="96"/>
-      <c r="AQ109" s="96"/>
-      <c r="AR109" s="96"/>
-      <c r="AS109" s="96"/>
-      <c r="AT109" s="96"/>
-      <c r="AU109" s="97"/>
-      <c r="AV109" s="96"/>
-      <c r="AW109" s="96"/>
-      <c r="AX109" s="96"/>
-      <c r="AY109" s="96"/>
-      <c r="AZ109" s="97"/>
-      <c r="BA109" s="96"/>
-      <c r="BB109" s="96"/>
-      <c r="BC109" s="96"/>
-      <c r="BD109" s="96"/>
-      <c r="BE109" s="96"/>
-      <c r="BF109" s="96"/>
-      <c r="BG109" s="96"/>
-      <c r="BH109" s="96"/>
-      <c r="BI109" s="96"/>
-      <c r="BJ109" s="96"/>
-      <c r="BK109" s="96"/>
-      <c r="BL109" s="96"/>
-      <c r="BM109" s="96"/>
-      <c r="BN109" s="96"/>
-      <c r="BO109" s="96"/>
-      <c r="BP109" s="96"/>
-      <c r="BQ109" s="96"/>
-      <c r="BR109" s="96"/>
-      <c r="BS109" s="96"/>
-      <c r="BT109" s="96"/>
-      <c r="BU109" s="96"/>
-      <c r="BV109" s="96"/>
-      <c r="BW109" s="102"/>
+      <c r="AM109" s="89"/>
+      <c r="AN109" s="90"/>
+      <c r="AO109" s="89"/>
+      <c r="AP109" s="89"/>
+      <c r="AQ109" s="89"/>
+      <c r="AR109" s="89"/>
+      <c r="AS109" s="89"/>
+      <c r="AT109" s="89"/>
+      <c r="AU109" s="108"/>
+      <c r="AV109" s="89"/>
+      <c r="AW109" s="89"/>
+      <c r="AX109" s="89"/>
+      <c r="AY109" s="89"/>
+      <c r="AZ109" s="108"/>
+      <c r="BA109" s="89"/>
+      <c r="BB109" s="89"/>
+      <c r="BC109" s="89"/>
+      <c r="BD109" s="89"/>
+      <c r="BE109" s="89"/>
+      <c r="BF109" s="89"/>
+      <c r="BG109" s="89"/>
+      <c r="BH109" s="89"/>
+      <c r="BI109" s="89"/>
+      <c r="BJ109" s="89"/>
+      <c r="BK109" s="89"/>
+      <c r="BL109" s="89"/>
+      <c r="BM109" s="89"/>
+      <c r="BN109" s="89"/>
+      <c r="BO109" s="89"/>
+      <c r="BP109" s="89"/>
+      <c r="BQ109" s="89"/>
+      <c r="BR109" s="89"/>
+      <c r="BS109" s="89"/>
+      <c r="BT109" s="89"/>
+      <c r="BU109" s="89"/>
+      <c r="BV109" s="89"/>
+      <c r="BW109" s="90"/>
       <c r="BX109" s="55"/>
       <c r="BY109" s="4"/>
       <c r="BZ109" s="4"/>
@@ -13961,10 +13982,10 @@
       <c r="AJ110" s="4"/>
       <c r="AK110" s="4"/>
       <c r="AL110" s="55"/>
-      <c r="AM110" s="84" t="s">
+      <c r="AM110" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="AN110" s="85"/>
+      <c r="AN110" s="104"/>
       <c r="AO110" s="61" t="s">
         <v>89</v>
       </c>
@@ -14129,8 +14150,8 @@
       <c r="AJ112" s="4"/>
       <c r="AK112" s="4"/>
       <c r="AL112" s="55"/>
-      <c r="AM112" s="88"/>
-      <c r="AN112" s="87"/>
+      <c r="AM112" s="116"/>
+      <c r="AN112" s="97"/>
       <c r="AO112" s="66"/>
       <c r="AP112" s="33"/>
       <c r="AQ112" s="33"/>
@@ -14369,8 +14390,8 @@
       <c r="AJ115" s="4"/>
       <c r="AK115" s="4"/>
       <c r="AL115" s="55"/>
-      <c r="AM115" s="86"/>
-      <c r="AN115" s="87"/>
+      <c r="AM115" s="136"/>
+      <c r="AN115" s="97"/>
       <c r="AO115" s="68"/>
       <c r="AP115" s="33"/>
       <c r="AQ115" s="33"/>
@@ -17691,65 +17712,65 @@
       <c r="BZ156" s="4"/>
     </row>
     <row r="157" spans="1:78" ht="17.25">
-      <c r="A157" s="105" t="s">
+      <c r="A157" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="93"/>
-      <c r="C157" s="93"/>
-      <c r="D157" s="93"/>
-      <c r="E157" s="106"/>
-      <c r="F157" s="103" t="s">
+      <c r="B157" s="106"/>
+      <c r="C157" s="106"/>
+      <c r="D157" s="106"/>
+      <c r="E157" s="115"/>
+      <c r="F157" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G157" s="93"/>
-      <c r="H157" s="93"/>
-      <c r="I157" s="93"/>
-      <c r="J157" s="93"/>
-      <c r="K157" s="93"/>
-      <c r="L157" s="93"/>
-      <c r="M157" s="93"/>
-      <c r="N157" s="93"/>
-      <c r="O157" s="93"/>
-      <c r="P157" s="93"/>
-      <c r="Q157" s="93"/>
-      <c r="R157" s="93"/>
-      <c r="S157" s="93"/>
-      <c r="T157" s="93"/>
-      <c r="U157" s="93"/>
-      <c r="V157" s="93"/>
-      <c r="W157" s="93"/>
-      <c r="X157" s="93"/>
-      <c r="Y157" s="93"/>
-      <c r="Z157" s="93"/>
-      <c r="AA157" s="93"/>
-      <c r="AB157" s="93"/>
-      <c r="AC157" s="93"/>
-      <c r="AD157" s="93"/>
-      <c r="AE157" s="93"/>
-      <c r="AF157" s="93"/>
-      <c r="AG157" s="93"/>
-      <c r="AH157" s="93"/>
-      <c r="AI157" s="93"/>
-      <c r="AJ157" s="93"/>
-      <c r="AK157" s="93"/>
-      <c r="AL157" s="93"/>
-      <c r="AM157" s="93"/>
-      <c r="AN157" s="93"/>
-      <c r="AO157" s="93"/>
-      <c r="AP157" s="93"/>
-      <c r="AQ157" s="93"/>
-      <c r="AR157" s="93"/>
-      <c r="AS157" s="93"/>
-      <c r="AT157" s="93"/>
-      <c r="AU157" s="93"/>
-      <c r="AV157" s="94"/>
-      <c r="AW157" s="92" t="s">
+      <c r="G157" s="106"/>
+      <c r="H157" s="106"/>
+      <c r="I157" s="106"/>
+      <c r="J157" s="106"/>
+      <c r="K157" s="106"/>
+      <c r="L157" s="106"/>
+      <c r="M157" s="106"/>
+      <c r="N157" s="106"/>
+      <c r="O157" s="106"/>
+      <c r="P157" s="106"/>
+      <c r="Q157" s="106"/>
+      <c r="R157" s="106"/>
+      <c r="S157" s="106"/>
+      <c r="T157" s="106"/>
+      <c r="U157" s="106"/>
+      <c r="V157" s="106"/>
+      <c r="W157" s="106"/>
+      <c r="X157" s="106"/>
+      <c r="Y157" s="106"/>
+      <c r="Z157" s="106"/>
+      <c r="AA157" s="106"/>
+      <c r="AB157" s="106"/>
+      <c r="AC157" s="106"/>
+      <c r="AD157" s="106"/>
+      <c r="AE157" s="106"/>
+      <c r="AF157" s="106"/>
+      <c r="AG157" s="106"/>
+      <c r="AH157" s="106"/>
+      <c r="AI157" s="106"/>
+      <c r="AJ157" s="106"/>
+      <c r="AK157" s="106"/>
+      <c r="AL157" s="106"/>
+      <c r="AM157" s="106"/>
+      <c r="AN157" s="106"/>
+      <c r="AO157" s="106"/>
+      <c r="AP157" s="106"/>
+      <c r="AQ157" s="106"/>
+      <c r="AR157" s="106"/>
+      <c r="AS157" s="106"/>
+      <c r="AT157" s="106"/>
+      <c r="AU157" s="106"/>
+      <c r="AV157" s="107"/>
+      <c r="AW157" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AX157" s="93"/>
-      <c r="AY157" s="93"/>
-      <c r="AZ157" s="93"/>
-      <c r="BA157" s="94"/>
+      <c r="AX157" s="106"/>
+      <c r="AY157" s="106"/>
+      <c r="AZ157" s="106"/>
+      <c r="BA157" s="107"/>
       <c r="BB157" s="81" t="s">
         <v>72</v>
       </c>
@@ -17761,120 +17782,120 @@
       <c r="BH157" s="82"/>
       <c r="BI157" s="82"/>
       <c r="BJ157" s="83"/>
-      <c r="BK157" s="92" t="s">
+      <c r="BK157" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="BL157" s="93"/>
-      <c r="BM157" s="93"/>
-      <c r="BN157" s="93"/>
-      <c r="BO157" s="94"/>
-      <c r="BP157" s="110" t="s">
+      <c r="BL157" s="106"/>
+      <c r="BM157" s="106"/>
+      <c r="BN157" s="106"/>
+      <c r="BO157" s="107"/>
+      <c r="BP157" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ157" s="93"/>
-      <c r="BR157" s="93"/>
-      <c r="BS157" s="93"/>
-      <c r="BT157" s="93"/>
-      <c r="BU157" s="93"/>
-      <c r="BV157" s="93"/>
-      <c r="BW157" s="93"/>
-      <c r="BX157" s="106"/>
+      <c r="BQ157" s="106"/>
+      <c r="BR157" s="106"/>
+      <c r="BS157" s="106"/>
+      <c r="BT157" s="106"/>
+      <c r="BU157" s="106"/>
+      <c r="BV157" s="106"/>
+      <c r="BW157" s="106"/>
+      <c r="BX157" s="115"/>
       <c r="BY157" s="54"/>
       <c r="BZ157" s="54"/>
     </row>
     <row r="158" spans="1:78" ht="18">
-      <c r="A158" s="107" t="s">
+      <c r="A158" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B158" s="90"/>
-      <c r="C158" s="90"/>
-      <c r="D158" s="90"/>
-      <c r="E158" s="108"/>
-      <c r="F158" s="104" t="s">
+      <c r="B158" s="92"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="126"/>
+      <c r="F158" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G158" s="90"/>
-      <c r="H158" s="90"/>
-      <c r="I158" s="90"/>
-      <c r="J158" s="90"/>
-      <c r="K158" s="90"/>
-      <c r="L158" s="90"/>
-      <c r="M158" s="90"/>
-      <c r="N158" s="90"/>
-      <c r="O158" s="90"/>
-      <c r="P158" s="90"/>
-      <c r="Q158" s="90"/>
-      <c r="R158" s="90"/>
-      <c r="S158" s="90"/>
-      <c r="T158" s="90"/>
-      <c r="U158" s="90"/>
-      <c r="V158" s="90"/>
-      <c r="W158" s="90"/>
-      <c r="X158" s="90"/>
-      <c r="Y158" s="91"/>
-      <c r="Z158" s="89" t="s">
+      <c r="G158" s="92"/>
+      <c r="H158" s="92"/>
+      <c r="I158" s="92"/>
+      <c r="J158" s="92"/>
+      <c r="K158" s="92"/>
+      <c r="L158" s="92"/>
+      <c r="M158" s="92"/>
+      <c r="N158" s="92"/>
+      <c r="O158" s="92"/>
+      <c r="P158" s="92"/>
+      <c r="Q158" s="92"/>
+      <c r="R158" s="92"/>
+      <c r="S158" s="92"/>
+      <c r="T158" s="92"/>
+      <c r="U158" s="92"/>
+      <c r="V158" s="92"/>
+      <c r="W158" s="92"/>
+      <c r="X158" s="92"/>
+      <c r="Y158" s="94"/>
+      <c r="Z158" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="AA158" s="90"/>
-      <c r="AB158" s="90"/>
-      <c r="AC158" s="90"/>
-      <c r="AD158" s="91"/>
-      <c r="AE158" s="104" t="s">
+      <c r="AA158" s="92"/>
+      <c r="AB158" s="92"/>
+      <c r="AC158" s="92"/>
+      <c r="AD158" s="94"/>
+      <c r="AE158" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="AF158" s="90"/>
-      <c r="AG158" s="90"/>
-      <c r="AH158" s="90"/>
-      <c r="AI158" s="90"/>
-      <c r="AJ158" s="90"/>
-      <c r="AK158" s="90"/>
-      <c r="AL158" s="90"/>
-      <c r="AM158" s="90"/>
-      <c r="AN158" s="90"/>
-      <c r="AO158" s="90"/>
-      <c r="AP158" s="90"/>
-      <c r="AQ158" s="90"/>
-      <c r="AR158" s="90"/>
-      <c r="AS158" s="90"/>
-      <c r="AT158" s="90"/>
-      <c r="AU158" s="90"/>
-      <c r="AV158" s="91"/>
-      <c r="AW158" s="89" t="s">
+      <c r="AF158" s="92"/>
+      <c r="AG158" s="92"/>
+      <c r="AH158" s="92"/>
+      <c r="AI158" s="92"/>
+      <c r="AJ158" s="92"/>
+      <c r="AK158" s="92"/>
+      <c r="AL158" s="92"/>
+      <c r="AM158" s="92"/>
+      <c r="AN158" s="92"/>
+      <c r="AO158" s="92"/>
+      <c r="AP158" s="92"/>
+      <c r="AQ158" s="92"/>
+      <c r="AR158" s="92"/>
+      <c r="AS158" s="92"/>
+      <c r="AT158" s="92"/>
+      <c r="AU158" s="92"/>
+      <c r="AV158" s="94"/>
+      <c r="AW158" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AX158" s="90"/>
-      <c r="AY158" s="90"/>
-      <c r="AZ158" s="90"/>
-      <c r="BA158" s="91"/>
-      <c r="BB158" s="98" t="s">
+      <c r="AX158" s="92"/>
+      <c r="AY158" s="92"/>
+      <c r="AZ158" s="92"/>
+      <c r="BA158" s="94"/>
+      <c r="BB158" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BC158" s="90"/>
-      <c r="BD158" s="90"/>
-      <c r="BE158" s="90"/>
-      <c r="BF158" s="90"/>
-      <c r="BG158" s="90"/>
-      <c r="BH158" s="90"/>
-      <c r="BI158" s="90"/>
-      <c r="BJ158" s="90"/>
-      <c r="BK158" s="89" t="s">
+      <c r="BC158" s="92"/>
+      <c r="BD158" s="92"/>
+      <c r="BE158" s="92"/>
+      <c r="BF158" s="92"/>
+      <c r="BG158" s="92"/>
+      <c r="BH158" s="92"/>
+      <c r="BI158" s="92"/>
+      <c r="BJ158" s="92"/>
+      <c r="BK158" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="BL158" s="90"/>
-      <c r="BM158" s="90"/>
-      <c r="BN158" s="90"/>
-      <c r="BO158" s="91"/>
-      <c r="BP158" s="110" t="s">
+      <c r="BL158" s="92"/>
+      <c r="BM158" s="92"/>
+      <c r="BN158" s="92"/>
+      <c r="BO158" s="94"/>
+      <c r="BP158" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ158" s="93"/>
-      <c r="BR158" s="93"/>
-      <c r="BS158" s="93"/>
-      <c r="BT158" s="93"/>
-      <c r="BU158" s="93"/>
-      <c r="BV158" s="93"/>
-      <c r="BW158" s="93"/>
-      <c r="BX158" s="106"/>
+      <c r="BQ158" s="106"/>
+      <c r="BR158" s="106"/>
+      <c r="BS158" s="106"/>
+      <c r="BT158" s="106"/>
+      <c r="BU158" s="106"/>
+      <c r="BV158" s="106"/>
+      <c r="BW158" s="106"/>
+      <c r="BX158" s="115"/>
       <c r="BY158" s="54"/>
       <c r="BZ158" s="54"/>
     </row>
@@ -18078,51 +18099,51 @@
       <c r="AJ161" s="4"/>
       <c r="AK161" s="4"/>
       <c r="AL161" s="55"/>
-      <c r="AM161" s="95" t="s">
+      <c r="AM161" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AN161" s="101"/>
-      <c r="AO161" s="95" t="s">
+      <c r="AN161" s="102"/>
+      <c r="AO161" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AP161" s="87"/>
-      <c r="AQ161" s="87"/>
-      <c r="AR161" s="87"/>
-      <c r="AS161" s="87"/>
-      <c r="AT161" s="87"/>
-      <c r="AU161" s="85"/>
-      <c r="AV161" s="95" t="s">
+      <c r="AP161" s="97"/>
+      <c r="AQ161" s="97"/>
+      <c r="AR161" s="97"/>
+      <c r="AS161" s="97"/>
+      <c r="AT161" s="97"/>
+      <c r="AU161" s="104"/>
+      <c r="AV161" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AW161" s="87"/>
-      <c r="AX161" s="87"/>
-      <c r="AY161" s="87"/>
-      <c r="AZ161" s="85"/>
-      <c r="BA161" s="95" t="s">
+      <c r="AW161" s="97"/>
+      <c r="AX161" s="97"/>
+      <c r="AY161" s="97"/>
+      <c r="AZ161" s="104"/>
+      <c r="BA161" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="BB161" s="87"/>
-      <c r="BC161" s="87"/>
-      <c r="BD161" s="87"/>
-      <c r="BE161" s="87"/>
-      <c r="BF161" s="87"/>
-      <c r="BG161" s="87"/>
-      <c r="BH161" s="87"/>
-      <c r="BI161" s="87"/>
-      <c r="BJ161" s="87"/>
-      <c r="BK161" s="87"/>
-      <c r="BL161" s="87"/>
-      <c r="BM161" s="87"/>
-      <c r="BN161" s="87"/>
-      <c r="BO161" s="87"/>
-      <c r="BP161" s="87"/>
-      <c r="BQ161" s="87"/>
-      <c r="BR161" s="87"/>
-      <c r="BS161" s="87"/>
-      <c r="BT161" s="87"/>
-      <c r="BU161" s="87"/>
-      <c r="BV161" s="87"/>
-      <c r="BW161" s="101"/>
+      <c r="BB161" s="97"/>
+      <c r="BC161" s="97"/>
+      <c r="BD161" s="97"/>
+      <c r="BE161" s="97"/>
+      <c r="BF161" s="97"/>
+      <c r="BG161" s="97"/>
+      <c r="BH161" s="97"/>
+      <c r="BI161" s="97"/>
+      <c r="BJ161" s="97"/>
+      <c r="BK161" s="97"/>
+      <c r="BL161" s="97"/>
+      <c r="BM161" s="97"/>
+      <c r="BN161" s="97"/>
+      <c r="BO161" s="97"/>
+      <c r="BP161" s="97"/>
+      <c r="BQ161" s="97"/>
+      <c r="BR161" s="97"/>
+      <c r="BS161" s="97"/>
+      <c r="BT161" s="97"/>
+      <c r="BU161" s="97"/>
+      <c r="BV161" s="97"/>
+      <c r="BW161" s="102"/>
       <c r="BX161" s="4"/>
       <c r="BY161" s="4"/>
       <c r="BZ161" s="4"/>
@@ -18166,43 +18187,43 @@
       <c r="AJ162" s="4"/>
       <c r="AK162" s="4"/>
       <c r="AL162" s="55"/>
-      <c r="AM162" s="96"/>
-      <c r="AN162" s="102"/>
-      <c r="AO162" s="96"/>
-      <c r="AP162" s="96"/>
-      <c r="AQ162" s="96"/>
-      <c r="AR162" s="96"/>
-      <c r="AS162" s="96"/>
-      <c r="AT162" s="96"/>
-      <c r="AU162" s="97"/>
-      <c r="AV162" s="96"/>
-      <c r="AW162" s="96"/>
-      <c r="AX162" s="96"/>
-      <c r="AY162" s="96"/>
-      <c r="AZ162" s="97"/>
-      <c r="BA162" s="96"/>
-      <c r="BB162" s="96"/>
-      <c r="BC162" s="96"/>
-      <c r="BD162" s="96"/>
-      <c r="BE162" s="96"/>
-      <c r="BF162" s="96"/>
-      <c r="BG162" s="96"/>
-      <c r="BH162" s="96"/>
-      <c r="BI162" s="96"/>
-      <c r="BJ162" s="96"/>
-      <c r="BK162" s="96"/>
-      <c r="BL162" s="96"/>
-      <c r="BM162" s="96"/>
-      <c r="BN162" s="96"/>
-      <c r="BO162" s="96"/>
-      <c r="BP162" s="96"/>
-      <c r="BQ162" s="96"/>
-      <c r="BR162" s="96"/>
-      <c r="BS162" s="96"/>
-      <c r="BT162" s="96"/>
-      <c r="BU162" s="96"/>
-      <c r="BV162" s="96"/>
-      <c r="BW162" s="102"/>
+      <c r="AM162" s="89"/>
+      <c r="AN162" s="90"/>
+      <c r="AO162" s="89"/>
+      <c r="AP162" s="89"/>
+      <c r="AQ162" s="89"/>
+      <c r="AR162" s="89"/>
+      <c r="AS162" s="89"/>
+      <c r="AT162" s="89"/>
+      <c r="AU162" s="108"/>
+      <c r="AV162" s="89"/>
+      <c r="AW162" s="89"/>
+      <c r="AX162" s="89"/>
+      <c r="AY162" s="89"/>
+      <c r="AZ162" s="108"/>
+      <c r="BA162" s="89"/>
+      <c r="BB162" s="89"/>
+      <c r="BC162" s="89"/>
+      <c r="BD162" s="89"/>
+      <c r="BE162" s="89"/>
+      <c r="BF162" s="89"/>
+      <c r="BG162" s="89"/>
+      <c r="BH162" s="89"/>
+      <c r="BI162" s="89"/>
+      <c r="BJ162" s="89"/>
+      <c r="BK162" s="89"/>
+      <c r="BL162" s="89"/>
+      <c r="BM162" s="89"/>
+      <c r="BN162" s="89"/>
+      <c r="BO162" s="89"/>
+      <c r="BP162" s="89"/>
+      <c r="BQ162" s="89"/>
+      <c r="BR162" s="89"/>
+      <c r="BS162" s="89"/>
+      <c r="BT162" s="89"/>
+      <c r="BU162" s="89"/>
+      <c r="BV162" s="89"/>
+      <c r="BW162" s="90"/>
       <c r="BX162" s="4"/>
       <c r="BY162" s="4"/>
       <c r="BZ162" s="4"/>
@@ -18246,10 +18267,10 @@
       <c r="AJ163" s="4"/>
       <c r="AK163" s="4"/>
       <c r="AL163" s="55"/>
-      <c r="AM163" s="84" t="s">
+      <c r="AM163" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="AN163" s="85"/>
+      <c r="AN163" s="104"/>
       <c r="AO163" s="61" t="s">
         <v>89</v>
       </c>
@@ -18416,8 +18437,8 @@
       <c r="AJ165" s="4"/>
       <c r="AK165" s="4"/>
       <c r="AL165" s="55"/>
-      <c r="AM165" s="88"/>
-      <c r="AN165" s="87"/>
+      <c r="AM165" s="116"/>
+      <c r="AN165" s="97"/>
       <c r="AO165" s="66"/>
       <c r="AP165" s="33"/>
       <c r="AQ165" s="33"/>
@@ -18656,8 +18677,8 @@
       <c r="AJ168" s="4"/>
       <c r="AK168" s="4"/>
       <c r="AL168" s="55"/>
-      <c r="AM168" s="86"/>
-      <c r="AN168" s="87"/>
+      <c r="AM168" s="136"/>
+      <c r="AN168" s="97"/>
       <c r="AO168" s="68"/>
       <c r="AP168" s="33"/>
       <c r="AQ168" s="33"/>
@@ -21978,65 +21999,65 @@
       <c r="BZ209" s="4"/>
     </row>
     <row r="210" spans="1:78" ht="17.25">
-      <c r="A210" s="105" t="s">
+      <c r="A210" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B210" s="93"/>
-      <c r="C210" s="93"/>
-      <c r="D210" s="93"/>
-      <c r="E210" s="106"/>
-      <c r="F210" s="103" t="s">
+      <c r="B210" s="106"/>
+      <c r="C210" s="106"/>
+      <c r="D210" s="106"/>
+      <c r="E210" s="115"/>
+      <c r="F210" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G210" s="93"/>
-      <c r="H210" s="93"/>
-      <c r="I210" s="93"/>
-      <c r="J210" s="93"/>
-      <c r="K210" s="93"/>
-      <c r="L210" s="93"/>
-      <c r="M210" s="93"/>
-      <c r="N210" s="93"/>
-      <c r="O210" s="93"/>
-      <c r="P210" s="93"/>
-      <c r="Q210" s="93"/>
-      <c r="R210" s="93"/>
-      <c r="S210" s="93"/>
-      <c r="T210" s="93"/>
-      <c r="U210" s="93"/>
-      <c r="V210" s="93"/>
-      <c r="W210" s="93"/>
-      <c r="X210" s="93"/>
-      <c r="Y210" s="93"/>
-      <c r="Z210" s="93"/>
-      <c r="AA210" s="93"/>
-      <c r="AB210" s="93"/>
-      <c r="AC210" s="93"/>
-      <c r="AD210" s="93"/>
-      <c r="AE210" s="93"/>
-      <c r="AF210" s="93"/>
-      <c r="AG210" s="93"/>
-      <c r="AH210" s="93"/>
-      <c r="AI210" s="93"/>
-      <c r="AJ210" s="93"/>
-      <c r="AK210" s="93"/>
-      <c r="AL210" s="93"/>
-      <c r="AM210" s="93"/>
-      <c r="AN210" s="93"/>
-      <c r="AO210" s="93"/>
-      <c r="AP210" s="93"/>
-      <c r="AQ210" s="93"/>
-      <c r="AR210" s="93"/>
-      <c r="AS210" s="93"/>
-      <c r="AT210" s="93"/>
-      <c r="AU210" s="93"/>
-      <c r="AV210" s="94"/>
-      <c r="AW210" s="92" t="s">
+      <c r="G210" s="106"/>
+      <c r="H210" s="106"/>
+      <c r="I210" s="106"/>
+      <c r="J210" s="106"/>
+      <c r="K210" s="106"/>
+      <c r="L210" s="106"/>
+      <c r="M210" s="106"/>
+      <c r="N210" s="106"/>
+      <c r="O210" s="106"/>
+      <c r="P210" s="106"/>
+      <c r="Q210" s="106"/>
+      <c r="R210" s="106"/>
+      <c r="S210" s="106"/>
+      <c r="T210" s="106"/>
+      <c r="U210" s="106"/>
+      <c r="V210" s="106"/>
+      <c r="W210" s="106"/>
+      <c r="X210" s="106"/>
+      <c r="Y210" s="106"/>
+      <c r="Z210" s="106"/>
+      <c r="AA210" s="106"/>
+      <c r="AB210" s="106"/>
+      <c r="AC210" s="106"/>
+      <c r="AD210" s="106"/>
+      <c r="AE210" s="106"/>
+      <c r="AF210" s="106"/>
+      <c r="AG210" s="106"/>
+      <c r="AH210" s="106"/>
+      <c r="AI210" s="106"/>
+      <c r="AJ210" s="106"/>
+      <c r="AK210" s="106"/>
+      <c r="AL210" s="106"/>
+      <c r="AM210" s="106"/>
+      <c r="AN210" s="106"/>
+      <c r="AO210" s="106"/>
+      <c r="AP210" s="106"/>
+      <c r="AQ210" s="106"/>
+      <c r="AR210" s="106"/>
+      <c r="AS210" s="106"/>
+      <c r="AT210" s="106"/>
+      <c r="AU210" s="106"/>
+      <c r="AV210" s="107"/>
+      <c r="AW210" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AX210" s="93"/>
-      <c r="AY210" s="93"/>
-      <c r="AZ210" s="93"/>
-      <c r="BA210" s="94"/>
+      <c r="AX210" s="106"/>
+      <c r="AY210" s="106"/>
+      <c r="AZ210" s="106"/>
+      <c r="BA210" s="107"/>
       <c r="BB210" s="81" t="s">
         <v>72</v>
       </c>
@@ -22048,120 +22069,120 @@
       <c r="BH210" s="82"/>
       <c r="BI210" s="82"/>
       <c r="BJ210" s="83"/>
-      <c r="BK210" s="92" t="s">
+      <c r="BK210" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="BL210" s="93"/>
-      <c r="BM210" s="93"/>
-      <c r="BN210" s="93"/>
-      <c r="BO210" s="94"/>
-      <c r="BP210" s="110" t="s">
+      <c r="BL210" s="106"/>
+      <c r="BM210" s="106"/>
+      <c r="BN210" s="106"/>
+      <c r="BO210" s="107"/>
+      <c r="BP210" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ210" s="93"/>
-      <c r="BR210" s="93"/>
-      <c r="BS210" s="93"/>
-      <c r="BT210" s="93"/>
-      <c r="BU210" s="93"/>
-      <c r="BV210" s="93"/>
-      <c r="BW210" s="93"/>
-      <c r="BX210" s="106"/>
+      <c r="BQ210" s="106"/>
+      <c r="BR210" s="106"/>
+      <c r="BS210" s="106"/>
+      <c r="BT210" s="106"/>
+      <c r="BU210" s="106"/>
+      <c r="BV210" s="106"/>
+      <c r="BW210" s="106"/>
+      <c r="BX210" s="115"/>
       <c r="BY210" s="54"/>
       <c r="BZ210" s="54"/>
     </row>
     <row r="211" spans="1:78" ht="18">
-      <c r="A211" s="107" t="s">
+      <c r="A211" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B211" s="90"/>
-      <c r="C211" s="90"/>
-      <c r="D211" s="90"/>
-      <c r="E211" s="108"/>
-      <c r="F211" s="104" t="s">
+      <c r="B211" s="92"/>
+      <c r="C211" s="92"/>
+      <c r="D211" s="92"/>
+      <c r="E211" s="126"/>
+      <c r="F211" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G211" s="90"/>
-      <c r="H211" s="90"/>
-      <c r="I211" s="90"/>
-      <c r="J211" s="90"/>
-      <c r="K211" s="90"/>
-      <c r="L211" s="90"/>
-      <c r="M211" s="90"/>
-      <c r="N211" s="90"/>
-      <c r="O211" s="90"/>
-      <c r="P211" s="90"/>
-      <c r="Q211" s="90"/>
-      <c r="R211" s="90"/>
-      <c r="S211" s="90"/>
-      <c r="T211" s="90"/>
-      <c r="U211" s="90"/>
-      <c r="V211" s="90"/>
-      <c r="W211" s="90"/>
-      <c r="X211" s="90"/>
-      <c r="Y211" s="91"/>
-      <c r="Z211" s="89" t="s">
+      <c r="G211" s="92"/>
+      <c r="H211" s="92"/>
+      <c r="I211" s="92"/>
+      <c r="J211" s="92"/>
+      <c r="K211" s="92"/>
+      <c r="L211" s="92"/>
+      <c r="M211" s="92"/>
+      <c r="N211" s="92"/>
+      <c r="O211" s="92"/>
+      <c r="P211" s="92"/>
+      <c r="Q211" s="92"/>
+      <c r="R211" s="92"/>
+      <c r="S211" s="92"/>
+      <c r="T211" s="92"/>
+      <c r="U211" s="92"/>
+      <c r="V211" s="92"/>
+      <c r="W211" s="92"/>
+      <c r="X211" s="92"/>
+      <c r="Y211" s="94"/>
+      <c r="Z211" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="AA211" s="90"/>
-      <c r="AB211" s="90"/>
-      <c r="AC211" s="90"/>
-      <c r="AD211" s="91"/>
-      <c r="AE211" s="104" t="s">
+      <c r="AA211" s="92"/>
+      <c r="AB211" s="92"/>
+      <c r="AC211" s="92"/>
+      <c r="AD211" s="94"/>
+      <c r="AE211" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="AF211" s="90"/>
-      <c r="AG211" s="90"/>
-      <c r="AH211" s="90"/>
-      <c r="AI211" s="90"/>
-      <c r="AJ211" s="90"/>
-      <c r="AK211" s="90"/>
-      <c r="AL211" s="90"/>
-      <c r="AM211" s="90"/>
-      <c r="AN211" s="90"/>
-      <c r="AO211" s="90"/>
-      <c r="AP211" s="90"/>
-      <c r="AQ211" s="90"/>
-      <c r="AR211" s="90"/>
-      <c r="AS211" s="90"/>
-      <c r="AT211" s="90"/>
-      <c r="AU211" s="90"/>
-      <c r="AV211" s="91"/>
-      <c r="AW211" s="89" t="s">
+      <c r="AF211" s="92"/>
+      <c r="AG211" s="92"/>
+      <c r="AH211" s="92"/>
+      <c r="AI211" s="92"/>
+      <c r="AJ211" s="92"/>
+      <c r="AK211" s="92"/>
+      <c r="AL211" s="92"/>
+      <c r="AM211" s="92"/>
+      <c r="AN211" s="92"/>
+      <c r="AO211" s="92"/>
+      <c r="AP211" s="92"/>
+      <c r="AQ211" s="92"/>
+      <c r="AR211" s="92"/>
+      <c r="AS211" s="92"/>
+      <c r="AT211" s="92"/>
+      <c r="AU211" s="92"/>
+      <c r="AV211" s="94"/>
+      <c r="AW211" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AX211" s="90"/>
-      <c r="AY211" s="90"/>
-      <c r="AZ211" s="90"/>
-      <c r="BA211" s="91"/>
-      <c r="BB211" s="98" t="s">
+      <c r="AX211" s="92"/>
+      <c r="AY211" s="92"/>
+      <c r="AZ211" s="92"/>
+      <c r="BA211" s="94"/>
+      <c r="BB211" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BC211" s="90"/>
-      <c r="BD211" s="90"/>
-      <c r="BE211" s="90"/>
-      <c r="BF211" s="90"/>
-      <c r="BG211" s="90"/>
-      <c r="BH211" s="90"/>
-      <c r="BI211" s="90"/>
-      <c r="BJ211" s="90"/>
-      <c r="BK211" s="89" t="s">
+      <c r="BC211" s="92"/>
+      <c r="BD211" s="92"/>
+      <c r="BE211" s="92"/>
+      <c r="BF211" s="92"/>
+      <c r="BG211" s="92"/>
+      <c r="BH211" s="92"/>
+      <c r="BI211" s="92"/>
+      <c r="BJ211" s="92"/>
+      <c r="BK211" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="BL211" s="90"/>
-      <c r="BM211" s="90"/>
-      <c r="BN211" s="90"/>
-      <c r="BO211" s="91"/>
-      <c r="BP211" s="110" t="s">
+      <c r="BL211" s="92"/>
+      <c r="BM211" s="92"/>
+      <c r="BN211" s="92"/>
+      <c r="BO211" s="94"/>
+      <c r="BP211" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ211" s="93"/>
-      <c r="BR211" s="93"/>
-      <c r="BS211" s="93"/>
-      <c r="BT211" s="93"/>
-      <c r="BU211" s="93"/>
-      <c r="BV211" s="93"/>
-      <c r="BW211" s="93"/>
-      <c r="BX211" s="106"/>
+      <c r="BQ211" s="106"/>
+      <c r="BR211" s="106"/>
+      <c r="BS211" s="106"/>
+      <c r="BT211" s="106"/>
+      <c r="BU211" s="106"/>
+      <c r="BV211" s="106"/>
+      <c r="BW211" s="106"/>
+      <c r="BX211" s="115"/>
       <c r="BY211" s="54"/>
       <c r="BZ211" s="54"/>
     </row>
@@ -22364,51 +22385,51 @@
       <c r="AJ214" s="4"/>
       <c r="AK214" s="4"/>
       <c r="AL214" s="55"/>
-      <c r="AM214" s="95" t="s">
+      <c r="AM214" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AN214" s="101"/>
-      <c r="AO214" s="95" t="s">
+      <c r="AN214" s="102"/>
+      <c r="AO214" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AP214" s="87"/>
-      <c r="AQ214" s="87"/>
-      <c r="AR214" s="87"/>
-      <c r="AS214" s="87"/>
-      <c r="AT214" s="87"/>
-      <c r="AU214" s="85"/>
-      <c r="AV214" s="95" t="s">
+      <c r="AP214" s="97"/>
+      <c r="AQ214" s="97"/>
+      <c r="AR214" s="97"/>
+      <c r="AS214" s="97"/>
+      <c r="AT214" s="97"/>
+      <c r="AU214" s="104"/>
+      <c r="AV214" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AW214" s="87"/>
-      <c r="AX214" s="87"/>
-      <c r="AY214" s="87"/>
-      <c r="AZ214" s="85"/>
-      <c r="BA214" s="95" t="s">
+      <c r="AW214" s="97"/>
+      <c r="AX214" s="97"/>
+      <c r="AY214" s="97"/>
+      <c r="AZ214" s="104"/>
+      <c r="BA214" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="BB214" s="87"/>
-      <c r="BC214" s="87"/>
-      <c r="BD214" s="87"/>
-      <c r="BE214" s="87"/>
-      <c r="BF214" s="87"/>
-      <c r="BG214" s="87"/>
-      <c r="BH214" s="87"/>
-      <c r="BI214" s="87"/>
-      <c r="BJ214" s="87"/>
-      <c r="BK214" s="87"/>
-      <c r="BL214" s="87"/>
-      <c r="BM214" s="87"/>
-      <c r="BN214" s="87"/>
-      <c r="BO214" s="87"/>
-      <c r="BP214" s="87"/>
-      <c r="BQ214" s="87"/>
-      <c r="BR214" s="87"/>
-      <c r="BS214" s="87"/>
-      <c r="BT214" s="87"/>
-      <c r="BU214" s="87"/>
-      <c r="BV214" s="87"/>
-      <c r="BW214" s="101"/>
+      <c r="BB214" s="97"/>
+      <c r="BC214" s="97"/>
+      <c r="BD214" s="97"/>
+      <c r="BE214" s="97"/>
+      <c r="BF214" s="97"/>
+      <c r="BG214" s="97"/>
+      <c r="BH214" s="97"/>
+      <c r="BI214" s="97"/>
+      <c r="BJ214" s="97"/>
+      <c r="BK214" s="97"/>
+      <c r="BL214" s="97"/>
+      <c r="BM214" s="97"/>
+      <c r="BN214" s="97"/>
+      <c r="BO214" s="97"/>
+      <c r="BP214" s="97"/>
+      <c r="BQ214" s="97"/>
+      <c r="BR214" s="97"/>
+      <c r="BS214" s="97"/>
+      <c r="BT214" s="97"/>
+      <c r="BU214" s="97"/>
+      <c r="BV214" s="97"/>
+      <c r="BW214" s="102"/>
       <c r="BX214" s="4"/>
       <c r="BY214" s="4"/>
       <c r="BZ214" s="4"/>
@@ -22452,43 +22473,43 @@
       <c r="AJ215" s="4"/>
       <c r="AK215" s="4"/>
       <c r="AL215" s="55"/>
-      <c r="AM215" s="96"/>
-      <c r="AN215" s="102"/>
-      <c r="AO215" s="96"/>
-      <c r="AP215" s="96"/>
-      <c r="AQ215" s="96"/>
-      <c r="AR215" s="96"/>
-      <c r="AS215" s="96"/>
-      <c r="AT215" s="96"/>
-      <c r="AU215" s="97"/>
-      <c r="AV215" s="96"/>
-      <c r="AW215" s="96"/>
-      <c r="AX215" s="96"/>
-      <c r="AY215" s="96"/>
-      <c r="AZ215" s="97"/>
-      <c r="BA215" s="96"/>
-      <c r="BB215" s="96"/>
-      <c r="BC215" s="96"/>
-      <c r="BD215" s="96"/>
-      <c r="BE215" s="96"/>
-      <c r="BF215" s="96"/>
-      <c r="BG215" s="96"/>
-      <c r="BH215" s="96"/>
-      <c r="BI215" s="96"/>
-      <c r="BJ215" s="96"/>
-      <c r="BK215" s="96"/>
-      <c r="BL215" s="96"/>
-      <c r="BM215" s="96"/>
-      <c r="BN215" s="96"/>
-      <c r="BO215" s="96"/>
-      <c r="BP215" s="96"/>
-      <c r="BQ215" s="96"/>
-      <c r="BR215" s="96"/>
-      <c r="BS215" s="96"/>
-      <c r="BT215" s="96"/>
-      <c r="BU215" s="96"/>
-      <c r="BV215" s="96"/>
-      <c r="BW215" s="102"/>
+      <c r="AM215" s="89"/>
+      <c r="AN215" s="90"/>
+      <c r="AO215" s="89"/>
+      <c r="AP215" s="89"/>
+      <c r="AQ215" s="89"/>
+      <c r="AR215" s="89"/>
+      <c r="AS215" s="89"/>
+      <c r="AT215" s="89"/>
+      <c r="AU215" s="108"/>
+      <c r="AV215" s="89"/>
+      <c r="AW215" s="89"/>
+      <c r="AX215" s="89"/>
+      <c r="AY215" s="89"/>
+      <c r="AZ215" s="108"/>
+      <c r="BA215" s="89"/>
+      <c r="BB215" s="89"/>
+      <c r="BC215" s="89"/>
+      <c r="BD215" s="89"/>
+      <c r="BE215" s="89"/>
+      <c r="BF215" s="89"/>
+      <c r="BG215" s="89"/>
+      <c r="BH215" s="89"/>
+      <c r="BI215" s="89"/>
+      <c r="BJ215" s="89"/>
+      <c r="BK215" s="89"/>
+      <c r="BL215" s="89"/>
+      <c r="BM215" s="89"/>
+      <c r="BN215" s="89"/>
+      <c r="BO215" s="89"/>
+      <c r="BP215" s="89"/>
+      <c r="BQ215" s="89"/>
+      <c r="BR215" s="89"/>
+      <c r="BS215" s="89"/>
+      <c r="BT215" s="89"/>
+      <c r="BU215" s="89"/>
+      <c r="BV215" s="89"/>
+      <c r="BW215" s="90"/>
       <c r="BX215" s="4"/>
       <c r="BY215" s="4"/>
       <c r="BZ215" s="4"/>
@@ -22532,10 +22553,10 @@
       <c r="AJ216" s="4"/>
       <c r="AK216" s="4"/>
       <c r="AL216" s="55"/>
-      <c r="AM216" s="84" t="s">
+      <c r="AM216" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="AN216" s="85"/>
+      <c r="AN216" s="104"/>
       <c r="AO216" s="61" t="s">
         <v>89</v>
       </c>
@@ -22942,8 +22963,8 @@
       <c r="AJ221" s="4"/>
       <c r="AK221" s="4"/>
       <c r="AL221" s="55"/>
-      <c r="AM221" s="86"/>
-      <c r="AN221" s="87"/>
+      <c r="AM221" s="136"/>
+      <c r="AN221" s="97"/>
       <c r="AO221" s="68"/>
       <c r="AP221" s="33"/>
       <c r="AQ221" s="33"/>
@@ -26264,65 +26285,65 @@
       <c r="BZ262" s="4"/>
     </row>
     <row r="263" spans="1:78" ht="17.25">
-      <c r="A263" s="105" t="s">
+      <c r="A263" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B263" s="93"/>
-      <c r="C263" s="93"/>
-      <c r="D263" s="93"/>
-      <c r="E263" s="106"/>
-      <c r="F263" s="103" t="s">
+      <c r="B263" s="106"/>
+      <c r="C263" s="106"/>
+      <c r="D263" s="106"/>
+      <c r="E263" s="115"/>
+      <c r="F263" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G263" s="93"/>
-      <c r="H263" s="93"/>
-      <c r="I263" s="93"/>
-      <c r="J263" s="93"/>
-      <c r="K263" s="93"/>
-      <c r="L263" s="93"/>
-      <c r="M263" s="93"/>
-      <c r="N263" s="93"/>
-      <c r="O263" s="93"/>
-      <c r="P263" s="93"/>
-      <c r="Q263" s="93"/>
-      <c r="R263" s="93"/>
-      <c r="S263" s="93"/>
-      <c r="T263" s="93"/>
-      <c r="U263" s="93"/>
-      <c r="V263" s="93"/>
-      <c r="W263" s="93"/>
-      <c r="X263" s="93"/>
-      <c r="Y263" s="93"/>
-      <c r="Z263" s="93"/>
-      <c r="AA263" s="93"/>
-      <c r="AB263" s="93"/>
-      <c r="AC263" s="93"/>
-      <c r="AD263" s="93"/>
-      <c r="AE263" s="93"/>
-      <c r="AF263" s="93"/>
-      <c r="AG263" s="93"/>
-      <c r="AH263" s="93"/>
-      <c r="AI263" s="93"/>
-      <c r="AJ263" s="93"/>
-      <c r="AK263" s="93"/>
-      <c r="AL263" s="93"/>
-      <c r="AM263" s="93"/>
-      <c r="AN263" s="93"/>
-      <c r="AO263" s="93"/>
-      <c r="AP263" s="93"/>
-      <c r="AQ263" s="93"/>
-      <c r="AR263" s="93"/>
-      <c r="AS263" s="93"/>
-      <c r="AT263" s="93"/>
-      <c r="AU263" s="93"/>
-      <c r="AV263" s="94"/>
-      <c r="AW263" s="92" t="s">
+      <c r="G263" s="106"/>
+      <c r="H263" s="106"/>
+      <c r="I263" s="106"/>
+      <c r="J263" s="106"/>
+      <c r="K263" s="106"/>
+      <c r="L263" s="106"/>
+      <c r="M263" s="106"/>
+      <c r="N263" s="106"/>
+      <c r="O263" s="106"/>
+      <c r="P263" s="106"/>
+      <c r="Q263" s="106"/>
+      <c r="R263" s="106"/>
+      <c r="S263" s="106"/>
+      <c r="T263" s="106"/>
+      <c r="U263" s="106"/>
+      <c r="V263" s="106"/>
+      <c r="W263" s="106"/>
+      <c r="X263" s="106"/>
+      <c r="Y263" s="106"/>
+      <c r="Z263" s="106"/>
+      <c r="AA263" s="106"/>
+      <c r="AB263" s="106"/>
+      <c r="AC263" s="106"/>
+      <c r="AD263" s="106"/>
+      <c r="AE263" s="106"/>
+      <c r="AF263" s="106"/>
+      <c r="AG263" s="106"/>
+      <c r="AH263" s="106"/>
+      <c r="AI263" s="106"/>
+      <c r="AJ263" s="106"/>
+      <c r="AK263" s="106"/>
+      <c r="AL263" s="106"/>
+      <c r="AM263" s="106"/>
+      <c r="AN263" s="106"/>
+      <c r="AO263" s="106"/>
+      <c r="AP263" s="106"/>
+      <c r="AQ263" s="106"/>
+      <c r="AR263" s="106"/>
+      <c r="AS263" s="106"/>
+      <c r="AT263" s="106"/>
+      <c r="AU263" s="106"/>
+      <c r="AV263" s="107"/>
+      <c r="AW263" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AX263" s="93"/>
-      <c r="AY263" s="93"/>
-      <c r="AZ263" s="93"/>
-      <c r="BA263" s="94"/>
+      <c r="AX263" s="106"/>
+      <c r="AY263" s="106"/>
+      <c r="AZ263" s="106"/>
+      <c r="BA263" s="107"/>
       <c r="BB263" s="81" t="s">
         <v>72</v>
       </c>
@@ -26334,120 +26355,120 @@
       <c r="BH263" s="82"/>
       <c r="BI263" s="82"/>
       <c r="BJ263" s="83"/>
-      <c r="BK263" s="92" t="s">
+      <c r="BK263" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="BL263" s="93"/>
-      <c r="BM263" s="93"/>
-      <c r="BN263" s="93"/>
-      <c r="BO263" s="94"/>
-      <c r="BP263" s="110" t="s">
+      <c r="BL263" s="106"/>
+      <c r="BM263" s="106"/>
+      <c r="BN263" s="106"/>
+      <c r="BO263" s="107"/>
+      <c r="BP263" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ263" s="93"/>
-      <c r="BR263" s="93"/>
-      <c r="BS263" s="93"/>
-      <c r="BT263" s="93"/>
-      <c r="BU263" s="93"/>
-      <c r="BV263" s="93"/>
-      <c r="BW263" s="93"/>
-      <c r="BX263" s="106"/>
+      <c r="BQ263" s="106"/>
+      <c r="BR263" s="106"/>
+      <c r="BS263" s="106"/>
+      <c r="BT263" s="106"/>
+      <c r="BU263" s="106"/>
+      <c r="BV263" s="106"/>
+      <c r="BW263" s="106"/>
+      <c r="BX263" s="115"/>
       <c r="BY263" s="54"/>
       <c r="BZ263" s="54"/>
     </row>
     <row r="264" spans="1:78" ht="18">
-      <c r="A264" s="107" t="s">
+      <c r="A264" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B264" s="90"/>
-      <c r="C264" s="90"/>
-      <c r="D264" s="90"/>
-      <c r="E264" s="108"/>
-      <c r="F264" s="104" t="s">
+      <c r="B264" s="92"/>
+      <c r="C264" s="92"/>
+      <c r="D264" s="92"/>
+      <c r="E264" s="126"/>
+      <c r="F264" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="G264" s="90"/>
-      <c r="H264" s="90"/>
-      <c r="I264" s="90"/>
-      <c r="J264" s="90"/>
-      <c r="K264" s="90"/>
-      <c r="L264" s="90"/>
-      <c r="M264" s="90"/>
-      <c r="N264" s="90"/>
-      <c r="O264" s="90"/>
-      <c r="P264" s="90"/>
-      <c r="Q264" s="90"/>
-      <c r="R264" s="90"/>
-      <c r="S264" s="90"/>
-      <c r="T264" s="90"/>
-      <c r="U264" s="90"/>
-      <c r="V264" s="90"/>
-      <c r="W264" s="90"/>
-      <c r="X264" s="90"/>
-      <c r="Y264" s="91"/>
-      <c r="Z264" s="89" t="s">
+      <c r="G264" s="92"/>
+      <c r="H264" s="92"/>
+      <c r="I264" s="92"/>
+      <c r="J264" s="92"/>
+      <c r="K264" s="92"/>
+      <c r="L264" s="92"/>
+      <c r="M264" s="92"/>
+      <c r="N264" s="92"/>
+      <c r="O264" s="92"/>
+      <c r="P264" s="92"/>
+      <c r="Q264" s="92"/>
+      <c r="R264" s="92"/>
+      <c r="S264" s="92"/>
+      <c r="T264" s="92"/>
+      <c r="U264" s="92"/>
+      <c r="V264" s="92"/>
+      <c r="W264" s="92"/>
+      <c r="X264" s="92"/>
+      <c r="Y264" s="94"/>
+      <c r="Z264" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="AA264" s="90"/>
-      <c r="AB264" s="90"/>
-      <c r="AC264" s="90"/>
-      <c r="AD264" s="91"/>
-      <c r="AE264" s="104" t="s">
+      <c r="AA264" s="92"/>
+      <c r="AB264" s="92"/>
+      <c r="AC264" s="92"/>
+      <c r="AD264" s="94"/>
+      <c r="AE264" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="AF264" s="90"/>
-      <c r="AG264" s="90"/>
-      <c r="AH264" s="90"/>
-      <c r="AI264" s="90"/>
-      <c r="AJ264" s="90"/>
-      <c r="AK264" s="90"/>
-      <c r="AL264" s="90"/>
-      <c r="AM264" s="90"/>
-      <c r="AN264" s="90"/>
-      <c r="AO264" s="90"/>
-      <c r="AP264" s="90"/>
-      <c r="AQ264" s="90"/>
-      <c r="AR264" s="90"/>
-      <c r="AS264" s="90"/>
-      <c r="AT264" s="90"/>
-      <c r="AU264" s="90"/>
-      <c r="AV264" s="91"/>
-      <c r="AW264" s="89" t="s">
+      <c r="AF264" s="92"/>
+      <c r="AG264" s="92"/>
+      <c r="AH264" s="92"/>
+      <c r="AI264" s="92"/>
+      <c r="AJ264" s="92"/>
+      <c r="AK264" s="92"/>
+      <c r="AL264" s="92"/>
+      <c r="AM264" s="92"/>
+      <c r="AN264" s="92"/>
+      <c r="AO264" s="92"/>
+      <c r="AP264" s="92"/>
+      <c r="AQ264" s="92"/>
+      <c r="AR264" s="92"/>
+      <c r="AS264" s="92"/>
+      <c r="AT264" s="92"/>
+      <c r="AU264" s="92"/>
+      <c r="AV264" s="94"/>
+      <c r="AW264" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AX264" s="90"/>
-      <c r="AY264" s="90"/>
-      <c r="AZ264" s="90"/>
-      <c r="BA264" s="91"/>
-      <c r="BB264" s="98" t="s">
+      <c r="AX264" s="92"/>
+      <c r="AY264" s="92"/>
+      <c r="AZ264" s="92"/>
+      <c r="BA264" s="94"/>
+      <c r="BB264" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BC264" s="90"/>
-      <c r="BD264" s="90"/>
-      <c r="BE264" s="90"/>
-      <c r="BF264" s="90"/>
-      <c r="BG264" s="90"/>
-      <c r="BH264" s="90"/>
-      <c r="BI264" s="90"/>
-      <c r="BJ264" s="90"/>
-      <c r="BK264" s="117" t="s">
+      <c r="BC264" s="92"/>
+      <c r="BD264" s="92"/>
+      <c r="BE264" s="92"/>
+      <c r="BF264" s="92"/>
+      <c r="BG264" s="92"/>
+      <c r="BH264" s="92"/>
+      <c r="BI264" s="92"/>
+      <c r="BJ264" s="92"/>
+      <c r="BK264" s="127" t="s">
         <v>11</v>
       </c>
       <c r="BL264" s="82"/>
       <c r="BM264" s="82"/>
       <c r="BN264" s="82"/>
       <c r="BO264" s="83"/>
-      <c r="BP264" s="110" t="s">
+      <c r="BP264" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="BQ264" s="93"/>
-      <c r="BR264" s="93"/>
-      <c r="BS264" s="93"/>
-      <c r="BT264" s="93"/>
-      <c r="BU264" s="93"/>
-      <c r="BV264" s="93"/>
-      <c r="BW264" s="93"/>
-      <c r="BX264" s="106"/>
+      <c r="BQ264" s="106"/>
+      <c r="BR264" s="106"/>
+      <c r="BS264" s="106"/>
+      <c r="BT264" s="106"/>
+      <c r="BU264" s="106"/>
+      <c r="BV264" s="106"/>
+      <c r="BW264" s="106"/>
+      <c r="BX264" s="115"/>
       <c r="BY264" s="54"/>
       <c r="BZ264" s="54"/>
     </row>
@@ -26650,51 +26671,51 @@
       <c r="AJ267" s="4"/>
       <c r="AK267" s="4"/>
       <c r="AL267" s="55"/>
-      <c r="AM267" s="95" t="s">
+      <c r="AM267" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="AN267" s="101"/>
-      <c r="AO267" s="95" t="s">
+      <c r="AN267" s="102"/>
+      <c r="AO267" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AP267" s="87"/>
-      <c r="AQ267" s="87"/>
-      <c r="AR267" s="87"/>
-      <c r="AS267" s="87"/>
-      <c r="AT267" s="87"/>
-      <c r="AU267" s="85"/>
-      <c r="AV267" s="95" t="s">
+      <c r="AP267" s="97"/>
+      <c r="AQ267" s="97"/>
+      <c r="AR267" s="97"/>
+      <c r="AS267" s="97"/>
+      <c r="AT267" s="97"/>
+      <c r="AU267" s="104"/>
+      <c r="AV267" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AW267" s="87"/>
-      <c r="AX267" s="87"/>
-      <c r="AY267" s="87"/>
-      <c r="AZ267" s="85"/>
-      <c r="BA267" s="95" t="s">
+      <c r="AW267" s="97"/>
+      <c r="AX267" s="97"/>
+      <c r="AY267" s="97"/>
+      <c r="AZ267" s="104"/>
+      <c r="BA267" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="BB267" s="87"/>
-      <c r="BC267" s="87"/>
-      <c r="BD267" s="87"/>
-      <c r="BE267" s="87"/>
-      <c r="BF267" s="87"/>
-      <c r="BG267" s="87"/>
-      <c r="BH267" s="87"/>
-      <c r="BI267" s="87"/>
-      <c r="BJ267" s="87"/>
-      <c r="BK267" s="87"/>
-      <c r="BL267" s="87"/>
-      <c r="BM267" s="87"/>
-      <c r="BN267" s="87"/>
-      <c r="BO267" s="87"/>
-      <c r="BP267" s="87"/>
-      <c r="BQ267" s="87"/>
-      <c r="BR267" s="87"/>
-      <c r="BS267" s="87"/>
-      <c r="BT267" s="87"/>
-      <c r="BU267" s="87"/>
-      <c r="BV267" s="87"/>
-      <c r="BW267" s="101"/>
+      <c r="BB267" s="97"/>
+      <c r="BC267" s="97"/>
+      <c r="BD267" s="97"/>
+      <c r="BE267" s="97"/>
+      <c r="BF267" s="97"/>
+      <c r="BG267" s="97"/>
+      <c r="BH267" s="97"/>
+      <c r="BI267" s="97"/>
+      <c r="BJ267" s="97"/>
+      <c r="BK267" s="97"/>
+      <c r="BL267" s="97"/>
+      <c r="BM267" s="97"/>
+      <c r="BN267" s="97"/>
+      <c r="BO267" s="97"/>
+      <c r="BP267" s="97"/>
+      <c r="BQ267" s="97"/>
+      <c r="BR267" s="97"/>
+      <c r="BS267" s="97"/>
+      <c r="BT267" s="97"/>
+      <c r="BU267" s="97"/>
+      <c r="BV267" s="97"/>
+      <c r="BW267" s="102"/>
       <c r="BX267" s="4"/>
       <c r="BY267" s="4"/>
       <c r="BZ267" s="4"/>
@@ -26738,43 +26759,43 @@
       <c r="AJ268" s="4"/>
       <c r="AK268" s="4"/>
       <c r="AL268" s="55"/>
-      <c r="AM268" s="96"/>
-      <c r="AN268" s="102"/>
-      <c r="AO268" s="96"/>
-      <c r="AP268" s="96"/>
-      <c r="AQ268" s="96"/>
-      <c r="AR268" s="96"/>
-      <c r="AS268" s="96"/>
-      <c r="AT268" s="96"/>
-      <c r="AU268" s="97"/>
-      <c r="AV268" s="96"/>
-      <c r="AW268" s="96"/>
-      <c r="AX268" s="96"/>
-      <c r="AY268" s="96"/>
-      <c r="AZ268" s="97"/>
-      <c r="BA268" s="96"/>
-      <c r="BB268" s="96"/>
-      <c r="BC268" s="96"/>
-      <c r="BD268" s="96"/>
-      <c r="BE268" s="96"/>
-      <c r="BF268" s="96"/>
-      <c r="BG268" s="96"/>
-      <c r="BH268" s="96"/>
-      <c r="BI268" s="96"/>
-      <c r="BJ268" s="96"/>
-      <c r="BK268" s="96"/>
-      <c r="BL268" s="96"/>
-      <c r="BM268" s="96"/>
-      <c r="BN268" s="96"/>
-      <c r="BO268" s="96"/>
-      <c r="BP268" s="96"/>
-      <c r="BQ268" s="96"/>
-      <c r="BR268" s="96"/>
-      <c r="BS268" s="96"/>
-      <c r="BT268" s="96"/>
-      <c r="BU268" s="96"/>
-      <c r="BV268" s="96"/>
-      <c r="BW268" s="102"/>
+      <c r="AM268" s="89"/>
+      <c r="AN268" s="90"/>
+      <c r="AO268" s="89"/>
+      <c r="AP268" s="89"/>
+      <c r="AQ268" s="89"/>
+      <c r="AR268" s="89"/>
+      <c r="AS268" s="89"/>
+      <c r="AT268" s="89"/>
+      <c r="AU268" s="108"/>
+      <c r="AV268" s="89"/>
+      <c r="AW268" s="89"/>
+      <c r="AX268" s="89"/>
+      <c r="AY268" s="89"/>
+      <c r="AZ268" s="108"/>
+      <c r="BA268" s="89"/>
+      <c r="BB268" s="89"/>
+      <c r="BC268" s="89"/>
+      <c r="BD268" s="89"/>
+      <c r="BE268" s="89"/>
+      <c r="BF268" s="89"/>
+      <c r="BG268" s="89"/>
+      <c r="BH268" s="89"/>
+      <c r="BI268" s="89"/>
+      <c r="BJ268" s="89"/>
+      <c r="BK268" s="89"/>
+      <c r="BL268" s="89"/>
+      <c r="BM268" s="89"/>
+      <c r="BN268" s="89"/>
+      <c r="BO268" s="89"/>
+      <c r="BP268" s="89"/>
+      <c r="BQ268" s="89"/>
+      <c r="BR268" s="89"/>
+      <c r="BS268" s="89"/>
+      <c r="BT268" s="89"/>
+      <c r="BU268" s="89"/>
+      <c r="BV268" s="89"/>
+      <c r="BW268" s="90"/>
       <c r="BX268" s="4"/>
       <c r="BY268" s="4"/>
       <c r="BZ268" s="4"/>
@@ -26818,10 +26839,10 @@
       <c r="AJ269" s="4"/>
       <c r="AK269" s="4"/>
       <c r="AL269" s="55"/>
-      <c r="AM269" s="84" t="s">
+      <c r="AM269" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="AN269" s="85"/>
+      <c r="AN269" s="104"/>
       <c r="AO269" s="61" t="s">
         <v>89</v>
       </c>
@@ -27230,8 +27251,8 @@
       <c r="AJ274" s="4"/>
       <c r="AK274" s="4"/>
       <c r="AL274" s="55"/>
-      <c r="AM274" s="86"/>
-      <c r="AN274" s="87"/>
+      <c r="AM274" s="136"/>
+      <c r="AN274" s="97"/>
       <c r="AO274" s="68"/>
       <c r="AP274" s="33"/>
       <c r="AQ274" s="33"/>
@@ -30553,6 +30574,143 @@
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="BB51:BJ51"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AM62:AN62"/>
+    <mergeCell ref="AM59:AN59"/>
+    <mergeCell ref="AW158:BA158"/>
+    <mergeCell ref="BB157:BJ157"/>
+    <mergeCell ref="AW157:BA157"/>
+    <mergeCell ref="AO55:AU56"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="AM110:AN110"/>
+    <mergeCell ref="AV108:AZ109"/>
+    <mergeCell ref="AO108:AU109"/>
+    <mergeCell ref="BB105:BJ105"/>
+    <mergeCell ref="AW105:BA105"/>
+    <mergeCell ref="AW104:BA104"/>
+    <mergeCell ref="BB104:BJ104"/>
+    <mergeCell ref="AM112:AN112"/>
+    <mergeCell ref="AM115:AN115"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AM267:AN268"/>
+    <mergeCell ref="AM274:AN274"/>
+    <mergeCell ref="AM269:AN269"/>
+    <mergeCell ref="AV214:AZ215"/>
+    <mergeCell ref="BA214:BW215"/>
+    <mergeCell ref="AM168:AN168"/>
+    <mergeCell ref="AM221:AN221"/>
+    <mergeCell ref="AM216:AN216"/>
+    <mergeCell ref="AM214:AN215"/>
+    <mergeCell ref="AO214:AU215"/>
+    <mergeCell ref="F210:AV210"/>
+    <mergeCell ref="AE211:AV211"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="F104:AV104"/>
+    <mergeCell ref="Z105:AD105"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="AE105:AV105"/>
+    <mergeCell ref="Z211:AD211"/>
+    <mergeCell ref="K37:T38"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="BB210:BJ210"/>
+    <mergeCell ref="BK210:BO210"/>
+    <mergeCell ref="BP210:BX210"/>
+    <mergeCell ref="AW210:BA210"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="F105:Y105"/>
+    <mergeCell ref="K35:T36"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="AW211:BA211"/>
+    <mergeCell ref="BB211:BJ211"/>
+    <mergeCell ref="AE52:AV52"/>
+    <mergeCell ref="AM50:AN50"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="G63:N64"/>
+    <mergeCell ref="AM108:AN109"/>
+    <mergeCell ref="BP105:BX105"/>
+    <mergeCell ref="BP104:BX104"/>
+    <mergeCell ref="AM55:AN56"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="BK51:BO51"/>
+    <mergeCell ref="AW51:BA51"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="F264:Y264"/>
+    <mergeCell ref="A264:E264"/>
+    <mergeCell ref="BP263:BX263"/>
+    <mergeCell ref="BP264:BX264"/>
+    <mergeCell ref="AO267:AU268"/>
+    <mergeCell ref="BK263:BO263"/>
+    <mergeCell ref="Z158:AD158"/>
+    <mergeCell ref="BP158:BX158"/>
+    <mergeCell ref="BA161:BW162"/>
+    <mergeCell ref="AV267:AZ268"/>
+    <mergeCell ref="BA267:BW268"/>
+    <mergeCell ref="Z264:AD264"/>
+    <mergeCell ref="AE264:AV264"/>
+    <mergeCell ref="BB264:BJ264"/>
+    <mergeCell ref="BK264:BO264"/>
+    <mergeCell ref="F263:AV263"/>
+    <mergeCell ref="AW263:BA263"/>
+    <mergeCell ref="BB263:BJ263"/>
+    <mergeCell ref="AW264:BA264"/>
+    <mergeCell ref="BP211:BX211"/>
+    <mergeCell ref="BK211:BO211"/>
+    <mergeCell ref="F211:Y211"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="BP157:BX157"/>
+    <mergeCell ref="F158:Y158"/>
+    <mergeCell ref="AO161:AU162"/>
+    <mergeCell ref="AM165:AN165"/>
+    <mergeCell ref="AM163:AN163"/>
+    <mergeCell ref="AM161:AN162"/>
+    <mergeCell ref="AV161:AZ162"/>
+    <mergeCell ref="F157:AV157"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="Z52:AD52"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="F52:Y52"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="BP51:BX51"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F51:AV51"/>
+    <mergeCell ref="K41:T42"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="W35:AA36"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AB35:AG36"/>
+    <mergeCell ref="AB41:AG42"/>
+    <mergeCell ref="AB37:AG38"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM9:AN9"/>
     <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="BA5:BW6"/>
@@ -30577,143 +30735,6 @@
     <mergeCell ref="AM13:AN13"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K41:T42"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="W35:AA36"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AB35:AG36"/>
-    <mergeCell ref="AB41:AG42"/>
-    <mergeCell ref="AB37:AG38"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="BP157:BX157"/>
-    <mergeCell ref="F158:Y158"/>
-    <mergeCell ref="AO161:AU162"/>
-    <mergeCell ref="AM165:AN165"/>
-    <mergeCell ref="AM163:AN163"/>
-    <mergeCell ref="AM161:AN162"/>
-    <mergeCell ref="AV161:AZ162"/>
-    <mergeCell ref="F157:AV157"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="Z52:AD52"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="F52:Y52"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="BP51:BX51"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F51:AV51"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="F264:Y264"/>
-    <mergeCell ref="A264:E264"/>
-    <mergeCell ref="BP263:BX263"/>
-    <mergeCell ref="BP264:BX264"/>
-    <mergeCell ref="AO267:AU268"/>
-    <mergeCell ref="BK263:BO263"/>
-    <mergeCell ref="Z158:AD158"/>
-    <mergeCell ref="BP158:BX158"/>
-    <mergeCell ref="BA161:BW162"/>
-    <mergeCell ref="AV267:AZ268"/>
-    <mergeCell ref="BA267:BW268"/>
-    <mergeCell ref="Z264:AD264"/>
-    <mergeCell ref="AE264:AV264"/>
-    <mergeCell ref="BB264:BJ264"/>
-    <mergeCell ref="BK264:BO264"/>
-    <mergeCell ref="F263:AV263"/>
-    <mergeCell ref="AW263:BA263"/>
-    <mergeCell ref="BB263:BJ263"/>
-    <mergeCell ref="AW264:BA264"/>
-    <mergeCell ref="BP211:BX211"/>
-    <mergeCell ref="BK211:BO211"/>
-    <mergeCell ref="F211:Y211"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="BB210:BJ210"/>
-    <mergeCell ref="BK210:BO210"/>
-    <mergeCell ref="BP210:BX210"/>
-    <mergeCell ref="AW210:BA210"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F105:Y105"/>
-    <mergeCell ref="K35:T36"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="AW211:BA211"/>
-    <mergeCell ref="BB211:BJ211"/>
-    <mergeCell ref="AE52:AV52"/>
-    <mergeCell ref="AM50:AN50"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="G63:N64"/>
-    <mergeCell ref="AM108:AN109"/>
-    <mergeCell ref="BP105:BX105"/>
-    <mergeCell ref="BP104:BX104"/>
-    <mergeCell ref="AM55:AN56"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="BK51:BO51"/>
-    <mergeCell ref="AW51:BA51"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AM267:AN268"/>
-    <mergeCell ref="AM274:AN274"/>
-    <mergeCell ref="AM269:AN269"/>
-    <mergeCell ref="AV214:AZ215"/>
-    <mergeCell ref="BA214:BW215"/>
-    <mergeCell ref="AM168:AN168"/>
-    <mergeCell ref="AM221:AN221"/>
-    <mergeCell ref="AM216:AN216"/>
-    <mergeCell ref="AM214:AN215"/>
-    <mergeCell ref="AO214:AU215"/>
-    <mergeCell ref="F210:AV210"/>
-    <mergeCell ref="AE211:AV211"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="F104:AV104"/>
-    <mergeCell ref="Z105:AD105"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="AE105:AV105"/>
-    <mergeCell ref="Z211:AD211"/>
-    <mergeCell ref="K37:T38"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="BB51:BJ51"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AM62:AN62"/>
-    <mergeCell ref="AM59:AN59"/>
-    <mergeCell ref="AW158:BA158"/>
-    <mergeCell ref="BB157:BJ157"/>
-    <mergeCell ref="AW157:BA157"/>
-    <mergeCell ref="AO55:AU56"/>
-    <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="AM110:AN110"/>
-    <mergeCell ref="AV108:AZ109"/>
-    <mergeCell ref="AO108:AU109"/>
-    <mergeCell ref="BB105:BJ105"/>
-    <mergeCell ref="AW105:BA105"/>
-    <mergeCell ref="AW104:BA104"/>
-    <mergeCell ref="BB104:BJ104"/>
-    <mergeCell ref="AM112:AN112"/>
-    <mergeCell ref="AM115:AN115"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D2A7CA-7B2C-4675-947B-889D40024B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B69D40-9907-408F-9E3E-580999EE9BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="117">
   <si>
     <t>システム名</t>
   </si>
@@ -431,10 +431,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>2019/12/03</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>佐藤　保明</t>
     <rPh sb="0" eb="2">
       <t>サトウ</t>
@@ -539,12 +535,38 @@
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
+  <si>
+    <t>2019/12/03 JTM15 対応　佐藤　保明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 </t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ラッピングの有無</t>
+    <rPh sb="6" eb="8">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2019/12/09</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>購入画面にラッピングの有無を指定できるラジオボタンを作成する</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -720,6 +742,24 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
@@ -1144,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1258,64 +1298,80 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1328,47 +1384,39 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2825,15 +2873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28043</xdr:colOff>
+      <xdr:colOff>37568</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>42906</xdr:colOff>
+      <xdr:colOff>52431</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2848,7 +2896,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28043" y="1009650"/>
+          <a:off x="37568" y="1000125"/>
           <a:ext cx="6815713" cy="4210050"/>
           <a:chOff x="2505364" y="1225142"/>
           <a:chExt cx="13100713" cy="5591621"/>
@@ -3349,10 +3397,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>10</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3422,10 +3470,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>12</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3433,16 +3481,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>169624</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53236</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7699</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>42676</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51351</xdr:rowOff>
+      <xdr:colOff>80776</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3457,7 +3505,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2369899" y="3567961"/>
+          <a:off x="2407999" y="3453661"/>
           <a:ext cx="473127" cy="360065"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3495,10 +3543,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>11</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3507,15 +3555,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>6460</xdr:rowOff>
+      <xdr:rowOff>44560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>4575</xdr:rowOff>
+      <xdr:rowOff>42675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3530,7 +3578,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247901" y="4426060"/>
+          <a:off x="2276476" y="4464160"/>
           <a:ext cx="457200" cy="360065"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3568,10 +3616,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>13</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3641,10 +3689,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>15</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3714,10 +3762,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>14</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3787,10 +3835,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>16</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3860,10 +3908,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>17</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4256,7 +4304,7 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="473127" cy="314467"/>
+    <xdr:ext cx="473127" cy="333375"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="93" name="Shape 37">
@@ -4271,7 +4319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4591050" y="9982200"/>
-          <a:ext cx="473127" cy="314467"/>
+          <a:ext cx="473127" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -4308,10 +4356,10 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
+            <a:rPr lang="en-US" sz="1000" b="1"/>
             <a:t>18</a:t>
           </a:r>
-          <a:endParaRPr sz="1000"/>
+          <a:endParaRPr sz="1000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5037,6 +5085,230 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113768</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>186845</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Shape 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAFE153-4B50-43FA-9E98-76FF606CED83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914118" y="2133600"/>
+          <a:ext cx="473127" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 112112"/>
+            <a:gd name="adj2" fmla="val -24421"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1"/>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73A7687-10A6-4094-8390-641EEB9BA31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16259175" y="6372225"/>
+          <a:ext cx="762000" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic"/>
+            <a:ea typeface="MS PGothic"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F130EB6-BC42-4525-88C4-ED9053BD497B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="2038350"/>
+          <a:ext cx="1171575" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ラッピング有◯  無◯</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6797,8 +7069,8 @@
   </sheetPr>
   <dimension ref="A1:CR326"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV4" sqref="AV4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="BM58" sqref="BM58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -6808,94 +7080,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="120" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
-      <c r="AO1" s="95"/>
-      <c r="AP1" s="95"/>
-      <c r="AQ1" s="95"/>
-      <c r="AR1" s="95"/>
-      <c r="AS1" s="95"/>
-      <c r="AT1" s="95"/>
-      <c r="AU1" s="95"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="119" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="95"/>
-      <c r="AY1" s="95"/>
-      <c r="AZ1" s="95"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="83" t="s">
+      <c r="AX1" s="113"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="113"/>
+      <c r="BA1" s="114"/>
+      <c r="BB1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="84"/>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="85"/>
-      <c r="BK1" s="119" t="s">
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="90"/>
+      <c r="BK1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="95"/>
-      <c r="BM1" s="95"/>
-      <c r="BN1" s="95"/>
-      <c r="BO1" s="96"/>
-      <c r="BP1" s="112" t="s">
+      <c r="BL1" s="113"/>
+      <c r="BM1" s="113"/>
+      <c r="BN1" s="113"/>
+      <c r="BO1" s="114"/>
+      <c r="BP1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="95"/>
-      <c r="BR1" s="95"/>
-      <c r="BS1" s="95"/>
-      <c r="BT1" s="95"/>
-      <c r="BU1" s="95"/>
-      <c r="BV1" s="95"/>
-      <c r="BW1" s="95"/>
-      <c r="BX1" s="108"/>
+      <c r="BQ1" s="113"/>
+      <c r="BR1" s="113"/>
+      <c r="BS1" s="113"/>
+      <c r="BT1" s="113"/>
+      <c r="BU1" s="113"/>
+      <c r="BV1" s="113"/>
+      <c r="BW1" s="113"/>
+      <c r="BX1" s="122"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -6918,96 +7190,96 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="121" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="123" t="s">
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="123" t="s">
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="83" t="s">
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="89"/>
+      <c r="BG2" s="89"/>
+      <c r="BH2" s="89"/>
+      <c r="BI2" s="89"/>
+      <c r="BJ2" s="90"/>
+      <c r="BK2" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="90"/>
+      <c r="BP2" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="BC2" s="84"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ2" s="95"/>
-      <c r="BR2" s="95"/>
-      <c r="BS2" s="95"/>
-      <c r="BT2" s="95"/>
-      <c r="BU2" s="95"/>
-      <c r="BV2" s="95"/>
-      <c r="BW2" s="95"/>
-      <c r="BX2" s="108"/>
+      <c r="BQ2" s="113"/>
+      <c r="BR2" s="113"/>
+      <c r="BS2" s="113"/>
+      <c r="BT2" s="113"/>
+      <c r="BU2" s="113"/>
+      <c r="BV2" s="113"/>
+      <c r="BW2" s="113"/>
+      <c r="BX2" s="122"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -7266,51 +7538,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="124" t="s">
+      <c r="AM5" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="125"/>
-      <c r="AO5" s="131" t="s">
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="132"/>
-      <c r="AQ5" s="132"/>
-      <c r="AR5" s="132"/>
-      <c r="AS5" s="132"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="125"/>
-      <c r="AV5" s="131" t="s">
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="93"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="93"/>
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="132"/>
-      <c r="AX5" s="132"/>
-      <c r="AY5" s="132"/>
-      <c r="AZ5" s="125"/>
-      <c r="BA5" s="131" t="s">
+      <c r="AW5" s="93"/>
+      <c r="AX5" s="93"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="132"/>
-      <c r="BC5" s="132"/>
-      <c r="BD5" s="132"/>
-      <c r="BE5" s="132"/>
-      <c r="BF5" s="132"/>
-      <c r="BG5" s="132"/>
-      <c r="BH5" s="132"/>
-      <c r="BI5" s="132"/>
-      <c r="BJ5" s="132"/>
-      <c r="BK5" s="132"/>
-      <c r="BL5" s="132"/>
-      <c r="BM5" s="132"/>
-      <c r="BN5" s="132"/>
-      <c r="BO5" s="132"/>
-      <c r="BP5" s="132"/>
-      <c r="BQ5" s="132"/>
-      <c r="BR5" s="132"/>
-      <c r="BS5" s="132"/>
-      <c r="BT5" s="132"/>
-      <c r="BU5" s="132"/>
-      <c r="BV5" s="132"/>
-      <c r="BW5" s="133"/>
+      <c r="BB5" s="93"/>
+      <c r="BC5" s="93"/>
+      <c r="BD5" s="93"/>
+      <c r="BE5" s="93"/>
+      <c r="BF5" s="93"/>
+      <c r="BG5" s="93"/>
+      <c r="BH5" s="93"/>
+      <c r="BI5" s="93"/>
+      <c r="BJ5" s="93"/>
+      <c r="BK5" s="93"/>
+      <c r="BL5" s="93"/>
+      <c r="BM5" s="93"/>
+      <c r="BN5" s="93"/>
+      <c r="BO5" s="93"/>
+      <c r="BP5" s="93"/>
+      <c r="BQ5" s="93"/>
+      <c r="BR5" s="93"/>
+      <c r="BS5" s="93"/>
+      <c r="BT5" s="93"/>
+      <c r="BU5" s="93"/>
+      <c r="BV5" s="93"/>
+      <c r="BW5" s="94"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -7372,43 +7644,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="134"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="134"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="99"/>
-      <c r="BA6" s="134"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="98"/>
-      <c r="BJ6" s="98"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="98"/>
-      <c r="BM6" s="98"/>
-      <c r="BN6" s="98"/>
-      <c r="BO6" s="98"/>
-      <c r="BP6" s="98"/>
-      <c r="BQ6" s="98"/>
-      <c r="BR6" s="98"/>
-      <c r="BS6" s="98"/>
-      <c r="BT6" s="98"/>
-      <c r="BU6" s="98"/>
-      <c r="BV6" s="98"/>
-      <c r="BW6" s="104"/>
+      <c r="AM6" s="130"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="96"/>
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="96"/>
+      <c r="AU6" s="115"/>
+      <c r="AV6" s="95"/>
+      <c r="AW6" s="96"/>
+      <c r="AX6" s="96"/>
+      <c r="AY6" s="96"/>
+      <c r="AZ6" s="115"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="96"/>
+      <c r="BH6" s="96"/>
+      <c r="BI6" s="96"/>
+      <c r="BJ6" s="96"/>
+      <c r="BK6" s="96"/>
+      <c r="BL6" s="96"/>
+      <c r="BM6" s="96"/>
+      <c r="BN6" s="96"/>
+      <c r="BO6" s="96"/>
+      <c r="BP6" s="96"/>
+      <c r="BQ6" s="96"/>
+      <c r="BR6" s="96"/>
+      <c r="BS6" s="96"/>
+      <c r="BT6" s="96"/>
+      <c r="BU6" s="96"/>
+      <c r="BV6" s="96"/>
+      <c r="BW6" s="97"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -7470,10 +7742,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="86" t="s">
+      <c r="AM7" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="87"/>
+      <c r="AN7" s="111"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -7674,10 +7946,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="86" t="s">
+      <c r="AM9" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="87"/>
+      <c r="AN9" s="111"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -7878,10 +8150,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="86" t="s">
+      <c r="AM11" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="87"/>
+      <c r="AN11" s="111"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -7974,9 +8246,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="127"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -8081,10 +8353,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="86" t="s">
+      <c r="AM13" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="87"/>
+      <c r="AN13" s="111"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -8268,9 +8540,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -8377,10 +8649,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="86" t="s">
+      <c r="AM16" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="87"/>
+      <c r="AN16" s="111"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -8581,10 +8853,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="86" t="s">
+      <c r="AM18" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="87"/>
+      <c r="AN18" s="111"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -8775,19 +9047,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="89"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="86" t="s">
+      <c r="AM20" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="87"/>
+      <c r="AN20" s="111"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -8973,9 +9245,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -8984,10 +9256,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="86" t="s">
+      <c r="AM22" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="87"/>
+      <c r="AN22" s="111"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -9188,10 +9460,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="86" t="s">
+      <c r="AM24" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="87"/>
+      <c r="AN24" s="111"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -9392,10 +9664,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="86" t="s">
+      <c r="AM26" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="87"/>
+      <c r="AN26" s="111"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -9488,9 +9760,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="89"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="104"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -9595,10 +9867,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="86" t="s">
+      <c r="AM28" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="87"/>
+      <c r="AN28" s="111"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -9685,9 +9957,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -9794,10 +10066,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="86" t="s">
+      <c r="AM30" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="87"/>
+      <c r="AN30" s="111"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -9998,10 +10270,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="86" t="s">
+      <c r="AM32" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="87"/>
+      <c r="AN32" s="111"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -10200,10 +10472,10 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="86" t="s">
+      <c r="AM34" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="87"/>
+      <c r="AN34" s="111"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -10278,29 +10550,29 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="129"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="89"/>
-      <c r="AB35" s="130"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="89"/>
-      <c r="AE35" s="89"/>
-      <c r="AF35" s="89"/>
-      <c r="AG35" s="89"/>
+      <c r="W35" s="119"/>
+      <c r="X35" s="104"/>
+      <c r="Y35" s="104"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="120"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="104"/>
+      <c r="AF35" s="104"/>
+      <c r="AG35" s="104"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
@@ -10376,38 +10648,38 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="89"/>
-      <c r="S36" s="89"/>
-      <c r="T36" s="89"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="89"/>
-      <c r="AA36" s="89"/>
-      <c r="AB36" s="89"/>
-      <c r="AC36" s="89"/>
-      <c r="AD36" s="89"/>
-      <c r="AE36" s="89"/>
-      <c r="AF36" s="89"/>
-      <c r="AG36" s="89"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="104"/>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="104"/>
+      <c r="AD36" s="104"/>
+      <c r="AE36" s="104"/>
+      <c r="AF36" s="104"/>
+      <c r="AG36" s="104"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="86" t="s">
+      <c r="AM36" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="87"/>
+      <c r="AN36" s="111"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -10504,7 +10776,7 @@
       <c r="AY37" s="21"/>
       <c r="AZ37" s="37"/>
       <c r="BA37" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB37" s="78"/>
       <c r="BC37" s="78"/>
@@ -10515,22 +10787,22 @@
       <c r="BH37" s="78"/>
       <c r="BI37" s="78"/>
       <c r="BJ37" s="21"/>
-      <c r="BK37" s="21"/>
-      <c r="BL37" s="21"/>
-      <c r="BM37" s="78" t="s">
+      <c r="BK37" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="BN37" s="21"/>
-      <c r="BO37" s="21"/>
-      <c r="BP37" s="21"/>
-      <c r="BQ37" s="21"/>
-      <c r="BR37" s="21"/>
-      <c r="BS37" s="21"/>
-      <c r="BT37" s="21"/>
-      <c r="BU37" s="21"/>
-      <c r="BV37" s="21"/>
-      <c r="BW37" s="8"/>
-      <c r="BX37" s="8"/>
+      <c r="BL37" s="78"/>
+      <c r="BM37" s="78"/>
+      <c r="BN37" s="78"/>
+      <c r="BO37" s="78"/>
+      <c r="BP37" s="78"/>
+      <c r="BQ37" s="78"/>
+      <c r="BR37" s="78"/>
+      <c r="BS37" s="78"/>
+      <c r="BT37" s="78"/>
+      <c r="BU37" s="78"/>
+      <c r="BV37" s="78"/>
+      <c r="BW37" s="78"/>
+      <c r="BX37" s="147"/>
       <c r="BY37" s="21"/>
       <c r="BZ37" s="21"/>
       <c r="CA37" s="21"/>
@@ -10563,29 +10835,29 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="135"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="130"/>
-      <c r="AC38" s="89"/>
-      <c r="AD38" s="89"/>
-      <c r="AE38" s="89"/>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="89"/>
+      <c r="W38" s="103"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="120"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="104"/>
+      <c r="AE38" s="104"/>
+      <c r="AF38" s="104"/>
+      <c r="AG38" s="104"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
@@ -10606,7 +10878,7 @@
       <c r="AY38" s="4"/>
       <c r="AZ38" s="37"/>
       <c r="BA38" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BB38" s="78"/>
       <c r="BC38" s="78"/>
@@ -10663,38 +10935,38 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="89"/>
-      <c r="AA39" s="89"/>
-      <c r="AB39" s="89"/>
-      <c r="AC39" s="89"/>
-      <c r="AD39" s="89"/>
-      <c r="AE39" s="89"/>
-      <c r="AF39" s="89"/>
-      <c r="AG39" s="89"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="104"/>
+      <c r="Y39" s="104"/>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="104"/>
+      <c r="AB39" s="104"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="104"/>
+      <c r="AE39" s="104"/>
+      <c r="AF39" s="104"/>
+      <c r="AG39" s="104"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="86" t="s">
+      <c r="AM39" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="AN39" s="87"/>
+      <c r="AN39" s="111"/>
       <c r="AO39" s="21" t="s">
         <v>67</v>
       </c>
@@ -10712,7 +10984,7 @@
       <c r="AY39" s="4"/>
       <c r="AZ39" s="37"/>
       <c r="BA39" s="74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BB39" s="75"/>
       <c r="BC39" s="75"/>
@@ -10872,15 +11144,15 @@
       <c r="BA41" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="BB41" s="139"/>
-      <c r="BC41" s="139"/>
-      <c r="BD41" s="139"/>
-      <c r="BE41" s="139"/>
-      <c r="BF41" s="139"/>
-      <c r="BG41" s="139"/>
-      <c r="BH41" s="139"/>
-      <c r="BI41" s="139"/>
-      <c r="BJ41" s="139"/>
+      <c r="BB41" s="83"/>
+      <c r="BC41" s="83"/>
+      <c r="BD41" s="83"/>
+      <c r="BE41" s="83"/>
+      <c r="BF41" s="83"/>
+      <c r="BG41" s="83"/>
+      <c r="BH41" s="83"/>
+      <c r="BI41" s="83"/>
+      <c r="BJ41" s="83"/>
       <c r="BK41" s="76"/>
       <c r="BL41" s="78" t="s">
         <v>100</v>
@@ -11007,29 +11279,29 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
-      <c r="T43" s="89"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="104"/>
+      <c r="T43" s="104"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="89"/>
-      <c r="Y43" s="89"/>
-      <c r="Z43" s="89"/>
-      <c r="AA43" s="89"/>
-      <c r="AB43" s="130"/>
-      <c r="AC43" s="89"/>
-      <c r="AD43" s="89"/>
-      <c r="AE43" s="89"/>
-      <c r="AF43" s="89"/>
-      <c r="AG43" s="89"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="104"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104"/>
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="104"/>
+      <c r="AG43" s="104"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -11049,11 +11321,11 @@
       <c r="AX43" s="4"/>
       <c r="AY43" s="4"/>
       <c r="AZ43" s="37"/>
-      <c r="BA43" s="140" t="s">
-        <v>104</v>
+      <c r="BA43" s="84" t="s">
+        <v>103</v>
       </c>
       <c r="BB43" s="77"/>
-      <c r="BC43" s="141"/>
+      <c r="BC43" s="85"/>
       <c r="BD43" s="77"/>
       <c r="BE43" s="77"/>
       <c r="BF43" s="77"/>
@@ -11107,38 +11379,38 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="104"/>
+      <c r="T44" s="104"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="89"/>
-      <c r="AB44" s="89"/>
-      <c r="AC44" s="89"/>
-      <c r="AD44" s="89"/>
-      <c r="AE44" s="89"/>
-      <c r="AF44" s="89"/>
-      <c r="AG44" s="89"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
+      <c r="AE44" s="104"/>
+      <c r="AF44" s="104"/>
+      <c r="AG44" s="104"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="86" t="s">
+      <c r="AM44" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="AN44" s="87"/>
+      <c r="AN44" s="111"/>
       <c r="AO44" s="21" t="s">
         <v>70</v>
       </c>
@@ -11215,29 +11487,29 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
-      <c r="T45" s="89"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="T45" s="104"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="137"/>
-      <c r="X45" s="89"/>
-      <c r="Y45" s="89"/>
-      <c r="Z45" s="89"/>
-      <c r="AA45" s="89"/>
-      <c r="AB45" s="89"/>
-      <c r="AC45" s="89"/>
-      <c r="AD45" s="89"/>
-      <c r="AE45" s="89"/>
-      <c r="AF45" s="89"/>
-      <c r="AG45" s="89"/>
+      <c r="W45" s="107"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
+      <c r="AE45" s="104"/>
+      <c r="AF45" s="104"/>
+      <c r="AG45" s="104"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
@@ -11313,36 +11585,36 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="89"/>
-      <c r="S46" s="89"/>
-      <c r="T46" s="89"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="89"/>
-      <c r="Y46" s="89"/>
-      <c r="Z46" s="89"/>
-      <c r="AA46" s="89"/>
-      <c r="AB46" s="89"/>
-      <c r="AC46" s="89"/>
-      <c r="AD46" s="89"/>
-      <c r="AE46" s="89"/>
-      <c r="AF46" s="89"/>
-      <c r="AG46" s="89"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
+      <c r="AD46" s="104"/>
+      <c r="AE46" s="104"/>
+      <c r="AF46" s="104"/>
+      <c r="AG46" s="104"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="86"/>
-      <c r="AN46" s="87"/>
+      <c r="AM46" s="110"/>
+      <c r="AN46" s="111"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -11537,12 +11809,12 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="86" t="s">
+      <c r="AM48" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN48" s="111"/>
+      <c r="AO48" s="47" t="s">
         <v>105</v>
-      </c>
-      <c r="AN48" s="87"/>
-      <c r="AO48" s="47" t="s">
-        <v>106</v>
       </c>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
@@ -11551,14 +11823,14 @@
       <c r="AT48" s="4"/>
       <c r="AU48" s="37"/>
       <c r="AV48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
       <c r="AY48" s="4"/>
       <c r="AZ48" s="37"/>
       <c r="BA48" s="76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BB48" s="78"/>
       <c r="BC48" s="78"/>
@@ -12033,21 +12305,29 @@
       <c r="AJ53" s="21"/>
       <c r="AK53" s="21"/>
       <c r="AL53" s="21"/>
-      <c r="AM53" s="45"/>
-      <c r="AN53" s="46"/>
-      <c r="AO53" s="21"/>
+      <c r="AM53" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN53" s="144"/>
+      <c r="AO53" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="AP53" s="21"/>
       <c r="AQ53" s="21"/>
       <c r="AR53" s="21"/>
       <c r="AS53" s="21"/>
       <c r="AT53" s="21"/>
       <c r="AU53" s="37"/>
-      <c r="AV53" s="21"/>
+      <c r="AV53" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="AW53" s="21"/>
       <c r="AX53" s="21"/>
       <c r="AY53" s="21"/>
       <c r="AZ53" s="37"/>
-      <c r="BA53" s="21"/>
+      <c r="BA53" s="145" t="s">
+        <v>115</v>
+      </c>
       <c r="BB53" s="21"/>
       <c r="BC53" s="21"/>
       <c r="BD53" s="21"/>
@@ -12252,17 +12532,20 @@
       <c r="BI55" s="21"/>
       <c r="BJ55" s="21"/>
       <c r="BK55" s="21"/>
-      <c r="BL55" s="21"/>
-      <c r="BM55" s="21"/>
-      <c r="BO55" s="21"/>
-      <c r="BP55" s="21"/>
-      <c r="BQ55" s="21"/>
-      <c r="BR55" s="21"/>
-      <c r="BS55" s="21"/>
-      <c r="BT55" s="21"/>
-      <c r="BU55" s="21"/>
-      <c r="BV55" s="21"/>
-      <c r="BW55" s="8"/>
+      <c r="BL55" s="148" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM55" s="78"/>
+      <c r="BN55" s="149"/>
+      <c r="BO55" s="78"/>
+      <c r="BP55" s="78"/>
+      <c r="BQ55" s="78"/>
+      <c r="BR55" s="78"/>
+      <c r="BS55" s="78"/>
+      <c r="BT55" s="78"/>
+      <c r="BU55" s="78"/>
+      <c r="BV55" s="78"/>
+      <c r="BW55" s="146"/>
       <c r="BX55" s="8"/>
       <c r="BY55" s="21"/>
       <c r="BZ55" s="21"/>
@@ -12712,20 +12995,20 @@
       <c r="AJ60" s="21"/>
       <c r="AK60" s="21"/>
       <c r="AL60" s="21"/>
-      <c r="AM60" s="142"/>
-      <c r="AN60" s="142"/>
+      <c r="AM60" s="86"/>
+      <c r="AN60" s="86"/>
       <c r="AO60" s="21"/>
       <c r="AP60" s="21"/>
       <c r="AQ60" s="21"/>
       <c r="AR60" s="21"/>
       <c r="AS60" s="21"/>
       <c r="AT60" s="21"/>
-      <c r="AU60" s="143"/>
+      <c r="AU60" s="87"/>
       <c r="AV60" s="21"/>
       <c r="AW60" s="21"/>
       <c r="AX60" s="21"/>
       <c r="AY60" s="21"/>
-      <c r="AZ60" s="143"/>
+      <c r="AZ60" s="87"/>
       <c r="BA60" s="21"/>
       <c r="BB60" s="21"/>
       <c r="BC60" s="21"/>
@@ -12747,7 +13030,7 @@
       <c r="BT60" s="21"/>
       <c r="BU60" s="21"/>
       <c r="BV60" s="21"/>
-      <c r="BW60" s="143"/>
+      <c r="BW60" s="87"/>
       <c r="BX60" s="8"/>
       <c r="BY60" s="21"/>
       <c r="BZ60" s="21"/>
@@ -12809,8 +13092,8 @@
       <c r="AJ61" s="82"/>
       <c r="AK61" s="82"/>
       <c r="AL61" s="82"/>
-      <c r="AM61" s="138"/>
-      <c r="AN61" s="138"/>
+      <c r="AM61" s="135"/>
+      <c r="AN61" s="135"/>
       <c r="AO61" s="82"/>
       <c r="AP61" s="82"/>
       <c r="AQ61" s="82"/>
@@ -12869,190 +13152,190 @@
       <c r="CR61" s="21"/>
     </row>
     <row r="62" spans="1:96" ht="18" thickBot="1">
-      <c r="A62" s="107" t="s">
+      <c r="A62" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="105" t="s">
+      <c r="B62" s="113"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
-      <c r="O62" s="95"/>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="95"/>
-      <c r="R62" s="95"/>
-      <c r="S62" s="95"/>
-      <c r="T62" s="95"/>
-      <c r="U62" s="95"/>
-      <c r="V62" s="95"/>
-      <c r="W62" s="95"/>
-      <c r="X62" s="95"/>
-      <c r="Y62" s="95"/>
-      <c r="Z62" s="95"/>
-      <c r="AA62" s="95"/>
-      <c r="AB62" s="95"/>
-      <c r="AC62" s="95"/>
-      <c r="AD62" s="95"/>
-      <c r="AE62" s="95"/>
-      <c r="AF62" s="95"/>
-      <c r="AG62" s="95"/>
-      <c r="AH62" s="95"/>
-      <c r="AI62" s="95"/>
-      <c r="AJ62" s="95"/>
-      <c r="AK62" s="95"/>
-      <c r="AL62" s="95"/>
-      <c r="AM62" s="95"/>
-      <c r="AN62" s="95"/>
-      <c r="AO62" s="95"/>
-      <c r="AP62" s="95"/>
-      <c r="AQ62" s="95"/>
-      <c r="AR62" s="95"/>
-      <c r="AS62" s="95"/>
-      <c r="AT62" s="95"/>
-      <c r="AU62" s="95"/>
-      <c r="AV62" s="96"/>
-      <c r="AW62" s="94" t="s">
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="113"/>
+      <c r="O62" s="113"/>
+      <c r="P62" s="113"/>
+      <c r="Q62" s="113"/>
+      <c r="R62" s="113"/>
+      <c r="S62" s="113"/>
+      <c r="T62" s="113"/>
+      <c r="U62" s="113"/>
+      <c r="V62" s="113"/>
+      <c r="W62" s="113"/>
+      <c r="X62" s="113"/>
+      <c r="Y62" s="113"/>
+      <c r="Z62" s="113"/>
+      <c r="AA62" s="113"/>
+      <c r="AB62" s="113"/>
+      <c r="AC62" s="113"/>
+      <c r="AD62" s="113"/>
+      <c r="AE62" s="113"/>
+      <c r="AF62" s="113"/>
+      <c r="AG62" s="113"/>
+      <c r="AH62" s="113"/>
+      <c r="AI62" s="113"/>
+      <c r="AJ62" s="113"/>
+      <c r="AK62" s="113"/>
+      <c r="AL62" s="113"/>
+      <c r="AM62" s="113"/>
+      <c r="AN62" s="113"/>
+      <c r="AO62" s="113"/>
+      <c r="AP62" s="113"/>
+      <c r="AQ62" s="113"/>
+      <c r="AR62" s="113"/>
+      <c r="AS62" s="113"/>
+      <c r="AT62" s="113"/>
+      <c r="AU62" s="113"/>
+      <c r="AV62" s="114"/>
+      <c r="AW62" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AX62" s="95"/>
-      <c r="AY62" s="95"/>
-      <c r="AZ62" s="95"/>
-      <c r="BA62" s="96"/>
-      <c r="BB62" s="83" t="s">
+      <c r="AX62" s="113"/>
+      <c r="AY62" s="113"/>
+      <c r="AZ62" s="113"/>
+      <c r="BA62" s="114"/>
+      <c r="BB62" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="BC62" s="84"/>
-      <c r="BD62" s="84"/>
-      <c r="BE62" s="84"/>
-      <c r="BF62" s="84"/>
-      <c r="BG62" s="84"/>
-      <c r="BH62" s="84"/>
-      <c r="BI62" s="84"/>
-      <c r="BJ62" s="85"/>
-      <c r="BK62" s="94" t="s">
+      <c r="BC62" s="89"/>
+      <c r="BD62" s="89"/>
+      <c r="BE62" s="89"/>
+      <c r="BF62" s="89"/>
+      <c r="BG62" s="89"/>
+      <c r="BH62" s="89"/>
+      <c r="BI62" s="89"/>
+      <c r="BJ62" s="90"/>
+      <c r="BK62" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="BL62" s="95"/>
-      <c r="BM62" s="95"/>
-      <c r="BN62" s="95"/>
-      <c r="BO62" s="96"/>
-      <c r="BP62" s="112" t="s">
+      <c r="BL62" s="113"/>
+      <c r="BM62" s="113"/>
+      <c r="BN62" s="113"/>
+      <c r="BO62" s="114"/>
+      <c r="BP62" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ62" s="95"/>
-      <c r="BR62" s="95"/>
-      <c r="BS62" s="95"/>
-      <c r="BT62" s="95"/>
-      <c r="BU62" s="95"/>
-      <c r="BV62" s="95"/>
-      <c r="BW62" s="95"/>
-      <c r="BX62" s="108"/>
+      <c r="BQ62" s="113"/>
+      <c r="BR62" s="113"/>
+      <c r="BS62" s="113"/>
+      <c r="BT62" s="113"/>
+      <c r="BU62" s="113"/>
+      <c r="BV62" s="113"/>
+      <c r="BW62" s="113"/>
+      <c r="BX62" s="122"/>
       <c r="BY62" s="52"/>
       <c r="BZ62" s="52"/>
     </row>
     <row r="63" spans="1:96" ht="18">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="106" t="s">
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="133"/>
+      <c r="F63" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92"/>
-      <c r="M63" s="92"/>
-      <c r="N63" s="92"/>
-      <c r="O63" s="92"/>
-      <c r="P63" s="92"/>
-      <c r="Q63" s="92"/>
-      <c r="R63" s="92"/>
-      <c r="S63" s="92"/>
-      <c r="T63" s="92"/>
-      <c r="U63" s="92"/>
-      <c r="V63" s="92"/>
-      <c r="W63" s="92"/>
-      <c r="X63" s="92"/>
-      <c r="Y63" s="93"/>
-      <c r="Z63" s="91" t="s">
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="99"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="99"/>
+      <c r="P63" s="99"/>
+      <c r="Q63" s="99"/>
+      <c r="R63" s="99"/>
+      <c r="S63" s="99"/>
+      <c r="T63" s="99"/>
+      <c r="U63" s="99"/>
+      <c r="V63" s="99"/>
+      <c r="W63" s="99"/>
+      <c r="X63" s="99"/>
+      <c r="Y63" s="101"/>
+      <c r="Z63" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="AA63" s="92"/>
-      <c r="AB63" s="92"/>
-      <c r="AC63" s="92"/>
-      <c r="AD63" s="93"/>
-      <c r="AE63" s="106" t="s">
+      <c r="AA63" s="99"/>
+      <c r="AB63" s="99"/>
+      <c r="AC63" s="99"/>
+      <c r="AD63" s="101"/>
+      <c r="AE63" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="AF63" s="92"/>
-      <c r="AG63" s="92"/>
-      <c r="AH63" s="92"/>
-      <c r="AI63" s="92"/>
-      <c r="AJ63" s="92"/>
-      <c r="AK63" s="92"/>
-      <c r="AL63" s="92"/>
-      <c r="AM63" s="92"/>
-      <c r="AN63" s="92"/>
-      <c r="AO63" s="92"/>
-      <c r="AP63" s="92"/>
-      <c r="AQ63" s="92"/>
-      <c r="AR63" s="92"/>
-      <c r="AS63" s="92"/>
-      <c r="AT63" s="92"/>
-      <c r="AU63" s="92"/>
-      <c r="AV63" s="93"/>
-      <c r="AW63" s="91" t="s">
+      <c r="AF63" s="99"/>
+      <c r="AG63" s="99"/>
+      <c r="AH63" s="99"/>
+      <c r="AI63" s="99"/>
+      <c r="AJ63" s="99"/>
+      <c r="AK63" s="99"/>
+      <c r="AL63" s="99"/>
+      <c r="AM63" s="99"/>
+      <c r="AN63" s="99"/>
+      <c r="AO63" s="99"/>
+      <c r="AP63" s="99"/>
+      <c r="AQ63" s="99"/>
+      <c r="AR63" s="99"/>
+      <c r="AS63" s="99"/>
+      <c r="AT63" s="99"/>
+      <c r="AU63" s="99"/>
+      <c r="AV63" s="101"/>
+      <c r="AW63" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AX63" s="92"/>
-      <c r="AY63" s="92"/>
-      <c r="AZ63" s="92"/>
-      <c r="BA63" s="93"/>
-      <c r="BB63" s="100" t="s">
+      <c r="AX63" s="99"/>
+      <c r="AY63" s="99"/>
+      <c r="AZ63" s="99"/>
+      <c r="BA63" s="101"/>
+      <c r="BB63" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC63" s="92"/>
-      <c r="BD63" s="92"/>
-      <c r="BE63" s="92"/>
-      <c r="BF63" s="92"/>
-      <c r="BG63" s="92"/>
-      <c r="BH63" s="92"/>
-      <c r="BI63" s="92"/>
-      <c r="BJ63" s="92"/>
-      <c r="BK63" s="91" t="s">
+      <c r="BC63" s="99"/>
+      <c r="BD63" s="99"/>
+      <c r="BE63" s="99"/>
+      <c r="BF63" s="99"/>
+      <c r="BG63" s="99"/>
+      <c r="BH63" s="99"/>
+      <c r="BI63" s="99"/>
+      <c r="BJ63" s="99"/>
+      <c r="BK63" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="BL63" s="92"/>
-      <c r="BM63" s="92"/>
-      <c r="BN63" s="92"/>
-      <c r="BO63" s="93"/>
-      <c r="BP63" s="112" t="s">
+      <c r="BL63" s="99"/>
+      <c r="BM63" s="99"/>
+      <c r="BN63" s="99"/>
+      <c r="BO63" s="101"/>
+      <c r="BP63" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ63" s="95"/>
-      <c r="BR63" s="95"/>
-      <c r="BS63" s="95"/>
-      <c r="BT63" s="95"/>
-      <c r="BU63" s="95"/>
-      <c r="BV63" s="95"/>
-      <c r="BW63" s="95"/>
-      <c r="BX63" s="108"/>
+      <c r="BQ63" s="113"/>
+      <c r="BR63" s="113"/>
+      <c r="BS63" s="113"/>
+      <c r="BT63" s="113"/>
+      <c r="BU63" s="113"/>
+      <c r="BV63" s="113"/>
+      <c r="BW63" s="113"/>
+      <c r="BX63" s="122"/>
       <c r="BY63" s="52"/>
       <c r="BZ63" s="52"/>
     </row>
@@ -13257,51 +13540,51 @@
       <c r="AJ66" s="33"/>
       <c r="AK66" s="33"/>
       <c r="AL66" s="53"/>
-      <c r="AM66" s="97" t="s">
+      <c r="AM66" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN66" s="103"/>
-      <c r="AO66" s="97" t="s">
+      <c r="AN66" s="109"/>
+      <c r="AO66" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AP66" s="89"/>
-      <c r="AQ66" s="89"/>
-      <c r="AR66" s="89"/>
-      <c r="AS66" s="89"/>
-      <c r="AT66" s="89"/>
-      <c r="AU66" s="87"/>
-      <c r="AV66" s="97" t="s">
+      <c r="AP66" s="104"/>
+      <c r="AQ66" s="104"/>
+      <c r="AR66" s="104"/>
+      <c r="AS66" s="104"/>
+      <c r="AT66" s="104"/>
+      <c r="AU66" s="111"/>
+      <c r="AV66" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AW66" s="89"/>
-      <c r="AX66" s="89"/>
-      <c r="AY66" s="89"/>
-      <c r="AZ66" s="87"/>
-      <c r="BA66" s="97" t="s">
+      <c r="AW66" s="104"/>
+      <c r="AX66" s="104"/>
+      <c r="AY66" s="104"/>
+      <c r="AZ66" s="111"/>
+      <c r="BA66" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="BB66" s="89"/>
-      <c r="BC66" s="89"/>
-      <c r="BD66" s="89"/>
-      <c r="BE66" s="89"/>
-      <c r="BF66" s="89"/>
-      <c r="BG66" s="89"/>
-      <c r="BH66" s="89"/>
-      <c r="BI66" s="89"/>
-      <c r="BJ66" s="89"/>
-      <c r="BK66" s="89"/>
-      <c r="BL66" s="89"/>
-      <c r="BM66" s="89"/>
-      <c r="BN66" s="89"/>
-      <c r="BO66" s="89"/>
-      <c r="BP66" s="89"/>
-      <c r="BQ66" s="89"/>
-      <c r="BR66" s="89"/>
-      <c r="BS66" s="89"/>
-      <c r="BT66" s="89"/>
-      <c r="BU66" s="89"/>
-      <c r="BV66" s="89"/>
-      <c r="BW66" s="103"/>
+      <c r="BB66" s="104"/>
+      <c r="BC66" s="104"/>
+      <c r="BD66" s="104"/>
+      <c r="BE66" s="104"/>
+      <c r="BF66" s="104"/>
+      <c r="BG66" s="104"/>
+      <c r="BH66" s="104"/>
+      <c r="BI66" s="104"/>
+      <c r="BJ66" s="104"/>
+      <c r="BK66" s="104"/>
+      <c r="BL66" s="104"/>
+      <c r="BM66" s="104"/>
+      <c r="BN66" s="104"/>
+      <c r="BO66" s="104"/>
+      <c r="BP66" s="104"/>
+      <c r="BQ66" s="104"/>
+      <c r="BR66" s="104"/>
+      <c r="BS66" s="104"/>
+      <c r="BT66" s="104"/>
+      <c r="BU66" s="104"/>
+      <c r="BV66" s="104"/>
+      <c r="BW66" s="109"/>
       <c r="BX66" s="53"/>
       <c r="BY66" s="33"/>
       <c r="BZ66" s="33"/>
@@ -13309,14 +13592,14 @@
     <row r="67" spans="1:78" ht="13.5">
       <c r="A67" s="45"/>
       <c r="B67" s="55"/>
-      <c r="C67" s="113" t="s">
+      <c r="C67" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
       <c r="I67" s="56"/>
       <c r="J67" s="56"/>
       <c r="K67" s="56"/>
@@ -13347,43 +13630,43 @@
       <c r="AJ67" s="33"/>
       <c r="AK67" s="33"/>
       <c r="AL67" s="53"/>
-      <c r="AM67" s="98"/>
-      <c r="AN67" s="104"/>
-      <c r="AO67" s="98"/>
-      <c r="AP67" s="98"/>
-      <c r="AQ67" s="98"/>
-      <c r="AR67" s="98"/>
-      <c r="AS67" s="98"/>
-      <c r="AT67" s="98"/>
-      <c r="AU67" s="99"/>
-      <c r="AV67" s="98"/>
-      <c r="AW67" s="98"/>
-      <c r="AX67" s="98"/>
-      <c r="AY67" s="98"/>
-      <c r="AZ67" s="99"/>
-      <c r="BA67" s="98"/>
-      <c r="BB67" s="98"/>
-      <c r="BC67" s="98"/>
-      <c r="BD67" s="98"/>
-      <c r="BE67" s="98"/>
-      <c r="BF67" s="98"/>
-      <c r="BG67" s="98"/>
-      <c r="BH67" s="98"/>
-      <c r="BI67" s="98"/>
-      <c r="BJ67" s="98"/>
-      <c r="BK67" s="98"/>
-      <c r="BL67" s="98"/>
-      <c r="BM67" s="98"/>
-      <c r="BN67" s="98"/>
-      <c r="BO67" s="98"/>
-      <c r="BP67" s="98"/>
-      <c r="BQ67" s="98"/>
-      <c r="BR67" s="98"/>
-      <c r="BS67" s="98"/>
-      <c r="BT67" s="98"/>
-      <c r="BU67" s="98"/>
-      <c r="BV67" s="98"/>
-      <c r="BW67" s="104"/>
+      <c r="AM67" s="96"/>
+      <c r="AN67" s="97"/>
+      <c r="AO67" s="96"/>
+      <c r="AP67" s="96"/>
+      <c r="AQ67" s="96"/>
+      <c r="AR67" s="96"/>
+      <c r="AS67" s="96"/>
+      <c r="AT67" s="96"/>
+      <c r="AU67" s="115"/>
+      <c r="AV67" s="96"/>
+      <c r="AW67" s="96"/>
+      <c r="AX67" s="96"/>
+      <c r="AY67" s="96"/>
+      <c r="AZ67" s="115"/>
+      <c r="BA67" s="96"/>
+      <c r="BB67" s="96"/>
+      <c r="BC67" s="96"/>
+      <c r="BD67" s="96"/>
+      <c r="BE67" s="96"/>
+      <c r="BF67" s="96"/>
+      <c r="BG67" s="96"/>
+      <c r="BH67" s="96"/>
+      <c r="BI67" s="96"/>
+      <c r="BJ67" s="96"/>
+      <c r="BK67" s="96"/>
+      <c r="BL67" s="96"/>
+      <c r="BM67" s="96"/>
+      <c r="BN67" s="96"/>
+      <c r="BO67" s="96"/>
+      <c r="BP67" s="96"/>
+      <c r="BQ67" s="96"/>
+      <c r="BR67" s="96"/>
+      <c r="BS67" s="96"/>
+      <c r="BT67" s="96"/>
+      <c r="BU67" s="96"/>
+      <c r="BV67" s="96"/>
+      <c r="BW67" s="97"/>
       <c r="BX67" s="53"/>
       <c r="BY67" s="33"/>
       <c r="BZ67" s="33"/>
@@ -13391,12 +13674,12 @@
     <row r="68" spans="1:78">
       <c r="A68" s="45"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
       <c r="K68" s="33"/>
@@ -13427,10 +13710,10 @@
       <c r="AJ68" s="33"/>
       <c r="AK68" s="33"/>
       <c r="AL68" s="53"/>
-      <c r="AM68" s="86" t="s">
+      <c r="AM68" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AN68" s="87"/>
+      <c r="AN68" s="111"/>
       <c r="AO68" s="59" t="s">
         <v>77</v>
       </c>
@@ -13597,10 +13880,10 @@
       <c r="AJ70" s="33"/>
       <c r="AK70" s="33"/>
       <c r="AL70" s="53"/>
-      <c r="AM70" s="90">
+      <c r="AM70" s="123">
         <v>2</v>
       </c>
-      <c r="AN70" s="89"/>
+      <c r="AN70" s="104"/>
       <c r="AO70" s="64" t="s">
         <v>80</v>
       </c>
@@ -13831,10 +14114,10 @@
       <c r="AJ73" s="33"/>
       <c r="AK73" s="33"/>
       <c r="AL73" s="53"/>
-      <c r="AM73" s="88" t="s">
+      <c r="AM73" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="AN73" s="89"/>
+      <c r="AN73" s="104"/>
       <c r="AO73" s="66" t="s">
         <v>84</v>
       </c>
@@ -13887,16 +14170,16 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="115" t="s">
+      <c r="G74" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="H74" s="114"/>
-      <c r="I74" s="114"/>
-      <c r="J74" s="114"/>
-      <c r="K74" s="114"/>
-      <c r="L74" s="114"/>
-      <c r="M74" s="114"/>
-      <c r="N74" s="116"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="137"/>
+      <c r="K74" s="137"/>
+      <c r="L74" s="137"/>
+      <c r="M74" s="137"/>
+      <c r="N74" s="139"/>
       <c r="O74" s="33"/>
       <c r="P74" s="33"/>
       <c r="Q74" s="33"/>
@@ -13969,14 +14252,14 @@
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="92"/>
-      <c r="K75" s="92"/>
-      <c r="L75" s="92"/>
-      <c r="M75" s="92"/>
-      <c r="N75" s="93"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="101"/>
       <c r="O75" s="33"/>
       <c r="P75" s="33"/>
       <c r="Q75" s="33"/>
@@ -17163,190 +17446,190 @@
       <c r="BZ114" s="33"/>
     </row>
     <row r="115" spans="1:78" ht="17.25">
-      <c r="A115" s="107" t="s">
+      <c r="A115" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="95"/>
-      <c r="C115" s="95"/>
-      <c r="D115" s="95"/>
-      <c r="E115" s="108"/>
-      <c r="F115" s="105" t="s">
+      <c r="B115" s="113"/>
+      <c r="C115" s="113"/>
+      <c r="D115" s="113"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="95"/>
-      <c r="H115" s="95"/>
-      <c r="I115" s="95"/>
-      <c r="J115" s="95"/>
-      <c r="K115" s="95"/>
-      <c r="L115" s="95"/>
-      <c r="M115" s="95"/>
-      <c r="N115" s="95"/>
-      <c r="O115" s="95"/>
-      <c r="P115" s="95"/>
-      <c r="Q115" s="95"/>
-      <c r="R115" s="95"/>
-      <c r="S115" s="95"/>
-      <c r="T115" s="95"/>
-      <c r="U115" s="95"/>
-      <c r="V115" s="95"/>
-      <c r="W115" s="95"/>
-      <c r="X115" s="95"/>
-      <c r="Y115" s="95"/>
-      <c r="Z115" s="95"/>
-      <c r="AA115" s="95"/>
-      <c r="AB115" s="95"/>
-      <c r="AC115" s="95"/>
-      <c r="AD115" s="95"/>
-      <c r="AE115" s="95"/>
-      <c r="AF115" s="95"/>
-      <c r="AG115" s="95"/>
-      <c r="AH115" s="95"/>
-      <c r="AI115" s="95"/>
-      <c r="AJ115" s="95"/>
-      <c r="AK115" s="95"/>
-      <c r="AL115" s="95"/>
-      <c r="AM115" s="95"/>
-      <c r="AN115" s="95"/>
-      <c r="AO115" s="95"/>
-      <c r="AP115" s="95"/>
-      <c r="AQ115" s="95"/>
-      <c r="AR115" s="95"/>
-      <c r="AS115" s="95"/>
-      <c r="AT115" s="95"/>
-      <c r="AU115" s="95"/>
-      <c r="AV115" s="96"/>
-      <c r="AW115" s="94" t="s">
+      <c r="G115" s="113"/>
+      <c r="H115" s="113"/>
+      <c r="I115" s="113"/>
+      <c r="J115" s="113"/>
+      <c r="K115" s="113"/>
+      <c r="L115" s="113"/>
+      <c r="M115" s="113"/>
+      <c r="N115" s="113"/>
+      <c r="O115" s="113"/>
+      <c r="P115" s="113"/>
+      <c r="Q115" s="113"/>
+      <c r="R115" s="113"/>
+      <c r="S115" s="113"/>
+      <c r="T115" s="113"/>
+      <c r="U115" s="113"/>
+      <c r="V115" s="113"/>
+      <c r="W115" s="113"/>
+      <c r="X115" s="113"/>
+      <c r="Y115" s="113"/>
+      <c r="Z115" s="113"/>
+      <c r="AA115" s="113"/>
+      <c r="AB115" s="113"/>
+      <c r="AC115" s="113"/>
+      <c r="AD115" s="113"/>
+      <c r="AE115" s="113"/>
+      <c r="AF115" s="113"/>
+      <c r="AG115" s="113"/>
+      <c r="AH115" s="113"/>
+      <c r="AI115" s="113"/>
+      <c r="AJ115" s="113"/>
+      <c r="AK115" s="113"/>
+      <c r="AL115" s="113"/>
+      <c r="AM115" s="113"/>
+      <c r="AN115" s="113"/>
+      <c r="AO115" s="113"/>
+      <c r="AP115" s="113"/>
+      <c r="AQ115" s="113"/>
+      <c r="AR115" s="113"/>
+      <c r="AS115" s="113"/>
+      <c r="AT115" s="113"/>
+      <c r="AU115" s="113"/>
+      <c r="AV115" s="114"/>
+      <c r="AW115" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AX115" s="95"/>
-      <c r="AY115" s="95"/>
-      <c r="AZ115" s="95"/>
-      <c r="BA115" s="96"/>
-      <c r="BB115" s="83" t="s">
+      <c r="AX115" s="113"/>
+      <c r="AY115" s="113"/>
+      <c r="AZ115" s="113"/>
+      <c r="BA115" s="114"/>
+      <c r="BB115" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="BC115" s="84"/>
-      <c r="BD115" s="84"/>
-      <c r="BE115" s="84"/>
-      <c r="BF115" s="84"/>
-      <c r="BG115" s="84"/>
-      <c r="BH115" s="84"/>
-      <c r="BI115" s="84"/>
-      <c r="BJ115" s="85"/>
-      <c r="BK115" s="94" t="s">
+      <c r="BC115" s="89"/>
+      <c r="BD115" s="89"/>
+      <c r="BE115" s="89"/>
+      <c r="BF115" s="89"/>
+      <c r="BG115" s="89"/>
+      <c r="BH115" s="89"/>
+      <c r="BI115" s="89"/>
+      <c r="BJ115" s="90"/>
+      <c r="BK115" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="BL115" s="95"/>
-      <c r="BM115" s="95"/>
-      <c r="BN115" s="95"/>
-      <c r="BO115" s="96"/>
-      <c r="BP115" s="112" t="s">
+      <c r="BL115" s="113"/>
+      <c r="BM115" s="113"/>
+      <c r="BN115" s="113"/>
+      <c r="BO115" s="114"/>
+      <c r="BP115" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ115" s="95"/>
-      <c r="BR115" s="95"/>
-      <c r="BS115" s="95"/>
-      <c r="BT115" s="95"/>
-      <c r="BU115" s="95"/>
-      <c r="BV115" s="95"/>
-      <c r="BW115" s="95"/>
-      <c r="BX115" s="108"/>
+      <c r="BQ115" s="113"/>
+      <c r="BR115" s="113"/>
+      <c r="BS115" s="113"/>
+      <c r="BT115" s="113"/>
+      <c r="BU115" s="113"/>
+      <c r="BV115" s="113"/>
+      <c r="BW115" s="113"/>
+      <c r="BX115" s="122"/>
       <c r="BY115" s="52"/>
       <c r="BZ115" s="52"/>
     </row>
     <row r="116" spans="1:78" ht="18">
-      <c r="A116" s="109" t="s">
+      <c r="A116" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="92"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="92"/>
-      <c r="E116" s="110"/>
-      <c r="F116" s="106" t="s">
+      <c r="B116" s="99"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="133"/>
+      <c r="F116" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="92"/>
-      <c r="H116" s="92"/>
-      <c r="I116" s="92"/>
-      <c r="J116" s="92"/>
-      <c r="K116" s="92"/>
-      <c r="L116" s="92"/>
-      <c r="M116" s="92"/>
-      <c r="N116" s="92"/>
-      <c r="O116" s="92"/>
-      <c r="P116" s="92"/>
-      <c r="Q116" s="92"/>
-      <c r="R116" s="92"/>
-      <c r="S116" s="92"/>
-      <c r="T116" s="92"/>
-      <c r="U116" s="92"/>
-      <c r="V116" s="92"/>
-      <c r="W116" s="92"/>
-      <c r="X116" s="92"/>
-      <c r="Y116" s="93"/>
-      <c r="Z116" s="91" t="s">
+      <c r="G116" s="99"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="99"/>
+      <c r="J116" s="99"/>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="99"/>
+      <c r="N116" s="99"/>
+      <c r="O116" s="99"/>
+      <c r="P116" s="99"/>
+      <c r="Q116" s="99"/>
+      <c r="R116" s="99"/>
+      <c r="S116" s="99"/>
+      <c r="T116" s="99"/>
+      <c r="U116" s="99"/>
+      <c r="V116" s="99"/>
+      <c r="W116" s="99"/>
+      <c r="X116" s="99"/>
+      <c r="Y116" s="101"/>
+      <c r="Z116" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="AA116" s="92"/>
-      <c r="AB116" s="92"/>
-      <c r="AC116" s="92"/>
-      <c r="AD116" s="93"/>
-      <c r="AE116" s="106" t="s">
+      <c r="AA116" s="99"/>
+      <c r="AB116" s="99"/>
+      <c r="AC116" s="99"/>
+      <c r="AD116" s="101"/>
+      <c r="AE116" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="AF116" s="92"/>
-      <c r="AG116" s="92"/>
-      <c r="AH116" s="92"/>
-      <c r="AI116" s="92"/>
-      <c r="AJ116" s="92"/>
-      <c r="AK116" s="92"/>
-      <c r="AL116" s="92"/>
-      <c r="AM116" s="92"/>
-      <c r="AN116" s="92"/>
-      <c r="AO116" s="92"/>
-      <c r="AP116" s="92"/>
-      <c r="AQ116" s="92"/>
-      <c r="AR116" s="92"/>
-      <c r="AS116" s="92"/>
-      <c r="AT116" s="92"/>
-      <c r="AU116" s="92"/>
-      <c r="AV116" s="93"/>
-      <c r="AW116" s="91" t="s">
+      <c r="AF116" s="99"/>
+      <c r="AG116" s="99"/>
+      <c r="AH116" s="99"/>
+      <c r="AI116" s="99"/>
+      <c r="AJ116" s="99"/>
+      <c r="AK116" s="99"/>
+      <c r="AL116" s="99"/>
+      <c r="AM116" s="99"/>
+      <c r="AN116" s="99"/>
+      <c r="AO116" s="99"/>
+      <c r="AP116" s="99"/>
+      <c r="AQ116" s="99"/>
+      <c r="AR116" s="99"/>
+      <c r="AS116" s="99"/>
+      <c r="AT116" s="99"/>
+      <c r="AU116" s="99"/>
+      <c r="AV116" s="101"/>
+      <c r="AW116" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AX116" s="92"/>
-      <c r="AY116" s="92"/>
-      <c r="AZ116" s="92"/>
-      <c r="BA116" s="93"/>
-      <c r="BB116" s="100" t="s">
+      <c r="AX116" s="99"/>
+      <c r="AY116" s="99"/>
+      <c r="AZ116" s="99"/>
+      <c r="BA116" s="101"/>
+      <c r="BB116" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC116" s="92"/>
-      <c r="BD116" s="92"/>
-      <c r="BE116" s="92"/>
-      <c r="BF116" s="92"/>
-      <c r="BG116" s="92"/>
-      <c r="BH116" s="92"/>
-      <c r="BI116" s="92"/>
-      <c r="BJ116" s="92"/>
-      <c r="BK116" s="91" t="s">
+      <c r="BC116" s="99"/>
+      <c r="BD116" s="99"/>
+      <c r="BE116" s="99"/>
+      <c r="BF116" s="99"/>
+      <c r="BG116" s="99"/>
+      <c r="BH116" s="99"/>
+      <c r="BI116" s="99"/>
+      <c r="BJ116" s="99"/>
+      <c r="BK116" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="BL116" s="92"/>
-      <c r="BM116" s="92"/>
-      <c r="BN116" s="92"/>
-      <c r="BO116" s="93"/>
-      <c r="BP116" s="112" t="s">
+      <c r="BL116" s="99"/>
+      <c r="BM116" s="99"/>
+      <c r="BN116" s="99"/>
+      <c r="BO116" s="101"/>
+      <c r="BP116" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ116" s="95"/>
-      <c r="BR116" s="95"/>
-      <c r="BS116" s="95"/>
-      <c r="BT116" s="95"/>
-      <c r="BU116" s="95"/>
-      <c r="BV116" s="95"/>
-      <c r="BW116" s="95"/>
-      <c r="BX116" s="108"/>
+      <c r="BQ116" s="113"/>
+      <c r="BR116" s="113"/>
+      <c r="BS116" s="113"/>
+      <c r="BT116" s="113"/>
+      <c r="BU116" s="113"/>
+      <c r="BV116" s="113"/>
+      <c r="BW116" s="113"/>
+      <c r="BX116" s="122"/>
       <c r="BY116" s="52"/>
       <c r="BZ116" s="52"/>
     </row>
@@ -17551,51 +17834,51 @@
       <c r="AJ119" s="4"/>
       <c r="AK119" s="4"/>
       <c r="AL119" s="53"/>
-      <c r="AM119" s="97" t="s">
+      <c r="AM119" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN119" s="103"/>
-      <c r="AO119" s="97" t="s">
+      <c r="AN119" s="109"/>
+      <c r="AO119" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AP119" s="89"/>
-      <c r="AQ119" s="89"/>
-      <c r="AR119" s="89"/>
-      <c r="AS119" s="89"/>
-      <c r="AT119" s="89"/>
-      <c r="AU119" s="87"/>
-      <c r="AV119" s="97" t="s">
+      <c r="AP119" s="104"/>
+      <c r="AQ119" s="104"/>
+      <c r="AR119" s="104"/>
+      <c r="AS119" s="104"/>
+      <c r="AT119" s="104"/>
+      <c r="AU119" s="111"/>
+      <c r="AV119" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AW119" s="89"/>
-      <c r="AX119" s="89"/>
-      <c r="AY119" s="89"/>
-      <c r="AZ119" s="87"/>
-      <c r="BA119" s="97" t="s">
+      <c r="AW119" s="104"/>
+      <c r="AX119" s="104"/>
+      <c r="AY119" s="104"/>
+      <c r="AZ119" s="111"/>
+      <c r="BA119" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="BB119" s="89"/>
-      <c r="BC119" s="89"/>
-      <c r="BD119" s="89"/>
-      <c r="BE119" s="89"/>
-      <c r="BF119" s="89"/>
-      <c r="BG119" s="89"/>
-      <c r="BH119" s="89"/>
-      <c r="BI119" s="89"/>
-      <c r="BJ119" s="89"/>
-      <c r="BK119" s="89"/>
-      <c r="BL119" s="89"/>
-      <c r="BM119" s="89"/>
-      <c r="BN119" s="89"/>
-      <c r="BO119" s="89"/>
-      <c r="BP119" s="89"/>
-      <c r="BQ119" s="89"/>
-      <c r="BR119" s="89"/>
-      <c r="BS119" s="89"/>
-      <c r="BT119" s="89"/>
-      <c r="BU119" s="89"/>
-      <c r="BV119" s="89"/>
-      <c r="BW119" s="103"/>
+      <c r="BB119" s="104"/>
+      <c r="BC119" s="104"/>
+      <c r="BD119" s="104"/>
+      <c r="BE119" s="104"/>
+      <c r="BF119" s="104"/>
+      <c r="BG119" s="104"/>
+      <c r="BH119" s="104"/>
+      <c r="BI119" s="104"/>
+      <c r="BJ119" s="104"/>
+      <c r="BK119" s="104"/>
+      <c r="BL119" s="104"/>
+      <c r="BM119" s="104"/>
+      <c r="BN119" s="104"/>
+      <c r="BO119" s="104"/>
+      <c r="BP119" s="104"/>
+      <c r="BQ119" s="104"/>
+      <c r="BR119" s="104"/>
+      <c r="BS119" s="104"/>
+      <c r="BT119" s="104"/>
+      <c r="BU119" s="104"/>
+      <c r="BV119" s="104"/>
+      <c r="BW119" s="109"/>
       <c r="BX119" s="53"/>
       <c r="BY119" s="4"/>
       <c r="BZ119" s="4"/>
@@ -17639,43 +17922,43 @@
       <c r="AJ120" s="4"/>
       <c r="AK120" s="4"/>
       <c r="AL120" s="53"/>
-      <c r="AM120" s="98"/>
-      <c r="AN120" s="104"/>
-      <c r="AO120" s="98"/>
-      <c r="AP120" s="98"/>
-      <c r="AQ120" s="98"/>
-      <c r="AR120" s="98"/>
-      <c r="AS120" s="98"/>
-      <c r="AT120" s="98"/>
-      <c r="AU120" s="99"/>
-      <c r="AV120" s="98"/>
-      <c r="AW120" s="98"/>
-      <c r="AX120" s="98"/>
-      <c r="AY120" s="98"/>
-      <c r="AZ120" s="99"/>
-      <c r="BA120" s="98"/>
-      <c r="BB120" s="98"/>
-      <c r="BC120" s="98"/>
-      <c r="BD120" s="98"/>
-      <c r="BE120" s="98"/>
-      <c r="BF120" s="98"/>
-      <c r="BG120" s="98"/>
-      <c r="BH120" s="98"/>
-      <c r="BI120" s="98"/>
-      <c r="BJ120" s="98"/>
-      <c r="BK120" s="98"/>
-      <c r="BL120" s="98"/>
-      <c r="BM120" s="98"/>
-      <c r="BN120" s="98"/>
-      <c r="BO120" s="98"/>
-      <c r="BP120" s="98"/>
-      <c r="BQ120" s="98"/>
-      <c r="BR120" s="98"/>
-      <c r="BS120" s="98"/>
-      <c r="BT120" s="98"/>
-      <c r="BU120" s="98"/>
-      <c r="BV120" s="98"/>
-      <c r="BW120" s="104"/>
+      <c r="AM120" s="96"/>
+      <c r="AN120" s="97"/>
+      <c r="AO120" s="96"/>
+      <c r="AP120" s="96"/>
+      <c r="AQ120" s="96"/>
+      <c r="AR120" s="96"/>
+      <c r="AS120" s="96"/>
+      <c r="AT120" s="96"/>
+      <c r="AU120" s="115"/>
+      <c r="AV120" s="96"/>
+      <c r="AW120" s="96"/>
+      <c r="AX120" s="96"/>
+      <c r="AY120" s="96"/>
+      <c r="AZ120" s="115"/>
+      <c r="BA120" s="96"/>
+      <c r="BB120" s="96"/>
+      <c r="BC120" s="96"/>
+      <c r="BD120" s="96"/>
+      <c r="BE120" s="96"/>
+      <c r="BF120" s="96"/>
+      <c r="BG120" s="96"/>
+      <c r="BH120" s="96"/>
+      <c r="BI120" s="96"/>
+      <c r="BJ120" s="96"/>
+      <c r="BK120" s="96"/>
+      <c r="BL120" s="96"/>
+      <c r="BM120" s="96"/>
+      <c r="BN120" s="96"/>
+      <c r="BO120" s="96"/>
+      <c r="BP120" s="96"/>
+      <c r="BQ120" s="96"/>
+      <c r="BR120" s="96"/>
+      <c r="BS120" s="96"/>
+      <c r="BT120" s="96"/>
+      <c r="BU120" s="96"/>
+      <c r="BV120" s="96"/>
+      <c r="BW120" s="97"/>
       <c r="BX120" s="53"/>
       <c r="BY120" s="4"/>
       <c r="BZ120" s="4"/>
@@ -17719,10 +18002,10 @@
       <c r="AJ121" s="4"/>
       <c r="AK121" s="4"/>
       <c r="AL121" s="53"/>
-      <c r="AM121" s="86" t="s">
+      <c r="AM121" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AN121" s="87"/>
+      <c r="AN121" s="111"/>
       <c r="AO121" s="59" t="s">
         <v>89</v>
       </c>
@@ -17887,8 +18170,8 @@
       <c r="AJ123" s="4"/>
       <c r="AK123" s="4"/>
       <c r="AL123" s="53"/>
-      <c r="AM123" s="90"/>
-      <c r="AN123" s="89"/>
+      <c r="AM123" s="123"/>
+      <c r="AN123" s="104"/>
       <c r="AO123" s="64"/>
       <c r="AP123" s="33"/>
       <c r="AQ123" s="33"/>
@@ -18127,8 +18410,8 @@
       <c r="AJ126" s="4"/>
       <c r="AK126" s="4"/>
       <c r="AL126" s="53"/>
-      <c r="AM126" s="88"/>
-      <c r="AN126" s="89"/>
+      <c r="AM126" s="143"/>
+      <c r="AN126" s="104"/>
       <c r="AO126" s="66"/>
       <c r="AP126" s="33"/>
       <c r="AQ126" s="33"/>
@@ -21449,190 +21732,190 @@
       <c r="BZ167" s="4"/>
     </row>
     <row r="168" spans="1:78" ht="17.25">
-      <c r="A168" s="107" t="s">
+      <c r="A168" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="95"/>
-      <c r="C168" s="95"/>
-      <c r="D168" s="95"/>
-      <c r="E168" s="108"/>
-      <c r="F168" s="105" t="s">
+      <c r="B168" s="113"/>
+      <c r="C168" s="113"/>
+      <c r="D168" s="113"/>
+      <c r="E168" s="122"/>
+      <c r="F168" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G168" s="95"/>
-      <c r="H168" s="95"/>
-      <c r="I168" s="95"/>
-      <c r="J168" s="95"/>
-      <c r="K168" s="95"/>
-      <c r="L168" s="95"/>
-      <c r="M168" s="95"/>
-      <c r="N168" s="95"/>
-      <c r="O168" s="95"/>
-      <c r="P168" s="95"/>
-      <c r="Q168" s="95"/>
-      <c r="R168" s="95"/>
-      <c r="S168" s="95"/>
-      <c r="T168" s="95"/>
-      <c r="U168" s="95"/>
-      <c r="V168" s="95"/>
-      <c r="W168" s="95"/>
-      <c r="X168" s="95"/>
-      <c r="Y168" s="95"/>
-      <c r="Z168" s="95"/>
-      <c r="AA168" s="95"/>
-      <c r="AB168" s="95"/>
-      <c r="AC168" s="95"/>
-      <c r="AD168" s="95"/>
-      <c r="AE168" s="95"/>
-      <c r="AF168" s="95"/>
-      <c r="AG168" s="95"/>
-      <c r="AH168" s="95"/>
-      <c r="AI168" s="95"/>
-      <c r="AJ168" s="95"/>
-      <c r="AK168" s="95"/>
-      <c r="AL168" s="95"/>
-      <c r="AM168" s="95"/>
-      <c r="AN168" s="95"/>
-      <c r="AO168" s="95"/>
-      <c r="AP168" s="95"/>
-      <c r="AQ168" s="95"/>
-      <c r="AR168" s="95"/>
-      <c r="AS168" s="95"/>
-      <c r="AT168" s="95"/>
-      <c r="AU168" s="95"/>
-      <c r="AV168" s="96"/>
-      <c r="AW168" s="94" t="s">
+      <c r="G168" s="113"/>
+      <c r="H168" s="113"/>
+      <c r="I168" s="113"/>
+      <c r="J168" s="113"/>
+      <c r="K168" s="113"/>
+      <c r="L168" s="113"/>
+      <c r="M168" s="113"/>
+      <c r="N168" s="113"/>
+      <c r="O168" s="113"/>
+      <c r="P168" s="113"/>
+      <c r="Q168" s="113"/>
+      <c r="R168" s="113"/>
+      <c r="S168" s="113"/>
+      <c r="T168" s="113"/>
+      <c r="U168" s="113"/>
+      <c r="V168" s="113"/>
+      <c r="W168" s="113"/>
+      <c r="X168" s="113"/>
+      <c r="Y168" s="113"/>
+      <c r="Z168" s="113"/>
+      <c r="AA168" s="113"/>
+      <c r="AB168" s="113"/>
+      <c r="AC168" s="113"/>
+      <c r="AD168" s="113"/>
+      <c r="AE168" s="113"/>
+      <c r="AF168" s="113"/>
+      <c r="AG168" s="113"/>
+      <c r="AH168" s="113"/>
+      <c r="AI168" s="113"/>
+      <c r="AJ168" s="113"/>
+      <c r="AK168" s="113"/>
+      <c r="AL168" s="113"/>
+      <c r="AM168" s="113"/>
+      <c r="AN168" s="113"/>
+      <c r="AO168" s="113"/>
+      <c r="AP168" s="113"/>
+      <c r="AQ168" s="113"/>
+      <c r="AR168" s="113"/>
+      <c r="AS168" s="113"/>
+      <c r="AT168" s="113"/>
+      <c r="AU168" s="113"/>
+      <c r="AV168" s="114"/>
+      <c r="AW168" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AX168" s="95"/>
-      <c r="AY168" s="95"/>
-      <c r="AZ168" s="95"/>
-      <c r="BA168" s="96"/>
-      <c r="BB168" s="83" t="s">
+      <c r="AX168" s="113"/>
+      <c r="AY168" s="113"/>
+      <c r="AZ168" s="113"/>
+      <c r="BA168" s="114"/>
+      <c r="BB168" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="BC168" s="84"/>
-      <c r="BD168" s="84"/>
-      <c r="BE168" s="84"/>
-      <c r="BF168" s="84"/>
-      <c r="BG168" s="84"/>
-      <c r="BH168" s="84"/>
-      <c r="BI168" s="84"/>
-      <c r="BJ168" s="85"/>
-      <c r="BK168" s="94" t="s">
+      <c r="BC168" s="89"/>
+      <c r="BD168" s="89"/>
+      <c r="BE168" s="89"/>
+      <c r="BF168" s="89"/>
+      <c r="BG168" s="89"/>
+      <c r="BH168" s="89"/>
+      <c r="BI168" s="89"/>
+      <c r="BJ168" s="90"/>
+      <c r="BK168" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="BL168" s="95"/>
-      <c r="BM168" s="95"/>
-      <c r="BN168" s="95"/>
-      <c r="BO168" s="96"/>
-      <c r="BP168" s="112" t="s">
+      <c r="BL168" s="113"/>
+      <c r="BM168" s="113"/>
+      <c r="BN168" s="113"/>
+      <c r="BO168" s="114"/>
+      <c r="BP168" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ168" s="95"/>
-      <c r="BR168" s="95"/>
-      <c r="BS168" s="95"/>
-      <c r="BT168" s="95"/>
-      <c r="BU168" s="95"/>
-      <c r="BV168" s="95"/>
-      <c r="BW168" s="95"/>
-      <c r="BX168" s="108"/>
+      <c r="BQ168" s="113"/>
+      <c r="BR168" s="113"/>
+      <c r="BS168" s="113"/>
+      <c r="BT168" s="113"/>
+      <c r="BU168" s="113"/>
+      <c r="BV168" s="113"/>
+      <c r="BW168" s="113"/>
+      <c r="BX168" s="122"/>
       <c r="BY168" s="52"/>
       <c r="BZ168" s="52"/>
     </row>
     <row r="169" spans="1:78" ht="18">
-      <c r="A169" s="109" t="s">
+      <c r="A169" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="92"/>
-      <c r="C169" s="92"/>
-      <c r="D169" s="92"/>
-      <c r="E169" s="110"/>
-      <c r="F169" s="106" t="s">
+      <c r="B169" s="99"/>
+      <c r="C169" s="99"/>
+      <c r="D169" s="99"/>
+      <c r="E169" s="133"/>
+      <c r="F169" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G169" s="92"/>
-      <c r="H169" s="92"/>
-      <c r="I169" s="92"/>
-      <c r="J169" s="92"/>
-      <c r="K169" s="92"/>
-      <c r="L169" s="92"/>
-      <c r="M169" s="92"/>
-      <c r="N169" s="92"/>
-      <c r="O169" s="92"/>
-      <c r="P169" s="92"/>
-      <c r="Q169" s="92"/>
-      <c r="R169" s="92"/>
-      <c r="S169" s="92"/>
-      <c r="T169" s="92"/>
-      <c r="U169" s="92"/>
-      <c r="V169" s="92"/>
-      <c r="W169" s="92"/>
-      <c r="X169" s="92"/>
-      <c r="Y169" s="93"/>
-      <c r="Z169" s="91" t="s">
+      <c r="G169" s="99"/>
+      <c r="H169" s="99"/>
+      <c r="I169" s="99"/>
+      <c r="J169" s="99"/>
+      <c r="K169" s="99"/>
+      <c r="L169" s="99"/>
+      <c r="M169" s="99"/>
+      <c r="N169" s="99"/>
+      <c r="O169" s="99"/>
+      <c r="P169" s="99"/>
+      <c r="Q169" s="99"/>
+      <c r="R169" s="99"/>
+      <c r="S169" s="99"/>
+      <c r="T169" s="99"/>
+      <c r="U169" s="99"/>
+      <c r="V169" s="99"/>
+      <c r="W169" s="99"/>
+      <c r="X169" s="99"/>
+      <c r="Y169" s="101"/>
+      <c r="Z169" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="AA169" s="92"/>
-      <c r="AB169" s="92"/>
-      <c r="AC169" s="92"/>
-      <c r="AD169" s="93"/>
-      <c r="AE169" s="106" t="s">
+      <c r="AA169" s="99"/>
+      <c r="AB169" s="99"/>
+      <c r="AC169" s="99"/>
+      <c r="AD169" s="101"/>
+      <c r="AE169" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="AF169" s="92"/>
-      <c r="AG169" s="92"/>
-      <c r="AH169" s="92"/>
-      <c r="AI169" s="92"/>
-      <c r="AJ169" s="92"/>
-      <c r="AK169" s="92"/>
-      <c r="AL169" s="92"/>
-      <c r="AM169" s="92"/>
-      <c r="AN169" s="92"/>
-      <c r="AO169" s="92"/>
-      <c r="AP169" s="92"/>
-      <c r="AQ169" s="92"/>
-      <c r="AR169" s="92"/>
-      <c r="AS169" s="92"/>
-      <c r="AT169" s="92"/>
-      <c r="AU169" s="92"/>
-      <c r="AV169" s="93"/>
-      <c r="AW169" s="91" t="s">
+      <c r="AF169" s="99"/>
+      <c r="AG169" s="99"/>
+      <c r="AH169" s="99"/>
+      <c r="AI169" s="99"/>
+      <c r="AJ169" s="99"/>
+      <c r="AK169" s="99"/>
+      <c r="AL169" s="99"/>
+      <c r="AM169" s="99"/>
+      <c r="AN169" s="99"/>
+      <c r="AO169" s="99"/>
+      <c r="AP169" s="99"/>
+      <c r="AQ169" s="99"/>
+      <c r="AR169" s="99"/>
+      <c r="AS169" s="99"/>
+      <c r="AT169" s="99"/>
+      <c r="AU169" s="99"/>
+      <c r="AV169" s="101"/>
+      <c r="AW169" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AX169" s="92"/>
-      <c r="AY169" s="92"/>
-      <c r="AZ169" s="92"/>
-      <c r="BA169" s="93"/>
-      <c r="BB169" s="100" t="s">
+      <c r="AX169" s="99"/>
+      <c r="AY169" s="99"/>
+      <c r="AZ169" s="99"/>
+      <c r="BA169" s="101"/>
+      <c r="BB169" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC169" s="92"/>
-      <c r="BD169" s="92"/>
-      <c r="BE169" s="92"/>
-      <c r="BF169" s="92"/>
-      <c r="BG169" s="92"/>
-      <c r="BH169" s="92"/>
-      <c r="BI169" s="92"/>
-      <c r="BJ169" s="92"/>
-      <c r="BK169" s="91" t="s">
+      <c r="BC169" s="99"/>
+      <c r="BD169" s="99"/>
+      <c r="BE169" s="99"/>
+      <c r="BF169" s="99"/>
+      <c r="BG169" s="99"/>
+      <c r="BH169" s="99"/>
+      <c r="BI169" s="99"/>
+      <c r="BJ169" s="99"/>
+      <c r="BK169" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="BL169" s="92"/>
-      <c r="BM169" s="92"/>
-      <c r="BN169" s="92"/>
-      <c r="BO169" s="93"/>
-      <c r="BP169" s="112" t="s">
+      <c r="BL169" s="99"/>
+      <c r="BM169" s="99"/>
+      <c r="BN169" s="99"/>
+      <c r="BO169" s="101"/>
+      <c r="BP169" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ169" s="95"/>
-      <c r="BR169" s="95"/>
-      <c r="BS169" s="95"/>
-      <c r="BT169" s="95"/>
-      <c r="BU169" s="95"/>
-      <c r="BV169" s="95"/>
-      <c r="BW169" s="95"/>
-      <c r="BX169" s="108"/>
+      <c r="BQ169" s="113"/>
+      <c r="BR169" s="113"/>
+      <c r="BS169" s="113"/>
+      <c r="BT169" s="113"/>
+      <c r="BU169" s="113"/>
+      <c r="BV169" s="113"/>
+      <c r="BW169" s="113"/>
+      <c r="BX169" s="122"/>
       <c r="BY169" s="52"/>
       <c r="BZ169" s="52"/>
     </row>
@@ -21836,51 +22119,51 @@
       <c r="AJ172" s="4"/>
       <c r="AK172" s="4"/>
       <c r="AL172" s="53"/>
-      <c r="AM172" s="97" t="s">
+      <c r="AM172" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN172" s="103"/>
-      <c r="AO172" s="97" t="s">
+      <c r="AN172" s="109"/>
+      <c r="AO172" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AP172" s="89"/>
-      <c r="AQ172" s="89"/>
-      <c r="AR172" s="89"/>
-      <c r="AS172" s="89"/>
-      <c r="AT172" s="89"/>
-      <c r="AU172" s="87"/>
-      <c r="AV172" s="97" t="s">
+      <c r="AP172" s="104"/>
+      <c r="AQ172" s="104"/>
+      <c r="AR172" s="104"/>
+      <c r="AS172" s="104"/>
+      <c r="AT172" s="104"/>
+      <c r="AU172" s="111"/>
+      <c r="AV172" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AW172" s="89"/>
-      <c r="AX172" s="89"/>
-      <c r="AY172" s="89"/>
-      <c r="AZ172" s="87"/>
-      <c r="BA172" s="97" t="s">
+      <c r="AW172" s="104"/>
+      <c r="AX172" s="104"/>
+      <c r="AY172" s="104"/>
+      <c r="AZ172" s="111"/>
+      <c r="BA172" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="BB172" s="89"/>
-      <c r="BC172" s="89"/>
-      <c r="BD172" s="89"/>
-      <c r="BE172" s="89"/>
-      <c r="BF172" s="89"/>
-      <c r="BG172" s="89"/>
-      <c r="BH172" s="89"/>
-      <c r="BI172" s="89"/>
-      <c r="BJ172" s="89"/>
-      <c r="BK172" s="89"/>
-      <c r="BL172" s="89"/>
-      <c r="BM172" s="89"/>
-      <c r="BN172" s="89"/>
-      <c r="BO172" s="89"/>
-      <c r="BP172" s="89"/>
-      <c r="BQ172" s="89"/>
-      <c r="BR172" s="89"/>
-      <c r="BS172" s="89"/>
-      <c r="BT172" s="89"/>
-      <c r="BU172" s="89"/>
-      <c r="BV172" s="89"/>
-      <c r="BW172" s="103"/>
+      <c r="BB172" s="104"/>
+      <c r="BC172" s="104"/>
+      <c r="BD172" s="104"/>
+      <c r="BE172" s="104"/>
+      <c r="BF172" s="104"/>
+      <c r="BG172" s="104"/>
+      <c r="BH172" s="104"/>
+      <c r="BI172" s="104"/>
+      <c r="BJ172" s="104"/>
+      <c r="BK172" s="104"/>
+      <c r="BL172" s="104"/>
+      <c r="BM172" s="104"/>
+      <c r="BN172" s="104"/>
+      <c r="BO172" s="104"/>
+      <c r="BP172" s="104"/>
+      <c r="BQ172" s="104"/>
+      <c r="BR172" s="104"/>
+      <c r="BS172" s="104"/>
+      <c r="BT172" s="104"/>
+      <c r="BU172" s="104"/>
+      <c r="BV172" s="104"/>
+      <c r="BW172" s="109"/>
       <c r="BX172" s="4"/>
       <c r="BY172" s="4"/>
       <c r="BZ172" s="4"/>
@@ -21924,43 +22207,43 @@
       <c r="AJ173" s="4"/>
       <c r="AK173" s="4"/>
       <c r="AL173" s="53"/>
-      <c r="AM173" s="98"/>
-      <c r="AN173" s="104"/>
-      <c r="AO173" s="98"/>
-      <c r="AP173" s="98"/>
-      <c r="AQ173" s="98"/>
-      <c r="AR173" s="98"/>
-      <c r="AS173" s="98"/>
-      <c r="AT173" s="98"/>
-      <c r="AU173" s="99"/>
-      <c r="AV173" s="98"/>
-      <c r="AW173" s="98"/>
-      <c r="AX173" s="98"/>
-      <c r="AY173" s="98"/>
-      <c r="AZ173" s="99"/>
-      <c r="BA173" s="98"/>
-      <c r="BB173" s="98"/>
-      <c r="BC173" s="98"/>
-      <c r="BD173" s="98"/>
-      <c r="BE173" s="98"/>
-      <c r="BF173" s="98"/>
-      <c r="BG173" s="98"/>
-      <c r="BH173" s="98"/>
-      <c r="BI173" s="98"/>
-      <c r="BJ173" s="98"/>
-      <c r="BK173" s="98"/>
-      <c r="BL173" s="98"/>
-      <c r="BM173" s="98"/>
-      <c r="BN173" s="98"/>
-      <c r="BO173" s="98"/>
-      <c r="BP173" s="98"/>
-      <c r="BQ173" s="98"/>
-      <c r="BR173" s="98"/>
-      <c r="BS173" s="98"/>
-      <c r="BT173" s="98"/>
-      <c r="BU173" s="98"/>
-      <c r="BV173" s="98"/>
-      <c r="BW173" s="104"/>
+      <c r="AM173" s="96"/>
+      <c r="AN173" s="97"/>
+      <c r="AO173" s="96"/>
+      <c r="AP173" s="96"/>
+      <c r="AQ173" s="96"/>
+      <c r="AR173" s="96"/>
+      <c r="AS173" s="96"/>
+      <c r="AT173" s="96"/>
+      <c r="AU173" s="115"/>
+      <c r="AV173" s="96"/>
+      <c r="AW173" s="96"/>
+      <c r="AX173" s="96"/>
+      <c r="AY173" s="96"/>
+      <c r="AZ173" s="115"/>
+      <c r="BA173" s="96"/>
+      <c r="BB173" s="96"/>
+      <c r="BC173" s="96"/>
+      <c r="BD173" s="96"/>
+      <c r="BE173" s="96"/>
+      <c r="BF173" s="96"/>
+      <c r="BG173" s="96"/>
+      <c r="BH173" s="96"/>
+      <c r="BI173" s="96"/>
+      <c r="BJ173" s="96"/>
+      <c r="BK173" s="96"/>
+      <c r="BL173" s="96"/>
+      <c r="BM173" s="96"/>
+      <c r="BN173" s="96"/>
+      <c r="BO173" s="96"/>
+      <c r="BP173" s="96"/>
+      <c r="BQ173" s="96"/>
+      <c r="BR173" s="96"/>
+      <c r="BS173" s="96"/>
+      <c r="BT173" s="96"/>
+      <c r="BU173" s="96"/>
+      <c r="BV173" s="96"/>
+      <c r="BW173" s="97"/>
       <c r="BX173" s="4"/>
       <c r="BY173" s="4"/>
       <c r="BZ173" s="4"/>
@@ -22004,10 +22287,10 @@
       <c r="AJ174" s="4"/>
       <c r="AK174" s="4"/>
       <c r="AL174" s="53"/>
-      <c r="AM174" s="86" t="s">
+      <c r="AM174" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AN174" s="87"/>
+      <c r="AN174" s="111"/>
       <c r="AO174" s="59" t="s">
         <v>89</v>
       </c>
@@ -22174,8 +22457,8 @@
       <c r="AJ176" s="4"/>
       <c r="AK176" s="4"/>
       <c r="AL176" s="53"/>
-      <c r="AM176" s="90"/>
-      <c r="AN176" s="89"/>
+      <c r="AM176" s="123"/>
+      <c r="AN176" s="104"/>
       <c r="AO176" s="64"/>
       <c r="AP176" s="33"/>
       <c r="AQ176" s="33"/>
@@ -22414,8 +22697,8 @@
       <c r="AJ179" s="4"/>
       <c r="AK179" s="4"/>
       <c r="AL179" s="53"/>
-      <c r="AM179" s="88"/>
-      <c r="AN179" s="89"/>
+      <c r="AM179" s="143"/>
+      <c r="AN179" s="104"/>
       <c r="AO179" s="66"/>
       <c r="AP179" s="33"/>
       <c r="AQ179" s="33"/>
@@ -25736,190 +26019,190 @@
       <c r="BZ220" s="4"/>
     </row>
     <row r="221" spans="1:78" ht="17.25">
-      <c r="A221" s="107" t="s">
+      <c r="A221" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B221" s="95"/>
-      <c r="C221" s="95"/>
-      <c r="D221" s="95"/>
-      <c r="E221" s="108"/>
-      <c r="F221" s="105" t="s">
+      <c r="B221" s="113"/>
+      <c r="C221" s="113"/>
+      <c r="D221" s="113"/>
+      <c r="E221" s="122"/>
+      <c r="F221" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G221" s="95"/>
-      <c r="H221" s="95"/>
-      <c r="I221" s="95"/>
-      <c r="J221" s="95"/>
-      <c r="K221" s="95"/>
-      <c r="L221" s="95"/>
-      <c r="M221" s="95"/>
-      <c r="N221" s="95"/>
-      <c r="O221" s="95"/>
-      <c r="P221" s="95"/>
-      <c r="Q221" s="95"/>
-      <c r="R221" s="95"/>
-      <c r="S221" s="95"/>
-      <c r="T221" s="95"/>
-      <c r="U221" s="95"/>
-      <c r="V221" s="95"/>
-      <c r="W221" s="95"/>
-      <c r="X221" s="95"/>
-      <c r="Y221" s="95"/>
-      <c r="Z221" s="95"/>
-      <c r="AA221" s="95"/>
-      <c r="AB221" s="95"/>
-      <c r="AC221" s="95"/>
-      <c r="AD221" s="95"/>
-      <c r="AE221" s="95"/>
-      <c r="AF221" s="95"/>
-      <c r="AG221" s="95"/>
-      <c r="AH221" s="95"/>
-      <c r="AI221" s="95"/>
-      <c r="AJ221" s="95"/>
-      <c r="AK221" s="95"/>
-      <c r="AL221" s="95"/>
-      <c r="AM221" s="95"/>
-      <c r="AN221" s="95"/>
-      <c r="AO221" s="95"/>
-      <c r="AP221" s="95"/>
-      <c r="AQ221" s="95"/>
-      <c r="AR221" s="95"/>
-      <c r="AS221" s="95"/>
-      <c r="AT221" s="95"/>
-      <c r="AU221" s="95"/>
-      <c r="AV221" s="96"/>
-      <c r="AW221" s="94" t="s">
+      <c r="G221" s="113"/>
+      <c r="H221" s="113"/>
+      <c r="I221" s="113"/>
+      <c r="J221" s="113"/>
+      <c r="K221" s="113"/>
+      <c r="L221" s="113"/>
+      <c r="M221" s="113"/>
+      <c r="N221" s="113"/>
+      <c r="O221" s="113"/>
+      <c r="P221" s="113"/>
+      <c r="Q221" s="113"/>
+      <c r="R221" s="113"/>
+      <c r="S221" s="113"/>
+      <c r="T221" s="113"/>
+      <c r="U221" s="113"/>
+      <c r="V221" s="113"/>
+      <c r="W221" s="113"/>
+      <c r="X221" s="113"/>
+      <c r="Y221" s="113"/>
+      <c r="Z221" s="113"/>
+      <c r="AA221" s="113"/>
+      <c r="AB221" s="113"/>
+      <c r="AC221" s="113"/>
+      <c r="AD221" s="113"/>
+      <c r="AE221" s="113"/>
+      <c r="AF221" s="113"/>
+      <c r="AG221" s="113"/>
+      <c r="AH221" s="113"/>
+      <c r="AI221" s="113"/>
+      <c r="AJ221" s="113"/>
+      <c r="AK221" s="113"/>
+      <c r="AL221" s="113"/>
+      <c r="AM221" s="113"/>
+      <c r="AN221" s="113"/>
+      <c r="AO221" s="113"/>
+      <c r="AP221" s="113"/>
+      <c r="AQ221" s="113"/>
+      <c r="AR221" s="113"/>
+      <c r="AS221" s="113"/>
+      <c r="AT221" s="113"/>
+      <c r="AU221" s="113"/>
+      <c r="AV221" s="114"/>
+      <c r="AW221" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AX221" s="95"/>
-      <c r="AY221" s="95"/>
-      <c r="AZ221" s="95"/>
-      <c r="BA221" s="96"/>
-      <c r="BB221" s="83" t="s">
+      <c r="AX221" s="113"/>
+      <c r="AY221" s="113"/>
+      <c r="AZ221" s="113"/>
+      <c r="BA221" s="114"/>
+      <c r="BB221" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="BC221" s="84"/>
-      <c r="BD221" s="84"/>
-      <c r="BE221" s="84"/>
-      <c r="BF221" s="84"/>
-      <c r="BG221" s="84"/>
-      <c r="BH221" s="84"/>
-      <c r="BI221" s="84"/>
-      <c r="BJ221" s="85"/>
-      <c r="BK221" s="94" t="s">
+      <c r="BC221" s="89"/>
+      <c r="BD221" s="89"/>
+      <c r="BE221" s="89"/>
+      <c r="BF221" s="89"/>
+      <c r="BG221" s="89"/>
+      <c r="BH221" s="89"/>
+      <c r="BI221" s="89"/>
+      <c r="BJ221" s="90"/>
+      <c r="BK221" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="BL221" s="95"/>
-      <c r="BM221" s="95"/>
-      <c r="BN221" s="95"/>
-      <c r="BO221" s="96"/>
-      <c r="BP221" s="112" t="s">
+      <c r="BL221" s="113"/>
+      <c r="BM221" s="113"/>
+      <c r="BN221" s="113"/>
+      <c r="BO221" s="114"/>
+      <c r="BP221" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ221" s="95"/>
-      <c r="BR221" s="95"/>
-      <c r="BS221" s="95"/>
-      <c r="BT221" s="95"/>
-      <c r="BU221" s="95"/>
-      <c r="BV221" s="95"/>
-      <c r="BW221" s="95"/>
-      <c r="BX221" s="108"/>
+      <c r="BQ221" s="113"/>
+      <c r="BR221" s="113"/>
+      <c r="BS221" s="113"/>
+      <c r="BT221" s="113"/>
+      <c r="BU221" s="113"/>
+      <c r="BV221" s="113"/>
+      <c r="BW221" s="113"/>
+      <c r="BX221" s="122"/>
       <c r="BY221" s="52"/>
       <c r="BZ221" s="52"/>
     </row>
     <row r="222" spans="1:78" ht="18">
-      <c r="A222" s="109" t="s">
+      <c r="A222" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B222" s="92"/>
-      <c r="C222" s="92"/>
-      <c r="D222" s="92"/>
-      <c r="E222" s="110"/>
-      <c r="F222" s="106" t="s">
+      <c r="B222" s="99"/>
+      <c r="C222" s="99"/>
+      <c r="D222" s="99"/>
+      <c r="E222" s="133"/>
+      <c r="F222" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G222" s="92"/>
-      <c r="H222" s="92"/>
-      <c r="I222" s="92"/>
-      <c r="J222" s="92"/>
-      <c r="K222" s="92"/>
-      <c r="L222" s="92"/>
-      <c r="M222" s="92"/>
-      <c r="N222" s="92"/>
-      <c r="O222" s="92"/>
-      <c r="P222" s="92"/>
-      <c r="Q222" s="92"/>
-      <c r="R222" s="92"/>
-      <c r="S222" s="92"/>
-      <c r="T222" s="92"/>
-      <c r="U222" s="92"/>
-      <c r="V222" s="92"/>
-      <c r="W222" s="92"/>
-      <c r="X222" s="92"/>
-      <c r="Y222" s="93"/>
-      <c r="Z222" s="91" t="s">
+      <c r="G222" s="99"/>
+      <c r="H222" s="99"/>
+      <c r="I222" s="99"/>
+      <c r="J222" s="99"/>
+      <c r="K222" s="99"/>
+      <c r="L222" s="99"/>
+      <c r="M222" s="99"/>
+      <c r="N222" s="99"/>
+      <c r="O222" s="99"/>
+      <c r="P222" s="99"/>
+      <c r="Q222" s="99"/>
+      <c r="R222" s="99"/>
+      <c r="S222" s="99"/>
+      <c r="T222" s="99"/>
+      <c r="U222" s="99"/>
+      <c r="V222" s="99"/>
+      <c r="W222" s="99"/>
+      <c r="X222" s="99"/>
+      <c r="Y222" s="101"/>
+      <c r="Z222" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="AA222" s="92"/>
-      <c r="AB222" s="92"/>
-      <c r="AC222" s="92"/>
-      <c r="AD222" s="93"/>
-      <c r="AE222" s="106" t="s">
+      <c r="AA222" s="99"/>
+      <c r="AB222" s="99"/>
+      <c r="AC222" s="99"/>
+      <c r="AD222" s="101"/>
+      <c r="AE222" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="AF222" s="92"/>
-      <c r="AG222" s="92"/>
-      <c r="AH222" s="92"/>
-      <c r="AI222" s="92"/>
-      <c r="AJ222" s="92"/>
-      <c r="AK222" s="92"/>
-      <c r="AL222" s="92"/>
-      <c r="AM222" s="92"/>
-      <c r="AN222" s="92"/>
-      <c r="AO222" s="92"/>
-      <c r="AP222" s="92"/>
-      <c r="AQ222" s="92"/>
-      <c r="AR222" s="92"/>
-      <c r="AS222" s="92"/>
-      <c r="AT222" s="92"/>
-      <c r="AU222" s="92"/>
-      <c r="AV222" s="93"/>
-      <c r="AW222" s="91" t="s">
+      <c r="AF222" s="99"/>
+      <c r="AG222" s="99"/>
+      <c r="AH222" s="99"/>
+      <c r="AI222" s="99"/>
+      <c r="AJ222" s="99"/>
+      <c r="AK222" s="99"/>
+      <c r="AL222" s="99"/>
+      <c r="AM222" s="99"/>
+      <c r="AN222" s="99"/>
+      <c r="AO222" s="99"/>
+      <c r="AP222" s="99"/>
+      <c r="AQ222" s="99"/>
+      <c r="AR222" s="99"/>
+      <c r="AS222" s="99"/>
+      <c r="AT222" s="99"/>
+      <c r="AU222" s="99"/>
+      <c r="AV222" s="101"/>
+      <c r="AW222" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AX222" s="92"/>
-      <c r="AY222" s="92"/>
-      <c r="AZ222" s="92"/>
-      <c r="BA222" s="93"/>
-      <c r="BB222" s="100" t="s">
+      <c r="AX222" s="99"/>
+      <c r="AY222" s="99"/>
+      <c r="AZ222" s="99"/>
+      <c r="BA222" s="101"/>
+      <c r="BB222" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC222" s="92"/>
-      <c r="BD222" s="92"/>
-      <c r="BE222" s="92"/>
-      <c r="BF222" s="92"/>
-      <c r="BG222" s="92"/>
-      <c r="BH222" s="92"/>
-      <c r="BI222" s="92"/>
-      <c r="BJ222" s="92"/>
-      <c r="BK222" s="91" t="s">
+      <c r="BC222" s="99"/>
+      <c r="BD222" s="99"/>
+      <c r="BE222" s="99"/>
+      <c r="BF222" s="99"/>
+      <c r="BG222" s="99"/>
+      <c r="BH222" s="99"/>
+      <c r="BI222" s="99"/>
+      <c r="BJ222" s="99"/>
+      <c r="BK222" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="BL222" s="92"/>
-      <c r="BM222" s="92"/>
-      <c r="BN222" s="92"/>
-      <c r="BO222" s="93"/>
-      <c r="BP222" s="112" t="s">
+      <c r="BL222" s="99"/>
+      <c r="BM222" s="99"/>
+      <c r="BN222" s="99"/>
+      <c r="BO222" s="101"/>
+      <c r="BP222" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ222" s="95"/>
-      <c r="BR222" s="95"/>
-      <c r="BS222" s="95"/>
-      <c r="BT222" s="95"/>
-      <c r="BU222" s="95"/>
-      <c r="BV222" s="95"/>
-      <c r="BW222" s="95"/>
-      <c r="BX222" s="108"/>
+      <c r="BQ222" s="113"/>
+      <c r="BR222" s="113"/>
+      <c r="BS222" s="113"/>
+      <c r="BT222" s="113"/>
+      <c r="BU222" s="113"/>
+      <c r="BV222" s="113"/>
+      <c r="BW222" s="113"/>
+      <c r="BX222" s="122"/>
       <c r="BY222" s="52"/>
       <c r="BZ222" s="52"/>
     </row>
@@ -26122,51 +26405,51 @@
       <c r="AJ225" s="4"/>
       <c r="AK225" s="4"/>
       <c r="AL225" s="53"/>
-      <c r="AM225" s="97" t="s">
+      <c r="AM225" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN225" s="103"/>
-      <c r="AO225" s="97" t="s">
+      <c r="AN225" s="109"/>
+      <c r="AO225" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AP225" s="89"/>
-      <c r="AQ225" s="89"/>
-      <c r="AR225" s="89"/>
-      <c r="AS225" s="89"/>
-      <c r="AT225" s="89"/>
-      <c r="AU225" s="87"/>
-      <c r="AV225" s="97" t="s">
+      <c r="AP225" s="104"/>
+      <c r="AQ225" s="104"/>
+      <c r="AR225" s="104"/>
+      <c r="AS225" s="104"/>
+      <c r="AT225" s="104"/>
+      <c r="AU225" s="111"/>
+      <c r="AV225" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AW225" s="89"/>
-      <c r="AX225" s="89"/>
-      <c r="AY225" s="89"/>
-      <c r="AZ225" s="87"/>
-      <c r="BA225" s="97" t="s">
+      <c r="AW225" s="104"/>
+      <c r="AX225" s="104"/>
+      <c r="AY225" s="104"/>
+      <c r="AZ225" s="111"/>
+      <c r="BA225" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="BB225" s="89"/>
-      <c r="BC225" s="89"/>
-      <c r="BD225" s="89"/>
-      <c r="BE225" s="89"/>
-      <c r="BF225" s="89"/>
-      <c r="BG225" s="89"/>
-      <c r="BH225" s="89"/>
-      <c r="BI225" s="89"/>
-      <c r="BJ225" s="89"/>
-      <c r="BK225" s="89"/>
-      <c r="BL225" s="89"/>
-      <c r="BM225" s="89"/>
-      <c r="BN225" s="89"/>
-      <c r="BO225" s="89"/>
-      <c r="BP225" s="89"/>
-      <c r="BQ225" s="89"/>
-      <c r="BR225" s="89"/>
-      <c r="BS225" s="89"/>
-      <c r="BT225" s="89"/>
-      <c r="BU225" s="89"/>
-      <c r="BV225" s="89"/>
-      <c r="BW225" s="103"/>
+      <c r="BB225" s="104"/>
+      <c r="BC225" s="104"/>
+      <c r="BD225" s="104"/>
+      <c r="BE225" s="104"/>
+      <c r="BF225" s="104"/>
+      <c r="BG225" s="104"/>
+      <c r="BH225" s="104"/>
+      <c r="BI225" s="104"/>
+      <c r="BJ225" s="104"/>
+      <c r="BK225" s="104"/>
+      <c r="BL225" s="104"/>
+      <c r="BM225" s="104"/>
+      <c r="BN225" s="104"/>
+      <c r="BO225" s="104"/>
+      <c r="BP225" s="104"/>
+      <c r="BQ225" s="104"/>
+      <c r="BR225" s="104"/>
+      <c r="BS225" s="104"/>
+      <c r="BT225" s="104"/>
+      <c r="BU225" s="104"/>
+      <c r="BV225" s="104"/>
+      <c r="BW225" s="109"/>
       <c r="BX225" s="4"/>
       <c r="BY225" s="4"/>
       <c r="BZ225" s="4"/>
@@ -26210,43 +26493,43 @@
       <c r="AJ226" s="4"/>
       <c r="AK226" s="4"/>
       <c r="AL226" s="53"/>
-      <c r="AM226" s="98"/>
-      <c r="AN226" s="104"/>
-      <c r="AO226" s="98"/>
-      <c r="AP226" s="98"/>
-      <c r="AQ226" s="98"/>
-      <c r="AR226" s="98"/>
-      <c r="AS226" s="98"/>
-      <c r="AT226" s="98"/>
-      <c r="AU226" s="99"/>
-      <c r="AV226" s="98"/>
-      <c r="AW226" s="98"/>
-      <c r="AX226" s="98"/>
-      <c r="AY226" s="98"/>
-      <c r="AZ226" s="99"/>
-      <c r="BA226" s="98"/>
-      <c r="BB226" s="98"/>
-      <c r="BC226" s="98"/>
-      <c r="BD226" s="98"/>
-      <c r="BE226" s="98"/>
-      <c r="BF226" s="98"/>
-      <c r="BG226" s="98"/>
-      <c r="BH226" s="98"/>
-      <c r="BI226" s="98"/>
-      <c r="BJ226" s="98"/>
-      <c r="BK226" s="98"/>
-      <c r="BL226" s="98"/>
-      <c r="BM226" s="98"/>
-      <c r="BN226" s="98"/>
-      <c r="BO226" s="98"/>
-      <c r="BP226" s="98"/>
-      <c r="BQ226" s="98"/>
-      <c r="BR226" s="98"/>
-      <c r="BS226" s="98"/>
-      <c r="BT226" s="98"/>
-      <c r="BU226" s="98"/>
-      <c r="BV226" s="98"/>
-      <c r="BW226" s="104"/>
+      <c r="AM226" s="96"/>
+      <c r="AN226" s="97"/>
+      <c r="AO226" s="96"/>
+      <c r="AP226" s="96"/>
+      <c r="AQ226" s="96"/>
+      <c r="AR226" s="96"/>
+      <c r="AS226" s="96"/>
+      <c r="AT226" s="96"/>
+      <c r="AU226" s="115"/>
+      <c r="AV226" s="96"/>
+      <c r="AW226" s="96"/>
+      <c r="AX226" s="96"/>
+      <c r="AY226" s="96"/>
+      <c r="AZ226" s="115"/>
+      <c r="BA226" s="96"/>
+      <c r="BB226" s="96"/>
+      <c r="BC226" s="96"/>
+      <c r="BD226" s="96"/>
+      <c r="BE226" s="96"/>
+      <c r="BF226" s="96"/>
+      <c r="BG226" s="96"/>
+      <c r="BH226" s="96"/>
+      <c r="BI226" s="96"/>
+      <c r="BJ226" s="96"/>
+      <c r="BK226" s="96"/>
+      <c r="BL226" s="96"/>
+      <c r="BM226" s="96"/>
+      <c r="BN226" s="96"/>
+      <c r="BO226" s="96"/>
+      <c r="BP226" s="96"/>
+      <c r="BQ226" s="96"/>
+      <c r="BR226" s="96"/>
+      <c r="BS226" s="96"/>
+      <c r="BT226" s="96"/>
+      <c r="BU226" s="96"/>
+      <c r="BV226" s="96"/>
+      <c r="BW226" s="97"/>
       <c r="BX226" s="4"/>
       <c r="BY226" s="4"/>
       <c r="BZ226" s="4"/>
@@ -26290,10 +26573,10 @@
       <c r="AJ227" s="4"/>
       <c r="AK227" s="4"/>
       <c r="AL227" s="53"/>
-      <c r="AM227" s="86" t="s">
+      <c r="AM227" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AN227" s="87"/>
+      <c r="AN227" s="111"/>
       <c r="AO227" s="59" t="s">
         <v>89</v>
       </c>
@@ -26700,8 +26983,8 @@
       <c r="AJ232" s="4"/>
       <c r="AK232" s="4"/>
       <c r="AL232" s="53"/>
-      <c r="AM232" s="88"/>
-      <c r="AN232" s="89"/>
+      <c r="AM232" s="143"/>
+      <c r="AN232" s="104"/>
       <c r="AO232" s="66"/>
       <c r="AP232" s="33"/>
       <c r="AQ232" s="33"/>
@@ -30022,190 +30305,190 @@
       <c r="BZ273" s="4"/>
     </row>
     <row r="274" spans="1:78" ht="17.25">
-      <c r="A274" s="107" t="s">
+      <c r="A274" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B274" s="95"/>
-      <c r="C274" s="95"/>
-      <c r="D274" s="95"/>
-      <c r="E274" s="108"/>
-      <c r="F274" s="105" t="s">
+      <c r="B274" s="113"/>
+      <c r="C274" s="113"/>
+      <c r="D274" s="113"/>
+      <c r="E274" s="122"/>
+      <c r="F274" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G274" s="95"/>
-      <c r="H274" s="95"/>
-      <c r="I274" s="95"/>
-      <c r="J274" s="95"/>
-      <c r="K274" s="95"/>
-      <c r="L274" s="95"/>
-      <c r="M274" s="95"/>
-      <c r="N274" s="95"/>
-      <c r="O274" s="95"/>
-      <c r="P274" s="95"/>
-      <c r="Q274" s="95"/>
-      <c r="R274" s="95"/>
-      <c r="S274" s="95"/>
-      <c r="T274" s="95"/>
-      <c r="U274" s="95"/>
-      <c r="V274" s="95"/>
-      <c r="W274" s="95"/>
-      <c r="X274" s="95"/>
-      <c r="Y274" s="95"/>
-      <c r="Z274" s="95"/>
-      <c r="AA274" s="95"/>
-      <c r="AB274" s="95"/>
-      <c r="AC274" s="95"/>
-      <c r="AD274" s="95"/>
-      <c r="AE274" s="95"/>
-      <c r="AF274" s="95"/>
-      <c r="AG274" s="95"/>
-      <c r="AH274" s="95"/>
-      <c r="AI274" s="95"/>
-      <c r="AJ274" s="95"/>
-      <c r="AK274" s="95"/>
-      <c r="AL274" s="95"/>
-      <c r="AM274" s="95"/>
-      <c r="AN274" s="95"/>
-      <c r="AO274" s="95"/>
-      <c r="AP274" s="95"/>
-      <c r="AQ274" s="95"/>
-      <c r="AR274" s="95"/>
-      <c r="AS274" s="95"/>
-      <c r="AT274" s="95"/>
-      <c r="AU274" s="95"/>
-      <c r="AV274" s="96"/>
-      <c r="AW274" s="94" t="s">
+      <c r="G274" s="113"/>
+      <c r="H274" s="113"/>
+      <c r="I274" s="113"/>
+      <c r="J274" s="113"/>
+      <c r="K274" s="113"/>
+      <c r="L274" s="113"/>
+      <c r="M274" s="113"/>
+      <c r="N274" s="113"/>
+      <c r="O274" s="113"/>
+      <c r="P274" s="113"/>
+      <c r="Q274" s="113"/>
+      <c r="R274" s="113"/>
+      <c r="S274" s="113"/>
+      <c r="T274" s="113"/>
+      <c r="U274" s="113"/>
+      <c r="V274" s="113"/>
+      <c r="W274" s="113"/>
+      <c r="X274" s="113"/>
+      <c r="Y274" s="113"/>
+      <c r="Z274" s="113"/>
+      <c r="AA274" s="113"/>
+      <c r="AB274" s="113"/>
+      <c r="AC274" s="113"/>
+      <c r="AD274" s="113"/>
+      <c r="AE274" s="113"/>
+      <c r="AF274" s="113"/>
+      <c r="AG274" s="113"/>
+      <c r="AH274" s="113"/>
+      <c r="AI274" s="113"/>
+      <c r="AJ274" s="113"/>
+      <c r="AK274" s="113"/>
+      <c r="AL274" s="113"/>
+      <c r="AM274" s="113"/>
+      <c r="AN274" s="113"/>
+      <c r="AO274" s="113"/>
+      <c r="AP274" s="113"/>
+      <c r="AQ274" s="113"/>
+      <c r="AR274" s="113"/>
+      <c r="AS274" s="113"/>
+      <c r="AT274" s="113"/>
+      <c r="AU274" s="113"/>
+      <c r="AV274" s="114"/>
+      <c r="AW274" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AX274" s="95"/>
-      <c r="AY274" s="95"/>
-      <c r="AZ274" s="95"/>
-      <c r="BA274" s="96"/>
-      <c r="BB274" s="83" t="s">
+      <c r="AX274" s="113"/>
+      <c r="AY274" s="113"/>
+      <c r="AZ274" s="113"/>
+      <c r="BA274" s="114"/>
+      <c r="BB274" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="BC274" s="84"/>
-      <c r="BD274" s="84"/>
-      <c r="BE274" s="84"/>
-      <c r="BF274" s="84"/>
-      <c r="BG274" s="84"/>
-      <c r="BH274" s="84"/>
-      <c r="BI274" s="84"/>
-      <c r="BJ274" s="85"/>
-      <c r="BK274" s="94" t="s">
+      <c r="BC274" s="89"/>
+      <c r="BD274" s="89"/>
+      <c r="BE274" s="89"/>
+      <c r="BF274" s="89"/>
+      <c r="BG274" s="89"/>
+      <c r="BH274" s="89"/>
+      <c r="BI274" s="89"/>
+      <c r="BJ274" s="90"/>
+      <c r="BK274" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="BL274" s="95"/>
-      <c r="BM274" s="95"/>
-      <c r="BN274" s="95"/>
-      <c r="BO274" s="96"/>
-      <c r="BP274" s="112" t="s">
+      <c r="BL274" s="113"/>
+      <c r="BM274" s="113"/>
+      <c r="BN274" s="113"/>
+      <c r="BO274" s="114"/>
+      <c r="BP274" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ274" s="95"/>
-      <c r="BR274" s="95"/>
-      <c r="BS274" s="95"/>
-      <c r="BT274" s="95"/>
-      <c r="BU274" s="95"/>
-      <c r="BV274" s="95"/>
-      <c r="BW274" s="95"/>
-      <c r="BX274" s="108"/>
+      <c r="BQ274" s="113"/>
+      <c r="BR274" s="113"/>
+      <c r="BS274" s="113"/>
+      <c r="BT274" s="113"/>
+      <c r="BU274" s="113"/>
+      <c r="BV274" s="113"/>
+      <c r="BW274" s="113"/>
+      <c r="BX274" s="122"/>
       <c r="BY274" s="52"/>
       <c r="BZ274" s="52"/>
     </row>
     <row r="275" spans="1:78" ht="18">
-      <c r="A275" s="109" t="s">
+      <c r="A275" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B275" s="92"/>
-      <c r="C275" s="92"/>
-      <c r="D275" s="92"/>
-      <c r="E275" s="110"/>
-      <c r="F275" s="106" t="s">
+      <c r="B275" s="99"/>
+      <c r="C275" s="99"/>
+      <c r="D275" s="99"/>
+      <c r="E275" s="133"/>
+      <c r="F275" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G275" s="92"/>
-      <c r="H275" s="92"/>
-      <c r="I275" s="92"/>
-      <c r="J275" s="92"/>
-      <c r="K275" s="92"/>
-      <c r="L275" s="92"/>
-      <c r="M275" s="92"/>
-      <c r="N275" s="92"/>
-      <c r="O275" s="92"/>
-      <c r="P275" s="92"/>
-      <c r="Q275" s="92"/>
-      <c r="R275" s="92"/>
-      <c r="S275" s="92"/>
-      <c r="T275" s="92"/>
-      <c r="U275" s="92"/>
-      <c r="V275" s="92"/>
-      <c r="W275" s="92"/>
-      <c r="X275" s="92"/>
-      <c r="Y275" s="93"/>
-      <c r="Z275" s="91" t="s">
+      <c r="G275" s="99"/>
+      <c r="H275" s="99"/>
+      <c r="I275" s="99"/>
+      <c r="J275" s="99"/>
+      <c r="K275" s="99"/>
+      <c r="L275" s="99"/>
+      <c r="M275" s="99"/>
+      <c r="N275" s="99"/>
+      <c r="O275" s="99"/>
+      <c r="P275" s="99"/>
+      <c r="Q275" s="99"/>
+      <c r="R275" s="99"/>
+      <c r="S275" s="99"/>
+      <c r="T275" s="99"/>
+      <c r="U275" s="99"/>
+      <c r="V275" s="99"/>
+      <c r="W275" s="99"/>
+      <c r="X275" s="99"/>
+      <c r="Y275" s="101"/>
+      <c r="Z275" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="AA275" s="92"/>
-      <c r="AB275" s="92"/>
-      <c r="AC275" s="92"/>
-      <c r="AD275" s="93"/>
-      <c r="AE275" s="106" t="s">
+      <c r="AA275" s="99"/>
+      <c r="AB275" s="99"/>
+      <c r="AC275" s="99"/>
+      <c r="AD275" s="101"/>
+      <c r="AE275" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="AF275" s="92"/>
-      <c r="AG275" s="92"/>
-      <c r="AH275" s="92"/>
-      <c r="AI275" s="92"/>
-      <c r="AJ275" s="92"/>
-      <c r="AK275" s="92"/>
-      <c r="AL275" s="92"/>
-      <c r="AM275" s="92"/>
-      <c r="AN275" s="92"/>
-      <c r="AO275" s="92"/>
-      <c r="AP275" s="92"/>
-      <c r="AQ275" s="92"/>
-      <c r="AR275" s="92"/>
-      <c r="AS275" s="92"/>
-      <c r="AT275" s="92"/>
-      <c r="AU275" s="92"/>
-      <c r="AV275" s="93"/>
-      <c r="AW275" s="91" t="s">
+      <c r="AF275" s="99"/>
+      <c r="AG275" s="99"/>
+      <c r="AH275" s="99"/>
+      <c r="AI275" s="99"/>
+      <c r="AJ275" s="99"/>
+      <c r="AK275" s="99"/>
+      <c r="AL275" s="99"/>
+      <c r="AM275" s="99"/>
+      <c r="AN275" s="99"/>
+      <c r="AO275" s="99"/>
+      <c r="AP275" s="99"/>
+      <c r="AQ275" s="99"/>
+      <c r="AR275" s="99"/>
+      <c r="AS275" s="99"/>
+      <c r="AT275" s="99"/>
+      <c r="AU275" s="99"/>
+      <c r="AV275" s="101"/>
+      <c r="AW275" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AX275" s="92"/>
-      <c r="AY275" s="92"/>
-      <c r="AZ275" s="92"/>
-      <c r="BA275" s="93"/>
-      <c r="BB275" s="100" t="s">
+      <c r="AX275" s="99"/>
+      <c r="AY275" s="99"/>
+      <c r="AZ275" s="99"/>
+      <c r="BA275" s="101"/>
+      <c r="BB275" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="BC275" s="92"/>
-      <c r="BD275" s="92"/>
-      <c r="BE275" s="92"/>
-      <c r="BF275" s="92"/>
-      <c r="BG275" s="92"/>
-      <c r="BH275" s="92"/>
-      <c r="BI275" s="92"/>
-      <c r="BJ275" s="92"/>
-      <c r="BK275" s="118" t="s">
+      <c r="BC275" s="99"/>
+      <c r="BD275" s="99"/>
+      <c r="BE275" s="99"/>
+      <c r="BF275" s="99"/>
+      <c r="BG275" s="99"/>
+      <c r="BH275" s="99"/>
+      <c r="BI275" s="99"/>
+      <c r="BJ275" s="99"/>
+      <c r="BK275" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="BL275" s="84"/>
-      <c r="BM275" s="84"/>
-      <c r="BN275" s="84"/>
-      <c r="BO275" s="85"/>
-      <c r="BP275" s="112" t="s">
+      <c r="BL275" s="89"/>
+      <c r="BM275" s="89"/>
+      <c r="BN275" s="89"/>
+      <c r="BO275" s="90"/>
+      <c r="BP275" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="BQ275" s="95"/>
-      <c r="BR275" s="95"/>
-      <c r="BS275" s="95"/>
-      <c r="BT275" s="95"/>
-      <c r="BU275" s="95"/>
-      <c r="BV275" s="95"/>
-      <c r="BW275" s="95"/>
-      <c r="BX275" s="108"/>
+      <c r="BQ275" s="113"/>
+      <c r="BR275" s="113"/>
+      <c r="BS275" s="113"/>
+      <c r="BT275" s="113"/>
+      <c r="BU275" s="113"/>
+      <c r="BV275" s="113"/>
+      <c r="BW275" s="113"/>
+      <c r="BX275" s="122"/>
       <c r="BY275" s="52"/>
       <c r="BZ275" s="52"/>
     </row>
@@ -30408,51 +30691,51 @@
       <c r="AJ278" s="4"/>
       <c r="AK278" s="4"/>
       <c r="AL278" s="53"/>
-      <c r="AM278" s="97" t="s">
+      <c r="AM278" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN278" s="103"/>
-      <c r="AO278" s="97" t="s">
+      <c r="AN278" s="109"/>
+      <c r="AO278" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="AP278" s="89"/>
-      <c r="AQ278" s="89"/>
-      <c r="AR278" s="89"/>
-      <c r="AS278" s="89"/>
-      <c r="AT278" s="89"/>
-      <c r="AU278" s="87"/>
-      <c r="AV278" s="97" t="s">
+      <c r="AP278" s="104"/>
+      <c r="AQ278" s="104"/>
+      <c r="AR278" s="104"/>
+      <c r="AS278" s="104"/>
+      <c r="AT278" s="104"/>
+      <c r="AU278" s="111"/>
+      <c r="AV278" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="AW278" s="89"/>
-      <c r="AX278" s="89"/>
-      <c r="AY278" s="89"/>
-      <c r="AZ278" s="87"/>
-      <c r="BA278" s="97" t="s">
+      <c r="AW278" s="104"/>
+      <c r="AX278" s="104"/>
+      <c r="AY278" s="104"/>
+      <c r="AZ278" s="111"/>
+      <c r="BA278" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="BB278" s="89"/>
-      <c r="BC278" s="89"/>
-      <c r="BD278" s="89"/>
-      <c r="BE278" s="89"/>
-      <c r="BF278" s="89"/>
-      <c r="BG278" s="89"/>
-      <c r="BH278" s="89"/>
-      <c r="BI278" s="89"/>
-      <c r="BJ278" s="89"/>
-      <c r="BK278" s="89"/>
-      <c r="BL278" s="89"/>
-      <c r="BM278" s="89"/>
-      <c r="BN278" s="89"/>
-      <c r="BO278" s="89"/>
-      <c r="BP278" s="89"/>
-      <c r="BQ278" s="89"/>
-      <c r="BR278" s="89"/>
-      <c r="BS278" s="89"/>
-      <c r="BT278" s="89"/>
-      <c r="BU278" s="89"/>
-      <c r="BV278" s="89"/>
-      <c r="BW278" s="103"/>
+      <c r="BB278" s="104"/>
+      <c r="BC278" s="104"/>
+      <c r="BD278" s="104"/>
+      <c r="BE278" s="104"/>
+      <c r="BF278" s="104"/>
+      <c r="BG278" s="104"/>
+      <c r="BH278" s="104"/>
+      <c r="BI278" s="104"/>
+      <c r="BJ278" s="104"/>
+      <c r="BK278" s="104"/>
+      <c r="BL278" s="104"/>
+      <c r="BM278" s="104"/>
+      <c r="BN278" s="104"/>
+      <c r="BO278" s="104"/>
+      <c r="BP278" s="104"/>
+      <c r="BQ278" s="104"/>
+      <c r="BR278" s="104"/>
+      <c r="BS278" s="104"/>
+      <c r="BT278" s="104"/>
+      <c r="BU278" s="104"/>
+      <c r="BV278" s="104"/>
+      <c r="BW278" s="109"/>
       <c r="BX278" s="4"/>
       <c r="BY278" s="4"/>
       <c r="BZ278" s="4"/>
@@ -30496,43 +30779,43 @@
       <c r="AJ279" s="4"/>
       <c r="AK279" s="4"/>
       <c r="AL279" s="53"/>
-      <c r="AM279" s="98"/>
-      <c r="AN279" s="104"/>
-      <c r="AO279" s="98"/>
-      <c r="AP279" s="98"/>
-      <c r="AQ279" s="98"/>
-      <c r="AR279" s="98"/>
-      <c r="AS279" s="98"/>
-      <c r="AT279" s="98"/>
-      <c r="AU279" s="99"/>
-      <c r="AV279" s="98"/>
-      <c r="AW279" s="98"/>
-      <c r="AX279" s="98"/>
-      <c r="AY279" s="98"/>
-      <c r="AZ279" s="99"/>
-      <c r="BA279" s="98"/>
-      <c r="BB279" s="98"/>
-      <c r="BC279" s="98"/>
-      <c r="BD279" s="98"/>
-      <c r="BE279" s="98"/>
-      <c r="BF279" s="98"/>
-      <c r="BG279" s="98"/>
-      <c r="BH279" s="98"/>
-      <c r="BI279" s="98"/>
-      <c r="BJ279" s="98"/>
-      <c r="BK279" s="98"/>
-      <c r="BL279" s="98"/>
-      <c r="BM279" s="98"/>
-      <c r="BN279" s="98"/>
-      <c r="BO279" s="98"/>
-      <c r="BP279" s="98"/>
-      <c r="BQ279" s="98"/>
-      <c r="BR279" s="98"/>
-      <c r="BS279" s="98"/>
-      <c r="BT279" s="98"/>
-      <c r="BU279" s="98"/>
-      <c r="BV279" s="98"/>
-      <c r="BW279" s="104"/>
+      <c r="AM279" s="96"/>
+      <c r="AN279" s="97"/>
+      <c r="AO279" s="96"/>
+      <c r="AP279" s="96"/>
+      <c r="AQ279" s="96"/>
+      <c r="AR279" s="96"/>
+      <c r="AS279" s="96"/>
+      <c r="AT279" s="96"/>
+      <c r="AU279" s="115"/>
+      <c r="AV279" s="96"/>
+      <c r="AW279" s="96"/>
+      <c r="AX279" s="96"/>
+      <c r="AY279" s="96"/>
+      <c r="AZ279" s="115"/>
+      <c r="BA279" s="96"/>
+      <c r="BB279" s="96"/>
+      <c r="BC279" s="96"/>
+      <c r="BD279" s="96"/>
+      <c r="BE279" s="96"/>
+      <c r="BF279" s="96"/>
+      <c r="BG279" s="96"/>
+      <c r="BH279" s="96"/>
+      <c r="BI279" s="96"/>
+      <c r="BJ279" s="96"/>
+      <c r="BK279" s="96"/>
+      <c r="BL279" s="96"/>
+      <c r="BM279" s="96"/>
+      <c r="BN279" s="96"/>
+      <c r="BO279" s="96"/>
+      <c r="BP279" s="96"/>
+      <c r="BQ279" s="96"/>
+      <c r="BR279" s="96"/>
+      <c r="BS279" s="96"/>
+      <c r="BT279" s="96"/>
+      <c r="BU279" s="96"/>
+      <c r="BV279" s="96"/>
+      <c r="BW279" s="97"/>
       <c r="BX279" s="4"/>
       <c r="BY279" s="4"/>
       <c r="BZ279" s="4"/>
@@ -30576,10 +30859,10 @@
       <c r="AJ280" s="4"/>
       <c r="AK280" s="4"/>
       <c r="AL280" s="53"/>
-      <c r="AM280" s="86" t="s">
+      <c r="AM280" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AN280" s="87"/>
+      <c r="AN280" s="111"/>
       <c r="AO280" s="59" t="s">
         <v>89</v>
       </c>
@@ -30988,8 +31271,8 @@
       <c r="AJ285" s="4"/>
       <c r="AK285" s="4"/>
       <c r="AL285" s="53"/>
-      <c r="AM285" s="88"/>
-      <c r="AN285" s="89"/>
+      <c r="AM285" s="143"/>
+      <c r="AN285" s="104"/>
       <c r="AO285" s="66"/>
       <c r="AP285" s="33"/>
       <c r="AQ285" s="33"/>
@@ -34310,7 +34593,144 @@
       <c r="BZ326" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
+  <mergeCells count="161">
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AM73:AN73"/>
+    <mergeCell ref="AM70:AN70"/>
+    <mergeCell ref="AW169:BA169"/>
+    <mergeCell ref="BB168:BJ168"/>
+    <mergeCell ref="AW168:BA168"/>
+    <mergeCell ref="AO66:AU67"/>
+    <mergeCell ref="AM68:AN68"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="AV119:AZ120"/>
+    <mergeCell ref="AO119:AU120"/>
+    <mergeCell ref="BB116:BJ116"/>
+    <mergeCell ref="AW116:BA116"/>
+    <mergeCell ref="AW115:BA115"/>
+    <mergeCell ref="BB115:BJ115"/>
+    <mergeCell ref="AM123:AN123"/>
+    <mergeCell ref="AM126:AN126"/>
+    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AM278:AN279"/>
+    <mergeCell ref="AM285:AN285"/>
+    <mergeCell ref="AM280:AN280"/>
+    <mergeCell ref="AV225:AZ226"/>
+    <mergeCell ref="BA225:BW226"/>
+    <mergeCell ref="AM179:AN179"/>
+    <mergeCell ref="AM232:AN232"/>
+    <mergeCell ref="AM227:AN227"/>
+    <mergeCell ref="AM225:AN226"/>
+    <mergeCell ref="AO225:AU226"/>
+    <mergeCell ref="F221:AV221"/>
+    <mergeCell ref="AE222:AV222"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="F115:AV115"/>
+    <mergeCell ref="Z116:AD116"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="AE116:AV116"/>
+    <mergeCell ref="Z222:AD222"/>
+    <mergeCell ref="K38:T39"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="BB221:BJ221"/>
+    <mergeCell ref="BK221:BO221"/>
+    <mergeCell ref="BP221:BX221"/>
+    <mergeCell ref="AW221:BA221"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F116:Y116"/>
+    <mergeCell ref="K35:T36"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="AW222:BA222"/>
+    <mergeCell ref="BB222:BJ222"/>
+    <mergeCell ref="AE63:AV63"/>
+    <mergeCell ref="AM61:AN61"/>
+    <mergeCell ref="C67:H68"/>
+    <mergeCell ref="G74:N75"/>
+    <mergeCell ref="AM119:AN120"/>
+    <mergeCell ref="BP116:BX116"/>
+    <mergeCell ref="BP115:BX115"/>
+    <mergeCell ref="AM66:AN67"/>
+    <mergeCell ref="AW63:BA63"/>
+    <mergeCell ref="BK62:BO62"/>
+    <mergeCell ref="AW62:BA62"/>
+    <mergeCell ref="BB62:BJ62"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="F275:Y275"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="BP274:BX274"/>
+    <mergeCell ref="BP275:BX275"/>
+    <mergeCell ref="AO278:AU279"/>
+    <mergeCell ref="BK274:BO274"/>
+    <mergeCell ref="Z169:AD169"/>
+    <mergeCell ref="BP169:BX169"/>
+    <mergeCell ref="BA172:BW173"/>
+    <mergeCell ref="AV278:AZ279"/>
+    <mergeCell ref="BA278:BW279"/>
+    <mergeCell ref="Z275:AD275"/>
+    <mergeCell ref="AE275:AV275"/>
+    <mergeCell ref="BB275:BJ275"/>
+    <mergeCell ref="BK275:BO275"/>
+    <mergeCell ref="F274:AV274"/>
+    <mergeCell ref="AW274:BA274"/>
+    <mergeCell ref="BB274:BJ274"/>
+    <mergeCell ref="AW275:BA275"/>
+    <mergeCell ref="BP222:BX222"/>
+    <mergeCell ref="BK222:BO222"/>
+    <mergeCell ref="F222:Y222"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="BP168:BX168"/>
+    <mergeCell ref="F169:Y169"/>
+    <mergeCell ref="AO172:AU173"/>
+    <mergeCell ref="AM176:AN176"/>
+    <mergeCell ref="AM174:AN174"/>
+    <mergeCell ref="AM172:AN173"/>
+    <mergeCell ref="AV172:AZ173"/>
+    <mergeCell ref="F168:AV168"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="F63:Y63"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP63:BX63"/>
+    <mergeCell ref="BP62:BX62"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F62:AV62"/>
+    <mergeCell ref="K43:T44"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="W35:AA36"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AB35:AG36"/>
+    <mergeCell ref="AB43:AG44"/>
+    <mergeCell ref="AB38:AG39"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM39:AN39"/>
     <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="BA5:BW6"/>
@@ -34335,142 +34755,6 @@
     <mergeCell ref="AM13:AN13"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K43:T44"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="W35:AA36"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AB35:AG36"/>
-    <mergeCell ref="AB43:AG44"/>
-    <mergeCell ref="AB38:AG39"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="BP168:BX168"/>
-    <mergeCell ref="F169:Y169"/>
-    <mergeCell ref="AO172:AU173"/>
-    <mergeCell ref="AM176:AN176"/>
-    <mergeCell ref="AM174:AN174"/>
-    <mergeCell ref="AM172:AN173"/>
-    <mergeCell ref="AV172:AZ173"/>
-    <mergeCell ref="F168:AV168"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="F63:Y63"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP63:BX63"/>
-    <mergeCell ref="BP62:BX62"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F62:AV62"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="F275:Y275"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="BP274:BX274"/>
-    <mergeCell ref="BP275:BX275"/>
-    <mergeCell ref="AO278:AU279"/>
-    <mergeCell ref="BK274:BO274"/>
-    <mergeCell ref="Z169:AD169"/>
-    <mergeCell ref="BP169:BX169"/>
-    <mergeCell ref="BA172:BW173"/>
-    <mergeCell ref="AV278:AZ279"/>
-    <mergeCell ref="BA278:BW279"/>
-    <mergeCell ref="Z275:AD275"/>
-    <mergeCell ref="AE275:AV275"/>
-    <mergeCell ref="BB275:BJ275"/>
-    <mergeCell ref="BK275:BO275"/>
-    <mergeCell ref="F274:AV274"/>
-    <mergeCell ref="AW274:BA274"/>
-    <mergeCell ref="BB274:BJ274"/>
-    <mergeCell ref="AW275:BA275"/>
-    <mergeCell ref="BP222:BX222"/>
-    <mergeCell ref="BK222:BO222"/>
-    <mergeCell ref="F222:Y222"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="BB221:BJ221"/>
-    <mergeCell ref="BK221:BO221"/>
-    <mergeCell ref="BP221:BX221"/>
-    <mergeCell ref="AW221:BA221"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F116:Y116"/>
-    <mergeCell ref="K35:T36"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="AW222:BA222"/>
-    <mergeCell ref="BB222:BJ222"/>
-    <mergeCell ref="AE63:AV63"/>
-    <mergeCell ref="AM61:AN61"/>
-    <mergeCell ref="C67:H68"/>
-    <mergeCell ref="G74:N75"/>
-    <mergeCell ref="AM119:AN120"/>
-    <mergeCell ref="BP116:BX116"/>
-    <mergeCell ref="BP115:BX115"/>
-    <mergeCell ref="AM66:AN67"/>
-    <mergeCell ref="AW63:BA63"/>
-    <mergeCell ref="BK62:BO62"/>
-    <mergeCell ref="AW62:BA62"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AM278:AN279"/>
-    <mergeCell ref="AM285:AN285"/>
-    <mergeCell ref="AM280:AN280"/>
-    <mergeCell ref="AV225:AZ226"/>
-    <mergeCell ref="BA225:BW226"/>
-    <mergeCell ref="AM179:AN179"/>
-    <mergeCell ref="AM232:AN232"/>
-    <mergeCell ref="AM227:AN227"/>
-    <mergeCell ref="AM225:AN226"/>
-    <mergeCell ref="AO225:AU226"/>
-    <mergeCell ref="F221:AV221"/>
-    <mergeCell ref="AE222:AV222"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="F115:AV115"/>
-    <mergeCell ref="Z116:AD116"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="AE116:AV116"/>
-    <mergeCell ref="Z222:AD222"/>
-    <mergeCell ref="K38:T39"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="BB62:BJ62"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AM73:AN73"/>
-    <mergeCell ref="AM70:AN70"/>
-    <mergeCell ref="AW169:BA169"/>
-    <mergeCell ref="BB168:BJ168"/>
-    <mergeCell ref="AW168:BA168"/>
-    <mergeCell ref="AO66:AU67"/>
-    <mergeCell ref="AM68:AN68"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="AV119:AZ120"/>
-    <mergeCell ref="AO119:AU120"/>
-    <mergeCell ref="BB116:BJ116"/>
-    <mergeCell ref="AW116:BA116"/>
-    <mergeCell ref="AW115:BA115"/>
-    <mergeCell ref="BB115:BJ115"/>
-    <mergeCell ref="AM123:AN123"/>
-    <mergeCell ref="AM126:AN126"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B69D40-9907-408F-9E3E-580999EE9BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F124B-2465-494E-9A2A-1EEDEAFD5ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="決済" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -536,9 +535,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>2019/12/03 JTM15 対応　佐藤　保明</t>
-  </si>
-  <si>
     <t xml:space="preserve">19 </t>
     <phoneticPr fontId="19"/>
   </si>
@@ -559,6 +555,10 @@
   </si>
   <si>
     <t>radio</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2019/12/09 JTM16 対応　佐藤　保明</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1184,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1303,6 +1303,11 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1409,14 +1414,12 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5317,1433 +5320,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>588288</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>73381</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE54E90F-19F5-4277-9C72-142E11D8DEE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1914524" y="1809750"/>
-          <a:ext cx="6903364" cy="4092931"/>
-          <a:chOff x="2616237" y="1225142"/>
-          <a:chExt cx="13145377" cy="5452463"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC79B9D-4096-4A1F-B9DE-6E70F74A76F6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2616237" y="1225142"/>
-            <a:ext cx="12989840" cy="3209819"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="図 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8017AD-52E5-4444-91D8-2DE57E4CE69F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2725064" y="4272987"/>
-            <a:ext cx="13036550" cy="2404618"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>112415</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>188207</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADF5565-EF1B-491C-9FB7-E961A88D695F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2562225" y="2512715"/>
-          <a:ext cx="369182" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>639017</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342765</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>17165</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Shape 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C273DB-2201-4365-B0AA-E67015C7A7AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5439617" y="2228850"/>
-          <a:ext cx="389548" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>441652</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>150107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>167272</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Shape 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84CBF9F-E2E8-4D4D-8D5B-CE2A11260151}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7299652" y="3064757"/>
-          <a:ext cx="389548" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -50000"/>
-            <a:gd name="adj2" fmla="val -57727"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>9</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>171802</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>120777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137942</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Shape 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E99DC4F-A328-4BB4-88DC-E4F06F6BFE30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7715602" y="2349627"/>
-          <a:ext cx="389548" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -47618"/>
-            <a:gd name="adj2" fmla="val 39631"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>8</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>422370</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6939</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>105752</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>24104</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Shape 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742CC132-3BD5-41FE-BC6E-3E4F71383AAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3165570" y="2235789"/>
-          <a:ext cx="369182" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>221368</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>16002</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>33167</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4360F7BF-D081-4BA1-9C9A-4F79C653CA09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3650368" y="2416302"/>
-          <a:ext cx="369182" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -92836"/>
-            <a:gd name="adj2" fmla="val 87894"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>297568</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>58531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>75696</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503D8E20-66C2-4513-BA7F-A0C36D6E845F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3726568" y="2801731"/>
-          <a:ext cx="369182" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -114272"/>
-            <a:gd name="adj2" fmla="val 21978"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>221368</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>124612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>141777</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDC8A86-D6E5-4459-86CF-9A04A6940685}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3650368" y="3210712"/>
-          <a:ext cx="369182" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -130945"/>
-            <a:gd name="adj2" fmla="val -15527"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>5</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>338603</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>164049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>42351</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9764</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD4B1AF-B7CD-4981-8DA5-0E21EB21863C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7196603" y="2221449"/>
-          <a:ext cx="389548" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101954</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>575081</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>64790</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Shape 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4274305-4C17-40F2-83D9-9F5C6589CD9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4902554" y="4162425"/>
-          <a:ext cx="473127" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>10</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>3726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>587427</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>20891</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Shape 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FDE74D-BE0D-45F4-83B7-315D5BE196CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4229100" y="4804326"/>
-          <a:ext cx="473127" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 77486"/>
-            <a:gd name="adj2" fmla="val 5130"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>12</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>207724</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119911</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>680851</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137076</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Shape 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E06A72-8856-4EF8-84AD-39F6C0FB78A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4322524" y="4406161"/>
-          <a:ext cx="473127" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 57183"/>
-            <a:gd name="adj2" fmla="val 52588"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>11</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>92185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>568377</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>109350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Shape 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583827F7-E1BB-4E08-94BB-B369C186C20E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4210050" y="5235685"/>
-          <a:ext cx="473127" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 79447"/>
-            <a:gd name="adj2" fmla="val -46526"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>13</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>384297</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>102891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171624</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>120056</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Shape 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13C8639-8123-4451-A442-BB22550E4E78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6556497" y="4732041"/>
-          <a:ext cx="473127" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 69626"/>
-            <a:gd name="adj2" fmla="val -9546"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>15</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431922</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219249</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>26690</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Shape 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2ACBBD-838B-4433-90C2-8845792943AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6604122" y="4295775"/>
-          <a:ext cx="473127" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 61782"/>
-            <a:gd name="adj2" fmla="val 42246"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>14</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>433037</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>62762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>220364</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>79927</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Shape 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF7799B-47E0-40D8-BDE0-9DB32720D2F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7976837" y="4863362"/>
-          <a:ext cx="473127" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -75494"/>
-            <a:gd name="adj2" fmla="val 25814"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>16</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>170271</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>139752</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Shape 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067A150E-71AB-42EE-A415-2C1EBDDA5D1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6524625" y="5142321"/>
-          <a:ext cx="473127" cy="360065"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 82350"/>
-            <a:gd name="adj2" fmla="val 18974"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="6AA84F"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>17</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600551</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>597812</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>37151</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6D8917-4FF3-4D70-BBFE-65801F745635}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1972151" y="5905500"/>
-          <a:ext cx="6855261" cy="2875601"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>60277</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>683539</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>161273</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B42ACD-F490-4C22-A9CF-378BDBD4AFB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2009775" y="8975677"/>
-          <a:ext cx="6903364" cy="1986946"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="office365 user9" id="{B410949E-852C-475E-8460-213C0BE9E0A5}" userId="office365 user9" providerId="None"/>
@@ -7069,8 +5645,8 @@
   </sheetPr>
   <dimension ref="A1:CR326"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BM58" sqref="BM58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="AX49" sqref="AX49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -7080,94 +5656,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="126" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AL1" s="113"/>
-      <c r="AM1" s="113"/>
-      <c r="AN1" s="113"/>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="125" t="s">
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="119"/>
+      <c r="AW1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="114"/>
-      <c r="BB1" s="88" t="s">
+      <c r="AX1" s="118"/>
+      <c r="AY1" s="118"/>
+      <c r="AZ1" s="118"/>
+      <c r="BA1" s="119"/>
+      <c r="BB1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="90"/>
-      <c r="BK1" s="125" t="s">
+      <c r="BC1" s="94"/>
+      <c r="BD1" s="94"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
+      <c r="BJ1" s="95"/>
+      <c r="BK1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="113"/>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="113"/>
-      <c r="BO1" s="114"/>
-      <c r="BP1" s="121" t="s">
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="118"/>
+      <c r="BN1" s="118"/>
+      <c r="BO1" s="119"/>
+      <c r="BP1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="113"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="113"/>
-      <c r="BT1" s="113"/>
-      <c r="BU1" s="113"/>
-      <c r="BV1" s="113"/>
-      <c r="BW1" s="113"/>
-      <c r="BX1" s="122"/>
+      <c r="BQ1" s="118"/>
+      <c r="BR1" s="118"/>
+      <c r="BS1" s="118"/>
+      <c r="BT1" s="118"/>
+      <c r="BU1" s="118"/>
+      <c r="BV1" s="118"/>
+      <c r="BW1" s="118"/>
+      <c r="BX1" s="127"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -7190,96 +5766,96 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="127" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="91" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="90"/>
-      <c r="AW2" s="91" t="s">
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="94"/>
+      <c r="AU2" s="94"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="90"/>
-      <c r="BB2" s="88" t="s">
-        <v>114</v>
+      <c r="AX2" s="94"/>
+      <c r="AY2" s="94"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="95"/>
+      <c r="BB2" s="93" t="s">
+        <v>113</v>
       </c>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="89"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="89"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="89"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="90"/>
-      <c r="BK2" s="91" t="s">
+      <c r="BC2" s="94"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
+      <c r="BJ2" s="95"/>
+      <c r="BK2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="89"/>
-      <c r="BM2" s="89"/>
-      <c r="BN2" s="89"/>
-      <c r="BO2" s="90"/>
-      <c r="BP2" s="121" t="s">
+      <c r="BL2" s="94"/>
+      <c r="BM2" s="94"/>
+      <c r="BN2" s="94"/>
+      <c r="BO2" s="95"/>
+      <c r="BP2" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="BQ2" s="113"/>
-      <c r="BR2" s="113"/>
-      <c r="BS2" s="113"/>
-      <c r="BT2" s="113"/>
-      <c r="BU2" s="113"/>
-      <c r="BV2" s="113"/>
-      <c r="BW2" s="113"/>
-      <c r="BX2" s="122"/>
+      <c r="BQ2" s="118"/>
+      <c r="BR2" s="118"/>
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="118"/>
+      <c r="BU2" s="118"/>
+      <c r="BV2" s="118"/>
+      <c r="BW2" s="118"/>
+      <c r="BX2" s="127"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -7538,51 +6114,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="129" t="s">
+      <c r="AM5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="116"/>
-      <c r="AO5" s="92" t="s">
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="116"/>
-      <c r="AV5" s="92" t="s">
+      <c r="AP5" s="98"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="98"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="93"/>
-      <c r="AX5" s="93"/>
-      <c r="AY5" s="93"/>
-      <c r="AZ5" s="116"/>
-      <c r="BA5" s="92" t="s">
+      <c r="AW5" s="98"/>
+      <c r="AX5" s="98"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="121"/>
+      <c r="BA5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="93"/>
-      <c r="BC5" s="93"/>
-      <c r="BD5" s="93"/>
-      <c r="BE5" s="93"/>
-      <c r="BF5" s="93"/>
-      <c r="BG5" s="93"/>
-      <c r="BH5" s="93"/>
-      <c r="BI5" s="93"/>
-      <c r="BJ5" s="93"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="93"/>
-      <c r="BM5" s="93"/>
-      <c r="BN5" s="93"/>
-      <c r="BO5" s="93"/>
-      <c r="BP5" s="93"/>
-      <c r="BQ5" s="93"/>
-      <c r="BR5" s="93"/>
-      <c r="BS5" s="93"/>
-      <c r="BT5" s="93"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="93"/>
-      <c r="BW5" s="94"/>
+      <c r="BB5" s="98"/>
+      <c r="BC5" s="98"/>
+      <c r="BD5" s="98"/>
+      <c r="BE5" s="98"/>
+      <c r="BF5" s="98"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="98"/>
+      <c r="BJ5" s="98"/>
+      <c r="BK5" s="98"/>
+      <c r="BL5" s="98"/>
+      <c r="BM5" s="98"/>
+      <c r="BN5" s="98"/>
+      <c r="BO5" s="98"/>
+      <c r="BP5" s="98"/>
+      <c r="BQ5" s="98"/>
+      <c r="BR5" s="98"/>
+      <c r="BS5" s="98"/>
+      <c r="BT5" s="98"/>
+      <c r="BU5" s="98"/>
+      <c r="BV5" s="98"/>
+      <c r="BW5" s="99"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -7644,43 +6220,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="115"/>
-      <c r="AO6" s="95"/>
-      <c r="AP6" s="96"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="96"/>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="115"/>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="96"/>
-      <c r="AX6" s="96"/>
-      <c r="AY6" s="96"/>
-      <c r="AZ6" s="115"/>
-      <c r="BA6" s="95"/>
-      <c r="BB6" s="96"/>
-      <c r="BC6" s="96"/>
-      <c r="BD6" s="96"/>
-      <c r="BE6" s="96"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="96"/>
-      <c r="BH6" s="96"/>
-      <c r="BI6" s="96"/>
-      <c r="BJ6" s="96"/>
-      <c r="BK6" s="96"/>
-      <c r="BL6" s="96"/>
-      <c r="BM6" s="96"/>
-      <c r="BN6" s="96"/>
-      <c r="BO6" s="96"/>
-      <c r="BP6" s="96"/>
-      <c r="BQ6" s="96"/>
-      <c r="BR6" s="96"/>
-      <c r="BS6" s="96"/>
-      <c r="BT6" s="96"/>
-      <c r="BU6" s="96"/>
-      <c r="BV6" s="96"/>
-      <c r="BW6" s="97"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="101"/>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="101"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="101"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="100"/>
+      <c r="AW6" s="101"/>
+      <c r="AX6" s="101"/>
+      <c r="AY6" s="101"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="100"/>
+      <c r="BB6" s="101"/>
+      <c r="BC6" s="101"/>
+      <c r="BD6" s="101"/>
+      <c r="BE6" s="101"/>
+      <c r="BF6" s="101"/>
+      <c r="BG6" s="101"/>
+      <c r="BH6" s="101"/>
+      <c r="BI6" s="101"/>
+      <c r="BJ6" s="101"/>
+      <c r="BK6" s="101"/>
+      <c r="BL6" s="101"/>
+      <c r="BM6" s="101"/>
+      <c r="BN6" s="101"/>
+      <c r="BO6" s="101"/>
+      <c r="BP6" s="101"/>
+      <c r="BQ6" s="101"/>
+      <c r="BR6" s="101"/>
+      <c r="BS6" s="101"/>
+      <c r="BT6" s="101"/>
+      <c r="BU6" s="101"/>
+      <c r="BV6" s="101"/>
+      <c r="BW6" s="102"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -7742,10 +6318,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="110" t="s">
+      <c r="AM7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="111"/>
+      <c r="AN7" s="116"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -7946,10 +6522,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="110" t="s">
+      <c r="AM9" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="111"/>
+      <c r="AN9" s="116"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -8150,10 +6726,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="110" t="s">
+      <c r="AM11" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="111"/>
+      <c r="AN11" s="116"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -8246,9 +6822,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="104"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="109"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -8353,10 +6929,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="110" t="s">
+      <c r="AM13" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="111"/>
+      <c r="AN13" s="116"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -8540,9 +7116,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="109"/>
+      <c r="AB15" s="109"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -8649,10 +7225,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="110" t="s">
+      <c r="AM16" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="111"/>
+      <c r="AN16" s="116"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -8853,10 +7429,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="110" t="s">
+      <c r="AM18" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="111"/>
+      <c r="AN18" s="116"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -9047,19 +7623,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="104"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="110" t="s">
+      <c r="AM20" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="111"/>
+      <c r="AN20" s="116"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -9245,9 +7821,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -9256,10 +7832,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="110" t="s">
+      <c r="AM22" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="111"/>
+      <c r="AN22" s="116"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -9460,10 +8036,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="110" t="s">
+      <c r="AM24" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="111"/>
+      <c r="AN24" s="116"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -9664,10 +8240,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="110" t="s">
+      <c r="AM26" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="111"/>
+      <c r="AN26" s="116"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -9760,9 +8336,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="104"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="109"/>
+      <c r="AF27" s="109"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -9867,10 +8443,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="110" t="s">
+      <c r="AM28" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="111"/>
+      <c r="AN28" s="116"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -9957,9 +8533,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -10066,10 +8642,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="110" t="s">
+      <c r="AM30" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="111"/>
+      <c r="AN30" s="116"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -10270,10 +8846,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="110" t="s">
+      <c r="AM32" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="111"/>
+      <c r="AN32" s="116"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -10472,10 +9048,10 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="110" t="s">
+      <c r="AM34" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="111"/>
+      <c r="AN34" s="116"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -10550,29 +9126,29 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="119"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="120"/>
-      <c r="AC35" s="104"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="104"/>
-      <c r="AF35" s="104"/>
-      <c r="AG35" s="104"/>
+      <c r="W35" s="124"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="125"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
@@ -10648,38 +9224,38 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="104"/>
-      <c r="X36" s="104"/>
-      <c r="Y36" s="104"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="104"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="104"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="104"/>
-      <c r="AF36" s="104"/>
-      <c r="AG36" s="104"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="109"/>
+      <c r="AG36" s="109"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="110" t="s">
+      <c r="AM36" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="111"/>
+      <c r="AN36" s="116"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -10802,7 +9378,7 @@
       <c r="BU37" s="78"/>
       <c r="BV37" s="78"/>
       <c r="BW37" s="78"/>
-      <c r="BX37" s="147"/>
+      <c r="BX37" s="90"/>
       <c r="BY37" s="21"/>
       <c r="BZ37" s="21"/>
       <c r="CA37" s="21"/>
@@ -10835,29 +9411,29 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="104"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="103"/>
-      <c r="X38" s="104"/>
-      <c r="Y38" s="104"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="104"/>
-      <c r="AB38" s="120"/>
-      <c r="AC38" s="104"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="104"/>
-      <c r="AF38" s="104"/>
-      <c r="AG38" s="104"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="125"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
+      <c r="AE38" s="109"/>
+      <c r="AF38" s="109"/>
+      <c r="AG38" s="109"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
@@ -10935,38 +9511,38 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
-      <c r="T39" s="104"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="104"/>
-      <c r="X39" s="104"/>
-      <c r="Y39" s="104"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="104"/>
-      <c r="AB39" s="104"/>
-      <c r="AC39" s="104"/>
-      <c r="AD39" s="104"/>
-      <c r="AE39" s="104"/>
-      <c r="AF39" s="104"/>
-      <c r="AG39" s="104"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
+      <c r="AE39" s="109"/>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="109"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="110" t="s">
+      <c r="AM39" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="AN39" s="111"/>
+      <c r="AN39" s="116"/>
       <c r="AO39" s="21" t="s">
         <v>67</v>
       </c>
@@ -11279,29 +9855,29 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="104"/>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="104"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="105"/>
-      <c r="X43" s="104"/>
-      <c r="Y43" s="104"/>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="104"/>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="104"/>
-      <c r="AG43" s="104"/>
+      <c r="W43" s="110"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="125"/>
+      <c r="AC43" s="109"/>
+      <c r="AD43" s="109"/>
+      <c r="AE43" s="109"/>
+      <c r="AF43" s="109"/>
+      <c r="AG43" s="109"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -11379,38 +9955,38 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="104"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="104"/>
-      <c r="P44" s="104"/>
-      <c r="Q44" s="104"/>
-      <c r="R44" s="104"/>
-      <c r="S44" s="104"/>
-      <c r="T44" s="104"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="104"/>
-      <c r="X44" s="104"/>
-      <c r="Y44" s="104"/>
-      <c r="Z44" s="104"/>
-      <c r="AA44" s="104"/>
-      <c r="AB44" s="104"/>
-      <c r="AC44" s="104"/>
-      <c r="AD44" s="104"/>
-      <c r="AE44" s="104"/>
-      <c r="AF44" s="104"/>
-      <c r="AG44" s="104"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="109"/>
+      <c r="AG44" s="109"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="110" t="s">
+      <c r="AM44" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="AN44" s="111"/>
+      <c r="AN44" s="116"/>
       <c r="AO44" s="21" t="s">
         <v>70</v>
       </c>
@@ -11487,29 +10063,29 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="109"/>
+      <c r="O45" s="109"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="107"/>
-      <c r="X45" s="104"/>
-      <c r="Y45" s="104"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="104"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="104"/>
-      <c r="AF45" s="104"/>
-      <c r="AG45" s="104"/>
+      <c r="W45" s="112"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="109"/>
+      <c r="AG45" s="109"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
@@ -11585,36 +10161,36 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="104"/>
-      <c r="N46" s="104"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="104"/>
-      <c r="Q46" s="104"/>
-      <c r="R46" s="104"/>
-      <c r="S46" s="104"/>
-      <c r="T46" s="104"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="109"/>
+      <c r="O46" s="109"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="109"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="104"/>
-      <c r="X46" s="104"/>
-      <c r="Y46" s="104"/>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="104"/>
-      <c r="AB46" s="104"/>
-      <c r="AC46" s="104"/>
-      <c r="AD46" s="104"/>
-      <c r="AE46" s="104"/>
-      <c r="AF46" s="104"/>
-      <c r="AG46" s="104"/>
+      <c r="W46" s="109"/>
+      <c r="X46" s="109"/>
+      <c r="Y46" s="109"/>
+      <c r="Z46" s="109"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="109"/>
+      <c r="AD46" s="109"/>
+      <c r="AE46" s="109"/>
+      <c r="AF46" s="109"/>
+      <c r="AG46" s="109"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="110"/>
-      <c r="AN46" s="111"/>
+      <c r="AM46" s="115"/>
+      <c r="AN46" s="116"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -11809,10 +10385,10 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="110" t="s">
+      <c r="AM48" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="AN48" s="111"/>
+      <c r="AN48" s="116"/>
       <c r="AO48" s="47" t="s">
         <v>105</v>
       </c>
@@ -12305,28 +10881,28 @@
       <c r="AJ53" s="21"/>
       <c r="AK53" s="21"/>
       <c r="AL53" s="21"/>
-      <c r="AM53" s="110" t="s">
+      <c r="AM53" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN53" s="150"/>
+      <c r="AO53" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="AN53" s="144"/>
-      <c r="AO53" s="21" t="s">
-        <v>113</v>
+      <c r="AP53" s="78"/>
+      <c r="AQ53" s="78"/>
+      <c r="AR53" s="78"/>
+      <c r="AS53" s="78"/>
+      <c r="AT53" s="78"/>
+      <c r="AU53" s="37"/>
+      <c r="AV53" s="78" t="s">
+        <v>115</v>
       </c>
-      <c r="AP53" s="21"/>
-      <c r="AQ53" s="21"/>
-      <c r="AR53" s="21"/>
-      <c r="AS53" s="21"/>
-      <c r="AT53" s="21"/>
-      <c r="AU53" s="37"/>
-      <c r="AV53" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW53" s="21"/>
+      <c r="AW53" s="78"/>
       <c r="AX53" s="21"/>
       <c r="AY53" s="21"/>
       <c r="AZ53" s="37"/>
-      <c r="BA53" s="145" t="s">
-        <v>115</v>
+      <c r="BA53" s="88" t="s">
+        <v>114</v>
       </c>
       <c r="BB53" s="21"/>
       <c r="BC53" s="21"/>
@@ -12532,11 +11108,11 @@
       <c r="BI55" s="21"/>
       <c r="BJ55" s="21"/>
       <c r="BK55" s="21"/>
-      <c r="BL55" s="148" t="s">
-        <v>111</v>
+      <c r="BL55" s="91" t="s">
+        <v>116</v>
       </c>
       <c r="BM55" s="78"/>
-      <c r="BN55" s="149"/>
+      <c r="BN55" s="92"/>
       <c r="BO55" s="78"/>
       <c r="BP55" s="78"/>
       <c r="BQ55" s="78"/>
@@ -12545,7 +11121,7 @@
       <c r="BT55" s="78"/>
       <c r="BU55" s="78"/>
       <c r="BV55" s="78"/>
-      <c r="BW55" s="146"/>
+      <c r="BW55" s="89"/>
       <c r="BX55" s="8"/>
       <c r="BY55" s="21"/>
       <c r="BZ55" s="21"/>
@@ -13092,8 +11668,8 @@
       <c r="AJ61" s="82"/>
       <c r="AK61" s="82"/>
       <c r="AL61" s="82"/>
-      <c r="AM61" s="135"/>
-      <c r="AN61" s="135"/>
+      <c r="AM61" s="140"/>
+      <c r="AN61" s="140"/>
       <c r="AO61" s="82"/>
       <c r="AP61" s="82"/>
       <c r="AQ61" s="82"/>
@@ -13152,190 +11728,190 @@
       <c r="CR61" s="21"/>
     </row>
     <row r="62" spans="1:96" ht="18" thickBot="1">
-      <c r="A62" s="131" t="s">
+      <c r="A62" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="113"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="124" t="s">
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="113"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="113"/>
-      <c r="L62" s="113"/>
-      <c r="M62" s="113"/>
-      <c r="N62" s="113"/>
-      <c r="O62" s="113"/>
-      <c r="P62" s="113"/>
-      <c r="Q62" s="113"/>
-      <c r="R62" s="113"/>
-      <c r="S62" s="113"/>
-      <c r="T62" s="113"/>
-      <c r="U62" s="113"/>
-      <c r="V62" s="113"/>
-      <c r="W62" s="113"/>
-      <c r="X62" s="113"/>
-      <c r="Y62" s="113"/>
-      <c r="Z62" s="113"/>
-      <c r="AA62" s="113"/>
-      <c r="AB62" s="113"/>
-      <c r="AC62" s="113"/>
-      <c r="AD62" s="113"/>
-      <c r="AE62" s="113"/>
-      <c r="AF62" s="113"/>
-      <c r="AG62" s="113"/>
-      <c r="AH62" s="113"/>
-      <c r="AI62" s="113"/>
-      <c r="AJ62" s="113"/>
-      <c r="AK62" s="113"/>
-      <c r="AL62" s="113"/>
-      <c r="AM62" s="113"/>
-      <c r="AN62" s="113"/>
-      <c r="AO62" s="113"/>
-      <c r="AP62" s="113"/>
-      <c r="AQ62" s="113"/>
-      <c r="AR62" s="113"/>
-      <c r="AS62" s="113"/>
-      <c r="AT62" s="113"/>
-      <c r="AU62" s="113"/>
-      <c r="AV62" s="114"/>
-      <c r="AW62" s="112" t="s">
+      <c r="G62" s="118"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="118"/>
+      <c r="N62" s="118"/>
+      <c r="O62" s="118"/>
+      <c r="P62" s="118"/>
+      <c r="Q62" s="118"/>
+      <c r="R62" s="118"/>
+      <c r="S62" s="118"/>
+      <c r="T62" s="118"/>
+      <c r="U62" s="118"/>
+      <c r="V62" s="118"/>
+      <c r="W62" s="118"/>
+      <c r="X62" s="118"/>
+      <c r="Y62" s="118"/>
+      <c r="Z62" s="118"/>
+      <c r="AA62" s="118"/>
+      <c r="AB62" s="118"/>
+      <c r="AC62" s="118"/>
+      <c r="AD62" s="118"/>
+      <c r="AE62" s="118"/>
+      <c r="AF62" s="118"/>
+      <c r="AG62" s="118"/>
+      <c r="AH62" s="118"/>
+      <c r="AI62" s="118"/>
+      <c r="AJ62" s="118"/>
+      <c r="AK62" s="118"/>
+      <c r="AL62" s="118"/>
+      <c r="AM62" s="118"/>
+      <c r="AN62" s="118"/>
+      <c r="AO62" s="118"/>
+      <c r="AP62" s="118"/>
+      <c r="AQ62" s="118"/>
+      <c r="AR62" s="118"/>
+      <c r="AS62" s="118"/>
+      <c r="AT62" s="118"/>
+      <c r="AU62" s="118"/>
+      <c r="AV62" s="119"/>
+      <c r="AW62" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX62" s="113"/>
-      <c r="AY62" s="113"/>
-      <c r="AZ62" s="113"/>
-      <c r="BA62" s="114"/>
-      <c r="BB62" s="88" t="s">
+      <c r="AX62" s="118"/>
+      <c r="AY62" s="118"/>
+      <c r="AZ62" s="118"/>
+      <c r="BA62" s="119"/>
+      <c r="BB62" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC62" s="89"/>
-      <c r="BD62" s="89"/>
-      <c r="BE62" s="89"/>
-      <c r="BF62" s="89"/>
-      <c r="BG62" s="89"/>
-      <c r="BH62" s="89"/>
-      <c r="BI62" s="89"/>
-      <c r="BJ62" s="90"/>
-      <c r="BK62" s="112" t="s">
+      <c r="BC62" s="94"/>
+      <c r="BD62" s="94"/>
+      <c r="BE62" s="94"/>
+      <c r="BF62" s="94"/>
+      <c r="BG62" s="94"/>
+      <c r="BH62" s="94"/>
+      <c r="BI62" s="94"/>
+      <c r="BJ62" s="95"/>
+      <c r="BK62" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL62" s="113"/>
-      <c r="BM62" s="113"/>
-      <c r="BN62" s="113"/>
-      <c r="BO62" s="114"/>
-      <c r="BP62" s="121" t="s">
+      <c r="BL62" s="118"/>
+      <c r="BM62" s="118"/>
+      <c r="BN62" s="118"/>
+      <c r="BO62" s="119"/>
+      <c r="BP62" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ62" s="113"/>
-      <c r="BR62" s="113"/>
-      <c r="BS62" s="113"/>
-      <c r="BT62" s="113"/>
-      <c r="BU62" s="113"/>
-      <c r="BV62" s="113"/>
-      <c r="BW62" s="113"/>
-      <c r="BX62" s="122"/>
+      <c r="BQ62" s="118"/>
+      <c r="BR62" s="118"/>
+      <c r="BS62" s="118"/>
+      <c r="BT62" s="118"/>
+      <c r="BU62" s="118"/>
+      <c r="BV62" s="118"/>
+      <c r="BW62" s="118"/>
+      <c r="BX62" s="127"/>
       <c r="BY62" s="52"/>
       <c r="BZ62" s="52"/>
     </row>
     <row r="63" spans="1:96" ht="18">
-      <c r="A63" s="132" t="s">
+      <c r="A63" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="102" t="s">
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="99"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="99"/>
-      <c r="T63" s="99"/>
-      <c r="U63" s="99"/>
-      <c r="V63" s="99"/>
-      <c r="W63" s="99"/>
-      <c r="X63" s="99"/>
-      <c r="Y63" s="101"/>
-      <c r="Z63" s="100" t="s">
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="104"/>
+      <c r="T63" s="104"/>
+      <c r="U63" s="104"/>
+      <c r="V63" s="104"/>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
+      <c r="Y63" s="106"/>
+      <c r="Z63" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="99"/>
-      <c r="AC63" s="99"/>
-      <c r="AD63" s="101"/>
-      <c r="AE63" s="102" t="s">
+      <c r="AA63" s="104"/>
+      <c r="AB63" s="104"/>
+      <c r="AC63" s="104"/>
+      <c r="AD63" s="106"/>
+      <c r="AE63" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="99"/>
-      <c r="AH63" s="99"/>
-      <c r="AI63" s="99"/>
-      <c r="AJ63" s="99"/>
-      <c r="AK63" s="99"/>
-      <c r="AL63" s="99"/>
-      <c r="AM63" s="99"/>
-      <c r="AN63" s="99"/>
-      <c r="AO63" s="99"/>
-      <c r="AP63" s="99"/>
-      <c r="AQ63" s="99"/>
-      <c r="AR63" s="99"/>
-      <c r="AS63" s="99"/>
-      <c r="AT63" s="99"/>
-      <c r="AU63" s="99"/>
-      <c r="AV63" s="101"/>
-      <c r="AW63" s="100" t="s">
+      <c r="AF63" s="104"/>
+      <c r="AG63" s="104"/>
+      <c r="AH63" s="104"/>
+      <c r="AI63" s="104"/>
+      <c r="AJ63" s="104"/>
+      <c r="AK63" s="104"/>
+      <c r="AL63" s="104"/>
+      <c r="AM63" s="104"/>
+      <c r="AN63" s="104"/>
+      <c r="AO63" s="104"/>
+      <c r="AP63" s="104"/>
+      <c r="AQ63" s="104"/>
+      <c r="AR63" s="104"/>
+      <c r="AS63" s="104"/>
+      <c r="AT63" s="104"/>
+      <c r="AU63" s="104"/>
+      <c r="AV63" s="106"/>
+      <c r="AW63" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX63" s="99"/>
-      <c r="AY63" s="99"/>
-      <c r="AZ63" s="99"/>
-      <c r="BA63" s="101"/>
-      <c r="BB63" s="98" t="s">
+      <c r="AX63" s="104"/>
+      <c r="AY63" s="104"/>
+      <c r="AZ63" s="104"/>
+      <c r="BA63" s="106"/>
+      <c r="BB63" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC63" s="99"/>
-      <c r="BD63" s="99"/>
-      <c r="BE63" s="99"/>
-      <c r="BF63" s="99"/>
-      <c r="BG63" s="99"/>
-      <c r="BH63" s="99"/>
-      <c r="BI63" s="99"/>
-      <c r="BJ63" s="99"/>
-      <c r="BK63" s="100" t="s">
+      <c r="BC63" s="104"/>
+      <c r="BD63" s="104"/>
+      <c r="BE63" s="104"/>
+      <c r="BF63" s="104"/>
+      <c r="BG63" s="104"/>
+      <c r="BH63" s="104"/>
+      <c r="BI63" s="104"/>
+      <c r="BJ63" s="104"/>
+      <c r="BK63" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="BL63" s="99"/>
-      <c r="BM63" s="99"/>
-      <c r="BN63" s="99"/>
-      <c r="BO63" s="101"/>
-      <c r="BP63" s="121" t="s">
+      <c r="BL63" s="104"/>
+      <c r="BM63" s="104"/>
+      <c r="BN63" s="104"/>
+      <c r="BO63" s="106"/>
+      <c r="BP63" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ63" s="113"/>
-      <c r="BR63" s="113"/>
-      <c r="BS63" s="113"/>
-      <c r="BT63" s="113"/>
-      <c r="BU63" s="113"/>
-      <c r="BV63" s="113"/>
-      <c r="BW63" s="113"/>
-      <c r="BX63" s="122"/>
+      <c r="BQ63" s="118"/>
+      <c r="BR63" s="118"/>
+      <c r="BS63" s="118"/>
+      <c r="BT63" s="118"/>
+      <c r="BU63" s="118"/>
+      <c r="BV63" s="118"/>
+      <c r="BW63" s="118"/>
+      <c r="BX63" s="127"/>
       <c r="BY63" s="52"/>
       <c r="BZ63" s="52"/>
     </row>
@@ -13540,51 +12116,51 @@
       <c r="AJ66" s="33"/>
       <c r="AK66" s="33"/>
       <c r="AL66" s="53"/>
-      <c r="AM66" s="108" t="s">
+      <c r="AM66" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN66" s="109"/>
-      <c r="AO66" s="108" t="s">
+      <c r="AN66" s="114"/>
+      <c r="AO66" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP66" s="104"/>
-      <c r="AQ66" s="104"/>
-      <c r="AR66" s="104"/>
-      <c r="AS66" s="104"/>
-      <c r="AT66" s="104"/>
-      <c r="AU66" s="111"/>
-      <c r="AV66" s="108" t="s">
+      <c r="AP66" s="109"/>
+      <c r="AQ66" s="109"/>
+      <c r="AR66" s="109"/>
+      <c r="AS66" s="109"/>
+      <c r="AT66" s="109"/>
+      <c r="AU66" s="116"/>
+      <c r="AV66" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW66" s="104"/>
-      <c r="AX66" s="104"/>
-      <c r="AY66" s="104"/>
-      <c r="AZ66" s="111"/>
-      <c r="BA66" s="108" t="s">
+      <c r="AW66" s="109"/>
+      <c r="AX66" s="109"/>
+      <c r="AY66" s="109"/>
+      <c r="AZ66" s="116"/>
+      <c r="BA66" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB66" s="104"/>
-      <c r="BC66" s="104"/>
-      <c r="BD66" s="104"/>
-      <c r="BE66" s="104"/>
-      <c r="BF66" s="104"/>
-      <c r="BG66" s="104"/>
-      <c r="BH66" s="104"/>
-      <c r="BI66" s="104"/>
-      <c r="BJ66" s="104"/>
-      <c r="BK66" s="104"/>
-      <c r="BL66" s="104"/>
-      <c r="BM66" s="104"/>
-      <c r="BN66" s="104"/>
-      <c r="BO66" s="104"/>
-      <c r="BP66" s="104"/>
-      <c r="BQ66" s="104"/>
-      <c r="BR66" s="104"/>
-      <c r="BS66" s="104"/>
-      <c r="BT66" s="104"/>
-      <c r="BU66" s="104"/>
-      <c r="BV66" s="104"/>
-      <c r="BW66" s="109"/>
+      <c r="BB66" s="109"/>
+      <c r="BC66" s="109"/>
+      <c r="BD66" s="109"/>
+      <c r="BE66" s="109"/>
+      <c r="BF66" s="109"/>
+      <c r="BG66" s="109"/>
+      <c r="BH66" s="109"/>
+      <c r="BI66" s="109"/>
+      <c r="BJ66" s="109"/>
+      <c r="BK66" s="109"/>
+      <c r="BL66" s="109"/>
+      <c r="BM66" s="109"/>
+      <c r="BN66" s="109"/>
+      <c r="BO66" s="109"/>
+      <c r="BP66" s="109"/>
+      <c r="BQ66" s="109"/>
+      <c r="BR66" s="109"/>
+      <c r="BS66" s="109"/>
+      <c r="BT66" s="109"/>
+      <c r="BU66" s="109"/>
+      <c r="BV66" s="109"/>
+      <c r="BW66" s="114"/>
       <c r="BX66" s="53"/>
       <c r="BY66" s="33"/>
       <c r="BZ66" s="33"/>
@@ -13592,14 +12168,14 @@
     <row r="67" spans="1:78" ht="13.5">
       <c r="A67" s="45"/>
       <c r="B67" s="55"/>
-      <c r="C67" s="136" t="s">
+      <c r="C67" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="142"/>
       <c r="I67" s="56"/>
       <c r="J67" s="56"/>
       <c r="K67" s="56"/>
@@ -13630,43 +12206,43 @@
       <c r="AJ67" s="33"/>
       <c r="AK67" s="33"/>
       <c r="AL67" s="53"/>
-      <c r="AM67" s="96"/>
-      <c r="AN67" s="97"/>
-      <c r="AO67" s="96"/>
-      <c r="AP67" s="96"/>
-      <c r="AQ67" s="96"/>
-      <c r="AR67" s="96"/>
-      <c r="AS67" s="96"/>
-      <c r="AT67" s="96"/>
-      <c r="AU67" s="115"/>
-      <c r="AV67" s="96"/>
-      <c r="AW67" s="96"/>
-      <c r="AX67" s="96"/>
-      <c r="AY67" s="96"/>
-      <c r="AZ67" s="115"/>
-      <c r="BA67" s="96"/>
-      <c r="BB67" s="96"/>
-      <c r="BC67" s="96"/>
-      <c r="BD67" s="96"/>
-      <c r="BE67" s="96"/>
-      <c r="BF67" s="96"/>
-      <c r="BG67" s="96"/>
-      <c r="BH67" s="96"/>
-      <c r="BI67" s="96"/>
-      <c r="BJ67" s="96"/>
-      <c r="BK67" s="96"/>
-      <c r="BL67" s="96"/>
-      <c r="BM67" s="96"/>
-      <c r="BN67" s="96"/>
-      <c r="BO67" s="96"/>
-      <c r="BP67" s="96"/>
-      <c r="BQ67" s="96"/>
-      <c r="BR67" s="96"/>
-      <c r="BS67" s="96"/>
-      <c r="BT67" s="96"/>
-      <c r="BU67" s="96"/>
-      <c r="BV67" s="96"/>
-      <c r="BW67" s="97"/>
+      <c r="AM67" s="101"/>
+      <c r="AN67" s="102"/>
+      <c r="AO67" s="101"/>
+      <c r="AP67" s="101"/>
+      <c r="AQ67" s="101"/>
+      <c r="AR67" s="101"/>
+      <c r="AS67" s="101"/>
+      <c r="AT67" s="101"/>
+      <c r="AU67" s="120"/>
+      <c r="AV67" s="101"/>
+      <c r="AW67" s="101"/>
+      <c r="AX67" s="101"/>
+      <c r="AY67" s="101"/>
+      <c r="AZ67" s="120"/>
+      <c r="BA67" s="101"/>
+      <c r="BB67" s="101"/>
+      <c r="BC67" s="101"/>
+      <c r="BD67" s="101"/>
+      <c r="BE67" s="101"/>
+      <c r="BF67" s="101"/>
+      <c r="BG67" s="101"/>
+      <c r="BH67" s="101"/>
+      <c r="BI67" s="101"/>
+      <c r="BJ67" s="101"/>
+      <c r="BK67" s="101"/>
+      <c r="BL67" s="101"/>
+      <c r="BM67" s="101"/>
+      <c r="BN67" s="101"/>
+      <c r="BO67" s="101"/>
+      <c r="BP67" s="101"/>
+      <c r="BQ67" s="101"/>
+      <c r="BR67" s="101"/>
+      <c r="BS67" s="101"/>
+      <c r="BT67" s="101"/>
+      <c r="BU67" s="101"/>
+      <c r="BV67" s="101"/>
+      <c r="BW67" s="102"/>
       <c r="BX67" s="53"/>
       <c r="BY67" s="33"/>
       <c r="BZ67" s="33"/>
@@ -13674,12 +12250,12 @@
     <row r="68" spans="1:78">
       <c r="A68" s="45"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="109"/>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
       <c r="K68" s="33"/>
@@ -13710,10 +12286,10 @@
       <c r="AJ68" s="33"/>
       <c r="AK68" s="33"/>
       <c r="AL68" s="53"/>
-      <c r="AM68" s="110" t="s">
+      <c r="AM68" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN68" s="111"/>
+      <c r="AN68" s="116"/>
       <c r="AO68" s="59" t="s">
         <v>77</v>
       </c>
@@ -13880,10 +12456,10 @@
       <c r="AJ70" s="33"/>
       <c r="AK70" s="33"/>
       <c r="AL70" s="53"/>
-      <c r="AM70" s="123">
+      <c r="AM70" s="128">
         <v>2</v>
       </c>
-      <c r="AN70" s="104"/>
+      <c r="AN70" s="109"/>
       <c r="AO70" s="64" t="s">
         <v>80</v>
       </c>
@@ -14114,10 +12690,10 @@
       <c r="AJ73" s="33"/>
       <c r="AK73" s="33"/>
       <c r="AL73" s="53"/>
-      <c r="AM73" s="143" t="s">
+      <c r="AM73" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="AN73" s="104"/>
+      <c r="AN73" s="109"/>
       <c r="AO73" s="66" t="s">
         <v>84</v>
       </c>
@@ -14170,16 +12746,16 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="138" t="s">
+      <c r="G74" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="H74" s="137"/>
-      <c r="I74" s="137"/>
-      <c r="J74" s="137"/>
-      <c r="K74" s="137"/>
-      <c r="L74" s="137"/>
-      <c r="M74" s="137"/>
-      <c r="N74" s="139"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="142"/>
+      <c r="K74" s="142"/>
+      <c r="L74" s="142"/>
+      <c r="M74" s="142"/>
+      <c r="N74" s="144"/>
       <c r="O74" s="33"/>
       <c r="P74" s="33"/>
       <c r="Q74" s="33"/>
@@ -14252,14 +12828,14 @@
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="101"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="104"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="106"/>
       <c r="O75" s="33"/>
       <c r="P75" s="33"/>
       <c r="Q75" s="33"/>
@@ -17446,190 +16022,190 @@
       <c r="BZ114" s="33"/>
     </row>
     <row r="115" spans="1:78" ht="17.25">
-      <c r="A115" s="131" t="s">
+      <c r="A115" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="113"/>
-      <c r="C115" s="113"/>
-      <c r="D115" s="113"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="124" t="s">
+      <c r="B115" s="118"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="113"/>
-      <c r="H115" s="113"/>
-      <c r="I115" s="113"/>
-      <c r="J115" s="113"/>
-      <c r="K115" s="113"/>
-      <c r="L115" s="113"/>
-      <c r="M115" s="113"/>
-      <c r="N115" s="113"/>
-      <c r="O115" s="113"/>
-      <c r="P115" s="113"/>
-      <c r="Q115" s="113"/>
-      <c r="R115" s="113"/>
-      <c r="S115" s="113"/>
-      <c r="T115" s="113"/>
-      <c r="U115" s="113"/>
-      <c r="V115" s="113"/>
-      <c r="W115" s="113"/>
-      <c r="X115" s="113"/>
-      <c r="Y115" s="113"/>
-      <c r="Z115" s="113"/>
-      <c r="AA115" s="113"/>
-      <c r="AB115" s="113"/>
-      <c r="AC115" s="113"/>
-      <c r="AD115" s="113"/>
-      <c r="AE115" s="113"/>
-      <c r="AF115" s="113"/>
-      <c r="AG115" s="113"/>
-      <c r="AH115" s="113"/>
-      <c r="AI115" s="113"/>
-      <c r="AJ115" s="113"/>
-      <c r="AK115" s="113"/>
-      <c r="AL115" s="113"/>
-      <c r="AM115" s="113"/>
-      <c r="AN115" s="113"/>
-      <c r="AO115" s="113"/>
-      <c r="AP115" s="113"/>
-      <c r="AQ115" s="113"/>
-      <c r="AR115" s="113"/>
-      <c r="AS115" s="113"/>
-      <c r="AT115" s="113"/>
-      <c r="AU115" s="113"/>
-      <c r="AV115" s="114"/>
-      <c r="AW115" s="112" t="s">
+      <c r="G115" s="118"/>
+      <c r="H115" s="118"/>
+      <c r="I115" s="118"/>
+      <c r="J115" s="118"/>
+      <c r="K115" s="118"/>
+      <c r="L115" s="118"/>
+      <c r="M115" s="118"/>
+      <c r="N115" s="118"/>
+      <c r="O115" s="118"/>
+      <c r="P115" s="118"/>
+      <c r="Q115" s="118"/>
+      <c r="R115" s="118"/>
+      <c r="S115" s="118"/>
+      <c r="T115" s="118"/>
+      <c r="U115" s="118"/>
+      <c r="V115" s="118"/>
+      <c r="W115" s="118"/>
+      <c r="X115" s="118"/>
+      <c r="Y115" s="118"/>
+      <c r="Z115" s="118"/>
+      <c r="AA115" s="118"/>
+      <c r="AB115" s="118"/>
+      <c r="AC115" s="118"/>
+      <c r="AD115" s="118"/>
+      <c r="AE115" s="118"/>
+      <c r="AF115" s="118"/>
+      <c r="AG115" s="118"/>
+      <c r="AH115" s="118"/>
+      <c r="AI115" s="118"/>
+      <c r="AJ115" s="118"/>
+      <c r="AK115" s="118"/>
+      <c r="AL115" s="118"/>
+      <c r="AM115" s="118"/>
+      <c r="AN115" s="118"/>
+      <c r="AO115" s="118"/>
+      <c r="AP115" s="118"/>
+      <c r="AQ115" s="118"/>
+      <c r="AR115" s="118"/>
+      <c r="AS115" s="118"/>
+      <c r="AT115" s="118"/>
+      <c r="AU115" s="118"/>
+      <c r="AV115" s="119"/>
+      <c r="AW115" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX115" s="113"/>
-      <c r="AY115" s="113"/>
-      <c r="AZ115" s="113"/>
-      <c r="BA115" s="114"/>
-      <c r="BB115" s="88" t="s">
+      <c r="AX115" s="118"/>
+      <c r="AY115" s="118"/>
+      <c r="AZ115" s="118"/>
+      <c r="BA115" s="119"/>
+      <c r="BB115" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC115" s="89"/>
-      <c r="BD115" s="89"/>
-      <c r="BE115" s="89"/>
-      <c r="BF115" s="89"/>
-      <c r="BG115" s="89"/>
-      <c r="BH115" s="89"/>
-      <c r="BI115" s="89"/>
-      <c r="BJ115" s="90"/>
-      <c r="BK115" s="112" t="s">
+      <c r="BC115" s="94"/>
+      <c r="BD115" s="94"/>
+      <c r="BE115" s="94"/>
+      <c r="BF115" s="94"/>
+      <c r="BG115" s="94"/>
+      <c r="BH115" s="94"/>
+      <c r="BI115" s="94"/>
+      <c r="BJ115" s="95"/>
+      <c r="BK115" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL115" s="113"/>
-      <c r="BM115" s="113"/>
-      <c r="BN115" s="113"/>
-      <c r="BO115" s="114"/>
-      <c r="BP115" s="121" t="s">
+      <c r="BL115" s="118"/>
+      <c r="BM115" s="118"/>
+      <c r="BN115" s="118"/>
+      <c r="BO115" s="119"/>
+      <c r="BP115" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ115" s="113"/>
-      <c r="BR115" s="113"/>
-      <c r="BS115" s="113"/>
-      <c r="BT115" s="113"/>
-      <c r="BU115" s="113"/>
-      <c r="BV115" s="113"/>
-      <c r="BW115" s="113"/>
-      <c r="BX115" s="122"/>
+      <c r="BQ115" s="118"/>
+      <c r="BR115" s="118"/>
+      <c r="BS115" s="118"/>
+      <c r="BT115" s="118"/>
+      <c r="BU115" s="118"/>
+      <c r="BV115" s="118"/>
+      <c r="BW115" s="118"/>
+      <c r="BX115" s="127"/>
       <c r="BY115" s="52"/>
       <c r="BZ115" s="52"/>
     </row>
     <row r="116" spans="1:78" ht="18">
-      <c r="A116" s="132" t="s">
+      <c r="A116" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="99"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="133"/>
-      <c r="F116" s="102" t="s">
+      <c r="B116" s="104"/>
+      <c r="C116" s="104"/>
+      <c r="D116" s="104"/>
+      <c r="E116" s="138"/>
+      <c r="F116" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="99"/>
-      <c r="H116" s="99"/>
-      <c r="I116" s="99"/>
-      <c r="J116" s="99"/>
-      <c r="K116" s="99"/>
-      <c r="L116" s="99"/>
-      <c r="M116" s="99"/>
-      <c r="N116" s="99"/>
-      <c r="O116" s="99"/>
-      <c r="P116" s="99"/>
-      <c r="Q116" s="99"/>
-      <c r="R116" s="99"/>
-      <c r="S116" s="99"/>
-      <c r="T116" s="99"/>
-      <c r="U116" s="99"/>
-      <c r="V116" s="99"/>
-      <c r="W116" s="99"/>
-      <c r="X116" s="99"/>
-      <c r="Y116" s="101"/>
-      <c r="Z116" s="100" t="s">
+      <c r="G116" s="104"/>
+      <c r="H116" s="104"/>
+      <c r="I116" s="104"/>
+      <c r="J116" s="104"/>
+      <c r="K116" s="104"/>
+      <c r="L116" s="104"/>
+      <c r="M116" s="104"/>
+      <c r="N116" s="104"/>
+      <c r="O116" s="104"/>
+      <c r="P116" s="104"/>
+      <c r="Q116" s="104"/>
+      <c r="R116" s="104"/>
+      <c r="S116" s="104"/>
+      <c r="T116" s="104"/>
+      <c r="U116" s="104"/>
+      <c r="V116" s="104"/>
+      <c r="W116" s="104"/>
+      <c r="X116" s="104"/>
+      <c r="Y116" s="106"/>
+      <c r="Z116" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA116" s="99"/>
-      <c r="AB116" s="99"/>
-      <c r="AC116" s="99"/>
-      <c r="AD116" s="101"/>
-      <c r="AE116" s="102" t="s">
+      <c r="AA116" s="104"/>
+      <c r="AB116" s="104"/>
+      <c r="AC116" s="104"/>
+      <c r="AD116" s="106"/>
+      <c r="AE116" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="AF116" s="99"/>
-      <c r="AG116" s="99"/>
-      <c r="AH116" s="99"/>
-      <c r="AI116" s="99"/>
-      <c r="AJ116" s="99"/>
-      <c r="AK116" s="99"/>
-      <c r="AL116" s="99"/>
-      <c r="AM116" s="99"/>
-      <c r="AN116" s="99"/>
-      <c r="AO116" s="99"/>
-      <c r="AP116" s="99"/>
-      <c r="AQ116" s="99"/>
-      <c r="AR116" s="99"/>
-      <c r="AS116" s="99"/>
-      <c r="AT116" s="99"/>
-      <c r="AU116" s="99"/>
-      <c r="AV116" s="101"/>
-      <c r="AW116" s="100" t="s">
+      <c r="AF116" s="104"/>
+      <c r="AG116" s="104"/>
+      <c r="AH116" s="104"/>
+      <c r="AI116" s="104"/>
+      <c r="AJ116" s="104"/>
+      <c r="AK116" s="104"/>
+      <c r="AL116" s="104"/>
+      <c r="AM116" s="104"/>
+      <c r="AN116" s="104"/>
+      <c r="AO116" s="104"/>
+      <c r="AP116" s="104"/>
+      <c r="AQ116" s="104"/>
+      <c r="AR116" s="104"/>
+      <c r="AS116" s="104"/>
+      <c r="AT116" s="104"/>
+      <c r="AU116" s="104"/>
+      <c r="AV116" s="106"/>
+      <c r="AW116" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX116" s="99"/>
-      <c r="AY116" s="99"/>
-      <c r="AZ116" s="99"/>
-      <c r="BA116" s="101"/>
-      <c r="BB116" s="98" t="s">
+      <c r="AX116" s="104"/>
+      <c r="AY116" s="104"/>
+      <c r="AZ116" s="104"/>
+      <c r="BA116" s="106"/>
+      <c r="BB116" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC116" s="99"/>
-      <c r="BD116" s="99"/>
-      <c r="BE116" s="99"/>
-      <c r="BF116" s="99"/>
-      <c r="BG116" s="99"/>
-      <c r="BH116" s="99"/>
-      <c r="BI116" s="99"/>
-      <c r="BJ116" s="99"/>
-      <c r="BK116" s="100" t="s">
+      <c r="BC116" s="104"/>
+      <c r="BD116" s="104"/>
+      <c r="BE116" s="104"/>
+      <c r="BF116" s="104"/>
+      <c r="BG116" s="104"/>
+      <c r="BH116" s="104"/>
+      <c r="BI116" s="104"/>
+      <c r="BJ116" s="104"/>
+      <c r="BK116" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="BL116" s="99"/>
-      <c r="BM116" s="99"/>
-      <c r="BN116" s="99"/>
-      <c r="BO116" s="101"/>
-      <c r="BP116" s="121" t="s">
+      <c r="BL116" s="104"/>
+      <c r="BM116" s="104"/>
+      <c r="BN116" s="104"/>
+      <c r="BO116" s="106"/>
+      <c r="BP116" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ116" s="113"/>
-      <c r="BR116" s="113"/>
-      <c r="BS116" s="113"/>
-      <c r="BT116" s="113"/>
-      <c r="BU116" s="113"/>
-      <c r="BV116" s="113"/>
-      <c r="BW116" s="113"/>
-      <c r="BX116" s="122"/>
+      <c r="BQ116" s="118"/>
+      <c r="BR116" s="118"/>
+      <c r="BS116" s="118"/>
+      <c r="BT116" s="118"/>
+      <c r="BU116" s="118"/>
+      <c r="BV116" s="118"/>
+      <c r="BW116" s="118"/>
+      <c r="BX116" s="127"/>
       <c r="BY116" s="52"/>
       <c r="BZ116" s="52"/>
     </row>
@@ -17834,51 +16410,51 @@
       <c r="AJ119" s="4"/>
       <c r="AK119" s="4"/>
       <c r="AL119" s="53"/>
-      <c r="AM119" s="108" t="s">
+      <c r="AM119" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN119" s="109"/>
-      <c r="AO119" s="108" t="s">
+      <c r="AN119" s="114"/>
+      <c r="AO119" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP119" s="104"/>
-      <c r="AQ119" s="104"/>
-      <c r="AR119" s="104"/>
-      <c r="AS119" s="104"/>
-      <c r="AT119" s="104"/>
-      <c r="AU119" s="111"/>
-      <c r="AV119" s="108" t="s">
+      <c r="AP119" s="109"/>
+      <c r="AQ119" s="109"/>
+      <c r="AR119" s="109"/>
+      <c r="AS119" s="109"/>
+      <c r="AT119" s="109"/>
+      <c r="AU119" s="116"/>
+      <c r="AV119" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW119" s="104"/>
-      <c r="AX119" s="104"/>
-      <c r="AY119" s="104"/>
-      <c r="AZ119" s="111"/>
-      <c r="BA119" s="108" t="s">
+      <c r="AW119" s="109"/>
+      <c r="AX119" s="109"/>
+      <c r="AY119" s="109"/>
+      <c r="AZ119" s="116"/>
+      <c r="BA119" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB119" s="104"/>
-      <c r="BC119" s="104"/>
-      <c r="BD119" s="104"/>
-      <c r="BE119" s="104"/>
-      <c r="BF119" s="104"/>
-      <c r="BG119" s="104"/>
-      <c r="BH119" s="104"/>
-      <c r="BI119" s="104"/>
-      <c r="BJ119" s="104"/>
-      <c r="BK119" s="104"/>
-      <c r="BL119" s="104"/>
-      <c r="BM119" s="104"/>
-      <c r="BN119" s="104"/>
-      <c r="BO119" s="104"/>
-      <c r="BP119" s="104"/>
-      <c r="BQ119" s="104"/>
-      <c r="BR119" s="104"/>
-      <c r="BS119" s="104"/>
-      <c r="BT119" s="104"/>
-      <c r="BU119" s="104"/>
-      <c r="BV119" s="104"/>
-      <c r="BW119" s="109"/>
+      <c r="BB119" s="109"/>
+      <c r="BC119" s="109"/>
+      <c r="BD119" s="109"/>
+      <c r="BE119" s="109"/>
+      <c r="BF119" s="109"/>
+      <c r="BG119" s="109"/>
+      <c r="BH119" s="109"/>
+      <c r="BI119" s="109"/>
+      <c r="BJ119" s="109"/>
+      <c r="BK119" s="109"/>
+      <c r="BL119" s="109"/>
+      <c r="BM119" s="109"/>
+      <c r="BN119" s="109"/>
+      <c r="BO119" s="109"/>
+      <c r="BP119" s="109"/>
+      <c r="BQ119" s="109"/>
+      <c r="BR119" s="109"/>
+      <c r="BS119" s="109"/>
+      <c r="BT119" s="109"/>
+      <c r="BU119" s="109"/>
+      <c r="BV119" s="109"/>
+      <c r="BW119" s="114"/>
       <c r="BX119" s="53"/>
       <c r="BY119" s="4"/>
       <c r="BZ119" s="4"/>
@@ -17922,43 +16498,43 @@
       <c r="AJ120" s="4"/>
       <c r="AK120" s="4"/>
       <c r="AL120" s="53"/>
-      <c r="AM120" s="96"/>
-      <c r="AN120" s="97"/>
-      <c r="AO120" s="96"/>
-      <c r="AP120" s="96"/>
-      <c r="AQ120" s="96"/>
-      <c r="AR120" s="96"/>
-      <c r="AS120" s="96"/>
-      <c r="AT120" s="96"/>
-      <c r="AU120" s="115"/>
-      <c r="AV120" s="96"/>
-      <c r="AW120" s="96"/>
-      <c r="AX120" s="96"/>
-      <c r="AY120" s="96"/>
-      <c r="AZ120" s="115"/>
-      <c r="BA120" s="96"/>
-      <c r="BB120" s="96"/>
-      <c r="BC120" s="96"/>
-      <c r="BD120" s="96"/>
-      <c r="BE120" s="96"/>
-      <c r="BF120" s="96"/>
-      <c r="BG120" s="96"/>
-      <c r="BH120" s="96"/>
-      <c r="BI120" s="96"/>
-      <c r="BJ120" s="96"/>
-      <c r="BK120" s="96"/>
-      <c r="BL120" s="96"/>
-      <c r="BM120" s="96"/>
-      <c r="BN120" s="96"/>
-      <c r="BO120" s="96"/>
-      <c r="BP120" s="96"/>
-      <c r="BQ120" s="96"/>
-      <c r="BR120" s="96"/>
-      <c r="BS120" s="96"/>
-      <c r="BT120" s="96"/>
-      <c r="BU120" s="96"/>
-      <c r="BV120" s="96"/>
-      <c r="BW120" s="97"/>
+      <c r="AM120" s="101"/>
+      <c r="AN120" s="102"/>
+      <c r="AO120" s="101"/>
+      <c r="AP120" s="101"/>
+      <c r="AQ120" s="101"/>
+      <c r="AR120" s="101"/>
+      <c r="AS120" s="101"/>
+      <c r="AT120" s="101"/>
+      <c r="AU120" s="120"/>
+      <c r="AV120" s="101"/>
+      <c r="AW120" s="101"/>
+      <c r="AX120" s="101"/>
+      <c r="AY120" s="101"/>
+      <c r="AZ120" s="120"/>
+      <c r="BA120" s="101"/>
+      <c r="BB120" s="101"/>
+      <c r="BC120" s="101"/>
+      <c r="BD120" s="101"/>
+      <c r="BE120" s="101"/>
+      <c r="BF120" s="101"/>
+      <c r="BG120" s="101"/>
+      <c r="BH120" s="101"/>
+      <c r="BI120" s="101"/>
+      <c r="BJ120" s="101"/>
+      <c r="BK120" s="101"/>
+      <c r="BL120" s="101"/>
+      <c r="BM120" s="101"/>
+      <c r="BN120" s="101"/>
+      <c r="BO120" s="101"/>
+      <c r="BP120" s="101"/>
+      <c r="BQ120" s="101"/>
+      <c r="BR120" s="101"/>
+      <c r="BS120" s="101"/>
+      <c r="BT120" s="101"/>
+      <c r="BU120" s="101"/>
+      <c r="BV120" s="101"/>
+      <c r="BW120" s="102"/>
       <c r="BX120" s="53"/>
       <c r="BY120" s="4"/>
       <c r="BZ120" s="4"/>
@@ -18002,10 +16578,10 @@
       <c r="AJ121" s="4"/>
       <c r="AK121" s="4"/>
       <c r="AL121" s="53"/>
-      <c r="AM121" s="110" t="s">
+      <c r="AM121" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN121" s="111"/>
+      <c r="AN121" s="116"/>
       <c r="AO121" s="59" t="s">
         <v>89</v>
       </c>
@@ -18170,8 +16746,8 @@
       <c r="AJ123" s="4"/>
       <c r="AK123" s="4"/>
       <c r="AL123" s="53"/>
-      <c r="AM123" s="123"/>
-      <c r="AN123" s="104"/>
+      <c r="AM123" s="128"/>
+      <c r="AN123" s="109"/>
       <c r="AO123" s="64"/>
       <c r="AP123" s="33"/>
       <c r="AQ123" s="33"/>
@@ -18410,8 +16986,8 @@
       <c r="AJ126" s="4"/>
       <c r="AK126" s="4"/>
       <c r="AL126" s="53"/>
-      <c r="AM126" s="143"/>
-      <c r="AN126" s="104"/>
+      <c r="AM126" s="148"/>
+      <c r="AN126" s="109"/>
       <c r="AO126" s="66"/>
       <c r="AP126" s="33"/>
       <c r="AQ126" s="33"/>
@@ -21732,190 +20308,190 @@
       <c r="BZ167" s="4"/>
     </row>
     <row r="168" spans="1:78" ht="17.25">
-      <c r="A168" s="131" t="s">
+      <c r="A168" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="113"/>
-      <c r="C168" s="113"/>
-      <c r="D168" s="113"/>
-      <c r="E168" s="122"/>
-      <c r="F168" s="124" t="s">
+      <c r="B168" s="118"/>
+      <c r="C168" s="118"/>
+      <c r="D168" s="118"/>
+      <c r="E168" s="127"/>
+      <c r="F168" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G168" s="113"/>
-      <c r="H168" s="113"/>
-      <c r="I168" s="113"/>
-      <c r="J168" s="113"/>
-      <c r="K168" s="113"/>
-      <c r="L168" s="113"/>
-      <c r="M168" s="113"/>
-      <c r="N168" s="113"/>
-      <c r="O168" s="113"/>
-      <c r="P168" s="113"/>
-      <c r="Q168" s="113"/>
-      <c r="R168" s="113"/>
-      <c r="S168" s="113"/>
-      <c r="T168" s="113"/>
-      <c r="U168" s="113"/>
-      <c r="V168" s="113"/>
-      <c r="W168" s="113"/>
-      <c r="X168" s="113"/>
-      <c r="Y168" s="113"/>
-      <c r="Z168" s="113"/>
-      <c r="AA168" s="113"/>
-      <c r="AB168" s="113"/>
-      <c r="AC168" s="113"/>
-      <c r="AD168" s="113"/>
-      <c r="AE168" s="113"/>
-      <c r="AF168" s="113"/>
-      <c r="AG168" s="113"/>
-      <c r="AH168" s="113"/>
-      <c r="AI168" s="113"/>
-      <c r="AJ168" s="113"/>
-      <c r="AK168" s="113"/>
-      <c r="AL168" s="113"/>
-      <c r="AM168" s="113"/>
-      <c r="AN168" s="113"/>
-      <c r="AO168" s="113"/>
-      <c r="AP168" s="113"/>
-      <c r="AQ168" s="113"/>
-      <c r="AR168" s="113"/>
-      <c r="AS168" s="113"/>
-      <c r="AT168" s="113"/>
-      <c r="AU168" s="113"/>
-      <c r="AV168" s="114"/>
-      <c r="AW168" s="112" t="s">
+      <c r="G168" s="118"/>
+      <c r="H168" s="118"/>
+      <c r="I168" s="118"/>
+      <c r="J168" s="118"/>
+      <c r="K168" s="118"/>
+      <c r="L168" s="118"/>
+      <c r="M168" s="118"/>
+      <c r="N168" s="118"/>
+      <c r="O168" s="118"/>
+      <c r="P168" s="118"/>
+      <c r="Q168" s="118"/>
+      <c r="R168" s="118"/>
+      <c r="S168" s="118"/>
+      <c r="T168" s="118"/>
+      <c r="U168" s="118"/>
+      <c r="V168" s="118"/>
+      <c r="W168" s="118"/>
+      <c r="X168" s="118"/>
+      <c r="Y168" s="118"/>
+      <c r="Z168" s="118"/>
+      <c r="AA168" s="118"/>
+      <c r="AB168" s="118"/>
+      <c r="AC168" s="118"/>
+      <c r="AD168" s="118"/>
+      <c r="AE168" s="118"/>
+      <c r="AF168" s="118"/>
+      <c r="AG168" s="118"/>
+      <c r="AH168" s="118"/>
+      <c r="AI168" s="118"/>
+      <c r="AJ168" s="118"/>
+      <c r="AK168" s="118"/>
+      <c r="AL168" s="118"/>
+      <c r="AM168" s="118"/>
+      <c r="AN168" s="118"/>
+      <c r="AO168" s="118"/>
+      <c r="AP168" s="118"/>
+      <c r="AQ168" s="118"/>
+      <c r="AR168" s="118"/>
+      <c r="AS168" s="118"/>
+      <c r="AT168" s="118"/>
+      <c r="AU168" s="118"/>
+      <c r="AV168" s="119"/>
+      <c r="AW168" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX168" s="113"/>
-      <c r="AY168" s="113"/>
-      <c r="AZ168" s="113"/>
-      <c r="BA168" s="114"/>
-      <c r="BB168" s="88" t="s">
+      <c r="AX168" s="118"/>
+      <c r="AY168" s="118"/>
+      <c r="AZ168" s="118"/>
+      <c r="BA168" s="119"/>
+      <c r="BB168" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC168" s="89"/>
-      <c r="BD168" s="89"/>
-      <c r="BE168" s="89"/>
-      <c r="BF168" s="89"/>
-      <c r="BG168" s="89"/>
-      <c r="BH168" s="89"/>
-      <c r="BI168" s="89"/>
-      <c r="BJ168" s="90"/>
-      <c r="BK168" s="112" t="s">
+      <c r="BC168" s="94"/>
+      <c r="BD168" s="94"/>
+      <c r="BE168" s="94"/>
+      <c r="BF168" s="94"/>
+      <c r="BG168" s="94"/>
+      <c r="BH168" s="94"/>
+      <c r="BI168" s="94"/>
+      <c r="BJ168" s="95"/>
+      <c r="BK168" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL168" s="113"/>
-      <c r="BM168" s="113"/>
-      <c r="BN168" s="113"/>
-      <c r="BO168" s="114"/>
-      <c r="BP168" s="121" t="s">
+      <c r="BL168" s="118"/>
+      <c r="BM168" s="118"/>
+      <c r="BN168" s="118"/>
+      <c r="BO168" s="119"/>
+      <c r="BP168" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ168" s="113"/>
-      <c r="BR168" s="113"/>
-      <c r="BS168" s="113"/>
-      <c r="BT168" s="113"/>
-      <c r="BU168" s="113"/>
-      <c r="BV168" s="113"/>
-      <c r="BW168" s="113"/>
-      <c r="BX168" s="122"/>
+      <c r="BQ168" s="118"/>
+      <c r="BR168" s="118"/>
+      <c r="BS168" s="118"/>
+      <c r="BT168" s="118"/>
+      <c r="BU168" s="118"/>
+      <c r="BV168" s="118"/>
+      <c r="BW168" s="118"/>
+      <c r="BX168" s="127"/>
       <c r="BY168" s="52"/>
       <c r="BZ168" s="52"/>
     </row>
     <row r="169" spans="1:78" ht="18">
-      <c r="A169" s="132" t="s">
+      <c r="A169" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="99"/>
-      <c r="C169" s="99"/>
-      <c r="D169" s="99"/>
-      <c r="E169" s="133"/>
-      <c r="F169" s="102" t="s">
+      <c r="B169" s="104"/>
+      <c r="C169" s="104"/>
+      <c r="D169" s="104"/>
+      <c r="E169" s="138"/>
+      <c r="F169" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G169" s="99"/>
-      <c r="H169" s="99"/>
-      <c r="I169" s="99"/>
-      <c r="J169" s="99"/>
-      <c r="K169" s="99"/>
-      <c r="L169" s="99"/>
-      <c r="M169" s="99"/>
-      <c r="N169" s="99"/>
-      <c r="O169" s="99"/>
-      <c r="P169" s="99"/>
-      <c r="Q169" s="99"/>
-      <c r="R169" s="99"/>
-      <c r="S169" s="99"/>
-      <c r="T169" s="99"/>
-      <c r="U169" s="99"/>
-      <c r="V169" s="99"/>
-      <c r="W169" s="99"/>
-      <c r="X169" s="99"/>
-      <c r="Y169" s="101"/>
-      <c r="Z169" s="100" t="s">
+      <c r="G169" s="104"/>
+      <c r="H169" s="104"/>
+      <c r="I169" s="104"/>
+      <c r="J169" s="104"/>
+      <c r="K169" s="104"/>
+      <c r="L169" s="104"/>
+      <c r="M169" s="104"/>
+      <c r="N169" s="104"/>
+      <c r="O169" s="104"/>
+      <c r="P169" s="104"/>
+      <c r="Q169" s="104"/>
+      <c r="R169" s="104"/>
+      <c r="S169" s="104"/>
+      <c r="T169" s="104"/>
+      <c r="U169" s="104"/>
+      <c r="V169" s="104"/>
+      <c r="W169" s="104"/>
+      <c r="X169" s="104"/>
+      <c r="Y169" s="106"/>
+      <c r="Z169" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA169" s="99"/>
-      <c r="AB169" s="99"/>
-      <c r="AC169" s="99"/>
-      <c r="AD169" s="101"/>
-      <c r="AE169" s="102" t="s">
+      <c r="AA169" s="104"/>
+      <c r="AB169" s="104"/>
+      <c r="AC169" s="104"/>
+      <c r="AD169" s="106"/>
+      <c r="AE169" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="AF169" s="99"/>
-      <c r="AG169" s="99"/>
-      <c r="AH169" s="99"/>
-      <c r="AI169" s="99"/>
-      <c r="AJ169" s="99"/>
-      <c r="AK169" s="99"/>
-      <c r="AL169" s="99"/>
-      <c r="AM169" s="99"/>
-      <c r="AN169" s="99"/>
-      <c r="AO169" s="99"/>
-      <c r="AP169" s="99"/>
-      <c r="AQ169" s="99"/>
-      <c r="AR169" s="99"/>
-      <c r="AS169" s="99"/>
-      <c r="AT169" s="99"/>
-      <c r="AU169" s="99"/>
-      <c r="AV169" s="101"/>
-      <c r="AW169" s="100" t="s">
+      <c r="AF169" s="104"/>
+      <c r="AG169" s="104"/>
+      <c r="AH169" s="104"/>
+      <c r="AI169" s="104"/>
+      <c r="AJ169" s="104"/>
+      <c r="AK169" s="104"/>
+      <c r="AL169" s="104"/>
+      <c r="AM169" s="104"/>
+      <c r="AN169" s="104"/>
+      <c r="AO169" s="104"/>
+      <c r="AP169" s="104"/>
+      <c r="AQ169" s="104"/>
+      <c r="AR169" s="104"/>
+      <c r="AS169" s="104"/>
+      <c r="AT169" s="104"/>
+      <c r="AU169" s="104"/>
+      <c r="AV169" s="106"/>
+      <c r="AW169" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX169" s="99"/>
-      <c r="AY169" s="99"/>
-      <c r="AZ169" s="99"/>
-      <c r="BA169" s="101"/>
-      <c r="BB169" s="98" t="s">
+      <c r="AX169" s="104"/>
+      <c r="AY169" s="104"/>
+      <c r="AZ169" s="104"/>
+      <c r="BA169" s="106"/>
+      <c r="BB169" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC169" s="99"/>
-      <c r="BD169" s="99"/>
-      <c r="BE169" s="99"/>
-      <c r="BF169" s="99"/>
-      <c r="BG169" s="99"/>
-      <c r="BH169" s="99"/>
-      <c r="BI169" s="99"/>
-      <c r="BJ169" s="99"/>
-      <c r="BK169" s="100" t="s">
+      <c r="BC169" s="104"/>
+      <c r="BD169" s="104"/>
+      <c r="BE169" s="104"/>
+      <c r="BF169" s="104"/>
+      <c r="BG169" s="104"/>
+      <c r="BH169" s="104"/>
+      <c r="BI169" s="104"/>
+      <c r="BJ169" s="104"/>
+      <c r="BK169" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="BL169" s="99"/>
-      <c r="BM169" s="99"/>
-      <c r="BN169" s="99"/>
-      <c r="BO169" s="101"/>
-      <c r="BP169" s="121" t="s">
+      <c r="BL169" s="104"/>
+      <c r="BM169" s="104"/>
+      <c r="BN169" s="104"/>
+      <c r="BO169" s="106"/>
+      <c r="BP169" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ169" s="113"/>
-      <c r="BR169" s="113"/>
-      <c r="BS169" s="113"/>
-      <c r="BT169" s="113"/>
-      <c r="BU169" s="113"/>
-      <c r="BV169" s="113"/>
-      <c r="BW169" s="113"/>
-      <c r="BX169" s="122"/>
+      <c r="BQ169" s="118"/>
+      <c r="BR169" s="118"/>
+      <c r="BS169" s="118"/>
+      <c r="BT169" s="118"/>
+      <c r="BU169" s="118"/>
+      <c r="BV169" s="118"/>
+      <c r="BW169" s="118"/>
+      <c r="BX169" s="127"/>
       <c r="BY169" s="52"/>
       <c r="BZ169" s="52"/>
     </row>
@@ -22119,51 +20695,51 @@
       <c r="AJ172" s="4"/>
       <c r="AK172" s="4"/>
       <c r="AL172" s="53"/>
-      <c r="AM172" s="108" t="s">
+      <c r="AM172" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN172" s="109"/>
-      <c r="AO172" s="108" t="s">
+      <c r="AN172" s="114"/>
+      <c r="AO172" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP172" s="104"/>
-      <c r="AQ172" s="104"/>
-      <c r="AR172" s="104"/>
-      <c r="AS172" s="104"/>
-      <c r="AT172" s="104"/>
-      <c r="AU172" s="111"/>
-      <c r="AV172" s="108" t="s">
+      <c r="AP172" s="109"/>
+      <c r="AQ172" s="109"/>
+      <c r="AR172" s="109"/>
+      <c r="AS172" s="109"/>
+      <c r="AT172" s="109"/>
+      <c r="AU172" s="116"/>
+      <c r="AV172" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW172" s="104"/>
-      <c r="AX172" s="104"/>
-      <c r="AY172" s="104"/>
-      <c r="AZ172" s="111"/>
-      <c r="BA172" s="108" t="s">
+      <c r="AW172" s="109"/>
+      <c r="AX172" s="109"/>
+      <c r="AY172" s="109"/>
+      <c r="AZ172" s="116"/>
+      <c r="BA172" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB172" s="104"/>
-      <c r="BC172" s="104"/>
-      <c r="BD172" s="104"/>
-      <c r="BE172" s="104"/>
-      <c r="BF172" s="104"/>
-      <c r="BG172" s="104"/>
-      <c r="BH172" s="104"/>
-      <c r="BI172" s="104"/>
-      <c r="BJ172" s="104"/>
-      <c r="BK172" s="104"/>
-      <c r="BL172" s="104"/>
-      <c r="BM172" s="104"/>
-      <c r="BN172" s="104"/>
-      <c r="BO172" s="104"/>
-      <c r="BP172" s="104"/>
-      <c r="BQ172" s="104"/>
-      <c r="BR172" s="104"/>
-      <c r="BS172" s="104"/>
-      <c r="BT172" s="104"/>
-      <c r="BU172" s="104"/>
-      <c r="BV172" s="104"/>
-      <c r="BW172" s="109"/>
+      <c r="BB172" s="109"/>
+      <c r="BC172" s="109"/>
+      <c r="BD172" s="109"/>
+      <c r="BE172" s="109"/>
+      <c r="BF172" s="109"/>
+      <c r="BG172" s="109"/>
+      <c r="BH172" s="109"/>
+      <c r="BI172" s="109"/>
+      <c r="BJ172" s="109"/>
+      <c r="BK172" s="109"/>
+      <c r="BL172" s="109"/>
+      <c r="BM172" s="109"/>
+      <c r="BN172" s="109"/>
+      <c r="BO172" s="109"/>
+      <c r="BP172" s="109"/>
+      <c r="BQ172" s="109"/>
+      <c r="BR172" s="109"/>
+      <c r="BS172" s="109"/>
+      <c r="BT172" s="109"/>
+      <c r="BU172" s="109"/>
+      <c r="BV172" s="109"/>
+      <c r="BW172" s="114"/>
       <c r="BX172" s="4"/>
       <c r="BY172" s="4"/>
       <c r="BZ172" s="4"/>
@@ -22207,43 +20783,43 @@
       <c r="AJ173" s="4"/>
       <c r="AK173" s="4"/>
       <c r="AL173" s="53"/>
-      <c r="AM173" s="96"/>
-      <c r="AN173" s="97"/>
-      <c r="AO173" s="96"/>
-      <c r="AP173" s="96"/>
-      <c r="AQ173" s="96"/>
-      <c r="AR173" s="96"/>
-      <c r="AS173" s="96"/>
-      <c r="AT173" s="96"/>
-      <c r="AU173" s="115"/>
-      <c r="AV173" s="96"/>
-      <c r="AW173" s="96"/>
-      <c r="AX173" s="96"/>
-      <c r="AY173" s="96"/>
-      <c r="AZ173" s="115"/>
-      <c r="BA173" s="96"/>
-      <c r="BB173" s="96"/>
-      <c r="BC173" s="96"/>
-      <c r="BD173" s="96"/>
-      <c r="BE173" s="96"/>
-      <c r="BF173" s="96"/>
-      <c r="BG173" s="96"/>
-      <c r="BH173" s="96"/>
-      <c r="BI173" s="96"/>
-      <c r="BJ173" s="96"/>
-      <c r="BK173" s="96"/>
-      <c r="BL173" s="96"/>
-      <c r="BM173" s="96"/>
-      <c r="BN173" s="96"/>
-      <c r="BO173" s="96"/>
-      <c r="BP173" s="96"/>
-      <c r="BQ173" s="96"/>
-      <c r="BR173" s="96"/>
-      <c r="BS173" s="96"/>
-      <c r="BT173" s="96"/>
-      <c r="BU173" s="96"/>
-      <c r="BV173" s="96"/>
-      <c r="BW173" s="97"/>
+      <c r="AM173" s="101"/>
+      <c r="AN173" s="102"/>
+      <c r="AO173" s="101"/>
+      <c r="AP173" s="101"/>
+      <c r="AQ173" s="101"/>
+      <c r="AR173" s="101"/>
+      <c r="AS173" s="101"/>
+      <c r="AT173" s="101"/>
+      <c r="AU173" s="120"/>
+      <c r="AV173" s="101"/>
+      <c r="AW173" s="101"/>
+      <c r="AX173" s="101"/>
+      <c r="AY173" s="101"/>
+      <c r="AZ173" s="120"/>
+      <c r="BA173" s="101"/>
+      <c r="BB173" s="101"/>
+      <c r="BC173" s="101"/>
+      <c r="BD173" s="101"/>
+      <c r="BE173" s="101"/>
+      <c r="BF173" s="101"/>
+      <c r="BG173" s="101"/>
+      <c r="BH173" s="101"/>
+      <c r="BI173" s="101"/>
+      <c r="BJ173" s="101"/>
+      <c r="BK173" s="101"/>
+      <c r="BL173" s="101"/>
+      <c r="BM173" s="101"/>
+      <c r="BN173" s="101"/>
+      <c r="BO173" s="101"/>
+      <c r="BP173" s="101"/>
+      <c r="BQ173" s="101"/>
+      <c r="BR173" s="101"/>
+      <c r="BS173" s="101"/>
+      <c r="BT173" s="101"/>
+      <c r="BU173" s="101"/>
+      <c r="BV173" s="101"/>
+      <c r="BW173" s="102"/>
       <c r="BX173" s="4"/>
       <c r="BY173" s="4"/>
       <c r="BZ173" s="4"/>
@@ -22287,10 +20863,10 @@
       <c r="AJ174" s="4"/>
       <c r="AK174" s="4"/>
       <c r="AL174" s="53"/>
-      <c r="AM174" s="110" t="s">
+      <c r="AM174" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN174" s="111"/>
+      <c r="AN174" s="116"/>
       <c r="AO174" s="59" t="s">
         <v>89</v>
       </c>
@@ -22457,8 +21033,8 @@
       <c r="AJ176" s="4"/>
       <c r="AK176" s="4"/>
       <c r="AL176" s="53"/>
-      <c r="AM176" s="123"/>
-      <c r="AN176" s="104"/>
+      <c r="AM176" s="128"/>
+      <c r="AN176" s="109"/>
       <c r="AO176" s="64"/>
       <c r="AP176" s="33"/>
       <c r="AQ176" s="33"/>
@@ -22697,8 +21273,8 @@
       <c r="AJ179" s="4"/>
       <c r="AK179" s="4"/>
       <c r="AL179" s="53"/>
-      <c r="AM179" s="143"/>
-      <c r="AN179" s="104"/>
+      <c r="AM179" s="148"/>
+      <c r="AN179" s="109"/>
       <c r="AO179" s="66"/>
       <c r="AP179" s="33"/>
       <c r="AQ179" s="33"/>
@@ -26019,190 +24595,190 @@
       <c r="BZ220" s="4"/>
     </row>
     <row r="221" spans="1:78" ht="17.25">
-      <c r="A221" s="131" t="s">
+      <c r="A221" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B221" s="113"/>
-      <c r="C221" s="113"/>
-      <c r="D221" s="113"/>
-      <c r="E221" s="122"/>
-      <c r="F221" s="124" t="s">
+      <c r="B221" s="118"/>
+      <c r="C221" s="118"/>
+      <c r="D221" s="118"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G221" s="113"/>
-      <c r="H221" s="113"/>
-      <c r="I221" s="113"/>
-      <c r="J221" s="113"/>
-      <c r="K221" s="113"/>
-      <c r="L221" s="113"/>
-      <c r="M221" s="113"/>
-      <c r="N221" s="113"/>
-      <c r="O221" s="113"/>
-      <c r="P221" s="113"/>
-      <c r="Q221" s="113"/>
-      <c r="R221" s="113"/>
-      <c r="S221" s="113"/>
-      <c r="T221" s="113"/>
-      <c r="U221" s="113"/>
-      <c r="V221" s="113"/>
-      <c r="W221" s="113"/>
-      <c r="X221" s="113"/>
-      <c r="Y221" s="113"/>
-      <c r="Z221" s="113"/>
-      <c r="AA221" s="113"/>
-      <c r="AB221" s="113"/>
-      <c r="AC221" s="113"/>
-      <c r="AD221" s="113"/>
-      <c r="AE221" s="113"/>
-      <c r="AF221" s="113"/>
-      <c r="AG221" s="113"/>
-      <c r="AH221" s="113"/>
-      <c r="AI221" s="113"/>
-      <c r="AJ221" s="113"/>
-      <c r="AK221" s="113"/>
-      <c r="AL221" s="113"/>
-      <c r="AM221" s="113"/>
-      <c r="AN221" s="113"/>
-      <c r="AO221" s="113"/>
-      <c r="AP221" s="113"/>
-      <c r="AQ221" s="113"/>
-      <c r="AR221" s="113"/>
-      <c r="AS221" s="113"/>
-      <c r="AT221" s="113"/>
-      <c r="AU221" s="113"/>
-      <c r="AV221" s="114"/>
-      <c r="AW221" s="112" t="s">
+      <c r="G221" s="118"/>
+      <c r="H221" s="118"/>
+      <c r="I221" s="118"/>
+      <c r="J221" s="118"/>
+      <c r="K221" s="118"/>
+      <c r="L221" s="118"/>
+      <c r="M221" s="118"/>
+      <c r="N221" s="118"/>
+      <c r="O221" s="118"/>
+      <c r="P221" s="118"/>
+      <c r="Q221" s="118"/>
+      <c r="R221" s="118"/>
+      <c r="S221" s="118"/>
+      <c r="T221" s="118"/>
+      <c r="U221" s="118"/>
+      <c r="V221" s="118"/>
+      <c r="W221" s="118"/>
+      <c r="X221" s="118"/>
+      <c r="Y221" s="118"/>
+      <c r="Z221" s="118"/>
+      <c r="AA221" s="118"/>
+      <c r="AB221" s="118"/>
+      <c r="AC221" s="118"/>
+      <c r="AD221" s="118"/>
+      <c r="AE221" s="118"/>
+      <c r="AF221" s="118"/>
+      <c r="AG221" s="118"/>
+      <c r="AH221" s="118"/>
+      <c r="AI221" s="118"/>
+      <c r="AJ221" s="118"/>
+      <c r="AK221" s="118"/>
+      <c r="AL221" s="118"/>
+      <c r="AM221" s="118"/>
+      <c r="AN221" s="118"/>
+      <c r="AO221" s="118"/>
+      <c r="AP221" s="118"/>
+      <c r="AQ221" s="118"/>
+      <c r="AR221" s="118"/>
+      <c r="AS221" s="118"/>
+      <c r="AT221" s="118"/>
+      <c r="AU221" s="118"/>
+      <c r="AV221" s="119"/>
+      <c r="AW221" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX221" s="113"/>
-      <c r="AY221" s="113"/>
-      <c r="AZ221" s="113"/>
-      <c r="BA221" s="114"/>
-      <c r="BB221" s="88" t="s">
+      <c r="AX221" s="118"/>
+      <c r="AY221" s="118"/>
+      <c r="AZ221" s="118"/>
+      <c r="BA221" s="119"/>
+      <c r="BB221" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC221" s="89"/>
-      <c r="BD221" s="89"/>
-      <c r="BE221" s="89"/>
-      <c r="BF221" s="89"/>
-      <c r="BG221" s="89"/>
-      <c r="BH221" s="89"/>
-      <c r="BI221" s="89"/>
-      <c r="BJ221" s="90"/>
-      <c r="BK221" s="112" t="s">
+      <c r="BC221" s="94"/>
+      <c r="BD221" s="94"/>
+      <c r="BE221" s="94"/>
+      <c r="BF221" s="94"/>
+      <c r="BG221" s="94"/>
+      <c r="BH221" s="94"/>
+      <c r="BI221" s="94"/>
+      <c r="BJ221" s="95"/>
+      <c r="BK221" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL221" s="113"/>
-      <c r="BM221" s="113"/>
-      <c r="BN221" s="113"/>
-      <c r="BO221" s="114"/>
-      <c r="BP221" s="121" t="s">
+      <c r="BL221" s="118"/>
+      <c r="BM221" s="118"/>
+      <c r="BN221" s="118"/>
+      <c r="BO221" s="119"/>
+      <c r="BP221" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ221" s="113"/>
-      <c r="BR221" s="113"/>
-      <c r="BS221" s="113"/>
-      <c r="BT221" s="113"/>
-      <c r="BU221" s="113"/>
-      <c r="BV221" s="113"/>
-      <c r="BW221" s="113"/>
-      <c r="BX221" s="122"/>
+      <c r="BQ221" s="118"/>
+      <c r="BR221" s="118"/>
+      <c r="BS221" s="118"/>
+      <c r="BT221" s="118"/>
+      <c r="BU221" s="118"/>
+      <c r="BV221" s="118"/>
+      <c r="BW221" s="118"/>
+      <c r="BX221" s="127"/>
       <c r="BY221" s="52"/>
       <c r="BZ221" s="52"/>
     </row>
     <row r="222" spans="1:78" ht="18">
-      <c r="A222" s="132" t="s">
+      <c r="A222" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B222" s="99"/>
-      <c r="C222" s="99"/>
-      <c r="D222" s="99"/>
-      <c r="E222" s="133"/>
-      <c r="F222" s="102" t="s">
+      <c r="B222" s="104"/>
+      <c r="C222" s="104"/>
+      <c r="D222" s="104"/>
+      <c r="E222" s="138"/>
+      <c r="F222" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G222" s="99"/>
-      <c r="H222" s="99"/>
-      <c r="I222" s="99"/>
-      <c r="J222" s="99"/>
-      <c r="K222" s="99"/>
-      <c r="L222" s="99"/>
-      <c r="M222" s="99"/>
-      <c r="N222" s="99"/>
-      <c r="O222" s="99"/>
-      <c r="P222" s="99"/>
-      <c r="Q222" s="99"/>
-      <c r="R222" s="99"/>
-      <c r="S222" s="99"/>
-      <c r="T222" s="99"/>
-      <c r="U222" s="99"/>
-      <c r="V222" s="99"/>
-      <c r="W222" s="99"/>
-      <c r="X222" s="99"/>
-      <c r="Y222" s="101"/>
-      <c r="Z222" s="100" t="s">
+      <c r="G222" s="104"/>
+      <c r="H222" s="104"/>
+      <c r="I222" s="104"/>
+      <c r="J222" s="104"/>
+      <c r="K222" s="104"/>
+      <c r="L222" s="104"/>
+      <c r="M222" s="104"/>
+      <c r="N222" s="104"/>
+      <c r="O222" s="104"/>
+      <c r="P222" s="104"/>
+      <c r="Q222" s="104"/>
+      <c r="R222" s="104"/>
+      <c r="S222" s="104"/>
+      <c r="T222" s="104"/>
+      <c r="U222" s="104"/>
+      <c r="V222" s="104"/>
+      <c r="W222" s="104"/>
+      <c r="X222" s="104"/>
+      <c r="Y222" s="106"/>
+      <c r="Z222" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA222" s="99"/>
-      <c r="AB222" s="99"/>
-      <c r="AC222" s="99"/>
-      <c r="AD222" s="101"/>
-      <c r="AE222" s="102" t="s">
+      <c r="AA222" s="104"/>
+      <c r="AB222" s="104"/>
+      <c r="AC222" s="104"/>
+      <c r="AD222" s="106"/>
+      <c r="AE222" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="AF222" s="99"/>
-      <c r="AG222" s="99"/>
-      <c r="AH222" s="99"/>
-      <c r="AI222" s="99"/>
-      <c r="AJ222" s="99"/>
-      <c r="AK222" s="99"/>
-      <c r="AL222" s="99"/>
-      <c r="AM222" s="99"/>
-      <c r="AN222" s="99"/>
-      <c r="AO222" s="99"/>
-      <c r="AP222" s="99"/>
-      <c r="AQ222" s="99"/>
-      <c r="AR222" s="99"/>
-      <c r="AS222" s="99"/>
-      <c r="AT222" s="99"/>
-      <c r="AU222" s="99"/>
-      <c r="AV222" s="101"/>
-      <c r="AW222" s="100" t="s">
+      <c r="AF222" s="104"/>
+      <c r="AG222" s="104"/>
+      <c r="AH222" s="104"/>
+      <c r="AI222" s="104"/>
+      <c r="AJ222" s="104"/>
+      <c r="AK222" s="104"/>
+      <c r="AL222" s="104"/>
+      <c r="AM222" s="104"/>
+      <c r="AN222" s="104"/>
+      <c r="AO222" s="104"/>
+      <c r="AP222" s="104"/>
+      <c r="AQ222" s="104"/>
+      <c r="AR222" s="104"/>
+      <c r="AS222" s="104"/>
+      <c r="AT222" s="104"/>
+      <c r="AU222" s="104"/>
+      <c r="AV222" s="106"/>
+      <c r="AW222" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX222" s="99"/>
-      <c r="AY222" s="99"/>
-      <c r="AZ222" s="99"/>
-      <c r="BA222" s="101"/>
-      <c r="BB222" s="98" t="s">
+      <c r="AX222" s="104"/>
+      <c r="AY222" s="104"/>
+      <c r="AZ222" s="104"/>
+      <c r="BA222" s="106"/>
+      <c r="BB222" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC222" s="99"/>
-      <c r="BD222" s="99"/>
-      <c r="BE222" s="99"/>
-      <c r="BF222" s="99"/>
-      <c r="BG222" s="99"/>
-      <c r="BH222" s="99"/>
-      <c r="BI222" s="99"/>
-      <c r="BJ222" s="99"/>
-      <c r="BK222" s="100" t="s">
+      <c r="BC222" s="104"/>
+      <c r="BD222" s="104"/>
+      <c r="BE222" s="104"/>
+      <c r="BF222" s="104"/>
+      <c r="BG222" s="104"/>
+      <c r="BH222" s="104"/>
+      <c r="BI222" s="104"/>
+      <c r="BJ222" s="104"/>
+      <c r="BK222" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="BL222" s="99"/>
-      <c r="BM222" s="99"/>
-      <c r="BN222" s="99"/>
-      <c r="BO222" s="101"/>
-      <c r="BP222" s="121" t="s">
+      <c r="BL222" s="104"/>
+      <c r="BM222" s="104"/>
+      <c r="BN222" s="104"/>
+      <c r="BO222" s="106"/>
+      <c r="BP222" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ222" s="113"/>
-      <c r="BR222" s="113"/>
-      <c r="BS222" s="113"/>
-      <c r="BT222" s="113"/>
-      <c r="BU222" s="113"/>
-      <c r="BV222" s="113"/>
-      <c r="BW222" s="113"/>
-      <c r="BX222" s="122"/>
+      <c r="BQ222" s="118"/>
+      <c r="BR222" s="118"/>
+      <c r="BS222" s="118"/>
+      <c r="BT222" s="118"/>
+      <c r="BU222" s="118"/>
+      <c r="BV222" s="118"/>
+      <c r="BW222" s="118"/>
+      <c r="BX222" s="127"/>
       <c r="BY222" s="52"/>
       <c r="BZ222" s="52"/>
     </row>
@@ -26405,51 +24981,51 @@
       <c r="AJ225" s="4"/>
       <c r="AK225" s="4"/>
       <c r="AL225" s="53"/>
-      <c r="AM225" s="108" t="s">
+      <c r="AM225" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN225" s="109"/>
-      <c r="AO225" s="108" t="s">
+      <c r="AN225" s="114"/>
+      <c r="AO225" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP225" s="104"/>
-      <c r="AQ225" s="104"/>
-      <c r="AR225" s="104"/>
-      <c r="AS225" s="104"/>
-      <c r="AT225" s="104"/>
-      <c r="AU225" s="111"/>
-      <c r="AV225" s="108" t="s">
+      <c r="AP225" s="109"/>
+      <c r="AQ225" s="109"/>
+      <c r="AR225" s="109"/>
+      <c r="AS225" s="109"/>
+      <c r="AT225" s="109"/>
+      <c r="AU225" s="116"/>
+      <c r="AV225" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW225" s="104"/>
-      <c r="AX225" s="104"/>
-      <c r="AY225" s="104"/>
-      <c r="AZ225" s="111"/>
-      <c r="BA225" s="108" t="s">
+      <c r="AW225" s="109"/>
+      <c r="AX225" s="109"/>
+      <c r="AY225" s="109"/>
+      <c r="AZ225" s="116"/>
+      <c r="BA225" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB225" s="104"/>
-      <c r="BC225" s="104"/>
-      <c r="BD225" s="104"/>
-      <c r="BE225" s="104"/>
-      <c r="BF225" s="104"/>
-      <c r="BG225" s="104"/>
-      <c r="BH225" s="104"/>
-      <c r="BI225" s="104"/>
-      <c r="BJ225" s="104"/>
-      <c r="BK225" s="104"/>
-      <c r="BL225" s="104"/>
-      <c r="BM225" s="104"/>
-      <c r="BN225" s="104"/>
-      <c r="BO225" s="104"/>
-      <c r="BP225" s="104"/>
-      <c r="BQ225" s="104"/>
-      <c r="BR225" s="104"/>
-      <c r="BS225" s="104"/>
-      <c r="BT225" s="104"/>
-      <c r="BU225" s="104"/>
-      <c r="BV225" s="104"/>
-      <c r="BW225" s="109"/>
+      <c r="BB225" s="109"/>
+      <c r="BC225" s="109"/>
+      <c r="BD225" s="109"/>
+      <c r="BE225" s="109"/>
+      <c r="BF225" s="109"/>
+      <c r="BG225" s="109"/>
+      <c r="BH225" s="109"/>
+      <c r="BI225" s="109"/>
+      <c r="BJ225" s="109"/>
+      <c r="BK225" s="109"/>
+      <c r="BL225" s="109"/>
+      <c r="BM225" s="109"/>
+      <c r="BN225" s="109"/>
+      <c r="BO225" s="109"/>
+      <c r="BP225" s="109"/>
+      <c r="BQ225" s="109"/>
+      <c r="BR225" s="109"/>
+      <c r="BS225" s="109"/>
+      <c r="BT225" s="109"/>
+      <c r="BU225" s="109"/>
+      <c r="BV225" s="109"/>
+      <c r="BW225" s="114"/>
       <c r="BX225" s="4"/>
       <c r="BY225" s="4"/>
       <c r="BZ225" s="4"/>
@@ -26493,43 +25069,43 @@
       <c r="AJ226" s="4"/>
       <c r="AK226" s="4"/>
       <c r="AL226" s="53"/>
-      <c r="AM226" s="96"/>
-      <c r="AN226" s="97"/>
-      <c r="AO226" s="96"/>
-      <c r="AP226" s="96"/>
-      <c r="AQ226" s="96"/>
-      <c r="AR226" s="96"/>
-      <c r="AS226" s="96"/>
-      <c r="AT226" s="96"/>
-      <c r="AU226" s="115"/>
-      <c r="AV226" s="96"/>
-      <c r="AW226" s="96"/>
-      <c r="AX226" s="96"/>
-      <c r="AY226" s="96"/>
-      <c r="AZ226" s="115"/>
-      <c r="BA226" s="96"/>
-      <c r="BB226" s="96"/>
-      <c r="BC226" s="96"/>
-      <c r="BD226" s="96"/>
-      <c r="BE226" s="96"/>
-      <c r="BF226" s="96"/>
-      <c r="BG226" s="96"/>
-      <c r="BH226" s="96"/>
-      <c r="BI226" s="96"/>
-      <c r="BJ226" s="96"/>
-      <c r="BK226" s="96"/>
-      <c r="BL226" s="96"/>
-      <c r="BM226" s="96"/>
-      <c r="BN226" s="96"/>
-      <c r="BO226" s="96"/>
-      <c r="BP226" s="96"/>
-      <c r="BQ226" s="96"/>
-      <c r="BR226" s="96"/>
-      <c r="BS226" s="96"/>
-      <c r="BT226" s="96"/>
-      <c r="BU226" s="96"/>
-      <c r="BV226" s="96"/>
-      <c r="BW226" s="97"/>
+      <c r="AM226" s="101"/>
+      <c r="AN226" s="102"/>
+      <c r="AO226" s="101"/>
+      <c r="AP226" s="101"/>
+      <c r="AQ226" s="101"/>
+      <c r="AR226" s="101"/>
+      <c r="AS226" s="101"/>
+      <c r="AT226" s="101"/>
+      <c r="AU226" s="120"/>
+      <c r="AV226" s="101"/>
+      <c r="AW226" s="101"/>
+      <c r="AX226" s="101"/>
+      <c r="AY226" s="101"/>
+      <c r="AZ226" s="120"/>
+      <c r="BA226" s="101"/>
+      <c r="BB226" s="101"/>
+      <c r="BC226" s="101"/>
+      <c r="BD226" s="101"/>
+      <c r="BE226" s="101"/>
+      <c r="BF226" s="101"/>
+      <c r="BG226" s="101"/>
+      <c r="BH226" s="101"/>
+      <c r="BI226" s="101"/>
+      <c r="BJ226" s="101"/>
+      <c r="BK226" s="101"/>
+      <c r="BL226" s="101"/>
+      <c r="BM226" s="101"/>
+      <c r="BN226" s="101"/>
+      <c r="BO226" s="101"/>
+      <c r="BP226" s="101"/>
+      <c r="BQ226" s="101"/>
+      <c r="BR226" s="101"/>
+      <c r="BS226" s="101"/>
+      <c r="BT226" s="101"/>
+      <c r="BU226" s="101"/>
+      <c r="BV226" s="101"/>
+      <c r="BW226" s="102"/>
       <c r="BX226" s="4"/>
       <c r="BY226" s="4"/>
       <c r="BZ226" s="4"/>
@@ -26573,10 +25149,10 @@
       <c r="AJ227" s="4"/>
       <c r="AK227" s="4"/>
       <c r="AL227" s="53"/>
-      <c r="AM227" s="110" t="s">
+      <c r="AM227" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN227" s="111"/>
+      <c r="AN227" s="116"/>
       <c r="AO227" s="59" t="s">
         <v>89</v>
       </c>
@@ -26983,8 +25559,8 @@
       <c r="AJ232" s="4"/>
       <c r="AK232" s="4"/>
       <c r="AL232" s="53"/>
-      <c r="AM232" s="143"/>
-      <c r="AN232" s="104"/>
+      <c r="AM232" s="148"/>
+      <c r="AN232" s="109"/>
       <c r="AO232" s="66"/>
       <c r="AP232" s="33"/>
       <c r="AQ232" s="33"/>
@@ -30305,190 +28881,190 @@
       <c r="BZ273" s="4"/>
     </row>
     <row r="274" spans="1:78" ht="17.25">
-      <c r="A274" s="131" t="s">
+      <c r="A274" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B274" s="113"/>
-      <c r="C274" s="113"/>
-      <c r="D274" s="113"/>
-      <c r="E274" s="122"/>
-      <c r="F274" s="124" t="s">
+      <c r="B274" s="118"/>
+      <c r="C274" s="118"/>
+      <c r="D274" s="118"/>
+      <c r="E274" s="127"/>
+      <c r="F274" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G274" s="113"/>
-      <c r="H274" s="113"/>
-      <c r="I274" s="113"/>
-      <c r="J274" s="113"/>
-      <c r="K274" s="113"/>
-      <c r="L274" s="113"/>
-      <c r="M274" s="113"/>
-      <c r="N274" s="113"/>
-      <c r="O274" s="113"/>
-      <c r="P274" s="113"/>
-      <c r="Q274" s="113"/>
-      <c r="R274" s="113"/>
-      <c r="S274" s="113"/>
-      <c r="T274" s="113"/>
-      <c r="U274" s="113"/>
-      <c r="V274" s="113"/>
-      <c r="W274" s="113"/>
-      <c r="X274" s="113"/>
-      <c r="Y274" s="113"/>
-      <c r="Z274" s="113"/>
-      <c r="AA274" s="113"/>
-      <c r="AB274" s="113"/>
-      <c r="AC274" s="113"/>
-      <c r="AD274" s="113"/>
-      <c r="AE274" s="113"/>
-      <c r="AF274" s="113"/>
-      <c r="AG274" s="113"/>
-      <c r="AH274" s="113"/>
-      <c r="AI274" s="113"/>
-      <c r="AJ274" s="113"/>
-      <c r="AK274" s="113"/>
-      <c r="AL274" s="113"/>
-      <c r="AM274" s="113"/>
-      <c r="AN274" s="113"/>
-      <c r="AO274" s="113"/>
-      <c r="AP274" s="113"/>
-      <c r="AQ274" s="113"/>
-      <c r="AR274" s="113"/>
-      <c r="AS274" s="113"/>
-      <c r="AT274" s="113"/>
-      <c r="AU274" s="113"/>
-      <c r="AV274" s="114"/>
-      <c r="AW274" s="112" t="s">
+      <c r="G274" s="118"/>
+      <c r="H274" s="118"/>
+      <c r="I274" s="118"/>
+      <c r="J274" s="118"/>
+      <c r="K274" s="118"/>
+      <c r="L274" s="118"/>
+      <c r="M274" s="118"/>
+      <c r="N274" s="118"/>
+      <c r="O274" s="118"/>
+      <c r="P274" s="118"/>
+      <c r="Q274" s="118"/>
+      <c r="R274" s="118"/>
+      <c r="S274" s="118"/>
+      <c r="T274" s="118"/>
+      <c r="U274" s="118"/>
+      <c r="V274" s="118"/>
+      <c r="W274" s="118"/>
+      <c r="X274" s="118"/>
+      <c r="Y274" s="118"/>
+      <c r="Z274" s="118"/>
+      <c r="AA274" s="118"/>
+      <c r="AB274" s="118"/>
+      <c r="AC274" s="118"/>
+      <c r="AD274" s="118"/>
+      <c r="AE274" s="118"/>
+      <c r="AF274" s="118"/>
+      <c r="AG274" s="118"/>
+      <c r="AH274" s="118"/>
+      <c r="AI274" s="118"/>
+      <c r="AJ274" s="118"/>
+      <c r="AK274" s="118"/>
+      <c r="AL274" s="118"/>
+      <c r="AM274" s="118"/>
+      <c r="AN274" s="118"/>
+      <c r="AO274" s="118"/>
+      <c r="AP274" s="118"/>
+      <c r="AQ274" s="118"/>
+      <c r="AR274" s="118"/>
+      <c r="AS274" s="118"/>
+      <c r="AT274" s="118"/>
+      <c r="AU274" s="118"/>
+      <c r="AV274" s="119"/>
+      <c r="AW274" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX274" s="113"/>
-      <c r="AY274" s="113"/>
-      <c r="AZ274" s="113"/>
-      <c r="BA274" s="114"/>
-      <c r="BB274" s="88" t="s">
+      <c r="AX274" s="118"/>
+      <c r="AY274" s="118"/>
+      <c r="AZ274" s="118"/>
+      <c r="BA274" s="119"/>
+      <c r="BB274" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC274" s="89"/>
-      <c r="BD274" s="89"/>
-      <c r="BE274" s="89"/>
-      <c r="BF274" s="89"/>
-      <c r="BG274" s="89"/>
-      <c r="BH274" s="89"/>
-      <c r="BI274" s="89"/>
-      <c r="BJ274" s="90"/>
-      <c r="BK274" s="112" t="s">
+      <c r="BC274" s="94"/>
+      <c r="BD274" s="94"/>
+      <c r="BE274" s="94"/>
+      <c r="BF274" s="94"/>
+      <c r="BG274" s="94"/>
+      <c r="BH274" s="94"/>
+      <c r="BI274" s="94"/>
+      <c r="BJ274" s="95"/>
+      <c r="BK274" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL274" s="113"/>
-      <c r="BM274" s="113"/>
-      <c r="BN274" s="113"/>
-      <c r="BO274" s="114"/>
-      <c r="BP274" s="121" t="s">
+      <c r="BL274" s="118"/>
+      <c r="BM274" s="118"/>
+      <c r="BN274" s="118"/>
+      <c r="BO274" s="119"/>
+      <c r="BP274" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ274" s="113"/>
-      <c r="BR274" s="113"/>
-      <c r="BS274" s="113"/>
-      <c r="BT274" s="113"/>
-      <c r="BU274" s="113"/>
-      <c r="BV274" s="113"/>
-      <c r="BW274" s="113"/>
-      <c r="BX274" s="122"/>
+      <c r="BQ274" s="118"/>
+      <c r="BR274" s="118"/>
+      <c r="BS274" s="118"/>
+      <c r="BT274" s="118"/>
+      <c r="BU274" s="118"/>
+      <c r="BV274" s="118"/>
+      <c r="BW274" s="118"/>
+      <c r="BX274" s="127"/>
       <c r="BY274" s="52"/>
       <c r="BZ274" s="52"/>
     </row>
     <row r="275" spans="1:78" ht="18">
-      <c r="A275" s="132" t="s">
+      <c r="A275" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B275" s="99"/>
-      <c r="C275" s="99"/>
-      <c r="D275" s="99"/>
-      <c r="E275" s="133"/>
-      <c r="F275" s="102" t="s">
+      <c r="B275" s="104"/>
+      <c r="C275" s="104"/>
+      <c r="D275" s="104"/>
+      <c r="E275" s="138"/>
+      <c r="F275" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G275" s="99"/>
-      <c r="H275" s="99"/>
-      <c r="I275" s="99"/>
-      <c r="J275" s="99"/>
-      <c r="K275" s="99"/>
-      <c r="L275" s="99"/>
-      <c r="M275" s="99"/>
-      <c r="N275" s="99"/>
-      <c r="O275" s="99"/>
-      <c r="P275" s="99"/>
-      <c r="Q275" s="99"/>
-      <c r="R275" s="99"/>
-      <c r="S275" s="99"/>
-      <c r="T275" s="99"/>
-      <c r="U275" s="99"/>
-      <c r="V275" s="99"/>
-      <c r="W275" s="99"/>
-      <c r="X275" s="99"/>
-      <c r="Y275" s="101"/>
-      <c r="Z275" s="100" t="s">
+      <c r="G275" s="104"/>
+      <c r="H275" s="104"/>
+      <c r="I275" s="104"/>
+      <c r="J275" s="104"/>
+      <c r="K275" s="104"/>
+      <c r="L275" s="104"/>
+      <c r="M275" s="104"/>
+      <c r="N275" s="104"/>
+      <c r="O275" s="104"/>
+      <c r="P275" s="104"/>
+      <c r="Q275" s="104"/>
+      <c r="R275" s="104"/>
+      <c r="S275" s="104"/>
+      <c r="T275" s="104"/>
+      <c r="U275" s="104"/>
+      <c r="V275" s="104"/>
+      <c r="W275" s="104"/>
+      <c r="X275" s="104"/>
+      <c r="Y275" s="106"/>
+      <c r="Z275" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA275" s="99"/>
-      <c r="AB275" s="99"/>
-      <c r="AC275" s="99"/>
-      <c r="AD275" s="101"/>
-      <c r="AE275" s="102" t="s">
+      <c r="AA275" s="104"/>
+      <c r="AB275" s="104"/>
+      <c r="AC275" s="104"/>
+      <c r="AD275" s="106"/>
+      <c r="AE275" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="AF275" s="99"/>
-      <c r="AG275" s="99"/>
-      <c r="AH275" s="99"/>
-      <c r="AI275" s="99"/>
-      <c r="AJ275" s="99"/>
-      <c r="AK275" s="99"/>
-      <c r="AL275" s="99"/>
-      <c r="AM275" s="99"/>
-      <c r="AN275" s="99"/>
-      <c r="AO275" s="99"/>
-      <c r="AP275" s="99"/>
-      <c r="AQ275" s="99"/>
-      <c r="AR275" s="99"/>
-      <c r="AS275" s="99"/>
-      <c r="AT275" s="99"/>
-      <c r="AU275" s="99"/>
-      <c r="AV275" s="101"/>
-      <c r="AW275" s="100" t="s">
+      <c r="AF275" s="104"/>
+      <c r="AG275" s="104"/>
+      <c r="AH275" s="104"/>
+      <c r="AI275" s="104"/>
+      <c r="AJ275" s="104"/>
+      <c r="AK275" s="104"/>
+      <c r="AL275" s="104"/>
+      <c r="AM275" s="104"/>
+      <c r="AN275" s="104"/>
+      <c r="AO275" s="104"/>
+      <c r="AP275" s="104"/>
+      <c r="AQ275" s="104"/>
+      <c r="AR275" s="104"/>
+      <c r="AS275" s="104"/>
+      <c r="AT275" s="104"/>
+      <c r="AU275" s="104"/>
+      <c r="AV275" s="106"/>
+      <c r="AW275" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX275" s="99"/>
-      <c r="AY275" s="99"/>
-      <c r="AZ275" s="99"/>
-      <c r="BA275" s="101"/>
-      <c r="BB275" s="98" t="s">
+      <c r="AX275" s="104"/>
+      <c r="AY275" s="104"/>
+      <c r="AZ275" s="104"/>
+      <c r="BA275" s="106"/>
+      <c r="BB275" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC275" s="99"/>
-      <c r="BD275" s="99"/>
-      <c r="BE275" s="99"/>
-      <c r="BF275" s="99"/>
-      <c r="BG275" s="99"/>
-      <c r="BH275" s="99"/>
-      <c r="BI275" s="99"/>
-      <c r="BJ275" s="99"/>
-      <c r="BK275" s="134" t="s">
+      <c r="BC275" s="104"/>
+      <c r="BD275" s="104"/>
+      <c r="BE275" s="104"/>
+      <c r="BF275" s="104"/>
+      <c r="BG275" s="104"/>
+      <c r="BH275" s="104"/>
+      <c r="BI275" s="104"/>
+      <c r="BJ275" s="104"/>
+      <c r="BK275" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="BL275" s="89"/>
-      <c r="BM275" s="89"/>
-      <c r="BN275" s="89"/>
-      <c r="BO275" s="90"/>
-      <c r="BP275" s="121" t="s">
+      <c r="BL275" s="94"/>
+      <c r="BM275" s="94"/>
+      <c r="BN275" s="94"/>
+      <c r="BO275" s="95"/>
+      <c r="BP275" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ275" s="113"/>
-      <c r="BR275" s="113"/>
-      <c r="BS275" s="113"/>
-      <c r="BT275" s="113"/>
-      <c r="BU275" s="113"/>
-      <c r="BV275" s="113"/>
-      <c r="BW275" s="113"/>
-      <c r="BX275" s="122"/>
+      <c r="BQ275" s="118"/>
+      <c r="BR275" s="118"/>
+      <c r="BS275" s="118"/>
+      <c r="BT275" s="118"/>
+      <c r="BU275" s="118"/>
+      <c r="BV275" s="118"/>
+      <c r="BW275" s="118"/>
+      <c r="BX275" s="127"/>
       <c r="BY275" s="52"/>
       <c r="BZ275" s="52"/>
     </row>
@@ -30691,51 +29267,51 @@
       <c r="AJ278" s="4"/>
       <c r="AK278" s="4"/>
       <c r="AL278" s="53"/>
-      <c r="AM278" s="108" t="s">
+      <c r="AM278" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN278" s="109"/>
-      <c r="AO278" s="108" t="s">
+      <c r="AN278" s="114"/>
+      <c r="AO278" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP278" s="104"/>
-      <c r="AQ278" s="104"/>
-      <c r="AR278" s="104"/>
-      <c r="AS278" s="104"/>
-      <c r="AT278" s="104"/>
-      <c r="AU278" s="111"/>
-      <c r="AV278" s="108" t="s">
+      <c r="AP278" s="109"/>
+      <c r="AQ278" s="109"/>
+      <c r="AR278" s="109"/>
+      <c r="AS278" s="109"/>
+      <c r="AT278" s="109"/>
+      <c r="AU278" s="116"/>
+      <c r="AV278" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW278" s="104"/>
-      <c r="AX278" s="104"/>
-      <c r="AY278" s="104"/>
-      <c r="AZ278" s="111"/>
-      <c r="BA278" s="108" t="s">
+      <c r="AW278" s="109"/>
+      <c r="AX278" s="109"/>
+      <c r="AY278" s="109"/>
+      <c r="AZ278" s="116"/>
+      <c r="BA278" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB278" s="104"/>
-      <c r="BC278" s="104"/>
-      <c r="BD278" s="104"/>
-      <c r="BE278" s="104"/>
-      <c r="BF278" s="104"/>
-      <c r="BG278" s="104"/>
-      <c r="BH278" s="104"/>
-      <c r="BI278" s="104"/>
-      <c r="BJ278" s="104"/>
-      <c r="BK278" s="104"/>
-      <c r="BL278" s="104"/>
-      <c r="BM278" s="104"/>
-      <c r="BN278" s="104"/>
-      <c r="BO278" s="104"/>
-      <c r="BP278" s="104"/>
-      <c r="BQ278" s="104"/>
-      <c r="BR278" s="104"/>
-      <c r="BS278" s="104"/>
-      <c r="BT278" s="104"/>
-      <c r="BU278" s="104"/>
-      <c r="BV278" s="104"/>
-      <c r="BW278" s="109"/>
+      <c r="BB278" s="109"/>
+      <c r="BC278" s="109"/>
+      <c r="BD278" s="109"/>
+      <c r="BE278" s="109"/>
+      <c r="BF278" s="109"/>
+      <c r="BG278" s="109"/>
+      <c r="BH278" s="109"/>
+      <c r="BI278" s="109"/>
+      <c r="BJ278" s="109"/>
+      <c r="BK278" s="109"/>
+      <c r="BL278" s="109"/>
+      <c r="BM278" s="109"/>
+      <c r="BN278" s="109"/>
+      <c r="BO278" s="109"/>
+      <c r="BP278" s="109"/>
+      <c r="BQ278" s="109"/>
+      <c r="BR278" s="109"/>
+      <c r="BS278" s="109"/>
+      <c r="BT278" s="109"/>
+      <c r="BU278" s="109"/>
+      <c r="BV278" s="109"/>
+      <c r="BW278" s="114"/>
       <c r="BX278" s="4"/>
       <c r="BY278" s="4"/>
       <c r="BZ278" s="4"/>
@@ -30779,43 +29355,43 @@
       <c r="AJ279" s="4"/>
       <c r="AK279" s="4"/>
       <c r="AL279" s="53"/>
-      <c r="AM279" s="96"/>
-      <c r="AN279" s="97"/>
-      <c r="AO279" s="96"/>
-      <c r="AP279" s="96"/>
-      <c r="AQ279" s="96"/>
-      <c r="AR279" s="96"/>
-      <c r="AS279" s="96"/>
-      <c r="AT279" s="96"/>
-      <c r="AU279" s="115"/>
-      <c r="AV279" s="96"/>
-      <c r="AW279" s="96"/>
-      <c r="AX279" s="96"/>
-      <c r="AY279" s="96"/>
-      <c r="AZ279" s="115"/>
-      <c r="BA279" s="96"/>
-      <c r="BB279" s="96"/>
-      <c r="BC279" s="96"/>
-      <c r="BD279" s="96"/>
-      <c r="BE279" s="96"/>
-      <c r="BF279" s="96"/>
-      <c r="BG279" s="96"/>
-      <c r="BH279" s="96"/>
-      <c r="BI279" s="96"/>
-      <c r="BJ279" s="96"/>
-      <c r="BK279" s="96"/>
-      <c r="BL279" s="96"/>
-      <c r="BM279" s="96"/>
-      <c r="BN279" s="96"/>
-      <c r="BO279" s="96"/>
-      <c r="BP279" s="96"/>
-      <c r="BQ279" s="96"/>
-      <c r="BR279" s="96"/>
-      <c r="BS279" s="96"/>
-      <c r="BT279" s="96"/>
-      <c r="BU279" s="96"/>
-      <c r="BV279" s="96"/>
-      <c r="BW279" s="97"/>
+      <c r="AM279" s="101"/>
+      <c r="AN279" s="102"/>
+      <c r="AO279" s="101"/>
+      <c r="AP279" s="101"/>
+      <c r="AQ279" s="101"/>
+      <c r="AR279" s="101"/>
+      <c r="AS279" s="101"/>
+      <c r="AT279" s="101"/>
+      <c r="AU279" s="120"/>
+      <c r="AV279" s="101"/>
+      <c r="AW279" s="101"/>
+      <c r="AX279" s="101"/>
+      <c r="AY279" s="101"/>
+      <c r="AZ279" s="120"/>
+      <c r="BA279" s="101"/>
+      <c r="BB279" s="101"/>
+      <c r="BC279" s="101"/>
+      <c r="BD279" s="101"/>
+      <c r="BE279" s="101"/>
+      <c r="BF279" s="101"/>
+      <c r="BG279" s="101"/>
+      <c r="BH279" s="101"/>
+      <c r="BI279" s="101"/>
+      <c r="BJ279" s="101"/>
+      <c r="BK279" s="101"/>
+      <c r="BL279" s="101"/>
+      <c r="BM279" s="101"/>
+      <c r="BN279" s="101"/>
+      <c r="BO279" s="101"/>
+      <c r="BP279" s="101"/>
+      <c r="BQ279" s="101"/>
+      <c r="BR279" s="101"/>
+      <c r="BS279" s="101"/>
+      <c r="BT279" s="101"/>
+      <c r="BU279" s="101"/>
+      <c r="BV279" s="101"/>
+      <c r="BW279" s="102"/>
       <c r="BX279" s="4"/>
       <c r="BY279" s="4"/>
       <c r="BZ279" s="4"/>
@@ -30859,10 +29435,10 @@
       <c r="AJ280" s="4"/>
       <c r="AK280" s="4"/>
       <c r="AL280" s="53"/>
-      <c r="AM280" s="110" t="s">
+      <c r="AM280" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN280" s="111"/>
+      <c r="AN280" s="116"/>
       <c r="AO280" s="59" t="s">
         <v>89</v>
       </c>
@@ -31271,8 +29847,8 @@
       <c r="AJ285" s="4"/>
       <c r="AK285" s="4"/>
       <c r="AL285" s="53"/>
-      <c r="AM285" s="143"/>
-      <c r="AN285" s="104"/>
+      <c r="AM285" s="148"/>
+      <c r="AN285" s="109"/>
       <c r="AO285" s="66"/>
       <c r="AP285" s="33"/>
       <c r="AQ285" s="33"/>
@@ -34762,20 +33338,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F3FB5C-FB7A-46EE-8AFC-21C34205B5D9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="19"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F124B-2465-494E-9A2A-1EEDEAFD5ADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B5177D-B3ED-4B70-8160-EF79A5E1C6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,15 +550,15 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>購入画面にラッピングの有無を指定できるラジオボタンを作成する</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>radio</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>2019/12/09 JTM16 対応　佐藤　保明</t>
+    <t>購入画面にラッピングの有無を指定できるプルダウンを作成する</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2019/12/10 JTM16 対応　佐藤　保明</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -2876,15 +2876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>37568</xdr:colOff>
+      <xdr:colOff>123293</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>52431</xdr:colOff>
+      <xdr:colOff>138156</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2899,7 +2899,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37568" y="1000125"/>
+          <a:off x="123293" y="981075"/>
           <a:ext cx="6815713" cy="4210050"/>
           <a:chOff x="2505364" y="1225142"/>
           <a:chExt cx="13100713" cy="5591621"/>
@@ -5179,81 +5179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73A7687-10A6-4094-8390-641EEB9BA31C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16259175" y="6372225"/>
-          <a:ext cx="762000" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS PGothic"/>
-            <a:ea typeface="MS PGothic"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5268,8 +5203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3867150" y="2038350"/>
-          <a:ext cx="1171575" cy="276225"/>
+          <a:off x="3867150" y="1981201"/>
+          <a:ext cx="1362075" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5310,8 +5245,155 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ラッピング有◯  無◯</a:t>
+            <a:t>　ラッピング</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>112394</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF89BB66-861C-4E18-AC9D-BAFB54EA6CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16640175" y="6591300"/>
+          <a:ext cx="45719" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73A7687-10A6-4094-8390-641EEB9BA31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4695826" y="2028825"/>
+          <a:ext cx="285750" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>有▼</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS PGothic"/>
+            <a:ea typeface="MS PGothic"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5645,8 +5727,8 @@
   </sheetPr>
   <dimension ref="A1:CR326"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="AX49" sqref="AX49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="CA32" sqref="CA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -10895,14 +10977,14 @@
       <c r="AT53" s="78"/>
       <c r="AU53" s="37"/>
       <c r="AV53" s="78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AW53" s="78"/>
       <c r="AX53" s="21"/>
       <c r="AY53" s="21"/>
       <c r="AZ53" s="37"/>
       <c r="BA53" s="88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BB53" s="21"/>
       <c r="BC53" s="21"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B5177D-B3ED-4B70-8160-EF79A5E1C6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA46037-51DB-4DBC-968F-F8CEE2E3EDE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>2019/12/09</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>radio</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -559,6 +555,10 @@
   </si>
   <si>
     <t>2019/12/10 JTM16 対応　佐藤　保明</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2019/12/10</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1308,55 +1308,91 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,56 +1405,20 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5727,8 +5727,8 @@
   </sheetPr>
   <dimension ref="A1:CR326"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="CA32" sqref="CA32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5738,94 +5738,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="131" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="130" t="s">
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="93" t="s">
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="106"/>
+      <c r="BB1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="94"/>
-      <c r="BD1" s="94"/>
-      <c r="BE1" s="94"/>
-      <c r="BF1" s="94"/>
-      <c r="BG1" s="94"/>
-      <c r="BH1" s="94"/>
-      <c r="BI1" s="94"/>
-      <c r="BJ1" s="95"/>
-      <c r="BK1" s="130" t="s">
+      <c r="BC1" s="102"/>
+      <c r="BD1" s="102"/>
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="102"/>
+      <c r="BI1" s="102"/>
+      <c r="BJ1" s="103"/>
+      <c r="BK1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="118"/>
-      <c r="BM1" s="118"/>
-      <c r="BN1" s="118"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="126" t="s">
+      <c r="BL1" s="105"/>
+      <c r="BM1" s="105"/>
+      <c r="BN1" s="105"/>
+      <c r="BO1" s="106"/>
+      <c r="BP1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="118"/>
-      <c r="BR1" s="118"/>
-      <c r="BS1" s="118"/>
-      <c r="BT1" s="118"/>
-      <c r="BU1" s="118"/>
-      <c r="BV1" s="118"/>
-      <c r="BW1" s="118"/>
-      <c r="BX1" s="127"/>
+      <c r="BQ1" s="105"/>
+      <c r="BR1" s="105"/>
+      <c r="BS1" s="105"/>
+      <c r="BT1" s="105"/>
+      <c r="BU1" s="105"/>
+      <c r="BV1" s="105"/>
+      <c r="BW1" s="105"/>
+      <c r="BX1" s="120"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -5848,96 +5848,96 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="132" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="96" t="s">
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="96" t="s">
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="95"/>
-      <c r="BB2" s="93" t="s">
-        <v>113</v>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="101" t="s">
+        <v>116</v>
       </c>
-      <c r="BC2" s="94"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="94"/>
-      <c r="BH2" s="94"/>
-      <c r="BI2" s="94"/>
-      <c r="BJ2" s="95"/>
-      <c r="BK2" s="96" t="s">
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="102"/>
+      <c r="BJ2" s="103"/>
+      <c r="BK2" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="94"/>
-      <c r="BM2" s="94"/>
-      <c r="BN2" s="94"/>
-      <c r="BO2" s="95"/>
-      <c r="BP2" s="126" t="s">
+      <c r="BL2" s="102"/>
+      <c r="BM2" s="102"/>
+      <c r="BN2" s="102"/>
+      <c r="BO2" s="103"/>
+      <c r="BP2" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="BQ2" s="118"/>
-      <c r="BR2" s="118"/>
-      <c r="BS2" s="118"/>
-      <c r="BT2" s="118"/>
-      <c r="BU2" s="118"/>
-      <c r="BV2" s="118"/>
-      <c r="BW2" s="118"/>
-      <c r="BX2" s="127"/>
+      <c r="BQ2" s="105"/>
+      <c r="BR2" s="105"/>
+      <c r="BS2" s="105"/>
+      <c r="BT2" s="105"/>
+      <c r="BU2" s="105"/>
+      <c r="BV2" s="105"/>
+      <c r="BW2" s="105"/>
+      <c r="BX2" s="120"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -6196,51 +6196,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="134" t="s">
+      <c r="AM5" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="121"/>
-      <c r="AO5" s="97" t="s">
+      <c r="AN5" s="138"/>
+      <c r="AO5" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="121"/>
-      <c r="AV5" s="97" t="s">
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="138"/>
+      <c r="AV5" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="121"/>
-      <c r="BA5" s="97" t="s">
+      <c r="AW5" s="145"/>
+      <c r="AX5" s="145"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="138"/>
+      <c r="BA5" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="98"/>
-      <c r="BJ5" s="98"/>
-      <c r="BK5" s="98"/>
-      <c r="BL5" s="98"/>
-      <c r="BM5" s="98"/>
-      <c r="BN5" s="98"/>
-      <c r="BO5" s="98"/>
-      <c r="BP5" s="98"/>
-      <c r="BQ5" s="98"/>
-      <c r="BR5" s="98"/>
-      <c r="BS5" s="98"/>
-      <c r="BT5" s="98"/>
-      <c r="BU5" s="98"/>
-      <c r="BV5" s="98"/>
-      <c r="BW5" s="99"/>
+      <c r="BB5" s="145"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="145"/>
+      <c r="BE5" s="145"/>
+      <c r="BF5" s="145"/>
+      <c r="BG5" s="145"/>
+      <c r="BH5" s="145"/>
+      <c r="BI5" s="145"/>
+      <c r="BJ5" s="145"/>
+      <c r="BK5" s="145"/>
+      <c r="BL5" s="145"/>
+      <c r="BM5" s="145"/>
+      <c r="BN5" s="145"/>
+      <c r="BO5" s="145"/>
+      <c r="BP5" s="145"/>
+      <c r="BQ5" s="145"/>
+      <c r="BR5" s="145"/>
+      <c r="BS5" s="145"/>
+      <c r="BT5" s="145"/>
+      <c r="BU5" s="145"/>
+      <c r="BV5" s="145"/>
+      <c r="BW5" s="146"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -6302,43 +6302,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="101"/>
-      <c r="AQ6" s="101"/>
-      <c r="AR6" s="101"/>
-      <c r="AS6" s="101"/>
-      <c r="AT6" s="101"/>
-      <c r="AU6" s="120"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="101"/>
-      <c r="AX6" s="101"/>
-      <c r="AY6" s="101"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="101"/>
-      <c r="BC6" s="101"/>
-      <c r="BD6" s="101"/>
-      <c r="BE6" s="101"/>
-      <c r="BF6" s="101"/>
-      <c r="BG6" s="101"/>
-      <c r="BH6" s="101"/>
-      <c r="BI6" s="101"/>
-      <c r="BJ6" s="101"/>
-      <c r="BK6" s="101"/>
-      <c r="BL6" s="101"/>
-      <c r="BM6" s="101"/>
-      <c r="BN6" s="101"/>
-      <c r="BO6" s="101"/>
-      <c r="BP6" s="101"/>
-      <c r="BQ6" s="101"/>
-      <c r="BR6" s="101"/>
-      <c r="BS6" s="101"/>
-      <c r="BT6" s="101"/>
-      <c r="BU6" s="101"/>
-      <c r="BV6" s="101"/>
-      <c r="BW6" s="102"/>
+      <c r="AM6" s="139"/>
+      <c r="AN6" s="109"/>
+      <c r="AO6" s="147"/>
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="108"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="108"/>
+      <c r="AT6" s="108"/>
+      <c r="AU6" s="109"/>
+      <c r="AV6" s="147"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="108"/>
+      <c r="AY6" s="108"/>
+      <c r="AZ6" s="109"/>
+      <c r="BA6" s="147"/>
+      <c r="BB6" s="108"/>
+      <c r="BC6" s="108"/>
+      <c r="BD6" s="108"/>
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="108"/>
+      <c r="BG6" s="108"/>
+      <c r="BH6" s="108"/>
+      <c r="BI6" s="108"/>
+      <c r="BJ6" s="108"/>
+      <c r="BK6" s="108"/>
+      <c r="BL6" s="108"/>
+      <c r="BM6" s="108"/>
+      <c r="BN6" s="108"/>
+      <c r="BO6" s="108"/>
+      <c r="BP6" s="108"/>
+      <c r="BQ6" s="108"/>
+      <c r="BR6" s="108"/>
+      <c r="BS6" s="108"/>
+      <c r="BT6" s="108"/>
+      <c r="BU6" s="108"/>
+      <c r="BV6" s="108"/>
+      <c r="BW6" s="116"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -6400,10 +6400,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="115" t="s">
+      <c r="AM7" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="116"/>
+      <c r="AN7" s="94"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -6604,10 +6604,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="115" t="s">
+      <c r="AM9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="116"/>
+      <c r="AN9" s="94"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -6808,10 +6808,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="115" t="s">
+      <c r="AM11" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="116"/>
+      <c r="AN11" s="94"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -6904,9 +6904,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
+      <c r="AD12" s="140"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -7011,10 +7011,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="115" t="s">
+      <c r="AM13" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="116"/>
+      <c r="AN13" s="94"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -7198,9 +7198,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -7307,10 +7307,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="115" t="s">
+      <c r="AM16" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="116"/>
+      <c r="AN16" s="94"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -7511,10 +7511,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="115" t="s">
+      <c r="AM18" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="116"/>
+      <c r="AN18" s="94"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -7705,19 +7705,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="96"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="115" t="s">
+      <c r="AM20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="116"/>
+      <c r="AN20" s="94"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -7903,9 +7903,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="123"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
+      <c r="Z22" s="141"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -7914,10 +7914,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="115" t="s">
+      <c r="AM22" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="116"/>
+      <c r="AN22" s="94"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -8118,10 +8118,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="115" t="s">
+      <c r="AM24" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="116"/>
+      <c r="AN24" s="94"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -8322,10 +8322,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="115" t="s">
+      <c r="AM26" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="116"/>
+      <c r="AN26" s="94"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -8418,9 +8418,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
+      <c r="AD27" s="140"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="96"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -8525,10 +8525,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="115" t="s">
+      <c r="AM28" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="116"/>
+      <c r="AN28" s="94"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -8615,9 +8615,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="123"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
+      <c r="Z29" s="141"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="96"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -8724,10 +8724,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="115" t="s">
+      <c r="AM30" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="116"/>
+      <c r="AN30" s="94"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -8928,10 +8928,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="115" t="s">
+      <c r="AM32" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="116"/>
+      <c r="AN32" s="94"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -9130,10 +9130,10 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="115" t="s">
+      <c r="AM34" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="116"/>
+      <c r="AN34" s="94"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -9208,29 +9208,29 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="109"/>
-      <c r="Y35" s="109"/>
-      <c r="Z35" s="109"/>
-      <c r="AA35" s="109"/>
-      <c r="AB35" s="125"/>
-      <c r="AC35" s="109"/>
-      <c r="AD35" s="109"/>
-      <c r="AE35" s="109"/>
-      <c r="AF35" s="109"/>
-      <c r="AG35" s="109"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="96"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="96"/>
+      <c r="AD35" s="96"/>
+      <c r="AE35" s="96"/>
+      <c r="AF35" s="96"/>
+      <c r="AG35" s="96"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
@@ -9306,38 +9306,38 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="109"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="96"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="109"/>
-      <c r="X36" s="109"/>
-      <c r="Y36" s="109"/>
-      <c r="Z36" s="109"/>
-      <c r="AA36" s="109"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="109"/>
-      <c r="AD36" s="109"/>
-      <c r="AE36" s="109"/>
-      <c r="AF36" s="109"/>
-      <c r="AG36" s="109"/>
+      <c r="W36" s="96"/>
+      <c r="X36" s="96"/>
+      <c r="Y36" s="96"/>
+      <c r="Z36" s="96"/>
+      <c r="AA36" s="96"/>
+      <c r="AB36" s="96"/>
+      <c r="AC36" s="96"/>
+      <c r="AD36" s="96"/>
+      <c r="AE36" s="96"/>
+      <c r="AF36" s="96"/>
+      <c r="AG36" s="96"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="115" t="s">
+      <c r="AM36" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="116"/>
+      <c r="AN36" s="94"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -9493,29 +9493,29 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="109"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="108"/>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="109"/>
-      <c r="AA38" s="109"/>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="109"/>
-      <c r="AD38" s="109"/>
-      <c r="AE38" s="109"/>
-      <c r="AF38" s="109"/>
-      <c r="AG38" s="109"/>
+      <c r="W38" s="148"/>
+      <c r="X38" s="96"/>
+      <c r="Y38" s="96"/>
+      <c r="Z38" s="96"/>
+      <c r="AA38" s="96"/>
+      <c r="AB38" s="143"/>
+      <c r="AC38" s="96"/>
+      <c r="AD38" s="96"/>
+      <c r="AE38" s="96"/>
+      <c r="AF38" s="96"/>
+      <c r="AG38" s="96"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
@@ -9593,38 +9593,38 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="109"/>
-      <c r="X39" s="109"/>
-      <c r="Y39" s="109"/>
-      <c r="Z39" s="109"/>
-      <c r="AA39" s="109"/>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="109"/>
-      <c r="AD39" s="109"/>
-      <c r="AE39" s="109"/>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="109"/>
+      <c r="W39" s="96"/>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="96"/>
+      <c r="Z39" s="96"/>
+      <c r="AA39" s="96"/>
+      <c r="AB39" s="96"/>
+      <c r="AC39" s="96"/>
+      <c r="AD39" s="96"/>
+      <c r="AE39" s="96"/>
+      <c r="AF39" s="96"/>
+      <c r="AG39" s="96"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="115" t="s">
+      <c r="AM39" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="AN39" s="116"/>
+      <c r="AN39" s="94"/>
       <c r="AO39" s="21" t="s">
         <v>67</v>
       </c>
@@ -9937,29 +9937,29 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="111"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="109"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="109"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="109"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="109"/>
-      <c r="Y43" s="109"/>
-      <c r="Z43" s="109"/>
-      <c r="AA43" s="109"/>
-      <c r="AB43" s="125"/>
-      <c r="AC43" s="109"/>
-      <c r="AD43" s="109"/>
-      <c r="AE43" s="109"/>
-      <c r="AF43" s="109"/>
-      <c r="AG43" s="109"/>
+      <c r="W43" s="149"/>
+      <c r="X43" s="96"/>
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="96"/>
+      <c r="AA43" s="96"/>
+      <c r="AB43" s="143"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="96"/>
+      <c r="AE43" s="96"/>
+      <c r="AF43" s="96"/>
+      <c r="AG43" s="96"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -10037,38 +10037,38 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="109"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="109"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="109"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="109"/>
-      <c r="AA44" s="109"/>
-      <c r="AB44" s="109"/>
-      <c r="AC44" s="109"/>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="109"/>
-      <c r="AF44" s="109"/>
-      <c r="AG44" s="109"/>
+      <c r="W44" s="96"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="96"/>
+      <c r="Z44" s="96"/>
+      <c r="AA44" s="96"/>
+      <c r="AB44" s="96"/>
+      <c r="AC44" s="96"/>
+      <c r="AD44" s="96"/>
+      <c r="AE44" s="96"/>
+      <c r="AF44" s="96"/>
+      <c r="AG44" s="96"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="115" t="s">
+      <c r="AM44" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="AN44" s="116"/>
+      <c r="AN44" s="94"/>
       <c r="AO44" s="21" t="s">
         <v>70</v>
       </c>
@@ -10145,29 +10145,29 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="109"/>
-      <c r="O45" s="109"/>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="96"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="112"/>
-      <c r="X45" s="109"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="109"/>
-      <c r="AA45" s="109"/>
-      <c r="AB45" s="109"/>
-      <c r="AC45" s="109"/>
-      <c r="AD45" s="109"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="109"/>
-      <c r="AG45" s="109"/>
+      <c r="W45" s="150"/>
+      <c r="X45" s="96"/>
+      <c r="Y45" s="96"/>
+      <c r="Z45" s="96"/>
+      <c r="AA45" s="96"/>
+      <c r="AB45" s="96"/>
+      <c r="AC45" s="96"/>
+      <c r="AD45" s="96"/>
+      <c r="AE45" s="96"/>
+      <c r="AF45" s="96"/>
+      <c r="AG45" s="96"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
@@ -10243,36 +10243,36 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="109"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="109"/>
-      <c r="X46" s="109"/>
-      <c r="Y46" s="109"/>
-      <c r="Z46" s="109"/>
-      <c r="AA46" s="109"/>
-      <c r="AB46" s="109"/>
-      <c r="AC46" s="109"/>
-      <c r="AD46" s="109"/>
-      <c r="AE46" s="109"/>
-      <c r="AF46" s="109"/>
-      <c r="AG46" s="109"/>
+      <c r="W46" s="96"/>
+      <c r="X46" s="96"/>
+      <c r="Y46" s="96"/>
+      <c r="Z46" s="96"/>
+      <c r="AA46" s="96"/>
+      <c r="AB46" s="96"/>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="96"/>
+      <c r="AE46" s="96"/>
+      <c r="AF46" s="96"/>
+      <c r="AG46" s="96"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="115"/>
-      <c r="AN46" s="116"/>
+      <c r="AM46" s="93"/>
+      <c r="AN46" s="94"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -10467,10 +10467,10 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="115" t="s">
+      <c r="AM48" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="AN48" s="116"/>
+      <c r="AN48" s="94"/>
       <c r="AO48" s="47" t="s">
         <v>105</v>
       </c>
@@ -10963,10 +10963,10 @@
       <c r="AJ53" s="21"/>
       <c r="AK53" s="21"/>
       <c r="AL53" s="21"/>
-      <c r="AM53" s="149" t="s">
+      <c r="AM53" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="AN53" s="150"/>
+      <c r="AN53" s="112"/>
       <c r="AO53" s="78" t="s">
         <v>112</v>
       </c>
@@ -10977,14 +10977,14 @@
       <c r="AT53" s="78"/>
       <c r="AU53" s="37"/>
       <c r="AV53" s="78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW53" s="78"/>
       <c r="AX53" s="21"/>
       <c r="AY53" s="21"/>
       <c r="AZ53" s="37"/>
       <c r="BA53" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BB53" s="21"/>
       <c r="BC53" s="21"/>
@@ -11191,7 +11191,7 @@
       <c r="BJ55" s="21"/>
       <c r="BK55" s="21"/>
       <c r="BL55" s="91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BM55" s="78"/>
       <c r="BN55" s="92"/>
@@ -11750,8 +11750,8 @@
       <c r="AJ61" s="82"/>
       <c r="AK61" s="82"/>
       <c r="AL61" s="82"/>
-      <c r="AM61" s="140"/>
-      <c r="AN61" s="140"/>
+      <c r="AM61" s="125"/>
+      <c r="AN61" s="125"/>
       <c r="AO61" s="82"/>
       <c r="AP61" s="82"/>
       <c r="AQ61" s="82"/>
@@ -11810,190 +11810,190 @@
       <c r="CR61" s="21"/>
     </row>
     <row r="62" spans="1:96" ht="18" thickBot="1">
-      <c r="A62" s="136" t="s">
+      <c r="A62" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="129" t="s">
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="118"/>
-      <c r="H62" s="118"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="118"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="118"/>
-      <c r="M62" s="118"/>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
-      <c r="P62" s="118"/>
-      <c r="Q62" s="118"/>
-      <c r="R62" s="118"/>
-      <c r="S62" s="118"/>
-      <c r="T62" s="118"/>
-      <c r="U62" s="118"/>
-      <c r="V62" s="118"/>
-      <c r="W62" s="118"/>
-      <c r="X62" s="118"/>
-      <c r="Y62" s="118"/>
-      <c r="Z62" s="118"/>
-      <c r="AA62" s="118"/>
-      <c r="AB62" s="118"/>
-      <c r="AC62" s="118"/>
-      <c r="AD62" s="118"/>
-      <c r="AE62" s="118"/>
-      <c r="AF62" s="118"/>
-      <c r="AG62" s="118"/>
-      <c r="AH62" s="118"/>
-      <c r="AI62" s="118"/>
-      <c r="AJ62" s="118"/>
-      <c r="AK62" s="118"/>
-      <c r="AL62" s="118"/>
-      <c r="AM62" s="118"/>
-      <c r="AN62" s="118"/>
-      <c r="AO62" s="118"/>
-      <c r="AP62" s="118"/>
-      <c r="AQ62" s="118"/>
-      <c r="AR62" s="118"/>
-      <c r="AS62" s="118"/>
-      <c r="AT62" s="118"/>
-      <c r="AU62" s="118"/>
-      <c r="AV62" s="119"/>
-      <c r="AW62" s="117" t="s">
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="105"/>
+      <c r="O62" s="105"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="105"/>
+      <c r="R62" s="105"/>
+      <c r="S62" s="105"/>
+      <c r="T62" s="105"/>
+      <c r="U62" s="105"/>
+      <c r="V62" s="105"/>
+      <c r="W62" s="105"/>
+      <c r="X62" s="105"/>
+      <c r="Y62" s="105"/>
+      <c r="Z62" s="105"/>
+      <c r="AA62" s="105"/>
+      <c r="AB62" s="105"/>
+      <c r="AC62" s="105"/>
+      <c r="AD62" s="105"/>
+      <c r="AE62" s="105"/>
+      <c r="AF62" s="105"/>
+      <c r="AG62" s="105"/>
+      <c r="AH62" s="105"/>
+      <c r="AI62" s="105"/>
+      <c r="AJ62" s="105"/>
+      <c r="AK62" s="105"/>
+      <c r="AL62" s="105"/>
+      <c r="AM62" s="105"/>
+      <c r="AN62" s="105"/>
+      <c r="AO62" s="105"/>
+      <c r="AP62" s="105"/>
+      <c r="AQ62" s="105"/>
+      <c r="AR62" s="105"/>
+      <c r="AS62" s="105"/>
+      <c r="AT62" s="105"/>
+      <c r="AU62" s="105"/>
+      <c r="AV62" s="106"/>
+      <c r="AW62" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AX62" s="118"/>
-      <c r="AY62" s="118"/>
-      <c r="AZ62" s="118"/>
-      <c r="BA62" s="119"/>
-      <c r="BB62" s="93" t="s">
+      <c r="AX62" s="105"/>
+      <c r="AY62" s="105"/>
+      <c r="AZ62" s="105"/>
+      <c r="BA62" s="106"/>
+      <c r="BB62" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="BC62" s="94"/>
-      <c r="BD62" s="94"/>
-      <c r="BE62" s="94"/>
-      <c r="BF62" s="94"/>
-      <c r="BG62" s="94"/>
-      <c r="BH62" s="94"/>
-      <c r="BI62" s="94"/>
-      <c r="BJ62" s="95"/>
-      <c r="BK62" s="117" t="s">
+      <c r="BC62" s="102"/>
+      <c r="BD62" s="102"/>
+      <c r="BE62" s="102"/>
+      <c r="BF62" s="102"/>
+      <c r="BG62" s="102"/>
+      <c r="BH62" s="102"/>
+      <c r="BI62" s="102"/>
+      <c r="BJ62" s="103"/>
+      <c r="BK62" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="BL62" s="118"/>
-      <c r="BM62" s="118"/>
-      <c r="BN62" s="118"/>
-      <c r="BO62" s="119"/>
-      <c r="BP62" s="126" t="s">
+      <c r="BL62" s="105"/>
+      <c r="BM62" s="105"/>
+      <c r="BN62" s="105"/>
+      <c r="BO62" s="106"/>
+      <c r="BP62" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ62" s="118"/>
-      <c r="BR62" s="118"/>
-      <c r="BS62" s="118"/>
-      <c r="BT62" s="118"/>
-      <c r="BU62" s="118"/>
-      <c r="BV62" s="118"/>
-      <c r="BW62" s="118"/>
-      <c r="BX62" s="127"/>
+      <c r="BQ62" s="105"/>
+      <c r="BR62" s="105"/>
+      <c r="BS62" s="105"/>
+      <c r="BT62" s="105"/>
+      <c r="BU62" s="105"/>
+      <c r="BV62" s="105"/>
+      <c r="BW62" s="105"/>
+      <c r="BX62" s="120"/>
       <c r="BY62" s="52"/>
       <c r="BZ62" s="52"/>
     </row>
     <row r="63" spans="1:96" ht="18">
-      <c r="A63" s="137" t="s">
+      <c r="A63" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="138"/>
-      <c r="F63" s="107" t="s">
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="104"/>
-      <c r="P63" s="104"/>
-      <c r="Q63" s="104"/>
-      <c r="R63" s="104"/>
-      <c r="S63" s="104"/>
-      <c r="T63" s="104"/>
-      <c r="U63" s="104"/>
-      <c r="V63" s="104"/>
-      <c r="W63" s="104"/>
-      <c r="X63" s="104"/>
-      <c r="Y63" s="106"/>
-      <c r="Z63" s="105" t="s">
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="99"/>
+      <c r="M63" s="99"/>
+      <c r="N63" s="99"/>
+      <c r="O63" s="99"/>
+      <c r="P63" s="99"/>
+      <c r="Q63" s="99"/>
+      <c r="R63" s="99"/>
+      <c r="S63" s="99"/>
+      <c r="T63" s="99"/>
+      <c r="U63" s="99"/>
+      <c r="V63" s="99"/>
+      <c r="W63" s="99"/>
+      <c r="X63" s="99"/>
+      <c r="Y63" s="100"/>
+      <c r="Z63" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AA63" s="104"/>
-      <c r="AB63" s="104"/>
-      <c r="AC63" s="104"/>
-      <c r="AD63" s="106"/>
-      <c r="AE63" s="107" t="s">
+      <c r="AA63" s="99"/>
+      <c r="AB63" s="99"/>
+      <c r="AC63" s="99"/>
+      <c r="AD63" s="100"/>
+      <c r="AE63" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="AF63" s="104"/>
-      <c r="AG63" s="104"/>
-      <c r="AH63" s="104"/>
-      <c r="AI63" s="104"/>
-      <c r="AJ63" s="104"/>
-      <c r="AK63" s="104"/>
-      <c r="AL63" s="104"/>
-      <c r="AM63" s="104"/>
-      <c r="AN63" s="104"/>
-      <c r="AO63" s="104"/>
-      <c r="AP63" s="104"/>
-      <c r="AQ63" s="104"/>
-      <c r="AR63" s="104"/>
-      <c r="AS63" s="104"/>
-      <c r="AT63" s="104"/>
-      <c r="AU63" s="104"/>
-      <c r="AV63" s="106"/>
-      <c r="AW63" s="105" t="s">
+      <c r="AF63" s="99"/>
+      <c r="AG63" s="99"/>
+      <c r="AH63" s="99"/>
+      <c r="AI63" s="99"/>
+      <c r="AJ63" s="99"/>
+      <c r="AK63" s="99"/>
+      <c r="AL63" s="99"/>
+      <c r="AM63" s="99"/>
+      <c r="AN63" s="99"/>
+      <c r="AO63" s="99"/>
+      <c r="AP63" s="99"/>
+      <c r="AQ63" s="99"/>
+      <c r="AR63" s="99"/>
+      <c r="AS63" s="99"/>
+      <c r="AT63" s="99"/>
+      <c r="AU63" s="99"/>
+      <c r="AV63" s="100"/>
+      <c r="AW63" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AX63" s="104"/>
-      <c r="AY63" s="104"/>
-      <c r="AZ63" s="104"/>
-      <c r="BA63" s="106"/>
-      <c r="BB63" s="103" t="s">
+      <c r="AX63" s="99"/>
+      <c r="AY63" s="99"/>
+      <c r="AZ63" s="99"/>
+      <c r="BA63" s="100"/>
+      <c r="BB63" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="BC63" s="104"/>
-      <c r="BD63" s="104"/>
-      <c r="BE63" s="104"/>
-      <c r="BF63" s="104"/>
-      <c r="BG63" s="104"/>
-      <c r="BH63" s="104"/>
-      <c r="BI63" s="104"/>
-      <c r="BJ63" s="104"/>
-      <c r="BK63" s="105" t="s">
+      <c r="BC63" s="99"/>
+      <c r="BD63" s="99"/>
+      <c r="BE63" s="99"/>
+      <c r="BF63" s="99"/>
+      <c r="BG63" s="99"/>
+      <c r="BH63" s="99"/>
+      <c r="BI63" s="99"/>
+      <c r="BJ63" s="99"/>
+      <c r="BK63" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="BL63" s="104"/>
-      <c r="BM63" s="104"/>
-      <c r="BN63" s="104"/>
-      <c r="BO63" s="106"/>
-      <c r="BP63" s="126" t="s">
+      <c r="BL63" s="99"/>
+      <c r="BM63" s="99"/>
+      <c r="BN63" s="99"/>
+      <c r="BO63" s="100"/>
+      <c r="BP63" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ63" s="118"/>
-      <c r="BR63" s="118"/>
-      <c r="BS63" s="118"/>
-      <c r="BT63" s="118"/>
-      <c r="BU63" s="118"/>
-      <c r="BV63" s="118"/>
-      <c r="BW63" s="118"/>
-      <c r="BX63" s="127"/>
+      <c r="BQ63" s="105"/>
+      <c r="BR63" s="105"/>
+      <c r="BS63" s="105"/>
+      <c r="BT63" s="105"/>
+      <c r="BU63" s="105"/>
+      <c r="BV63" s="105"/>
+      <c r="BW63" s="105"/>
+      <c r="BX63" s="120"/>
       <c r="BY63" s="52"/>
       <c r="BZ63" s="52"/>
     </row>
@@ -12198,51 +12198,51 @@
       <c r="AJ66" s="33"/>
       <c r="AK66" s="33"/>
       <c r="AL66" s="53"/>
-      <c r="AM66" s="113" t="s">
+      <c r="AM66" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AN66" s="114"/>
-      <c r="AO66" s="113" t="s">
+      <c r="AN66" s="115"/>
+      <c r="AO66" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AP66" s="109"/>
-      <c r="AQ66" s="109"/>
-      <c r="AR66" s="109"/>
-      <c r="AS66" s="109"/>
-      <c r="AT66" s="109"/>
-      <c r="AU66" s="116"/>
-      <c r="AV66" s="113" t="s">
+      <c r="AP66" s="96"/>
+      <c r="AQ66" s="96"/>
+      <c r="AR66" s="96"/>
+      <c r="AS66" s="96"/>
+      <c r="AT66" s="96"/>
+      <c r="AU66" s="94"/>
+      <c r="AV66" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AW66" s="109"/>
-      <c r="AX66" s="109"/>
-      <c r="AY66" s="109"/>
-      <c r="AZ66" s="116"/>
-      <c r="BA66" s="113" t="s">
+      <c r="AW66" s="96"/>
+      <c r="AX66" s="96"/>
+      <c r="AY66" s="96"/>
+      <c r="AZ66" s="94"/>
+      <c r="BA66" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="BB66" s="109"/>
-      <c r="BC66" s="109"/>
-      <c r="BD66" s="109"/>
-      <c r="BE66" s="109"/>
-      <c r="BF66" s="109"/>
-      <c r="BG66" s="109"/>
-      <c r="BH66" s="109"/>
-      <c r="BI66" s="109"/>
-      <c r="BJ66" s="109"/>
-      <c r="BK66" s="109"/>
-      <c r="BL66" s="109"/>
-      <c r="BM66" s="109"/>
-      <c r="BN66" s="109"/>
-      <c r="BO66" s="109"/>
-      <c r="BP66" s="109"/>
-      <c r="BQ66" s="109"/>
-      <c r="BR66" s="109"/>
-      <c r="BS66" s="109"/>
-      <c r="BT66" s="109"/>
-      <c r="BU66" s="109"/>
-      <c r="BV66" s="109"/>
-      <c r="BW66" s="114"/>
+      <c r="BB66" s="96"/>
+      <c r="BC66" s="96"/>
+      <c r="BD66" s="96"/>
+      <c r="BE66" s="96"/>
+      <c r="BF66" s="96"/>
+      <c r="BG66" s="96"/>
+      <c r="BH66" s="96"/>
+      <c r="BI66" s="96"/>
+      <c r="BJ66" s="96"/>
+      <c r="BK66" s="96"/>
+      <c r="BL66" s="96"/>
+      <c r="BM66" s="96"/>
+      <c r="BN66" s="96"/>
+      <c r="BO66" s="96"/>
+      <c r="BP66" s="96"/>
+      <c r="BQ66" s="96"/>
+      <c r="BR66" s="96"/>
+      <c r="BS66" s="96"/>
+      <c r="BT66" s="96"/>
+      <c r="BU66" s="96"/>
+      <c r="BV66" s="96"/>
+      <c r="BW66" s="115"/>
       <c r="BX66" s="53"/>
       <c r="BY66" s="33"/>
       <c r="BZ66" s="33"/>
@@ -12250,14 +12250,14 @@
     <row r="67" spans="1:78" ht="13.5">
       <c r="A67" s="45"/>
       <c r="B67" s="55"/>
-      <c r="C67" s="141" t="s">
+      <c r="C67" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="142"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="142"/>
-      <c r="G67" s="142"/>
-      <c r="H67" s="142"/>
+      <c r="D67" s="127"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="127"/>
       <c r="I67" s="56"/>
       <c r="J67" s="56"/>
       <c r="K67" s="56"/>
@@ -12288,43 +12288,43 @@
       <c r="AJ67" s="33"/>
       <c r="AK67" s="33"/>
       <c r="AL67" s="53"/>
-      <c r="AM67" s="101"/>
-      <c r="AN67" s="102"/>
-      <c r="AO67" s="101"/>
-      <c r="AP67" s="101"/>
-      <c r="AQ67" s="101"/>
-      <c r="AR67" s="101"/>
-      <c r="AS67" s="101"/>
-      <c r="AT67" s="101"/>
-      <c r="AU67" s="120"/>
-      <c r="AV67" s="101"/>
-      <c r="AW67" s="101"/>
-      <c r="AX67" s="101"/>
-      <c r="AY67" s="101"/>
-      <c r="AZ67" s="120"/>
-      <c r="BA67" s="101"/>
-      <c r="BB67" s="101"/>
-      <c r="BC67" s="101"/>
-      <c r="BD67" s="101"/>
-      <c r="BE67" s="101"/>
-      <c r="BF67" s="101"/>
-      <c r="BG67" s="101"/>
-      <c r="BH67" s="101"/>
-      <c r="BI67" s="101"/>
-      <c r="BJ67" s="101"/>
-      <c r="BK67" s="101"/>
-      <c r="BL67" s="101"/>
-      <c r="BM67" s="101"/>
-      <c r="BN67" s="101"/>
-      <c r="BO67" s="101"/>
-      <c r="BP67" s="101"/>
-      <c r="BQ67" s="101"/>
-      <c r="BR67" s="101"/>
-      <c r="BS67" s="101"/>
-      <c r="BT67" s="101"/>
-      <c r="BU67" s="101"/>
-      <c r="BV67" s="101"/>
-      <c r="BW67" s="102"/>
+      <c r="AM67" s="108"/>
+      <c r="AN67" s="116"/>
+      <c r="AO67" s="108"/>
+      <c r="AP67" s="108"/>
+      <c r="AQ67" s="108"/>
+      <c r="AR67" s="108"/>
+      <c r="AS67" s="108"/>
+      <c r="AT67" s="108"/>
+      <c r="AU67" s="109"/>
+      <c r="AV67" s="108"/>
+      <c r="AW67" s="108"/>
+      <c r="AX67" s="108"/>
+      <c r="AY67" s="108"/>
+      <c r="AZ67" s="109"/>
+      <c r="BA67" s="108"/>
+      <c r="BB67" s="108"/>
+      <c r="BC67" s="108"/>
+      <c r="BD67" s="108"/>
+      <c r="BE67" s="108"/>
+      <c r="BF67" s="108"/>
+      <c r="BG67" s="108"/>
+      <c r="BH67" s="108"/>
+      <c r="BI67" s="108"/>
+      <c r="BJ67" s="108"/>
+      <c r="BK67" s="108"/>
+      <c r="BL67" s="108"/>
+      <c r="BM67" s="108"/>
+      <c r="BN67" s="108"/>
+      <c r="BO67" s="108"/>
+      <c r="BP67" s="108"/>
+      <c r="BQ67" s="108"/>
+      <c r="BR67" s="108"/>
+      <c r="BS67" s="108"/>
+      <c r="BT67" s="108"/>
+      <c r="BU67" s="108"/>
+      <c r="BV67" s="108"/>
+      <c r="BW67" s="116"/>
       <c r="BX67" s="53"/>
       <c r="BY67" s="33"/>
       <c r="BZ67" s="33"/>
@@ -12332,12 +12332,12 @@
     <row r="68" spans="1:78">
       <c r="A68" s="45"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="109"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
       <c r="K68" s="33"/>
@@ -12368,10 +12368,10 @@
       <c r="AJ68" s="33"/>
       <c r="AK68" s="33"/>
       <c r="AL68" s="53"/>
-      <c r="AM68" s="115" t="s">
+      <c r="AM68" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AN68" s="116"/>
+      <c r="AN68" s="94"/>
       <c r="AO68" s="59" t="s">
         <v>77</v>
       </c>
@@ -12538,10 +12538,10 @@
       <c r="AJ70" s="33"/>
       <c r="AK70" s="33"/>
       <c r="AL70" s="53"/>
-      <c r="AM70" s="128">
+      <c r="AM70" s="97">
         <v>2</v>
       </c>
-      <c r="AN70" s="109"/>
+      <c r="AN70" s="96"/>
       <c r="AO70" s="64" t="s">
         <v>80</v>
       </c>
@@ -12772,10 +12772,10 @@
       <c r="AJ73" s="33"/>
       <c r="AK73" s="33"/>
       <c r="AL73" s="53"/>
-      <c r="AM73" s="148" t="s">
+      <c r="AM73" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="AN73" s="109"/>
+      <c r="AN73" s="96"/>
       <c r="AO73" s="66" t="s">
         <v>84</v>
       </c>
@@ -12828,16 +12828,16 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="143" t="s">
+      <c r="G74" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="H74" s="142"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="142"/>
-      <c r="K74" s="142"/>
-      <c r="L74" s="142"/>
-      <c r="M74" s="142"/>
-      <c r="N74" s="144"/>
+      <c r="H74" s="127"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="127"/>
+      <c r="L74" s="127"/>
+      <c r="M74" s="127"/>
+      <c r="N74" s="129"/>
       <c r="O74" s="33"/>
       <c r="P74" s="33"/>
       <c r="Q74" s="33"/>
@@ -12910,14 +12910,14 @@
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="145"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="104"/>
-      <c r="J75" s="104"/>
-      <c r="K75" s="104"/>
-      <c r="L75" s="104"/>
-      <c r="M75" s="104"/>
-      <c r="N75" s="106"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="100"/>
       <c r="O75" s="33"/>
       <c r="P75" s="33"/>
       <c r="Q75" s="33"/>
@@ -16104,190 +16104,190 @@
       <c r="BZ114" s="33"/>
     </row>
     <row r="115" spans="1:78" ht="17.25">
-      <c r="A115" s="136" t="s">
+      <c r="A115" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="118"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="118"/>
-      <c r="E115" s="127"/>
-      <c r="F115" s="129" t="s">
+      <c r="B115" s="105"/>
+      <c r="C115" s="105"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="118"/>
-      <c r="H115" s="118"/>
-      <c r="I115" s="118"/>
-      <c r="J115" s="118"/>
-      <c r="K115" s="118"/>
-      <c r="L115" s="118"/>
-      <c r="M115" s="118"/>
-      <c r="N115" s="118"/>
-      <c r="O115" s="118"/>
-      <c r="P115" s="118"/>
-      <c r="Q115" s="118"/>
-      <c r="R115" s="118"/>
-      <c r="S115" s="118"/>
-      <c r="T115" s="118"/>
-      <c r="U115" s="118"/>
-      <c r="V115" s="118"/>
-      <c r="W115" s="118"/>
-      <c r="X115" s="118"/>
-      <c r="Y115" s="118"/>
-      <c r="Z115" s="118"/>
-      <c r="AA115" s="118"/>
-      <c r="AB115" s="118"/>
-      <c r="AC115" s="118"/>
-      <c r="AD115" s="118"/>
-      <c r="AE115" s="118"/>
-      <c r="AF115" s="118"/>
-      <c r="AG115" s="118"/>
-      <c r="AH115" s="118"/>
-      <c r="AI115" s="118"/>
-      <c r="AJ115" s="118"/>
-      <c r="AK115" s="118"/>
-      <c r="AL115" s="118"/>
-      <c r="AM115" s="118"/>
-      <c r="AN115" s="118"/>
-      <c r="AO115" s="118"/>
-      <c r="AP115" s="118"/>
-      <c r="AQ115" s="118"/>
-      <c r="AR115" s="118"/>
-      <c r="AS115" s="118"/>
-      <c r="AT115" s="118"/>
-      <c r="AU115" s="118"/>
-      <c r="AV115" s="119"/>
-      <c r="AW115" s="117" t="s">
+      <c r="G115" s="105"/>
+      <c r="H115" s="105"/>
+      <c r="I115" s="105"/>
+      <c r="J115" s="105"/>
+      <c r="K115" s="105"/>
+      <c r="L115" s="105"/>
+      <c r="M115" s="105"/>
+      <c r="N115" s="105"/>
+      <c r="O115" s="105"/>
+      <c r="P115" s="105"/>
+      <c r="Q115" s="105"/>
+      <c r="R115" s="105"/>
+      <c r="S115" s="105"/>
+      <c r="T115" s="105"/>
+      <c r="U115" s="105"/>
+      <c r="V115" s="105"/>
+      <c r="W115" s="105"/>
+      <c r="X115" s="105"/>
+      <c r="Y115" s="105"/>
+      <c r="Z115" s="105"/>
+      <c r="AA115" s="105"/>
+      <c r="AB115" s="105"/>
+      <c r="AC115" s="105"/>
+      <c r="AD115" s="105"/>
+      <c r="AE115" s="105"/>
+      <c r="AF115" s="105"/>
+      <c r="AG115" s="105"/>
+      <c r="AH115" s="105"/>
+      <c r="AI115" s="105"/>
+      <c r="AJ115" s="105"/>
+      <c r="AK115" s="105"/>
+      <c r="AL115" s="105"/>
+      <c r="AM115" s="105"/>
+      <c r="AN115" s="105"/>
+      <c r="AO115" s="105"/>
+      <c r="AP115" s="105"/>
+      <c r="AQ115" s="105"/>
+      <c r="AR115" s="105"/>
+      <c r="AS115" s="105"/>
+      <c r="AT115" s="105"/>
+      <c r="AU115" s="105"/>
+      <c r="AV115" s="106"/>
+      <c r="AW115" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AX115" s="118"/>
-      <c r="AY115" s="118"/>
-      <c r="AZ115" s="118"/>
-      <c r="BA115" s="119"/>
-      <c r="BB115" s="93" t="s">
+      <c r="AX115" s="105"/>
+      <c r="AY115" s="105"/>
+      <c r="AZ115" s="105"/>
+      <c r="BA115" s="106"/>
+      <c r="BB115" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="BC115" s="94"/>
-      <c r="BD115" s="94"/>
-      <c r="BE115" s="94"/>
-      <c r="BF115" s="94"/>
-      <c r="BG115" s="94"/>
-      <c r="BH115" s="94"/>
-      <c r="BI115" s="94"/>
-      <c r="BJ115" s="95"/>
-      <c r="BK115" s="117" t="s">
+      <c r="BC115" s="102"/>
+      <c r="BD115" s="102"/>
+      <c r="BE115" s="102"/>
+      <c r="BF115" s="102"/>
+      <c r="BG115" s="102"/>
+      <c r="BH115" s="102"/>
+      <c r="BI115" s="102"/>
+      <c r="BJ115" s="103"/>
+      <c r="BK115" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="BL115" s="118"/>
-      <c r="BM115" s="118"/>
-      <c r="BN115" s="118"/>
-      <c r="BO115" s="119"/>
-      <c r="BP115" s="126" t="s">
+      <c r="BL115" s="105"/>
+      <c r="BM115" s="105"/>
+      <c r="BN115" s="105"/>
+      <c r="BO115" s="106"/>
+      <c r="BP115" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ115" s="118"/>
-      <c r="BR115" s="118"/>
-      <c r="BS115" s="118"/>
-      <c r="BT115" s="118"/>
-      <c r="BU115" s="118"/>
-      <c r="BV115" s="118"/>
-      <c r="BW115" s="118"/>
-      <c r="BX115" s="127"/>
+      <c r="BQ115" s="105"/>
+      <c r="BR115" s="105"/>
+      <c r="BS115" s="105"/>
+      <c r="BT115" s="105"/>
+      <c r="BU115" s="105"/>
+      <c r="BV115" s="105"/>
+      <c r="BW115" s="105"/>
+      <c r="BX115" s="120"/>
       <c r="BY115" s="52"/>
       <c r="BZ115" s="52"/>
     </row>
     <row r="116" spans="1:78" ht="18">
-      <c r="A116" s="137" t="s">
+      <c r="A116" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="104"/>
-      <c r="C116" s="104"/>
-      <c r="D116" s="104"/>
-      <c r="E116" s="138"/>
-      <c r="F116" s="107" t="s">
+      <c r="B116" s="99"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="122"/>
+      <c r="F116" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="104"/>
-      <c r="H116" s="104"/>
-      <c r="I116" s="104"/>
-      <c r="J116" s="104"/>
-      <c r="K116" s="104"/>
-      <c r="L116" s="104"/>
-      <c r="M116" s="104"/>
-      <c r="N116" s="104"/>
-      <c r="O116" s="104"/>
-      <c r="P116" s="104"/>
-      <c r="Q116" s="104"/>
-      <c r="R116" s="104"/>
-      <c r="S116" s="104"/>
-      <c r="T116" s="104"/>
-      <c r="U116" s="104"/>
-      <c r="V116" s="104"/>
-      <c r="W116" s="104"/>
-      <c r="X116" s="104"/>
-      <c r="Y116" s="106"/>
-      <c r="Z116" s="105" t="s">
+      <c r="G116" s="99"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="99"/>
+      <c r="J116" s="99"/>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="99"/>
+      <c r="N116" s="99"/>
+      <c r="O116" s="99"/>
+      <c r="P116" s="99"/>
+      <c r="Q116" s="99"/>
+      <c r="R116" s="99"/>
+      <c r="S116" s="99"/>
+      <c r="T116" s="99"/>
+      <c r="U116" s="99"/>
+      <c r="V116" s="99"/>
+      <c r="W116" s="99"/>
+      <c r="X116" s="99"/>
+      <c r="Y116" s="100"/>
+      <c r="Z116" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AA116" s="104"/>
-      <c r="AB116" s="104"/>
-      <c r="AC116" s="104"/>
-      <c r="AD116" s="106"/>
-      <c r="AE116" s="107" t="s">
+      <c r="AA116" s="99"/>
+      <c r="AB116" s="99"/>
+      <c r="AC116" s="99"/>
+      <c r="AD116" s="100"/>
+      <c r="AE116" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="AF116" s="104"/>
-      <c r="AG116" s="104"/>
-      <c r="AH116" s="104"/>
-      <c r="AI116" s="104"/>
-      <c r="AJ116" s="104"/>
-      <c r="AK116" s="104"/>
-      <c r="AL116" s="104"/>
-      <c r="AM116" s="104"/>
-      <c r="AN116" s="104"/>
-      <c r="AO116" s="104"/>
-      <c r="AP116" s="104"/>
-      <c r="AQ116" s="104"/>
-      <c r="AR116" s="104"/>
-      <c r="AS116" s="104"/>
-      <c r="AT116" s="104"/>
-      <c r="AU116" s="104"/>
-      <c r="AV116" s="106"/>
-      <c r="AW116" s="105" t="s">
+      <c r="AF116" s="99"/>
+      <c r="AG116" s="99"/>
+      <c r="AH116" s="99"/>
+      <c r="AI116" s="99"/>
+      <c r="AJ116" s="99"/>
+      <c r="AK116" s="99"/>
+      <c r="AL116" s="99"/>
+      <c r="AM116" s="99"/>
+      <c r="AN116" s="99"/>
+      <c r="AO116" s="99"/>
+      <c r="AP116" s="99"/>
+      <c r="AQ116" s="99"/>
+      <c r="AR116" s="99"/>
+      <c r="AS116" s="99"/>
+      <c r="AT116" s="99"/>
+      <c r="AU116" s="99"/>
+      <c r="AV116" s="100"/>
+      <c r="AW116" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AX116" s="104"/>
-      <c r="AY116" s="104"/>
-      <c r="AZ116" s="104"/>
-      <c r="BA116" s="106"/>
-      <c r="BB116" s="103" t="s">
+      <c r="AX116" s="99"/>
+      <c r="AY116" s="99"/>
+      <c r="AZ116" s="99"/>
+      <c r="BA116" s="100"/>
+      <c r="BB116" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="BC116" s="104"/>
-      <c r="BD116" s="104"/>
-      <c r="BE116" s="104"/>
-      <c r="BF116" s="104"/>
-      <c r="BG116" s="104"/>
-      <c r="BH116" s="104"/>
-      <c r="BI116" s="104"/>
-      <c r="BJ116" s="104"/>
-      <c r="BK116" s="105" t="s">
+      <c r="BC116" s="99"/>
+      <c r="BD116" s="99"/>
+      <c r="BE116" s="99"/>
+      <c r="BF116" s="99"/>
+      <c r="BG116" s="99"/>
+      <c r="BH116" s="99"/>
+      <c r="BI116" s="99"/>
+      <c r="BJ116" s="99"/>
+      <c r="BK116" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="BL116" s="104"/>
-      <c r="BM116" s="104"/>
-      <c r="BN116" s="104"/>
-      <c r="BO116" s="106"/>
-      <c r="BP116" s="126" t="s">
+      <c r="BL116" s="99"/>
+      <c r="BM116" s="99"/>
+      <c r="BN116" s="99"/>
+      <c r="BO116" s="100"/>
+      <c r="BP116" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ116" s="118"/>
-      <c r="BR116" s="118"/>
-      <c r="BS116" s="118"/>
-      <c r="BT116" s="118"/>
-      <c r="BU116" s="118"/>
-      <c r="BV116" s="118"/>
-      <c r="BW116" s="118"/>
-      <c r="BX116" s="127"/>
+      <c r="BQ116" s="105"/>
+      <c r="BR116" s="105"/>
+      <c r="BS116" s="105"/>
+      <c r="BT116" s="105"/>
+      <c r="BU116" s="105"/>
+      <c r="BV116" s="105"/>
+      <c r="BW116" s="105"/>
+      <c r="BX116" s="120"/>
       <c r="BY116" s="52"/>
       <c r="BZ116" s="52"/>
     </row>
@@ -16492,51 +16492,51 @@
       <c r="AJ119" s="4"/>
       <c r="AK119" s="4"/>
       <c r="AL119" s="53"/>
-      <c r="AM119" s="113" t="s">
+      <c r="AM119" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AN119" s="114"/>
-      <c r="AO119" s="113" t="s">
+      <c r="AN119" s="115"/>
+      <c r="AO119" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AP119" s="109"/>
-      <c r="AQ119" s="109"/>
-      <c r="AR119" s="109"/>
-      <c r="AS119" s="109"/>
-      <c r="AT119" s="109"/>
-      <c r="AU119" s="116"/>
-      <c r="AV119" s="113" t="s">
+      <c r="AP119" s="96"/>
+      <c r="AQ119" s="96"/>
+      <c r="AR119" s="96"/>
+      <c r="AS119" s="96"/>
+      <c r="AT119" s="96"/>
+      <c r="AU119" s="94"/>
+      <c r="AV119" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AW119" s="109"/>
-      <c r="AX119" s="109"/>
-      <c r="AY119" s="109"/>
-      <c r="AZ119" s="116"/>
-      <c r="BA119" s="113" t="s">
+      <c r="AW119" s="96"/>
+      <c r="AX119" s="96"/>
+      <c r="AY119" s="96"/>
+      <c r="AZ119" s="94"/>
+      <c r="BA119" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="BB119" s="109"/>
-      <c r="BC119" s="109"/>
-      <c r="BD119" s="109"/>
-      <c r="BE119" s="109"/>
-      <c r="BF119" s="109"/>
-      <c r="BG119" s="109"/>
-      <c r="BH119" s="109"/>
-      <c r="BI119" s="109"/>
-      <c r="BJ119" s="109"/>
-      <c r="BK119" s="109"/>
-      <c r="BL119" s="109"/>
-      <c r="BM119" s="109"/>
-      <c r="BN119" s="109"/>
-      <c r="BO119" s="109"/>
-      <c r="BP119" s="109"/>
-      <c r="BQ119" s="109"/>
-      <c r="BR119" s="109"/>
-      <c r="BS119" s="109"/>
-      <c r="BT119" s="109"/>
-      <c r="BU119" s="109"/>
-      <c r="BV119" s="109"/>
-      <c r="BW119" s="114"/>
+      <c r="BB119" s="96"/>
+      <c r="BC119" s="96"/>
+      <c r="BD119" s="96"/>
+      <c r="BE119" s="96"/>
+      <c r="BF119" s="96"/>
+      <c r="BG119" s="96"/>
+      <c r="BH119" s="96"/>
+      <c r="BI119" s="96"/>
+      <c r="BJ119" s="96"/>
+      <c r="BK119" s="96"/>
+      <c r="BL119" s="96"/>
+      <c r="BM119" s="96"/>
+      <c r="BN119" s="96"/>
+      <c r="BO119" s="96"/>
+      <c r="BP119" s="96"/>
+      <c r="BQ119" s="96"/>
+      <c r="BR119" s="96"/>
+      <c r="BS119" s="96"/>
+      <c r="BT119" s="96"/>
+      <c r="BU119" s="96"/>
+      <c r="BV119" s="96"/>
+      <c r="BW119" s="115"/>
       <c r="BX119" s="53"/>
       <c r="BY119" s="4"/>
       <c r="BZ119" s="4"/>
@@ -16580,43 +16580,43 @@
       <c r="AJ120" s="4"/>
       <c r="AK120" s="4"/>
       <c r="AL120" s="53"/>
-      <c r="AM120" s="101"/>
-      <c r="AN120" s="102"/>
-      <c r="AO120" s="101"/>
-      <c r="AP120" s="101"/>
-      <c r="AQ120" s="101"/>
-      <c r="AR120" s="101"/>
-      <c r="AS120" s="101"/>
-      <c r="AT120" s="101"/>
-      <c r="AU120" s="120"/>
-      <c r="AV120" s="101"/>
-      <c r="AW120" s="101"/>
-      <c r="AX120" s="101"/>
-      <c r="AY120" s="101"/>
-      <c r="AZ120" s="120"/>
-      <c r="BA120" s="101"/>
-      <c r="BB120" s="101"/>
-      <c r="BC120" s="101"/>
-      <c r="BD120" s="101"/>
-      <c r="BE120" s="101"/>
-      <c r="BF120" s="101"/>
-      <c r="BG120" s="101"/>
-      <c r="BH120" s="101"/>
-      <c r="BI120" s="101"/>
-      <c r="BJ120" s="101"/>
-      <c r="BK120" s="101"/>
-      <c r="BL120" s="101"/>
-      <c r="BM120" s="101"/>
-      <c r="BN120" s="101"/>
-      <c r="BO120" s="101"/>
-      <c r="BP120" s="101"/>
-      <c r="BQ120" s="101"/>
-      <c r="BR120" s="101"/>
-      <c r="BS120" s="101"/>
-      <c r="BT120" s="101"/>
-      <c r="BU120" s="101"/>
-      <c r="BV120" s="101"/>
-      <c r="BW120" s="102"/>
+      <c r="AM120" s="108"/>
+      <c r="AN120" s="116"/>
+      <c r="AO120" s="108"/>
+      <c r="AP120" s="108"/>
+      <c r="AQ120" s="108"/>
+      <c r="AR120" s="108"/>
+      <c r="AS120" s="108"/>
+      <c r="AT120" s="108"/>
+      <c r="AU120" s="109"/>
+      <c r="AV120" s="108"/>
+      <c r="AW120" s="108"/>
+      <c r="AX120" s="108"/>
+      <c r="AY120" s="108"/>
+      <c r="AZ120" s="109"/>
+      <c r="BA120" s="108"/>
+      <c r="BB120" s="108"/>
+      <c r="BC120" s="108"/>
+      <c r="BD120" s="108"/>
+      <c r="BE120" s="108"/>
+      <c r="BF120" s="108"/>
+      <c r="BG120" s="108"/>
+      <c r="BH120" s="108"/>
+      <c r="BI120" s="108"/>
+      <c r="BJ120" s="108"/>
+      <c r="BK120" s="108"/>
+      <c r="BL120" s="108"/>
+      <c r="BM120" s="108"/>
+      <c r="BN120" s="108"/>
+      <c r="BO120" s="108"/>
+      <c r="BP120" s="108"/>
+      <c r="BQ120" s="108"/>
+      <c r="BR120" s="108"/>
+      <c r="BS120" s="108"/>
+      <c r="BT120" s="108"/>
+      <c r="BU120" s="108"/>
+      <c r="BV120" s="108"/>
+      <c r="BW120" s="116"/>
       <c r="BX120" s="53"/>
       <c r="BY120" s="4"/>
       <c r="BZ120" s="4"/>
@@ -16660,10 +16660,10 @@
       <c r="AJ121" s="4"/>
       <c r="AK121" s="4"/>
       <c r="AL121" s="53"/>
-      <c r="AM121" s="115" t="s">
+      <c r="AM121" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AN121" s="116"/>
+      <c r="AN121" s="94"/>
       <c r="AO121" s="59" t="s">
         <v>89</v>
       </c>
@@ -16828,8 +16828,8 @@
       <c r="AJ123" s="4"/>
       <c r="AK123" s="4"/>
       <c r="AL123" s="53"/>
-      <c r="AM123" s="128"/>
-      <c r="AN123" s="109"/>
+      <c r="AM123" s="97"/>
+      <c r="AN123" s="96"/>
       <c r="AO123" s="64"/>
       <c r="AP123" s="33"/>
       <c r="AQ123" s="33"/>
@@ -17068,8 +17068,8 @@
       <c r="AJ126" s="4"/>
       <c r="AK126" s="4"/>
       <c r="AL126" s="53"/>
-      <c r="AM126" s="148"/>
-      <c r="AN126" s="109"/>
+      <c r="AM126" s="95"/>
+      <c r="AN126" s="96"/>
       <c r="AO126" s="66"/>
       <c r="AP126" s="33"/>
       <c r="AQ126" s="33"/>
@@ -20390,190 +20390,190 @@
       <c r="BZ167" s="4"/>
     </row>
     <row r="168" spans="1:78" ht="17.25">
-      <c r="A168" s="136" t="s">
+      <c r="A168" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="118"/>
-      <c r="C168" s="118"/>
-      <c r="D168" s="118"/>
-      <c r="E168" s="127"/>
-      <c r="F168" s="129" t="s">
+      <c r="B168" s="105"/>
+      <c r="C168" s="105"/>
+      <c r="D168" s="105"/>
+      <c r="E168" s="120"/>
+      <c r="F168" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G168" s="118"/>
-      <c r="H168" s="118"/>
-      <c r="I168" s="118"/>
-      <c r="J168" s="118"/>
-      <c r="K168" s="118"/>
-      <c r="L168" s="118"/>
-      <c r="M168" s="118"/>
-      <c r="N168" s="118"/>
-      <c r="O168" s="118"/>
-      <c r="P168" s="118"/>
-      <c r="Q168" s="118"/>
-      <c r="R168" s="118"/>
-      <c r="S168" s="118"/>
-      <c r="T168" s="118"/>
-      <c r="U168" s="118"/>
-      <c r="V168" s="118"/>
-      <c r="W168" s="118"/>
-      <c r="X168" s="118"/>
-      <c r="Y168" s="118"/>
-      <c r="Z168" s="118"/>
-      <c r="AA168" s="118"/>
-      <c r="AB168" s="118"/>
-      <c r="AC168" s="118"/>
-      <c r="AD168" s="118"/>
-      <c r="AE168" s="118"/>
-      <c r="AF168" s="118"/>
-      <c r="AG168" s="118"/>
-      <c r="AH168" s="118"/>
-      <c r="AI168" s="118"/>
-      <c r="AJ168" s="118"/>
-      <c r="AK168" s="118"/>
-      <c r="AL168" s="118"/>
-      <c r="AM168" s="118"/>
-      <c r="AN168" s="118"/>
-      <c r="AO168" s="118"/>
-      <c r="AP168" s="118"/>
-      <c r="AQ168" s="118"/>
-      <c r="AR168" s="118"/>
-      <c r="AS168" s="118"/>
-      <c r="AT168" s="118"/>
-      <c r="AU168" s="118"/>
-      <c r="AV168" s="119"/>
-      <c r="AW168" s="117" t="s">
+      <c r="G168" s="105"/>
+      <c r="H168" s="105"/>
+      <c r="I168" s="105"/>
+      <c r="J168" s="105"/>
+      <c r="K168" s="105"/>
+      <c r="L168" s="105"/>
+      <c r="M168" s="105"/>
+      <c r="N168" s="105"/>
+      <c r="O168" s="105"/>
+      <c r="P168" s="105"/>
+      <c r="Q168" s="105"/>
+      <c r="R168" s="105"/>
+      <c r="S168" s="105"/>
+      <c r="T168" s="105"/>
+      <c r="U168" s="105"/>
+      <c r="V168" s="105"/>
+      <c r="W168" s="105"/>
+      <c r="X168" s="105"/>
+      <c r="Y168" s="105"/>
+      <c r="Z168" s="105"/>
+      <c r="AA168" s="105"/>
+      <c r="AB168" s="105"/>
+      <c r="AC168" s="105"/>
+      <c r="AD168" s="105"/>
+      <c r="AE168" s="105"/>
+      <c r="AF168" s="105"/>
+      <c r="AG168" s="105"/>
+      <c r="AH168" s="105"/>
+      <c r="AI168" s="105"/>
+      <c r="AJ168" s="105"/>
+      <c r="AK168" s="105"/>
+      <c r="AL168" s="105"/>
+      <c r="AM168" s="105"/>
+      <c r="AN168" s="105"/>
+      <c r="AO168" s="105"/>
+      <c r="AP168" s="105"/>
+      <c r="AQ168" s="105"/>
+      <c r="AR168" s="105"/>
+      <c r="AS168" s="105"/>
+      <c r="AT168" s="105"/>
+      <c r="AU168" s="105"/>
+      <c r="AV168" s="106"/>
+      <c r="AW168" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AX168" s="118"/>
-      <c r="AY168" s="118"/>
-      <c r="AZ168" s="118"/>
-      <c r="BA168" s="119"/>
-      <c r="BB168" s="93" t="s">
+      <c r="AX168" s="105"/>
+      <c r="AY168" s="105"/>
+      <c r="AZ168" s="105"/>
+      <c r="BA168" s="106"/>
+      <c r="BB168" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="BC168" s="94"/>
-      <c r="BD168" s="94"/>
-      <c r="BE168" s="94"/>
-      <c r="BF168" s="94"/>
-      <c r="BG168" s="94"/>
-      <c r="BH168" s="94"/>
-      <c r="BI168" s="94"/>
-      <c r="BJ168" s="95"/>
-      <c r="BK168" s="117" t="s">
+      <c r="BC168" s="102"/>
+      <c r="BD168" s="102"/>
+      <c r="BE168" s="102"/>
+      <c r="BF168" s="102"/>
+      <c r="BG168" s="102"/>
+      <c r="BH168" s="102"/>
+      <c r="BI168" s="102"/>
+      <c r="BJ168" s="103"/>
+      <c r="BK168" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="BL168" s="118"/>
-      <c r="BM168" s="118"/>
-      <c r="BN168" s="118"/>
-      <c r="BO168" s="119"/>
-      <c r="BP168" s="126" t="s">
+      <c r="BL168" s="105"/>
+      <c r="BM168" s="105"/>
+      <c r="BN168" s="105"/>
+      <c r="BO168" s="106"/>
+      <c r="BP168" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ168" s="118"/>
-      <c r="BR168" s="118"/>
-      <c r="BS168" s="118"/>
-      <c r="BT168" s="118"/>
-      <c r="BU168" s="118"/>
-      <c r="BV168" s="118"/>
-      <c r="BW168" s="118"/>
-      <c r="BX168" s="127"/>
+      <c r="BQ168" s="105"/>
+      <c r="BR168" s="105"/>
+      <c r="BS168" s="105"/>
+      <c r="BT168" s="105"/>
+      <c r="BU168" s="105"/>
+      <c r="BV168" s="105"/>
+      <c r="BW168" s="105"/>
+      <c r="BX168" s="120"/>
       <c r="BY168" s="52"/>
       <c r="BZ168" s="52"/>
     </row>
     <row r="169" spans="1:78" ht="18">
-      <c r="A169" s="137" t="s">
+      <c r="A169" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="104"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="104"/>
-      <c r="E169" s="138"/>
-      <c r="F169" s="107" t="s">
+      <c r="B169" s="99"/>
+      <c r="C169" s="99"/>
+      <c r="D169" s="99"/>
+      <c r="E169" s="122"/>
+      <c r="F169" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G169" s="104"/>
-      <c r="H169" s="104"/>
-      <c r="I169" s="104"/>
-      <c r="J169" s="104"/>
-      <c r="K169" s="104"/>
-      <c r="L169" s="104"/>
-      <c r="M169" s="104"/>
-      <c r="N169" s="104"/>
-      <c r="O169" s="104"/>
-      <c r="P169" s="104"/>
-      <c r="Q169" s="104"/>
-      <c r="R169" s="104"/>
-      <c r="S169" s="104"/>
-      <c r="T169" s="104"/>
-      <c r="U169" s="104"/>
-      <c r="V169" s="104"/>
-      <c r="W169" s="104"/>
-      <c r="X169" s="104"/>
-      <c r="Y169" s="106"/>
-      <c r="Z169" s="105" t="s">
+      <c r="G169" s="99"/>
+      <c r="H169" s="99"/>
+      <c r="I169" s="99"/>
+      <c r="J169" s="99"/>
+      <c r="K169" s="99"/>
+      <c r="L169" s="99"/>
+      <c r="M169" s="99"/>
+      <c r="N169" s="99"/>
+      <c r="O169" s="99"/>
+      <c r="P169" s="99"/>
+      <c r="Q169" s="99"/>
+      <c r="R169" s="99"/>
+      <c r="S169" s="99"/>
+      <c r="T169" s="99"/>
+      <c r="U169" s="99"/>
+      <c r="V169" s="99"/>
+      <c r="W169" s="99"/>
+      <c r="X169" s="99"/>
+      <c r="Y169" s="100"/>
+      <c r="Z169" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AA169" s="104"/>
-      <c r="AB169" s="104"/>
-      <c r="AC169" s="104"/>
-      <c r="AD169" s="106"/>
-      <c r="AE169" s="107" t="s">
+      <c r="AA169" s="99"/>
+      <c r="AB169" s="99"/>
+      <c r="AC169" s="99"/>
+      <c r="AD169" s="100"/>
+      <c r="AE169" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="AF169" s="104"/>
-      <c r="AG169" s="104"/>
-      <c r="AH169" s="104"/>
-      <c r="AI169" s="104"/>
-      <c r="AJ169" s="104"/>
-      <c r="AK169" s="104"/>
-      <c r="AL169" s="104"/>
-      <c r="AM169" s="104"/>
-      <c r="AN169" s="104"/>
-      <c r="AO169" s="104"/>
-      <c r="AP169" s="104"/>
-      <c r="AQ169" s="104"/>
-      <c r="AR169" s="104"/>
-      <c r="AS169" s="104"/>
-      <c r="AT169" s="104"/>
-      <c r="AU169" s="104"/>
-      <c r="AV169" s="106"/>
-      <c r="AW169" s="105" t="s">
+      <c r="AF169" s="99"/>
+      <c r="AG169" s="99"/>
+      <c r="AH169" s="99"/>
+      <c r="AI169" s="99"/>
+      <c r="AJ169" s="99"/>
+      <c r="AK169" s="99"/>
+      <c r="AL169" s="99"/>
+      <c r="AM169" s="99"/>
+      <c r="AN169" s="99"/>
+      <c r="AO169" s="99"/>
+      <c r="AP169" s="99"/>
+      <c r="AQ169" s="99"/>
+      <c r="AR169" s="99"/>
+      <c r="AS169" s="99"/>
+      <c r="AT169" s="99"/>
+      <c r="AU169" s="99"/>
+      <c r="AV169" s="100"/>
+      <c r="AW169" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AX169" s="104"/>
-      <c r="AY169" s="104"/>
-      <c r="AZ169" s="104"/>
-      <c r="BA169" s="106"/>
-      <c r="BB169" s="103" t="s">
+      <c r="AX169" s="99"/>
+      <c r="AY169" s="99"/>
+      <c r="AZ169" s="99"/>
+      <c r="BA169" s="100"/>
+      <c r="BB169" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="BC169" s="104"/>
-      <c r="BD169" s="104"/>
-      <c r="BE169" s="104"/>
-      <c r="BF169" s="104"/>
-      <c r="BG169" s="104"/>
-      <c r="BH169" s="104"/>
-      <c r="BI169" s="104"/>
-      <c r="BJ169" s="104"/>
-      <c r="BK169" s="105" t="s">
+      <c r="BC169" s="99"/>
+      <c r="BD169" s="99"/>
+      <c r="BE169" s="99"/>
+      <c r="BF169" s="99"/>
+      <c r="BG169" s="99"/>
+      <c r="BH169" s="99"/>
+      <c r="BI169" s="99"/>
+      <c r="BJ169" s="99"/>
+      <c r="BK169" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="BL169" s="104"/>
-      <c r="BM169" s="104"/>
-      <c r="BN169" s="104"/>
-      <c r="BO169" s="106"/>
-      <c r="BP169" s="126" t="s">
+      <c r="BL169" s="99"/>
+      <c r="BM169" s="99"/>
+      <c r="BN169" s="99"/>
+      <c r="BO169" s="100"/>
+      <c r="BP169" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ169" s="118"/>
-      <c r="BR169" s="118"/>
-      <c r="BS169" s="118"/>
-      <c r="BT169" s="118"/>
-      <c r="BU169" s="118"/>
-      <c r="BV169" s="118"/>
-      <c r="BW169" s="118"/>
-      <c r="BX169" s="127"/>
+      <c r="BQ169" s="105"/>
+      <c r="BR169" s="105"/>
+      <c r="BS169" s="105"/>
+      <c r="BT169" s="105"/>
+      <c r="BU169" s="105"/>
+      <c r="BV169" s="105"/>
+      <c r="BW169" s="105"/>
+      <c r="BX169" s="120"/>
       <c r="BY169" s="52"/>
       <c r="BZ169" s="52"/>
     </row>
@@ -20777,51 +20777,51 @@
       <c r="AJ172" s="4"/>
       <c r="AK172" s="4"/>
       <c r="AL172" s="53"/>
-      <c r="AM172" s="113" t="s">
+      <c r="AM172" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AN172" s="114"/>
-      <c r="AO172" s="113" t="s">
+      <c r="AN172" s="115"/>
+      <c r="AO172" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AP172" s="109"/>
-      <c r="AQ172" s="109"/>
-      <c r="AR172" s="109"/>
-      <c r="AS172" s="109"/>
-      <c r="AT172" s="109"/>
-      <c r="AU172" s="116"/>
-      <c r="AV172" s="113" t="s">
+      <c r="AP172" s="96"/>
+      <c r="AQ172" s="96"/>
+      <c r="AR172" s="96"/>
+      <c r="AS172" s="96"/>
+      <c r="AT172" s="96"/>
+      <c r="AU172" s="94"/>
+      <c r="AV172" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AW172" s="109"/>
-      <c r="AX172" s="109"/>
-      <c r="AY172" s="109"/>
-      <c r="AZ172" s="116"/>
-      <c r="BA172" s="113" t="s">
+      <c r="AW172" s="96"/>
+      <c r="AX172" s="96"/>
+      <c r="AY172" s="96"/>
+      <c r="AZ172" s="94"/>
+      <c r="BA172" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="BB172" s="109"/>
-      <c r="BC172" s="109"/>
-      <c r="BD172" s="109"/>
-      <c r="BE172" s="109"/>
-      <c r="BF172" s="109"/>
-      <c r="BG172" s="109"/>
-      <c r="BH172" s="109"/>
-      <c r="BI172" s="109"/>
-      <c r="BJ172" s="109"/>
-      <c r="BK172" s="109"/>
-      <c r="BL172" s="109"/>
-      <c r="BM172" s="109"/>
-      <c r="BN172" s="109"/>
-      <c r="BO172" s="109"/>
-      <c r="BP172" s="109"/>
-      <c r="BQ172" s="109"/>
-      <c r="BR172" s="109"/>
-      <c r="BS172" s="109"/>
-      <c r="BT172" s="109"/>
-      <c r="BU172" s="109"/>
-      <c r="BV172" s="109"/>
-      <c r="BW172" s="114"/>
+      <c r="BB172" s="96"/>
+      <c r="BC172" s="96"/>
+      <c r="BD172" s="96"/>
+      <c r="BE172" s="96"/>
+      <c r="BF172" s="96"/>
+      <c r="BG172" s="96"/>
+      <c r="BH172" s="96"/>
+      <c r="BI172" s="96"/>
+      <c r="BJ172" s="96"/>
+      <c r="BK172" s="96"/>
+      <c r="BL172" s="96"/>
+      <c r="BM172" s="96"/>
+      <c r="BN172" s="96"/>
+      <c r="BO172" s="96"/>
+      <c r="BP172" s="96"/>
+      <c r="BQ172" s="96"/>
+      <c r="BR172" s="96"/>
+      <c r="BS172" s="96"/>
+      <c r="BT172" s="96"/>
+      <c r="BU172" s="96"/>
+      <c r="BV172" s="96"/>
+      <c r="BW172" s="115"/>
       <c r="BX172" s="4"/>
       <c r="BY172" s="4"/>
       <c r="BZ172" s="4"/>
@@ -20865,43 +20865,43 @@
       <c r="AJ173" s="4"/>
       <c r="AK173" s="4"/>
       <c r="AL173" s="53"/>
-      <c r="AM173" s="101"/>
-      <c r="AN173" s="102"/>
-      <c r="AO173" s="101"/>
-      <c r="AP173" s="101"/>
-      <c r="AQ173" s="101"/>
-      <c r="AR173" s="101"/>
-      <c r="AS173" s="101"/>
-      <c r="AT173" s="101"/>
-      <c r="AU173" s="120"/>
-      <c r="AV173" s="101"/>
-      <c r="AW173" s="101"/>
-      <c r="AX173" s="101"/>
-      <c r="AY173" s="101"/>
-      <c r="AZ173" s="120"/>
-      <c r="BA173" s="101"/>
-      <c r="BB173" s="101"/>
-      <c r="BC173" s="101"/>
-      <c r="BD173" s="101"/>
-      <c r="BE173" s="101"/>
-      <c r="BF173" s="101"/>
-      <c r="BG173" s="101"/>
-      <c r="BH173" s="101"/>
-      <c r="BI173" s="101"/>
-      <c r="BJ173" s="101"/>
-      <c r="BK173" s="101"/>
-      <c r="BL173" s="101"/>
-      <c r="BM173" s="101"/>
-      <c r="BN173" s="101"/>
-      <c r="BO173" s="101"/>
-      <c r="BP173" s="101"/>
-      <c r="BQ173" s="101"/>
-      <c r="BR173" s="101"/>
-      <c r="BS173" s="101"/>
-      <c r="BT173" s="101"/>
-      <c r="BU173" s="101"/>
-      <c r="BV173" s="101"/>
-      <c r="BW173" s="102"/>
+      <c r="AM173" s="108"/>
+      <c r="AN173" s="116"/>
+      <c r="AO173" s="108"/>
+      <c r="AP173" s="108"/>
+      <c r="AQ173" s="108"/>
+      <c r="AR173" s="108"/>
+      <c r="AS173" s="108"/>
+      <c r="AT173" s="108"/>
+      <c r="AU173" s="109"/>
+      <c r="AV173" s="108"/>
+      <c r="AW173" s="108"/>
+      <c r="AX173" s="108"/>
+      <c r="AY173" s="108"/>
+      <c r="AZ173" s="109"/>
+      <c r="BA173" s="108"/>
+      <c r="BB173" s="108"/>
+      <c r="BC173" s="108"/>
+      <c r="BD173" s="108"/>
+      <c r="BE173" s="108"/>
+      <c r="BF173" s="108"/>
+      <c r="BG173" s="108"/>
+      <c r="BH173" s="108"/>
+      <c r="BI173" s="108"/>
+      <c r="BJ173" s="108"/>
+      <c r="BK173" s="108"/>
+      <c r="BL173" s="108"/>
+      <c r="BM173" s="108"/>
+      <c r="BN173" s="108"/>
+      <c r="BO173" s="108"/>
+      <c r="BP173" s="108"/>
+      <c r="BQ173" s="108"/>
+      <c r="BR173" s="108"/>
+      <c r="BS173" s="108"/>
+      <c r="BT173" s="108"/>
+      <c r="BU173" s="108"/>
+      <c r="BV173" s="108"/>
+      <c r="BW173" s="116"/>
       <c r="BX173" s="4"/>
       <c r="BY173" s="4"/>
       <c r="BZ173" s="4"/>
@@ -20945,10 +20945,10 @@
       <c r="AJ174" s="4"/>
       <c r="AK174" s="4"/>
       <c r="AL174" s="53"/>
-      <c r="AM174" s="115" t="s">
+      <c r="AM174" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AN174" s="116"/>
+      <c r="AN174" s="94"/>
       <c r="AO174" s="59" t="s">
         <v>89</v>
       </c>
@@ -21115,8 +21115,8 @@
       <c r="AJ176" s="4"/>
       <c r="AK176" s="4"/>
       <c r="AL176" s="53"/>
-      <c r="AM176" s="128"/>
-      <c r="AN176" s="109"/>
+      <c r="AM176" s="97"/>
+      <c r="AN176" s="96"/>
       <c r="AO176" s="64"/>
       <c r="AP176" s="33"/>
       <c r="AQ176" s="33"/>
@@ -21355,8 +21355,8 @@
       <c r="AJ179" s="4"/>
       <c r="AK179" s="4"/>
       <c r="AL179" s="53"/>
-      <c r="AM179" s="148"/>
-      <c r="AN179" s="109"/>
+      <c r="AM179" s="95"/>
+      <c r="AN179" s="96"/>
       <c r="AO179" s="66"/>
       <c r="AP179" s="33"/>
       <c r="AQ179" s="33"/>
@@ -24677,190 +24677,190 @@
       <c r="BZ220" s="4"/>
     </row>
     <row r="221" spans="1:78" ht="17.25">
-      <c r="A221" s="136" t="s">
+      <c r="A221" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B221" s="118"/>
-      <c r="C221" s="118"/>
-      <c r="D221" s="118"/>
-      <c r="E221" s="127"/>
-      <c r="F221" s="129" t="s">
+      <c r="B221" s="105"/>
+      <c r="C221" s="105"/>
+      <c r="D221" s="105"/>
+      <c r="E221" s="120"/>
+      <c r="F221" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G221" s="118"/>
-      <c r="H221" s="118"/>
-      <c r="I221" s="118"/>
-      <c r="J221" s="118"/>
-      <c r="K221" s="118"/>
-      <c r="L221" s="118"/>
-      <c r="M221" s="118"/>
-      <c r="N221" s="118"/>
-      <c r="O221" s="118"/>
-      <c r="P221" s="118"/>
-      <c r="Q221" s="118"/>
-      <c r="R221" s="118"/>
-      <c r="S221" s="118"/>
-      <c r="T221" s="118"/>
-      <c r="U221" s="118"/>
-      <c r="V221" s="118"/>
-      <c r="W221" s="118"/>
-      <c r="X221" s="118"/>
-      <c r="Y221" s="118"/>
-      <c r="Z221" s="118"/>
-      <c r="AA221" s="118"/>
-      <c r="AB221" s="118"/>
-      <c r="AC221" s="118"/>
-      <c r="AD221" s="118"/>
-      <c r="AE221" s="118"/>
-      <c r="AF221" s="118"/>
-      <c r="AG221" s="118"/>
-      <c r="AH221" s="118"/>
-      <c r="AI221" s="118"/>
-      <c r="AJ221" s="118"/>
-      <c r="AK221" s="118"/>
-      <c r="AL221" s="118"/>
-      <c r="AM221" s="118"/>
-      <c r="AN221" s="118"/>
-      <c r="AO221" s="118"/>
-      <c r="AP221" s="118"/>
-      <c r="AQ221" s="118"/>
-      <c r="AR221" s="118"/>
-      <c r="AS221" s="118"/>
-      <c r="AT221" s="118"/>
-      <c r="AU221" s="118"/>
-      <c r="AV221" s="119"/>
-      <c r="AW221" s="117" t="s">
+      <c r="G221" s="105"/>
+      <c r="H221" s="105"/>
+      <c r="I221" s="105"/>
+      <c r="J221" s="105"/>
+      <c r="K221" s="105"/>
+      <c r="L221" s="105"/>
+      <c r="M221" s="105"/>
+      <c r="N221" s="105"/>
+      <c r="O221" s="105"/>
+      <c r="P221" s="105"/>
+      <c r="Q221" s="105"/>
+      <c r="R221" s="105"/>
+      <c r="S221" s="105"/>
+      <c r="T221" s="105"/>
+      <c r="U221" s="105"/>
+      <c r="V221" s="105"/>
+      <c r="W221" s="105"/>
+      <c r="X221" s="105"/>
+      <c r="Y221" s="105"/>
+      <c r="Z221" s="105"/>
+      <c r="AA221" s="105"/>
+      <c r="AB221" s="105"/>
+      <c r="AC221" s="105"/>
+      <c r="AD221" s="105"/>
+      <c r="AE221" s="105"/>
+      <c r="AF221" s="105"/>
+      <c r="AG221" s="105"/>
+      <c r="AH221" s="105"/>
+      <c r="AI221" s="105"/>
+      <c r="AJ221" s="105"/>
+      <c r="AK221" s="105"/>
+      <c r="AL221" s="105"/>
+      <c r="AM221" s="105"/>
+      <c r="AN221" s="105"/>
+      <c r="AO221" s="105"/>
+      <c r="AP221" s="105"/>
+      <c r="AQ221" s="105"/>
+      <c r="AR221" s="105"/>
+      <c r="AS221" s="105"/>
+      <c r="AT221" s="105"/>
+      <c r="AU221" s="105"/>
+      <c r="AV221" s="106"/>
+      <c r="AW221" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AX221" s="118"/>
-      <c r="AY221" s="118"/>
-      <c r="AZ221" s="118"/>
-      <c r="BA221" s="119"/>
-      <c r="BB221" s="93" t="s">
+      <c r="AX221" s="105"/>
+      <c r="AY221" s="105"/>
+      <c r="AZ221" s="105"/>
+      <c r="BA221" s="106"/>
+      <c r="BB221" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="BC221" s="94"/>
-      <c r="BD221" s="94"/>
-      <c r="BE221" s="94"/>
-      <c r="BF221" s="94"/>
-      <c r="BG221" s="94"/>
-      <c r="BH221" s="94"/>
-      <c r="BI221" s="94"/>
-      <c r="BJ221" s="95"/>
-      <c r="BK221" s="117" t="s">
+      <c r="BC221" s="102"/>
+      <c r="BD221" s="102"/>
+      <c r="BE221" s="102"/>
+      <c r="BF221" s="102"/>
+      <c r="BG221" s="102"/>
+      <c r="BH221" s="102"/>
+      <c r="BI221" s="102"/>
+      <c r="BJ221" s="103"/>
+      <c r="BK221" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="BL221" s="118"/>
-      <c r="BM221" s="118"/>
-      <c r="BN221" s="118"/>
-      <c r="BO221" s="119"/>
-      <c r="BP221" s="126" t="s">
+      <c r="BL221" s="105"/>
+      <c r="BM221" s="105"/>
+      <c r="BN221" s="105"/>
+      <c r="BO221" s="106"/>
+      <c r="BP221" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ221" s="118"/>
-      <c r="BR221" s="118"/>
-      <c r="BS221" s="118"/>
-      <c r="BT221" s="118"/>
-      <c r="BU221" s="118"/>
-      <c r="BV221" s="118"/>
-      <c r="BW221" s="118"/>
-      <c r="BX221" s="127"/>
+      <c r="BQ221" s="105"/>
+      <c r="BR221" s="105"/>
+      <c r="BS221" s="105"/>
+      <c r="BT221" s="105"/>
+      <c r="BU221" s="105"/>
+      <c r="BV221" s="105"/>
+      <c r="BW221" s="105"/>
+      <c r="BX221" s="120"/>
       <c r="BY221" s="52"/>
       <c r="BZ221" s="52"/>
     </row>
     <row r="222" spans="1:78" ht="18">
-      <c r="A222" s="137" t="s">
+      <c r="A222" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B222" s="104"/>
-      <c r="C222" s="104"/>
-      <c r="D222" s="104"/>
-      <c r="E222" s="138"/>
-      <c r="F222" s="107" t="s">
+      <c r="B222" s="99"/>
+      <c r="C222" s="99"/>
+      <c r="D222" s="99"/>
+      <c r="E222" s="122"/>
+      <c r="F222" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G222" s="104"/>
-      <c r="H222" s="104"/>
-      <c r="I222" s="104"/>
-      <c r="J222" s="104"/>
-      <c r="K222" s="104"/>
-      <c r="L222" s="104"/>
-      <c r="M222" s="104"/>
-      <c r="N222" s="104"/>
-      <c r="O222" s="104"/>
-      <c r="P222" s="104"/>
-      <c r="Q222" s="104"/>
-      <c r="R222" s="104"/>
-      <c r="S222" s="104"/>
-      <c r="T222" s="104"/>
-      <c r="U222" s="104"/>
-      <c r="V222" s="104"/>
-      <c r="W222" s="104"/>
-      <c r="X222" s="104"/>
-      <c r="Y222" s="106"/>
-      <c r="Z222" s="105" t="s">
+      <c r="G222" s="99"/>
+      <c r="H222" s="99"/>
+      <c r="I222" s="99"/>
+      <c r="J222" s="99"/>
+      <c r="K222" s="99"/>
+      <c r="L222" s="99"/>
+      <c r="M222" s="99"/>
+      <c r="N222" s="99"/>
+      <c r="O222" s="99"/>
+      <c r="P222" s="99"/>
+      <c r="Q222" s="99"/>
+      <c r="R222" s="99"/>
+      <c r="S222" s="99"/>
+      <c r="T222" s="99"/>
+      <c r="U222" s="99"/>
+      <c r="V222" s="99"/>
+      <c r="W222" s="99"/>
+      <c r="X222" s="99"/>
+      <c r="Y222" s="100"/>
+      <c r="Z222" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AA222" s="104"/>
-      <c r="AB222" s="104"/>
-      <c r="AC222" s="104"/>
-      <c r="AD222" s="106"/>
-      <c r="AE222" s="107" t="s">
+      <c r="AA222" s="99"/>
+      <c r="AB222" s="99"/>
+      <c r="AC222" s="99"/>
+      <c r="AD222" s="100"/>
+      <c r="AE222" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="AF222" s="104"/>
-      <c r="AG222" s="104"/>
-      <c r="AH222" s="104"/>
-      <c r="AI222" s="104"/>
-      <c r="AJ222" s="104"/>
-      <c r="AK222" s="104"/>
-      <c r="AL222" s="104"/>
-      <c r="AM222" s="104"/>
-      <c r="AN222" s="104"/>
-      <c r="AO222" s="104"/>
-      <c r="AP222" s="104"/>
-      <c r="AQ222" s="104"/>
-      <c r="AR222" s="104"/>
-      <c r="AS222" s="104"/>
-      <c r="AT222" s="104"/>
-      <c r="AU222" s="104"/>
-      <c r="AV222" s="106"/>
-      <c r="AW222" s="105" t="s">
+      <c r="AF222" s="99"/>
+      <c r="AG222" s="99"/>
+      <c r="AH222" s="99"/>
+      <c r="AI222" s="99"/>
+      <c r="AJ222" s="99"/>
+      <c r="AK222" s="99"/>
+      <c r="AL222" s="99"/>
+      <c r="AM222" s="99"/>
+      <c r="AN222" s="99"/>
+      <c r="AO222" s="99"/>
+      <c r="AP222" s="99"/>
+      <c r="AQ222" s="99"/>
+      <c r="AR222" s="99"/>
+      <c r="AS222" s="99"/>
+      <c r="AT222" s="99"/>
+      <c r="AU222" s="99"/>
+      <c r="AV222" s="100"/>
+      <c r="AW222" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AX222" s="104"/>
-      <c r="AY222" s="104"/>
-      <c r="AZ222" s="104"/>
-      <c r="BA222" s="106"/>
-      <c r="BB222" s="103" t="s">
+      <c r="AX222" s="99"/>
+      <c r="AY222" s="99"/>
+      <c r="AZ222" s="99"/>
+      <c r="BA222" s="100"/>
+      <c r="BB222" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="BC222" s="104"/>
-      <c r="BD222" s="104"/>
-      <c r="BE222" s="104"/>
-      <c r="BF222" s="104"/>
-      <c r="BG222" s="104"/>
-      <c r="BH222" s="104"/>
-      <c r="BI222" s="104"/>
-      <c r="BJ222" s="104"/>
-      <c r="BK222" s="105" t="s">
+      <c r="BC222" s="99"/>
+      <c r="BD222" s="99"/>
+      <c r="BE222" s="99"/>
+      <c r="BF222" s="99"/>
+      <c r="BG222" s="99"/>
+      <c r="BH222" s="99"/>
+      <c r="BI222" s="99"/>
+      <c r="BJ222" s="99"/>
+      <c r="BK222" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="BL222" s="104"/>
-      <c r="BM222" s="104"/>
-      <c r="BN222" s="104"/>
-      <c r="BO222" s="106"/>
-      <c r="BP222" s="126" t="s">
+      <c r="BL222" s="99"/>
+      <c r="BM222" s="99"/>
+      <c r="BN222" s="99"/>
+      <c r="BO222" s="100"/>
+      <c r="BP222" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ222" s="118"/>
-      <c r="BR222" s="118"/>
-      <c r="BS222" s="118"/>
-      <c r="BT222" s="118"/>
-      <c r="BU222" s="118"/>
-      <c r="BV222" s="118"/>
-      <c r="BW222" s="118"/>
-      <c r="BX222" s="127"/>
+      <c r="BQ222" s="105"/>
+      <c r="BR222" s="105"/>
+      <c r="BS222" s="105"/>
+      <c r="BT222" s="105"/>
+      <c r="BU222" s="105"/>
+      <c r="BV222" s="105"/>
+      <c r="BW222" s="105"/>
+      <c r="BX222" s="120"/>
       <c r="BY222" s="52"/>
       <c r="BZ222" s="52"/>
     </row>
@@ -25063,51 +25063,51 @@
       <c r="AJ225" s="4"/>
       <c r="AK225" s="4"/>
       <c r="AL225" s="53"/>
-      <c r="AM225" s="113" t="s">
+      <c r="AM225" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AN225" s="114"/>
-      <c r="AO225" s="113" t="s">
+      <c r="AN225" s="115"/>
+      <c r="AO225" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AP225" s="109"/>
-      <c r="AQ225" s="109"/>
-      <c r="AR225" s="109"/>
-      <c r="AS225" s="109"/>
-      <c r="AT225" s="109"/>
-      <c r="AU225" s="116"/>
-      <c r="AV225" s="113" t="s">
+      <c r="AP225" s="96"/>
+      <c r="AQ225" s="96"/>
+      <c r="AR225" s="96"/>
+      <c r="AS225" s="96"/>
+      <c r="AT225" s="96"/>
+      <c r="AU225" s="94"/>
+      <c r="AV225" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AW225" s="109"/>
-      <c r="AX225" s="109"/>
-      <c r="AY225" s="109"/>
-      <c r="AZ225" s="116"/>
-      <c r="BA225" s="113" t="s">
+      <c r="AW225" s="96"/>
+      <c r="AX225" s="96"/>
+      <c r="AY225" s="96"/>
+      <c r="AZ225" s="94"/>
+      <c r="BA225" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="BB225" s="109"/>
-      <c r="BC225" s="109"/>
-      <c r="BD225" s="109"/>
-      <c r="BE225" s="109"/>
-      <c r="BF225" s="109"/>
-      <c r="BG225" s="109"/>
-      <c r="BH225" s="109"/>
-      <c r="BI225" s="109"/>
-      <c r="BJ225" s="109"/>
-      <c r="BK225" s="109"/>
-      <c r="BL225" s="109"/>
-      <c r="BM225" s="109"/>
-      <c r="BN225" s="109"/>
-      <c r="BO225" s="109"/>
-      <c r="BP225" s="109"/>
-      <c r="BQ225" s="109"/>
-      <c r="BR225" s="109"/>
-      <c r="BS225" s="109"/>
-      <c r="BT225" s="109"/>
-      <c r="BU225" s="109"/>
-      <c r="BV225" s="109"/>
-      <c r="BW225" s="114"/>
+      <c r="BB225" s="96"/>
+      <c r="BC225" s="96"/>
+      <c r="BD225" s="96"/>
+      <c r="BE225" s="96"/>
+      <c r="BF225" s="96"/>
+      <c r="BG225" s="96"/>
+      <c r="BH225" s="96"/>
+      <c r="BI225" s="96"/>
+      <c r="BJ225" s="96"/>
+      <c r="BK225" s="96"/>
+      <c r="BL225" s="96"/>
+      <c r="BM225" s="96"/>
+      <c r="BN225" s="96"/>
+      <c r="BO225" s="96"/>
+      <c r="BP225" s="96"/>
+      <c r="BQ225" s="96"/>
+      <c r="BR225" s="96"/>
+      <c r="BS225" s="96"/>
+      <c r="BT225" s="96"/>
+      <c r="BU225" s="96"/>
+      <c r="BV225" s="96"/>
+      <c r="BW225" s="115"/>
       <c r="BX225" s="4"/>
       <c r="BY225" s="4"/>
       <c r="BZ225" s="4"/>
@@ -25151,43 +25151,43 @@
       <c r="AJ226" s="4"/>
       <c r="AK226" s="4"/>
       <c r="AL226" s="53"/>
-      <c r="AM226" s="101"/>
-      <c r="AN226" s="102"/>
-      <c r="AO226" s="101"/>
-      <c r="AP226" s="101"/>
-      <c r="AQ226" s="101"/>
-      <c r="AR226" s="101"/>
-      <c r="AS226" s="101"/>
-      <c r="AT226" s="101"/>
-      <c r="AU226" s="120"/>
-      <c r="AV226" s="101"/>
-      <c r="AW226" s="101"/>
-      <c r="AX226" s="101"/>
-      <c r="AY226" s="101"/>
-      <c r="AZ226" s="120"/>
-      <c r="BA226" s="101"/>
-      <c r="BB226" s="101"/>
-      <c r="BC226" s="101"/>
-      <c r="BD226" s="101"/>
-      <c r="BE226" s="101"/>
-      <c r="BF226" s="101"/>
-      <c r="BG226" s="101"/>
-      <c r="BH226" s="101"/>
-      <c r="BI226" s="101"/>
-      <c r="BJ226" s="101"/>
-      <c r="BK226" s="101"/>
-      <c r="BL226" s="101"/>
-      <c r="BM226" s="101"/>
-      <c r="BN226" s="101"/>
-      <c r="BO226" s="101"/>
-      <c r="BP226" s="101"/>
-      <c r="BQ226" s="101"/>
-      <c r="BR226" s="101"/>
-      <c r="BS226" s="101"/>
-      <c r="BT226" s="101"/>
-      <c r="BU226" s="101"/>
-      <c r="BV226" s="101"/>
-      <c r="BW226" s="102"/>
+      <c r="AM226" s="108"/>
+      <c r="AN226" s="116"/>
+      <c r="AO226" s="108"/>
+      <c r="AP226" s="108"/>
+      <c r="AQ226" s="108"/>
+      <c r="AR226" s="108"/>
+      <c r="AS226" s="108"/>
+      <c r="AT226" s="108"/>
+      <c r="AU226" s="109"/>
+      <c r="AV226" s="108"/>
+      <c r="AW226" s="108"/>
+      <c r="AX226" s="108"/>
+      <c r="AY226" s="108"/>
+      <c r="AZ226" s="109"/>
+      <c r="BA226" s="108"/>
+      <c r="BB226" s="108"/>
+      <c r="BC226" s="108"/>
+      <c r="BD226" s="108"/>
+      <c r="BE226" s="108"/>
+      <c r="BF226" s="108"/>
+      <c r="BG226" s="108"/>
+      <c r="BH226" s="108"/>
+      <c r="BI226" s="108"/>
+      <c r="BJ226" s="108"/>
+      <c r="BK226" s="108"/>
+      <c r="BL226" s="108"/>
+      <c r="BM226" s="108"/>
+      <c r="BN226" s="108"/>
+      <c r="BO226" s="108"/>
+      <c r="BP226" s="108"/>
+      <c r="BQ226" s="108"/>
+      <c r="BR226" s="108"/>
+      <c r="BS226" s="108"/>
+      <c r="BT226" s="108"/>
+      <c r="BU226" s="108"/>
+      <c r="BV226" s="108"/>
+      <c r="BW226" s="116"/>
       <c r="BX226" s="4"/>
       <c r="BY226" s="4"/>
       <c r="BZ226" s="4"/>
@@ -25231,10 +25231,10 @@
       <c r="AJ227" s="4"/>
       <c r="AK227" s="4"/>
       <c r="AL227" s="53"/>
-      <c r="AM227" s="115" t="s">
+      <c r="AM227" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AN227" s="116"/>
+      <c r="AN227" s="94"/>
       <c r="AO227" s="59" t="s">
         <v>89</v>
       </c>
@@ -25641,8 +25641,8 @@
       <c r="AJ232" s="4"/>
       <c r="AK232" s="4"/>
       <c r="AL232" s="53"/>
-      <c r="AM232" s="148"/>
-      <c r="AN232" s="109"/>
+      <c r="AM232" s="95"/>
+      <c r="AN232" s="96"/>
       <c r="AO232" s="66"/>
       <c r="AP232" s="33"/>
       <c r="AQ232" s="33"/>
@@ -28963,190 +28963,190 @@
       <c r="BZ273" s="4"/>
     </row>
     <row r="274" spans="1:78" ht="17.25">
-      <c r="A274" s="136" t="s">
+      <c r="A274" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B274" s="118"/>
-      <c r="C274" s="118"/>
-      <c r="D274" s="118"/>
-      <c r="E274" s="127"/>
-      <c r="F274" s="129" t="s">
+      <c r="B274" s="105"/>
+      <c r="C274" s="105"/>
+      <c r="D274" s="105"/>
+      <c r="E274" s="120"/>
+      <c r="F274" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G274" s="118"/>
-      <c r="H274" s="118"/>
-      <c r="I274" s="118"/>
-      <c r="J274" s="118"/>
-      <c r="K274" s="118"/>
-      <c r="L274" s="118"/>
-      <c r="M274" s="118"/>
-      <c r="N274" s="118"/>
-      <c r="O274" s="118"/>
-      <c r="P274" s="118"/>
-      <c r="Q274" s="118"/>
-      <c r="R274" s="118"/>
-      <c r="S274" s="118"/>
-      <c r="T274" s="118"/>
-      <c r="U274" s="118"/>
-      <c r="V274" s="118"/>
-      <c r="W274" s="118"/>
-      <c r="X274" s="118"/>
-      <c r="Y274" s="118"/>
-      <c r="Z274" s="118"/>
-      <c r="AA274" s="118"/>
-      <c r="AB274" s="118"/>
-      <c r="AC274" s="118"/>
-      <c r="AD274" s="118"/>
-      <c r="AE274" s="118"/>
-      <c r="AF274" s="118"/>
-      <c r="AG274" s="118"/>
-      <c r="AH274" s="118"/>
-      <c r="AI274" s="118"/>
-      <c r="AJ274" s="118"/>
-      <c r="AK274" s="118"/>
-      <c r="AL274" s="118"/>
-      <c r="AM274" s="118"/>
-      <c r="AN274" s="118"/>
-      <c r="AO274" s="118"/>
-      <c r="AP274" s="118"/>
-      <c r="AQ274" s="118"/>
-      <c r="AR274" s="118"/>
-      <c r="AS274" s="118"/>
-      <c r="AT274" s="118"/>
-      <c r="AU274" s="118"/>
-      <c r="AV274" s="119"/>
-      <c r="AW274" s="117" t="s">
+      <c r="G274" s="105"/>
+      <c r="H274" s="105"/>
+      <c r="I274" s="105"/>
+      <c r="J274" s="105"/>
+      <c r="K274" s="105"/>
+      <c r="L274" s="105"/>
+      <c r="M274" s="105"/>
+      <c r="N274" s="105"/>
+      <c r="O274" s="105"/>
+      <c r="P274" s="105"/>
+      <c r="Q274" s="105"/>
+      <c r="R274" s="105"/>
+      <c r="S274" s="105"/>
+      <c r="T274" s="105"/>
+      <c r="U274" s="105"/>
+      <c r="V274" s="105"/>
+      <c r="W274" s="105"/>
+      <c r="X274" s="105"/>
+      <c r="Y274" s="105"/>
+      <c r="Z274" s="105"/>
+      <c r="AA274" s="105"/>
+      <c r="AB274" s="105"/>
+      <c r="AC274" s="105"/>
+      <c r="AD274" s="105"/>
+      <c r="AE274" s="105"/>
+      <c r="AF274" s="105"/>
+      <c r="AG274" s="105"/>
+      <c r="AH274" s="105"/>
+      <c r="AI274" s="105"/>
+      <c r="AJ274" s="105"/>
+      <c r="AK274" s="105"/>
+      <c r="AL274" s="105"/>
+      <c r="AM274" s="105"/>
+      <c r="AN274" s="105"/>
+      <c r="AO274" s="105"/>
+      <c r="AP274" s="105"/>
+      <c r="AQ274" s="105"/>
+      <c r="AR274" s="105"/>
+      <c r="AS274" s="105"/>
+      <c r="AT274" s="105"/>
+      <c r="AU274" s="105"/>
+      <c r="AV274" s="106"/>
+      <c r="AW274" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AX274" s="118"/>
-      <c r="AY274" s="118"/>
-      <c r="AZ274" s="118"/>
-      <c r="BA274" s="119"/>
-      <c r="BB274" s="93" t="s">
+      <c r="AX274" s="105"/>
+      <c r="AY274" s="105"/>
+      <c r="AZ274" s="105"/>
+      <c r="BA274" s="106"/>
+      <c r="BB274" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="BC274" s="94"/>
-      <c r="BD274" s="94"/>
-      <c r="BE274" s="94"/>
-      <c r="BF274" s="94"/>
-      <c r="BG274" s="94"/>
-      <c r="BH274" s="94"/>
-      <c r="BI274" s="94"/>
-      <c r="BJ274" s="95"/>
-      <c r="BK274" s="117" t="s">
+      <c r="BC274" s="102"/>
+      <c r="BD274" s="102"/>
+      <c r="BE274" s="102"/>
+      <c r="BF274" s="102"/>
+      <c r="BG274" s="102"/>
+      <c r="BH274" s="102"/>
+      <c r="BI274" s="102"/>
+      <c r="BJ274" s="103"/>
+      <c r="BK274" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="BL274" s="118"/>
-      <c r="BM274" s="118"/>
-      <c r="BN274" s="118"/>
-      <c r="BO274" s="119"/>
-      <c r="BP274" s="126" t="s">
+      <c r="BL274" s="105"/>
+      <c r="BM274" s="105"/>
+      <c r="BN274" s="105"/>
+      <c r="BO274" s="106"/>
+      <c r="BP274" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ274" s="118"/>
-      <c r="BR274" s="118"/>
-      <c r="BS274" s="118"/>
-      <c r="BT274" s="118"/>
-      <c r="BU274" s="118"/>
-      <c r="BV274" s="118"/>
-      <c r="BW274" s="118"/>
-      <c r="BX274" s="127"/>
+      <c r="BQ274" s="105"/>
+      <c r="BR274" s="105"/>
+      <c r="BS274" s="105"/>
+      <c r="BT274" s="105"/>
+      <c r="BU274" s="105"/>
+      <c r="BV274" s="105"/>
+      <c r="BW274" s="105"/>
+      <c r="BX274" s="120"/>
       <c r="BY274" s="52"/>
       <c r="BZ274" s="52"/>
     </row>
     <row r="275" spans="1:78" ht="18">
-      <c r="A275" s="137" t="s">
+      <c r="A275" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B275" s="104"/>
-      <c r="C275" s="104"/>
-      <c r="D275" s="104"/>
-      <c r="E275" s="138"/>
-      <c r="F275" s="107" t="s">
+      <c r="B275" s="99"/>
+      <c r="C275" s="99"/>
+      <c r="D275" s="99"/>
+      <c r="E275" s="122"/>
+      <c r="F275" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="G275" s="104"/>
-      <c r="H275" s="104"/>
-      <c r="I275" s="104"/>
-      <c r="J275" s="104"/>
-      <c r="K275" s="104"/>
-      <c r="L275" s="104"/>
-      <c r="M275" s="104"/>
-      <c r="N275" s="104"/>
-      <c r="O275" s="104"/>
-      <c r="P275" s="104"/>
-      <c r="Q275" s="104"/>
-      <c r="R275" s="104"/>
-      <c r="S275" s="104"/>
-      <c r="T275" s="104"/>
-      <c r="U275" s="104"/>
-      <c r="V275" s="104"/>
-      <c r="W275" s="104"/>
-      <c r="X275" s="104"/>
-      <c r="Y275" s="106"/>
-      <c r="Z275" s="105" t="s">
+      <c r="G275" s="99"/>
+      <c r="H275" s="99"/>
+      <c r="I275" s="99"/>
+      <c r="J275" s="99"/>
+      <c r="K275" s="99"/>
+      <c r="L275" s="99"/>
+      <c r="M275" s="99"/>
+      <c r="N275" s="99"/>
+      <c r="O275" s="99"/>
+      <c r="P275" s="99"/>
+      <c r="Q275" s="99"/>
+      <c r="R275" s="99"/>
+      <c r="S275" s="99"/>
+      <c r="T275" s="99"/>
+      <c r="U275" s="99"/>
+      <c r="V275" s="99"/>
+      <c r="W275" s="99"/>
+      <c r="X275" s="99"/>
+      <c r="Y275" s="100"/>
+      <c r="Z275" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AA275" s="104"/>
-      <c r="AB275" s="104"/>
-      <c r="AC275" s="104"/>
-      <c r="AD275" s="106"/>
-      <c r="AE275" s="107" t="s">
+      <c r="AA275" s="99"/>
+      <c r="AB275" s="99"/>
+      <c r="AC275" s="99"/>
+      <c r="AD275" s="100"/>
+      <c r="AE275" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="AF275" s="104"/>
-      <c r="AG275" s="104"/>
-      <c r="AH275" s="104"/>
-      <c r="AI275" s="104"/>
-      <c r="AJ275" s="104"/>
-      <c r="AK275" s="104"/>
-      <c r="AL275" s="104"/>
-      <c r="AM275" s="104"/>
-      <c r="AN275" s="104"/>
-      <c r="AO275" s="104"/>
-      <c r="AP275" s="104"/>
-      <c r="AQ275" s="104"/>
-      <c r="AR275" s="104"/>
-      <c r="AS275" s="104"/>
-      <c r="AT275" s="104"/>
-      <c r="AU275" s="104"/>
-      <c r="AV275" s="106"/>
-      <c r="AW275" s="105" t="s">
+      <c r="AF275" s="99"/>
+      <c r="AG275" s="99"/>
+      <c r="AH275" s="99"/>
+      <c r="AI275" s="99"/>
+      <c r="AJ275" s="99"/>
+      <c r="AK275" s="99"/>
+      <c r="AL275" s="99"/>
+      <c r="AM275" s="99"/>
+      <c r="AN275" s="99"/>
+      <c r="AO275" s="99"/>
+      <c r="AP275" s="99"/>
+      <c r="AQ275" s="99"/>
+      <c r="AR275" s="99"/>
+      <c r="AS275" s="99"/>
+      <c r="AT275" s="99"/>
+      <c r="AU275" s="99"/>
+      <c r="AV275" s="100"/>
+      <c r="AW275" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="AX275" s="104"/>
-      <c r="AY275" s="104"/>
-      <c r="AZ275" s="104"/>
-      <c r="BA275" s="106"/>
-      <c r="BB275" s="103" t="s">
+      <c r="AX275" s="99"/>
+      <c r="AY275" s="99"/>
+      <c r="AZ275" s="99"/>
+      <c r="BA275" s="100"/>
+      <c r="BB275" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="BC275" s="104"/>
-      <c r="BD275" s="104"/>
-      <c r="BE275" s="104"/>
-      <c r="BF275" s="104"/>
-      <c r="BG275" s="104"/>
-      <c r="BH275" s="104"/>
-      <c r="BI275" s="104"/>
-      <c r="BJ275" s="104"/>
-      <c r="BK275" s="139" t="s">
+      <c r="BC275" s="99"/>
+      <c r="BD275" s="99"/>
+      <c r="BE275" s="99"/>
+      <c r="BF275" s="99"/>
+      <c r="BG275" s="99"/>
+      <c r="BH275" s="99"/>
+      <c r="BI275" s="99"/>
+      <c r="BJ275" s="99"/>
+      <c r="BK275" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="BL275" s="94"/>
-      <c r="BM275" s="94"/>
-      <c r="BN275" s="94"/>
-      <c r="BO275" s="95"/>
-      <c r="BP275" s="126" t="s">
+      <c r="BL275" s="102"/>
+      <c r="BM275" s="102"/>
+      <c r="BN275" s="102"/>
+      <c r="BO275" s="103"/>
+      <c r="BP275" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="BQ275" s="118"/>
-      <c r="BR275" s="118"/>
-      <c r="BS275" s="118"/>
-      <c r="BT275" s="118"/>
-      <c r="BU275" s="118"/>
-      <c r="BV275" s="118"/>
-      <c r="BW275" s="118"/>
-      <c r="BX275" s="127"/>
+      <c r="BQ275" s="105"/>
+      <c r="BR275" s="105"/>
+      <c r="BS275" s="105"/>
+      <c r="BT275" s="105"/>
+      <c r="BU275" s="105"/>
+      <c r="BV275" s="105"/>
+      <c r="BW275" s="105"/>
+      <c r="BX275" s="120"/>
       <c r="BY275" s="52"/>
       <c r="BZ275" s="52"/>
     </row>
@@ -29349,51 +29349,51 @@
       <c r="AJ278" s="4"/>
       <c r="AK278" s="4"/>
       <c r="AL278" s="53"/>
-      <c r="AM278" s="113" t="s">
+      <c r="AM278" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AN278" s="114"/>
-      <c r="AO278" s="113" t="s">
+      <c r="AN278" s="115"/>
+      <c r="AO278" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AP278" s="109"/>
-      <c r="AQ278" s="109"/>
-      <c r="AR278" s="109"/>
-      <c r="AS278" s="109"/>
-      <c r="AT278" s="109"/>
-      <c r="AU278" s="116"/>
-      <c r="AV278" s="113" t="s">
+      <c r="AP278" s="96"/>
+      <c r="AQ278" s="96"/>
+      <c r="AR278" s="96"/>
+      <c r="AS278" s="96"/>
+      <c r="AT278" s="96"/>
+      <c r="AU278" s="94"/>
+      <c r="AV278" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="AW278" s="109"/>
-      <c r="AX278" s="109"/>
-      <c r="AY278" s="109"/>
-      <c r="AZ278" s="116"/>
-      <c r="BA278" s="113" t="s">
+      <c r="AW278" s="96"/>
+      <c r="AX278" s="96"/>
+      <c r="AY278" s="96"/>
+      <c r="AZ278" s="94"/>
+      <c r="BA278" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="BB278" s="109"/>
-      <c r="BC278" s="109"/>
-      <c r="BD278" s="109"/>
-      <c r="BE278" s="109"/>
-      <c r="BF278" s="109"/>
-      <c r="BG278" s="109"/>
-      <c r="BH278" s="109"/>
-      <c r="BI278" s="109"/>
-      <c r="BJ278" s="109"/>
-      <c r="BK278" s="109"/>
-      <c r="BL278" s="109"/>
-      <c r="BM278" s="109"/>
-      <c r="BN278" s="109"/>
-      <c r="BO278" s="109"/>
-      <c r="BP278" s="109"/>
-      <c r="BQ278" s="109"/>
-      <c r="BR278" s="109"/>
-      <c r="BS278" s="109"/>
-      <c r="BT278" s="109"/>
-      <c r="BU278" s="109"/>
-      <c r="BV278" s="109"/>
-      <c r="BW278" s="114"/>
+      <c r="BB278" s="96"/>
+      <c r="BC278" s="96"/>
+      <c r="BD278" s="96"/>
+      <c r="BE278" s="96"/>
+      <c r="BF278" s="96"/>
+      <c r="BG278" s="96"/>
+      <c r="BH278" s="96"/>
+      <c r="BI278" s="96"/>
+      <c r="BJ278" s="96"/>
+      <c r="BK278" s="96"/>
+      <c r="BL278" s="96"/>
+      <c r="BM278" s="96"/>
+      <c r="BN278" s="96"/>
+      <c r="BO278" s="96"/>
+      <c r="BP278" s="96"/>
+      <c r="BQ278" s="96"/>
+      <c r="BR278" s="96"/>
+      <c r="BS278" s="96"/>
+      <c r="BT278" s="96"/>
+      <c r="BU278" s="96"/>
+      <c r="BV278" s="96"/>
+      <c r="BW278" s="115"/>
       <c r="BX278" s="4"/>
       <c r="BY278" s="4"/>
       <c r="BZ278" s="4"/>
@@ -29437,43 +29437,43 @@
       <c r="AJ279" s="4"/>
       <c r="AK279" s="4"/>
       <c r="AL279" s="53"/>
-      <c r="AM279" s="101"/>
-      <c r="AN279" s="102"/>
-      <c r="AO279" s="101"/>
-      <c r="AP279" s="101"/>
-      <c r="AQ279" s="101"/>
-      <c r="AR279" s="101"/>
-      <c r="AS279" s="101"/>
-      <c r="AT279" s="101"/>
-      <c r="AU279" s="120"/>
-      <c r="AV279" s="101"/>
-      <c r="AW279" s="101"/>
-      <c r="AX279" s="101"/>
-      <c r="AY279" s="101"/>
-      <c r="AZ279" s="120"/>
-      <c r="BA279" s="101"/>
-      <c r="BB279" s="101"/>
-      <c r="BC279" s="101"/>
-      <c r="BD279" s="101"/>
-      <c r="BE279" s="101"/>
-      <c r="BF279" s="101"/>
-      <c r="BG279" s="101"/>
-      <c r="BH279" s="101"/>
-      <c r="BI279" s="101"/>
-      <c r="BJ279" s="101"/>
-      <c r="BK279" s="101"/>
-      <c r="BL279" s="101"/>
-      <c r="BM279" s="101"/>
-      <c r="BN279" s="101"/>
-      <c r="BO279" s="101"/>
-      <c r="BP279" s="101"/>
-      <c r="BQ279" s="101"/>
-      <c r="BR279" s="101"/>
-      <c r="BS279" s="101"/>
-      <c r="BT279" s="101"/>
-      <c r="BU279" s="101"/>
-      <c r="BV279" s="101"/>
-      <c r="BW279" s="102"/>
+      <c r="AM279" s="108"/>
+      <c r="AN279" s="116"/>
+      <c r="AO279" s="108"/>
+      <c r="AP279" s="108"/>
+      <c r="AQ279" s="108"/>
+      <c r="AR279" s="108"/>
+      <c r="AS279" s="108"/>
+      <c r="AT279" s="108"/>
+      <c r="AU279" s="109"/>
+      <c r="AV279" s="108"/>
+      <c r="AW279" s="108"/>
+      <c r="AX279" s="108"/>
+      <c r="AY279" s="108"/>
+      <c r="AZ279" s="109"/>
+      <c r="BA279" s="108"/>
+      <c r="BB279" s="108"/>
+      <c r="BC279" s="108"/>
+      <c r="BD279" s="108"/>
+      <c r="BE279" s="108"/>
+      <c r="BF279" s="108"/>
+      <c r="BG279" s="108"/>
+      <c r="BH279" s="108"/>
+      <c r="BI279" s="108"/>
+      <c r="BJ279" s="108"/>
+      <c r="BK279" s="108"/>
+      <c r="BL279" s="108"/>
+      <c r="BM279" s="108"/>
+      <c r="BN279" s="108"/>
+      <c r="BO279" s="108"/>
+      <c r="BP279" s="108"/>
+      <c r="BQ279" s="108"/>
+      <c r="BR279" s="108"/>
+      <c r="BS279" s="108"/>
+      <c r="BT279" s="108"/>
+      <c r="BU279" s="108"/>
+      <c r="BV279" s="108"/>
+      <c r="BW279" s="116"/>
       <c r="BX279" s="4"/>
       <c r="BY279" s="4"/>
       <c r="BZ279" s="4"/>
@@ -29517,10 +29517,10 @@
       <c r="AJ280" s="4"/>
       <c r="AK280" s="4"/>
       <c r="AL280" s="53"/>
-      <c r="AM280" s="115" t="s">
+      <c r="AM280" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AN280" s="116"/>
+      <c r="AN280" s="94"/>
       <c r="AO280" s="59" t="s">
         <v>89</v>
       </c>
@@ -29929,8 +29929,8 @@
       <c r="AJ285" s="4"/>
       <c r="AK285" s="4"/>
       <c r="AL285" s="53"/>
-      <c r="AM285" s="148"/>
-      <c r="AN285" s="109"/>
+      <c r="AM285" s="95"/>
+      <c r="AN285" s="96"/>
       <c r="AO285" s="66"/>
       <c r="AP285" s="33"/>
       <c r="AQ285" s="33"/>
@@ -33252,26 +33252,123 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AM73:AN73"/>
-    <mergeCell ref="AM70:AN70"/>
-    <mergeCell ref="AW169:BA169"/>
-    <mergeCell ref="BB168:BJ168"/>
-    <mergeCell ref="AW168:BA168"/>
-    <mergeCell ref="AO66:AU67"/>
-    <mergeCell ref="AM68:AN68"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="AV119:AZ120"/>
-    <mergeCell ref="AO119:AU120"/>
-    <mergeCell ref="BB116:BJ116"/>
-    <mergeCell ref="AW116:BA116"/>
-    <mergeCell ref="AW115:BA115"/>
-    <mergeCell ref="BB115:BJ115"/>
-    <mergeCell ref="AM123:AN123"/>
-    <mergeCell ref="AM126:AN126"/>
-    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB169:BJ169"/>
+    <mergeCell ref="BK169:BO169"/>
+    <mergeCell ref="AE169:AV169"/>
+    <mergeCell ref="W38:AA39"/>
+    <mergeCell ref="W43:AA44"/>
+    <mergeCell ref="K45:T46"/>
+    <mergeCell ref="W45:AG46"/>
+    <mergeCell ref="BB63:BJ63"/>
+    <mergeCell ref="BA66:BW67"/>
+    <mergeCell ref="BK63:BO63"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BK115:BO115"/>
+    <mergeCell ref="BK168:BO168"/>
+    <mergeCell ref="BA119:BW120"/>
+    <mergeCell ref="AV66:AZ67"/>
+    <mergeCell ref="BK116:BO116"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="K43:T44"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="W35:AA36"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AB35:AG36"/>
+    <mergeCell ref="AB43:AG44"/>
+    <mergeCell ref="AB38:AG39"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="BP168:BX168"/>
+    <mergeCell ref="F169:Y169"/>
+    <mergeCell ref="AO172:AU173"/>
+    <mergeCell ref="AM176:AN176"/>
+    <mergeCell ref="AM174:AN174"/>
+    <mergeCell ref="AM172:AN173"/>
+    <mergeCell ref="AV172:AZ173"/>
+    <mergeCell ref="F168:AV168"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="F63:Y63"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP63:BX63"/>
+    <mergeCell ref="BP62:BX62"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F62:AV62"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="F275:Y275"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="BP274:BX274"/>
+    <mergeCell ref="BP275:BX275"/>
+    <mergeCell ref="AO278:AU279"/>
+    <mergeCell ref="BK274:BO274"/>
+    <mergeCell ref="Z169:AD169"/>
+    <mergeCell ref="BP169:BX169"/>
+    <mergeCell ref="BA172:BW173"/>
+    <mergeCell ref="AV278:AZ279"/>
+    <mergeCell ref="BA278:BW279"/>
+    <mergeCell ref="Z275:AD275"/>
+    <mergeCell ref="AE275:AV275"/>
+    <mergeCell ref="BB275:BJ275"/>
+    <mergeCell ref="BK275:BO275"/>
+    <mergeCell ref="F274:AV274"/>
+    <mergeCell ref="AW274:BA274"/>
+    <mergeCell ref="BB274:BJ274"/>
+    <mergeCell ref="AW275:BA275"/>
+    <mergeCell ref="BP222:BX222"/>
+    <mergeCell ref="BK222:BO222"/>
+    <mergeCell ref="F222:Y222"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="BB221:BJ221"/>
+    <mergeCell ref="BK221:BO221"/>
+    <mergeCell ref="BP221:BX221"/>
+    <mergeCell ref="AW221:BA221"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F116:Y116"/>
+    <mergeCell ref="K35:T36"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="AW222:BA222"/>
+    <mergeCell ref="BB222:BJ222"/>
+    <mergeCell ref="AE63:AV63"/>
+    <mergeCell ref="AM61:AN61"/>
+    <mergeCell ref="C67:H68"/>
+    <mergeCell ref="G74:N75"/>
+    <mergeCell ref="AM119:AN120"/>
+    <mergeCell ref="BP116:BX116"/>
+    <mergeCell ref="BP115:BX115"/>
+    <mergeCell ref="AM66:AN67"/>
+    <mergeCell ref="AW63:BA63"/>
+    <mergeCell ref="BK62:BO62"/>
+    <mergeCell ref="AW62:BA62"/>
+    <mergeCell ref="BB62:BJ62"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="AM278:AN279"/>
@@ -33296,123 +33393,26 @@
     <mergeCell ref="K38:T39"/>
     <mergeCell ref="AM34:AN34"/>
     <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="BB221:BJ221"/>
-    <mergeCell ref="BK221:BO221"/>
-    <mergeCell ref="BP221:BX221"/>
-    <mergeCell ref="AW221:BA221"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F116:Y116"/>
-    <mergeCell ref="K35:T36"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="AW222:BA222"/>
-    <mergeCell ref="BB222:BJ222"/>
-    <mergeCell ref="AE63:AV63"/>
-    <mergeCell ref="AM61:AN61"/>
-    <mergeCell ref="C67:H68"/>
-    <mergeCell ref="G74:N75"/>
-    <mergeCell ref="AM119:AN120"/>
-    <mergeCell ref="BP116:BX116"/>
-    <mergeCell ref="BP115:BX115"/>
-    <mergeCell ref="AM66:AN67"/>
-    <mergeCell ref="AW63:BA63"/>
-    <mergeCell ref="BK62:BO62"/>
-    <mergeCell ref="AW62:BA62"/>
-    <mergeCell ref="BB62:BJ62"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="F275:Y275"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="BP274:BX274"/>
-    <mergeCell ref="BP275:BX275"/>
-    <mergeCell ref="AO278:AU279"/>
-    <mergeCell ref="BK274:BO274"/>
-    <mergeCell ref="Z169:AD169"/>
-    <mergeCell ref="BP169:BX169"/>
-    <mergeCell ref="BA172:BW173"/>
-    <mergeCell ref="AV278:AZ279"/>
-    <mergeCell ref="BA278:BW279"/>
-    <mergeCell ref="Z275:AD275"/>
-    <mergeCell ref="AE275:AV275"/>
-    <mergeCell ref="BB275:BJ275"/>
-    <mergeCell ref="BK275:BO275"/>
-    <mergeCell ref="F274:AV274"/>
-    <mergeCell ref="AW274:BA274"/>
-    <mergeCell ref="BB274:BJ274"/>
-    <mergeCell ref="AW275:BA275"/>
-    <mergeCell ref="BP222:BX222"/>
-    <mergeCell ref="BK222:BO222"/>
-    <mergeCell ref="F222:Y222"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="BP168:BX168"/>
-    <mergeCell ref="F169:Y169"/>
-    <mergeCell ref="AO172:AU173"/>
-    <mergeCell ref="AM176:AN176"/>
-    <mergeCell ref="AM174:AN174"/>
-    <mergeCell ref="AM172:AN173"/>
-    <mergeCell ref="AV172:AZ173"/>
-    <mergeCell ref="F168:AV168"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="F63:Y63"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP63:BX63"/>
-    <mergeCell ref="BP62:BX62"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F62:AV62"/>
-    <mergeCell ref="K43:T44"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="W35:AA36"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AB35:AG36"/>
-    <mergeCell ref="AB43:AG44"/>
-    <mergeCell ref="AB38:AG39"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB169:BJ169"/>
-    <mergeCell ref="BK169:BO169"/>
-    <mergeCell ref="AE169:AV169"/>
-    <mergeCell ref="W38:AA39"/>
-    <mergeCell ref="W43:AA44"/>
-    <mergeCell ref="K45:T46"/>
-    <mergeCell ref="W45:AG46"/>
-    <mergeCell ref="BB63:BJ63"/>
-    <mergeCell ref="BA66:BW67"/>
-    <mergeCell ref="BK63:BO63"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BK115:BO115"/>
-    <mergeCell ref="BK168:BO168"/>
-    <mergeCell ref="BA119:BW120"/>
-    <mergeCell ref="AV66:AZ67"/>
-    <mergeCell ref="BK116:BO116"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AM73:AN73"/>
+    <mergeCell ref="AM70:AN70"/>
+    <mergeCell ref="AW169:BA169"/>
+    <mergeCell ref="BB168:BJ168"/>
+    <mergeCell ref="AW168:BA168"/>
+    <mergeCell ref="AO66:AU67"/>
+    <mergeCell ref="AM68:AN68"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="AV119:AZ120"/>
+    <mergeCell ref="AO119:AU120"/>
+    <mergeCell ref="BB116:BJ116"/>
+    <mergeCell ref="AW116:BA116"/>
+    <mergeCell ref="AW115:BA115"/>
+    <mergeCell ref="BB115:BJ115"/>
+    <mergeCell ref="AM123:AN123"/>
+    <mergeCell ref="AM126:AN126"/>
+    <mergeCell ref="AM53:AN53"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA46037-51DB-4DBC-968F-F8CEE2E3EDE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04505EE6-1DC6-4CDD-BFA6-E6247E694FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,71 +1308,75 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1385,40 +1389,36 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2109,7 +2109,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="21507450"/>
+          <a:off x="0" y="21570438"/>
           <a:ext cx="7524750" cy="5524500"/>
           <a:chOff x="304800" y="156050"/>
           <a:chExt cx="7743829" cy="5505962"/>
@@ -2263,7 +2263,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="31156275"/>
+          <a:off x="0" y="31389484"/>
           <a:ext cx="7524750" cy="5629275"/>
           <a:chOff x="152400" y="152400"/>
           <a:chExt cx="9448800" cy="4988782"/>
@@ -2384,7 +2384,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="76200" y="40890825"/>
+          <a:off x="76200" y="41294255"/>
           <a:ext cx="7181850" cy="6505575"/>
           <a:chOff x="152400" y="152400"/>
           <a:chExt cx="6886573" cy="6486526"/>
@@ -2505,7 +2505,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="50625375"/>
+          <a:off x="0" y="51202406"/>
           <a:ext cx="7477125" cy="6791325"/>
           <a:chOff x="152400" y="152400"/>
           <a:chExt cx="8505823" cy="6772273"/>
@@ -2899,8 +2899,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="123293" y="981075"/>
-          <a:ext cx="6815713" cy="4210050"/>
+          <a:off x="123293" y="983226"/>
+          <a:ext cx="6805266" cy="4287786"/>
           <a:chOff x="2505364" y="1225142"/>
           <a:chExt cx="13100713" cy="5591621"/>
         </a:xfrm>
@@ -5727,8 +5727,8 @@
   </sheetPr>
   <dimension ref="A1:CR326"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BB3" sqref="BB3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="CC40" sqref="CC40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5738,94 +5738,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="133" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105"/>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="132" t="s">
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="119"/>
+      <c r="AW1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="105"/>
-      <c r="AY1" s="105"/>
-      <c r="AZ1" s="105"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="101" t="s">
+      <c r="AX1" s="118"/>
+      <c r="AY1" s="118"/>
+      <c r="AZ1" s="118"/>
+      <c r="BA1" s="119"/>
+      <c r="BB1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="102"/>
-      <c r="BD1" s="102"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
-      <c r="BJ1" s="103"/>
-      <c r="BK1" s="132" t="s">
+      <c r="BC1" s="94"/>
+      <c r="BD1" s="94"/>
+      <c r="BE1" s="94"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="94"/>
+      <c r="BJ1" s="95"/>
+      <c r="BK1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="105"/>
-      <c r="BM1" s="105"/>
-      <c r="BN1" s="105"/>
-      <c r="BO1" s="106"/>
-      <c r="BP1" s="124" t="s">
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="118"/>
+      <c r="BN1" s="118"/>
+      <c r="BO1" s="119"/>
+      <c r="BP1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="105"/>
-      <c r="BR1" s="105"/>
-      <c r="BS1" s="105"/>
-      <c r="BT1" s="105"/>
-      <c r="BU1" s="105"/>
-      <c r="BV1" s="105"/>
-      <c r="BW1" s="105"/>
-      <c r="BX1" s="120"/>
+      <c r="BQ1" s="118"/>
+      <c r="BR1" s="118"/>
+      <c r="BS1" s="118"/>
+      <c r="BT1" s="118"/>
+      <c r="BU1" s="118"/>
+      <c r="BV1" s="118"/>
+      <c r="BW1" s="118"/>
+      <c r="BX1" s="127"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -5848,96 +5848,96 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="134" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="136" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="102"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="136" t="s">
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="94"/>
+      <c r="AU2" s="94"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="101" t="s">
+      <c r="AX2" s="94"/>
+      <c r="AY2" s="94"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="95"/>
+      <c r="BB2" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
-      <c r="BJ2" s="103"/>
-      <c r="BK2" s="136" t="s">
+      <c r="BC2" s="94"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="94"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="94"/>
+      <c r="BI2" s="94"/>
+      <c r="BJ2" s="95"/>
+      <c r="BK2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102"/>
-      <c r="BN2" s="102"/>
-      <c r="BO2" s="103"/>
-      <c r="BP2" s="124" t="s">
+      <c r="BL2" s="94"/>
+      <c r="BM2" s="94"/>
+      <c r="BN2" s="94"/>
+      <c r="BO2" s="95"/>
+      <c r="BP2" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="BQ2" s="105"/>
-      <c r="BR2" s="105"/>
-      <c r="BS2" s="105"/>
-      <c r="BT2" s="105"/>
-      <c r="BU2" s="105"/>
-      <c r="BV2" s="105"/>
-      <c r="BW2" s="105"/>
-      <c r="BX2" s="120"/>
+      <c r="BQ2" s="118"/>
+      <c r="BR2" s="118"/>
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="118"/>
+      <c r="BU2" s="118"/>
+      <c r="BV2" s="118"/>
+      <c r="BW2" s="118"/>
+      <c r="BX2" s="127"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -6196,51 +6196,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="137" t="s">
+      <c r="AM5" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="138"/>
-      <c r="AO5" s="144" t="s">
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="145"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="145"/>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="145"/>
-      <c r="AU5" s="138"/>
-      <c r="AV5" s="144" t="s">
+      <c r="AP5" s="98"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="98"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="145"/>
-      <c r="AX5" s="145"/>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="138"/>
-      <c r="BA5" s="144" t="s">
+      <c r="AW5" s="98"/>
+      <c r="AX5" s="98"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="121"/>
+      <c r="BA5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="145"/>
-      <c r="BC5" s="145"/>
-      <c r="BD5" s="145"/>
-      <c r="BE5" s="145"/>
-      <c r="BF5" s="145"/>
-      <c r="BG5" s="145"/>
-      <c r="BH5" s="145"/>
-      <c r="BI5" s="145"/>
-      <c r="BJ5" s="145"/>
-      <c r="BK5" s="145"/>
-      <c r="BL5" s="145"/>
-      <c r="BM5" s="145"/>
-      <c r="BN5" s="145"/>
-      <c r="BO5" s="145"/>
-      <c r="BP5" s="145"/>
-      <c r="BQ5" s="145"/>
-      <c r="BR5" s="145"/>
-      <c r="BS5" s="145"/>
-      <c r="BT5" s="145"/>
-      <c r="BU5" s="145"/>
-      <c r="BV5" s="145"/>
-      <c r="BW5" s="146"/>
+      <c r="BB5" s="98"/>
+      <c r="BC5" s="98"/>
+      <c r="BD5" s="98"/>
+      <c r="BE5" s="98"/>
+      <c r="BF5" s="98"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="98"/>
+      <c r="BJ5" s="98"/>
+      <c r="BK5" s="98"/>
+      <c r="BL5" s="98"/>
+      <c r="BM5" s="98"/>
+      <c r="BN5" s="98"/>
+      <c r="BO5" s="98"/>
+      <c r="BP5" s="98"/>
+      <c r="BQ5" s="98"/>
+      <c r="BR5" s="98"/>
+      <c r="BS5" s="98"/>
+      <c r="BT5" s="98"/>
+      <c r="BU5" s="98"/>
+      <c r="BV5" s="98"/>
+      <c r="BW5" s="99"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -6302,43 +6302,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="139"/>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="147"/>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="108"/>
-      <c r="AR6" s="108"/>
-      <c r="AS6" s="108"/>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="109"/>
-      <c r="AV6" s="147"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="AY6" s="108"/>
-      <c r="AZ6" s="109"/>
-      <c r="BA6" s="147"/>
-      <c r="BB6" s="108"/>
-      <c r="BC6" s="108"/>
-      <c r="BD6" s="108"/>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="108"/>
-      <c r="BG6" s="108"/>
-      <c r="BH6" s="108"/>
-      <c r="BI6" s="108"/>
-      <c r="BJ6" s="108"/>
-      <c r="BK6" s="108"/>
-      <c r="BL6" s="108"/>
-      <c r="BM6" s="108"/>
-      <c r="BN6" s="108"/>
-      <c r="BO6" s="108"/>
-      <c r="BP6" s="108"/>
-      <c r="BQ6" s="108"/>
-      <c r="BR6" s="108"/>
-      <c r="BS6" s="108"/>
-      <c r="BT6" s="108"/>
-      <c r="BU6" s="108"/>
-      <c r="BV6" s="108"/>
-      <c r="BW6" s="116"/>
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="101"/>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="101"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="101"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="100"/>
+      <c r="AW6" s="101"/>
+      <c r="AX6" s="101"/>
+      <c r="AY6" s="101"/>
+      <c r="AZ6" s="120"/>
+      <c r="BA6" s="100"/>
+      <c r="BB6" s="101"/>
+      <c r="BC6" s="101"/>
+      <c r="BD6" s="101"/>
+      <c r="BE6" s="101"/>
+      <c r="BF6" s="101"/>
+      <c r="BG6" s="101"/>
+      <c r="BH6" s="101"/>
+      <c r="BI6" s="101"/>
+      <c r="BJ6" s="101"/>
+      <c r="BK6" s="101"/>
+      <c r="BL6" s="101"/>
+      <c r="BM6" s="101"/>
+      <c r="BN6" s="101"/>
+      <c r="BO6" s="101"/>
+      <c r="BP6" s="101"/>
+      <c r="BQ6" s="101"/>
+      <c r="BR6" s="101"/>
+      <c r="BS6" s="101"/>
+      <c r="BT6" s="101"/>
+      <c r="BU6" s="101"/>
+      <c r="BV6" s="101"/>
+      <c r="BW6" s="102"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -6400,10 +6400,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="93" t="s">
+      <c r="AM7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="94"/>
+      <c r="AN7" s="116"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -6604,10 +6604,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="93" t="s">
+      <c r="AM9" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="94"/>
+      <c r="AN9" s="116"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -6808,10 +6808,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="93" t="s">
+      <c r="AM11" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="94"/>
+      <c r="AN11" s="116"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -6904,9 +6904,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="140"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="109"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -7011,10 +7011,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="93" t="s">
+      <c r="AM13" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="94"/>
+      <c r="AN13" s="116"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -7198,9 +7198,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="141"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="109"/>
+      <c r="AB15" s="109"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -7307,10 +7307,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="93" t="s">
+      <c r="AM16" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="94"/>
+      <c r="AN16" s="116"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -7511,10 +7511,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="93" t="s">
+      <c r="AM18" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="94"/>
+      <c r="AN18" s="116"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -7705,19 +7705,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="140"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="93" t="s">
+      <c r="AM20" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="94"/>
+      <c r="AN20" s="116"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -7903,9 +7903,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="141"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -7914,10 +7914,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="93" t="s">
+      <c r="AM22" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="94"/>
+      <c r="AN22" s="116"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -8118,10 +8118,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="93" t="s">
+      <c r="AM24" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="94"/>
+      <c r="AN24" s="116"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -8322,10 +8322,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="93" t="s">
+      <c r="AM26" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="94"/>
+      <c r="AN26" s="116"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -8418,9 +8418,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="96"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="109"/>
+      <c r="AF27" s="109"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -8525,10 +8525,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="93" t="s">
+      <c r="AM28" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="94"/>
+      <c r="AN28" s="116"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -8615,9 +8615,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="141"/>
-      <c r="AA29" s="96"/>
-      <c r="AB29" s="96"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -8724,10 +8724,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="93" t="s">
+      <c r="AM30" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="94"/>
+      <c r="AN30" s="116"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -8928,10 +8928,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="93" t="s">
+      <c r="AM32" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="94"/>
+      <c r="AN32" s="116"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -9130,10 +9130,10 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="93" t="s">
+      <c r="AM34" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="94"/>
+      <c r="AN34" s="116"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -9208,29 +9208,29 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="142"/>
-      <c r="X35" s="96"/>
-      <c r="Y35" s="96"/>
-      <c r="Z35" s="96"/>
-      <c r="AA35" s="96"/>
-      <c r="AB35" s="143"/>
-      <c r="AC35" s="96"/>
-      <c r="AD35" s="96"/>
-      <c r="AE35" s="96"/>
-      <c r="AF35" s="96"/>
-      <c r="AG35" s="96"/>
+      <c r="W35" s="124"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="125"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
@@ -9306,38 +9306,38 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
-      <c r="AC36" s="96"/>
-      <c r="AD36" s="96"/>
-      <c r="AE36" s="96"/>
-      <c r="AF36" s="96"/>
-      <c r="AG36" s="96"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="109"/>
+      <c r="AG36" s="109"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="93" t="s">
+      <c r="AM36" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="94"/>
+      <c r="AN36" s="116"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -9493,29 +9493,29 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="148"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
-      <c r="AB38" s="143"/>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="96"/>
-      <c r="AE38" s="96"/>
-      <c r="AF38" s="96"/>
-      <c r="AG38" s="96"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="125"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
+      <c r="AE38" s="109"/>
+      <c r="AF38" s="109"/>
+      <c r="AG38" s="109"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
@@ -9593,38 +9593,38 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="96"/>
-      <c r="Z39" s="96"/>
-      <c r="AA39" s="96"/>
-      <c r="AB39" s="96"/>
-      <c r="AC39" s="96"/>
-      <c r="AD39" s="96"/>
-      <c r="AE39" s="96"/>
-      <c r="AF39" s="96"/>
-      <c r="AG39" s="96"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
+      <c r="AE39" s="109"/>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="109"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="93" t="s">
+      <c r="AM39" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="AN39" s="94"/>
+      <c r="AN39" s="116"/>
       <c r="AO39" s="21" t="s">
         <v>67</v>
       </c>
@@ -9937,29 +9937,29 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="149"/>
-      <c r="X43" s="96"/>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="143"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="96"/>
-      <c r="AE43" s="96"/>
-      <c r="AF43" s="96"/>
-      <c r="AG43" s="96"/>
+      <c r="W43" s="110"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="125"/>
+      <c r="AC43" s="109"/>
+      <c r="AD43" s="109"/>
+      <c r="AE43" s="109"/>
+      <c r="AF43" s="109"/>
+      <c r="AG43" s="109"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -10037,38 +10037,38 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="96"/>
-      <c r="AC44" s="96"/>
-      <c r="AD44" s="96"/>
-      <c r="AE44" s="96"/>
-      <c r="AF44" s="96"/>
-      <c r="AG44" s="96"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="109"/>
+      <c r="AG44" s="109"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="93" t="s">
+      <c r="AM44" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="AN44" s="94"/>
+      <c r="AN44" s="116"/>
       <c r="AO44" s="21" t="s">
         <v>70</v>
       </c>
@@ -10145,29 +10145,29 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="123"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="109"/>
+      <c r="O45" s="109"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="150"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="96"/>
-      <c r="AC45" s="96"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="96"/>
-      <c r="AF45" s="96"/>
-      <c r="AG45" s="96"/>
+      <c r="W45" s="112"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="109"/>
+      <c r="AG45" s="109"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
@@ -10243,36 +10243,36 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="109"/>
+      <c r="M46" s="109"/>
+      <c r="N46" s="109"/>
+      <c r="O46" s="109"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="109"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="96"/>
-      <c r="AC46" s="96"/>
-      <c r="AD46" s="96"/>
-      <c r="AE46" s="96"/>
-      <c r="AF46" s="96"/>
-      <c r="AG46" s="96"/>
+      <c r="W46" s="109"/>
+      <c r="X46" s="109"/>
+      <c r="Y46" s="109"/>
+      <c r="Z46" s="109"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="109"/>
+      <c r="AD46" s="109"/>
+      <c r="AE46" s="109"/>
+      <c r="AF46" s="109"/>
+      <c r="AG46" s="109"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="93"/>
-      <c r="AN46" s="94"/>
+      <c r="AM46" s="115"/>
+      <c r="AN46" s="116"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -10467,10 +10467,10 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
-      <c r="AM48" s="93" t="s">
+      <c r="AM48" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="AN48" s="94"/>
+      <c r="AN48" s="116"/>
       <c r="AO48" s="47" t="s">
         <v>105</v>
       </c>
@@ -10963,10 +10963,10 @@
       <c r="AJ53" s="21"/>
       <c r="AK53" s="21"/>
       <c r="AL53" s="21"/>
-      <c r="AM53" s="111" t="s">
+      <c r="AM53" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="AN53" s="112"/>
+      <c r="AN53" s="150"/>
       <c r="AO53" s="78" t="s">
         <v>112</v>
       </c>
@@ -11750,8 +11750,8 @@
       <c r="AJ61" s="82"/>
       <c r="AK61" s="82"/>
       <c r="AL61" s="82"/>
-      <c r="AM61" s="125"/>
-      <c r="AN61" s="125"/>
+      <c r="AM61" s="140"/>
+      <c r="AN61" s="140"/>
       <c r="AO61" s="82"/>
       <c r="AP61" s="82"/>
       <c r="AQ61" s="82"/>
@@ -11810,190 +11810,190 @@
       <c r="CR61" s="21"/>
     </row>
     <row r="62" spans="1:96" ht="18" thickBot="1">
-      <c r="A62" s="119" t="s">
+      <c r="A62" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="105"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="117" t="s">
+      <c r="B62" s="118"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="105"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="105"/>
-      <c r="P62" s="105"/>
-      <c r="Q62" s="105"/>
-      <c r="R62" s="105"/>
-      <c r="S62" s="105"/>
-      <c r="T62" s="105"/>
-      <c r="U62" s="105"/>
-      <c r="V62" s="105"/>
-      <c r="W62" s="105"/>
-      <c r="X62" s="105"/>
-      <c r="Y62" s="105"/>
-      <c r="Z62" s="105"/>
-      <c r="AA62" s="105"/>
-      <c r="AB62" s="105"/>
-      <c r="AC62" s="105"/>
-      <c r="AD62" s="105"/>
-      <c r="AE62" s="105"/>
-      <c r="AF62" s="105"/>
-      <c r="AG62" s="105"/>
-      <c r="AH62" s="105"/>
-      <c r="AI62" s="105"/>
-      <c r="AJ62" s="105"/>
-      <c r="AK62" s="105"/>
-      <c r="AL62" s="105"/>
-      <c r="AM62" s="105"/>
-      <c r="AN62" s="105"/>
-      <c r="AO62" s="105"/>
-      <c r="AP62" s="105"/>
-      <c r="AQ62" s="105"/>
-      <c r="AR62" s="105"/>
-      <c r="AS62" s="105"/>
-      <c r="AT62" s="105"/>
-      <c r="AU62" s="105"/>
-      <c r="AV62" s="106"/>
-      <c r="AW62" s="104" t="s">
+      <c r="G62" s="118"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="118"/>
+      <c r="N62" s="118"/>
+      <c r="O62" s="118"/>
+      <c r="P62" s="118"/>
+      <c r="Q62" s="118"/>
+      <c r="R62" s="118"/>
+      <c r="S62" s="118"/>
+      <c r="T62" s="118"/>
+      <c r="U62" s="118"/>
+      <c r="V62" s="118"/>
+      <c r="W62" s="118"/>
+      <c r="X62" s="118"/>
+      <c r="Y62" s="118"/>
+      <c r="Z62" s="118"/>
+      <c r="AA62" s="118"/>
+      <c r="AB62" s="118"/>
+      <c r="AC62" s="118"/>
+      <c r="AD62" s="118"/>
+      <c r="AE62" s="118"/>
+      <c r="AF62" s="118"/>
+      <c r="AG62" s="118"/>
+      <c r="AH62" s="118"/>
+      <c r="AI62" s="118"/>
+      <c r="AJ62" s="118"/>
+      <c r="AK62" s="118"/>
+      <c r="AL62" s="118"/>
+      <c r="AM62" s="118"/>
+      <c r="AN62" s="118"/>
+      <c r="AO62" s="118"/>
+      <c r="AP62" s="118"/>
+      <c r="AQ62" s="118"/>
+      <c r="AR62" s="118"/>
+      <c r="AS62" s="118"/>
+      <c r="AT62" s="118"/>
+      <c r="AU62" s="118"/>
+      <c r="AV62" s="119"/>
+      <c r="AW62" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX62" s="105"/>
-      <c r="AY62" s="105"/>
-      <c r="AZ62" s="105"/>
-      <c r="BA62" s="106"/>
-      <c r="BB62" s="101" t="s">
+      <c r="AX62" s="118"/>
+      <c r="AY62" s="118"/>
+      <c r="AZ62" s="118"/>
+      <c r="BA62" s="119"/>
+      <c r="BB62" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC62" s="102"/>
-      <c r="BD62" s="102"/>
-      <c r="BE62" s="102"/>
-      <c r="BF62" s="102"/>
-      <c r="BG62" s="102"/>
-      <c r="BH62" s="102"/>
-      <c r="BI62" s="102"/>
-      <c r="BJ62" s="103"/>
-      <c r="BK62" s="104" t="s">
+      <c r="BC62" s="94"/>
+      <c r="BD62" s="94"/>
+      <c r="BE62" s="94"/>
+      <c r="BF62" s="94"/>
+      <c r="BG62" s="94"/>
+      <c r="BH62" s="94"/>
+      <c r="BI62" s="94"/>
+      <c r="BJ62" s="95"/>
+      <c r="BK62" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL62" s="105"/>
-      <c r="BM62" s="105"/>
-      <c r="BN62" s="105"/>
-      <c r="BO62" s="106"/>
-      <c r="BP62" s="124" t="s">
+      <c r="BL62" s="118"/>
+      <c r="BM62" s="118"/>
+      <c r="BN62" s="118"/>
+      <c r="BO62" s="119"/>
+      <c r="BP62" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ62" s="105"/>
-      <c r="BR62" s="105"/>
-      <c r="BS62" s="105"/>
-      <c r="BT62" s="105"/>
-      <c r="BU62" s="105"/>
-      <c r="BV62" s="105"/>
-      <c r="BW62" s="105"/>
-      <c r="BX62" s="120"/>
+      <c r="BQ62" s="118"/>
+      <c r="BR62" s="118"/>
+      <c r="BS62" s="118"/>
+      <c r="BT62" s="118"/>
+      <c r="BU62" s="118"/>
+      <c r="BV62" s="118"/>
+      <c r="BW62" s="118"/>
+      <c r="BX62" s="127"/>
       <c r="BY62" s="52"/>
       <c r="BZ62" s="52"/>
     </row>
     <row r="63" spans="1:96" ht="18">
-      <c r="A63" s="121" t="s">
+      <c r="A63" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="118" t="s">
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="99"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="99"/>
-      <c r="T63" s="99"/>
-      <c r="U63" s="99"/>
-      <c r="V63" s="99"/>
-      <c r="W63" s="99"/>
-      <c r="X63" s="99"/>
-      <c r="Y63" s="100"/>
-      <c r="Z63" s="98" t="s">
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="104"/>
+      <c r="T63" s="104"/>
+      <c r="U63" s="104"/>
+      <c r="V63" s="104"/>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
+      <c r="Y63" s="106"/>
+      <c r="Z63" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="99"/>
-      <c r="AC63" s="99"/>
-      <c r="AD63" s="100"/>
-      <c r="AE63" s="118" t="s">
+      <c r="AA63" s="104"/>
+      <c r="AB63" s="104"/>
+      <c r="AC63" s="104"/>
+      <c r="AD63" s="106"/>
+      <c r="AE63" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="99"/>
-      <c r="AH63" s="99"/>
-      <c r="AI63" s="99"/>
-      <c r="AJ63" s="99"/>
-      <c r="AK63" s="99"/>
-      <c r="AL63" s="99"/>
-      <c r="AM63" s="99"/>
-      <c r="AN63" s="99"/>
-      <c r="AO63" s="99"/>
-      <c r="AP63" s="99"/>
-      <c r="AQ63" s="99"/>
-      <c r="AR63" s="99"/>
-      <c r="AS63" s="99"/>
-      <c r="AT63" s="99"/>
-      <c r="AU63" s="99"/>
-      <c r="AV63" s="100"/>
-      <c r="AW63" s="98" t="s">
+      <c r="AF63" s="104"/>
+      <c r="AG63" s="104"/>
+      <c r="AH63" s="104"/>
+      <c r="AI63" s="104"/>
+      <c r="AJ63" s="104"/>
+      <c r="AK63" s="104"/>
+      <c r="AL63" s="104"/>
+      <c r="AM63" s="104"/>
+      <c r="AN63" s="104"/>
+      <c r="AO63" s="104"/>
+      <c r="AP63" s="104"/>
+      <c r="AQ63" s="104"/>
+      <c r="AR63" s="104"/>
+      <c r="AS63" s="104"/>
+      <c r="AT63" s="104"/>
+      <c r="AU63" s="104"/>
+      <c r="AV63" s="106"/>
+      <c r="AW63" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX63" s="99"/>
-      <c r="AY63" s="99"/>
-      <c r="AZ63" s="99"/>
-      <c r="BA63" s="100"/>
-      <c r="BB63" s="110" t="s">
+      <c r="AX63" s="104"/>
+      <c r="AY63" s="104"/>
+      <c r="AZ63" s="104"/>
+      <c r="BA63" s="106"/>
+      <c r="BB63" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC63" s="99"/>
-      <c r="BD63" s="99"/>
-      <c r="BE63" s="99"/>
-      <c r="BF63" s="99"/>
-      <c r="BG63" s="99"/>
-      <c r="BH63" s="99"/>
-      <c r="BI63" s="99"/>
-      <c r="BJ63" s="99"/>
-      <c r="BK63" s="98" t="s">
+      <c r="BC63" s="104"/>
+      <c r="BD63" s="104"/>
+      <c r="BE63" s="104"/>
+      <c r="BF63" s="104"/>
+      <c r="BG63" s="104"/>
+      <c r="BH63" s="104"/>
+      <c r="BI63" s="104"/>
+      <c r="BJ63" s="104"/>
+      <c r="BK63" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="BL63" s="99"/>
-      <c r="BM63" s="99"/>
-      <c r="BN63" s="99"/>
-      <c r="BO63" s="100"/>
-      <c r="BP63" s="124" t="s">
+      <c r="BL63" s="104"/>
+      <c r="BM63" s="104"/>
+      <c r="BN63" s="104"/>
+      <c r="BO63" s="106"/>
+      <c r="BP63" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ63" s="105"/>
-      <c r="BR63" s="105"/>
-      <c r="BS63" s="105"/>
-      <c r="BT63" s="105"/>
-      <c r="BU63" s="105"/>
-      <c r="BV63" s="105"/>
-      <c r="BW63" s="105"/>
-      <c r="BX63" s="120"/>
+      <c r="BQ63" s="118"/>
+      <c r="BR63" s="118"/>
+      <c r="BS63" s="118"/>
+      <c r="BT63" s="118"/>
+      <c r="BU63" s="118"/>
+      <c r="BV63" s="118"/>
+      <c r="BW63" s="118"/>
+      <c r="BX63" s="127"/>
       <c r="BY63" s="52"/>
       <c r="BZ63" s="52"/>
     </row>
@@ -12198,51 +12198,51 @@
       <c r="AJ66" s="33"/>
       <c r="AK66" s="33"/>
       <c r="AL66" s="53"/>
-      <c r="AM66" s="107" t="s">
+      <c r="AM66" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN66" s="115"/>
-      <c r="AO66" s="107" t="s">
+      <c r="AN66" s="114"/>
+      <c r="AO66" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP66" s="96"/>
-      <c r="AQ66" s="96"/>
-      <c r="AR66" s="96"/>
-      <c r="AS66" s="96"/>
-      <c r="AT66" s="96"/>
-      <c r="AU66" s="94"/>
-      <c r="AV66" s="107" t="s">
+      <c r="AP66" s="109"/>
+      <c r="AQ66" s="109"/>
+      <c r="AR66" s="109"/>
+      <c r="AS66" s="109"/>
+      <c r="AT66" s="109"/>
+      <c r="AU66" s="116"/>
+      <c r="AV66" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW66" s="96"/>
-      <c r="AX66" s="96"/>
-      <c r="AY66" s="96"/>
-      <c r="AZ66" s="94"/>
-      <c r="BA66" s="107" t="s">
+      <c r="AW66" s="109"/>
+      <c r="AX66" s="109"/>
+      <c r="AY66" s="109"/>
+      <c r="AZ66" s="116"/>
+      <c r="BA66" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB66" s="96"/>
-      <c r="BC66" s="96"/>
-      <c r="BD66" s="96"/>
-      <c r="BE66" s="96"/>
-      <c r="BF66" s="96"/>
-      <c r="BG66" s="96"/>
-      <c r="BH66" s="96"/>
-      <c r="BI66" s="96"/>
-      <c r="BJ66" s="96"/>
-      <c r="BK66" s="96"/>
-      <c r="BL66" s="96"/>
-      <c r="BM66" s="96"/>
-      <c r="BN66" s="96"/>
-      <c r="BO66" s="96"/>
-      <c r="BP66" s="96"/>
-      <c r="BQ66" s="96"/>
-      <c r="BR66" s="96"/>
-      <c r="BS66" s="96"/>
-      <c r="BT66" s="96"/>
-      <c r="BU66" s="96"/>
-      <c r="BV66" s="96"/>
-      <c r="BW66" s="115"/>
+      <c r="BB66" s="109"/>
+      <c r="BC66" s="109"/>
+      <c r="BD66" s="109"/>
+      <c r="BE66" s="109"/>
+      <c r="BF66" s="109"/>
+      <c r="BG66" s="109"/>
+      <c r="BH66" s="109"/>
+      <c r="BI66" s="109"/>
+      <c r="BJ66" s="109"/>
+      <c r="BK66" s="109"/>
+      <c r="BL66" s="109"/>
+      <c r="BM66" s="109"/>
+      <c r="BN66" s="109"/>
+      <c r="BO66" s="109"/>
+      <c r="BP66" s="109"/>
+      <c r="BQ66" s="109"/>
+      <c r="BR66" s="109"/>
+      <c r="BS66" s="109"/>
+      <c r="BT66" s="109"/>
+      <c r="BU66" s="109"/>
+      <c r="BV66" s="109"/>
+      <c r="BW66" s="114"/>
       <c r="BX66" s="53"/>
       <c r="BY66" s="33"/>
       <c r="BZ66" s="33"/>
@@ -12250,14 +12250,14 @@
     <row r="67" spans="1:78" ht="13.5">
       <c r="A67" s="45"/>
       <c r="B67" s="55"/>
-      <c r="C67" s="126" t="s">
+      <c r="C67" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="127"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="142"/>
       <c r="I67" s="56"/>
       <c r="J67" s="56"/>
       <c r="K67" s="56"/>
@@ -12288,43 +12288,43 @@
       <c r="AJ67" s="33"/>
       <c r="AK67" s="33"/>
       <c r="AL67" s="53"/>
-      <c r="AM67" s="108"/>
-      <c r="AN67" s="116"/>
-      <c r="AO67" s="108"/>
-      <c r="AP67" s="108"/>
-      <c r="AQ67" s="108"/>
-      <c r="AR67" s="108"/>
-      <c r="AS67" s="108"/>
-      <c r="AT67" s="108"/>
-      <c r="AU67" s="109"/>
-      <c r="AV67" s="108"/>
-      <c r="AW67" s="108"/>
-      <c r="AX67" s="108"/>
-      <c r="AY67" s="108"/>
-      <c r="AZ67" s="109"/>
-      <c r="BA67" s="108"/>
-      <c r="BB67" s="108"/>
-      <c r="BC67" s="108"/>
-      <c r="BD67" s="108"/>
-      <c r="BE67" s="108"/>
-      <c r="BF67" s="108"/>
-      <c r="BG67" s="108"/>
-      <c r="BH67" s="108"/>
-      <c r="BI67" s="108"/>
-      <c r="BJ67" s="108"/>
-      <c r="BK67" s="108"/>
-      <c r="BL67" s="108"/>
-      <c r="BM67" s="108"/>
-      <c r="BN67" s="108"/>
-      <c r="BO67" s="108"/>
-      <c r="BP67" s="108"/>
-      <c r="BQ67" s="108"/>
-      <c r="BR67" s="108"/>
-      <c r="BS67" s="108"/>
-      <c r="BT67" s="108"/>
-      <c r="BU67" s="108"/>
-      <c r="BV67" s="108"/>
-      <c r="BW67" s="116"/>
+      <c r="AM67" s="101"/>
+      <c r="AN67" s="102"/>
+      <c r="AO67" s="101"/>
+      <c r="AP67" s="101"/>
+      <c r="AQ67" s="101"/>
+      <c r="AR67" s="101"/>
+      <c r="AS67" s="101"/>
+      <c r="AT67" s="101"/>
+      <c r="AU67" s="120"/>
+      <c r="AV67" s="101"/>
+      <c r="AW67" s="101"/>
+      <c r="AX67" s="101"/>
+      <c r="AY67" s="101"/>
+      <c r="AZ67" s="120"/>
+      <c r="BA67" s="101"/>
+      <c r="BB67" s="101"/>
+      <c r="BC67" s="101"/>
+      <c r="BD67" s="101"/>
+      <c r="BE67" s="101"/>
+      <c r="BF67" s="101"/>
+      <c r="BG67" s="101"/>
+      <c r="BH67" s="101"/>
+      <c r="BI67" s="101"/>
+      <c r="BJ67" s="101"/>
+      <c r="BK67" s="101"/>
+      <c r="BL67" s="101"/>
+      <c r="BM67" s="101"/>
+      <c r="BN67" s="101"/>
+      <c r="BO67" s="101"/>
+      <c r="BP67" s="101"/>
+      <c r="BQ67" s="101"/>
+      <c r="BR67" s="101"/>
+      <c r="BS67" s="101"/>
+      <c r="BT67" s="101"/>
+      <c r="BU67" s="101"/>
+      <c r="BV67" s="101"/>
+      <c r="BW67" s="102"/>
       <c r="BX67" s="53"/>
       <c r="BY67" s="33"/>
       <c r="BZ67" s="33"/>
@@ -12332,12 +12332,12 @@
     <row r="68" spans="1:78">
       <c r="A68" s="45"/>
       <c r="B68" s="58"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="96"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="109"/>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
       <c r="K68" s="33"/>
@@ -12368,10 +12368,10 @@
       <c r="AJ68" s="33"/>
       <c r="AK68" s="33"/>
       <c r="AL68" s="53"/>
-      <c r="AM68" s="93" t="s">
+      <c r="AM68" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN68" s="94"/>
+      <c r="AN68" s="116"/>
       <c r="AO68" s="59" t="s">
         <v>77</v>
       </c>
@@ -12538,10 +12538,10 @@
       <c r="AJ70" s="33"/>
       <c r="AK70" s="33"/>
       <c r="AL70" s="53"/>
-      <c r="AM70" s="97">
+      <c r="AM70" s="128">
         <v>2</v>
       </c>
-      <c r="AN70" s="96"/>
+      <c r="AN70" s="109"/>
       <c r="AO70" s="64" t="s">
         <v>80</v>
       </c>
@@ -12772,10 +12772,10 @@
       <c r="AJ73" s="33"/>
       <c r="AK73" s="33"/>
       <c r="AL73" s="53"/>
-      <c r="AM73" s="95" t="s">
+      <c r="AM73" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="AN73" s="96"/>
+      <c r="AN73" s="109"/>
       <c r="AO73" s="66" t="s">
         <v>84</v>
       </c>
@@ -12828,16 +12828,16 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="128" t="s">
+      <c r="G74" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="H74" s="127"/>
-      <c r="I74" s="127"/>
-      <c r="J74" s="127"/>
-      <c r="K74" s="127"/>
-      <c r="L74" s="127"/>
-      <c r="M74" s="127"/>
-      <c r="N74" s="129"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="142"/>
+      <c r="K74" s="142"/>
+      <c r="L74" s="142"/>
+      <c r="M74" s="142"/>
+      <c r="N74" s="144"/>
       <c r="O74" s="33"/>
       <c r="P74" s="33"/>
       <c r="Q74" s="33"/>
@@ -12910,14 +12910,14 @@
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="130"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="100"/>
+      <c r="G75" s="145"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="104"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="104"/>
+      <c r="L75" s="104"/>
+      <c r="M75" s="104"/>
+      <c r="N75" s="106"/>
       <c r="O75" s="33"/>
       <c r="P75" s="33"/>
       <c r="Q75" s="33"/>
@@ -16104,190 +16104,190 @@
       <c r="BZ114" s="33"/>
     </row>
     <row r="115" spans="1:78" ht="17.25">
-      <c r="A115" s="119" t="s">
+      <c r="A115" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="105"/>
-      <c r="C115" s="105"/>
-      <c r="D115" s="105"/>
-      <c r="E115" s="120"/>
-      <c r="F115" s="117" t="s">
+      <c r="B115" s="118"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G115" s="105"/>
-      <c r="H115" s="105"/>
-      <c r="I115" s="105"/>
-      <c r="J115" s="105"/>
-      <c r="K115" s="105"/>
-      <c r="L115" s="105"/>
-      <c r="M115" s="105"/>
-      <c r="N115" s="105"/>
-      <c r="O115" s="105"/>
-      <c r="P115" s="105"/>
-      <c r="Q115" s="105"/>
-      <c r="R115" s="105"/>
-      <c r="S115" s="105"/>
-      <c r="T115" s="105"/>
-      <c r="U115" s="105"/>
-      <c r="V115" s="105"/>
-      <c r="W115" s="105"/>
-      <c r="X115" s="105"/>
-      <c r="Y115" s="105"/>
-      <c r="Z115" s="105"/>
-      <c r="AA115" s="105"/>
-      <c r="AB115" s="105"/>
-      <c r="AC115" s="105"/>
-      <c r="AD115" s="105"/>
-      <c r="AE115" s="105"/>
-      <c r="AF115" s="105"/>
-      <c r="AG115" s="105"/>
-      <c r="AH115" s="105"/>
-      <c r="AI115" s="105"/>
-      <c r="AJ115" s="105"/>
-      <c r="AK115" s="105"/>
-      <c r="AL115" s="105"/>
-      <c r="AM115" s="105"/>
-      <c r="AN115" s="105"/>
-      <c r="AO115" s="105"/>
-      <c r="AP115" s="105"/>
-      <c r="AQ115" s="105"/>
-      <c r="AR115" s="105"/>
-      <c r="AS115" s="105"/>
-      <c r="AT115" s="105"/>
-      <c r="AU115" s="105"/>
-      <c r="AV115" s="106"/>
-      <c r="AW115" s="104" t="s">
+      <c r="G115" s="118"/>
+      <c r="H115" s="118"/>
+      <c r="I115" s="118"/>
+      <c r="J115" s="118"/>
+      <c r="K115" s="118"/>
+      <c r="L115" s="118"/>
+      <c r="M115" s="118"/>
+      <c r="N115" s="118"/>
+      <c r="O115" s="118"/>
+      <c r="P115" s="118"/>
+      <c r="Q115" s="118"/>
+      <c r="R115" s="118"/>
+      <c r="S115" s="118"/>
+      <c r="T115" s="118"/>
+      <c r="U115" s="118"/>
+      <c r="V115" s="118"/>
+      <c r="W115" s="118"/>
+      <c r="X115" s="118"/>
+      <c r="Y115" s="118"/>
+      <c r="Z115" s="118"/>
+      <c r="AA115" s="118"/>
+      <c r="AB115" s="118"/>
+      <c r="AC115" s="118"/>
+      <c r="AD115" s="118"/>
+      <c r="AE115" s="118"/>
+      <c r="AF115" s="118"/>
+      <c r="AG115" s="118"/>
+      <c r="AH115" s="118"/>
+      <c r="AI115" s="118"/>
+      <c r="AJ115" s="118"/>
+      <c r="AK115" s="118"/>
+      <c r="AL115" s="118"/>
+      <c r="AM115" s="118"/>
+      <c r="AN115" s="118"/>
+      <c r="AO115" s="118"/>
+      <c r="AP115" s="118"/>
+      <c r="AQ115" s="118"/>
+      <c r="AR115" s="118"/>
+      <c r="AS115" s="118"/>
+      <c r="AT115" s="118"/>
+      <c r="AU115" s="118"/>
+      <c r="AV115" s="119"/>
+      <c r="AW115" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX115" s="105"/>
-      <c r="AY115" s="105"/>
-      <c r="AZ115" s="105"/>
-      <c r="BA115" s="106"/>
-      <c r="BB115" s="101" t="s">
+      <c r="AX115" s="118"/>
+      <c r="AY115" s="118"/>
+      <c r="AZ115" s="118"/>
+      <c r="BA115" s="119"/>
+      <c r="BB115" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC115" s="102"/>
-      <c r="BD115" s="102"/>
-      <c r="BE115" s="102"/>
-      <c r="BF115" s="102"/>
-      <c r="BG115" s="102"/>
-      <c r="BH115" s="102"/>
-      <c r="BI115" s="102"/>
-      <c r="BJ115" s="103"/>
-      <c r="BK115" s="104" t="s">
+      <c r="BC115" s="94"/>
+      <c r="BD115" s="94"/>
+      <c r="BE115" s="94"/>
+      <c r="BF115" s="94"/>
+      <c r="BG115" s="94"/>
+      <c r="BH115" s="94"/>
+      <c r="BI115" s="94"/>
+      <c r="BJ115" s="95"/>
+      <c r="BK115" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL115" s="105"/>
-      <c r="BM115" s="105"/>
-      <c r="BN115" s="105"/>
-      <c r="BO115" s="106"/>
-      <c r="BP115" s="124" t="s">
+      <c r="BL115" s="118"/>
+      <c r="BM115" s="118"/>
+      <c r="BN115" s="118"/>
+      <c r="BO115" s="119"/>
+      <c r="BP115" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ115" s="105"/>
-      <c r="BR115" s="105"/>
-      <c r="BS115" s="105"/>
-      <c r="BT115" s="105"/>
-      <c r="BU115" s="105"/>
-      <c r="BV115" s="105"/>
-      <c r="BW115" s="105"/>
-      <c r="BX115" s="120"/>
+      <c r="BQ115" s="118"/>
+      <c r="BR115" s="118"/>
+      <c r="BS115" s="118"/>
+      <c r="BT115" s="118"/>
+      <c r="BU115" s="118"/>
+      <c r="BV115" s="118"/>
+      <c r="BW115" s="118"/>
+      <c r="BX115" s="127"/>
       <c r="BY115" s="52"/>
       <c r="BZ115" s="52"/>
     </row>
     <row r="116" spans="1:78" ht="18">
-      <c r="A116" s="121" t="s">
+      <c r="A116" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="99"/>
-      <c r="C116" s="99"/>
-      <c r="D116" s="99"/>
-      <c r="E116" s="122"/>
-      <c r="F116" s="118" t="s">
+      <c r="B116" s="104"/>
+      <c r="C116" s="104"/>
+      <c r="D116" s="104"/>
+      <c r="E116" s="138"/>
+      <c r="F116" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="99"/>
-      <c r="H116" s="99"/>
-      <c r="I116" s="99"/>
-      <c r="J116" s="99"/>
-      <c r="K116" s="99"/>
-      <c r="L116" s="99"/>
-      <c r="M116" s="99"/>
-      <c r="N116" s="99"/>
-      <c r="O116" s="99"/>
-      <c r="P116" s="99"/>
-      <c r="Q116" s="99"/>
-      <c r="R116" s="99"/>
-      <c r="S116" s="99"/>
-      <c r="T116" s="99"/>
-      <c r="U116" s="99"/>
-      <c r="V116" s="99"/>
-      <c r="W116" s="99"/>
-      <c r="X116" s="99"/>
-      <c r="Y116" s="100"/>
-      <c r="Z116" s="98" t="s">
+      <c r="G116" s="104"/>
+      <c r="H116" s="104"/>
+      <c r="I116" s="104"/>
+      <c r="J116" s="104"/>
+      <c r="K116" s="104"/>
+      <c r="L116" s="104"/>
+      <c r="M116" s="104"/>
+      <c r="N116" s="104"/>
+      <c r="O116" s="104"/>
+      <c r="P116" s="104"/>
+      <c r="Q116" s="104"/>
+      <c r="R116" s="104"/>
+      <c r="S116" s="104"/>
+      <c r="T116" s="104"/>
+      <c r="U116" s="104"/>
+      <c r="V116" s="104"/>
+      <c r="W116" s="104"/>
+      <c r="X116" s="104"/>
+      <c r="Y116" s="106"/>
+      <c r="Z116" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA116" s="99"/>
-      <c r="AB116" s="99"/>
-      <c r="AC116" s="99"/>
-      <c r="AD116" s="100"/>
-      <c r="AE116" s="118" t="s">
+      <c r="AA116" s="104"/>
+      <c r="AB116" s="104"/>
+      <c r="AC116" s="104"/>
+      <c r="AD116" s="106"/>
+      <c r="AE116" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="AF116" s="99"/>
-      <c r="AG116" s="99"/>
-      <c r="AH116" s="99"/>
-      <c r="AI116" s="99"/>
-      <c r="AJ116" s="99"/>
-      <c r="AK116" s="99"/>
-      <c r="AL116" s="99"/>
-      <c r="AM116" s="99"/>
-      <c r="AN116" s="99"/>
-      <c r="AO116" s="99"/>
-      <c r="AP116" s="99"/>
-      <c r="AQ116" s="99"/>
-      <c r="AR116" s="99"/>
-      <c r="AS116" s="99"/>
-      <c r="AT116" s="99"/>
-      <c r="AU116" s="99"/>
-      <c r="AV116" s="100"/>
-      <c r="AW116" s="98" t="s">
+      <c r="AF116" s="104"/>
+      <c r="AG116" s="104"/>
+      <c r="AH116" s="104"/>
+      <c r="AI116" s="104"/>
+      <c r="AJ116" s="104"/>
+      <c r="AK116" s="104"/>
+      <c r="AL116" s="104"/>
+      <c r="AM116" s="104"/>
+      <c r="AN116" s="104"/>
+      <c r="AO116" s="104"/>
+      <c r="AP116" s="104"/>
+      <c r="AQ116" s="104"/>
+      <c r="AR116" s="104"/>
+      <c r="AS116" s="104"/>
+      <c r="AT116" s="104"/>
+      <c r="AU116" s="104"/>
+      <c r="AV116" s="106"/>
+      <c r="AW116" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX116" s="99"/>
-      <c r="AY116" s="99"/>
-      <c r="AZ116" s="99"/>
-      <c r="BA116" s="100"/>
-      <c r="BB116" s="110" t="s">
+      <c r="AX116" s="104"/>
+      <c r="AY116" s="104"/>
+      <c r="AZ116" s="104"/>
+      <c r="BA116" s="106"/>
+      <c r="BB116" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC116" s="99"/>
-      <c r="BD116" s="99"/>
-      <c r="BE116" s="99"/>
-      <c r="BF116" s="99"/>
-      <c r="BG116" s="99"/>
-      <c r="BH116" s="99"/>
-      <c r="BI116" s="99"/>
-      <c r="BJ116" s="99"/>
-      <c r="BK116" s="98" t="s">
+      <c r="BC116" s="104"/>
+      <c r="BD116" s="104"/>
+      <c r="BE116" s="104"/>
+      <c r="BF116" s="104"/>
+      <c r="BG116" s="104"/>
+      <c r="BH116" s="104"/>
+      <c r="BI116" s="104"/>
+      <c r="BJ116" s="104"/>
+      <c r="BK116" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="BL116" s="99"/>
-      <c r="BM116" s="99"/>
-      <c r="BN116" s="99"/>
-      <c r="BO116" s="100"/>
-      <c r="BP116" s="124" t="s">
+      <c r="BL116" s="104"/>
+      <c r="BM116" s="104"/>
+      <c r="BN116" s="104"/>
+      <c r="BO116" s="106"/>
+      <c r="BP116" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ116" s="105"/>
-      <c r="BR116" s="105"/>
-      <c r="BS116" s="105"/>
-      <c r="BT116" s="105"/>
-      <c r="BU116" s="105"/>
-      <c r="BV116" s="105"/>
-      <c r="BW116" s="105"/>
-      <c r="BX116" s="120"/>
+      <c r="BQ116" s="118"/>
+      <c r="BR116" s="118"/>
+      <c r="BS116" s="118"/>
+      <c r="BT116" s="118"/>
+      <c r="BU116" s="118"/>
+      <c r="BV116" s="118"/>
+      <c r="BW116" s="118"/>
+      <c r="BX116" s="127"/>
       <c r="BY116" s="52"/>
       <c r="BZ116" s="52"/>
     </row>
@@ -16492,51 +16492,51 @@
       <c r="AJ119" s="4"/>
       <c r="AK119" s="4"/>
       <c r="AL119" s="53"/>
-      <c r="AM119" s="107" t="s">
+      <c r="AM119" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN119" s="115"/>
-      <c r="AO119" s="107" t="s">
+      <c r="AN119" s="114"/>
+      <c r="AO119" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP119" s="96"/>
-      <c r="AQ119" s="96"/>
-      <c r="AR119" s="96"/>
-      <c r="AS119" s="96"/>
-      <c r="AT119" s="96"/>
-      <c r="AU119" s="94"/>
-      <c r="AV119" s="107" t="s">
+      <c r="AP119" s="109"/>
+      <c r="AQ119" s="109"/>
+      <c r="AR119" s="109"/>
+      <c r="AS119" s="109"/>
+      <c r="AT119" s="109"/>
+      <c r="AU119" s="116"/>
+      <c r="AV119" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW119" s="96"/>
-      <c r="AX119" s="96"/>
-      <c r="AY119" s="96"/>
-      <c r="AZ119" s="94"/>
-      <c r="BA119" s="107" t="s">
+      <c r="AW119" s="109"/>
+      <c r="AX119" s="109"/>
+      <c r="AY119" s="109"/>
+      <c r="AZ119" s="116"/>
+      <c r="BA119" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB119" s="96"/>
-      <c r="BC119" s="96"/>
-      <c r="BD119" s="96"/>
-      <c r="BE119" s="96"/>
-      <c r="BF119" s="96"/>
-      <c r="BG119" s="96"/>
-      <c r="BH119" s="96"/>
-      <c r="BI119" s="96"/>
-      <c r="BJ119" s="96"/>
-      <c r="BK119" s="96"/>
-      <c r="BL119" s="96"/>
-      <c r="BM119" s="96"/>
-      <c r="BN119" s="96"/>
-      <c r="BO119" s="96"/>
-      <c r="BP119" s="96"/>
-      <c r="BQ119" s="96"/>
-      <c r="BR119" s="96"/>
-      <c r="BS119" s="96"/>
-      <c r="BT119" s="96"/>
-      <c r="BU119" s="96"/>
-      <c r="BV119" s="96"/>
-      <c r="BW119" s="115"/>
+      <c r="BB119" s="109"/>
+      <c r="BC119" s="109"/>
+      <c r="BD119" s="109"/>
+      <c r="BE119" s="109"/>
+      <c r="BF119" s="109"/>
+      <c r="BG119" s="109"/>
+      <c r="BH119" s="109"/>
+      <c r="BI119" s="109"/>
+      <c r="BJ119" s="109"/>
+      <c r="BK119" s="109"/>
+      <c r="BL119" s="109"/>
+      <c r="BM119" s="109"/>
+      <c r="BN119" s="109"/>
+      <c r="BO119" s="109"/>
+      <c r="BP119" s="109"/>
+      <c r="BQ119" s="109"/>
+      <c r="BR119" s="109"/>
+      <c r="BS119" s="109"/>
+      <c r="BT119" s="109"/>
+      <c r="BU119" s="109"/>
+      <c r="BV119" s="109"/>
+      <c r="BW119" s="114"/>
       <c r="BX119" s="53"/>
       <c r="BY119" s="4"/>
       <c r="BZ119" s="4"/>
@@ -16580,43 +16580,43 @@
       <c r="AJ120" s="4"/>
       <c r="AK120" s="4"/>
       <c r="AL120" s="53"/>
-      <c r="AM120" s="108"/>
-      <c r="AN120" s="116"/>
-      <c r="AO120" s="108"/>
-      <c r="AP120" s="108"/>
-      <c r="AQ120" s="108"/>
-      <c r="AR120" s="108"/>
-      <c r="AS120" s="108"/>
-      <c r="AT120" s="108"/>
-      <c r="AU120" s="109"/>
-      <c r="AV120" s="108"/>
-      <c r="AW120" s="108"/>
-      <c r="AX120" s="108"/>
-      <c r="AY120" s="108"/>
-      <c r="AZ120" s="109"/>
-      <c r="BA120" s="108"/>
-      <c r="BB120" s="108"/>
-      <c r="BC120" s="108"/>
-      <c r="BD120" s="108"/>
-      <c r="BE120" s="108"/>
-      <c r="BF120" s="108"/>
-      <c r="BG120" s="108"/>
-      <c r="BH120" s="108"/>
-      <c r="BI120" s="108"/>
-      <c r="BJ120" s="108"/>
-      <c r="BK120" s="108"/>
-      <c r="BL120" s="108"/>
-      <c r="BM120" s="108"/>
-      <c r="BN120" s="108"/>
-      <c r="BO120" s="108"/>
-      <c r="BP120" s="108"/>
-      <c r="BQ120" s="108"/>
-      <c r="BR120" s="108"/>
-      <c r="BS120" s="108"/>
-      <c r="BT120" s="108"/>
-      <c r="BU120" s="108"/>
-      <c r="BV120" s="108"/>
-      <c r="BW120" s="116"/>
+      <c r="AM120" s="101"/>
+      <c r="AN120" s="102"/>
+      <c r="AO120" s="101"/>
+      <c r="AP120" s="101"/>
+      <c r="AQ120" s="101"/>
+      <c r="AR120" s="101"/>
+      <c r="AS120" s="101"/>
+      <c r="AT120" s="101"/>
+      <c r="AU120" s="120"/>
+      <c r="AV120" s="101"/>
+      <c r="AW120" s="101"/>
+      <c r="AX120" s="101"/>
+      <c r="AY120" s="101"/>
+      <c r="AZ120" s="120"/>
+      <c r="BA120" s="101"/>
+      <c r="BB120" s="101"/>
+      <c r="BC120" s="101"/>
+      <c r="BD120" s="101"/>
+      <c r="BE120" s="101"/>
+      <c r="BF120" s="101"/>
+      <c r="BG120" s="101"/>
+      <c r="BH120" s="101"/>
+      <c r="BI120" s="101"/>
+      <c r="BJ120" s="101"/>
+      <c r="BK120" s="101"/>
+      <c r="BL120" s="101"/>
+      <c r="BM120" s="101"/>
+      <c r="BN120" s="101"/>
+      <c r="BO120" s="101"/>
+      <c r="BP120" s="101"/>
+      <c r="BQ120" s="101"/>
+      <c r="BR120" s="101"/>
+      <c r="BS120" s="101"/>
+      <c r="BT120" s="101"/>
+      <c r="BU120" s="101"/>
+      <c r="BV120" s="101"/>
+      <c r="BW120" s="102"/>
       <c r="BX120" s="53"/>
       <c r="BY120" s="4"/>
       <c r="BZ120" s="4"/>
@@ -16660,10 +16660,10 @@
       <c r="AJ121" s="4"/>
       <c r="AK121" s="4"/>
       <c r="AL121" s="53"/>
-      <c r="AM121" s="93" t="s">
+      <c r="AM121" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN121" s="94"/>
+      <c r="AN121" s="116"/>
       <c r="AO121" s="59" t="s">
         <v>89</v>
       </c>
@@ -16828,8 +16828,8 @@
       <c r="AJ123" s="4"/>
       <c r="AK123" s="4"/>
       <c r="AL123" s="53"/>
-      <c r="AM123" s="97"/>
-      <c r="AN123" s="96"/>
+      <c r="AM123" s="128"/>
+      <c r="AN123" s="109"/>
       <c r="AO123" s="64"/>
       <c r="AP123" s="33"/>
       <c r="AQ123" s="33"/>
@@ -17068,8 +17068,8 @@
       <c r="AJ126" s="4"/>
       <c r="AK126" s="4"/>
       <c r="AL126" s="53"/>
-      <c r="AM126" s="95"/>
-      <c r="AN126" s="96"/>
+      <c r="AM126" s="148"/>
+      <c r="AN126" s="109"/>
       <c r="AO126" s="66"/>
       <c r="AP126" s="33"/>
       <c r="AQ126" s="33"/>
@@ -20390,190 +20390,190 @@
       <c r="BZ167" s="4"/>
     </row>
     <row r="168" spans="1:78" ht="17.25">
-      <c r="A168" s="119" t="s">
+      <c r="A168" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="105"/>
-      <c r="C168" s="105"/>
-      <c r="D168" s="105"/>
-      <c r="E168" s="120"/>
-      <c r="F168" s="117" t="s">
+      <c r="B168" s="118"/>
+      <c r="C168" s="118"/>
+      <c r="D168" s="118"/>
+      <c r="E168" s="127"/>
+      <c r="F168" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G168" s="105"/>
-      <c r="H168" s="105"/>
-      <c r="I168" s="105"/>
-      <c r="J168" s="105"/>
-      <c r="K168" s="105"/>
-      <c r="L168" s="105"/>
-      <c r="M168" s="105"/>
-      <c r="N168" s="105"/>
-      <c r="O168" s="105"/>
-      <c r="P168" s="105"/>
-      <c r="Q168" s="105"/>
-      <c r="R168" s="105"/>
-      <c r="S168" s="105"/>
-      <c r="T168" s="105"/>
-      <c r="U168" s="105"/>
-      <c r="V168" s="105"/>
-      <c r="W168" s="105"/>
-      <c r="X168" s="105"/>
-      <c r="Y168" s="105"/>
-      <c r="Z168" s="105"/>
-      <c r="AA168" s="105"/>
-      <c r="AB168" s="105"/>
-      <c r="AC168" s="105"/>
-      <c r="AD168" s="105"/>
-      <c r="AE168" s="105"/>
-      <c r="AF168" s="105"/>
-      <c r="AG168" s="105"/>
-      <c r="AH168" s="105"/>
-      <c r="AI168" s="105"/>
-      <c r="AJ168" s="105"/>
-      <c r="AK168" s="105"/>
-      <c r="AL168" s="105"/>
-      <c r="AM168" s="105"/>
-      <c r="AN168" s="105"/>
-      <c r="AO168" s="105"/>
-      <c r="AP168" s="105"/>
-      <c r="AQ168" s="105"/>
-      <c r="AR168" s="105"/>
-      <c r="AS168" s="105"/>
-      <c r="AT168" s="105"/>
-      <c r="AU168" s="105"/>
-      <c r="AV168" s="106"/>
-      <c r="AW168" s="104" t="s">
+      <c r="G168" s="118"/>
+      <c r="H168" s="118"/>
+      <c r="I168" s="118"/>
+      <c r="J168" s="118"/>
+      <c r="K168" s="118"/>
+      <c r="L168" s="118"/>
+      <c r="M168" s="118"/>
+      <c r="N168" s="118"/>
+      <c r="O168" s="118"/>
+      <c r="P168" s="118"/>
+      <c r="Q168" s="118"/>
+      <c r="R168" s="118"/>
+      <c r="S168" s="118"/>
+      <c r="T168" s="118"/>
+      <c r="U168" s="118"/>
+      <c r="V168" s="118"/>
+      <c r="W168" s="118"/>
+      <c r="X168" s="118"/>
+      <c r="Y168" s="118"/>
+      <c r="Z168" s="118"/>
+      <c r="AA168" s="118"/>
+      <c r="AB168" s="118"/>
+      <c r="AC168" s="118"/>
+      <c r="AD168" s="118"/>
+      <c r="AE168" s="118"/>
+      <c r="AF168" s="118"/>
+      <c r="AG168" s="118"/>
+      <c r="AH168" s="118"/>
+      <c r="AI168" s="118"/>
+      <c r="AJ168" s="118"/>
+      <c r="AK168" s="118"/>
+      <c r="AL168" s="118"/>
+      <c r="AM168" s="118"/>
+      <c r="AN168" s="118"/>
+      <c r="AO168" s="118"/>
+      <c r="AP168" s="118"/>
+      <c r="AQ168" s="118"/>
+      <c r="AR168" s="118"/>
+      <c r="AS168" s="118"/>
+      <c r="AT168" s="118"/>
+      <c r="AU168" s="118"/>
+      <c r="AV168" s="119"/>
+      <c r="AW168" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX168" s="105"/>
-      <c r="AY168" s="105"/>
-      <c r="AZ168" s="105"/>
-      <c r="BA168" s="106"/>
-      <c r="BB168" s="101" t="s">
+      <c r="AX168" s="118"/>
+      <c r="AY168" s="118"/>
+      <c r="AZ168" s="118"/>
+      <c r="BA168" s="119"/>
+      <c r="BB168" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC168" s="102"/>
-      <c r="BD168" s="102"/>
-      <c r="BE168" s="102"/>
-      <c r="BF168" s="102"/>
-      <c r="BG168" s="102"/>
-      <c r="BH168" s="102"/>
-      <c r="BI168" s="102"/>
-      <c r="BJ168" s="103"/>
-      <c r="BK168" s="104" t="s">
+      <c r="BC168" s="94"/>
+      <c r="BD168" s="94"/>
+      <c r="BE168" s="94"/>
+      <c r="BF168" s="94"/>
+      <c r="BG168" s="94"/>
+      <c r="BH168" s="94"/>
+      <c r="BI168" s="94"/>
+      <c r="BJ168" s="95"/>
+      <c r="BK168" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL168" s="105"/>
-      <c r="BM168" s="105"/>
-      <c r="BN168" s="105"/>
-      <c r="BO168" s="106"/>
-      <c r="BP168" s="124" t="s">
+      <c r="BL168" s="118"/>
+      <c r="BM168" s="118"/>
+      <c r="BN168" s="118"/>
+      <c r="BO168" s="119"/>
+      <c r="BP168" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ168" s="105"/>
-      <c r="BR168" s="105"/>
-      <c r="BS168" s="105"/>
-      <c r="BT168" s="105"/>
-      <c r="BU168" s="105"/>
-      <c r="BV168" s="105"/>
-      <c r="BW168" s="105"/>
-      <c r="BX168" s="120"/>
+      <c r="BQ168" s="118"/>
+      <c r="BR168" s="118"/>
+      <c r="BS168" s="118"/>
+      <c r="BT168" s="118"/>
+      <c r="BU168" s="118"/>
+      <c r="BV168" s="118"/>
+      <c r="BW168" s="118"/>
+      <c r="BX168" s="127"/>
       <c r="BY168" s="52"/>
       <c r="BZ168" s="52"/>
     </row>
     <row r="169" spans="1:78" ht="18">
-      <c r="A169" s="121" t="s">
+      <c r="A169" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B169" s="99"/>
-      <c r="C169" s="99"/>
-      <c r="D169" s="99"/>
-      <c r="E169" s="122"/>
-      <c r="F169" s="118" t="s">
+      <c r="B169" s="104"/>
+      <c r="C169" s="104"/>
+      <c r="D169" s="104"/>
+      <c r="E169" s="138"/>
+      <c r="F169" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G169" s="99"/>
-      <c r="H169" s="99"/>
-      <c r="I169" s="99"/>
-      <c r="J169" s="99"/>
-      <c r="K169" s="99"/>
-      <c r="L169" s="99"/>
-      <c r="M169" s="99"/>
-      <c r="N169" s="99"/>
-      <c r="O169" s="99"/>
-      <c r="P169" s="99"/>
-      <c r="Q169" s="99"/>
-      <c r="R169" s="99"/>
-      <c r="S169" s="99"/>
-      <c r="T169" s="99"/>
-      <c r="U169" s="99"/>
-      <c r="V169" s="99"/>
-      <c r="W169" s="99"/>
-      <c r="X169" s="99"/>
-      <c r="Y169" s="100"/>
-      <c r="Z169" s="98" t="s">
+      <c r="G169" s="104"/>
+      <c r="H169" s="104"/>
+      <c r="I169" s="104"/>
+      <c r="J169" s="104"/>
+      <c r="K169" s="104"/>
+      <c r="L169" s="104"/>
+      <c r="M169" s="104"/>
+      <c r="N169" s="104"/>
+      <c r="O169" s="104"/>
+      <c r="P169" s="104"/>
+      <c r="Q169" s="104"/>
+      <c r="R169" s="104"/>
+      <c r="S169" s="104"/>
+      <c r="T169" s="104"/>
+      <c r="U169" s="104"/>
+      <c r="V169" s="104"/>
+      <c r="W169" s="104"/>
+      <c r="X169" s="104"/>
+      <c r="Y169" s="106"/>
+      <c r="Z169" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA169" s="99"/>
-      <c r="AB169" s="99"/>
-      <c r="AC169" s="99"/>
-      <c r="AD169" s="100"/>
-      <c r="AE169" s="118" t="s">
+      <c r="AA169" s="104"/>
+      <c r="AB169" s="104"/>
+      <c r="AC169" s="104"/>
+      <c r="AD169" s="106"/>
+      <c r="AE169" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="AF169" s="99"/>
-      <c r="AG169" s="99"/>
-      <c r="AH169" s="99"/>
-      <c r="AI169" s="99"/>
-      <c r="AJ169" s="99"/>
-      <c r="AK169" s="99"/>
-      <c r="AL169" s="99"/>
-      <c r="AM169" s="99"/>
-      <c r="AN169" s="99"/>
-      <c r="AO169" s="99"/>
-      <c r="AP169" s="99"/>
-      <c r="AQ169" s="99"/>
-      <c r="AR169" s="99"/>
-      <c r="AS169" s="99"/>
-      <c r="AT169" s="99"/>
-      <c r="AU169" s="99"/>
-      <c r="AV169" s="100"/>
-      <c r="AW169" s="98" t="s">
+      <c r="AF169" s="104"/>
+      <c r="AG169" s="104"/>
+      <c r="AH169" s="104"/>
+      <c r="AI169" s="104"/>
+      <c r="AJ169" s="104"/>
+      <c r="AK169" s="104"/>
+      <c r="AL169" s="104"/>
+      <c r="AM169" s="104"/>
+      <c r="AN169" s="104"/>
+      <c r="AO169" s="104"/>
+      <c r="AP169" s="104"/>
+      <c r="AQ169" s="104"/>
+      <c r="AR169" s="104"/>
+      <c r="AS169" s="104"/>
+      <c r="AT169" s="104"/>
+      <c r="AU169" s="104"/>
+      <c r="AV169" s="106"/>
+      <c r="AW169" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX169" s="99"/>
-      <c r="AY169" s="99"/>
-      <c r="AZ169" s="99"/>
-      <c r="BA169" s="100"/>
-      <c r="BB169" s="110" t="s">
+      <c r="AX169" s="104"/>
+      <c r="AY169" s="104"/>
+      <c r="AZ169" s="104"/>
+      <c r="BA169" s="106"/>
+      <c r="BB169" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC169" s="99"/>
-      <c r="BD169" s="99"/>
-      <c r="BE169" s="99"/>
-      <c r="BF169" s="99"/>
-      <c r="BG169" s="99"/>
-      <c r="BH169" s="99"/>
-      <c r="BI169" s="99"/>
-      <c r="BJ169" s="99"/>
-      <c r="BK169" s="98" t="s">
+      <c r="BC169" s="104"/>
+      <c r="BD169" s="104"/>
+      <c r="BE169" s="104"/>
+      <c r="BF169" s="104"/>
+      <c r="BG169" s="104"/>
+      <c r="BH169" s="104"/>
+      <c r="BI169" s="104"/>
+      <c r="BJ169" s="104"/>
+      <c r="BK169" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="BL169" s="99"/>
-      <c r="BM169" s="99"/>
-      <c r="BN169" s="99"/>
-      <c r="BO169" s="100"/>
-      <c r="BP169" s="124" t="s">
+      <c r="BL169" s="104"/>
+      <c r="BM169" s="104"/>
+      <c r="BN169" s="104"/>
+      <c r="BO169" s="106"/>
+      <c r="BP169" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ169" s="105"/>
-      <c r="BR169" s="105"/>
-      <c r="BS169" s="105"/>
-      <c r="BT169" s="105"/>
-      <c r="BU169" s="105"/>
-      <c r="BV169" s="105"/>
-      <c r="BW169" s="105"/>
-      <c r="BX169" s="120"/>
+      <c r="BQ169" s="118"/>
+      <c r="BR169" s="118"/>
+      <c r="BS169" s="118"/>
+      <c r="BT169" s="118"/>
+      <c r="BU169" s="118"/>
+      <c r="BV169" s="118"/>
+      <c r="BW169" s="118"/>
+      <c r="BX169" s="127"/>
       <c r="BY169" s="52"/>
       <c r="BZ169" s="52"/>
     </row>
@@ -20777,51 +20777,51 @@
       <c r="AJ172" s="4"/>
       <c r="AK172" s="4"/>
       <c r="AL172" s="53"/>
-      <c r="AM172" s="107" t="s">
+      <c r="AM172" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN172" s="115"/>
-      <c r="AO172" s="107" t="s">
+      <c r="AN172" s="114"/>
+      <c r="AO172" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP172" s="96"/>
-      <c r="AQ172" s="96"/>
-      <c r="AR172" s="96"/>
-      <c r="AS172" s="96"/>
-      <c r="AT172" s="96"/>
-      <c r="AU172" s="94"/>
-      <c r="AV172" s="107" t="s">
+      <c r="AP172" s="109"/>
+      <c r="AQ172" s="109"/>
+      <c r="AR172" s="109"/>
+      <c r="AS172" s="109"/>
+      <c r="AT172" s="109"/>
+      <c r="AU172" s="116"/>
+      <c r="AV172" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW172" s="96"/>
-      <c r="AX172" s="96"/>
-      <c r="AY172" s="96"/>
-      <c r="AZ172" s="94"/>
-      <c r="BA172" s="107" t="s">
+      <c r="AW172" s="109"/>
+      <c r="AX172" s="109"/>
+      <c r="AY172" s="109"/>
+      <c r="AZ172" s="116"/>
+      <c r="BA172" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB172" s="96"/>
-      <c r="BC172" s="96"/>
-      <c r="BD172" s="96"/>
-      <c r="BE172" s="96"/>
-      <c r="BF172" s="96"/>
-      <c r="BG172" s="96"/>
-      <c r="BH172" s="96"/>
-      <c r="BI172" s="96"/>
-      <c r="BJ172" s="96"/>
-      <c r="BK172" s="96"/>
-      <c r="BL172" s="96"/>
-      <c r="BM172" s="96"/>
-      <c r="BN172" s="96"/>
-      <c r="BO172" s="96"/>
-      <c r="BP172" s="96"/>
-      <c r="BQ172" s="96"/>
-      <c r="BR172" s="96"/>
-      <c r="BS172" s="96"/>
-      <c r="BT172" s="96"/>
-      <c r="BU172" s="96"/>
-      <c r="BV172" s="96"/>
-      <c r="BW172" s="115"/>
+      <c r="BB172" s="109"/>
+      <c r="BC172" s="109"/>
+      <c r="BD172" s="109"/>
+      <c r="BE172" s="109"/>
+      <c r="BF172" s="109"/>
+      <c r="BG172" s="109"/>
+      <c r="BH172" s="109"/>
+      <c r="BI172" s="109"/>
+      <c r="BJ172" s="109"/>
+      <c r="BK172" s="109"/>
+      <c r="BL172" s="109"/>
+      <c r="BM172" s="109"/>
+      <c r="BN172" s="109"/>
+      <c r="BO172" s="109"/>
+      <c r="BP172" s="109"/>
+      <c r="BQ172" s="109"/>
+      <c r="BR172" s="109"/>
+      <c r="BS172" s="109"/>
+      <c r="BT172" s="109"/>
+      <c r="BU172" s="109"/>
+      <c r="BV172" s="109"/>
+      <c r="BW172" s="114"/>
       <c r="BX172" s="4"/>
       <c r="BY172" s="4"/>
       <c r="BZ172" s="4"/>
@@ -20865,43 +20865,43 @@
       <c r="AJ173" s="4"/>
       <c r="AK173" s="4"/>
       <c r="AL173" s="53"/>
-      <c r="AM173" s="108"/>
-      <c r="AN173" s="116"/>
-      <c r="AO173" s="108"/>
-      <c r="AP173" s="108"/>
-      <c r="AQ173" s="108"/>
-      <c r="AR173" s="108"/>
-      <c r="AS173" s="108"/>
-      <c r="AT173" s="108"/>
-      <c r="AU173" s="109"/>
-      <c r="AV173" s="108"/>
-      <c r="AW173" s="108"/>
-      <c r="AX173" s="108"/>
-      <c r="AY173" s="108"/>
-      <c r="AZ173" s="109"/>
-      <c r="BA173" s="108"/>
-      <c r="BB173" s="108"/>
-      <c r="BC173" s="108"/>
-      <c r="BD173" s="108"/>
-      <c r="BE173" s="108"/>
-      <c r="BF173" s="108"/>
-      <c r="BG173" s="108"/>
-      <c r="BH173" s="108"/>
-      <c r="BI173" s="108"/>
-      <c r="BJ173" s="108"/>
-      <c r="BK173" s="108"/>
-      <c r="BL173" s="108"/>
-      <c r="BM173" s="108"/>
-      <c r="BN173" s="108"/>
-      <c r="BO173" s="108"/>
-      <c r="BP173" s="108"/>
-      <c r="BQ173" s="108"/>
-      <c r="BR173" s="108"/>
-      <c r="BS173" s="108"/>
-      <c r="BT173" s="108"/>
-      <c r="BU173" s="108"/>
-      <c r="BV173" s="108"/>
-      <c r="BW173" s="116"/>
+      <c r="AM173" s="101"/>
+      <c r="AN173" s="102"/>
+      <c r="AO173" s="101"/>
+      <c r="AP173" s="101"/>
+      <c r="AQ173" s="101"/>
+      <c r="AR173" s="101"/>
+      <c r="AS173" s="101"/>
+      <c r="AT173" s="101"/>
+      <c r="AU173" s="120"/>
+      <c r="AV173" s="101"/>
+      <c r="AW173" s="101"/>
+      <c r="AX173" s="101"/>
+      <c r="AY173" s="101"/>
+      <c r="AZ173" s="120"/>
+      <c r="BA173" s="101"/>
+      <c r="BB173" s="101"/>
+      <c r="BC173" s="101"/>
+      <c r="BD173" s="101"/>
+      <c r="BE173" s="101"/>
+      <c r="BF173" s="101"/>
+      <c r="BG173" s="101"/>
+      <c r="BH173" s="101"/>
+      <c r="BI173" s="101"/>
+      <c r="BJ173" s="101"/>
+      <c r="BK173" s="101"/>
+      <c r="BL173" s="101"/>
+      <c r="BM173" s="101"/>
+      <c r="BN173" s="101"/>
+      <c r="BO173" s="101"/>
+      <c r="BP173" s="101"/>
+      <c r="BQ173" s="101"/>
+      <c r="BR173" s="101"/>
+      <c r="BS173" s="101"/>
+      <c r="BT173" s="101"/>
+      <c r="BU173" s="101"/>
+      <c r="BV173" s="101"/>
+      <c r="BW173" s="102"/>
       <c r="BX173" s="4"/>
       <c r="BY173" s="4"/>
       <c r="BZ173" s="4"/>
@@ -20945,10 +20945,10 @@
       <c r="AJ174" s="4"/>
       <c r="AK174" s="4"/>
       <c r="AL174" s="53"/>
-      <c r="AM174" s="93" t="s">
+      <c r="AM174" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN174" s="94"/>
+      <c r="AN174" s="116"/>
       <c r="AO174" s="59" t="s">
         <v>89</v>
       </c>
@@ -21115,8 +21115,8 @@
       <c r="AJ176" s="4"/>
       <c r="AK176" s="4"/>
       <c r="AL176" s="53"/>
-      <c r="AM176" s="97"/>
-      <c r="AN176" s="96"/>
+      <c r="AM176" s="128"/>
+      <c r="AN176" s="109"/>
       <c r="AO176" s="64"/>
       <c r="AP176" s="33"/>
       <c r="AQ176" s="33"/>
@@ -21355,8 +21355,8 @@
       <c r="AJ179" s="4"/>
       <c r="AK179" s="4"/>
       <c r="AL179" s="53"/>
-      <c r="AM179" s="95"/>
-      <c r="AN179" s="96"/>
+      <c r="AM179" s="148"/>
+      <c r="AN179" s="109"/>
       <c r="AO179" s="66"/>
       <c r="AP179" s="33"/>
       <c r="AQ179" s="33"/>
@@ -24677,190 +24677,190 @@
       <c r="BZ220" s="4"/>
     </row>
     <row r="221" spans="1:78" ht="17.25">
-      <c r="A221" s="119" t="s">
+      <c r="A221" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B221" s="105"/>
-      <c r="C221" s="105"/>
-      <c r="D221" s="105"/>
-      <c r="E221" s="120"/>
-      <c r="F221" s="117" t="s">
+      <c r="B221" s="118"/>
+      <c r="C221" s="118"/>
+      <c r="D221" s="118"/>
+      <c r="E221" s="127"/>
+      <c r="F221" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G221" s="105"/>
-      <c r="H221" s="105"/>
-      <c r="I221" s="105"/>
-      <c r="J221" s="105"/>
-      <c r="K221" s="105"/>
-      <c r="L221" s="105"/>
-      <c r="M221" s="105"/>
-      <c r="N221" s="105"/>
-      <c r="O221" s="105"/>
-      <c r="P221" s="105"/>
-      <c r="Q221" s="105"/>
-      <c r="R221" s="105"/>
-      <c r="S221" s="105"/>
-      <c r="T221" s="105"/>
-      <c r="U221" s="105"/>
-      <c r="V221" s="105"/>
-      <c r="W221" s="105"/>
-      <c r="X221" s="105"/>
-      <c r="Y221" s="105"/>
-      <c r="Z221" s="105"/>
-      <c r="AA221" s="105"/>
-      <c r="AB221" s="105"/>
-      <c r="AC221" s="105"/>
-      <c r="AD221" s="105"/>
-      <c r="AE221" s="105"/>
-      <c r="AF221" s="105"/>
-      <c r="AG221" s="105"/>
-      <c r="AH221" s="105"/>
-      <c r="AI221" s="105"/>
-      <c r="AJ221" s="105"/>
-      <c r="AK221" s="105"/>
-      <c r="AL221" s="105"/>
-      <c r="AM221" s="105"/>
-      <c r="AN221" s="105"/>
-      <c r="AO221" s="105"/>
-      <c r="AP221" s="105"/>
-      <c r="AQ221" s="105"/>
-      <c r="AR221" s="105"/>
-      <c r="AS221" s="105"/>
-      <c r="AT221" s="105"/>
-      <c r="AU221" s="105"/>
-      <c r="AV221" s="106"/>
-      <c r="AW221" s="104" t="s">
+      <c r="G221" s="118"/>
+      <c r="H221" s="118"/>
+      <c r="I221" s="118"/>
+      <c r="J221" s="118"/>
+      <c r="K221" s="118"/>
+      <c r="L221" s="118"/>
+      <c r="M221" s="118"/>
+      <c r="N221" s="118"/>
+      <c r="O221" s="118"/>
+      <c r="P221" s="118"/>
+      <c r="Q221" s="118"/>
+      <c r="R221" s="118"/>
+      <c r="S221" s="118"/>
+      <c r="T221" s="118"/>
+      <c r="U221" s="118"/>
+      <c r="V221" s="118"/>
+      <c r="W221" s="118"/>
+      <c r="X221" s="118"/>
+      <c r="Y221" s="118"/>
+      <c r="Z221" s="118"/>
+      <c r="AA221" s="118"/>
+      <c r="AB221" s="118"/>
+      <c r="AC221" s="118"/>
+      <c r="AD221" s="118"/>
+      <c r="AE221" s="118"/>
+      <c r="AF221" s="118"/>
+      <c r="AG221" s="118"/>
+      <c r="AH221" s="118"/>
+      <c r="AI221" s="118"/>
+      <c r="AJ221" s="118"/>
+      <c r="AK221" s="118"/>
+      <c r="AL221" s="118"/>
+      <c r="AM221" s="118"/>
+      <c r="AN221" s="118"/>
+      <c r="AO221" s="118"/>
+      <c r="AP221" s="118"/>
+      <c r="AQ221" s="118"/>
+      <c r="AR221" s="118"/>
+      <c r="AS221" s="118"/>
+      <c r="AT221" s="118"/>
+      <c r="AU221" s="118"/>
+      <c r="AV221" s="119"/>
+      <c r="AW221" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX221" s="105"/>
-      <c r="AY221" s="105"/>
-      <c r="AZ221" s="105"/>
-      <c r="BA221" s="106"/>
-      <c r="BB221" s="101" t="s">
+      <c r="AX221" s="118"/>
+      <c r="AY221" s="118"/>
+      <c r="AZ221" s="118"/>
+      <c r="BA221" s="119"/>
+      <c r="BB221" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC221" s="102"/>
-      <c r="BD221" s="102"/>
-      <c r="BE221" s="102"/>
-      <c r="BF221" s="102"/>
-      <c r="BG221" s="102"/>
-      <c r="BH221" s="102"/>
-      <c r="BI221" s="102"/>
-      <c r="BJ221" s="103"/>
-      <c r="BK221" s="104" t="s">
+      <c r="BC221" s="94"/>
+      <c r="BD221" s="94"/>
+      <c r="BE221" s="94"/>
+      <c r="BF221" s="94"/>
+      <c r="BG221" s="94"/>
+      <c r="BH221" s="94"/>
+      <c r="BI221" s="94"/>
+      <c r="BJ221" s="95"/>
+      <c r="BK221" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL221" s="105"/>
-      <c r="BM221" s="105"/>
-      <c r="BN221" s="105"/>
-      <c r="BO221" s="106"/>
-      <c r="BP221" s="124" t="s">
+      <c r="BL221" s="118"/>
+      <c r="BM221" s="118"/>
+      <c r="BN221" s="118"/>
+      <c r="BO221" s="119"/>
+      <c r="BP221" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ221" s="105"/>
-      <c r="BR221" s="105"/>
-      <c r="BS221" s="105"/>
-      <c r="BT221" s="105"/>
-      <c r="BU221" s="105"/>
-      <c r="BV221" s="105"/>
-      <c r="BW221" s="105"/>
-      <c r="BX221" s="120"/>
+      <c r="BQ221" s="118"/>
+      <c r="BR221" s="118"/>
+      <c r="BS221" s="118"/>
+      <c r="BT221" s="118"/>
+      <c r="BU221" s="118"/>
+      <c r="BV221" s="118"/>
+      <c r="BW221" s="118"/>
+      <c r="BX221" s="127"/>
       <c r="BY221" s="52"/>
       <c r="BZ221" s="52"/>
     </row>
     <row r="222" spans="1:78" ht="18">
-      <c r="A222" s="121" t="s">
+      <c r="A222" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B222" s="99"/>
-      <c r="C222" s="99"/>
-      <c r="D222" s="99"/>
-      <c r="E222" s="122"/>
-      <c r="F222" s="118" t="s">
+      <c r="B222" s="104"/>
+      <c r="C222" s="104"/>
+      <c r="D222" s="104"/>
+      <c r="E222" s="138"/>
+      <c r="F222" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G222" s="99"/>
-      <c r="H222" s="99"/>
-      <c r="I222" s="99"/>
-      <c r="J222" s="99"/>
-      <c r="K222" s="99"/>
-      <c r="L222" s="99"/>
-      <c r="M222" s="99"/>
-      <c r="N222" s="99"/>
-      <c r="O222" s="99"/>
-      <c r="P222" s="99"/>
-      <c r="Q222" s="99"/>
-      <c r="R222" s="99"/>
-      <c r="S222" s="99"/>
-      <c r="T222" s="99"/>
-      <c r="U222" s="99"/>
-      <c r="V222" s="99"/>
-      <c r="W222" s="99"/>
-      <c r="X222" s="99"/>
-      <c r="Y222" s="100"/>
-      <c r="Z222" s="98" t="s">
+      <c r="G222" s="104"/>
+      <c r="H222" s="104"/>
+      <c r="I222" s="104"/>
+      <c r="J222" s="104"/>
+      <c r="K222" s="104"/>
+      <c r="L222" s="104"/>
+      <c r="M222" s="104"/>
+      <c r="N222" s="104"/>
+      <c r="O222" s="104"/>
+      <c r="P222" s="104"/>
+      <c r="Q222" s="104"/>
+      <c r="R222" s="104"/>
+      <c r="S222" s="104"/>
+      <c r="T222" s="104"/>
+      <c r="U222" s="104"/>
+      <c r="V222" s="104"/>
+      <c r="W222" s="104"/>
+      <c r="X222" s="104"/>
+      <c r="Y222" s="106"/>
+      <c r="Z222" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA222" s="99"/>
-      <c r="AB222" s="99"/>
-      <c r="AC222" s="99"/>
-      <c r="AD222" s="100"/>
-      <c r="AE222" s="118" t="s">
+      <c r="AA222" s="104"/>
+      <c r="AB222" s="104"/>
+      <c r="AC222" s="104"/>
+      <c r="AD222" s="106"/>
+      <c r="AE222" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="AF222" s="99"/>
-      <c r="AG222" s="99"/>
-      <c r="AH222" s="99"/>
-      <c r="AI222" s="99"/>
-      <c r="AJ222" s="99"/>
-      <c r="AK222" s="99"/>
-      <c r="AL222" s="99"/>
-      <c r="AM222" s="99"/>
-      <c r="AN222" s="99"/>
-      <c r="AO222" s="99"/>
-      <c r="AP222" s="99"/>
-      <c r="AQ222" s="99"/>
-      <c r="AR222" s="99"/>
-      <c r="AS222" s="99"/>
-      <c r="AT222" s="99"/>
-      <c r="AU222" s="99"/>
-      <c r="AV222" s="100"/>
-      <c r="AW222" s="98" t="s">
+      <c r="AF222" s="104"/>
+      <c r="AG222" s="104"/>
+      <c r="AH222" s="104"/>
+      <c r="AI222" s="104"/>
+      <c r="AJ222" s="104"/>
+      <c r="AK222" s="104"/>
+      <c r="AL222" s="104"/>
+      <c r="AM222" s="104"/>
+      <c r="AN222" s="104"/>
+      <c r="AO222" s="104"/>
+      <c r="AP222" s="104"/>
+      <c r="AQ222" s="104"/>
+      <c r="AR222" s="104"/>
+      <c r="AS222" s="104"/>
+      <c r="AT222" s="104"/>
+      <c r="AU222" s="104"/>
+      <c r="AV222" s="106"/>
+      <c r="AW222" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX222" s="99"/>
-      <c r="AY222" s="99"/>
-      <c r="AZ222" s="99"/>
-      <c r="BA222" s="100"/>
-      <c r="BB222" s="110" t="s">
+      <c r="AX222" s="104"/>
+      <c r="AY222" s="104"/>
+      <c r="AZ222" s="104"/>
+      <c r="BA222" s="106"/>
+      <c r="BB222" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC222" s="99"/>
-      <c r="BD222" s="99"/>
-      <c r="BE222" s="99"/>
-      <c r="BF222" s="99"/>
-      <c r="BG222" s="99"/>
-      <c r="BH222" s="99"/>
-      <c r="BI222" s="99"/>
-      <c r="BJ222" s="99"/>
-      <c r="BK222" s="98" t="s">
+      <c r="BC222" s="104"/>
+      <c r="BD222" s="104"/>
+      <c r="BE222" s="104"/>
+      <c r="BF222" s="104"/>
+      <c r="BG222" s="104"/>
+      <c r="BH222" s="104"/>
+      <c r="BI222" s="104"/>
+      <c r="BJ222" s="104"/>
+      <c r="BK222" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="BL222" s="99"/>
-      <c r="BM222" s="99"/>
-      <c r="BN222" s="99"/>
-      <c r="BO222" s="100"/>
-      <c r="BP222" s="124" t="s">
+      <c r="BL222" s="104"/>
+      <c r="BM222" s="104"/>
+      <c r="BN222" s="104"/>
+      <c r="BO222" s="106"/>
+      <c r="BP222" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ222" s="105"/>
-      <c r="BR222" s="105"/>
-      <c r="BS222" s="105"/>
-      <c r="BT222" s="105"/>
-      <c r="BU222" s="105"/>
-      <c r="BV222" s="105"/>
-      <c r="BW222" s="105"/>
-      <c r="BX222" s="120"/>
+      <c r="BQ222" s="118"/>
+      <c r="BR222" s="118"/>
+      <c r="BS222" s="118"/>
+      <c r="BT222" s="118"/>
+      <c r="BU222" s="118"/>
+      <c r="BV222" s="118"/>
+      <c r="BW222" s="118"/>
+      <c r="BX222" s="127"/>
       <c r="BY222" s="52"/>
       <c r="BZ222" s="52"/>
     </row>
@@ -25063,51 +25063,51 @@
       <c r="AJ225" s="4"/>
       <c r="AK225" s="4"/>
       <c r="AL225" s="53"/>
-      <c r="AM225" s="107" t="s">
+      <c r="AM225" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN225" s="115"/>
-      <c r="AO225" s="107" t="s">
+      <c r="AN225" s="114"/>
+      <c r="AO225" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP225" s="96"/>
-      <c r="AQ225" s="96"/>
-      <c r="AR225" s="96"/>
-      <c r="AS225" s="96"/>
-      <c r="AT225" s="96"/>
-      <c r="AU225" s="94"/>
-      <c r="AV225" s="107" t="s">
+      <c r="AP225" s="109"/>
+      <c r="AQ225" s="109"/>
+      <c r="AR225" s="109"/>
+      <c r="AS225" s="109"/>
+      <c r="AT225" s="109"/>
+      <c r="AU225" s="116"/>
+      <c r="AV225" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW225" s="96"/>
-      <c r="AX225" s="96"/>
-      <c r="AY225" s="96"/>
-      <c r="AZ225" s="94"/>
-      <c r="BA225" s="107" t="s">
+      <c r="AW225" s="109"/>
+      <c r="AX225" s="109"/>
+      <c r="AY225" s="109"/>
+      <c r="AZ225" s="116"/>
+      <c r="BA225" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB225" s="96"/>
-      <c r="BC225" s="96"/>
-      <c r="BD225" s="96"/>
-      <c r="BE225" s="96"/>
-      <c r="BF225" s="96"/>
-      <c r="BG225" s="96"/>
-      <c r="BH225" s="96"/>
-      <c r="BI225" s="96"/>
-      <c r="BJ225" s="96"/>
-      <c r="BK225" s="96"/>
-      <c r="BL225" s="96"/>
-      <c r="BM225" s="96"/>
-      <c r="BN225" s="96"/>
-      <c r="BO225" s="96"/>
-      <c r="BP225" s="96"/>
-      <c r="BQ225" s="96"/>
-      <c r="BR225" s="96"/>
-      <c r="BS225" s="96"/>
-      <c r="BT225" s="96"/>
-      <c r="BU225" s="96"/>
-      <c r="BV225" s="96"/>
-      <c r="BW225" s="115"/>
+      <c r="BB225" s="109"/>
+      <c r="BC225" s="109"/>
+      <c r="BD225" s="109"/>
+      <c r="BE225" s="109"/>
+      <c r="BF225" s="109"/>
+      <c r="BG225" s="109"/>
+      <c r="BH225" s="109"/>
+      <c r="BI225" s="109"/>
+      <c r="BJ225" s="109"/>
+      <c r="BK225" s="109"/>
+      <c r="BL225" s="109"/>
+      <c r="BM225" s="109"/>
+      <c r="BN225" s="109"/>
+      <c r="BO225" s="109"/>
+      <c r="BP225" s="109"/>
+      <c r="BQ225" s="109"/>
+      <c r="BR225" s="109"/>
+      <c r="BS225" s="109"/>
+      <c r="BT225" s="109"/>
+      <c r="BU225" s="109"/>
+      <c r="BV225" s="109"/>
+      <c r="BW225" s="114"/>
       <c r="BX225" s="4"/>
       <c r="BY225" s="4"/>
       <c r="BZ225" s="4"/>
@@ -25151,43 +25151,43 @@
       <c r="AJ226" s="4"/>
       <c r="AK226" s="4"/>
       <c r="AL226" s="53"/>
-      <c r="AM226" s="108"/>
-      <c r="AN226" s="116"/>
-      <c r="AO226" s="108"/>
-      <c r="AP226" s="108"/>
-      <c r="AQ226" s="108"/>
-      <c r="AR226" s="108"/>
-      <c r="AS226" s="108"/>
-      <c r="AT226" s="108"/>
-      <c r="AU226" s="109"/>
-      <c r="AV226" s="108"/>
-      <c r="AW226" s="108"/>
-      <c r="AX226" s="108"/>
-      <c r="AY226" s="108"/>
-      <c r="AZ226" s="109"/>
-      <c r="BA226" s="108"/>
-      <c r="BB226" s="108"/>
-      <c r="BC226" s="108"/>
-      <c r="BD226" s="108"/>
-      <c r="BE226" s="108"/>
-      <c r="BF226" s="108"/>
-      <c r="BG226" s="108"/>
-      <c r="BH226" s="108"/>
-      <c r="BI226" s="108"/>
-      <c r="BJ226" s="108"/>
-      <c r="BK226" s="108"/>
-      <c r="BL226" s="108"/>
-      <c r="BM226" s="108"/>
-      <c r="BN226" s="108"/>
-      <c r="BO226" s="108"/>
-      <c r="BP226" s="108"/>
-      <c r="BQ226" s="108"/>
-      <c r="BR226" s="108"/>
-      <c r="BS226" s="108"/>
-      <c r="BT226" s="108"/>
-      <c r="BU226" s="108"/>
-      <c r="BV226" s="108"/>
-      <c r="BW226" s="116"/>
+      <c r="AM226" s="101"/>
+      <c r="AN226" s="102"/>
+      <c r="AO226" s="101"/>
+      <c r="AP226" s="101"/>
+      <c r="AQ226" s="101"/>
+      <c r="AR226" s="101"/>
+      <c r="AS226" s="101"/>
+      <c r="AT226" s="101"/>
+      <c r="AU226" s="120"/>
+      <c r="AV226" s="101"/>
+      <c r="AW226" s="101"/>
+      <c r="AX226" s="101"/>
+      <c r="AY226" s="101"/>
+      <c r="AZ226" s="120"/>
+      <c r="BA226" s="101"/>
+      <c r="BB226" s="101"/>
+      <c r="BC226" s="101"/>
+      <c r="BD226" s="101"/>
+      <c r="BE226" s="101"/>
+      <c r="BF226" s="101"/>
+      <c r="BG226" s="101"/>
+      <c r="BH226" s="101"/>
+      <c r="BI226" s="101"/>
+      <c r="BJ226" s="101"/>
+      <c r="BK226" s="101"/>
+      <c r="BL226" s="101"/>
+      <c r="BM226" s="101"/>
+      <c r="BN226" s="101"/>
+      <c r="BO226" s="101"/>
+      <c r="BP226" s="101"/>
+      <c r="BQ226" s="101"/>
+      <c r="BR226" s="101"/>
+      <c r="BS226" s="101"/>
+      <c r="BT226" s="101"/>
+      <c r="BU226" s="101"/>
+      <c r="BV226" s="101"/>
+      <c r="BW226" s="102"/>
       <c r="BX226" s="4"/>
       <c r="BY226" s="4"/>
       <c r="BZ226" s="4"/>
@@ -25231,10 +25231,10 @@
       <c r="AJ227" s="4"/>
       <c r="AK227" s="4"/>
       <c r="AL227" s="53"/>
-      <c r="AM227" s="93" t="s">
+      <c r="AM227" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN227" s="94"/>
+      <c r="AN227" s="116"/>
       <c r="AO227" s="59" t="s">
         <v>89</v>
       </c>
@@ -25641,8 +25641,8 @@
       <c r="AJ232" s="4"/>
       <c r="AK232" s="4"/>
       <c r="AL232" s="53"/>
-      <c r="AM232" s="95"/>
-      <c r="AN232" s="96"/>
+      <c r="AM232" s="148"/>
+      <c r="AN232" s="109"/>
       <c r="AO232" s="66"/>
       <c r="AP232" s="33"/>
       <c r="AQ232" s="33"/>
@@ -28963,190 +28963,190 @@
       <c r="BZ273" s="4"/>
     </row>
     <row r="274" spans="1:78" ht="17.25">
-      <c r="A274" s="119" t="s">
+      <c r="A274" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B274" s="105"/>
-      <c r="C274" s="105"/>
-      <c r="D274" s="105"/>
-      <c r="E274" s="120"/>
-      <c r="F274" s="117" t="s">
+      <c r="B274" s="118"/>
+      <c r="C274" s="118"/>
+      <c r="D274" s="118"/>
+      <c r="E274" s="127"/>
+      <c r="F274" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="G274" s="105"/>
-      <c r="H274" s="105"/>
-      <c r="I274" s="105"/>
-      <c r="J274" s="105"/>
-      <c r="K274" s="105"/>
-      <c r="L274" s="105"/>
-      <c r="M274" s="105"/>
-      <c r="N274" s="105"/>
-      <c r="O274" s="105"/>
-      <c r="P274" s="105"/>
-      <c r="Q274" s="105"/>
-      <c r="R274" s="105"/>
-      <c r="S274" s="105"/>
-      <c r="T274" s="105"/>
-      <c r="U274" s="105"/>
-      <c r="V274" s="105"/>
-      <c r="W274" s="105"/>
-      <c r="X274" s="105"/>
-      <c r="Y274" s="105"/>
-      <c r="Z274" s="105"/>
-      <c r="AA274" s="105"/>
-      <c r="AB274" s="105"/>
-      <c r="AC274" s="105"/>
-      <c r="AD274" s="105"/>
-      <c r="AE274" s="105"/>
-      <c r="AF274" s="105"/>
-      <c r="AG274" s="105"/>
-      <c r="AH274" s="105"/>
-      <c r="AI274" s="105"/>
-      <c r="AJ274" s="105"/>
-      <c r="AK274" s="105"/>
-      <c r="AL274" s="105"/>
-      <c r="AM274" s="105"/>
-      <c r="AN274" s="105"/>
-      <c r="AO274" s="105"/>
-      <c r="AP274" s="105"/>
-      <c r="AQ274" s="105"/>
-      <c r="AR274" s="105"/>
-      <c r="AS274" s="105"/>
-      <c r="AT274" s="105"/>
-      <c r="AU274" s="105"/>
-      <c r="AV274" s="106"/>
-      <c r="AW274" s="104" t="s">
+      <c r="G274" s="118"/>
+      <c r="H274" s="118"/>
+      <c r="I274" s="118"/>
+      <c r="J274" s="118"/>
+      <c r="K274" s="118"/>
+      <c r="L274" s="118"/>
+      <c r="M274" s="118"/>
+      <c r="N274" s="118"/>
+      <c r="O274" s="118"/>
+      <c r="P274" s="118"/>
+      <c r="Q274" s="118"/>
+      <c r="R274" s="118"/>
+      <c r="S274" s="118"/>
+      <c r="T274" s="118"/>
+      <c r="U274" s="118"/>
+      <c r="V274" s="118"/>
+      <c r="W274" s="118"/>
+      <c r="X274" s="118"/>
+      <c r="Y274" s="118"/>
+      <c r="Z274" s="118"/>
+      <c r="AA274" s="118"/>
+      <c r="AB274" s="118"/>
+      <c r="AC274" s="118"/>
+      <c r="AD274" s="118"/>
+      <c r="AE274" s="118"/>
+      <c r="AF274" s="118"/>
+      <c r="AG274" s="118"/>
+      <c r="AH274" s="118"/>
+      <c r="AI274" s="118"/>
+      <c r="AJ274" s="118"/>
+      <c r="AK274" s="118"/>
+      <c r="AL274" s="118"/>
+      <c r="AM274" s="118"/>
+      <c r="AN274" s="118"/>
+      <c r="AO274" s="118"/>
+      <c r="AP274" s="118"/>
+      <c r="AQ274" s="118"/>
+      <c r="AR274" s="118"/>
+      <c r="AS274" s="118"/>
+      <c r="AT274" s="118"/>
+      <c r="AU274" s="118"/>
+      <c r="AV274" s="119"/>
+      <c r="AW274" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="AX274" s="105"/>
-      <c r="AY274" s="105"/>
-      <c r="AZ274" s="105"/>
-      <c r="BA274" s="106"/>
-      <c r="BB274" s="101" t="s">
+      <c r="AX274" s="118"/>
+      <c r="AY274" s="118"/>
+      <c r="AZ274" s="118"/>
+      <c r="BA274" s="119"/>
+      <c r="BB274" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="BC274" s="102"/>
-      <c r="BD274" s="102"/>
-      <c r="BE274" s="102"/>
-      <c r="BF274" s="102"/>
-      <c r="BG274" s="102"/>
-      <c r="BH274" s="102"/>
-      <c r="BI274" s="102"/>
-      <c r="BJ274" s="103"/>
-      <c r="BK274" s="104" t="s">
+      <c r="BC274" s="94"/>
+      <c r="BD274" s="94"/>
+      <c r="BE274" s="94"/>
+      <c r="BF274" s="94"/>
+      <c r="BG274" s="94"/>
+      <c r="BH274" s="94"/>
+      <c r="BI274" s="94"/>
+      <c r="BJ274" s="95"/>
+      <c r="BK274" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="BL274" s="105"/>
-      <c r="BM274" s="105"/>
-      <c r="BN274" s="105"/>
-      <c r="BO274" s="106"/>
-      <c r="BP274" s="124" t="s">
+      <c r="BL274" s="118"/>
+      <c r="BM274" s="118"/>
+      <c r="BN274" s="118"/>
+      <c r="BO274" s="119"/>
+      <c r="BP274" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ274" s="105"/>
-      <c r="BR274" s="105"/>
-      <c r="BS274" s="105"/>
-      <c r="BT274" s="105"/>
-      <c r="BU274" s="105"/>
-      <c r="BV274" s="105"/>
-      <c r="BW274" s="105"/>
-      <c r="BX274" s="120"/>
+      <c r="BQ274" s="118"/>
+      <c r="BR274" s="118"/>
+      <c r="BS274" s="118"/>
+      <c r="BT274" s="118"/>
+      <c r="BU274" s="118"/>
+      <c r="BV274" s="118"/>
+      <c r="BW274" s="118"/>
+      <c r="BX274" s="127"/>
       <c r="BY274" s="52"/>
       <c r="BZ274" s="52"/>
     </row>
     <row r="275" spans="1:78" ht="18">
-      <c r="A275" s="121" t="s">
+      <c r="A275" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B275" s="99"/>
-      <c r="C275" s="99"/>
-      <c r="D275" s="99"/>
-      <c r="E275" s="122"/>
-      <c r="F275" s="118" t="s">
+      <c r="B275" s="104"/>
+      <c r="C275" s="104"/>
+      <c r="D275" s="104"/>
+      <c r="E275" s="138"/>
+      <c r="F275" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G275" s="99"/>
-      <c r="H275" s="99"/>
-      <c r="I275" s="99"/>
-      <c r="J275" s="99"/>
-      <c r="K275" s="99"/>
-      <c r="L275" s="99"/>
-      <c r="M275" s="99"/>
-      <c r="N275" s="99"/>
-      <c r="O275" s="99"/>
-      <c r="P275" s="99"/>
-      <c r="Q275" s="99"/>
-      <c r="R275" s="99"/>
-      <c r="S275" s="99"/>
-      <c r="T275" s="99"/>
-      <c r="U275" s="99"/>
-      <c r="V275" s="99"/>
-      <c r="W275" s="99"/>
-      <c r="X275" s="99"/>
-      <c r="Y275" s="100"/>
-      <c r="Z275" s="98" t="s">
+      <c r="G275" s="104"/>
+      <c r="H275" s="104"/>
+      <c r="I275" s="104"/>
+      <c r="J275" s="104"/>
+      <c r="K275" s="104"/>
+      <c r="L275" s="104"/>
+      <c r="M275" s="104"/>
+      <c r="N275" s="104"/>
+      <c r="O275" s="104"/>
+      <c r="P275" s="104"/>
+      <c r="Q275" s="104"/>
+      <c r="R275" s="104"/>
+      <c r="S275" s="104"/>
+      <c r="T275" s="104"/>
+      <c r="U275" s="104"/>
+      <c r="V275" s="104"/>
+      <c r="W275" s="104"/>
+      <c r="X275" s="104"/>
+      <c r="Y275" s="106"/>
+      <c r="Z275" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="AA275" s="99"/>
-      <c r="AB275" s="99"/>
-      <c r="AC275" s="99"/>
-      <c r="AD275" s="100"/>
-      <c r="AE275" s="118" t="s">
+      <c r="AA275" s="104"/>
+      <c r="AB275" s="104"/>
+      <c r="AC275" s="104"/>
+      <c r="AD275" s="106"/>
+      <c r="AE275" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="AF275" s="99"/>
-      <c r="AG275" s="99"/>
-      <c r="AH275" s="99"/>
-      <c r="AI275" s="99"/>
-      <c r="AJ275" s="99"/>
-      <c r="AK275" s="99"/>
-      <c r="AL275" s="99"/>
-      <c r="AM275" s="99"/>
-      <c r="AN275" s="99"/>
-      <c r="AO275" s="99"/>
-      <c r="AP275" s="99"/>
-      <c r="AQ275" s="99"/>
-      <c r="AR275" s="99"/>
-      <c r="AS275" s="99"/>
-      <c r="AT275" s="99"/>
-      <c r="AU275" s="99"/>
-      <c r="AV275" s="100"/>
-      <c r="AW275" s="98" t="s">
+      <c r="AF275" s="104"/>
+      <c r="AG275" s="104"/>
+      <c r="AH275" s="104"/>
+      <c r="AI275" s="104"/>
+      <c r="AJ275" s="104"/>
+      <c r="AK275" s="104"/>
+      <c r="AL275" s="104"/>
+      <c r="AM275" s="104"/>
+      <c r="AN275" s="104"/>
+      <c r="AO275" s="104"/>
+      <c r="AP275" s="104"/>
+      <c r="AQ275" s="104"/>
+      <c r="AR275" s="104"/>
+      <c r="AS275" s="104"/>
+      <c r="AT275" s="104"/>
+      <c r="AU275" s="104"/>
+      <c r="AV275" s="106"/>
+      <c r="AW275" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AX275" s="99"/>
-      <c r="AY275" s="99"/>
-      <c r="AZ275" s="99"/>
-      <c r="BA275" s="100"/>
-      <c r="BB275" s="110" t="s">
+      <c r="AX275" s="104"/>
+      <c r="AY275" s="104"/>
+      <c r="AZ275" s="104"/>
+      <c r="BA275" s="106"/>
+      <c r="BB275" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="BC275" s="99"/>
-      <c r="BD275" s="99"/>
-      <c r="BE275" s="99"/>
-      <c r="BF275" s="99"/>
-      <c r="BG275" s="99"/>
-      <c r="BH275" s="99"/>
-      <c r="BI275" s="99"/>
-      <c r="BJ275" s="99"/>
-      <c r="BK275" s="131" t="s">
+      <c r="BC275" s="104"/>
+      <c r="BD275" s="104"/>
+      <c r="BE275" s="104"/>
+      <c r="BF275" s="104"/>
+      <c r="BG275" s="104"/>
+      <c r="BH275" s="104"/>
+      <c r="BI275" s="104"/>
+      <c r="BJ275" s="104"/>
+      <c r="BK275" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="BL275" s="102"/>
-      <c r="BM275" s="102"/>
-      <c r="BN275" s="102"/>
-      <c r="BO275" s="103"/>
-      <c r="BP275" s="124" t="s">
+      <c r="BL275" s="94"/>
+      <c r="BM275" s="94"/>
+      <c r="BN275" s="94"/>
+      <c r="BO275" s="95"/>
+      <c r="BP275" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="BQ275" s="105"/>
-      <c r="BR275" s="105"/>
-      <c r="BS275" s="105"/>
-      <c r="BT275" s="105"/>
-      <c r="BU275" s="105"/>
-      <c r="BV275" s="105"/>
-      <c r="BW275" s="105"/>
-      <c r="BX275" s="120"/>
+      <c r="BQ275" s="118"/>
+      <c r="BR275" s="118"/>
+      <c r="BS275" s="118"/>
+      <c r="BT275" s="118"/>
+      <c r="BU275" s="118"/>
+      <c r="BV275" s="118"/>
+      <c r="BW275" s="118"/>
+      <c r="BX275" s="127"/>
       <c r="BY275" s="52"/>
       <c r="BZ275" s="52"/>
     </row>
@@ -29349,51 +29349,51 @@
       <c r="AJ278" s="4"/>
       <c r="AK278" s="4"/>
       <c r="AL278" s="53"/>
-      <c r="AM278" s="107" t="s">
+      <c r="AM278" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AN278" s="115"/>
-      <c r="AO278" s="107" t="s">
+      <c r="AN278" s="114"/>
+      <c r="AO278" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="AP278" s="96"/>
-      <c r="AQ278" s="96"/>
-      <c r="AR278" s="96"/>
-      <c r="AS278" s="96"/>
-      <c r="AT278" s="96"/>
-      <c r="AU278" s="94"/>
-      <c r="AV278" s="107" t="s">
+      <c r="AP278" s="109"/>
+      <c r="AQ278" s="109"/>
+      <c r="AR278" s="109"/>
+      <c r="AS278" s="109"/>
+      <c r="AT278" s="109"/>
+      <c r="AU278" s="116"/>
+      <c r="AV278" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="AW278" s="96"/>
-      <c r="AX278" s="96"/>
-      <c r="AY278" s="96"/>
-      <c r="AZ278" s="94"/>
-      <c r="BA278" s="107" t="s">
+      <c r="AW278" s="109"/>
+      <c r="AX278" s="109"/>
+      <c r="AY278" s="109"/>
+      <c r="AZ278" s="116"/>
+      <c r="BA278" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="BB278" s="96"/>
-      <c r="BC278" s="96"/>
-      <c r="BD278" s="96"/>
-      <c r="BE278" s="96"/>
-      <c r="BF278" s="96"/>
-      <c r="BG278" s="96"/>
-      <c r="BH278" s="96"/>
-      <c r="BI278" s="96"/>
-      <c r="BJ278" s="96"/>
-      <c r="BK278" s="96"/>
-      <c r="BL278" s="96"/>
-      <c r="BM278" s="96"/>
-      <c r="BN278" s="96"/>
-      <c r="BO278" s="96"/>
-      <c r="BP278" s="96"/>
-      <c r="BQ278" s="96"/>
-      <c r="BR278" s="96"/>
-      <c r="BS278" s="96"/>
-      <c r="BT278" s="96"/>
-      <c r="BU278" s="96"/>
-      <c r="BV278" s="96"/>
-      <c r="BW278" s="115"/>
+      <c r="BB278" s="109"/>
+      <c r="BC278" s="109"/>
+      <c r="BD278" s="109"/>
+      <c r="BE278" s="109"/>
+      <c r="BF278" s="109"/>
+      <c r="BG278" s="109"/>
+      <c r="BH278" s="109"/>
+      <c r="BI278" s="109"/>
+      <c r="BJ278" s="109"/>
+      <c r="BK278" s="109"/>
+      <c r="BL278" s="109"/>
+      <c r="BM278" s="109"/>
+      <c r="BN278" s="109"/>
+      <c r="BO278" s="109"/>
+      <c r="BP278" s="109"/>
+      <c r="BQ278" s="109"/>
+      <c r="BR278" s="109"/>
+      <c r="BS278" s="109"/>
+      <c r="BT278" s="109"/>
+      <c r="BU278" s="109"/>
+      <c r="BV278" s="109"/>
+      <c r="BW278" s="114"/>
       <c r="BX278" s="4"/>
       <c r="BY278" s="4"/>
       <c r="BZ278" s="4"/>
@@ -29437,43 +29437,43 @@
       <c r="AJ279" s="4"/>
       <c r="AK279" s="4"/>
       <c r="AL279" s="53"/>
-      <c r="AM279" s="108"/>
-      <c r="AN279" s="116"/>
-      <c r="AO279" s="108"/>
-      <c r="AP279" s="108"/>
-      <c r="AQ279" s="108"/>
-      <c r="AR279" s="108"/>
-      <c r="AS279" s="108"/>
-      <c r="AT279" s="108"/>
-      <c r="AU279" s="109"/>
-      <c r="AV279" s="108"/>
-      <c r="AW279" s="108"/>
-      <c r="AX279" s="108"/>
-      <c r="AY279" s="108"/>
-      <c r="AZ279" s="109"/>
-      <c r="BA279" s="108"/>
-      <c r="BB279" s="108"/>
-      <c r="BC279" s="108"/>
-      <c r="BD279" s="108"/>
-      <c r="BE279" s="108"/>
-      <c r="BF279" s="108"/>
-      <c r="BG279" s="108"/>
-      <c r="BH279" s="108"/>
-      <c r="BI279" s="108"/>
-      <c r="BJ279" s="108"/>
-      <c r="BK279" s="108"/>
-      <c r="BL279" s="108"/>
-      <c r="BM279" s="108"/>
-      <c r="BN279" s="108"/>
-      <c r="BO279" s="108"/>
-      <c r="BP279" s="108"/>
-      <c r="BQ279" s="108"/>
-      <c r="BR279" s="108"/>
-      <c r="BS279" s="108"/>
-      <c r="BT279" s="108"/>
-      <c r="BU279" s="108"/>
-      <c r="BV279" s="108"/>
-      <c r="BW279" s="116"/>
+      <c r="AM279" s="101"/>
+      <c r="AN279" s="102"/>
+      <c r="AO279" s="101"/>
+      <c r="AP279" s="101"/>
+      <c r="AQ279" s="101"/>
+      <c r="AR279" s="101"/>
+      <c r="AS279" s="101"/>
+      <c r="AT279" s="101"/>
+      <c r="AU279" s="120"/>
+      <c r="AV279" s="101"/>
+      <c r="AW279" s="101"/>
+      <c r="AX279" s="101"/>
+      <c r="AY279" s="101"/>
+      <c r="AZ279" s="120"/>
+      <c r="BA279" s="101"/>
+      <c r="BB279" s="101"/>
+      <c r="BC279" s="101"/>
+      <c r="BD279" s="101"/>
+      <c r="BE279" s="101"/>
+      <c r="BF279" s="101"/>
+      <c r="BG279" s="101"/>
+      <c r="BH279" s="101"/>
+      <c r="BI279" s="101"/>
+      <c r="BJ279" s="101"/>
+      <c r="BK279" s="101"/>
+      <c r="BL279" s="101"/>
+      <c r="BM279" s="101"/>
+      <c r="BN279" s="101"/>
+      <c r="BO279" s="101"/>
+      <c r="BP279" s="101"/>
+      <c r="BQ279" s="101"/>
+      <c r="BR279" s="101"/>
+      <c r="BS279" s="101"/>
+      <c r="BT279" s="101"/>
+      <c r="BU279" s="101"/>
+      <c r="BV279" s="101"/>
+      <c r="BW279" s="102"/>
       <c r="BX279" s="4"/>
       <c r="BY279" s="4"/>
       <c r="BZ279" s="4"/>
@@ -29517,10 +29517,10 @@
       <c r="AJ280" s="4"/>
       <c r="AK280" s="4"/>
       <c r="AL280" s="53"/>
-      <c r="AM280" s="93" t="s">
+      <c r="AM280" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="AN280" s="94"/>
+      <c r="AN280" s="116"/>
       <c r="AO280" s="59" t="s">
         <v>89</v>
       </c>
@@ -29929,8 +29929,8 @@
       <c r="AJ285" s="4"/>
       <c r="AK285" s="4"/>
       <c r="AL285" s="53"/>
-      <c r="AM285" s="95"/>
-      <c r="AN285" s="96"/>
+      <c r="AM285" s="148"/>
+      <c r="AN285" s="109"/>
       <c r="AO285" s="66"/>
       <c r="AP285" s="33"/>
       <c r="AQ285" s="33"/>
@@ -33252,6 +33252,143 @@
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AM73:AN73"/>
+    <mergeCell ref="AM70:AN70"/>
+    <mergeCell ref="AW169:BA169"/>
+    <mergeCell ref="BB168:BJ168"/>
+    <mergeCell ref="AW168:BA168"/>
+    <mergeCell ref="AO66:AU67"/>
+    <mergeCell ref="AM68:AN68"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="AV119:AZ120"/>
+    <mergeCell ref="AO119:AU120"/>
+    <mergeCell ref="BB116:BJ116"/>
+    <mergeCell ref="AW116:BA116"/>
+    <mergeCell ref="AW115:BA115"/>
+    <mergeCell ref="BB115:BJ115"/>
+    <mergeCell ref="AM123:AN123"/>
+    <mergeCell ref="AM126:AN126"/>
+    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AM278:AN279"/>
+    <mergeCell ref="AM285:AN285"/>
+    <mergeCell ref="AM280:AN280"/>
+    <mergeCell ref="AV225:AZ226"/>
+    <mergeCell ref="BA225:BW226"/>
+    <mergeCell ref="AM179:AN179"/>
+    <mergeCell ref="AM232:AN232"/>
+    <mergeCell ref="AM227:AN227"/>
+    <mergeCell ref="AM225:AN226"/>
+    <mergeCell ref="AO225:AU226"/>
+    <mergeCell ref="F221:AV221"/>
+    <mergeCell ref="AE222:AV222"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="F115:AV115"/>
+    <mergeCell ref="Z116:AD116"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="AE116:AV116"/>
+    <mergeCell ref="Z222:AD222"/>
+    <mergeCell ref="K38:T39"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="BB221:BJ221"/>
+    <mergeCell ref="BK221:BO221"/>
+    <mergeCell ref="BP221:BX221"/>
+    <mergeCell ref="AW221:BA221"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F116:Y116"/>
+    <mergeCell ref="K35:T36"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="AW222:BA222"/>
+    <mergeCell ref="BB222:BJ222"/>
+    <mergeCell ref="AE63:AV63"/>
+    <mergeCell ref="AM61:AN61"/>
+    <mergeCell ref="C67:H68"/>
+    <mergeCell ref="G74:N75"/>
+    <mergeCell ref="AM119:AN120"/>
+    <mergeCell ref="BP116:BX116"/>
+    <mergeCell ref="BP115:BX115"/>
+    <mergeCell ref="AM66:AN67"/>
+    <mergeCell ref="AW63:BA63"/>
+    <mergeCell ref="BK62:BO62"/>
+    <mergeCell ref="AW62:BA62"/>
+    <mergeCell ref="BB62:BJ62"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="F275:Y275"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="BP274:BX274"/>
+    <mergeCell ref="BP275:BX275"/>
+    <mergeCell ref="AO278:AU279"/>
+    <mergeCell ref="BK274:BO274"/>
+    <mergeCell ref="Z169:AD169"/>
+    <mergeCell ref="BP169:BX169"/>
+    <mergeCell ref="BA172:BW173"/>
+    <mergeCell ref="AV278:AZ279"/>
+    <mergeCell ref="BA278:BW279"/>
+    <mergeCell ref="Z275:AD275"/>
+    <mergeCell ref="AE275:AV275"/>
+    <mergeCell ref="BB275:BJ275"/>
+    <mergeCell ref="BK275:BO275"/>
+    <mergeCell ref="F274:AV274"/>
+    <mergeCell ref="AW274:BA274"/>
+    <mergeCell ref="BB274:BJ274"/>
+    <mergeCell ref="AW275:BA275"/>
+    <mergeCell ref="BP222:BX222"/>
+    <mergeCell ref="BK222:BO222"/>
+    <mergeCell ref="F222:Y222"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="BP168:BX168"/>
+    <mergeCell ref="F169:Y169"/>
+    <mergeCell ref="AO172:AU173"/>
+    <mergeCell ref="AM176:AN176"/>
+    <mergeCell ref="AM174:AN174"/>
+    <mergeCell ref="AM172:AN173"/>
+    <mergeCell ref="AV172:AZ173"/>
+    <mergeCell ref="F168:AV168"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="Z63:AD63"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="F63:Y63"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP63:BX63"/>
+    <mergeCell ref="BP62:BX62"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F62:AV62"/>
+    <mergeCell ref="K43:T44"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="W35:AA36"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AB35:AG36"/>
+    <mergeCell ref="AB43:AG44"/>
+    <mergeCell ref="AB38:AG39"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM39:AN39"/>
     <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="BA5:BW6"/>
@@ -33276,143 +33413,6 @@
     <mergeCell ref="AM13:AN13"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K43:T44"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="W35:AA36"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AB35:AG36"/>
-    <mergeCell ref="AB43:AG44"/>
-    <mergeCell ref="AB38:AG39"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="BP168:BX168"/>
-    <mergeCell ref="F169:Y169"/>
-    <mergeCell ref="AO172:AU173"/>
-    <mergeCell ref="AM176:AN176"/>
-    <mergeCell ref="AM174:AN174"/>
-    <mergeCell ref="AM172:AN173"/>
-    <mergeCell ref="AV172:AZ173"/>
-    <mergeCell ref="F168:AV168"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="Z63:AD63"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="F63:Y63"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP63:BX63"/>
-    <mergeCell ref="BP62:BX62"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F62:AV62"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="F275:Y275"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="BP274:BX274"/>
-    <mergeCell ref="BP275:BX275"/>
-    <mergeCell ref="AO278:AU279"/>
-    <mergeCell ref="BK274:BO274"/>
-    <mergeCell ref="Z169:AD169"/>
-    <mergeCell ref="BP169:BX169"/>
-    <mergeCell ref="BA172:BW173"/>
-    <mergeCell ref="AV278:AZ279"/>
-    <mergeCell ref="BA278:BW279"/>
-    <mergeCell ref="Z275:AD275"/>
-    <mergeCell ref="AE275:AV275"/>
-    <mergeCell ref="BB275:BJ275"/>
-    <mergeCell ref="BK275:BO275"/>
-    <mergeCell ref="F274:AV274"/>
-    <mergeCell ref="AW274:BA274"/>
-    <mergeCell ref="BB274:BJ274"/>
-    <mergeCell ref="AW275:BA275"/>
-    <mergeCell ref="BP222:BX222"/>
-    <mergeCell ref="BK222:BO222"/>
-    <mergeCell ref="F222:Y222"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="BB221:BJ221"/>
-    <mergeCell ref="BK221:BO221"/>
-    <mergeCell ref="BP221:BX221"/>
-    <mergeCell ref="AW221:BA221"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F116:Y116"/>
-    <mergeCell ref="K35:T36"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="AW222:BA222"/>
-    <mergeCell ref="BB222:BJ222"/>
-    <mergeCell ref="AE63:AV63"/>
-    <mergeCell ref="AM61:AN61"/>
-    <mergeCell ref="C67:H68"/>
-    <mergeCell ref="G74:N75"/>
-    <mergeCell ref="AM119:AN120"/>
-    <mergeCell ref="BP116:BX116"/>
-    <mergeCell ref="BP115:BX115"/>
-    <mergeCell ref="AM66:AN67"/>
-    <mergeCell ref="AW63:BA63"/>
-    <mergeCell ref="BK62:BO62"/>
-    <mergeCell ref="AW62:BA62"/>
-    <mergeCell ref="BB62:BJ62"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AM278:AN279"/>
-    <mergeCell ref="AM285:AN285"/>
-    <mergeCell ref="AM280:AN280"/>
-    <mergeCell ref="AV225:AZ226"/>
-    <mergeCell ref="BA225:BW226"/>
-    <mergeCell ref="AM179:AN179"/>
-    <mergeCell ref="AM232:AN232"/>
-    <mergeCell ref="AM227:AN227"/>
-    <mergeCell ref="AM225:AN226"/>
-    <mergeCell ref="AO225:AU226"/>
-    <mergeCell ref="F221:AV221"/>
-    <mergeCell ref="AE222:AV222"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="F115:AV115"/>
-    <mergeCell ref="Z116:AD116"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="AE116:AV116"/>
-    <mergeCell ref="Z222:AD222"/>
-    <mergeCell ref="K38:T39"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AM73:AN73"/>
-    <mergeCell ref="AM70:AN70"/>
-    <mergeCell ref="AW169:BA169"/>
-    <mergeCell ref="BB168:BJ168"/>
-    <mergeCell ref="AW168:BA168"/>
-    <mergeCell ref="AO66:AU67"/>
-    <mergeCell ref="AM68:AN68"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="AV119:AZ120"/>
-    <mergeCell ref="AO119:AU120"/>
-    <mergeCell ref="BB116:BJ116"/>
-    <mergeCell ref="AW116:BA116"/>
-    <mergeCell ref="AW115:BA115"/>
-    <mergeCell ref="BB115:BJ115"/>
-    <mergeCell ref="AM123:AN123"/>
-    <mergeCell ref="AM126:AN126"/>
-    <mergeCell ref="AM53:AN53"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(決済).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B71C7-5ECE-4DD9-A3C7-6778EECD9CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501E6FD5-3415-441D-BF9E-68F1FA0B193F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="285" windowWidth="23625" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="465" windowWidth="24330" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="決済" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="106">
   <si>
     <t>システム名</t>
   </si>
@@ -232,9 +232,6 @@
     <t>17</t>
   </si>
   <si>
-    <t>注文確定ボタン</t>
-  </si>
-  <si>
     <t>注文を確定するボタン</t>
   </si>
   <si>
@@ -363,11 +360,29 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>button</t>
+    <t>2020/03/11 JTM08 対応 宮城</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>2020/03/11 JTM08 対応 宮城</t>
+    <t>注文確定ボタン</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>2020/3/11</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>宮城　知世</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チセ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>checkbox</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -375,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -482,6 +497,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -891,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -995,42 +1016,59 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,20 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1079,19 +1103,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1101,8 +1124,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2355,11 +2382,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>-28575</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6810375" cy="7543800"/>
+    <xdr:ext cx="6867524" cy="7467599"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="25" name="Shape 12" title="図形描画">
@@ -2373,10 +2400,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="952500"/>
-          <a:ext cx="6810375" cy="7543800"/>
-          <a:chOff x="904875" y="440526"/>
-          <a:chExt cx="6991352" cy="5788823"/>
+          <a:off x="1" y="1066800"/>
+          <a:ext cx="6867524" cy="7467599"/>
+          <a:chOff x="904876" y="440526"/>
+          <a:chExt cx="7050019" cy="5730349"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -2433,7 +2460,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="904875" y="1859750"/>
+            <a:off x="963544" y="1801276"/>
             <a:ext cx="6991351" cy="4369599"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3328,7 +3355,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7096125" y="5086425"/>
+            <a:off x="7145016" y="5020644"/>
             <a:ext cx="485700" cy="276300"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeEllipseCallout">
@@ -3386,13 +3413,13 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5615100" y="5410125"/>
-            <a:ext cx="485700" cy="276300"/>
+            <a:off x="5735264" y="5285869"/>
+            <a:ext cx="482874" cy="276300"/>
           </a:xfrm>
           <a:prstGeom prst="wedgeEllipseCallout">
             <a:avLst>
-              <a:gd name="adj1" fmla="val 82350"/>
-              <a:gd name="adj2" fmla="val 18974"/>
+              <a:gd name="adj1" fmla="val 88425"/>
+              <a:gd name="adj2" fmla="val -18062"/>
             </a:avLst>
           </a:prstGeom>
           <a:solidFill>
@@ -3638,6 +3665,123 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>130227</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Shape 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B9693C-81C3-41E4-93D7-E02396B368B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="7762875"/>
+          <a:ext cx="473127" cy="360065"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76310"/>
+            <a:gd name="adj2" fmla="val -52451"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>199912</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="図 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C067C2-94FC-4D78-A9FE-48139B587EAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="7353300"/>
+          <a:ext cx="904762" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3943,8 +4087,8 @@
   </sheetPr>
   <dimension ref="A1:CR313"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="BE45" sqref="BE45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="BP2" sqref="BP2:BX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3954,94 +4098,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="17.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="112" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="111" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="78" t="s">
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="111" t="s">
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="95" t="s">
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="89"/>
+      <c r="BN1" s="89"/>
+      <c r="BO1" s="90"/>
+      <c r="BP1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="82"/>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="82"/>
-      <c r="BT1" s="82"/>
-      <c r="BU1" s="82"/>
-      <c r="BV1" s="82"/>
-      <c r="BW1" s="82"/>
-      <c r="BX1" s="96"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
+      <c r="BT1" s="89"/>
+      <c r="BU1" s="89"/>
+      <c r="BV1" s="89"/>
+      <c r="BW1" s="89"/>
+      <c r="BX1" s="102"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
       <c r="CA1" s="1"/>
@@ -4064,96 +4208,96 @@
       <c r="CR1" s="1"/>
     </row>
     <row r="2" spans="1:96" ht="17.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="113" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="115" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="115" t="s">
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="78" t="s">
-        <v>10</v>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="133" t="s">
+        <v>103</v>
       </c>
-      <c r="BC2" s="79"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="79"/>
-      <c r="BF2" s="79"/>
-      <c r="BG2" s="79"/>
-      <c r="BH2" s="79"/>
-      <c r="BI2" s="79"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="115" t="s">
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="79"/>
+      <c r="BK2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="95" t="s">
-        <v>5</v>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="79"/>
+      <c r="BP2" s="134" t="s">
+        <v>104</v>
       </c>
-      <c r="BQ2" s="82"/>
-      <c r="BR2" s="82"/>
-      <c r="BS2" s="82"/>
-      <c r="BT2" s="82"/>
-      <c r="BU2" s="82"/>
-      <c r="BV2" s="82"/>
-      <c r="BW2" s="82"/>
-      <c r="BX2" s="96"/>
+      <c r="BQ2" s="89"/>
+      <c r="BR2" s="89"/>
+      <c r="BS2" s="89"/>
+      <c r="BT2" s="89"/>
+      <c r="BU2" s="89"/>
+      <c r="BV2" s="89"/>
+      <c r="BW2" s="89"/>
+      <c r="BX2" s="102"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
@@ -4412,51 +4556,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="116" t="s">
+      <c r="AM5" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="121" t="s">
+      <c r="AN5" s="120"/>
+      <c r="AO5" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="122"/>
-      <c r="AQ5" s="122"/>
-      <c r="AR5" s="122"/>
-      <c r="AS5" s="122"/>
-      <c r="AT5" s="122"/>
-      <c r="AU5" s="117"/>
-      <c r="AV5" s="121" t="s">
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="127"/>
+      <c r="AR5" s="127"/>
+      <c r="AS5" s="127"/>
+      <c r="AT5" s="127"/>
+      <c r="AU5" s="120"/>
+      <c r="AV5" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AW5" s="122"/>
-      <c r="AX5" s="122"/>
-      <c r="AY5" s="122"/>
-      <c r="AZ5" s="117"/>
-      <c r="BA5" s="121" t="s">
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="120"/>
+      <c r="BA5" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="BB5" s="122"/>
-      <c r="BC5" s="122"/>
-      <c r="BD5" s="122"/>
-      <c r="BE5" s="122"/>
-      <c r="BF5" s="122"/>
-      <c r="BG5" s="122"/>
-      <c r="BH5" s="122"/>
-      <c r="BI5" s="122"/>
-      <c r="BJ5" s="122"/>
-      <c r="BK5" s="122"/>
-      <c r="BL5" s="122"/>
-      <c r="BM5" s="122"/>
-      <c r="BN5" s="122"/>
-      <c r="BO5" s="122"/>
-      <c r="BP5" s="122"/>
-      <c r="BQ5" s="122"/>
-      <c r="BR5" s="122"/>
-      <c r="BS5" s="122"/>
-      <c r="BT5" s="122"/>
-      <c r="BU5" s="122"/>
-      <c r="BV5" s="122"/>
-      <c r="BW5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
+      <c r="BI5" s="127"/>
+      <c r="BJ5" s="127"/>
+      <c r="BK5" s="127"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="127"/>
+      <c r="BN5" s="127"/>
+      <c r="BO5" s="127"/>
+      <c r="BP5" s="127"/>
+      <c r="BQ5" s="127"/>
+      <c r="BR5" s="127"/>
+      <c r="BS5" s="127"/>
+      <c r="BT5" s="127"/>
+      <c r="BU5" s="127"/>
+      <c r="BV5" s="127"/>
+      <c r="BW5" s="128"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -4518,43 +4662,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="123"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="87"/>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="88"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="87"/>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="87"/>
-      <c r="AZ6" s="88"/>
-      <c r="BA6" s="123"/>
-      <c r="BB6" s="87"/>
-      <c r="BC6" s="87"/>
-      <c r="BD6" s="87"/>
-      <c r="BE6" s="87"/>
-      <c r="BF6" s="87"/>
-      <c r="BG6" s="87"/>
-      <c r="BH6" s="87"/>
-      <c r="BI6" s="87"/>
-      <c r="BJ6" s="87"/>
-      <c r="BK6" s="87"/>
-      <c r="BL6" s="87"/>
-      <c r="BM6" s="87"/>
-      <c r="BN6" s="87"/>
-      <c r="BO6" s="87"/>
-      <c r="BP6" s="87"/>
-      <c r="BQ6" s="87"/>
-      <c r="BR6" s="87"/>
-      <c r="BS6" s="87"/>
-      <c r="BT6" s="87"/>
-      <c r="BU6" s="87"/>
-      <c r="BV6" s="87"/>
-      <c r="BW6" s="94"/>
+      <c r="AM6" s="121"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="129"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="92"/>
+      <c r="AS6" s="92"/>
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="129"/>
+      <c r="AW6" s="92"/>
+      <c r="AX6" s="92"/>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="93"/>
+      <c r="BA6" s="129"/>
+      <c r="BB6" s="92"/>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="92"/>
+      <c r="BE6" s="92"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="92"/>
+      <c r="BH6" s="92"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="92"/>
+      <c r="BL6" s="92"/>
+      <c r="BM6" s="92"/>
+      <c r="BN6" s="92"/>
+      <c r="BO6" s="92"/>
+      <c r="BP6" s="92"/>
+      <c r="BQ6" s="92"/>
+      <c r="BR6" s="92"/>
+      <c r="BS6" s="92"/>
+      <c r="BT6" s="92"/>
+      <c r="BU6" s="92"/>
+      <c r="BV6" s="92"/>
+      <c r="BW6" s="98"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -4616,10 +4760,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="89" t="s">
+      <c r="AM7" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AN7" s="86"/>
+      <c r="AN7" s="81"/>
       <c r="AO7" s="12" t="s">
         <v>18</v>
       </c>
@@ -4820,10 +4964,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="89" t="s">
+      <c r="AM9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AN9" s="86"/>
+      <c r="AN9" s="81"/>
       <c r="AO9" s="13" t="s">
         <v>22</v>
       </c>
@@ -5024,10 +5168,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="89" t="s">
+      <c r="AM11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="AN11" s="86"/>
+      <c r="AN11" s="81"/>
       <c r="AO11" s="19" t="s">
         <v>6</v>
       </c>
@@ -5120,9 +5264,9 @@
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="22"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -5227,10 +5371,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="89" t="s">
+      <c r="AM13" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="AN13" s="86"/>
+      <c r="AN13" s="81"/>
       <c r="AO13" s="12" t="s">
         <v>28</v>
       </c>
@@ -5414,9 +5558,9 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -5523,10 +5667,10 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="89" t="s">
+      <c r="AM16" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="AN16" s="86"/>
+      <c r="AN16" s="81"/>
       <c r="AO16" s="12" t="s">
         <v>32</v>
       </c>
@@ -5727,10 +5871,10 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-      <c r="AM18" s="89" t="s">
+      <c r="AM18" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="AN18" s="86"/>
+      <c r="AN18" s="81"/>
       <c r="AO18" s="19" t="s">
         <v>35</v>
       </c>
@@ -5921,19 +6065,19 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="22"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="85"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="89" t="s">
+      <c r="AM20" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="86"/>
+      <c r="AN20" s="81"/>
       <c r="AO20" s="19" t="s">
         <v>38</v>
       </c>
@@ -6119,9 +6263,9 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
@@ -6130,10 +6274,10 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="89" t="s">
+      <c r="AM22" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="86"/>
+      <c r="AN22" s="81"/>
       <c r="AO22" s="12" t="s">
         <v>42</v>
       </c>
@@ -6334,10 +6478,10 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="89" t="s">
+      <c r="AM24" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="AN24" s="86"/>
+      <c r="AN24" s="81"/>
       <c r="AO24" s="21" t="s">
         <v>46</v>
       </c>
@@ -6538,10 +6682,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="89" t="s">
+      <c r="AM26" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="86"/>
+      <c r="AN26" s="81"/>
       <c r="AO26" s="21" t="s">
         <v>49</v>
       </c>
@@ -6634,9 +6778,9 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
@@ -6741,10 +6885,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="89" t="s">
+      <c r="AM28" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="AN28" s="86"/>
+      <c r="AN28" s="81"/>
       <c r="AO28" s="21" t="s">
         <v>52</v>
       </c>
@@ -6832,9 +6976,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -6941,10 +7085,10 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
-      <c r="AM30" s="89" t="s">
+      <c r="AM30" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="AN30" s="86"/>
+      <c r="AN30" s="81"/>
       <c r="AO30" s="12" t="s">
         <v>55</v>
       </c>
@@ -7145,10 +7289,10 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
-      <c r="AM32" s="89" t="s">
+      <c r="AM32" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="86"/>
+      <c r="AN32" s="81"/>
       <c r="AO32" s="12" t="s">
         <v>58</v>
       </c>
@@ -7347,10 +7491,10 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
-      <c r="AM34" s="89" t="s">
+      <c r="AM34" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="AN34" s="86"/>
+      <c r="AN34" s="81"/>
       <c r="AO34" s="21" t="s">
         <v>61</v>
       </c>
@@ -7425,29 +7569,29 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="125"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="126"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="85"/>
-      <c r="AG35" s="85"/>
+      <c r="W35" s="124"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="125"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="83"/>
+      <c r="AG35" s="83"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
@@ -7523,38 +7667,38 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83"/>
+      <c r="O36" s="83"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="83"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="85"/>
-      <c r="AE36" s="85"/>
-      <c r="AF36" s="85"/>
-      <c r="AG36" s="85"/>
+      <c r="W36" s="83"/>
+      <c r="X36" s="83"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="83"/>
+      <c r="AA36" s="83"/>
+      <c r="AB36" s="83"/>
+      <c r="AC36" s="83"/>
+      <c r="AD36" s="83"/>
+      <c r="AE36" s="83"/>
+      <c r="AF36" s="83"/>
+      <c r="AG36" s="83"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="89" t="s">
+      <c r="AM36" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="AN36" s="86"/>
+      <c r="AN36" s="81"/>
       <c r="AO36" s="21" t="s">
         <v>64</v>
       </c>
@@ -7629,29 +7773,29 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="128"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="85"/>
-      <c r="AB37" s="126"/>
-      <c r="AC37" s="85"/>
-      <c r="AD37" s="85"/>
-      <c r="AE37" s="85"/>
-      <c r="AF37" s="85"/>
-      <c r="AG37" s="85"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="125"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="83"/>
+      <c r="AF37" s="83"/>
+      <c r="AG37" s="83"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
@@ -7727,38 +7871,38 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="83"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="83"/>
+      <c r="T38" s="83"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="85"/>
-      <c r="AB38" s="85"/>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="85"/>
-      <c r="AE38" s="85"/>
-      <c r="AF38" s="85"/>
-      <c r="AG38" s="85"/>
+      <c r="W38" s="83"/>
+      <c r="X38" s="83"/>
+      <c r="Y38" s="83"/>
+      <c r="Z38" s="83"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="83"/>
+      <c r="AC38" s="83"/>
+      <c r="AD38" s="83"/>
+      <c r="AE38" s="83"/>
+      <c r="AF38" s="83"/>
+      <c r="AG38" s="83"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="89" t="s">
+      <c r="AM38" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="AN38" s="86"/>
+      <c r="AN38" s="81"/>
       <c r="AO38" s="21" t="s">
         <v>67</v>
       </c>
@@ -7833,29 +7977,29 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="83"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="129"/>
-      <c r="X39" s="85"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="85"/>
-      <c r="AA39" s="85"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="85"/>
-      <c r="AD39" s="85"/>
-      <c r="AE39" s="85"/>
-      <c r="AF39" s="85"/>
-      <c r="AG39" s="85"/>
+      <c r="W39" s="131"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="125"/>
+      <c r="AC39" s="83"/>
+      <c r="AD39" s="83"/>
+      <c r="AE39" s="83"/>
+      <c r="AF39" s="83"/>
+      <c r="AG39" s="83"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
@@ -7931,40 +8075,40 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="83"/>
+      <c r="T40" s="83"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="85"/>
-      <c r="X40" s="85"/>
-      <c r="Y40" s="85"/>
-      <c r="Z40" s="85"/>
-      <c r="AA40" s="85"/>
-      <c r="AB40" s="85"/>
-      <c r="AC40" s="85"/>
-      <c r="AD40" s="85"/>
-      <c r="AE40" s="85"/>
-      <c r="AF40" s="85"/>
-      <c r="AG40" s="85"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="83"/>
+      <c r="Y40" s="83"/>
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="83"/>
+      <c r="AC40" s="83"/>
+      <c r="AD40" s="83"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="83"/>
+      <c r="AG40" s="83"/>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="89" t="s">
+      <c r="AM40" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="AN40" s="86"/>
-      <c r="AO40" s="131" t="s">
-        <v>100</v>
+      <c r="AN40" s="81"/>
+      <c r="AO40" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
@@ -7972,15 +8116,15 @@
       <c r="AS40" s="4"/>
       <c r="AT40" s="4"/>
       <c r="AU40" s="37"/>
-      <c r="AV40" s="131" t="s">
-        <v>102</v>
+      <c r="AV40" s="75" t="s">
+        <v>105</v>
       </c>
       <c r="AW40" s="4"/>
       <c r="AX40" s="4"/>
       <c r="AY40" s="4"/>
       <c r="AZ40" s="37"/>
-      <c r="BA40" s="131" t="s">
-        <v>101</v>
+      <c r="BA40" s="75" t="s">
+        <v>100</v>
       </c>
       <c r="BB40" s="4"/>
       <c r="BC40" s="4"/>
@@ -8037,29 +8181,29 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="130"/>
-      <c r="X41" s="85"/>
-      <c r="Y41" s="85"/>
-      <c r="Z41" s="85"/>
-      <c r="AA41" s="85"/>
-      <c r="AB41" s="85"/>
-      <c r="AC41" s="85"/>
-      <c r="AD41" s="85"/>
-      <c r="AE41" s="85"/>
-      <c r="AF41" s="85"/>
-      <c r="AG41" s="85"/>
+      <c r="W41" s="132"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="83"/>
+      <c r="AE41" s="83"/>
+      <c r="AF41" s="83"/>
+      <c r="AG41" s="83"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
@@ -8079,8 +8223,8 @@
       <c r="AX41" s="4"/>
       <c r="AY41" s="4"/>
       <c r="AZ41" s="37"/>
-      <c r="BA41" s="132" t="s">
-        <v>103</v>
+      <c r="BA41" s="76" t="s">
+        <v>101</v>
       </c>
       <c r="BB41" s="4"/>
       <c r="BC41" s="4"/>
@@ -8137,40 +8281,40 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
+      <c r="K42" s="83"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="83"/>
+      <c r="T42" s="83"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="85"/>
-      <c r="X42" s="85"/>
-      <c r="Y42" s="85"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="85"/>
-      <c r="AB42" s="85"/>
-      <c r="AC42" s="85"/>
-      <c r="AD42" s="85"/>
-      <c r="AE42" s="85"/>
-      <c r="AF42" s="85"/>
-      <c r="AG42" s="85"/>
+      <c r="W42" s="83"/>
+      <c r="X42" s="83"/>
+      <c r="Y42" s="83"/>
+      <c r="Z42" s="83"/>
+      <c r="AA42" s="83"/>
+      <c r="AB42" s="83"/>
+      <c r="AC42" s="83"/>
+      <c r="AD42" s="83"/>
+      <c r="AE42" s="83"/>
+      <c r="AF42" s="83"/>
+      <c r="AG42" s="83"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
-      <c r="AM42" s="89" t="s">
-        <v>99</v>
+      <c r="AM42" s="80" t="s">
+        <v>98</v>
       </c>
-      <c r="AN42" s="86"/>
+      <c r="AN42" s="81"/>
       <c r="AO42" s="21" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AP42" s="21"/>
       <c r="AQ42" s="21"/>
@@ -8186,7 +8330,7 @@
       <c r="AY42" s="4"/>
       <c r="AZ42" s="37"/>
       <c r="BA42" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BB42" s="21"/>
       <c r="BC42" s="21"/>
@@ -8369,8 +8513,8 @@
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
-      <c r="AM44" s="89"/>
-      <c r="AN44" s="86"/>
+      <c r="AM44" s="80"/>
+      <c r="AN44" s="81"/>
       <c r="AO44" s="47"/>
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
@@ -8565,8 +8709,8 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
-      <c r="AM46" s="89"/>
-      <c r="AN46" s="86"/>
+      <c r="AM46" s="80"/>
+      <c r="AN46" s="81"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -8761,8 +8905,8 @@
       <c r="AJ48" s="50"/>
       <c r="AK48" s="50"/>
       <c r="AL48" s="50"/>
-      <c r="AM48" s="124"/>
-      <c r="AN48" s="87"/>
+      <c r="AM48" s="107"/>
+      <c r="AN48" s="92"/>
       <c r="AO48" s="50"/>
       <c r="AP48" s="50"/>
       <c r="AQ48" s="50"/>
@@ -8821,190 +8965,190 @@
       <c r="CR48" s="4"/>
     </row>
     <row r="49" spans="1:78" ht="17.25">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="104" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="82"/>
-      <c r="AG49" s="82"/>
-      <c r="AH49" s="82"/>
-      <c r="AI49" s="82"/>
-      <c r="AJ49" s="82"/>
-      <c r="AK49" s="82"/>
-      <c r="AL49" s="82"/>
-      <c r="AM49" s="82"/>
-      <c r="AN49" s="82"/>
-      <c r="AO49" s="82"/>
-      <c r="AP49" s="82"/>
-      <c r="AQ49" s="82"/>
-      <c r="AR49" s="82"/>
-      <c r="AS49" s="82"/>
-      <c r="AT49" s="82"/>
-      <c r="AU49" s="82"/>
-      <c r="AV49" s="83"/>
-      <c r="AW49" s="81" t="s">
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="89"/>
+      <c r="AB49" s="89"/>
+      <c r="AC49" s="89"/>
+      <c r="AD49" s="89"/>
+      <c r="AE49" s="89"/>
+      <c r="AF49" s="89"/>
+      <c r="AG49" s="89"/>
+      <c r="AH49" s="89"/>
+      <c r="AI49" s="89"/>
+      <c r="AJ49" s="89"/>
+      <c r="AK49" s="89"/>
+      <c r="AL49" s="89"/>
+      <c r="AM49" s="89"/>
+      <c r="AN49" s="89"/>
+      <c r="AO49" s="89"/>
+      <c r="AP49" s="89"/>
+      <c r="AQ49" s="89"/>
+      <c r="AR49" s="89"/>
+      <c r="AS49" s="89"/>
+      <c r="AT49" s="89"/>
+      <c r="AU49" s="89"/>
+      <c r="AV49" s="90"/>
+      <c r="AW49" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AX49" s="82"/>
-      <c r="AY49" s="82"/>
-      <c r="AZ49" s="82"/>
-      <c r="BA49" s="83"/>
-      <c r="BB49" s="78" t="s">
+      <c r="AX49" s="89"/>
+      <c r="AY49" s="89"/>
+      <c r="AZ49" s="89"/>
+      <c r="BA49" s="90"/>
+      <c r="BB49" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC49" s="78"/>
+      <c r="BD49" s="78"/>
+      <c r="BE49" s="78"/>
+      <c r="BF49" s="78"/>
+      <c r="BG49" s="78"/>
+      <c r="BH49" s="78"/>
+      <c r="BI49" s="78"/>
+      <c r="BJ49" s="79"/>
+      <c r="BK49" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL49" s="89"/>
+      <c r="BM49" s="89"/>
+      <c r="BN49" s="89"/>
+      <c r="BO49" s="90"/>
+      <c r="BP49" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ49" s="89"/>
+      <c r="BR49" s="89"/>
+      <c r="BS49" s="89"/>
+      <c r="BT49" s="89"/>
+      <c r="BU49" s="89"/>
+      <c r="BV49" s="89"/>
+      <c r="BW49" s="89"/>
+      <c r="BX49" s="102"/>
+      <c r="BY49" s="54"/>
+      <c r="BZ49" s="54"/>
+    </row>
+    <row r="50" spans="1:78" ht="18">
+      <c r="A50" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="86"/>
+      <c r="O50" s="86"/>
+      <c r="P50" s="86"/>
+      <c r="Q50" s="86"/>
+      <c r="R50" s="86"/>
+      <c r="S50" s="86"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="86"/>
+      <c r="V50" s="86"/>
+      <c r="W50" s="86"/>
+      <c r="X50" s="86"/>
+      <c r="Y50" s="87"/>
+      <c r="Z50" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="BC49" s="79"/>
-      <c r="BD49" s="79"/>
-      <c r="BE49" s="79"/>
-      <c r="BF49" s="79"/>
-      <c r="BG49" s="79"/>
-      <c r="BH49" s="79"/>
-      <c r="BI49" s="79"/>
-      <c r="BJ49" s="80"/>
-      <c r="BK49" s="81" t="s">
-        <v>4</v>
+      <c r="AA50" s="86"/>
+      <c r="AB50" s="86"/>
+      <c r="AC50" s="86"/>
+      <c r="AD50" s="87"/>
+      <c r="AE50" s="100" t="s">
+        <v>73</v>
       </c>
-      <c r="BL49" s="82"/>
-      <c r="BM49" s="82"/>
-      <c r="BN49" s="82"/>
-      <c r="BO49" s="83"/>
-      <c r="BP49" s="95" t="s">
+      <c r="AF50" s="86"/>
+      <c r="AG50" s="86"/>
+      <c r="AH50" s="86"/>
+      <c r="AI50" s="86"/>
+      <c r="AJ50" s="86"/>
+      <c r="AK50" s="86"/>
+      <c r="AL50" s="86"/>
+      <c r="AM50" s="86"/>
+      <c r="AN50" s="86"/>
+      <c r="AO50" s="86"/>
+      <c r="AP50" s="86"/>
+      <c r="AQ50" s="86"/>
+      <c r="AR50" s="86"/>
+      <c r="AS50" s="86"/>
+      <c r="AT50" s="86"/>
+      <c r="AU50" s="86"/>
+      <c r="AV50" s="87"/>
+      <c r="AW50" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX50" s="86"/>
+      <c r="AY50" s="86"/>
+      <c r="AZ50" s="86"/>
+      <c r="BA50" s="87"/>
+      <c r="BB50" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC50" s="86"/>
+      <c r="BD50" s="86"/>
+      <c r="BE50" s="86"/>
+      <c r="BF50" s="86"/>
+      <c r="BG50" s="86"/>
+      <c r="BH50" s="86"/>
+      <c r="BI50" s="86"/>
+      <c r="BJ50" s="86"/>
+      <c r="BK50" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL50" s="86"/>
+      <c r="BM50" s="86"/>
+      <c r="BN50" s="86"/>
+      <c r="BO50" s="87"/>
+      <c r="BP50" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="BQ49" s="82"/>
-      <c r="BR49" s="82"/>
-      <c r="BS49" s="82"/>
-      <c r="BT49" s="82"/>
-      <c r="BU49" s="82"/>
-      <c r="BV49" s="82"/>
-      <c r="BW49" s="82"/>
-      <c r="BX49" s="96"/>
-      <c r="BY49" s="54"/>
-      <c r="BZ49" s="54"/>
-    </row>
-    <row r="50" spans="1:78" ht="18">
-      <c r="A50" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="76"/>
-      <c r="X50" s="76"/>
-      <c r="Y50" s="77"/>
-      <c r="Z50" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="76"/>
-      <c r="AD50" s="77"/>
-      <c r="AE50" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF50" s="76"/>
-      <c r="AG50" s="76"/>
-      <c r="AH50" s="76"/>
-      <c r="AI50" s="76"/>
-      <c r="AJ50" s="76"/>
-      <c r="AK50" s="76"/>
-      <c r="AL50" s="76"/>
-      <c r="AM50" s="76"/>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="76"/>
-      <c r="AQ50" s="76"/>
-      <c r="AR50" s="76"/>
-      <c r="AS50" s="76"/>
-      <c r="AT50" s="76"/>
-      <c r="AU50" s="76"/>
-      <c r="AV50" s="77"/>
-      <c r="AW50" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX50" s="76"/>
-      <c r="AY50" s="76"/>
-      <c r="AZ50" s="76"/>
-      <c r="BA50" s="77"/>
-      <c r="BB50" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC50" s="76"/>
-      <c r="BD50" s="76"/>
-      <c r="BE50" s="76"/>
-      <c r="BF50" s="76"/>
-      <c r="BG50" s="76"/>
-      <c r="BH50" s="76"/>
-      <c r="BI50" s="76"/>
-      <c r="BJ50" s="76"/>
-      <c r="BK50" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL50" s="76"/>
-      <c r="BM50" s="76"/>
-      <c r="BN50" s="76"/>
-      <c r="BO50" s="77"/>
-      <c r="BP50" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ50" s="82"/>
-      <c r="BR50" s="82"/>
-      <c r="BS50" s="82"/>
-      <c r="BT50" s="82"/>
-      <c r="BU50" s="82"/>
-      <c r="BV50" s="82"/>
-      <c r="BW50" s="82"/>
-      <c r="BX50" s="96"/>
+      <c r="BQ50" s="89"/>
+      <c r="BR50" s="89"/>
+      <c r="BS50" s="89"/>
+      <c r="BT50" s="89"/>
+      <c r="BU50" s="89"/>
+      <c r="BV50" s="89"/>
+      <c r="BW50" s="89"/>
+      <c r="BX50" s="102"/>
       <c r="BY50" s="54"/>
       <c r="BZ50" s="54"/>
     </row>
@@ -9091,7 +9235,7 @@
     <row r="52" spans="1:78" ht="14.25">
       <c r="A52" s="45"/>
       <c r="B52" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -9209,51 +9353,51 @@
       <c r="AJ53" s="33"/>
       <c r="AK53" s="33"/>
       <c r="AL53" s="55"/>
-      <c r="AM53" s="84" t="s">
+      <c r="AM53" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AN53" s="93"/>
-      <c r="AO53" s="84" t="s">
+      <c r="AN53" s="97"/>
+      <c r="AO53" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AP53" s="85"/>
-      <c r="AQ53" s="85"/>
-      <c r="AR53" s="85"/>
-      <c r="AS53" s="85"/>
-      <c r="AT53" s="85"/>
-      <c r="AU53" s="86"/>
-      <c r="AV53" s="84" t="s">
+      <c r="AP53" s="83"/>
+      <c r="AQ53" s="83"/>
+      <c r="AR53" s="83"/>
+      <c r="AS53" s="83"/>
+      <c r="AT53" s="83"/>
+      <c r="AU53" s="81"/>
+      <c r="AV53" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AW53" s="85"/>
-      <c r="AX53" s="85"/>
-      <c r="AY53" s="85"/>
-      <c r="AZ53" s="86"/>
-      <c r="BA53" s="84" t="s">
+      <c r="AW53" s="83"/>
+      <c r="AX53" s="83"/>
+      <c r="AY53" s="83"/>
+      <c r="AZ53" s="81"/>
+      <c r="BA53" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="BB53" s="85"/>
-      <c r="BC53" s="85"/>
-      <c r="BD53" s="85"/>
-      <c r="BE53" s="85"/>
-      <c r="BF53" s="85"/>
-      <c r="BG53" s="85"/>
-      <c r="BH53" s="85"/>
-      <c r="BI53" s="85"/>
-      <c r="BJ53" s="85"/>
-      <c r="BK53" s="85"/>
-      <c r="BL53" s="85"/>
-      <c r="BM53" s="85"/>
-      <c r="BN53" s="85"/>
-      <c r="BO53" s="85"/>
-      <c r="BP53" s="85"/>
-      <c r="BQ53" s="85"/>
-      <c r="BR53" s="85"/>
-      <c r="BS53" s="85"/>
-      <c r="BT53" s="85"/>
-      <c r="BU53" s="85"/>
-      <c r="BV53" s="85"/>
-      <c r="BW53" s="93"/>
+      <c r="BB53" s="83"/>
+      <c r="BC53" s="83"/>
+      <c r="BD53" s="83"/>
+      <c r="BE53" s="83"/>
+      <c r="BF53" s="83"/>
+      <c r="BG53" s="83"/>
+      <c r="BH53" s="83"/>
+      <c r="BI53" s="83"/>
+      <c r="BJ53" s="83"/>
+      <c r="BK53" s="83"/>
+      <c r="BL53" s="83"/>
+      <c r="BM53" s="83"/>
+      <c r="BN53" s="83"/>
+      <c r="BO53" s="83"/>
+      <c r="BP53" s="83"/>
+      <c r="BQ53" s="83"/>
+      <c r="BR53" s="83"/>
+      <c r="BS53" s="83"/>
+      <c r="BT53" s="83"/>
+      <c r="BU53" s="83"/>
+      <c r="BV53" s="83"/>
+      <c r="BW53" s="97"/>
       <c r="BX53" s="55"/>
       <c r="BY53" s="33"/>
       <c r="BZ53" s="33"/>
@@ -9261,14 +9405,14 @@
     <row r="54" spans="1:78" ht="13.5">
       <c r="A54" s="45"/>
       <c r="B54" s="57"/>
-      <c r="C54" s="97" t="s">
-        <v>76</v>
+      <c r="C54" s="108" t="s">
+        <v>75</v>
       </c>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
       <c r="I54" s="58"/>
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
@@ -9299,43 +9443,43 @@
       <c r="AJ54" s="33"/>
       <c r="AK54" s="33"/>
       <c r="AL54" s="55"/>
-      <c r="AM54" s="87"/>
-      <c r="AN54" s="94"/>
-      <c r="AO54" s="87"/>
-      <c r="AP54" s="87"/>
-      <c r="AQ54" s="87"/>
-      <c r="AR54" s="87"/>
-      <c r="AS54" s="87"/>
-      <c r="AT54" s="87"/>
-      <c r="AU54" s="88"/>
-      <c r="AV54" s="87"/>
-      <c r="AW54" s="87"/>
-      <c r="AX54" s="87"/>
-      <c r="AY54" s="87"/>
-      <c r="AZ54" s="88"/>
-      <c r="BA54" s="87"/>
-      <c r="BB54" s="87"/>
-      <c r="BC54" s="87"/>
-      <c r="BD54" s="87"/>
-      <c r="BE54" s="87"/>
-      <c r="BF54" s="87"/>
-      <c r="BG54" s="87"/>
-      <c r="BH54" s="87"/>
-      <c r="BI54" s="87"/>
-      <c r="BJ54" s="87"/>
-      <c r="BK54" s="87"/>
-      <c r="BL54" s="87"/>
-      <c r="BM54" s="87"/>
-      <c r="BN54" s="87"/>
-      <c r="BO54" s="87"/>
-      <c r="BP54" s="87"/>
-      <c r="BQ54" s="87"/>
-      <c r="BR54" s="87"/>
-      <c r="BS54" s="87"/>
-      <c r="BT54" s="87"/>
-      <c r="BU54" s="87"/>
-      <c r="BV54" s="87"/>
-      <c r="BW54" s="94"/>
+      <c r="AM54" s="92"/>
+      <c r="AN54" s="98"/>
+      <c r="AO54" s="92"/>
+      <c r="AP54" s="92"/>
+      <c r="AQ54" s="92"/>
+      <c r="AR54" s="92"/>
+      <c r="AS54" s="92"/>
+      <c r="AT54" s="92"/>
+      <c r="AU54" s="93"/>
+      <c r="AV54" s="92"/>
+      <c r="AW54" s="92"/>
+      <c r="AX54" s="92"/>
+      <c r="AY54" s="92"/>
+      <c r="AZ54" s="93"/>
+      <c r="BA54" s="92"/>
+      <c r="BB54" s="92"/>
+      <c r="BC54" s="92"/>
+      <c r="BD54" s="92"/>
+      <c r="BE54" s="92"/>
+      <c r="BF54" s="92"/>
+      <c r="BG54" s="92"/>
+      <c r="BH54" s="92"/>
+      <c r="BI54" s="92"/>
+      <c r="BJ54" s="92"/>
+      <c r="BK54" s="92"/>
+      <c r="BL54" s="92"/>
+      <c r="BM54" s="92"/>
+      <c r="BN54" s="92"/>
+      <c r="BO54" s="92"/>
+      <c r="BP54" s="92"/>
+      <c r="BQ54" s="92"/>
+      <c r="BR54" s="92"/>
+      <c r="BS54" s="92"/>
+      <c r="BT54" s="92"/>
+      <c r="BU54" s="92"/>
+      <c r="BV54" s="92"/>
+      <c r="BW54" s="98"/>
       <c r="BX54" s="55"/>
       <c r="BY54" s="33"/>
       <c r="BZ54" s="33"/>
@@ -9343,12 +9487,12 @@
     <row r="55" spans="1:78">
       <c r="A55" s="45"/>
       <c r="B55" s="60"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
       <c r="I55" s="33"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
@@ -9379,12 +9523,12 @@
       <c r="AJ55" s="33"/>
       <c r="AK55" s="33"/>
       <c r="AL55" s="55"/>
-      <c r="AM55" s="89" t="s">
+      <c r="AM55" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="86"/>
+      <c r="AN55" s="81"/>
       <c r="AO55" s="61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP55" s="33"/>
       <c r="AQ55" s="33"/>
@@ -9400,7 +9544,7 @@
       <c r="AY55" s="33"/>
       <c r="AZ55" s="46"/>
       <c r="BA55" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BB55" s="33"/>
       <c r="BC55" s="33"/>
@@ -9516,7 +9660,7 @@
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
@@ -9549,12 +9693,12 @@
       <c r="AJ57" s="33"/>
       <c r="AK57" s="33"/>
       <c r="AL57" s="55"/>
-      <c r="AM57" s="91">
+      <c r="AM57" s="84">
         <v>2</v>
       </c>
-      <c r="AN57" s="85"/>
+      <c r="AN57" s="83"/>
       <c r="AO57" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AP57" s="33"/>
       <c r="AQ57" s="33"/>
@@ -9570,7 +9714,7 @@
       <c r="AY57" s="33"/>
       <c r="AZ57" s="46"/>
       <c r="BA57" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB57" s="33"/>
       <c r="BC57" s="33"/>
@@ -9605,7 +9749,7 @@
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H58" s="33"/>
       <c r="J58" s="33"/>
@@ -9686,7 +9830,7 @@
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
@@ -9783,12 +9927,12 @@
       <c r="AJ60" s="33"/>
       <c r="AK60" s="33"/>
       <c r="AL60" s="55"/>
-      <c r="AM60" s="92" t="s">
+      <c r="AM60" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AN60" s="85"/>
+      <c r="AN60" s="83"/>
       <c r="AO60" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AP60" s="33"/>
       <c r="AQ60" s="33"/>
@@ -9804,7 +9948,7 @@
       <c r="AY60" s="33"/>
       <c r="AZ60" s="46"/>
       <c r="BA60" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB60" s="33"/>
       <c r="BC60" s="33"/>
@@ -9839,16 +9983,16 @@
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
-      <c r="G61" s="99" t="s">
-        <v>86</v>
+      <c r="G61" s="110" t="s">
+        <v>85</v>
       </c>
-      <c r="H61" s="98"/>
-      <c r="I61" s="98"/>
-      <c r="J61" s="98"/>
-      <c r="K61" s="98"/>
-      <c r="L61" s="98"/>
-      <c r="M61" s="98"/>
-      <c r="N61" s="100"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="109"/>
+      <c r="M61" s="109"/>
+      <c r="N61" s="111"/>
       <c r="O61" s="33"/>
       <c r="P61" s="33"/>
       <c r="Q61" s="33"/>
@@ -9921,14 +10065,14 @@
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="77"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="87"/>
       <c r="O62" s="33"/>
       <c r="P62" s="33"/>
       <c r="Q62" s="33"/>
@@ -13115,190 +13259,190 @@
       <c r="BZ101" s="33"/>
     </row>
     <row r="102" spans="1:78" ht="17.25">
-      <c r="A102" s="106" t="s">
+      <c r="A102" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="82"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="96"/>
-      <c r="F102" s="104" t="s">
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="102"/>
+      <c r="F102" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82"/>
-      <c r="K102" s="82"/>
-      <c r="L102" s="82"/>
-      <c r="M102" s="82"/>
-      <c r="N102" s="82"/>
-      <c r="O102" s="82"/>
-      <c r="P102" s="82"/>
-      <c r="Q102" s="82"/>
-      <c r="R102" s="82"/>
-      <c r="S102" s="82"/>
-      <c r="T102" s="82"/>
-      <c r="U102" s="82"/>
-      <c r="V102" s="82"/>
-      <c r="W102" s="82"/>
-      <c r="X102" s="82"/>
-      <c r="Y102" s="82"/>
-      <c r="Z102" s="82"/>
-      <c r="AA102" s="82"/>
-      <c r="AB102" s="82"/>
-      <c r="AC102" s="82"/>
-      <c r="AD102" s="82"/>
-      <c r="AE102" s="82"/>
-      <c r="AF102" s="82"/>
-      <c r="AG102" s="82"/>
-      <c r="AH102" s="82"/>
-      <c r="AI102" s="82"/>
-      <c r="AJ102" s="82"/>
-      <c r="AK102" s="82"/>
-      <c r="AL102" s="82"/>
-      <c r="AM102" s="82"/>
-      <c r="AN102" s="82"/>
-      <c r="AO102" s="82"/>
-      <c r="AP102" s="82"/>
-      <c r="AQ102" s="82"/>
-      <c r="AR102" s="82"/>
-      <c r="AS102" s="82"/>
-      <c r="AT102" s="82"/>
-      <c r="AU102" s="82"/>
-      <c r="AV102" s="83"/>
-      <c r="AW102" s="81" t="s">
+      <c r="G102" s="89"/>
+      <c r="H102" s="89"/>
+      <c r="I102" s="89"/>
+      <c r="J102" s="89"/>
+      <c r="K102" s="89"/>
+      <c r="L102" s="89"/>
+      <c r="M102" s="89"/>
+      <c r="N102" s="89"/>
+      <c r="O102" s="89"/>
+      <c r="P102" s="89"/>
+      <c r="Q102" s="89"/>
+      <c r="R102" s="89"/>
+      <c r="S102" s="89"/>
+      <c r="T102" s="89"/>
+      <c r="U102" s="89"/>
+      <c r="V102" s="89"/>
+      <c r="W102" s="89"/>
+      <c r="X102" s="89"/>
+      <c r="Y102" s="89"/>
+      <c r="Z102" s="89"/>
+      <c r="AA102" s="89"/>
+      <c r="AB102" s="89"/>
+      <c r="AC102" s="89"/>
+      <c r="AD102" s="89"/>
+      <c r="AE102" s="89"/>
+      <c r="AF102" s="89"/>
+      <c r="AG102" s="89"/>
+      <c r="AH102" s="89"/>
+      <c r="AI102" s="89"/>
+      <c r="AJ102" s="89"/>
+      <c r="AK102" s="89"/>
+      <c r="AL102" s="89"/>
+      <c r="AM102" s="89"/>
+      <c r="AN102" s="89"/>
+      <c r="AO102" s="89"/>
+      <c r="AP102" s="89"/>
+      <c r="AQ102" s="89"/>
+      <c r="AR102" s="89"/>
+      <c r="AS102" s="89"/>
+      <c r="AT102" s="89"/>
+      <c r="AU102" s="89"/>
+      <c r="AV102" s="90"/>
+      <c r="AW102" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AX102" s="82"/>
-      <c r="AY102" s="82"/>
-      <c r="AZ102" s="82"/>
-      <c r="BA102" s="83"/>
-      <c r="BB102" s="78" t="s">
+      <c r="AX102" s="89"/>
+      <c r="AY102" s="89"/>
+      <c r="AZ102" s="89"/>
+      <c r="BA102" s="90"/>
+      <c r="BB102" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC102" s="78"/>
+      <c r="BD102" s="78"/>
+      <c r="BE102" s="78"/>
+      <c r="BF102" s="78"/>
+      <c r="BG102" s="78"/>
+      <c r="BH102" s="78"/>
+      <c r="BI102" s="78"/>
+      <c r="BJ102" s="79"/>
+      <c r="BK102" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL102" s="89"/>
+      <c r="BM102" s="89"/>
+      <c r="BN102" s="89"/>
+      <c r="BO102" s="90"/>
+      <c r="BP102" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ102" s="89"/>
+      <c r="BR102" s="89"/>
+      <c r="BS102" s="89"/>
+      <c r="BT102" s="89"/>
+      <c r="BU102" s="89"/>
+      <c r="BV102" s="89"/>
+      <c r="BW102" s="89"/>
+      <c r="BX102" s="102"/>
+      <c r="BY102" s="54"/>
+      <c r="BZ102" s="54"/>
+    </row>
+    <row r="103" spans="1:78" ht="18">
+      <c r="A103" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="104"/>
+      <c r="F103" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="86"/>
+      <c r="J103" s="86"/>
+      <c r="K103" s="86"/>
+      <c r="L103" s="86"/>
+      <c r="M103" s="86"/>
+      <c r="N103" s="86"/>
+      <c r="O103" s="86"/>
+      <c r="P103" s="86"/>
+      <c r="Q103" s="86"/>
+      <c r="R103" s="86"/>
+      <c r="S103" s="86"/>
+      <c r="T103" s="86"/>
+      <c r="U103" s="86"/>
+      <c r="V103" s="86"/>
+      <c r="W103" s="86"/>
+      <c r="X103" s="86"/>
+      <c r="Y103" s="87"/>
+      <c r="Z103" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="BC102" s="79"/>
-      <c r="BD102" s="79"/>
-      <c r="BE102" s="79"/>
-      <c r="BF102" s="79"/>
-      <c r="BG102" s="79"/>
-      <c r="BH102" s="79"/>
-      <c r="BI102" s="79"/>
-      <c r="BJ102" s="80"/>
-      <c r="BK102" s="81" t="s">
-        <v>4</v>
+      <c r="AA103" s="86"/>
+      <c r="AB103" s="86"/>
+      <c r="AC103" s="86"/>
+      <c r="AD103" s="87"/>
+      <c r="AE103" s="100" t="s">
+        <v>86</v>
       </c>
-      <c r="BL102" s="82"/>
-      <c r="BM102" s="82"/>
-      <c r="BN102" s="82"/>
-      <c r="BO102" s="83"/>
-      <c r="BP102" s="95" t="s">
+      <c r="AF103" s="86"/>
+      <c r="AG103" s="86"/>
+      <c r="AH103" s="86"/>
+      <c r="AI103" s="86"/>
+      <c r="AJ103" s="86"/>
+      <c r="AK103" s="86"/>
+      <c r="AL103" s="86"/>
+      <c r="AM103" s="86"/>
+      <c r="AN103" s="86"/>
+      <c r="AO103" s="86"/>
+      <c r="AP103" s="86"/>
+      <c r="AQ103" s="86"/>
+      <c r="AR103" s="86"/>
+      <c r="AS103" s="86"/>
+      <c r="AT103" s="86"/>
+      <c r="AU103" s="86"/>
+      <c r="AV103" s="87"/>
+      <c r="AW103" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX103" s="86"/>
+      <c r="AY103" s="86"/>
+      <c r="AZ103" s="86"/>
+      <c r="BA103" s="87"/>
+      <c r="BB103" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC103" s="86"/>
+      <c r="BD103" s="86"/>
+      <c r="BE103" s="86"/>
+      <c r="BF103" s="86"/>
+      <c r="BG103" s="86"/>
+      <c r="BH103" s="86"/>
+      <c r="BI103" s="86"/>
+      <c r="BJ103" s="86"/>
+      <c r="BK103" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL103" s="86"/>
+      <c r="BM103" s="86"/>
+      <c r="BN103" s="86"/>
+      <c r="BO103" s="87"/>
+      <c r="BP103" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="BQ102" s="82"/>
-      <c r="BR102" s="82"/>
-      <c r="BS102" s="82"/>
-      <c r="BT102" s="82"/>
-      <c r="BU102" s="82"/>
-      <c r="BV102" s="82"/>
-      <c r="BW102" s="82"/>
-      <c r="BX102" s="96"/>
-      <c r="BY102" s="54"/>
-      <c r="BZ102" s="54"/>
-    </row>
-    <row r="103" spans="1:78" ht="18">
-      <c r="A103" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="76"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
-      <c r="R103" s="76"/>
-      <c r="S103" s="76"/>
-      <c r="T103" s="76"/>
-      <c r="U103" s="76"/>
-      <c r="V103" s="76"/>
-      <c r="W103" s="76"/>
-      <c r="X103" s="76"/>
-      <c r="Y103" s="77"/>
-      <c r="Z103" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA103" s="76"/>
-      <c r="AB103" s="76"/>
-      <c r="AC103" s="76"/>
-      <c r="AD103" s="77"/>
-      <c r="AE103" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF103" s="76"/>
-      <c r="AG103" s="76"/>
-      <c r="AH103" s="76"/>
-      <c r="AI103" s="76"/>
-      <c r="AJ103" s="76"/>
-      <c r="AK103" s="76"/>
-      <c r="AL103" s="76"/>
-      <c r="AM103" s="76"/>
-      <c r="AN103" s="76"/>
-      <c r="AO103" s="76"/>
-      <c r="AP103" s="76"/>
-      <c r="AQ103" s="76"/>
-      <c r="AR103" s="76"/>
-      <c r="AS103" s="76"/>
-      <c r="AT103" s="76"/>
-      <c r="AU103" s="76"/>
-      <c r="AV103" s="77"/>
-      <c r="AW103" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX103" s="76"/>
-      <c r="AY103" s="76"/>
-      <c r="AZ103" s="76"/>
-      <c r="BA103" s="77"/>
-      <c r="BB103" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC103" s="76"/>
-      <c r="BD103" s="76"/>
-      <c r="BE103" s="76"/>
-      <c r="BF103" s="76"/>
-      <c r="BG103" s="76"/>
-      <c r="BH103" s="76"/>
-      <c r="BI103" s="76"/>
-      <c r="BJ103" s="76"/>
-      <c r="BK103" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL103" s="76"/>
-      <c r="BM103" s="76"/>
-      <c r="BN103" s="76"/>
-      <c r="BO103" s="77"/>
-      <c r="BP103" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ103" s="82"/>
-      <c r="BR103" s="82"/>
-      <c r="BS103" s="82"/>
-      <c r="BT103" s="82"/>
-      <c r="BU103" s="82"/>
-      <c r="BV103" s="82"/>
-      <c r="BW103" s="82"/>
-      <c r="BX103" s="96"/>
+      <c r="BQ103" s="89"/>
+      <c r="BR103" s="89"/>
+      <c r="BS103" s="89"/>
+      <c r="BT103" s="89"/>
+      <c r="BU103" s="89"/>
+      <c r="BV103" s="89"/>
+      <c r="BW103" s="89"/>
+      <c r="BX103" s="102"/>
       <c r="BY103" s="54"/>
       <c r="BZ103" s="54"/>
     </row>
@@ -13385,7 +13529,7 @@
     <row r="105" spans="1:78" ht="14.25">
       <c r="A105" s="4"/>
       <c r="B105" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
@@ -13503,51 +13647,51 @@
       <c r="AJ106" s="4"/>
       <c r="AK106" s="4"/>
       <c r="AL106" s="55"/>
-      <c r="AM106" s="84" t="s">
+      <c r="AM106" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AN106" s="93"/>
-      <c r="AO106" s="84" t="s">
+      <c r="AN106" s="97"/>
+      <c r="AO106" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AP106" s="85"/>
-      <c r="AQ106" s="85"/>
-      <c r="AR106" s="85"/>
-      <c r="AS106" s="85"/>
-      <c r="AT106" s="85"/>
-      <c r="AU106" s="86"/>
-      <c r="AV106" s="84" t="s">
+      <c r="AP106" s="83"/>
+      <c r="AQ106" s="83"/>
+      <c r="AR106" s="83"/>
+      <c r="AS106" s="83"/>
+      <c r="AT106" s="83"/>
+      <c r="AU106" s="81"/>
+      <c r="AV106" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AW106" s="85"/>
-      <c r="AX106" s="85"/>
-      <c r="AY106" s="85"/>
-      <c r="AZ106" s="86"/>
-      <c r="BA106" s="84" t="s">
+      <c r="AW106" s="83"/>
+      <c r="AX106" s="83"/>
+      <c r="AY106" s="83"/>
+      <c r="AZ106" s="81"/>
+      <c r="BA106" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="BB106" s="85"/>
-      <c r="BC106" s="85"/>
-      <c r="BD106" s="85"/>
-      <c r="BE106" s="85"/>
-      <c r="BF106" s="85"/>
-      <c r="BG106" s="85"/>
-      <c r="BH106" s="85"/>
-      <c r="BI106" s="85"/>
-      <c r="BJ106" s="85"/>
-      <c r="BK106" s="85"/>
-      <c r="BL106" s="85"/>
-      <c r="BM106" s="85"/>
-      <c r="BN106" s="85"/>
-      <c r="BO106" s="85"/>
-      <c r="BP106" s="85"/>
-      <c r="BQ106" s="85"/>
-      <c r="BR106" s="85"/>
-      <c r="BS106" s="85"/>
-      <c r="BT106" s="85"/>
-      <c r="BU106" s="85"/>
-      <c r="BV106" s="85"/>
-      <c r="BW106" s="93"/>
+      <c r="BB106" s="83"/>
+      <c r="BC106" s="83"/>
+      <c r="BD106" s="83"/>
+      <c r="BE106" s="83"/>
+      <c r="BF106" s="83"/>
+      <c r="BG106" s="83"/>
+      <c r="BH106" s="83"/>
+      <c r="BI106" s="83"/>
+      <c r="BJ106" s="83"/>
+      <c r="BK106" s="83"/>
+      <c r="BL106" s="83"/>
+      <c r="BM106" s="83"/>
+      <c r="BN106" s="83"/>
+      <c r="BO106" s="83"/>
+      <c r="BP106" s="83"/>
+      <c r="BQ106" s="83"/>
+      <c r="BR106" s="83"/>
+      <c r="BS106" s="83"/>
+      <c r="BT106" s="83"/>
+      <c r="BU106" s="83"/>
+      <c r="BV106" s="83"/>
+      <c r="BW106" s="97"/>
       <c r="BX106" s="55"/>
       <c r="BY106" s="4"/>
       <c r="BZ106" s="4"/>
@@ -13591,43 +13735,43 @@
       <c r="AJ107" s="4"/>
       <c r="AK107" s="4"/>
       <c r="AL107" s="55"/>
-      <c r="AM107" s="87"/>
-      <c r="AN107" s="94"/>
-      <c r="AO107" s="87"/>
-      <c r="AP107" s="87"/>
-      <c r="AQ107" s="87"/>
-      <c r="AR107" s="87"/>
-      <c r="AS107" s="87"/>
-      <c r="AT107" s="87"/>
-      <c r="AU107" s="88"/>
-      <c r="AV107" s="87"/>
-      <c r="AW107" s="87"/>
-      <c r="AX107" s="87"/>
-      <c r="AY107" s="87"/>
-      <c r="AZ107" s="88"/>
-      <c r="BA107" s="87"/>
-      <c r="BB107" s="87"/>
-      <c r="BC107" s="87"/>
-      <c r="BD107" s="87"/>
-      <c r="BE107" s="87"/>
-      <c r="BF107" s="87"/>
-      <c r="BG107" s="87"/>
-      <c r="BH107" s="87"/>
-      <c r="BI107" s="87"/>
-      <c r="BJ107" s="87"/>
-      <c r="BK107" s="87"/>
-      <c r="BL107" s="87"/>
-      <c r="BM107" s="87"/>
-      <c r="BN107" s="87"/>
-      <c r="BO107" s="87"/>
-      <c r="BP107" s="87"/>
-      <c r="BQ107" s="87"/>
-      <c r="BR107" s="87"/>
-      <c r="BS107" s="87"/>
-      <c r="BT107" s="87"/>
-      <c r="BU107" s="87"/>
-      <c r="BV107" s="87"/>
-      <c r="BW107" s="94"/>
+      <c r="AM107" s="92"/>
+      <c r="AN107" s="98"/>
+      <c r="AO107" s="92"/>
+      <c r="AP107" s="92"/>
+      <c r="AQ107" s="92"/>
+      <c r="AR107" s="92"/>
+      <c r="AS107" s="92"/>
+      <c r="AT107" s="92"/>
+      <c r="AU107" s="93"/>
+      <c r="AV107" s="92"/>
+      <c r="AW107" s="92"/>
+      <c r="AX107" s="92"/>
+      <c r="AY107" s="92"/>
+      <c r="AZ107" s="93"/>
+      <c r="BA107" s="92"/>
+      <c r="BB107" s="92"/>
+      <c r="BC107" s="92"/>
+      <c r="BD107" s="92"/>
+      <c r="BE107" s="92"/>
+      <c r="BF107" s="92"/>
+      <c r="BG107" s="92"/>
+      <c r="BH107" s="92"/>
+      <c r="BI107" s="92"/>
+      <c r="BJ107" s="92"/>
+      <c r="BK107" s="92"/>
+      <c r="BL107" s="92"/>
+      <c r="BM107" s="92"/>
+      <c r="BN107" s="92"/>
+      <c r="BO107" s="92"/>
+      <c r="BP107" s="92"/>
+      <c r="BQ107" s="92"/>
+      <c r="BR107" s="92"/>
+      <c r="BS107" s="92"/>
+      <c r="BT107" s="92"/>
+      <c r="BU107" s="92"/>
+      <c r="BV107" s="92"/>
+      <c r="BW107" s="98"/>
       <c r="BX107" s="55"/>
       <c r="BY107" s="4"/>
       <c r="BZ107" s="4"/>
@@ -13671,12 +13815,12 @@
       <c r="AJ108" s="4"/>
       <c r="AK108" s="4"/>
       <c r="AL108" s="55"/>
-      <c r="AM108" s="89" t="s">
+      <c r="AM108" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AN108" s="86"/>
+      <c r="AN108" s="81"/>
       <c r="AO108" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP108" s="33"/>
       <c r="AQ108" s="33"/>
@@ -13692,7 +13836,7 @@
       <c r="AY108" s="33"/>
       <c r="AZ108" s="46"/>
       <c r="BA108" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BB108" s="33"/>
       <c r="BC108" s="33"/>
@@ -13839,8 +13983,8 @@
       <c r="AJ110" s="4"/>
       <c r="AK110" s="4"/>
       <c r="AL110" s="55"/>
-      <c r="AM110" s="91"/>
-      <c r="AN110" s="85"/>
+      <c r="AM110" s="84"/>
+      <c r="AN110" s="83"/>
       <c r="AO110" s="66"/>
       <c r="AP110" s="33"/>
       <c r="AQ110" s="33"/>
@@ -14079,8 +14223,8 @@
       <c r="AJ113" s="4"/>
       <c r="AK113" s="4"/>
       <c r="AL113" s="55"/>
-      <c r="AM113" s="92"/>
-      <c r="AN113" s="85"/>
+      <c r="AM113" s="82"/>
+      <c r="AN113" s="83"/>
       <c r="AO113" s="68"/>
       <c r="AP113" s="33"/>
       <c r="AQ113" s="33"/>
@@ -17401,190 +17545,190 @@
       <c r="BZ154" s="4"/>
     </row>
     <row r="155" spans="1:78" ht="17.25">
-      <c r="A155" s="106" t="s">
+      <c r="A155" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="82"/>
-      <c r="C155" s="82"/>
-      <c r="D155" s="82"/>
-      <c r="E155" s="96"/>
-      <c r="F155" s="104" t="s">
+      <c r="B155" s="89"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="89"/>
+      <c r="E155" s="102"/>
+      <c r="F155" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G155" s="82"/>
-      <c r="H155" s="82"/>
-      <c r="I155" s="82"/>
-      <c r="J155" s="82"/>
-      <c r="K155" s="82"/>
-      <c r="L155" s="82"/>
-      <c r="M155" s="82"/>
-      <c r="N155" s="82"/>
-      <c r="O155" s="82"/>
-      <c r="P155" s="82"/>
-      <c r="Q155" s="82"/>
-      <c r="R155" s="82"/>
-      <c r="S155" s="82"/>
-      <c r="T155" s="82"/>
-      <c r="U155" s="82"/>
-      <c r="V155" s="82"/>
-      <c r="W155" s="82"/>
-      <c r="X155" s="82"/>
-      <c r="Y155" s="82"/>
-      <c r="Z155" s="82"/>
-      <c r="AA155" s="82"/>
-      <c r="AB155" s="82"/>
-      <c r="AC155" s="82"/>
-      <c r="AD155" s="82"/>
-      <c r="AE155" s="82"/>
-      <c r="AF155" s="82"/>
-      <c r="AG155" s="82"/>
-      <c r="AH155" s="82"/>
-      <c r="AI155" s="82"/>
-      <c r="AJ155" s="82"/>
-      <c r="AK155" s="82"/>
-      <c r="AL155" s="82"/>
-      <c r="AM155" s="82"/>
-      <c r="AN155" s="82"/>
-      <c r="AO155" s="82"/>
-      <c r="AP155" s="82"/>
-      <c r="AQ155" s="82"/>
-      <c r="AR155" s="82"/>
-      <c r="AS155" s="82"/>
-      <c r="AT155" s="82"/>
-      <c r="AU155" s="82"/>
-      <c r="AV155" s="83"/>
-      <c r="AW155" s="81" t="s">
+      <c r="G155" s="89"/>
+      <c r="H155" s="89"/>
+      <c r="I155" s="89"/>
+      <c r="J155" s="89"/>
+      <c r="K155" s="89"/>
+      <c r="L155" s="89"/>
+      <c r="M155" s="89"/>
+      <c r="N155" s="89"/>
+      <c r="O155" s="89"/>
+      <c r="P155" s="89"/>
+      <c r="Q155" s="89"/>
+      <c r="R155" s="89"/>
+      <c r="S155" s="89"/>
+      <c r="T155" s="89"/>
+      <c r="U155" s="89"/>
+      <c r="V155" s="89"/>
+      <c r="W155" s="89"/>
+      <c r="X155" s="89"/>
+      <c r="Y155" s="89"/>
+      <c r="Z155" s="89"/>
+      <c r="AA155" s="89"/>
+      <c r="AB155" s="89"/>
+      <c r="AC155" s="89"/>
+      <c r="AD155" s="89"/>
+      <c r="AE155" s="89"/>
+      <c r="AF155" s="89"/>
+      <c r="AG155" s="89"/>
+      <c r="AH155" s="89"/>
+      <c r="AI155" s="89"/>
+      <c r="AJ155" s="89"/>
+      <c r="AK155" s="89"/>
+      <c r="AL155" s="89"/>
+      <c r="AM155" s="89"/>
+      <c r="AN155" s="89"/>
+      <c r="AO155" s="89"/>
+      <c r="AP155" s="89"/>
+      <c r="AQ155" s="89"/>
+      <c r="AR155" s="89"/>
+      <c r="AS155" s="89"/>
+      <c r="AT155" s="89"/>
+      <c r="AU155" s="89"/>
+      <c r="AV155" s="90"/>
+      <c r="AW155" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AX155" s="82"/>
-      <c r="AY155" s="82"/>
-      <c r="AZ155" s="82"/>
-      <c r="BA155" s="83"/>
-      <c r="BB155" s="78" t="s">
+      <c r="AX155" s="89"/>
+      <c r="AY155" s="89"/>
+      <c r="AZ155" s="89"/>
+      <c r="BA155" s="90"/>
+      <c r="BB155" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC155" s="78"/>
+      <c r="BD155" s="78"/>
+      <c r="BE155" s="78"/>
+      <c r="BF155" s="78"/>
+      <c r="BG155" s="78"/>
+      <c r="BH155" s="78"/>
+      <c r="BI155" s="78"/>
+      <c r="BJ155" s="79"/>
+      <c r="BK155" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL155" s="89"/>
+      <c r="BM155" s="89"/>
+      <c r="BN155" s="89"/>
+      <c r="BO155" s="90"/>
+      <c r="BP155" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ155" s="89"/>
+      <c r="BR155" s="89"/>
+      <c r="BS155" s="89"/>
+      <c r="BT155" s="89"/>
+      <c r="BU155" s="89"/>
+      <c r="BV155" s="89"/>
+      <c r="BW155" s="89"/>
+      <c r="BX155" s="102"/>
+      <c r="BY155" s="54"/>
+      <c r="BZ155" s="54"/>
+    </row>
+    <row r="156" spans="1:78" ht="18">
+      <c r="A156" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="86"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="86"/>
+      <c r="E156" s="104"/>
+      <c r="F156" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="86"/>
+      <c r="H156" s="86"/>
+      <c r="I156" s="86"/>
+      <c r="J156" s="86"/>
+      <c r="K156" s="86"/>
+      <c r="L156" s="86"/>
+      <c r="M156" s="86"/>
+      <c r="N156" s="86"/>
+      <c r="O156" s="86"/>
+      <c r="P156" s="86"/>
+      <c r="Q156" s="86"/>
+      <c r="R156" s="86"/>
+      <c r="S156" s="86"/>
+      <c r="T156" s="86"/>
+      <c r="U156" s="86"/>
+      <c r="V156" s="86"/>
+      <c r="W156" s="86"/>
+      <c r="X156" s="86"/>
+      <c r="Y156" s="87"/>
+      <c r="Z156" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="BC155" s="79"/>
-      <c r="BD155" s="79"/>
-      <c r="BE155" s="79"/>
-      <c r="BF155" s="79"/>
-      <c r="BG155" s="79"/>
-      <c r="BH155" s="79"/>
-      <c r="BI155" s="79"/>
-      <c r="BJ155" s="80"/>
-      <c r="BK155" s="81" t="s">
-        <v>4</v>
+      <c r="AA156" s="86"/>
+      <c r="AB156" s="86"/>
+      <c r="AC156" s="86"/>
+      <c r="AD156" s="87"/>
+      <c r="AE156" s="100" t="s">
+        <v>90</v>
       </c>
-      <c r="BL155" s="82"/>
-      <c r="BM155" s="82"/>
-      <c r="BN155" s="82"/>
-      <c r="BO155" s="83"/>
-      <c r="BP155" s="95" t="s">
+      <c r="AF156" s="86"/>
+      <c r="AG156" s="86"/>
+      <c r="AH156" s="86"/>
+      <c r="AI156" s="86"/>
+      <c r="AJ156" s="86"/>
+      <c r="AK156" s="86"/>
+      <c r="AL156" s="86"/>
+      <c r="AM156" s="86"/>
+      <c r="AN156" s="86"/>
+      <c r="AO156" s="86"/>
+      <c r="AP156" s="86"/>
+      <c r="AQ156" s="86"/>
+      <c r="AR156" s="86"/>
+      <c r="AS156" s="86"/>
+      <c r="AT156" s="86"/>
+      <c r="AU156" s="86"/>
+      <c r="AV156" s="87"/>
+      <c r="AW156" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX156" s="86"/>
+      <c r="AY156" s="86"/>
+      <c r="AZ156" s="86"/>
+      <c r="BA156" s="87"/>
+      <c r="BB156" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC156" s="86"/>
+      <c r="BD156" s="86"/>
+      <c r="BE156" s="86"/>
+      <c r="BF156" s="86"/>
+      <c r="BG156" s="86"/>
+      <c r="BH156" s="86"/>
+      <c r="BI156" s="86"/>
+      <c r="BJ156" s="86"/>
+      <c r="BK156" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL156" s="86"/>
+      <c r="BM156" s="86"/>
+      <c r="BN156" s="86"/>
+      <c r="BO156" s="87"/>
+      <c r="BP156" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="BQ155" s="82"/>
-      <c r="BR155" s="82"/>
-      <c r="BS155" s="82"/>
-      <c r="BT155" s="82"/>
-      <c r="BU155" s="82"/>
-      <c r="BV155" s="82"/>
-      <c r="BW155" s="82"/>
-      <c r="BX155" s="96"/>
-      <c r="BY155" s="54"/>
-      <c r="BZ155" s="54"/>
-    </row>
-    <row r="156" spans="1:78" ht="18">
-      <c r="A156" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="76"/>
-      <c r="C156" s="76"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="108"/>
-      <c r="F156" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G156" s="76"/>
-      <c r="H156" s="76"/>
-      <c r="I156" s="76"/>
-      <c r="J156" s="76"/>
-      <c r="K156" s="76"/>
-      <c r="L156" s="76"/>
-      <c r="M156" s="76"/>
-      <c r="N156" s="76"/>
-      <c r="O156" s="76"/>
-      <c r="P156" s="76"/>
-      <c r="Q156" s="76"/>
-      <c r="R156" s="76"/>
-      <c r="S156" s="76"/>
-      <c r="T156" s="76"/>
-      <c r="U156" s="76"/>
-      <c r="V156" s="76"/>
-      <c r="W156" s="76"/>
-      <c r="X156" s="76"/>
-      <c r="Y156" s="77"/>
-      <c r="Z156" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA156" s="76"/>
-      <c r="AB156" s="76"/>
-      <c r="AC156" s="76"/>
-      <c r="AD156" s="77"/>
-      <c r="AE156" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF156" s="76"/>
-      <c r="AG156" s="76"/>
-      <c r="AH156" s="76"/>
-      <c r="AI156" s="76"/>
-      <c r="AJ156" s="76"/>
-      <c r="AK156" s="76"/>
-      <c r="AL156" s="76"/>
-      <c r="AM156" s="76"/>
-      <c r="AN156" s="76"/>
-      <c r="AO156" s="76"/>
-      <c r="AP156" s="76"/>
-      <c r="AQ156" s="76"/>
-      <c r="AR156" s="76"/>
-      <c r="AS156" s="76"/>
-      <c r="AT156" s="76"/>
-      <c r="AU156" s="76"/>
-      <c r="AV156" s="77"/>
-      <c r="AW156" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX156" s="76"/>
-      <c r="AY156" s="76"/>
-      <c r="AZ156" s="76"/>
-      <c r="BA156" s="77"/>
-      <c r="BB156" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC156" s="76"/>
-      <c r="BD156" s="76"/>
-      <c r="BE156" s="76"/>
-      <c r="BF156" s="76"/>
-      <c r="BG156" s="76"/>
-      <c r="BH156" s="76"/>
-      <c r="BI156" s="76"/>
-      <c r="BJ156" s="76"/>
-      <c r="BK156" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL156" s="76"/>
-      <c r="BM156" s="76"/>
-      <c r="BN156" s="76"/>
-      <c r="BO156" s="77"/>
-      <c r="BP156" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ156" s="82"/>
-      <c r="BR156" s="82"/>
-      <c r="BS156" s="82"/>
-      <c r="BT156" s="82"/>
-      <c r="BU156" s="82"/>
-      <c r="BV156" s="82"/>
-      <c r="BW156" s="82"/>
-      <c r="BX156" s="96"/>
+      <c r="BQ156" s="89"/>
+      <c r="BR156" s="89"/>
+      <c r="BS156" s="89"/>
+      <c r="BT156" s="89"/>
+      <c r="BU156" s="89"/>
+      <c r="BV156" s="89"/>
+      <c r="BW156" s="89"/>
+      <c r="BX156" s="102"/>
       <c r="BY156" s="54"/>
       <c r="BZ156" s="54"/>
     </row>
@@ -17671,7 +17815,7 @@
     <row r="158" spans="1:78" ht="14.25">
       <c r="A158" s="4"/>
       <c r="B158" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
@@ -17788,51 +17932,51 @@
       <c r="AJ159" s="4"/>
       <c r="AK159" s="4"/>
       <c r="AL159" s="55"/>
-      <c r="AM159" s="84" t="s">
+      <c r="AM159" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AN159" s="93"/>
-      <c r="AO159" s="84" t="s">
+      <c r="AN159" s="97"/>
+      <c r="AO159" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AP159" s="85"/>
-      <c r="AQ159" s="85"/>
-      <c r="AR159" s="85"/>
-      <c r="AS159" s="85"/>
-      <c r="AT159" s="85"/>
-      <c r="AU159" s="86"/>
-      <c r="AV159" s="84" t="s">
+      <c r="AP159" s="83"/>
+      <c r="AQ159" s="83"/>
+      <c r="AR159" s="83"/>
+      <c r="AS159" s="83"/>
+      <c r="AT159" s="83"/>
+      <c r="AU159" s="81"/>
+      <c r="AV159" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AW159" s="85"/>
-      <c r="AX159" s="85"/>
-      <c r="AY159" s="85"/>
-      <c r="AZ159" s="86"/>
-      <c r="BA159" s="84" t="s">
+      <c r="AW159" s="83"/>
+      <c r="AX159" s="83"/>
+      <c r="AY159" s="83"/>
+      <c r="AZ159" s="81"/>
+      <c r="BA159" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="BB159" s="85"/>
-      <c r="BC159" s="85"/>
-      <c r="BD159" s="85"/>
-      <c r="BE159" s="85"/>
-      <c r="BF159" s="85"/>
-      <c r="BG159" s="85"/>
-      <c r="BH159" s="85"/>
-      <c r="BI159" s="85"/>
-      <c r="BJ159" s="85"/>
-      <c r="BK159" s="85"/>
-      <c r="BL159" s="85"/>
-      <c r="BM159" s="85"/>
-      <c r="BN159" s="85"/>
-      <c r="BO159" s="85"/>
-      <c r="BP159" s="85"/>
-      <c r="BQ159" s="85"/>
-      <c r="BR159" s="85"/>
-      <c r="BS159" s="85"/>
-      <c r="BT159" s="85"/>
-      <c r="BU159" s="85"/>
-      <c r="BV159" s="85"/>
-      <c r="BW159" s="93"/>
+      <c r="BB159" s="83"/>
+      <c r="BC159" s="83"/>
+      <c r="BD159" s="83"/>
+      <c r="BE159" s="83"/>
+      <c r="BF159" s="83"/>
+      <c r="BG159" s="83"/>
+      <c r="BH159" s="83"/>
+      <c r="BI159" s="83"/>
+      <c r="BJ159" s="83"/>
+      <c r="BK159" s="83"/>
+      <c r="BL159" s="83"/>
+      <c r="BM159" s="83"/>
+      <c r="BN159" s="83"/>
+      <c r="BO159" s="83"/>
+      <c r="BP159" s="83"/>
+      <c r="BQ159" s="83"/>
+      <c r="BR159" s="83"/>
+      <c r="BS159" s="83"/>
+      <c r="BT159" s="83"/>
+      <c r="BU159" s="83"/>
+      <c r="BV159" s="83"/>
+      <c r="BW159" s="97"/>
       <c r="BX159" s="4"/>
       <c r="BY159" s="4"/>
       <c r="BZ159" s="4"/>
@@ -17876,43 +18020,43 @@
       <c r="AJ160" s="4"/>
       <c r="AK160" s="4"/>
       <c r="AL160" s="55"/>
-      <c r="AM160" s="87"/>
-      <c r="AN160" s="94"/>
-      <c r="AO160" s="87"/>
-      <c r="AP160" s="87"/>
-      <c r="AQ160" s="87"/>
-      <c r="AR160" s="87"/>
-      <c r="AS160" s="87"/>
-      <c r="AT160" s="87"/>
-      <c r="AU160" s="88"/>
-      <c r="AV160" s="87"/>
-      <c r="AW160" s="87"/>
-      <c r="AX160" s="87"/>
-      <c r="AY160" s="87"/>
-      <c r="AZ160" s="88"/>
-      <c r="BA160" s="87"/>
-      <c r="BB160" s="87"/>
-      <c r="BC160" s="87"/>
-      <c r="BD160" s="87"/>
-      <c r="BE160" s="87"/>
-      <c r="BF160" s="87"/>
-      <c r="BG160" s="87"/>
-      <c r="BH160" s="87"/>
-      <c r="BI160" s="87"/>
-      <c r="BJ160" s="87"/>
-      <c r="BK160" s="87"/>
-      <c r="BL160" s="87"/>
-      <c r="BM160" s="87"/>
-      <c r="BN160" s="87"/>
-      <c r="BO160" s="87"/>
-      <c r="BP160" s="87"/>
-      <c r="BQ160" s="87"/>
-      <c r="BR160" s="87"/>
-      <c r="BS160" s="87"/>
-      <c r="BT160" s="87"/>
-      <c r="BU160" s="87"/>
-      <c r="BV160" s="87"/>
-      <c r="BW160" s="94"/>
+      <c r="AM160" s="92"/>
+      <c r="AN160" s="98"/>
+      <c r="AO160" s="92"/>
+      <c r="AP160" s="92"/>
+      <c r="AQ160" s="92"/>
+      <c r="AR160" s="92"/>
+      <c r="AS160" s="92"/>
+      <c r="AT160" s="92"/>
+      <c r="AU160" s="93"/>
+      <c r="AV160" s="92"/>
+      <c r="AW160" s="92"/>
+      <c r="AX160" s="92"/>
+      <c r="AY160" s="92"/>
+      <c r="AZ160" s="93"/>
+      <c r="BA160" s="92"/>
+      <c r="BB160" s="92"/>
+      <c r="BC160" s="92"/>
+      <c r="BD160" s="92"/>
+      <c r="BE160" s="92"/>
+      <c r="BF160" s="92"/>
+      <c r="BG160" s="92"/>
+      <c r="BH160" s="92"/>
+      <c r="BI160" s="92"/>
+      <c r="BJ160" s="92"/>
+      <c r="BK160" s="92"/>
+      <c r="BL160" s="92"/>
+      <c r="BM160" s="92"/>
+      <c r="BN160" s="92"/>
+      <c r="BO160" s="92"/>
+      <c r="BP160" s="92"/>
+      <c r="BQ160" s="92"/>
+      <c r="BR160" s="92"/>
+      <c r="BS160" s="92"/>
+      <c r="BT160" s="92"/>
+      <c r="BU160" s="92"/>
+      <c r="BV160" s="92"/>
+      <c r="BW160" s="98"/>
       <c r="BX160" s="4"/>
       <c r="BY160" s="4"/>
       <c r="BZ160" s="4"/>
@@ -17956,12 +18100,12 @@
       <c r="AJ161" s="4"/>
       <c r="AK161" s="4"/>
       <c r="AL161" s="55"/>
-      <c r="AM161" s="89" t="s">
+      <c r="AM161" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AN161" s="86"/>
+      <c r="AN161" s="81"/>
       <c r="AO161" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP161" s="33"/>
       <c r="AQ161" s="33"/>
@@ -17977,7 +18121,7 @@
       <c r="AY161" s="33"/>
       <c r="AZ161" s="46"/>
       <c r="BA161" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BB161" s="33"/>
       <c r="BC161" s="33"/>
@@ -18059,7 +18203,7 @@
       <c r="AY162" s="33"/>
       <c r="AZ162" s="46"/>
       <c r="BA162" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BB162" s="33"/>
       <c r="BC162" s="33"/>
@@ -18126,8 +18270,8 @@
       <c r="AJ163" s="4"/>
       <c r="AK163" s="4"/>
       <c r="AL163" s="55"/>
-      <c r="AM163" s="91"/>
-      <c r="AN163" s="85"/>
+      <c r="AM163" s="84"/>
+      <c r="AN163" s="83"/>
       <c r="AO163" s="66"/>
       <c r="AP163" s="33"/>
       <c r="AQ163" s="33"/>
@@ -18366,8 +18510,8 @@
       <c r="AJ166" s="4"/>
       <c r="AK166" s="4"/>
       <c r="AL166" s="55"/>
-      <c r="AM166" s="92"/>
-      <c r="AN166" s="85"/>
+      <c r="AM166" s="82"/>
+      <c r="AN166" s="83"/>
       <c r="AO166" s="68"/>
       <c r="AP166" s="33"/>
       <c r="AQ166" s="33"/>
@@ -21688,190 +21832,190 @@
       <c r="BZ207" s="4"/>
     </row>
     <row r="208" spans="1:78" ht="17.25">
-      <c r="A208" s="106" t="s">
+      <c r="A208" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="82"/>
-      <c r="C208" s="82"/>
-      <c r="D208" s="82"/>
-      <c r="E208" s="96"/>
-      <c r="F208" s="104" t="s">
+      <c r="B208" s="89"/>
+      <c r="C208" s="89"/>
+      <c r="D208" s="89"/>
+      <c r="E208" s="102"/>
+      <c r="F208" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G208" s="82"/>
-      <c r="H208" s="82"/>
-      <c r="I208" s="82"/>
-      <c r="J208" s="82"/>
-      <c r="K208" s="82"/>
-      <c r="L208" s="82"/>
-      <c r="M208" s="82"/>
-      <c r="N208" s="82"/>
-      <c r="O208" s="82"/>
-      <c r="P208" s="82"/>
-      <c r="Q208" s="82"/>
-      <c r="R208" s="82"/>
-      <c r="S208" s="82"/>
-      <c r="T208" s="82"/>
-      <c r="U208" s="82"/>
-      <c r="V208" s="82"/>
-      <c r="W208" s="82"/>
-      <c r="X208" s="82"/>
-      <c r="Y208" s="82"/>
-      <c r="Z208" s="82"/>
-      <c r="AA208" s="82"/>
-      <c r="AB208" s="82"/>
-      <c r="AC208" s="82"/>
-      <c r="AD208" s="82"/>
-      <c r="AE208" s="82"/>
-      <c r="AF208" s="82"/>
-      <c r="AG208" s="82"/>
-      <c r="AH208" s="82"/>
-      <c r="AI208" s="82"/>
-      <c r="AJ208" s="82"/>
-      <c r="AK208" s="82"/>
-      <c r="AL208" s="82"/>
-      <c r="AM208" s="82"/>
-      <c r="AN208" s="82"/>
-      <c r="AO208" s="82"/>
-      <c r="AP208" s="82"/>
-      <c r="AQ208" s="82"/>
-      <c r="AR208" s="82"/>
-      <c r="AS208" s="82"/>
-      <c r="AT208" s="82"/>
-      <c r="AU208" s="82"/>
-      <c r="AV208" s="83"/>
-      <c r="AW208" s="81" t="s">
+      <c r="G208" s="89"/>
+      <c r="H208" s="89"/>
+      <c r="I208" s="89"/>
+      <c r="J208" s="89"/>
+      <c r="K208" s="89"/>
+      <c r="L208" s="89"/>
+      <c r="M208" s="89"/>
+      <c r="N208" s="89"/>
+      <c r="O208" s="89"/>
+      <c r="P208" s="89"/>
+      <c r="Q208" s="89"/>
+      <c r="R208" s="89"/>
+      <c r="S208" s="89"/>
+      <c r="T208" s="89"/>
+      <c r="U208" s="89"/>
+      <c r="V208" s="89"/>
+      <c r="W208" s="89"/>
+      <c r="X208" s="89"/>
+      <c r="Y208" s="89"/>
+      <c r="Z208" s="89"/>
+      <c r="AA208" s="89"/>
+      <c r="AB208" s="89"/>
+      <c r="AC208" s="89"/>
+      <c r="AD208" s="89"/>
+      <c r="AE208" s="89"/>
+      <c r="AF208" s="89"/>
+      <c r="AG208" s="89"/>
+      <c r="AH208" s="89"/>
+      <c r="AI208" s="89"/>
+      <c r="AJ208" s="89"/>
+      <c r="AK208" s="89"/>
+      <c r="AL208" s="89"/>
+      <c r="AM208" s="89"/>
+      <c r="AN208" s="89"/>
+      <c r="AO208" s="89"/>
+      <c r="AP208" s="89"/>
+      <c r="AQ208" s="89"/>
+      <c r="AR208" s="89"/>
+      <c r="AS208" s="89"/>
+      <c r="AT208" s="89"/>
+      <c r="AU208" s="89"/>
+      <c r="AV208" s="90"/>
+      <c r="AW208" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AX208" s="82"/>
-      <c r="AY208" s="82"/>
-      <c r="AZ208" s="82"/>
-      <c r="BA208" s="83"/>
-      <c r="BB208" s="78" t="s">
+      <c r="AX208" s="89"/>
+      <c r="AY208" s="89"/>
+      <c r="AZ208" s="89"/>
+      <c r="BA208" s="90"/>
+      <c r="BB208" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC208" s="78"/>
+      <c r="BD208" s="78"/>
+      <c r="BE208" s="78"/>
+      <c r="BF208" s="78"/>
+      <c r="BG208" s="78"/>
+      <c r="BH208" s="78"/>
+      <c r="BI208" s="78"/>
+      <c r="BJ208" s="79"/>
+      <c r="BK208" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL208" s="89"/>
+      <c r="BM208" s="89"/>
+      <c r="BN208" s="89"/>
+      <c r="BO208" s="90"/>
+      <c r="BP208" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ208" s="89"/>
+      <c r="BR208" s="89"/>
+      <c r="BS208" s="89"/>
+      <c r="BT208" s="89"/>
+      <c r="BU208" s="89"/>
+      <c r="BV208" s="89"/>
+      <c r="BW208" s="89"/>
+      <c r="BX208" s="102"/>
+      <c r="BY208" s="54"/>
+      <c r="BZ208" s="54"/>
+    </row>
+    <row r="209" spans="1:78" ht="18">
+      <c r="A209" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="86"/>
+      <c r="C209" s="86"/>
+      <c r="D209" s="86"/>
+      <c r="E209" s="104"/>
+      <c r="F209" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G209" s="86"/>
+      <c r="H209" s="86"/>
+      <c r="I209" s="86"/>
+      <c r="J209" s="86"/>
+      <c r="K209" s="86"/>
+      <c r="L209" s="86"/>
+      <c r="M209" s="86"/>
+      <c r="N209" s="86"/>
+      <c r="O209" s="86"/>
+      <c r="P209" s="86"/>
+      <c r="Q209" s="86"/>
+      <c r="R209" s="86"/>
+      <c r="S209" s="86"/>
+      <c r="T209" s="86"/>
+      <c r="U209" s="86"/>
+      <c r="V209" s="86"/>
+      <c r="W209" s="86"/>
+      <c r="X209" s="86"/>
+      <c r="Y209" s="87"/>
+      <c r="Z209" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="BC208" s="79"/>
-      <c r="BD208" s="79"/>
-      <c r="BE208" s="79"/>
-      <c r="BF208" s="79"/>
-      <c r="BG208" s="79"/>
-      <c r="BH208" s="79"/>
-      <c r="BI208" s="79"/>
-      <c r="BJ208" s="80"/>
-      <c r="BK208" s="81" t="s">
-        <v>4</v>
+      <c r="AA209" s="86"/>
+      <c r="AB209" s="86"/>
+      <c r="AC209" s="86"/>
+      <c r="AD209" s="87"/>
+      <c r="AE209" s="100" t="s">
+        <v>93</v>
       </c>
-      <c r="BL208" s="82"/>
-      <c r="BM208" s="82"/>
-      <c r="BN208" s="82"/>
-      <c r="BO208" s="83"/>
-      <c r="BP208" s="95" t="s">
+      <c r="AF209" s="86"/>
+      <c r="AG209" s="86"/>
+      <c r="AH209" s="86"/>
+      <c r="AI209" s="86"/>
+      <c r="AJ209" s="86"/>
+      <c r="AK209" s="86"/>
+      <c r="AL209" s="86"/>
+      <c r="AM209" s="86"/>
+      <c r="AN209" s="86"/>
+      <c r="AO209" s="86"/>
+      <c r="AP209" s="86"/>
+      <c r="AQ209" s="86"/>
+      <c r="AR209" s="86"/>
+      <c r="AS209" s="86"/>
+      <c r="AT209" s="86"/>
+      <c r="AU209" s="86"/>
+      <c r="AV209" s="87"/>
+      <c r="AW209" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX209" s="86"/>
+      <c r="AY209" s="86"/>
+      <c r="AZ209" s="86"/>
+      <c r="BA209" s="87"/>
+      <c r="BB209" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC209" s="86"/>
+      <c r="BD209" s="86"/>
+      <c r="BE209" s="86"/>
+      <c r="BF209" s="86"/>
+      <c r="BG209" s="86"/>
+      <c r="BH209" s="86"/>
+      <c r="BI209" s="86"/>
+      <c r="BJ209" s="86"/>
+      <c r="BK209" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL209" s="86"/>
+      <c r="BM209" s="86"/>
+      <c r="BN209" s="86"/>
+      <c r="BO209" s="87"/>
+      <c r="BP209" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="BQ208" s="82"/>
-      <c r="BR208" s="82"/>
-      <c r="BS208" s="82"/>
-      <c r="BT208" s="82"/>
-      <c r="BU208" s="82"/>
-      <c r="BV208" s="82"/>
-      <c r="BW208" s="82"/>
-      <c r="BX208" s="96"/>
-      <c r="BY208" s="54"/>
-      <c r="BZ208" s="54"/>
-    </row>
-    <row r="209" spans="1:78" ht="18">
-      <c r="A209" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" s="76"/>
-      <c r="C209" s="76"/>
-      <c r="D209" s="76"/>
-      <c r="E209" s="108"/>
-      <c r="F209" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G209" s="76"/>
-      <c r="H209" s="76"/>
-      <c r="I209" s="76"/>
-      <c r="J209" s="76"/>
-      <c r="K209" s="76"/>
-      <c r="L209" s="76"/>
-      <c r="M209" s="76"/>
-      <c r="N209" s="76"/>
-      <c r="O209" s="76"/>
-      <c r="P209" s="76"/>
-      <c r="Q209" s="76"/>
-      <c r="R209" s="76"/>
-      <c r="S209" s="76"/>
-      <c r="T209" s="76"/>
-      <c r="U209" s="76"/>
-      <c r="V209" s="76"/>
-      <c r="W209" s="76"/>
-      <c r="X209" s="76"/>
-      <c r="Y209" s="77"/>
-      <c r="Z209" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA209" s="76"/>
-      <c r="AB209" s="76"/>
-      <c r="AC209" s="76"/>
-      <c r="AD209" s="77"/>
-      <c r="AE209" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF209" s="76"/>
-      <c r="AG209" s="76"/>
-      <c r="AH209" s="76"/>
-      <c r="AI209" s="76"/>
-      <c r="AJ209" s="76"/>
-      <c r="AK209" s="76"/>
-      <c r="AL209" s="76"/>
-      <c r="AM209" s="76"/>
-      <c r="AN209" s="76"/>
-      <c r="AO209" s="76"/>
-      <c r="AP209" s="76"/>
-      <c r="AQ209" s="76"/>
-      <c r="AR209" s="76"/>
-      <c r="AS209" s="76"/>
-      <c r="AT209" s="76"/>
-      <c r="AU209" s="76"/>
-      <c r="AV209" s="77"/>
-      <c r="AW209" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX209" s="76"/>
-      <c r="AY209" s="76"/>
-      <c r="AZ209" s="76"/>
-      <c r="BA209" s="77"/>
-      <c r="BB209" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC209" s="76"/>
-      <c r="BD209" s="76"/>
-      <c r="BE209" s="76"/>
-      <c r="BF209" s="76"/>
-      <c r="BG209" s="76"/>
-      <c r="BH209" s="76"/>
-      <c r="BI209" s="76"/>
-      <c r="BJ209" s="76"/>
-      <c r="BK209" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL209" s="76"/>
-      <c r="BM209" s="76"/>
-      <c r="BN209" s="76"/>
-      <c r="BO209" s="77"/>
-      <c r="BP209" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ209" s="82"/>
-      <c r="BR209" s="82"/>
-      <c r="BS209" s="82"/>
-      <c r="BT209" s="82"/>
-      <c r="BU209" s="82"/>
-      <c r="BV209" s="82"/>
-      <c r="BW209" s="82"/>
-      <c r="BX209" s="96"/>
+      <c r="BQ209" s="89"/>
+      <c r="BR209" s="89"/>
+      <c r="BS209" s="89"/>
+      <c r="BT209" s="89"/>
+      <c r="BU209" s="89"/>
+      <c r="BV209" s="89"/>
+      <c r="BW209" s="89"/>
+      <c r="BX209" s="102"/>
       <c r="BY209" s="54"/>
       <c r="BZ209" s="54"/>
     </row>
@@ -22074,51 +22218,51 @@
       <c r="AJ212" s="4"/>
       <c r="AK212" s="4"/>
       <c r="AL212" s="55"/>
-      <c r="AM212" s="84" t="s">
+      <c r="AM212" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AN212" s="93"/>
-      <c r="AO212" s="84" t="s">
+      <c r="AN212" s="97"/>
+      <c r="AO212" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AP212" s="85"/>
-      <c r="AQ212" s="85"/>
-      <c r="AR212" s="85"/>
-      <c r="AS212" s="85"/>
-      <c r="AT212" s="85"/>
-      <c r="AU212" s="86"/>
-      <c r="AV212" s="84" t="s">
+      <c r="AP212" s="83"/>
+      <c r="AQ212" s="83"/>
+      <c r="AR212" s="83"/>
+      <c r="AS212" s="83"/>
+      <c r="AT212" s="83"/>
+      <c r="AU212" s="81"/>
+      <c r="AV212" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AW212" s="85"/>
-      <c r="AX212" s="85"/>
-      <c r="AY212" s="85"/>
-      <c r="AZ212" s="86"/>
-      <c r="BA212" s="84" t="s">
+      <c r="AW212" s="83"/>
+      <c r="AX212" s="83"/>
+      <c r="AY212" s="83"/>
+      <c r="AZ212" s="81"/>
+      <c r="BA212" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="BB212" s="85"/>
-      <c r="BC212" s="85"/>
-      <c r="BD212" s="85"/>
-      <c r="BE212" s="85"/>
-      <c r="BF212" s="85"/>
-      <c r="BG212" s="85"/>
-      <c r="BH212" s="85"/>
-      <c r="BI212" s="85"/>
-      <c r="BJ212" s="85"/>
-      <c r="BK212" s="85"/>
-      <c r="BL212" s="85"/>
-      <c r="BM212" s="85"/>
-      <c r="BN212" s="85"/>
-      <c r="BO212" s="85"/>
-      <c r="BP212" s="85"/>
-      <c r="BQ212" s="85"/>
-      <c r="BR212" s="85"/>
-      <c r="BS212" s="85"/>
-      <c r="BT212" s="85"/>
-      <c r="BU212" s="85"/>
-      <c r="BV212" s="85"/>
-      <c r="BW212" s="93"/>
+      <c r="BB212" s="83"/>
+      <c r="BC212" s="83"/>
+      <c r="BD212" s="83"/>
+      <c r="BE212" s="83"/>
+      <c r="BF212" s="83"/>
+      <c r="BG212" s="83"/>
+      <c r="BH212" s="83"/>
+      <c r="BI212" s="83"/>
+      <c r="BJ212" s="83"/>
+      <c r="BK212" s="83"/>
+      <c r="BL212" s="83"/>
+      <c r="BM212" s="83"/>
+      <c r="BN212" s="83"/>
+      <c r="BO212" s="83"/>
+      <c r="BP212" s="83"/>
+      <c r="BQ212" s="83"/>
+      <c r="BR212" s="83"/>
+      <c r="BS212" s="83"/>
+      <c r="BT212" s="83"/>
+      <c r="BU212" s="83"/>
+      <c r="BV212" s="83"/>
+      <c r="BW212" s="97"/>
       <c r="BX212" s="4"/>
       <c r="BY212" s="4"/>
       <c r="BZ212" s="4"/>
@@ -22162,43 +22306,43 @@
       <c r="AJ213" s="4"/>
       <c r="AK213" s="4"/>
       <c r="AL213" s="55"/>
-      <c r="AM213" s="87"/>
-      <c r="AN213" s="94"/>
-      <c r="AO213" s="87"/>
-      <c r="AP213" s="87"/>
-      <c r="AQ213" s="87"/>
-      <c r="AR213" s="87"/>
-      <c r="AS213" s="87"/>
-      <c r="AT213" s="87"/>
-      <c r="AU213" s="88"/>
-      <c r="AV213" s="87"/>
-      <c r="AW213" s="87"/>
-      <c r="AX213" s="87"/>
-      <c r="AY213" s="87"/>
-      <c r="AZ213" s="88"/>
-      <c r="BA213" s="87"/>
-      <c r="BB213" s="87"/>
-      <c r="BC213" s="87"/>
-      <c r="BD213" s="87"/>
-      <c r="BE213" s="87"/>
-      <c r="BF213" s="87"/>
-      <c r="BG213" s="87"/>
-      <c r="BH213" s="87"/>
-      <c r="BI213" s="87"/>
-      <c r="BJ213" s="87"/>
-      <c r="BK213" s="87"/>
-      <c r="BL213" s="87"/>
-      <c r="BM213" s="87"/>
-      <c r="BN213" s="87"/>
-      <c r="BO213" s="87"/>
-      <c r="BP213" s="87"/>
-      <c r="BQ213" s="87"/>
-      <c r="BR213" s="87"/>
-      <c r="BS213" s="87"/>
-      <c r="BT213" s="87"/>
-      <c r="BU213" s="87"/>
-      <c r="BV213" s="87"/>
-      <c r="BW213" s="94"/>
+      <c r="AM213" s="92"/>
+      <c r="AN213" s="98"/>
+      <c r="AO213" s="92"/>
+      <c r="AP213" s="92"/>
+      <c r="AQ213" s="92"/>
+      <c r="AR213" s="92"/>
+      <c r="AS213" s="92"/>
+      <c r="AT213" s="92"/>
+      <c r="AU213" s="93"/>
+      <c r="AV213" s="92"/>
+      <c r="AW213" s="92"/>
+      <c r="AX213" s="92"/>
+      <c r="AY213" s="92"/>
+      <c r="AZ213" s="93"/>
+      <c r="BA213" s="92"/>
+      <c r="BB213" s="92"/>
+      <c r="BC213" s="92"/>
+      <c r="BD213" s="92"/>
+      <c r="BE213" s="92"/>
+      <c r="BF213" s="92"/>
+      <c r="BG213" s="92"/>
+      <c r="BH213" s="92"/>
+      <c r="BI213" s="92"/>
+      <c r="BJ213" s="92"/>
+      <c r="BK213" s="92"/>
+      <c r="BL213" s="92"/>
+      <c r="BM213" s="92"/>
+      <c r="BN213" s="92"/>
+      <c r="BO213" s="92"/>
+      <c r="BP213" s="92"/>
+      <c r="BQ213" s="92"/>
+      <c r="BR213" s="92"/>
+      <c r="BS213" s="92"/>
+      <c r="BT213" s="92"/>
+      <c r="BU213" s="92"/>
+      <c r="BV213" s="92"/>
+      <c r="BW213" s="98"/>
       <c r="BX213" s="4"/>
       <c r="BY213" s="4"/>
       <c r="BZ213" s="4"/>
@@ -22242,12 +22386,12 @@
       <c r="AJ214" s="4"/>
       <c r="AK214" s="4"/>
       <c r="AL214" s="55"/>
-      <c r="AM214" s="89" t="s">
+      <c r="AM214" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AN214" s="86"/>
+      <c r="AN214" s="81"/>
       <c r="AO214" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP214" s="33"/>
       <c r="AQ214" s="33"/>
@@ -22263,7 +22407,7 @@
       <c r="AY214" s="33"/>
       <c r="AZ214" s="46"/>
       <c r="BA214" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB214" s="33"/>
       <c r="BC214" s="33"/>
@@ -22345,7 +22489,7 @@
       <c r="AY215" s="33"/>
       <c r="AZ215" s="46"/>
       <c r="BA215" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BB215" s="33"/>
       <c r="BC215" s="33"/>
@@ -22652,8 +22796,8 @@
       <c r="AJ219" s="4"/>
       <c r="AK219" s="4"/>
       <c r="AL219" s="55"/>
-      <c r="AM219" s="92"/>
-      <c r="AN219" s="85"/>
+      <c r="AM219" s="82"/>
+      <c r="AN219" s="83"/>
       <c r="AO219" s="68"/>
       <c r="AP219" s="33"/>
       <c r="AQ219" s="33"/>
@@ -25974,190 +26118,190 @@
       <c r="BZ260" s="4"/>
     </row>
     <row r="261" spans="1:78" ht="17.25">
-      <c r="A261" s="106" t="s">
+      <c r="A261" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B261" s="82"/>
-      <c r="C261" s="82"/>
-      <c r="D261" s="82"/>
-      <c r="E261" s="96"/>
-      <c r="F261" s="104" t="s">
+      <c r="B261" s="89"/>
+      <c r="C261" s="89"/>
+      <c r="D261" s="89"/>
+      <c r="E261" s="102"/>
+      <c r="F261" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="G261" s="82"/>
-      <c r="H261" s="82"/>
-      <c r="I261" s="82"/>
-      <c r="J261" s="82"/>
-      <c r="K261" s="82"/>
-      <c r="L261" s="82"/>
-      <c r="M261" s="82"/>
-      <c r="N261" s="82"/>
-      <c r="O261" s="82"/>
-      <c r="P261" s="82"/>
-      <c r="Q261" s="82"/>
-      <c r="R261" s="82"/>
-      <c r="S261" s="82"/>
-      <c r="T261" s="82"/>
-      <c r="U261" s="82"/>
-      <c r="V261" s="82"/>
-      <c r="W261" s="82"/>
-      <c r="X261" s="82"/>
-      <c r="Y261" s="82"/>
-      <c r="Z261" s="82"/>
-      <c r="AA261" s="82"/>
-      <c r="AB261" s="82"/>
-      <c r="AC261" s="82"/>
-      <c r="AD261" s="82"/>
-      <c r="AE261" s="82"/>
-      <c r="AF261" s="82"/>
-      <c r="AG261" s="82"/>
-      <c r="AH261" s="82"/>
-      <c r="AI261" s="82"/>
-      <c r="AJ261" s="82"/>
-      <c r="AK261" s="82"/>
-      <c r="AL261" s="82"/>
-      <c r="AM261" s="82"/>
-      <c r="AN261" s="82"/>
-      <c r="AO261" s="82"/>
-      <c r="AP261" s="82"/>
-      <c r="AQ261" s="82"/>
-      <c r="AR261" s="82"/>
-      <c r="AS261" s="82"/>
-      <c r="AT261" s="82"/>
-      <c r="AU261" s="82"/>
-      <c r="AV261" s="83"/>
-      <c r="AW261" s="81" t="s">
+      <c r="G261" s="89"/>
+      <c r="H261" s="89"/>
+      <c r="I261" s="89"/>
+      <c r="J261" s="89"/>
+      <c r="K261" s="89"/>
+      <c r="L261" s="89"/>
+      <c r="M261" s="89"/>
+      <c r="N261" s="89"/>
+      <c r="O261" s="89"/>
+      <c r="P261" s="89"/>
+      <c r="Q261" s="89"/>
+      <c r="R261" s="89"/>
+      <c r="S261" s="89"/>
+      <c r="T261" s="89"/>
+      <c r="U261" s="89"/>
+      <c r="V261" s="89"/>
+      <c r="W261" s="89"/>
+      <c r="X261" s="89"/>
+      <c r="Y261" s="89"/>
+      <c r="Z261" s="89"/>
+      <c r="AA261" s="89"/>
+      <c r="AB261" s="89"/>
+      <c r="AC261" s="89"/>
+      <c r="AD261" s="89"/>
+      <c r="AE261" s="89"/>
+      <c r="AF261" s="89"/>
+      <c r="AG261" s="89"/>
+      <c r="AH261" s="89"/>
+      <c r="AI261" s="89"/>
+      <c r="AJ261" s="89"/>
+      <c r="AK261" s="89"/>
+      <c r="AL261" s="89"/>
+      <c r="AM261" s="89"/>
+      <c r="AN261" s="89"/>
+      <c r="AO261" s="89"/>
+      <c r="AP261" s="89"/>
+      <c r="AQ261" s="89"/>
+      <c r="AR261" s="89"/>
+      <c r="AS261" s="89"/>
+      <c r="AT261" s="89"/>
+      <c r="AU261" s="89"/>
+      <c r="AV261" s="90"/>
+      <c r="AW261" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AX261" s="82"/>
-      <c r="AY261" s="82"/>
-      <c r="AZ261" s="82"/>
-      <c r="BA261" s="83"/>
-      <c r="BB261" s="78" t="s">
+      <c r="AX261" s="89"/>
+      <c r="AY261" s="89"/>
+      <c r="AZ261" s="89"/>
+      <c r="BA261" s="90"/>
+      <c r="BB261" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC261" s="78"/>
+      <c r="BD261" s="78"/>
+      <c r="BE261" s="78"/>
+      <c r="BF261" s="78"/>
+      <c r="BG261" s="78"/>
+      <c r="BH261" s="78"/>
+      <c r="BI261" s="78"/>
+      <c r="BJ261" s="79"/>
+      <c r="BK261" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL261" s="89"/>
+      <c r="BM261" s="89"/>
+      <c r="BN261" s="89"/>
+      <c r="BO261" s="90"/>
+      <c r="BP261" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ261" s="89"/>
+      <c r="BR261" s="89"/>
+      <c r="BS261" s="89"/>
+      <c r="BT261" s="89"/>
+      <c r="BU261" s="89"/>
+      <c r="BV261" s="89"/>
+      <c r="BW261" s="89"/>
+      <c r="BX261" s="102"/>
+      <c r="BY261" s="54"/>
+      <c r="BZ261" s="54"/>
+    </row>
+    <row r="262" spans="1:78" ht="18">
+      <c r="A262" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B262" s="86"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="86"/>
+      <c r="E262" s="104"/>
+      <c r="F262" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" s="86"/>
+      <c r="H262" s="86"/>
+      <c r="I262" s="86"/>
+      <c r="J262" s="86"/>
+      <c r="K262" s="86"/>
+      <c r="L262" s="86"/>
+      <c r="M262" s="86"/>
+      <c r="N262" s="86"/>
+      <c r="O262" s="86"/>
+      <c r="P262" s="86"/>
+      <c r="Q262" s="86"/>
+      <c r="R262" s="86"/>
+      <c r="S262" s="86"/>
+      <c r="T262" s="86"/>
+      <c r="U262" s="86"/>
+      <c r="V262" s="86"/>
+      <c r="W262" s="86"/>
+      <c r="X262" s="86"/>
+      <c r="Y262" s="87"/>
+      <c r="Z262" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="BC261" s="79"/>
-      <c r="BD261" s="79"/>
-      <c r="BE261" s="79"/>
-      <c r="BF261" s="79"/>
-      <c r="BG261" s="79"/>
-      <c r="BH261" s="79"/>
-      <c r="BI261" s="79"/>
-      <c r="BJ261" s="80"/>
-      <c r="BK261" s="81" t="s">
-        <v>4</v>
+      <c r="AA262" s="86"/>
+      <c r="AB262" s="86"/>
+      <c r="AC262" s="86"/>
+      <c r="AD262" s="87"/>
+      <c r="AE262" s="100" t="s">
+        <v>93</v>
       </c>
-      <c r="BL261" s="82"/>
-      <c r="BM261" s="82"/>
-      <c r="BN261" s="82"/>
-      <c r="BO261" s="83"/>
-      <c r="BP261" s="95" t="s">
+      <c r="AF262" s="86"/>
+      <c r="AG262" s="86"/>
+      <c r="AH262" s="86"/>
+      <c r="AI262" s="86"/>
+      <c r="AJ262" s="86"/>
+      <c r="AK262" s="86"/>
+      <c r="AL262" s="86"/>
+      <c r="AM262" s="86"/>
+      <c r="AN262" s="86"/>
+      <c r="AO262" s="86"/>
+      <c r="AP262" s="86"/>
+      <c r="AQ262" s="86"/>
+      <c r="AR262" s="86"/>
+      <c r="AS262" s="86"/>
+      <c r="AT262" s="86"/>
+      <c r="AU262" s="86"/>
+      <c r="AV262" s="87"/>
+      <c r="AW262" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX262" s="86"/>
+      <c r="AY262" s="86"/>
+      <c r="AZ262" s="86"/>
+      <c r="BA262" s="87"/>
+      <c r="BB262" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC262" s="86"/>
+      <c r="BD262" s="86"/>
+      <c r="BE262" s="86"/>
+      <c r="BF262" s="86"/>
+      <c r="BG262" s="86"/>
+      <c r="BH262" s="86"/>
+      <c r="BI262" s="86"/>
+      <c r="BJ262" s="86"/>
+      <c r="BK262" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL262" s="78"/>
+      <c r="BM262" s="78"/>
+      <c r="BN262" s="78"/>
+      <c r="BO262" s="79"/>
+      <c r="BP262" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="BQ261" s="82"/>
-      <c r="BR261" s="82"/>
-      <c r="BS261" s="82"/>
-      <c r="BT261" s="82"/>
-      <c r="BU261" s="82"/>
-      <c r="BV261" s="82"/>
-      <c r="BW261" s="82"/>
-      <c r="BX261" s="96"/>
-      <c r="BY261" s="54"/>
-      <c r="BZ261" s="54"/>
-    </row>
-    <row r="262" spans="1:78" ht="18">
-      <c r="A262" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B262" s="76"/>
-      <c r="C262" s="76"/>
-      <c r="D262" s="76"/>
-      <c r="E262" s="108"/>
-      <c r="F262" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G262" s="76"/>
-      <c r="H262" s="76"/>
-      <c r="I262" s="76"/>
-      <c r="J262" s="76"/>
-      <c r="K262" s="76"/>
-      <c r="L262" s="76"/>
-      <c r="M262" s="76"/>
-      <c r="N262" s="76"/>
-      <c r="O262" s="76"/>
-      <c r="P262" s="76"/>
-      <c r="Q262" s="76"/>
-      <c r="R262" s="76"/>
-      <c r="S262" s="76"/>
-      <c r="T262" s="76"/>
-      <c r="U262" s="76"/>
-      <c r="V262" s="76"/>
-      <c r="W262" s="76"/>
-      <c r="X262" s="76"/>
-      <c r="Y262" s="77"/>
-      <c r="Z262" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA262" s="76"/>
-      <c r="AB262" s="76"/>
-      <c r="AC262" s="76"/>
-      <c r="AD262" s="77"/>
-      <c r="AE262" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF262" s="76"/>
-      <c r="AG262" s="76"/>
-      <c r="AH262" s="76"/>
-      <c r="AI262" s="76"/>
-      <c r="AJ262" s="76"/>
-      <c r="AK262" s="76"/>
-      <c r="AL262" s="76"/>
-      <c r="AM262" s="76"/>
-      <c r="AN262" s="76"/>
-      <c r="AO262" s="76"/>
-      <c r="AP262" s="76"/>
-      <c r="AQ262" s="76"/>
-      <c r="AR262" s="76"/>
-      <c r="AS262" s="76"/>
-      <c r="AT262" s="76"/>
-      <c r="AU262" s="76"/>
-      <c r="AV262" s="77"/>
-      <c r="AW262" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX262" s="76"/>
-      <c r="AY262" s="76"/>
-      <c r="AZ262" s="76"/>
-      <c r="BA262" s="77"/>
-      <c r="BB262" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC262" s="76"/>
-      <c r="BD262" s="76"/>
-      <c r="BE262" s="76"/>
-      <c r="BF262" s="76"/>
-      <c r="BG262" s="76"/>
-      <c r="BH262" s="76"/>
-      <c r="BI262" s="76"/>
-      <c r="BJ262" s="76"/>
-      <c r="BK262" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="BL262" s="79"/>
-      <c r="BM262" s="79"/>
-      <c r="BN262" s="79"/>
-      <c r="BO262" s="80"/>
-      <c r="BP262" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ262" s="82"/>
-      <c r="BR262" s="82"/>
-      <c r="BS262" s="82"/>
-      <c r="BT262" s="82"/>
-      <c r="BU262" s="82"/>
-      <c r="BV262" s="82"/>
-      <c r="BW262" s="82"/>
-      <c r="BX262" s="96"/>
+      <c r="BQ262" s="89"/>
+      <c r="BR262" s="89"/>
+      <c r="BS262" s="89"/>
+      <c r="BT262" s="89"/>
+      <c r="BU262" s="89"/>
+      <c r="BV262" s="89"/>
+      <c r="BW262" s="89"/>
+      <c r="BX262" s="102"/>
       <c r="BY262" s="54"/>
       <c r="BZ262" s="54"/>
     </row>
@@ -26360,51 +26504,51 @@
       <c r="AJ265" s="4"/>
       <c r="AK265" s="4"/>
       <c r="AL265" s="55"/>
-      <c r="AM265" s="84" t="s">
+      <c r="AM265" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AN265" s="93"/>
-      <c r="AO265" s="84" t="s">
+      <c r="AN265" s="97"/>
+      <c r="AO265" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AP265" s="85"/>
-      <c r="AQ265" s="85"/>
-      <c r="AR265" s="85"/>
-      <c r="AS265" s="85"/>
-      <c r="AT265" s="85"/>
-      <c r="AU265" s="86"/>
-      <c r="AV265" s="84" t="s">
+      <c r="AP265" s="83"/>
+      <c r="AQ265" s="83"/>
+      <c r="AR265" s="83"/>
+      <c r="AS265" s="83"/>
+      <c r="AT265" s="83"/>
+      <c r="AU265" s="81"/>
+      <c r="AV265" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AW265" s="85"/>
-      <c r="AX265" s="85"/>
-      <c r="AY265" s="85"/>
-      <c r="AZ265" s="86"/>
-      <c r="BA265" s="84" t="s">
+      <c r="AW265" s="83"/>
+      <c r="AX265" s="83"/>
+      <c r="AY265" s="83"/>
+      <c r="AZ265" s="81"/>
+      <c r="BA265" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="BB265" s="85"/>
-      <c r="BC265" s="85"/>
-      <c r="BD265" s="85"/>
-      <c r="BE265" s="85"/>
-      <c r="BF265" s="85"/>
-      <c r="BG265" s="85"/>
-      <c r="BH265" s="85"/>
-      <c r="BI265" s="85"/>
-      <c r="BJ265" s="85"/>
-      <c r="BK265" s="85"/>
-      <c r="BL265" s="85"/>
-      <c r="BM265" s="85"/>
-      <c r="BN265" s="85"/>
-      <c r="BO265" s="85"/>
-      <c r="BP265" s="85"/>
-      <c r="BQ265" s="85"/>
-      <c r="BR265" s="85"/>
-      <c r="BS265" s="85"/>
-      <c r="BT265" s="85"/>
-      <c r="BU265" s="85"/>
-      <c r="BV265" s="85"/>
-      <c r="BW265" s="93"/>
+      <c r="BB265" s="83"/>
+      <c r="BC265" s="83"/>
+      <c r="BD265" s="83"/>
+      <c r="BE265" s="83"/>
+      <c r="BF265" s="83"/>
+      <c r="BG265" s="83"/>
+      <c r="BH265" s="83"/>
+      <c r="BI265" s="83"/>
+      <c r="BJ265" s="83"/>
+      <c r="BK265" s="83"/>
+      <c r="BL265" s="83"/>
+      <c r="BM265" s="83"/>
+      <c r="BN265" s="83"/>
+      <c r="BO265" s="83"/>
+      <c r="BP265" s="83"/>
+      <c r="BQ265" s="83"/>
+      <c r="BR265" s="83"/>
+      <c r="BS265" s="83"/>
+      <c r="BT265" s="83"/>
+      <c r="BU265" s="83"/>
+      <c r="BV265" s="83"/>
+      <c r="BW265" s="97"/>
       <c r="BX265" s="4"/>
       <c r="BY265" s="4"/>
       <c r="BZ265" s="4"/>
@@ -26448,43 +26592,43 @@
       <c r="AJ266" s="4"/>
       <c r="AK266" s="4"/>
       <c r="AL266" s="55"/>
-      <c r="AM266" s="87"/>
-      <c r="AN266" s="94"/>
-      <c r="AO266" s="87"/>
-      <c r="AP266" s="87"/>
-      <c r="AQ266" s="87"/>
-      <c r="AR266" s="87"/>
-      <c r="AS266" s="87"/>
-      <c r="AT266" s="87"/>
-      <c r="AU266" s="88"/>
-      <c r="AV266" s="87"/>
-      <c r="AW266" s="87"/>
-      <c r="AX266" s="87"/>
-      <c r="AY266" s="87"/>
-      <c r="AZ266" s="88"/>
-      <c r="BA266" s="87"/>
-      <c r="BB266" s="87"/>
-      <c r="BC266" s="87"/>
-      <c r="BD266" s="87"/>
-      <c r="BE266" s="87"/>
-      <c r="BF266" s="87"/>
-      <c r="BG266" s="87"/>
-      <c r="BH266" s="87"/>
-      <c r="BI266" s="87"/>
-      <c r="BJ266" s="87"/>
-      <c r="BK266" s="87"/>
-      <c r="BL266" s="87"/>
-      <c r="BM266" s="87"/>
-      <c r="BN266" s="87"/>
-      <c r="BO266" s="87"/>
-      <c r="BP266" s="87"/>
-      <c r="BQ266" s="87"/>
-      <c r="BR266" s="87"/>
-      <c r="BS266" s="87"/>
-      <c r="BT266" s="87"/>
-      <c r="BU266" s="87"/>
-      <c r="BV266" s="87"/>
-      <c r="BW266" s="94"/>
+      <c r="AM266" s="92"/>
+      <c r="AN266" s="98"/>
+      <c r="AO266" s="92"/>
+      <c r="AP266" s="92"/>
+      <c r="AQ266" s="92"/>
+      <c r="AR266" s="92"/>
+      <c r="AS266" s="92"/>
+      <c r="AT266" s="92"/>
+      <c r="AU266" s="93"/>
+      <c r="AV266" s="92"/>
+      <c r="AW266" s="92"/>
+      <c r="AX266" s="92"/>
+      <c r="AY266" s="92"/>
+      <c r="AZ266" s="93"/>
+      <c r="BA266" s="92"/>
+      <c r="BB266" s="92"/>
+      <c r="BC266" s="92"/>
+      <c r="BD266" s="92"/>
+      <c r="BE266" s="92"/>
+      <c r="BF266" s="92"/>
+      <c r="BG266" s="92"/>
+      <c r="BH266" s="92"/>
+      <c r="BI266" s="92"/>
+      <c r="BJ266" s="92"/>
+      <c r="BK266" s="92"/>
+      <c r="BL266" s="92"/>
+      <c r="BM266" s="92"/>
+      <c r="BN266" s="92"/>
+      <c r="BO266" s="92"/>
+      <c r="BP266" s="92"/>
+      <c r="BQ266" s="92"/>
+      <c r="BR266" s="92"/>
+      <c r="BS266" s="92"/>
+      <c r="BT266" s="92"/>
+      <c r="BU266" s="92"/>
+      <c r="BV266" s="92"/>
+      <c r="BW266" s="98"/>
       <c r="BX266" s="4"/>
       <c r="BY266" s="4"/>
       <c r="BZ266" s="4"/>
@@ -26528,12 +26672,12 @@
       <c r="AJ267" s="4"/>
       <c r="AK267" s="4"/>
       <c r="AL267" s="55"/>
-      <c r="AM267" s="89" t="s">
+      <c r="AM267" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AN267" s="86"/>
+      <c r="AN267" s="81"/>
       <c r="AO267" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP267" s="33"/>
       <c r="AQ267" s="33"/>
@@ -26549,7 +26693,7 @@
       <c r="AY267" s="33"/>
       <c r="AZ267" s="46"/>
       <c r="BA267" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BB267" s="33"/>
       <c r="BC267" s="33"/>
@@ -26631,7 +26775,7 @@
       <c r="AY268" s="33"/>
       <c r="AZ268" s="46"/>
       <c r="BA268" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BB268" s="33"/>
       <c r="BC268" s="33"/>
@@ -26713,7 +26857,7 @@
       <c r="AY269" s="33"/>
       <c r="AZ269" s="46"/>
       <c r="BA269" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BB269" s="33"/>
       <c r="BC269" s="33"/>
@@ -26940,8 +27084,8 @@
       <c r="AJ272" s="4"/>
       <c r="AK272" s="4"/>
       <c r="AL272" s="55"/>
-      <c r="AM272" s="92"/>
-      <c r="AN272" s="85"/>
+      <c r="AM272" s="82"/>
+      <c r="AN272" s="83"/>
       <c r="AO272" s="68"/>
       <c r="AP272" s="33"/>
       <c r="AQ272" s="33"/>
@@ -30300,6 +30444,13 @@
     <mergeCell ref="AB35:AG36"/>
     <mergeCell ref="AB39:AG40"/>
     <mergeCell ref="AB37:AG38"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM9:AN9"/>
     <mergeCell ref="BP155:BX155"/>
     <mergeCell ref="F156:Y156"/>
     <mergeCell ref="AO159:AU160"/>
@@ -30358,16 +30509,20 @@
     <mergeCell ref="F103:Y103"/>
     <mergeCell ref="K35:T36"/>
     <mergeCell ref="A103:E103"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM24:AN24"/>
     <mergeCell ref="AW209:BA209"/>
     <mergeCell ref="BB209:BJ209"/>
     <mergeCell ref="AE50:AV50"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="Z29:AB29"/>
     <mergeCell ref="AM48:AN48"/>
     <mergeCell ref="C54:H55"/>
     <mergeCell ref="G61:N62"/>
+    <mergeCell ref="AM106:AN107"/>
+    <mergeCell ref="BP103:BX103"/>
+    <mergeCell ref="BP102:BX102"/>
+    <mergeCell ref="AM53:AN54"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AW50:BA50"/>
+    <mergeCell ref="BK49:BO49"/>
+    <mergeCell ref="AW49:BA49"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="AM265:AN266"/>
@@ -30392,17 +30547,6 @@
     <mergeCell ref="K37:T38"/>
     <mergeCell ref="AM34:AN34"/>
     <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM106:AN107"/>
-    <mergeCell ref="BP103:BX103"/>
-    <mergeCell ref="BP102:BX102"/>
-    <mergeCell ref="AM53:AN54"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AW50:BA50"/>
-    <mergeCell ref="BK49:BO49"/>
-    <mergeCell ref="AW49:BA49"/>
     <mergeCell ref="BB49:BJ49"/>
     <mergeCell ref="AM38:AN38"/>
     <mergeCell ref="AM44:AN44"/>
